--- a/backend/templates/168-16cp-kranti.xlsx
+++ b/backend/templates/168-16cp-kranti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAAEA94-E702-44F9-BAA6-48732BD9140D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB772D-EA80-483B-93CC-BC4932CC350C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,13 +250,6 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -290,6 +283,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -305,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1004,19 +1004,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1069,11 +1056,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1097,10 +1084,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1276,7 +1263,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1403,17 +1390,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1430,7 +1409,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,6 +1421,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1485,12 +1472,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1500,27 +1481,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1593,12 +1560,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1606,10 +1567,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1865,7 +1826,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1916,15 +1877,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1973,13 +1934,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2192,6 +2153,29 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2572,7 +2556,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J16" sqref="J16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2584,165 +2568,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="151" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="327" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="151"/>
+      <c r="O1" s="327"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="152" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="328" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="152"/>
+      <c r="O2" s="328"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="132"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="106" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="107"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" s="29" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="142" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="135"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="129"/>
       <c r="J4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="149" t="s">
+      <c r="K4" s="106"/>
+      <c r="L4" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="150"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="140"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="134"/>
     </row>
     <row r="5" spans="1:15" s="29" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="144"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="144" t="s">
+      <c r="B5" s="138"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="97" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="98"/>
-      <c r="L5" s="147" t="s">
+      <c r="K5" s="107"/>
+      <c r="L5" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="148"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="146"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="140"/>
     </row>
     <row r="6" spans="1:15" thickBot="1">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="322" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="161"/>
+      <c r="B6" s="323"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="323"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="325"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="323"/>
+      <c r="M6" s="323"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="326"/>
     </row>
     <row r="7" spans="1:15" s="67" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="122" t="s">
+      <c r="A7" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="126" t="s">
+      <c r="E7" s="119"/>
+      <c r="F7" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="129" t="s">
+      <c r="G7" s="122"/>
+      <c r="H7" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="130"/>
-      <c r="J7" s="123" t="s">
+      <c r="I7" s="124"/>
+      <c r="J7" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="125"/>
-      <c r="L7" s="122" t="s">
+      <c r="K7" s="121"/>
+      <c r="L7" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="122"/>
-      <c r="N7" s="104" t="s">
+      <c r="M7" s="119"/>
+      <c r="N7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="105" t="s">
+      <c r="O7" s="103" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3243,50 +3227,50 @@
       <c r="A37" s="90"/>
       <c r="B37" s="91"/>
       <c r="C37" s="91"/>
-      <c r="D37" s="162"/>
-      <c r="E37" s="162"/>
-      <c r="F37" s="163"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="162"/>
-      <c r="K37" s="162"/>
-      <c r="L37" s="166"/>
-      <c r="M37" s="166"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="158"/>
+      <c r="M37" s="158"/>
       <c r="N37" s="72"/>
       <c r="O37" s="73"/>
     </row>
     <row r="38" spans="1:15" s="74" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="173" t="s">
+      <c r="A38" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="174"/>
-      <c r="C38" s="174"/>
-      <c r="D38" s="167" t="e">
+      <c r="B38" s="166"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="159" t="e">
         <f>AVERAGE(D8:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="167"/>
-      <c r="F38" s="179" t="e">
+      <c r="E38" s="159"/>
+      <c r="F38" s="171" t="e">
         <f t="shared" ref="F38" si="0">AVERAGE(F8:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="179"/>
-      <c r="H38" s="182" t="e">
+      <c r="G38" s="171"/>
+      <c r="H38" s="174" t="e">
         <f t="shared" ref="H38" si="1">AVERAGE(H8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="182"/>
-      <c r="J38" s="167" t="e">
+      <c r="I38" s="174"/>
+      <c r="J38" s="159" t="e">
         <f t="shared" ref="J38" si="2">AVERAGE(J8:K37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="167"/>
-      <c r="L38" s="170" t="e">
+      <c r="K38" s="159"/>
+      <c r="L38" s="162" t="e">
         <f t="shared" ref="L38" si="3">AVERAGE(L8:M37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="170"/>
+      <c r="M38" s="162"/>
       <c r="N38" s="75" t="e">
         <f>AVERAGE(N8:N37)</f>
         <v>#DIV/0!</v>
@@ -3297,36 +3281,36 @@
       </c>
     </row>
     <row r="39" spans="1:15" s="74" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="175" t="s">
+      <c r="A39" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="176"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="168">
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="160">
         <f>MIN(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="168"/>
-      <c r="F39" s="180">
+      <c r="E39" s="160"/>
+      <c r="F39" s="172">
         <f t="shared" ref="F39" si="4">MIN(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="180"/>
-      <c r="H39" s="183">
+      <c r="G39" s="172"/>
+      <c r="H39" s="175">
         <f t="shared" ref="H39" si="5">MIN(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="183"/>
-      <c r="J39" s="168">
+      <c r="I39" s="175"/>
+      <c r="J39" s="160">
         <f t="shared" ref="J39" si="6">MIN(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="168"/>
-      <c r="L39" s="171">
+      <c r="K39" s="160"/>
+      <c r="L39" s="163">
         <f t="shared" ref="L39" si="7">MIN(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="171"/>
+      <c r="M39" s="163"/>
       <c r="N39" s="77">
         <f>MIN(N8:N37)</f>
         <v>0</v>
@@ -3337,36 +3321,36 @@
       </c>
     </row>
     <row r="40" spans="1:15" s="74" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="178"/>
-      <c r="C40" s="178"/>
-      <c r="D40" s="169">
+      <c r="B40" s="170"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="161">
         <f>MAX(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="169"/>
-      <c r="F40" s="181">
+      <c r="E40" s="161"/>
+      <c r="F40" s="173">
         <f t="shared" ref="F40" si="8">MAX(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="181"/>
-      <c r="H40" s="184">
+      <c r="G40" s="173"/>
+      <c r="H40" s="176">
         <f t="shared" ref="H40" si="9">MAX(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="184"/>
-      <c r="J40" s="169">
+      <c r="I40" s="176"/>
+      <c r="J40" s="161">
         <f t="shared" ref="J40" si="10">MAX(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="169"/>
-      <c r="L40" s="172">
+      <c r="K40" s="161"/>
+      <c r="L40" s="164">
         <f t="shared" ref="L40" si="11">MAX(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="172"/>
+      <c r="M40" s="164"/>
       <c r="N40" s="79">
         <f>MAX(N8:N37)</f>
         <v>0</v>
@@ -3380,32 +3364,32 @@
       <c r="A41" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="159" t="s">
+      <c r="B41" s="148"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="159"/>
+      <c r="E41" s="151"/>
       <c r="F41" s="81"/>
       <c r="G41" s="82"/>
       <c r="H41" s="82"/>
       <c r="I41" s="82"/>
       <c r="J41" s="82"/>
-      <c r="K41" s="153" t="s">
+      <c r="K41" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="153"/>
-      <c r="M41" s="155"/>
-      <c r="N41" s="155"/>
+      <c r="L41" s="145"/>
+      <c r="M41" s="147"/>
+      <c r="N41" s="147"/>
       <c r="O41" s="83" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="54" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A42" s="157" t="s">
+      <c r="A42" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="157"/>
+      <c r="B42" s="149"/>
       <c r="C42" s="86"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -3413,21 +3397,21 @@
       <c r="G42" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="157" t="s">
+      <c r="H42" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="157"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="157"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A43" s="158" t="s">
+      <c r="A43" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="158"/>
+      <c r="B43" s="150"/>
       <c r="C43" s="87"/>
       <c r="D43" s="82"/>
       <c r="E43" s="82"/>
@@ -3470,46 +3454,46 @@
       <c r="M51" s="85"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="154"/>
-      <c r="D75" s="154"/>
-      <c r="E75" s="154"/>
-      <c r="I75" s="154"/>
-      <c r="J75" s="154"/>
-      <c r="K75" s="154"/>
-      <c r="L75" s="154"/>
-      <c r="M75" s="154"/>
-      <c r="N75" s="154"/>
-      <c r="O75" s="154"/>
+      <c r="C75" s="146"/>
+      <c r="D75" s="146"/>
+      <c r="E75" s="146"/>
+      <c r="I75" s="146"/>
+      <c r="J75" s="146"/>
+      <c r="K75" s="146"/>
+      <c r="L75" s="146"/>
+      <c r="M75" s="146"/>
+      <c r="N75" s="146"/>
+      <c r="O75" s="146"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="154"/>
-      <c r="D76" s="154"/>
-      <c r="E76" s="154"/>
-      <c r="F76" s="154"/>
-      <c r="I76" s="154"/>
-      <c r="J76" s="154"/>
-      <c r="K76" s="154"/>
-      <c r="L76" s="154"/>
-      <c r="M76" s="154"/>
-      <c r="N76" s="154"/>
-      <c r="O76" s="154"/>
+      <c r="C76" s="146"/>
+      <c r="D76" s="146"/>
+      <c r="E76" s="146"/>
+      <c r="F76" s="146"/>
+      <c r="I76" s="146"/>
+      <c r="J76" s="146"/>
+      <c r="K76" s="146"/>
+      <c r="L76" s="146"/>
+      <c r="M76" s="146"/>
+      <c r="N76" s="146"/>
+      <c r="O76" s="146"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="154"/>
-      <c r="D77" s="154"/>
-      <c r="E77" s="154"/>
-      <c r="I77" s="154"/>
-      <c r="J77" s="154"/>
-      <c r="K77" s="154"/>
-      <c r="L77" s="154"/>
-      <c r="M77" s="154"/>
-      <c r="N77" s="154"/>
-      <c r="O77" s="154"/>
+      <c r="C77" s="146"/>
+      <c r="D77" s="146"/>
+      <c r="E77" s="146"/>
+      <c r="I77" s="146"/>
+      <c r="J77" s="146"/>
+      <c r="K77" s="146"/>
+      <c r="L77" s="146"/>
+      <c r="M77" s="146"/>
+      <c r="N77" s="146"/>
+      <c r="O77" s="146"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="154"/>
-      <c r="D78" s="154"/>
-      <c r="E78" s="154"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="146"/>
+      <c r="E78" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="214">
@@ -3728,7 +3712,7 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="H9:I9"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H6">
     <cfRule type="colorScale" priority="749">
       <colorScale>
@@ -3739,19 +3723,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:O7 A1:M3 N1:O2 A4:B5 F4:G5 J4:J5 L4:M5 N3 A41 A42:O43 O41 K41:L41 D41:E41 A6:C6 A38:M40" xr:uid="{B9EF1D55-A16F-4117-9DDB-4BCD7891BC4B}">
+  <dataValidations count="2">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:O7 A1:M3 N1:O2 A4:B5 F4:G5 J4:J5 L4:M5 N3 A41 A42:O43 O41 K41:L41 D41:E41 A6:C6 A38:O40" xr:uid="{B9EF1D55-A16F-4117-9DDB-4BCD7891BC4B}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" sqref="Q29" xr:uid="{21AD56C4-EF69-441B-AE58-CE11BA553153}"/>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N38:O40" xr:uid="{9A70F0C6-7C31-4805-B648-4F0F875B7C79}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="1.1811023622047245" right="0" top="0.59055118110236227" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.78740157480314965" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3763,7 +3743,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:G41"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3773,189 +3753,189 @@
     <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="17" customFormat="1" ht="15.75">
-      <c r="A1" s="194" t="s">
+    <row r="1" spans="1:15" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="151" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="327" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="151"/>
-    </row>
-    <row r="2" spans="1:15" s="17" customFormat="1" ht="15.75">
-      <c r="A2" s="195" t="s">
+      <c r="O1" s="327"/>
+    </row>
+    <row r="2" spans="1:15" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="152" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="328" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="152"/>
+      <c r="O2" s="328"/>
     </row>
     <row r="3" spans="1:15" s="17" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="195"/>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="106" t="s">
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="107"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="196">
+      <c r="B4" s="188">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="197"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="199" t="s">
+      <c r="C4" s="189"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="200"/>
-      <c r="G4" s="196">
+      <c r="F4" s="192"/>
+      <c r="G4" s="188">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="198"/>
-      <c r="I4" s="100" t="s">
+      <c r="H4" s="190"/>
+      <c r="I4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="201">
+      <c r="J4" s="193">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="201"/>
-      <c r="L4" s="203" t="s">
+      <c r="K4" s="193"/>
+      <c r="L4" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="203"/>
-      <c r="N4" s="196">
+      <c r="M4" s="195"/>
+      <c r="N4" s="188">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="202"/>
+      <c r="O4" s="194"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="192">
+      <c r="B5" s="184">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="241" t="s">
+      <c r="C5" s="232"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="242"/>
-      <c r="G5" s="192">
+      <c r="F5" s="234"/>
+      <c r="G5" s="184">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="193"/>
-      <c r="I5" s="102" t="s">
+      <c r="H5" s="185"/>
+      <c r="I5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="204">
+      <c r="J5" s="196">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="204"/>
-      <c r="L5" s="239" t="s">
+      <c r="K5" s="196"/>
+      <c r="L5" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="192">
+      <c r="M5" s="231"/>
+      <c r="N5" s="184">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="238"/>
+      <c r="O5" s="230"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="235" t="s">
+      <c r="A6" s="227" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="236"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="236"/>
-      <c r="I6" s="236"/>
-      <c r="J6" s="236"/>
-      <c r="K6" s="236"/>
-      <c r="L6" s="236"/>
-      <c r="M6" s="236"/>
-      <c r="N6" s="236"/>
-      <c r="O6" s="237"/>
+      <c r="B6" s="228"/>
+      <c r="C6" s="228"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="228"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="228"/>
+      <c r="L6" s="228"/>
+      <c r="M6" s="228"/>
+      <c r="N6" s="228"/>
+      <c r="O6" s="229"/>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="15">
-      <c r="A7" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="206"/>
-      <c r="C7" s="207"/>
-      <c r="D7" s="231" t="s">
+      <c r="A7" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="198"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="223" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="232" t="s">
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="233"/>
-      <c r="J7" s="233"/>
-      <c r="K7" s="234"/>
-      <c r="L7" s="243" t="s">
+      <c r="I7" s="225"/>
+      <c r="J7" s="225"/>
+      <c r="K7" s="226"/>
+      <c r="L7" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="244"/>
-      <c r="N7" s="244"/>
-      <c r="O7" s="245"/>
+      <c r="M7" s="236"/>
+      <c r="N7" s="236"/>
+      <c r="O7" s="237"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="208"/>
-      <c r="B8" s="209"/>
-      <c r="C8" s="210"/>
+      <c r="A8" s="200"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="202"/>
       <c r="D8" s="18">
         <v>1</v>
       </c>
@@ -5049,27 +5029,27 @@
       <c r="C39" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="185" t="e">
+      <c r="D39" s="177" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="186"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="187"/>
-      <c r="H39" s="188" t="e">
+      <c r="E39" s="178"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="180" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="189"/>
-      <c r="J39" s="189"/>
-      <c r="K39" s="190"/>
-      <c r="L39" s="188" t="e">
+      <c r="I39" s="181"/>
+      <c r="J39" s="181"/>
+      <c r="K39" s="182"/>
+      <c r="L39" s="180" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="189"/>
-      <c r="N39" s="189"/>
-      <c r="O39" s="191"/>
+      <c r="M39" s="181"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="183"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="24"/>
@@ -5077,27 +5057,27 @@
       <c r="C40" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="214" t="e">
+      <c r="D40" s="206" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="215"/>
-      <c r="F40" s="215"/>
-      <c r="G40" s="216"/>
-      <c r="H40" s="217" t="e">
+      <c r="E40" s="207"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="209" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="218"/>
-      <c r="J40" s="218"/>
-      <c r="K40" s="219"/>
-      <c r="L40" s="217" t="e">
+      <c r="I40" s="210"/>
+      <c r="J40" s="210"/>
+      <c r="K40" s="211"/>
+      <c r="L40" s="209" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="218"/>
-      <c r="N40" s="218"/>
-      <c r="O40" s="220"/>
+      <c r="M40" s="210"/>
+      <c r="N40" s="210"/>
+      <c r="O40" s="212"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="26"/>
@@ -5105,58 +5085,58 @@
       <c r="C41" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="221" t="e">
+      <c r="D41" s="213" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="222"/>
-      <c r="F41" s="222"/>
-      <c r="G41" s="223"/>
-      <c r="H41" s="224" t="e">
+      <c r="E41" s="214"/>
+      <c r="F41" s="214"/>
+      <c r="G41" s="215"/>
+      <c r="H41" s="216" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="225"/>
-      <c r="J41" s="225"/>
-      <c r="K41" s="226"/>
-      <c r="L41" s="224" t="e">
+      <c r="I41" s="217"/>
+      <c r="J41" s="217"/>
+      <c r="K41" s="218"/>
+      <c r="L41" s="216" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="225"/>
-      <c r="N41" s="225"/>
-      <c r="O41" s="227"/>
+      <c r="M41" s="217"/>
+      <c r="N41" s="217"/>
+      <c r="O41" s="219"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="229"/>
-      <c r="C42" s="229"/>
-      <c r="D42" s="230" t="s">
+      <c r="B42" s="221"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="230"/>
-      <c r="F42" s="230"/>
-      <c r="G42" s="230"/>
+      <c r="E42" s="222"/>
+      <c r="F42" s="222"/>
+      <c r="G42" s="222"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
-      <c r="K42" s="212" t="s">
+      <c r="K42" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="212"/>
-      <c r="M42" s="230"/>
-      <c r="N42" s="230"/>
+      <c r="L42" s="204"/>
+      <c r="M42" s="222"/>
+      <c r="N42" s="222"/>
       <c r="O42" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A43" s="211" t="s">
+      <c r="A43" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="211"/>
+      <c r="B43" s="203"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="1"/>
@@ -5165,23 +5145,23 @@
         <f>Page1!G42</f>
         <v>Reference:</v>
       </c>
-      <c r="H43" s="228" t="str">
+      <c r="H43" s="220" t="str">
         <f>Page1!H42</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I43" s="228"/>
-      <c r="J43" s="228"/>
-      <c r="K43" s="228"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="220"/>
+      <c r="K43" s="220"/>
       <c r="L43" s="1"/>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
       <c r="O43" s="29"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="211" t="s">
+      <c r="A44" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="211"/>
+      <c r="B44" s="203"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -5193,10 +5173,10 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="213" t="s">
+      <c r="N44" s="205" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="213"/>
+      <c r="O44" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -5257,7 +5237,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 A4:A5 E4:F5 I4:I5 L4:M5 A6:C6 A7:C8 D7:O8 N3 N1:O2 A9:C38 G9:G38 K9:K37 O9:O38 B39:O41 A42 A43:O44 D42:G42 K42:L42 O42" xr:uid="{79A37009-73BA-4BD0-957E-E0ABFFA9F858}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 A4:A5 E4:F5 I4:I5 L4:M5 D7:O8 N3 O42 A6:C38 G9:G38 K9:K37 O9:O38 B39:O41 A42 A43:O44 D42:G42 K42:L42 N1:O2" xr:uid="{79A37009-73BA-4BD0-957E-E0ABFFA9F858}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5286,188 +5266,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="151" t="s">
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="327" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="151"/>
+      <c r="O1" s="327"/>
     </row>
     <row r="2" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="247"/>
-      <c r="M2" s="247"/>
-      <c r="N2" s="152" t="s">
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="328" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="152"/>
+      <c r="O2" s="328"/>
     </row>
     <row r="3" spans="1:15" s="42" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="247"/>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="106" t="s">
+      <c r="A3" s="239"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="107"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="196">
+      <c r="B4" s="188">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="197"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="199" t="s">
+      <c r="C4" s="189"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="200"/>
-      <c r="G4" s="196">
+      <c r="F4" s="192"/>
+      <c r="G4" s="188">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="198"/>
-      <c r="I4" s="100" t="s">
+      <c r="H4" s="190"/>
+      <c r="I4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="201">
+      <c r="J4" s="193">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="201"/>
-      <c r="L4" s="203" t="s">
+      <c r="K4" s="193"/>
+      <c r="L4" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="203"/>
-      <c r="N4" s="196">
+      <c r="M4" s="195"/>
+      <c r="N4" s="188">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="202"/>
+      <c r="O4" s="194"/>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="192">
+      <c r="B5" s="184">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="241" t="s">
+      <c r="C5" s="232"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="242"/>
-      <c r="G5" s="192">
+      <c r="F5" s="234"/>
+      <c r="G5" s="184">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="193"/>
-      <c r="I5" s="102" t="s">
+      <c r="H5" s="185"/>
+      <c r="I5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="204">
+      <c r="J5" s="196">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="204"/>
-      <c r="L5" s="239" t="s">
+      <c r="K5" s="196"/>
+      <c r="L5" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="192">
+      <c r="M5" s="231"/>
+      <c r="N5" s="184">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="238"/>
+      <c r="O5" s="230"/>
     </row>
     <row r="6" spans="1:15" s="43" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="248" t="s">
+      <c r="A6" s="240" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="249"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="249"/>
-      <c r="K6" s="249"/>
-      <c r="L6" s="249"/>
-      <c r="M6" s="249"/>
-      <c r="N6" s="249"/>
-      <c r="O6" s="250"/>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="242"/>
     </row>
     <row r="7" spans="1:15" s="43" customFormat="1" ht="15">
-      <c r="A7" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="252"/>
-      <c r="C7" s="253"/>
-      <c r="D7" s="257" t="s">
+      <c r="A7" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="244"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="249" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="257"/>
-      <c r="F7" s="257"/>
-      <c r="G7" s="257"/>
-      <c r="H7" s="258" t="s">
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="259"/>
-      <c r="J7" s="259"/>
-      <c r="K7" s="260"/>
-      <c r="L7" s="261" t="s">
+      <c r="I7" s="251"/>
+      <c r="J7" s="251"/>
+      <c r="K7" s="252"/>
+      <c r="L7" s="253" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="262"/>
-      <c r="N7" s="262"/>
-      <c r="O7" s="263"/>
+      <c r="M7" s="254"/>
+      <c r="N7" s="254"/>
+      <c r="O7" s="255"/>
     </row>
     <row r="8" spans="1:15" s="43" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="254"/>
-      <c r="B8" s="255"/>
-      <c r="C8" s="256"/>
+      <c r="A8" s="246"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="248"/>
       <c r="D8" s="44">
         <v>1</v>
       </c>
@@ -6561,27 +6541,27 @@
       <c r="C39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="271" t="e">
+      <c r="D39" s="263" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="272"/>
-      <c r="F39" s="272"/>
-      <c r="G39" s="273"/>
-      <c r="H39" s="274" t="e">
+      <c r="E39" s="264"/>
+      <c r="F39" s="264"/>
+      <c r="G39" s="265"/>
+      <c r="H39" s="266" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="275"/>
-      <c r="J39" s="275"/>
-      <c r="K39" s="276"/>
-      <c r="L39" s="274" t="e">
+      <c r="I39" s="267"/>
+      <c r="J39" s="267"/>
+      <c r="K39" s="268"/>
+      <c r="L39" s="266" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="275"/>
-      <c r="N39" s="275"/>
-      <c r="O39" s="277"/>
+      <c r="M39" s="267"/>
+      <c r="N39" s="267"/>
+      <c r="O39" s="269"/>
     </row>
     <row r="40" spans="1:15" s="54" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="55"/>
@@ -6589,27 +6569,27 @@
       <c r="C40" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="278" t="e">
+      <c r="D40" s="270" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="279"/>
-      <c r="F40" s="279"/>
-      <c r="G40" s="280"/>
-      <c r="H40" s="281" t="e">
+      <c r="E40" s="271"/>
+      <c r="F40" s="271"/>
+      <c r="G40" s="272"/>
+      <c r="H40" s="273" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="282"/>
-      <c r="J40" s="282"/>
-      <c r="K40" s="283"/>
-      <c r="L40" s="281" t="e">
+      <c r="I40" s="274"/>
+      <c r="J40" s="274"/>
+      <c r="K40" s="275"/>
+      <c r="L40" s="273" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="282"/>
-      <c r="N40" s="282"/>
-      <c r="O40" s="284"/>
+      <c r="M40" s="274"/>
+      <c r="N40" s="274"/>
+      <c r="O40" s="276"/>
     </row>
     <row r="41" spans="1:15" s="54" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="57"/>
@@ -6617,58 +6597,58 @@
       <c r="C41" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="264" t="e">
+      <c r="D41" s="256" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="265"/>
-      <c r="F41" s="265"/>
-      <c r="G41" s="266"/>
-      <c r="H41" s="267" t="e">
+      <c r="E41" s="257"/>
+      <c r="F41" s="257"/>
+      <c r="G41" s="258"/>
+      <c r="H41" s="259" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="268"/>
-      <c r="J41" s="268"/>
-      <c r="K41" s="269"/>
-      <c r="L41" s="267" t="e">
+      <c r="I41" s="260"/>
+      <c r="J41" s="260"/>
+      <c r="K41" s="261"/>
+      <c r="L41" s="259" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="268"/>
-      <c r="N41" s="268"/>
-      <c r="O41" s="270"/>
+      <c r="M41" s="260"/>
+      <c r="N41" s="260"/>
+      <c r="O41" s="262"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="229"/>
-      <c r="C42" s="229"/>
-      <c r="D42" s="230" t="s">
+      <c r="B42" s="221"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="230"/>
-      <c r="F42" s="230"/>
-      <c r="G42" s="230"/>
+      <c r="E42" s="222"/>
+      <c r="F42" s="222"/>
+      <c r="G42" s="222"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
-      <c r="K42" s="212" t="s">
+      <c r="K42" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="212"/>
-      <c r="M42" s="230"/>
-      <c r="N42" s="230"/>
+      <c r="L42" s="204"/>
+      <c r="M42" s="222"/>
+      <c r="N42" s="222"/>
       <c r="O42" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="211" t="s">
+      <c r="A43" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="211"/>
+      <c r="B43" s="203"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="1"/>
@@ -6677,12 +6657,12 @@
         <f>Page1!G42</f>
         <v>Reference:</v>
       </c>
-      <c r="H43" s="228" t="str">
+      <c r="H43" s="220" t="str">
         <f>Page1!H42</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I43" s="228"/>
-      <c r="J43" s="228"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="220"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="29"/>
@@ -6690,10 +6670,10 @@
       <c r="O43" s="29"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="211" t="s">
+      <c r="A44" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="211"/>
+      <c r="B44" s="203"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -6705,10 +6685,10 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="213" t="s">
+      <c r="N44" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="O44" s="213"/>
+      <c r="O44" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -6769,7 +6749,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 N1:O2 N3 A4:A5 E4:F5 I4:I5 L4:M5 A6:C6 A7:C8 D7:O8 A9:C38 G9:G38 K9:K38 O9:O38 A39:O41 A42 A43:O44 D42:G42 K42:L42 O42" xr:uid="{A24E62CC-CB0E-454E-88E1-8FD1FE40E2CF}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 O42 N3 A4:A5 E4:F5 I4:I5 L4:M5 D7:O8 A6:C38 G9:G38 K9:K38 O9:O38 A39:O41 A42 A43:O44 D42:G42 K42:L42 N1:O2" xr:uid="{A24E62CC-CB0E-454E-88E1-8FD1FE40E2CF}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6798,175 +6778,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="151" t="s">
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="327" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="151"/>
+      <c r="O1" s="327"/>
     </row>
     <row r="2" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="247"/>
-      <c r="M2" s="247"/>
-      <c r="N2" s="152" t="s">
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="328" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="152"/>
+      <c r="O2" s="328"/>
     </row>
     <row r="3" spans="1:15" s="42" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="247"/>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="106" t="s">
+      <c r="A3" s="239"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="107"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="292">
+      <c r="B4" s="284">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="293"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="295" t="s">
+      <c r="C4" s="285"/>
+      <c r="D4" s="286"/>
+      <c r="E4" s="287" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="296"/>
-      <c r="G4" s="292">
+      <c r="F4" s="288"/>
+      <c r="G4" s="284">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="286"/>
       <c r="I4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="297">
+      <c r="J4" s="289">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="297"/>
-      <c r="L4" s="298" t="s">
+      <c r="K4" s="289"/>
+      <c r="L4" s="290" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="298"/>
-      <c r="N4" s="299">
+      <c r="M4" s="290"/>
+      <c r="N4" s="291">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="300"/>
+      <c r="O4" s="292"/>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="301">
+      <c r="B5" s="293">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="302"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="304" t="s">
+      <c r="C5" s="294"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="296" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="305"/>
-      <c r="G5" s="301">
+      <c r="F5" s="297"/>
+      <c r="G5" s="293">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="303"/>
+      <c r="H5" s="295"/>
       <c r="I5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="306">
+      <c r="J5" s="298">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="306"/>
-      <c r="L5" s="307" t="s">
+      <c r="K5" s="298"/>
+      <c r="L5" s="299" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="307"/>
-      <c r="N5" s="308">
+      <c r="M5" s="299"/>
+      <c r="N5" s="300">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="309"/>
+      <c r="O5" s="301"/>
     </row>
     <row r="6" spans="1:15" s="43" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="285" t="s">
+      <c r="A6" s="277" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="288"/>
-      <c r="H6" s="289"/>
-      <c r="I6" s="287"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="287"/>
-      <c r="L6" s="287"/>
-      <c r="M6" s="287"/>
-      <c r="N6" s="287"/>
-      <c r="O6" s="288"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="281"/>
+      <c r="I6" s="279"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="279"/>
+      <c r="L6" s="279"/>
+      <c r="M6" s="279"/>
+      <c r="N6" s="279"/>
+      <c r="O6" s="280"/>
     </row>
     <row r="7" spans="1:15" s="54" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="310" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="312" t="s">
+      <c r="A7" s="302" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="303"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="304" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="313" t="s">
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="304"/>
+      <c r="H7" s="305" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="314"/>
+      <c r="I7" s="306"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -6975,9 +6955,9 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" s="54" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A8" s="248"/>
-      <c r="B8" s="249"/>
-      <c r="C8" s="249"/>
+      <c r="A8" s="240"/>
+      <c r="B8" s="241"/>
+      <c r="C8" s="241"/>
       <c r="D8" s="7">
         <v>1</v>
       </c>
@@ -6990,8 +6970,8 @@
       <c r="G8" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="208"/>
-      <c r="I8" s="315"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="307"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -7012,17 +6992,17 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="103"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="61"/>
       <c r="F9" s="61"/>
       <c r="G9" s="62" t="e">
         <f t="shared" ref="G9:G38" si="0">AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="316">
-        <v>0</v>
-      </c>
-      <c r="I9" s="317"/>
+      <c r="H9" s="308">
+        <v>0</v>
+      </c>
+      <c r="I9" s="309"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -7050,10 +7030,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="290">
-        <v>0</v>
-      </c>
-      <c r="I10" s="291"/>
+      <c r="H10" s="282">
+        <v>0</v>
+      </c>
+      <c r="I10" s="283"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -7081,10 +7061,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="290">
-        <v>0</v>
-      </c>
-      <c r="I11" s="291"/>
+      <c r="H11" s="282">
+        <v>0</v>
+      </c>
+      <c r="I11" s="283"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -7112,10 +7092,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="290">
-        <v>0</v>
-      </c>
-      <c r="I12" s="291"/>
+      <c r="H12" s="282">
+        <v>0</v>
+      </c>
+      <c r="I12" s="283"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -7143,10 +7123,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="290">
-        <v>0</v>
-      </c>
-      <c r="I13" s="291"/>
+      <c r="H13" s="282">
+        <v>0</v>
+      </c>
+      <c r="I13" s="283"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -7174,10 +7154,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="290">
-        <v>0</v>
-      </c>
-      <c r="I14" s="291"/>
+      <c r="H14" s="282">
+        <v>0</v>
+      </c>
+      <c r="I14" s="283"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -7205,10 +7185,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="290">
-        <v>0</v>
-      </c>
-      <c r="I15" s="291"/>
+      <c r="H15" s="282">
+        <v>0</v>
+      </c>
+      <c r="I15" s="283"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -7236,10 +7216,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="290">
-        <v>0</v>
-      </c>
-      <c r="I16" s="291"/>
+      <c r="H16" s="282">
+        <v>0</v>
+      </c>
+      <c r="I16" s="283"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -7267,10 +7247,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="290">
-        <v>0</v>
-      </c>
-      <c r="I17" s="291"/>
+      <c r="H17" s="282">
+        <v>0</v>
+      </c>
+      <c r="I17" s="283"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -7298,10 +7278,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="290">
-        <v>0</v>
-      </c>
-      <c r="I18" s="291"/>
+      <c r="H18" s="282">
+        <v>0</v>
+      </c>
+      <c r="I18" s="283"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -7329,10 +7309,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="290">
-        <v>0</v>
-      </c>
-      <c r="I19" s="291"/>
+      <c r="H19" s="282">
+        <v>0</v>
+      </c>
+      <c r="I19" s="283"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -7360,10 +7340,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="290">
-        <v>0</v>
-      </c>
-      <c r="I20" s="291"/>
+      <c r="H20" s="282">
+        <v>0</v>
+      </c>
+      <c r="I20" s="283"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -7391,10 +7371,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="290">
-        <v>0</v>
-      </c>
-      <c r="I21" s="291"/>
+      <c r="H21" s="282">
+        <v>0</v>
+      </c>
+      <c r="I21" s="283"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -7422,10 +7402,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="290">
-        <v>0</v>
-      </c>
-      <c r="I22" s="291"/>
+      <c r="H22" s="282">
+        <v>0</v>
+      </c>
+      <c r="I22" s="283"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -7453,10 +7433,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="290">
-        <v>0</v>
-      </c>
-      <c r="I23" s="291"/>
+      <c r="H23" s="282">
+        <v>0</v>
+      </c>
+      <c r="I23" s="283"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -7484,10 +7464,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="290">
-        <v>0</v>
-      </c>
-      <c r="I24" s="291"/>
+      <c r="H24" s="282">
+        <v>0</v>
+      </c>
+      <c r="I24" s="283"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -7515,10 +7495,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="290">
-        <v>0</v>
-      </c>
-      <c r="I25" s="291"/>
+      <c r="H25" s="282">
+        <v>0</v>
+      </c>
+      <c r="I25" s="283"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -7546,10 +7526,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="290">
-        <v>0</v>
-      </c>
-      <c r="I26" s="291"/>
+      <c r="H26" s="282">
+        <v>0</v>
+      </c>
+      <c r="I26" s="283"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -7577,10 +7557,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="290">
-        <v>0</v>
-      </c>
-      <c r="I27" s="291"/>
+      <c r="H27" s="282">
+        <v>0</v>
+      </c>
+      <c r="I27" s="283"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -7608,10 +7588,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="290">
-        <v>0</v>
-      </c>
-      <c r="I28" s="291"/>
+      <c r="H28" s="282">
+        <v>0</v>
+      </c>
+      <c r="I28" s="283"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -7639,10 +7619,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="290">
-        <v>0</v>
-      </c>
-      <c r="I29" s="291"/>
+      <c r="H29" s="282">
+        <v>0</v>
+      </c>
+      <c r="I29" s="283"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -7670,10 +7650,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="290">
-        <v>0</v>
-      </c>
-      <c r="I30" s="291"/>
+      <c r="H30" s="282">
+        <v>0</v>
+      </c>
+      <c r="I30" s="283"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -7701,10 +7681,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="290">
-        <v>0</v>
-      </c>
-      <c r="I31" s="291"/>
+      <c r="H31" s="282">
+        <v>0</v>
+      </c>
+      <c r="I31" s="283"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -7732,10 +7712,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="290">
-        <v>0</v>
-      </c>
-      <c r="I32" s="291"/>
+      <c r="H32" s="282">
+        <v>0</v>
+      </c>
+      <c r="I32" s="283"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -7763,10 +7743,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="290">
-        <v>0</v>
-      </c>
-      <c r="I33" s="291"/>
+      <c r="H33" s="282">
+        <v>0</v>
+      </c>
+      <c r="I33" s="283"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -7794,10 +7774,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="290">
-        <v>0</v>
-      </c>
-      <c r="I34" s="291"/>
+      <c r="H34" s="282">
+        <v>0</v>
+      </c>
+      <c r="I34" s="283"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -7825,10 +7805,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="290">
-        <v>0</v>
-      </c>
-      <c r="I35" s="291"/>
+      <c r="H35" s="282">
+        <v>0</v>
+      </c>
+      <c r="I35" s="283"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -7856,10 +7836,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="290">
-        <v>0</v>
-      </c>
-      <c r="I36" s="291"/>
+      <c r="H36" s="282">
+        <v>0</v>
+      </c>
+      <c r="I36" s="283"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -7887,10 +7867,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="290">
-        <v>0</v>
-      </c>
-      <c r="I37" s="291"/>
+      <c r="H37" s="282">
+        <v>0</v>
+      </c>
+      <c r="I37" s="283"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -7918,10 +7898,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="318">
-        <v>0</v>
-      </c>
-      <c r="I38" s="319"/>
+      <c r="H38" s="310">
+        <v>0</v>
+      </c>
+      <c r="I38" s="311"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -7935,18 +7915,18 @@
       <c r="C39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="274" t="e">
+      <c r="D39" s="266" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="275"/>
-      <c r="F39" s="275"/>
-      <c r="G39" s="277"/>
-      <c r="H39" s="320">
+      <c r="E39" s="267"/>
+      <c r="F39" s="267"/>
+      <c r="G39" s="269"/>
+      <c r="H39" s="312">
         <f>AVERAGE(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="321"/>
+      <c r="I39" s="313"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -7960,18 +7940,18 @@
       <c r="C40" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="281" t="e">
+      <c r="D40" s="273" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="282"/>
-      <c r="F40" s="282"/>
-      <c r="G40" s="284"/>
-      <c r="H40" s="322">
+      <c r="E40" s="274"/>
+      <c r="F40" s="274"/>
+      <c r="G40" s="276"/>
+      <c r="H40" s="314">
         <f>MIN(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="323"/>
+      <c r="I40" s="315"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -7985,18 +7965,18 @@
       <c r="C41" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="325" t="e">
+      <c r="D41" s="317" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="326"/>
-      <c r="F41" s="326"/>
-      <c r="G41" s="327"/>
-      <c r="H41" s="328">
+      <c r="E41" s="318"/>
+      <c r="F41" s="318"/>
+      <c r="G41" s="319"/>
+      <c r="H41" s="320">
         <f>MAX(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="329"/>
+      <c r="I41" s="321"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
@@ -8008,32 +7988,32 @@
       <c r="A42" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="229"/>
-      <c r="C42" s="229"/>
-      <c r="D42" s="230" t="s">
+      <c r="B42" s="221"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="230"/>
-      <c r="F42" s="230"/>
-      <c r="G42" s="230"/>
+      <c r="E42" s="222"/>
+      <c r="F42" s="222"/>
+      <c r="G42" s="222"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
-      <c r="K42" s="212" t="s">
+      <c r="K42" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="212"/>
-      <c r="M42" s="230"/>
-      <c r="N42" s="230"/>
+      <c r="L42" s="204"/>
+      <c r="M42" s="222"/>
+      <c r="N42" s="222"/>
       <c r="O42" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="211" t="s">
+      <c r="A43" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="211"/>
+      <c r="B43" s="203"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="1"/>
@@ -8042,12 +8022,12 @@
         <f>Page1!G42</f>
         <v>Reference:</v>
       </c>
-      <c r="H43" s="228" t="str">
+      <c r="H43" s="220" t="str">
         <f>Page1!H42</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I43" s="228"/>
-      <c r="J43" s="228"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="220"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="29"/>
@@ -8055,10 +8035,10 @@
       <c r="O43" s="29"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="211" t="s">
+      <c r="A44" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="211"/>
+      <c r="B44" s="203"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -8070,222 +8050,222 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="213" t="s">
+      <c r="N44" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="O44" s="213"/>
+      <c r="O44" s="205"/>
     </row>
     <row r="45" spans="1:15" s="54" customFormat="1"/>
     <row r="46" spans="1:15" s="54" customFormat="1"/>
     <row r="56" spans="4:15">
-      <c r="D56" s="324"/>
-      <c r="E56" s="324"/>
-      <c r="F56" s="324"/>
-      <c r="G56" s="324"/>
-      <c r="H56" s="324"/>
-      <c r="I56" s="324"/>
-      <c r="J56" s="324"/>
-      <c r="K56" s="324"/>
-      <c r="L56" s="324"/>
-      <c r="M56" s="324"/>
-      <c r="N56" s="324"/>
-      <c r="O56" s="324"/>
+      <c r="D56" s="316"/>
+      <c r="E56" s="316"/>
+      <c r="F56" s="316"/>
+      <c r="G56" s="316"/>
+      <c r="H56" s="316"/>
+      <c r="I56" s="316"/>
+      <c r="J56" s="316"/>
+      <c r="K56" s="316"/>
+      <c r="L56" s="316"/>
+      <c r="M56" s="316"/>
+      <c r="N56" s="316"/>
+      <c r="O56" s="316"/>
     </row>
     <row r="57" spans="4:15">
-      <c r="D57" s="324"/>
-      <c r="E57" s="324"/>
-      <c r="F57" s="324"/>
-      <c r="G57" s="324"/>
-      <c r="H57" s="324"/>
-      <c r="I57" s="324"/>
-      <c r="J57" s="324"/>
-      <c r="K57" s="324"/>
-      <c r="L57" s="324"/>
-      <c r="M57" s="324"/>
-      <c r="N57" s="324"/>
-      <c r="O57" s="324"/>
+      <c r="D57" s="316"/>
+      <c r="E57" s="316"/>
+      <c r="F57" s="316"/>
+      <c r="G57" s="316"/>
+      <c r="H57" s="316"/>
+      <c r="I57" s="316"/>
+      <c r="J57" s="316"/>
+      <c r="K57" s="316"/>
+      <c r="L57" s="316"/>
+      <c r="M57" s="316"/>
+      <c r="N57" s="316"/>
+      <c r="O57" s="316"/>
     </row>
     <row r="58" spans="4:15">
-      <c r="D58" s="324"/>
-      <c r="E58" s="324"/>
-      <c r="F58" s="324"/>
-      <c r="G58" s="324"/>
-      <c r="H58" s="324"/>
-      <c r="I58" s="324"/>
-      <c r="J58" s="324"/>
-      <c r="K58" s="324"/>
-      <c r="L58" s="324"/>
-      <c r="M58" s="324"/>
-      <c r="N58" s="324"/>
-      <c r="O58" s="324"/>
+      <c r="D58" s="316"/>
+      <c r="E58" s="316"/>
+      <c r="F58" s="316"/>
+      <c r="G58" s="316"/>
+      <c r="H58" s="316"/>
+      <c r="I58" s="316"/>
+      <c r="J58" s="316"/>
+      <c r="K58" s="316"/>
+      <c r="L58" s="316"/>
+      <c r="M58" s="316"/>
+      <c r="N58" s="316"/>
+      <c r="O58" s="316"/>
     </row>
     <row r="59" spans="4:15">
-      <c r="D59" s="324"/>
-      <c r="E59" s="324"/>
-      <c r="F59" s="324"/>
-      <c r="G59" s="324"/>
-      <c r="H59" s="324"/>
-      <c r="I59" s="324"/>
-      <c r="J59" s="324"/>
-      <c r="K59" s="324"/>
-      <c r="L59" s="324"/>
-      <c r="M59" s="324"/>
-      <c r="N59" s="324"/>
-      <c r="O59" s="324"/>
+      <c r="D59" s="316"/>
+      <c r="E59" s="316"/>
+      <c r="F59" s="316"/>
+      <c r="G59" s="316"/>
+      <c r="H59" s="316"/>
+      <c r="I59" s="316"/>
+      <c r="J59" s="316"/>
+      <c r="K59" s="316"/>
+      <c r="L59" s="316"/>
+      <c r="M59" s="316"/>
+      <c r="N59" s="316"/>
+      <c r="O59" s="316"/>
     </row>
     <row r="60" spans="4:15">
-      <c r="D60" s="324"/>
-      <c r="E60" s="324"/>
-      <c r="F60" s="324"/>
-      <c r="G60" s="324"/>
-      <c r="H60" s="324"/>
-      <c r="I60" s="324"/>
-      <c r="J60" s="324"/>
-      <c r="K60" s="324"/>
-      <c r="L60" s="324"/>
-      <c r="M60" s="324"/>
-      <c r="N60" s="324"/>
-      <c r="O60" s="324"/>
+      <c r="D60" s="316"/>
+      <c r="E60" s="316"/>
+      <c r="F60" s="316"/>
+      <c r="G60" s="316"/>
+      <c r="H60" s="316"/>
+      <c r="I60" s="316"/>
+      <c r="J60" s="316"/>
+      <c r="K60" s="316"/>
+      <c r="L60" s="316"/>
+      <c r="M60" s="316"/>
+      <c r="N60" s="316"/>
+      <c r="O60" s="316"/>
     </row>
     <row r="61" spans="4:15">
-      <c r="D61" s="324"/>
-      <c r="E61" s="324"/>
-      <c r="F61" s="324"/>
-      <c r="G61" s="324"/>
-      <c r="H61" s="324"/>
-      <c r="I61" s="324"/>
-      <c r="J61" s="324"/>
-      <c r="K61" s="324"/>
-      <c r="L61" s="324"/>
-      <c r="M61" s="324"/>
-      <c r="N61" s="324"/>
-      <c r="O61" s="324"/>
+      <c r="D61" s="316"/>
+      <c r="E61" s="316"/>
+      <c r="F61" s="316"/>
+      <c r="G61" s="316"/>
+      <c r="H61" s="316"/>
+      <c r="I61" s="316"/>
+      <c r="J61" s="316"/>
+      <c r="K61" s="316"/>
+      <c r="L61" s="316"/>
+      <c r="M61" s="316"/>
+      <c r="N61" s="316"/>
+      <c r="O61" s="316"/>
     </row>
     <row r="62" spans="4:15">
-      <c r="D62" s="324"/>
-      <c r="E62" s="324"/>
-      <c r="F62" s="324"/>
-      <c r="G62" s="324"/>
-      <c r="H62" s="324"/>
-      <c r="I62" s="324"/>
-      <c r="J62" s="324"/>
-      <c r="K62" s="324"/>
-      <c r="L62" s="324"/>
-      <c r="M62" s="324"/>
-      <c r="N62" s="324"/>
-      <c r="O62" s="324"/>
+      <c r="D62" s="316"/>
+      <c r="E62" s="316"/>
+      <c r="F62" s="316"/>
+      <c r="G62" s="316"/>
+      <c r="H62" s="316"/>
+      <c r="I62" s="316"/>
+      <c r="J62" s="316"/>
+      <c r="K62" s="316"/>
+      <c r="L62" s="316"/>
+      <c r="M62" s="316"/>
+      <c r="N62" s="316"/>
+      <c r="O62" s="316"/>
     </row>
     <row r="63" spans="4:15">
-      <c r="D63" s="324"/>
-      <c r="E63" s="324"/>
-      <c r="F63" s="324"/>
-      <c r="G63" s="324"/>
-      <c r="H63" s="324"/>
-      <c r="I63" s="324"/>
-      <c r="J63" s="324"/>
-      <c r="K63" s="324"/>
-      <c r="L63" s="324"/>
-      <c r="M63" s="324"/>
-      <c r="N63" s="324"/>
-      <c r="O63" s="324"/>
+      <c r="D63" s="316"/>
+      <c r="E63" s="316"/>
+      <c r="F63" s="316"/>
+      <c r="G63" s="316"/>
+      <c r="H63" s="316"/>
+      <c r="I63" s="316"/>
+      <c r="J63" s="316"/>
+      <c r="K63" s="316"/>
+      <c r="L63" s="316"/>
+      <c r="M63" s="316"/>
+      <c r="N63" s="316"/>
+      <c r="O63" s="316"/>
     </row>
     <row r="64" spans="4:15">
-      <c r="D64" s="324"/>
-      <c r="E64" s="324"/>
-      <c r="F64" s="324"/>
-      <c r="G64" s="324"/>
-      <c r="H64" s="324"/>
-      <c r="I64" s="324"/>
-      <c r="J64" s="324"/>
-      <c r="K64" s="324"/>
-      <c r="L64" s="324"/>
-      <c r="M64" s="324"/>
-      <c r="N64" s="324"/>
-      <c r="O64" s="324"/>
+      <c r="D64" s="316"/>
+      <c r="E64" s="316"/>
+      <c r="F64" s="316"/>
+      <c r="G64" s="316"/>
+      <c r="H64" s="316"/>
+      <c r="I64" s="316"/>
+      <c r="J64" s="316"/>
+      <c r="K64" s="316"/>
+      <c r="L64" s="316"/>
+      <c r="M64" s="316"/>
+      <c r="N64" s="316"/>
+      <c r="O64" s="316"/>
     </row>
     <row r="65" spans="4:15">
-      <c r="D65" s="324"/>
-      <c r="E65" s="324"/>
-      <c r="F65" s="324"/>
-      <c r="G65" s="324"/>
-      <c r="H65" s="324"/>
-      <c r="I65" s="324"/>
-      <c r="J65" s="324"/>
-      <c r="K65" s="324"/>
-      <c r="L65" s="324"/>
-      <c r="M65" s="324"/>
-      <c r="N65" s="324"/>
-      <c r="O65" s="324"/>
+      <c r="D65" s="316"/>
+      <c r="E65" s="316"/>
+      <c r="F65" s="316"/>
+      <c r="G65" s="316"/>
+      <c r="H65" s="316"/>
+      <c r="I65" s="316"/>
+      <c r="J65" s="316"/>
+      <c r="K65" s="316"/>
+      <c r="L65" s="316"/>
+      <c r="M65" s="316"/>
+      <c r="N65" s="316"/>
+      <c r="O65" s="316"/>
     </row>
     <row r="66" spans="4:15">
-      <c r="D66" s="324"/>
-      <c r="E66" s="324"/>
-      <c r="F66" s="324"/>
-      <c r="G66" s="324"/>
-      <c r="H66" s="324"/>
-      <c r="I66" s="324"/>
-      <c r="J66" s="324"/>
-      <c r="K66" s="324"/>
-      <c r="L66" s="324"/>
-      <c r="M66" s="324"/>
-      <c r="N66" s="324"/>
-      <c r="O66" s="324"/>
+      <c r="D66" s="316"/>
+      <c r="E66" s="316"/>
+      <c r="F66" s="316"/>
+      <c r="G66" s="316"/>
+      <c r="H66" s="316"/>
+      <c r="I66" s="316"/>
+      <c r="J66" s="316"/>
+      <c r="K66" s="316"/>
+      <c r="L66" s="316"/>
+      <c r="M66" s="316"/>
+      <c r="N66" s="316"/>
+      <c r="O66" s="316"/>
     </row>
     <row r="67" spans="4:15">
-      <c r="D67" s="324"/>
-      <c r="E67" s="324"/>
-      <c r="F67" s="324"/>
-      <c r="G67" s="324"/>
-      <c r="H67" s="324"/>
-      <c r="I67" s="324"/>
-      <c r="J67" s="324"/>
-      <c r="K67" s="324"/>
-      <c r="L67" s="324"/>
-      <c r="M67" s="324"/>
-      <c r="N67" s="324"/>
-      <c r="O67" s="324"/>
+      <c r="D67" s="316"/>
+      <c r="E67" s="316"/>
+      <c r="F67" s="316"/>
+      <c r="G67" s="316"/>
+      <c r="H67" s="316"/>
+      <c r="I67" s="316"/>
+      <c r="J67" s="316"/>
+      <c r="K67" s="316"/>
+      <c r="L67" s="316"/>
+      <c r="M67" s="316"/>
+      <c r="N67" s="316"/>
+      <c r="O67" s="316"/>
     </row>
     <row r="68" spans="4:15">
-      <c r="D68" s="324"/>
-      <c r="E68" s="324"/>
-      <c r="F68" s="324"/>
-      <c r="G68" s="324"/>
-      <c r="H68" s="324"/>
-      <c r="I68" s="324"/>
-      <c r="J68" s="324"/>
-      <c r="K68" s="324"/>
-      <c r="L68" s="324"/>
-      <c r="M68" s="324"/>
-      <c r="N68" s="324"/>
-      <c r="O68" s="324"/>
+      <c r="D68" s="316"/>
+      <c r="E68" s="316"/>
+      <c r="F68" s="316"/>
+      <c r="G68" s="316"/>
+      <c r="H68" s="316"/>
+      <c r="I68" s="316"/>
+      <c r="J68" s="316"/>
+      <c r="K68" s="316"/>
+      <c r="L68" s="316"/>
+      <c r="M68" s="316"/>
+      <c r="N68" s="316"/>
+      <c r="O68" s="316"/>
     </row>
     <row r="69" spans="4:15">
-      <c r="D69" s="324"/>
-      <c r="E69" s="324"/>
-      <c r="F69" s="324"/>
-      <c r="G69" s="324"/>
-      <c r="H69" s="324"/>
-      <c r="I69" s="324"/>
-      <c r="J69" s="324"/>
-      <c r="K69" s="324"/>
-      <c r="L69" s="324"/>
-      <c r="M69" s="324"/>
-      <c r="N69" s="324"/>
-      <c r="O69" s="324"/>
+      <c r="D69" s="316"/>
+      <c r="E69" s="316"/>
+      <c r="F69" s="316"/>
+      <c r="G69" s="316"/>
+      <c r="H69" s="316"/>
+      <c r="I69" s="316"/>
+      <c r="J69" s="316"/>
+      <c r="K69" s="316"/>
+      <c r="L69" s="316"/>
+      <c r="M69" s="316"/>
+      <c r="N69" s="316"/>
+      <c r="O69" s="316"/>
     </row>
     <row r="70" spans="4:15">
-      <c r="D70" s="324"/>
-      <c r="E70" s="324"/>
-      <c r="F70" s="324"/>
-      <c r="G70" s="324"/>
-      <c r="H70" s="324"/>
-      <c r="I70" s="324"/>
-      <c r="J70" s="324"/>
-      <c r="K70" s="324"/>
-      <c r="L70" s="324"/>
-      <c r="M70" s="324"/>
-      <c r="N70" s="324"/>
-      <c r="O70" s="324"/>
+      <c r="D70" s="316"/>
+      <c r="E70" s="316"/>
+      <c r="F70" s="316"/>
+      <c r="G70" s="316"/>
+      <c r="H70" s="316"/>
+      <c r="I70" s="316"/>
+      <c r="J70" s="316"/>
+      <c r="K70" s="316"/>
+      <c r="L70" s="316"/>
+      <c r="M70" s="316"/>
+      <c r="N70" s="316"/>
+      <c r="O70" s="316"/>
     </row>
   </sheetData>
   <mergeCells count="111">
@@ -8407,7 +8387,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 N1:O2 N3 A4:A5 E4:F5 I4:I5 L4:M5 A6:C6 A7:I8 A9:C41 G9:G38 D39:I41 L28 A42 A43:O44 D42:G42 K42:L42 O42 J7:O41" xr:uid="{45AA03E7-926C-423A-BDFE-A2DF2A6DCF8E}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 N3 A4:A5 E4:F5 I4:I5 L4:M5 A6:C6 A7:I8 A9:C41 G9:G38 D39:I41 J7:O41 A42 A43:O44 D42:G42 K42:L42 O42 N1:O2" xr:uid="{45AA03E7-926C-423A-BDFE-A2DF2A6DCF8E}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/backend/templates/168-16cp-kranti.xlsx
+++ b/backend/templates/168-16cp-kranti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A241A340-1A55-4331-B5E3-3241169CF197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984342A4-6A3B-41D7-B826-430916A9D23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -35,11 +35,30 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,7 +557,7 @@
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,12 +645,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1421,7 +1434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1735,9 +1748,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1755,26 +1765,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1850,6 +1848,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3083,7 +3089,7 @@
             <c:numRef>
               <c:f>CpK!$K$5:$AN$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3226,7 +3232,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4392,7 +4398,7 @@
             <c:numRef>
               <c:f>CpK!$K$4:$AN$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4535,7 +4541,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4711,7 +4717,7 @@
             <c:numRef>
               <c:f>CpK!$K$11:$AN$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4854,7 +4860,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5039,7 +5045,7 @@
             <c:numRef>
               <c:f>CpK!$K$10:$AN$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5181,7 +5187,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5366,7 +5372,7 @@
             <c:numRef>
               <c:f>CpK!$K$12:$AN$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5509,7 +5515,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5694,7 +5700,7 @@
             <c:numRef>
               <c:f>CpK!$K$9:$AN$9</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5836,7 +5842,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6011,7 +6017,7 @@
             <c:numRef>
               <c:f>CpK!$K$8:$AN$8</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6153,7 +6159,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6328,7 +6334,7 @@
             <c:numRef>
               <c:f>CpK!$K$13:$AN$13</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6471,7 +6477,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6646,7 +6652,7 @@
             <c:numRef>
               <c:f>CpK!$K$14:$AN$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6788,7 +6794,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7980,8 +7986,8 @@
   </sheetPr>
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7993,165 +7999,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="187" t="s">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="187"/>
+      <c r="O1" s="184"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="188" t="s">
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="188"/>
+      <c r="O2" s="185"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
       <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="178" t="s">
+      <c r="B4" s="175"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="178"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="171"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="168"/>
       <c r="J4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="118"/>
-      <c r="L4" s="185" t="s">
+      <c r="K4" s="113"/>
+      <c r="L4" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="186"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="176"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="173"/>
     </row>
     <row r="5" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="179" t="s">
+      <c r="A5" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="180" t="s">
+      <c r="B5" s="177"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="180"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="174"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="171"/>
       <c r="J5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="119"/>
-      <c r="L5" s="183" t="s">
+      <c r="K5" s="114"/>
+      <c r="L5" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="184"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="182"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="179"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="190"/>
-      <c r="M6" s="190"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="158"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="154"/>
+      <c r="O6" s="155"/>
     </row>
     <row r="7" spans="1:15" s="62" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A7" s="191" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="192"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="192" t="s">
+      <c r="A7" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="189"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192" t="s">
+      <c r="E7" s="189"/>
+      <c r="F7" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="192"/>
-      <c r="H7" s="193" t="s">
+      <c r="G7" s="189"/>
+      <c r="H7" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="195"/>
-      <c r="J7" s="193" t="s">
+      <c r="I7" s="192"/>
+      <c r="J7" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="195"/>
-      <c r="L7" s="192" t="s">
+      <c r="K7" s="192"/>
+      <c r="L7" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="192"/>
-      <c r="N7" s="124" t="s">
+      <c r="M7" s="189"/>
+      <c r="N7" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="125" t="s">
+      <c r="O7" s="120" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8159,544 +8165,544 @@
       <c r="A8" s="55"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="115"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="110"/>
       <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="55"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="113"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="108"/>
       <c r="O9" s="50"/>
     </row>
     <row r="10" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="55"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="113"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="108"/>
       <c r="O10" s="50"/>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="55"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="115"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="110"/>
       <c r="O11" s="49"/>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="55"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="113"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="108"/>
       <c r="O12" s="50"/>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="55"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="113"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="108"/>
       <c r="O13" s="50"/>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="55"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="113"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="108"/>
       <c r="O14" s="50"/>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="55"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="113"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="108"/>
       <c r="O15" s="50"/>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A16" s="55"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="113"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="108"/>
       <c r="O16" s="50"/>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="55"/>
       <c r="B17" s="57"/>
       <c r="C17" s="56"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="113"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="108"/>
       <c r="O17" s="50"/>
     </row>
     <row r="18" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="55"/>
       <c r="B18" s="57"/>
       <c r="C18" s="56"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="113"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="108"/>
       <c r="O18" s="50"/>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="55"/>
       <c r="B19" s="57"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="113"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="108"/>
       <c r="O19" s="50"/>
     </row>
     <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A20" s="55"/>
       <c r="B20" s="57"/>
       <c r="C20" s="56"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="113"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="108"/>
       <c r="O20" s="50"/>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A21" s="55"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="115"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="110"/>
       <c r="O21" s="49"/>
     </row>
     <row r="22" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A22" s="55"/>
       <c r="B22" s="57"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="113"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="108"/>
       <c r="O22" s="50"/>
     </row>
     <row r="23" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A23" s="55"/>
       <c r="B23" s="57"/>
       <c r="C23" s="56"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="113"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="108"/>
       <c r="O23" s="50"/>
     </row>
     <row r="24" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A24" s="55"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="115"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="110"/>
       <c r="O24" s="49"/>
     </row>
     <row r="25" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A25" s="55"/>
       <c r="B25" s="57"/>
       <c r="C25" s="56"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="113"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
+      <c r="N25" s="108"/>
       <c r="O25" s="50"/>
     </row>
     <row r="26" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A26" s="55"/>
       <c r="B26" s="57"/>
       <c r="C26" s="56"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="113"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="108"/>
       <c r="O26" s="50"/>
     </row>
     <row r="27" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A27" s="55"/>
       <c r="B27" s="57"/>
       <c r="C27" s="56"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="113"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="108"/>
       <c r="O27" s="50"/>
     </row>
     <row r="28" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A28" s="55"/>
       <c r="B28" s="57"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="113"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="108"/>
       <c r="O28" s="50"/>
     </row>
     <row r="29" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A29" s="55"/>
       <c r="B29" s="57"/>
       <c r="C29" s="56"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="113"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+      <c r="N29" s="108"/>
       <c r="O29" s="50"/>
     </row>
     <row r="30" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A30" s="55"/>
       <c r="B30" s="57"/>
       <c r="C30" s="56"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="113"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+      <c r="N30" s="108"/>
       <c r="O30" s="50"/>
     </row>
     <row r="31" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A31" s="55"/>
       <c r="B31" s="57"/>
       <c r="C31" s="56"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="113"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+      <c r="N31" s="108"/>
       <c r="O31" s="50"/>
     </row>
     <row r="32" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A32" s="55"/>
       <c r="B32" s="57"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="113"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+      <c r="N32" s="108"/>
       <c r="O32" s="50"/>
     </row>
     <row r="33" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A33" s="55"/>
       <c r="B33" s="57"/>
       <c r="C33" s="56"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="113"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
+      <c r="N33" s="108"/>
       <c r="O33" s="50"/>
     </row>
     <row r="34" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A34" s="55"/>
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="152"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="115"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="110"/>
       <c r="O34" s="49"/>
     </row>
     <row r="35" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A35" s="55"/>
       <c r="B35" s="57"/>
       <c r="C35" s="56"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="113"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
+      <c r="N35" s="108"/>
       <c r="O35" s="50"/>
     </row>
     <row r="36" spans="1:15" ht="18.600000000000001" customHeight="1">
       <c r="A36" s="55"/>
       <c r="B36" s="57"/>
       <c r="C36" s="56"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
-      <c r="N36" s="113"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
+      <c r="N36" s="108"/>
       <c r="O36" s="50"/>
     </row>
     <row r="37" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A37" s="55"/>
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="115"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="110"/>
       <c r="O37" s="49"/>
     </row>
     <row r="38" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="135" t="s">
+      <c r="A38" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="129" t="e">
+      <c r="B38" s="133"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="126" t="e">
         <f>AVERAGE(D8:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="129"/>
-      <c r="F38" s="141" t="e">
+      <c r="E38" s="126"/>
+      <c r="F38" s="138" t="e">
         <f t="shared" ref="F38" si="0">AVERAGE(F8:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="141"/>
-      <c r="H38" s="144" t="e">
+      <c r="G38" s="138"/>
+      <c r="H38" s="141" t="e">
         <f t="shared" ref="H38" si="1">AVERAGE(H8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="144"/>
-      <c r="J38" s="129" t="e">
+      <c r="I38" s="141"/>
+      <c r="J38" s="126" t="e">
         <f t="shared" ref="J38" si="2">AVERAGE(J8:K37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="129"/>
-      <c r="L38" s="132" t="e">
+      <c r="K38" s="126"/>
+      <c r="L38" s="129" t="e">
         <f t="shared" ref="L38" si="3">AVERAGE(L8:M37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="132"/>
-      <c r="N38" s="110" t="e">
+      <c r="M38" s="129"/>
+      <c r="N38" s="105" t="e">
         <f>AVERAGE(N8:N37)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8706,37 +8712,37 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="137" t="s">
+      <c r="A39" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="130">
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="127">
         <f>MIN(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="130"/>
-      <c r="F39" s="142">
+      <c r="E39" s="127"/>
+      <c r="F39" s="139">
         <f t="shared" ref="F39" si="4">MIN(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="142"/>
-      <c r="H39" s="145">
+      <c r="G39" s="139"/>
+      <c r="H39" s="142">
         <f t="shared" ref="H39" si="5">MIN(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="145"/>
-      <c r="J39" s="130">
+      <c r="I39" s="142"/>
+      <c r="J39" s="127">
         <f t="shared" ref="J39" si="6">MIN(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="130"/>
-      <c r="L39" s="133">
+      <c r="K39" s="127"/>
+      <c r="L39" s="130">
         <f t="shared" ref="L39" si="7">MIN(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="133"/>
-      <c r="N39" s="111">
+      <c r="M39" s="130"/>
+      <c r="N39" s="106">
         <f>MIN(N8:N37)</f>
         <v>0</v>
       </c>
@@ -8746,37 +8752,37 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="139" t="s">
+      <c r="A40" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="131">
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="128">
         <f>MAX(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="131"/>
-      <c r="F40" s="143">
+      <c r="E40" s="128"/>
+      <c r="F40" s="140">
         <f t="shared" ref="F40" si="8">MAX(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="143"/>
-      <c r="H40" s="146">
+      <c r="G40" s="140"/>
+      <c r="H40" s="143">
         <f t="shared" ref="H40" si="9">MAX(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="146"/>
-      <c r="J40" s="131">
+      <c r="I40" s="143"/>
+      <c r="J40" s="128">
         <f t="shared" ref="J40" si="10">MAX(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="131"/>
-      <c r="L40" s="134">
+      <c r="K40" s="128"/>
+      <c r="L40" s="131">
         <f t="shared" ref="L40" si="11">MAX(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="134"/>
-      <c r="N40" s="112">
+      <c r="M40" s="131"/>
+      <c r="N40" s="107">
         <f>MAX(N8:N37)</f>
         <v>0</v>
       </c>
@@ -8789,31 +8795,31 @@
       <c r="A41" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="165" t="s">
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="165"/>
+      <c r="E41" s="162"/>
       <c r="F41" s="51"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
-      <c r="K41" s="159" t="s">
+      <c r="K41" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="159"/>
-      <c r="M41" s="161"/>
-      <c r="N41" s="161"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="158"/>
+      <c r="N41" s="158"/>
       <c r="O41" s="70" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="70"/>
-      <c r="B42" s="166"/>
-      <c r="C42" s="166"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="163"/>
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="70"/>
@@ -8821,17 +8827,17 @@
       <c r="H42" s="52"/>
       <c r="I42" s="52"/>
       <c r="J42" s="52"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="161"/>
-      <c r="N42" s="161"/>
-      <c r="O42" s="116"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="158"/>
+      <c r="N42" s="158"/>
+      <c r="O42" s="111"/>
     </row>
     <row r="43" spans="1:15" s="38" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="163" t="s">
+      <c r="A43" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="163"/>
+      <c r="B43" s="160"/>
       <c r="C43" s="70"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -8839,23 +8845,23 @@
       <c r="G43" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="163" t="s">
+      <c r="H43" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="160"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="164" t="s">
+      <c r="A44" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="164"/>
-      <c r="C44" s="117"/>
+      <c r="B44" s="161"/>
+      <c r="C44" s="112"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
       <c r="F44" s="52"/>
@@ -8897,46 +8903,46 @@
       <c r="M52" s="54"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="160"/>
-      <c r="D76" s="160"/>
-      <c r="E76" s="160"/>
-      <c r="I76" s="160"/>
-      <c r="J76" s="160"/>
-      <c r="K76" s="160"/>
-      <c r="L76" s="160"/>
-      <c r="M76" s="160"/>
-      <c r="N76" s="160"/>
-      <c r="O76" s="160"/>
+      <c r="C76" s="157"/>
+      <c r="D76" s="157"/>
+      <c r="E76" s="157"/>
+      <c r="I76" s="157"/>
+      <c r="J76" s="157"/>
+      <c r="K76" s="157"/>
+      <c r="L76" s="157"/>
+      <c r="M76" s="157"/>
+      <c r="N76" s="157"/>
+      <c r="O76" s="157"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="160"/>
-      <c r="D77" s="160"/>
-      <c r="E77" s="160"/>
-      <c r="F77" s="160"/>
-      <c r="I77" s="160"/>
-      <c r="J77" s="160"/>
-      <c r="K77" s="160"/>
-      <c r="L77" s="160"/>
-      <c r="M77" s="160"/>
-      <c r="N77" s="160"/>
-      <c r="O77" s="160"/>
+      <c r="C77" s="157"/>
+      <c r="D77" s="157"/>
+      <c r="E77" s="157"/>
+      <c r="F77" s="157"/>
+      <c r="I77" s="157"/>
+      <c r="J77" s="157"/>
+      <c r="K77" s="157"/>
+      <c r="L77" s="157"/>
+      <c r="M77" s="157"/>
+      <c r="N77" s="157"/>
+      <c r="O77" s="157"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="160"/>
-      <c r="D78" s="160"/>
-      <c r="E78" s="160"/>
-      <c r="I78" s="160"/>
-      <c r="J78" s="160"/>
-      <c r="K78" s="160"/>
-      <c r="L78" s="160"/>
-      <c r="M78" s="160"/>
-      <c r="N78" s="160"/>
-      <c r="O78" s="160"/>
+      <c r="C78" s="157"/>
+      <c r="D78" s="157"/>
+      <c r="E78" s="157"/>
+      <c r="I78" s="157"/>
+      <c r="J78" s="157"/>
+      <c r="K78" s="157"/>
+      <c r="L78" s="157"/>
+      <c r="M78" s="157"/>
+      <c r="N78" s="157"/>
+      <c r="O78" s="157"/>
     </row>
     <row r="79" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C79" s="160"/>
-      <c r="D79" s="160"/>
-      <c r="E79" s="160"/>
+      <c r="C79" s="157"/>
+      <c r="D79" s="157"/>
+      <c r="E79" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="216">
@@ -9212,7 +9218,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" sqref="Q29" xr:uid="{21AD56C4-EF69-441B-AE58-CE11BA553153}"/>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9224,7 +9230,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9235,61 +9241,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="187" t="s">
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="187"/>
+      <c r="O1" s="184"/>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="188" t="s">
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="188"/>
+      <c r="O2" s="185"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="238"/>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
+      <c r="A3" s="235"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -9299,124 +9305,124 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="239">
+      <c r="B4" s="236">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="240"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="185" t="s">
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="186"/>
-      <c r="G4" s="239">
+      <c r="F4" s="183"/>
+      <c r="G4" s="236">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="241"/>
+      <c r="H4" s="238"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="242">
+      <c r="J4" s="239">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="242"/>
-      <c r="L4" s="178" t="s">
+      <c r="K4" s="239"/>
+      <c r="L4" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="178"/>
-      <c r="N4" s="239">
+      <c r="M4" s="175"/>
+      <c r="N4" s="236">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="243"/>
+      <c r="O4" s="240"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="157">
+      <c r="B5" s="154">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="206"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="207" t="s">
+      <c r="C5" s="203"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="208"/>
-      <c r="G5" s="157">
+      <c r="F5" s="205"/>
+      <c r="G5" s="154">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="194"/>
+      <c r="H5" s="191"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="190">
+      <c r="J5" s="187">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="190"/>
-      <c r="L5" s="205" t="s">
+      <c r="K5" s="187"/>
+      <c r="L5" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="205"/>
-      <c r="N5" s="157">
+      <c r="M5" s="202"/>
+      <c r="N5" s="154">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="158"/>
+      <c r="O5" s="155"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="202" t="s">
+      <c r="A6" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="203"/>
-      <c r="K6" s="203"/>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="203"/>
-      <c r="O6" s="204"/>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="201"/>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="244" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="212"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="198" t="s">
+      <c r="A7" s="241" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="209"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199" t="s">
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="199" t="s">
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="198"/>
+      <c r="L7" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="209"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="206"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="246"/>
-      <c r="B8" s="247"/>
-      <c r="C8" s="248"/>
+      <c r="A8" s="243"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="245"/>
       <c r="D8" s="10">
         <v>1</v>
       </c>
@@ -9467,9 +9473,9 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="22" t="e">
         <f>AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
@@ -9502,9 +9508,9 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
       <c r="G10" s="22" t="e">
         <f t="shared" ref="G10:G38" si="0">AVERAGE(D10:F10)</f>
         <v>#DIV/0!</v>
@@ -9537,9 +9543,9 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
       <c r="G11" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9572,9 +9578,9 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
       <c r="G12" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9607,9 +9613,9 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
       <c r="G13" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9642,9 +9648,9 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
       <c r="G14" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9677,9 +9683,9 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9712,9 +9718,9 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9747,9 +9753,9 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9782,9 +9788,9 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
       <c r="G18" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9817,9 +9823,9 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
       <c r="G19" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9852,9 +9858,9 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
       <c r="G20" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9887,9 +9893,9 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
       <c r="G21" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9922,9 +9928,9 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
       <c r="G22" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9957,9 +9963,9 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
       <c r="G23" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9992,9 +9998,9 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
       <c r="G24" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -10027,9 +10033,9 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
       <c r="G25" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -10062,9 +10068,9 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
       <c r="G26" s="22" t="e">
         <f>AVERAGE(D26:F26)</f>
         <v>#DIV/0!</v>
@@ -10097,9 +10103,9 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -10132,9 +10138,9 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
       <c r="G28" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -10167,9 +10173,9 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
       <c r="G29" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -10202,9 +10208,9 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
       <c r="G30" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -10237,9 +10243,9 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
       <c r="G31" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -10272,9 +10278,9 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -10307,9 +10313,9 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
       <c r="G33" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -10342,9 +10348,9 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
       <c r="G34" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -10377,9 +10383,9 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
       <c r="G35" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -10412,9 +10418,9 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
       <c r="G36" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -10447,9 +10453,9 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
       <c r="G37" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -10482,9 +10488,9 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
       <c r="G38" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -10510,27 +10516,27 @@
       <c r="C39" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="230" t="e">
+      <c r="D39" s="227" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="231"/>
-      <c r="F39" s="231"/>
-      <c r="G39" s="232"/>
-      <c r="H39" s="233" t="e">
+      <c r="E39" s="228"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="229"/>
+      <c r="H39" s="230" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="234"/>
-      <c r="J39" s="234"/>
-      <c r="K39" s="235"/>
-      <c r="L39" s="233" t="e">
+      <c r="I39" s="231"/>
+      <c r="J39" s="231"/>
+      <c r="K39" s="232"/>
+      <c r="L39" s="230" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="234"/>
-      <c r="N39" s="234"/>
-      <c r="O39" s="236"/>
+      <c r="M39" s="231"/>
+      <c r="N39" s="231"/>
+      <c r="O39" s="233"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="16"/>
@@ -10538,27 +10544,27 @@
       <c r="C40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="213" t="e">
+      <c r="D40" s="210" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="214"/>
-      <c r="F40" s="214"/>
-      <c r="G40" s="215"/>
-      <c r="H40" s="216" t="e">
+      <c r="E40" s="211"/>
+      <c r="F40" s="211"/>
+      <c r="G40" s="212"/>
+      <c r="H40" s="213" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="217"/>
-      <c r="J40" s="217"/>
-      <c r="K40" s="218"/>
-      <c r="L40" s="216" t="e">
+      <c r="I40" s="214"/>
+      <c r="J40" s="214"/>
+      <c r="K40" s="215"/>
+      <c r="L40" s="213" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="217"/>
-      <c r="N40" s="217"/>
-      <c r="O40" s="219"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="216"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -10566,57 +10572,57 @@
       <c r="C41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="220" t="e">
+      <c r="D41" s="217" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="221"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="223" t="e">
+      <c r="E41" s="218"/>
+      <c r="F41" s="218"/>
+      <c r="G41" s="219"/>
+      <c r="H41" s="220" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="224"/>
-      <c r="J41" s="224"/>
-      <c r="K41" s="225"/>
-      <c r="L41" s="223" t="e">
+      <c r="I41" s="221"/>
+      <c r="J41" s="221"/>
+      <c r="K41" s="222"/>
+      <c r="L41" s="220" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="224"/>
-      <c r="N41" s="224"/>
-      <c r="O41" s="226"/>
+      <c r="M41" s="221"/>
+      <c r="N41" s="221"/>
+      <c r="O41" s="223"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="228" t="s">
+      <c r="B42" s="224"/>
+      <c r="C42" s="224"/>
+      <c r="D42" s="225" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="228"/>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
+      <c r="E42" s="225"/>
+      <c r="F42" s="225"/>
+      <c r="G42" s="225"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="211" t="s">
+      <c r="K42" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="211"/>
-      <c r="M42" s="227"/>
-      <c r="N42" s="227"/>
-      <c r="O42" s="123" t="s">
+      <c r="L42" s="208"/>
+      <c r="M42" s="224"/>
+      <c r="N42" s="224"/>
+      <c r="O42" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="166"/>
-      <c r="C43" s="166"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -10624,17 +10630,17 @@
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="229"/>
-      <c r="N43" s="229"/>
-      <c r="O43" s="116"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="226"/>
+      <c r="N43" s="226"/>
+      <c r="O43" s="111"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="210" t="s">
+      <c r="A44" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="210"/>
+      <c r="B44" s="207"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -10643,23 +10649,23 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="163" t="str">
+      <c r="H44" s="160" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
-      <c r="K44" s="163"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="160"/>
+      <c r="K44" s="160"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A45" s="210" t="s">
+      <c r="A45" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="210"/>
+      <c r="B45" s="207"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -10671,10 +10677,10 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="212" t="s">
+      <c r="N45" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="212"/>
+      <c r="O45" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -10743,7 +10749,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10755,7 +10761,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10766,61 +10772,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="187" t="s">
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="187"/>
+      <c r="O1" s="184"/>
     </row>
     <row r="2" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="188" t="s">
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="188"/>
+      <c r="O2" s="185"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -10830,158 +10836,158 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="239">
+      <c r="B4" s="236">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="240"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="185" t="s">
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="186"/>
-      <c r="G4" s="239">
+      <c r="F4" s="183"/>
+      <c r="G4" s="236">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="241"/>
+      <c r="H4" s="238"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="242">
+      <c r="J4" s="239">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="242"/>
-      <c r="L4" s="178" t="s">
+      <c r="K4" s="239"/>
+      <c r="L4" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="178"/>
-      <c r="N4" s="239">
+      <c r="M4" s="175"/>
+      <c r="N4" s="236">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="243"/>
+      <c r="O4" s="240"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="157">
+      <c r="B5" s="154">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="206"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="207" t="s">
+      <c r="C5" s="203"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="208"/>
-      <c r="G5" s="157">
+      <c r="F5" s="205"/>
+      <c r="G5" s="154">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="194"/>
+      <c r="H5" s="191"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="190">
+      <c r="J5" s="187">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="190"/>
-      <c r="L5" s="205" t="s">
+      <c r="K5" s="187"/>
+      <c r="L5" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="205"/>
-      <c r="N5" s="157">
+      <c r="M5" s="202"/>
+      <c r="N5" s="154">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="158"/>
+      <c r="O5" s="155"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="190"/>
-      <c r="L6" s="190"/>
-      <c r="M6" s="190"/>
-      <c r="N6" s="190"/>
-      <c r="O6" s="267"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="264"/>
     </row>
     <row r="7" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="269"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="274" t="s">
+      <c r="A7" s="265" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="266"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="271" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="274"/>
-      <c r="F7" s="274"/>
-      <c r="G7" s="274"/>
-      <c r="H7" s="275" t="s">
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="272" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="276"/>
-      <c r="J7" s="276"/>
-      <c r="K7" s="277"/>
-      <c r="L7" s="275" t="s">
+      <c r="I7" s="273"/>
+      <c r="J7" s="273"/>
+      <c r="K7" s="274"/>
+      <c r="L7" s="272" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="276"/>
-      <c r="N7" s="276"/>
-      <c r="O7" s="278"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="275"/>
     </row>
     <row r="8" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="271"/>
-      <c r="B8" s="272"/>
-      <c r="C8" s="273"/>
-      <c r="D8" s="121">
+      <c r="A8" s="268"/>
+      <c r="B8" s="269"/>
+      <c r="C8" s="270"/>
+      <c r="D8" s="116">
         <v>1</v>
       </c>
-      <c r="E8" s="121">
+      <c r="E8" s="116">
         <v>2</v>
       </c>
-      <c r="F8" s="121">
+      <c r="F8" s="116">
         <v>3</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="120">
+      <c r="H8" s="115">
         <v>1</v>
       </c>
-      <c r="I8" s="121">
+      <c r="I8" s="116">
         <v>2</v>
       </c>
-      <c r="J8" s="121">
+      <c r="J8" s="116">
         <v>3</v>
       </c>
-      <c r="K8" s="121" t="s">
+      <c r="K8" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="121">
+      <c r="L8" s="116">
         <v>1</v>
       </c>
-      <c r="M8" s="121">
+      <c r="M8" s="116">
         <v>2</v>
       </c>
-      <c r="N8" s="121">
+      <c r="N8" s="116">
         <v>3</v>
       </c>
-      <c r="O8" s="122" t="s">
+      <c r="O8" s="117" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10998,9 +11004,9 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="22" t="e">
         <f>AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
@@ -11033,9 +11039,9 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
       <c r="G10" s="22" t="e">
         <f t="shared" ref="G10:G38" si="0">AVERAGE(D10:F10)</f>
         <v>#DIV/0!</v>
@@ -11068,9 +11074,9 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
       <c r="G11" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11103,9 +11109,9 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
       <c r="G12" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11138,9 +11144,9 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
       <c r="G13" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11173,9 +11179,9 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
       <c r="G14" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11208,9 +11214,9 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11243,9 +11249,9 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="22" t="e">
         <f>AVERAGE(D16:F16)</f>
         <v>#DIV/0!</v>
@@ -11278,9 +11284,9 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11313,9 +11319,9 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
       <c r="G18" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11348,9 +11354,9 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
       <c r="G19" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11383,9 +11389,9 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
       <c r="G20" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11418,9 +11424,9 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
       <c r="G21" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11453,9 +11459,9 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
       <c r="G22" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11488,9 +11494,9 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
       <c r="G23" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11523,9 +11529,9 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
       <c r="G24" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11558,9 +11564,9 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
       <c r="G25" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11593,9 +11599,9 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
       <c r="G26" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11628,9 +11634,9 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11663,9 +11669,9 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
       <c r="G28" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11698,9 +11704,9 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
       <c r="G29" s="22" t="e">
         <f>AVERAGE(D29:F29)</f>
         <v>#DIV/0!</v>
@@ -11733,9 +11739,9 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
       <c r="G30" s="22" t="e">
         <f>AVERAGE(D30:F30)</f>
         <v>#DIV/0!</v>
@@ -11768,9 +11774,9 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
       <c r="G31" s="22" t="e">
         <f>AVERAGE(D31:F31)</f>
         <v>#DIV/0!</v>
@@ -11803,9 +11809,9 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="22" t="e">
         <f>AVERAGE(D32:F32)</f>
         <v>#DIV/0!</v>
@@ -11838,9 +11844,9 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
       <c r="G33" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11873,9 +11879,9 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
       <c r="G34" s="22" t="e">
         <f>AVERAGE(D34:F34)</f>
         <v>#DIV/0!</v>
@@ -11908,9 +11914,9 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
       <c r="G35" s="22" t="e">
         <f>AVERAGE(D35:F35)</f>
         <v>#DIV/0!</v>
@@ -11943,9 +11949,9 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
       <c r="G36" s="22" t="e">
         <f>AVERAGE(D36:F36)</f>
         <v>#DIV/0!</v>
@@ -11978,9 +11984,9 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
       <c r="G37" s="22" t="e">
         <f>AVERAGE(D37:F37)</f>
         <v>#DIV/0!</v>
@@ -12013,9 +12019,9 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
       <c r="G38" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -12041,27 +12047,27 @@
       <c r="C39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="252" t="e">
+      <c r="D39" s="249" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="253"/>
-      <c r="F39" s="253"/>
-      <c r="G39" s="254"/>
-      <c r="H39" s="255" t="e">
+      <c r="E39" s="250"/>
+      <c r="F39" s="250"/>
+      <c r="G39" s="251"/>
+      <c r="H39" s="252" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="256"/>
-      <c r="J39" s="256"/>
-      <c r="K39" s="257"/>
-      <c r="L39" s="255" t="e">
+      <c r="I39" s="253"/>
+      <c r="J39" s="253"/>
+      <c r="K39" s="254"/>
+      <c r="L39" s="252" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="256"/>
-      <c r="N39" s="256"/>
-      <c r="O39" s="258"/>
+      <c r="M39" s="253"/>
+      <c r="N39" s="253"/>
+      <c r="O39" s="255"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="39"/>
@@ -12069,27 +12075,27 @@
       <c r="C40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="259" t="e">
+      <c r="D40" s="256" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="260"/>
-      <c r="F40" s="260"/>
-      <c r="G40" s="261"/>
-      <c r="H40" s="262" t="e">
+      <c r="E40" s="257"/>
+      <c r="F40" s="257"/>
+      <c r="G40" s="258"/>
+      <c r="H40" s="259" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="263"/>
-      <c r="J40" s="263"/>
-      <c r="K40" s="264"/>
-      <c r="L40" s="262" t="e">
+      <c r="I40" s="260"/>
+      <c r="J40" s="260"/>
+      <c r="K40" s="261"/>
+      <c r="L40" s="259" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="263"/>
-      <c r="N40" s="263"/>
-      <c r="O40" s="265"/>
+      <c r="M40" s="260"/>
+      <c r="N40" s="260"/>
+      <c r="O40" s="262"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="41"/>
@@ -12097,57 +12103,57 @@
       <c r="C41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="279" t="e">
+      <c r="D41" s="276" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="280"/>
-      <c r="F41" s="280"/>
-      <c r="G41" s="281"/>
-      <c r="H41" s="249" t="e">
+      <c r="E41" s="277"/>
+      <c r="F41" s="277"/>
+      <c r="G41" s="278"/>
+      <c r="H41" s="246" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="250"/>
-      <c r="J41" s="250"/>
-      <c r="K41" s="282"/>
-      <c r="L41" s="249" t="e">
+      <c r="I41" s="247"/>
+      <c r="J41" s="247"/>
+      <c r="K41" s="279"/>
+      <c r="L41" s="246" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="250"/>
-      <c r="N41" s="250"/>
-      <c r="O41" s="251"/>
+      <c r="M41" s="247"/>
+      <c r="N41" s="247"/>
+      <c r="O41" s="248"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="228" t="s">
+      <c r="B42" s="224"/>
+      <c r="C42" s="224"/>
+      <c r="D42" s="225" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="228"/>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
+      <c r="E42" s="225"/>
+      <c r="F42" s="225"/>
+      <c r="G42" s="225"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="211" t="s">
+      <c r="K42" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="211"/>
-      <c r="M42" s="227"/>
-      <c r="N42" s="227"/>
-      <c r="O42" s="123" t="s">
+      <c r="L42" s="208"/>
+      <c r="M42" s="224"/>
+      <c r="N42" s="224"/>
+      <c r="O42" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="166"/>
-      <c r="C43" s="166"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -12155,17 +12161,17 @@
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="229"/>
-      <c r="N43" s="229"/>
-      <c r="O43" s="116"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="226"/>
+      <c r="N43" s="226"/>
+      <c r="O43" s="111"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="210" t="s">
+      <c r="A44" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="210"/>
+      <c r="B44" s="207"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -12174,12 +12180,12 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="163" t="str">
+      <c r="H44" s="160" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="160"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
@@ -12187,10 +12193,10 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="210" t="s">
+      <c r="A45" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="210"/>
+      <c r="B45" s="207"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -12202,10 +12208,10 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="212" t="s">
+      <c r="N45" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="O45" s="212"/>
+      <c r="O45" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -12274,7 +12280,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12286,7 +12292,7 @@
   <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12297,61 +12303,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="187" t="s">
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="187"/>
+      <c r="O1" s="184"/>
     </row>
     <row r="2" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="188" t="s">
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="188"/>
+      <c r="O2" s="185"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -12361,142 +12367,142 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="239">
+      <c r="B4" s="236">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="240"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="185" t="s">
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="186"/>
-      <c r="G4" s="239">
+      <c r="F4" s="183"/>
+      <c r="G4" s="236">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="241"/>
+      <c r="H4" s="238"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="242">
+      <c r="J4" s="239">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="242"/>
-      <c r="L4" s="178" t="s">
+      <c r="K4" s="239"/>
+      <c r="L4" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="178"/>
-      <c r="N4" s="307">
+      <c r="M4" s="175"/>
+      <c r="N4" s="304">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="308"/>
+      <c r="O4" s="305"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="157">
+      <c r="B5" s="154">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="206"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="207" t="s">
+      <c r="C5" s="203"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="208"/>
-      <c r="G5" s="157">
+      <c r="F5" s="205"/>
+      <c r="G5" s="154">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="194"/>
+      <c r="H5" s="191"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="190">
+      <c r="J5" s="187">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="190"/>
-      <c r="L5" s="205" t="s">
+      <c r="K5" s="187"/>
+      <c r="L5" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="205"/>
-      <c r="N5" s="309">
+      <c r="M5" s="202"/>
+      <c r="N5" s="306">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="158"/>
+      <c r="O5" s="155"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="303" t="s">
+      <c r="A6" s="300" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="304"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="305"/>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="299"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="290"/>
-      <c r="K6" s="297"/>
-      <c r="L6" s="297"/>
-      <c r="M6" s="297"/>
-      <c r="N6" s="297"/>
-      <c r="O6" s="291"/>
+      <c r="B6" s="301"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="297"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="297"/>
+      <c r="J6" s="287"/>
+      <c r="K6" s="294"/>
+      <c r="L6" s="294"/>
+      <c r="M6" s="294"/>
+      <c r="N6" s="294"/>
+      <c r="O6" s="288"/>
     </row>
     <row r="7" spans="1:15" s="38" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="242"/>
-      <c r="C7" s="242"/>
-      <c r="D7" s="240" t="s">
+      <c r="A7" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="239"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="290" t="s">
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="237"/>
+      <c r="H7" s="287" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="291"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="212"/>
-      <c r="L7" s="212"/>
-      <c r="M7" s="212"/>
-      <c r="N7" s="212"/>
-      <c r="O7" s="298"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="241"/>
+      <c r="K7" s="209"/>
+      <c r="L7" s="209"/>
+      <c r="M7" s="209"/>
+      <c r="N7" s="209"/>
+      <c r="O7" s="295"/>
     </row>
     <row r="8" spans="1:15" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="189"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="126">
+      <c r="A8" s="186"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="121">
         <v>1</v>
       </c>
-      <c r="E8" s="127">
+      <c r="E8" s="122">
         <v>2</v>
       </c>
-      <c r="F8" s="127">
+      <c r="F8" s="122">
         <v>3</v>
       </c>
-      <c r="G8" s="128" t="s">
+      <c r="G8" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="246"/>
-      <c r="I8" s="292"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="212"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="212"/>
-      <c r="N8" s="212"/>
-      <c r="O8" s="298"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="289"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="209"/>
+      <c r="M8" s="209"/>
+      <c r="N8" s="209"/>
+      <c r="O8" s="295"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="A9" s="58">
@@ -12518,16 +12524,16 @@
         <f t="shared" ref="G9:G38" si="0">AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="293">
-        <v>0</v>
-      </c>
-      <c r="I9" s="294"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="212"/>
-      <c r="L9" s="212"/>
-      <c r="M9" s="212"/>
-      <c r="N9" s="212"/>
-      <c r="O9" s="298"/>
+      <c r="H9" s="290">
+        <v>0</v>
+      </c>
+      <c r="I9" s="291"/>
+      <c r="J9" s="241"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="209"/>
+      <c r="M9" s="209"/>
+      <c r="N9" s="209"/>
+      <c r="O9" s="295"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="A10" s="58">
@@ -12549,16 +12555,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="288">
-        <v>0</v>
-      </c>
-      <c r="I10" s="289"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="212"/>
-      <c r="L10" s="212"/>
-      <c r="M10" s="212"/>
-      <c r="N10" s="212"/>
-      <c r="O10" s="298"/>
+      <c r="H10" s="285">
+        <v>0</v>
+      </c>
+      <c r="I10" s="286"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="209"/>
+      <c r="L10" s="209"/>
+      <c r="M10" s="209"/>
+      <c r="N10" s="209"/>
+      <c r="O10" s="295"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="58">
@@ -12580,16 +12586,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="288">
-        <v>0</v>
-      </c>
-      <c r="I11" s="289"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="212"/>
-      <c r="L11" s="212"/>
-      <c r="M11" s="212"/>
-      <c r="N11" s="212"/>
-      <c r="O11" s="298"/>
+      <c r="H11" s="285">
+        <v>0</v>
+      </c>
+      <c r="I11" s="286"/>
+      <c r="J11" s="241"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="209"/>
+      <c r="M11" s="209"/>
+      <c r="N11" s="209"/>
+      <c r="O11" s="295"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="A12" s="58">
@@ -12611,16 +12617,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="288">
-        <v>0</v>
-      </c>
-      <c r="I12" s="289"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="212"/>
-      <c r="L12" s="212"/>
-      <c r="M12" s="212"/>
-      <c r="N12" s="212"/>
-      <c r="O12" s="298"/>
+      <c r="H12" s="285">
+        <v>0</v>
+      </c>
+      <c r="I12" s="286"/>
+      <c r="J12" s="241"/>
+      <c r="K12" s="209"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="209"/>
+      <c r="N12" s="209"/>
+      <c r="O12" s="295"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="A13" s="58">
@@ -12642,16 +12648,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="288">
-        <v>0</v>
-      </c>
-      <c r="I13" s="289"/>
-      <c r="J13" s="244"/>
-      <c r="K13" s="212"/>
-      <c r="L13" s="212"/>
-      <c r="M13" s="212"/>
-      <c r="N13" s="212"/>
-      <c r="O13" s="298"/>
+      <c r="H13" s="285">
+        <v>0</v>
+      </c>
+      <c r="I13" s="286"/>
+      <c r="J13" s="241"/>
+      <c r="K13" s="209"/>
+      <c r="L13" s="209"/>
+      <c r="M13" s="209"/>
+      <c r="N13" s="209"/>
+      <c r="O13" s="295"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="A14" s="58">
@@ -12673,16 +12679,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="288">
-        <v>0</v>
-      </c>
-      <c r="I14" s="289"/>
-      <c r="J14" s="244"/>
-      <c r="K14" s="212"/>
-      <c r="L14" s="212"/>
-      <c r="M14" s="212"/>
-      <c r="N14" s="212"/>
-      <c r="O14" s="298"/>
+      <c r="H14" s="285">
+        <v>0</v>
+      </c>
+      <c r="I14" s="286"/>
+      <c r="J14" s="241"/>
+      <c r="K14" s="209"/>
+      <c r="L14" s="209"/>
+      <c r="M14" s="209"/>
+      <c r="N14" s="209"/>
+      <c r="O14" s="295"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="A15" s="58">
@@ -12704,16 +12710,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="288">
-        <v>0</v>
-      </c>
-      <c r="I15" s="289"/>
-      <c r="J15" s="244"/>
-      <c r="K15" s="212"/>
-      <c r="L15" s="212"/>
-      <c r="M15" s="212"/>
-      <c r="N15" s="212"/>
-      <c r="O15" s="298"/>
+      <c r="H15" s="285">
+        <v>0</v>
+      </c>
+      <c r="I15" s="286"/>
+      <c r="J15" s="241"/>
+      <c r="K15" s="209"/>
+      <c r="L15" s="209"/>
+      <c r="M15" s="209"/>
+      <c r="N15" s="209"/>
+      <c r="O15" s="295"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="58">
@@ -12735,16 +12741,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="288">
-        <v>0</v>
-      </c>
-      <c r="I16" s="289"/>
-      <c r="J16" s="244"/>
-      <c r="K16" s="212"/>
-      <c r="L16" s="212"/>
-      <c r="M16" s="212"/>
-      <c r="N16" s="212"/>
-      <c r="O16" s="298"/>
+      <c r="H16" s="285">
+        <v>0</v>
+      </c>
+      <c r="I16" s="286"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="209"/>
+      <c r="O16" s="295"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
       <c r="A17" s="58">
@@ -12766,16 +12772,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="288">
-        <v>0</v>
-      </c>
-      <c r="I17" s="289"/>
-      <c r="J17" s="244"/>
-      <c r="K17" s="212"/>
-      <c r="L17" s="212"/>
-      <c r="M17" s="212"/>
-      <c r="N17" s="212"/>
-      <c r="O17" s="298"/>
+      <c r="H17" s="285">
+        <v>0</v>
+      </c>
+      <c r="I17" s="286"/>
+      <c r="J17" s="241"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="209"/>
+      <c r="M17" s="209"/>
+      <c r="N17" s="209"/>
+      <c r="O17" s="295"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
       <c r="A18" s="58">
@@ -12797,16 +12803,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="288">
-        <v>0</v>
-      </c>
-      <c r="I18" s="289"/>
-      <c r="J18" s="244"/>
-      <c r="K18" s="212"/>
-      <c r="L18" s="212"/>
-      <c r="M18" s="212"/>
-      <c r="N18" s="212"/>
-      <c r="O18" s="298"/>
+      <c r="H18" s="285">
+        <v>0</v>
+      </c>
+      <c r="I18" s="286"/>
+      <c r="J18" s="241"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
+      <c r="O18" s="295"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
       <c r="A19" s="58">
@@ -12828,16 +12834,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="288">
-        <v>0</v>
-      </c>
-      <c r="I19" s="289"/>
-      <c r="J19" s="244"/>
-      <c r="K19" s="212"/>
-      <c r="L19" s="212"/>
-      <c r="M19" s="212"/>
-      <c r="N19" s="212"/>
-      <c r="O19" s="298"/>
+      <c r="H19" s="285">
+        <v>0</v>
+      </c>
+      <c r="I19" s="286"/>
+      <c r="J19" s="241"/>
+      <c r="K19" s="209"/>
+      <c r="L19" s="209"/>
+      <c r="M19" s="209"/>
+      <c r="N19" s="209"/>
+      <c r="O19" s="295"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
       <c r="A20" s="58">
@@ -12859,16 +12865,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="288">
-        <v>0</v>
-      </c>
-      <c r="I20" s="289"/>
-      <c r="J20" s="244"/>
-      <c r="K20" s="212"/>
-      <c r="L20" s="212"/>
-      <c r="M20" s="212"/>
-      <c r="N20" s="212"/>
-      <c r="O20" s="298"/>
+      <c r="H20" s="285">
+        <v>0</v>
+      </c>
+      <c r="I20" s="286"/>
+      <c r="J20" s="241"/>
+      <c r="K20" s="209"/>
+      <c r="L20" s="209"/>
+      <c r="M20" s="209"/>
+      <c r="N20" s="209"/>
+      <c r="O20" s="295"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
       <c r="A21" s="58">
@@ -12890,16 +12896,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="288">
-        <v>0</v>
-      </c>
-      <c r="I21" s="289"/>
-      <c r="J21" s="244"/>
-      <c r="K21" s="212"/>
-      <c r="L21" s="212"/>
-      <c r="M21" s="212"/>
-      <c r="N21" s="212"/>
-      <c r="O21" s="298"/>
+      <c r="H21" s="285">
+        <v>0</v>
+      </c>
+      <c r="I21" s="286"/>
+      <c r="J21" s="241"/>
+      <c r="K21" s="209"/>
+      <c r="L21" s="209"/>
+      <c r="M21" s="209"/>
+      <c r="N21" s="209"/>
+      <c r="O21" s="295"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
       <c r="A22" s="58">
@@ -12921,16 +12927,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="288">
-        <v>0</v>
-      </c>
-      <c r="I22" s="289"/>
-      <c r="J22" s="244"/>
-      <c r="K22" s="212"/>
-      <c r="L22" s="212"/>
-      <c r="M22" s="212"/>
-      <c r="N22" s="212"/>
-      <c r="O22" s="298"/>
+      <c r="H22" s="285">
+        <v>0</v>
+      </c>
+      <c r="I22" s="286"/>
+      <c r="J22" s="241"/>
+      <c r="K22" s="209"/>
+      <c r="L22" s="209"/>
+      <c r="M22" s="209"/>
+      <c r="N22" s="209"/>
+      <c r="O22" s="295"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
       <c r="A23" s="58">
@@ -12952,16 +12958,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="288">
-        <v>0</v>
-      </c>
-      <c r="I23" s="289"/>
-      <c r="J23" s="244"/>
-      <c r="K23" s="212"/>
-      <c r="L23" s="212"/>
-      <c r="M23" s="212"/>
-      <c r="N23" s="212"/>
-      <c r="O23" s="298"/>
+      <c r="H23" s="285">
+        <v>0</v>
+      </c>
+      <c r="I23" s="286"/>
+      <c r="J23" s="241"/>
+      <c r="K23" s="209"/>
+      <c r="L23" s="209"/>
+      <c r="M23" s="209"/>
+      <c r="N23" s="209"/>
+      <c r="O23" s="295"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
       <c r="A24" s="58">
@@ -12983,16 +12989,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="288">
-        <v>0</v>
-      </c>
-      <c r="I24" s="289"/>
-      <c r="J24" s="244"/>
-      <c r="K24" s="212"/>
-      <c r="L24" s="212"/>
-      <c r="M24" s="212"/>
-      <c r="N24" s="212"/>
-      <c r="O24" s="298"/>
+      <c r="H24" s="285">
+        <v>0</v>
+      </c>
+      <c r="I24" s="286"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="209"/>
+      <c r="L24" s="209"/>
+      <c r="M24" s="209"/>
+      <c r="N24" s="209"/>
+      <c r="O24" s="295"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
       <c r="A25" s="58">
@@ -13014,16 +13020,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="288">
-        <v>0</v>
-      </c>
-      <c r="I25" s="289"/>
-      <c r="J25" s="244"/>
-      <c r="K25" s="212"/>
-      <c r="L25" s="212"/>
-      <c r="M25" s="212"/>
-      <c r="N25" s="212"/>
-      <c r="O25" s="298"/>
+      <c r="H25" s="285">
+        <v>0</v>
+      </c>
+      <c r="I25" s="286"/>
+      <c r="J25" s="241"/>
+      <c r="K25" s="209"/>
+      <c r="L25" s="209"/>
+      <c r="M25" s="209"/>
+      <c r="N25" s="209"/>
+      <c r="O25" s="295"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
       <c r="A26" s="58">
@@ -13045,16 +13051,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="288">
-        <v>0</v>
-      </c>
-      <c r="I26" s="289"/>
-      <c r="J26" s="244"/>
-      <c r="K26" s="212"/>
-      <c r="L26" s="212"/>
-      <c r="M26" s="212"/>
-      <c r="N26" s="212"/>
-      <c r="O26" s="298"/>
+      <c r="H26" s="285">
+        <v>0</v>
+      </c>
+      <c r="I26" s="286"/>
+      <c r="J26" s="241"/>
+      <c r="K26" s="209"/>
+      <c r="L26" s="209"/>
+      <c r="M26" s="209"/>
+      <c r="N26" s="209"/>
+      <c r="O26" s="295"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
       <c r="A27" s="58">
@@ -13076,16 +13082,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="288">
-        <v>0</v>
-      </c>
-      <c r="I27" s="289"/>
-      <c r="J27" s="244"/>
-      <c r="K27" s="212"/>
-      <c r="L27" s="212"/>
-      <c r="M27" s="212"/>
-      <c r="N27" s="212"/>
-      <c r="O27" s="298"/>
+      <c r="H27" s="285">
+        <v>0</v>
+      </c>
+      <c r="I27" s="286"/>
+      <c r="J27" s="241"/>
+      <c r="K27" s="209"/>
+      <c r="L27" s="209"/>
+      <c r="M27" s="209"/>
+      <c r="N27" s="209"/>
+      <c r="O27" s="295"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="58">
@@ -13107,16 +13113,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="288">
-        <v>0</v>
-      </c>
-      <c r="I28" s="289"/>
-      <c r="J28" s="244"/>
-      <c r="K28" s="212"/>
-      <c r="L28" s="212"/>
-      <c r="M28" s="212"/>
-      <c r="N28" s="212"/>
-      <c r="O28" s="298"/>
+      <c r="H28" s="285">
+        <v>0</v>
+      </c>
+      <c r="I28" s="286"/>
+      <c r="J28" s="241"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="209"/>
+      <c r="M28" s="209"/>
+      <c r="N28" s="209"/>
+      <c r="O28" s="295"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="58">
@@ -13138,16 +13144,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="288">
-        <v>0</v>
-      </c>
-      <c r="I29" s="289"/>
-      <c r="J29" s="244"/>
-      <c r="K29" s="212"/>
-      <c r="L29" s="212"/>
-      <c r="M29" s="212"/>
-      <c r="N29" s="212"/>
-      <c r="O29" s="298"/>
+      <c r="H29" s="285">
+        <v>0</v>
+      </c>
+      <c r="I29" s="286"/>
+      <c r="J29" s="241"/>
+      <c r="K29" s="209"/>
+      <c r="L29" s="209"/>
+      <c r="M29" s="209"/>
+      <c r="N29" s="209"/>
+      <c r="O29" s="295"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
       <c r="A30" s="58">
@@ -13169,16 +13175,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="288">
-        <v>0</v>
-      </c>
-      <c r="I30" s="289"/>
-      <c r="J30" s="244"/>
-      <c r="K30" s="212"/>
-      <c r="L30" s="212"/>
-      <c r="M30" s="212"/>
-      <c r="N30" s="212"/>
-      <c r="O30" s="298"/>
+      <c r="H30" s="285">
+        <v>0</v>
+      </c>
+      <c r="I30" s="286"/>
+      <c r="J30" s="241"/>
+      <c r="K30" s="209"/>
+      <c r="L30" s="209"/>
+      <c r="M30" s="209"/>
+      <c r="N30" s="209"/>
+      <c r="O30" s="295"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
       <c r="A31" s="58">
@@ -13200,16 +13206,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="288">
-        <v>0</v>
-      </c>
-      <c r="I31" s="289"/>
-      <c r="J31" s="244"/>
-      <c r="K31" s="212"/>
-      <c r="L31" s="212"/>
-      <c r="M31" s="212"/>
-      <c r="N31" s="212"/>
-      <c r="O31" s="298"/>
+      <c r="H31" s="285">
+        <v>0</v>
+      </c>
+      <c r="I31" s="286"/>
+      <c r="J31" s="241"/>
+      <c r="K31" s="209"/>
+      <c r="L31" s="209"/>
+      <c r="M31" s="209"/>
+      <c r="N31" s="209"/>
+      <c r="O31" s="295"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
       <c r="A32" s="58">
@@ -13231,16 +13237,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="288">
-        <v>0</v>
-      </c>
-      <c r="I32" s="289"/>
-      <c r="J32" s="244"/>
-      <c r="K32" s="212"/>
-      <c r="L32" s="212"/>
-      <c r="M32" s="212"/>
-      <c r="N32" s="212"/>
-      <c r="O32" s="298"/>
+      <c r="H32" s="285">
+        <v>0</v>
+      </c>
+      <c r="I32" s="286"/>
+      <c r="J32" s="241"/>
+      <c r="K32" s="209"/>
+      <c r="L32" s="209"/>
+      <c r="M32" s="209"/>
+      <c r="N32" s="209"/>
+      <c r="O32" s="295"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
       <c r="A33" s="58">
@@ -13262,16 +13268,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="288">
-        <v>0</v>
-      </c>
-      <c r="I33" s="289"/>
-      <c r="J33" s="244"/>
-      <c r="K33" s="212"/>
-      <c r="L33" s="212"/>
-      <c r="M33" s="212"/>
-      <c r="N33" s="212"/>
-      <c r="O33" s="298"/>
+      <c r="H33" s="285">
+        <v>0</v>
+      </c>
+      <c r="I33" s="286"/>
+      <c r="J33" s="241"/>
+      <c r="K33" s="209"/>
+      <c r="L33" s="209"/>
+      <c r="M33" s="209"/>
+      <c r="N33" s="209"/>
+      <c r="O33" s="295"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
       <c r="A34" s="58">
@@ -13293,16 +13299,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="288">
-        <v>0</v>
-      </c>
-      <c r="I34" s="289"/>
-      <c r="J34" s="244"/>
-      <c r="K34" s="212"/>
-      <c r="L34" s="212"/>
-      <c r="M34" s="212"/>
-      <c r="N34" s="212"/>
-      <c r="O34" s="298"/>
+      <c r="H34" s="285">
+        <v>0</v>
+      </c>
+      <c r="I34" s="286"/>
+      <c r="J34" s="241"/>
+      <c r="K34" s="209"/>
+      <c r="L34" s="209"/>
+      <c r="M34" s="209"/>
+      <c r="N34" s="209"/>
+      <c r="O34" s="295"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
       <c r="A35" s="58">
@@ -13324,16 +13330,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="288">
-        <v>0</v>
-      </c>
-      <c r="I35" s="289"/>
-      <c r="J35" s="244"/>
-      <c r="K35" s="212"/>
-      <c r="L35" s="212"/>
-      <c r="M35" s="212"/>
-      <c r="N35" s="212"/>
-      <c r="O35" s="298"/>
+      <c r="H35" s="285">
+        <v>0</v>
+      </c>
+      <c r="I35" s="286"/>
+      <c r="J35" s="241"/>
+      <c r="K35" s="209"/>
+      <c r="L35" s="209"/>
+      <c r="M35" s="209"/>
+      <c r="N35" s="209"/>
+      <c r="O35" s="295"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
       <c r="A36" s="58">
@@ -13355,16 +13361,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="288">
-        <v>0</v>
-      </c>
-      <c r="I36" s="289"/>
-      <c r="J36" s="244"/>
-      <c r="K36" s="212"/>
-      <c r="L36" s="212"/>
-      <c r="M36" s="212"/>
-      <c r="N36" s="212"/>
-      <c r="O36" s="298"/>
+      <c r="H36" s="285">
+        <v>0</v>
+      </c>
+      <c r="I36" s="286"/>
+      <c r="J36" s="241"/>
+      <c r="K36" s="209"/>
+      <c r="L36" s="209"/>
+      <c r="M36" s="209"/>
+      <c r="N36" s="209"/>
+      <c r="O36" s="295"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="58">
@@ -13386,16 +13392,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="288">
-        <v>0</v>
-      </c>
-      <c r="I37" s="289"/>
-      <c r="J37" s="244"/>
-      <c r="K37" s="212"/>
-      <c r="L37" s="212"/>
-      <c r="M37" s="212"/>
-      <c r="N37" s="212"/>
-      <c r="O37" s="298"/>
+      <c r="H37" s="285">
+        <v>0</v>
+      </c>
+      <c r="I37" s="286"/>
+      <c r="J37" s="241"/>
+      <c r="K37" s="209"/>
+      <c r="L37" s="209"/>
+      <c r="M37" s="209"/>
+      <c r="N37" s="209"/>
+      <c r="O37" s="295"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="58">
@@ -13417,16 +13423,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="301">
-        <v>0</v>
-      </c>
-      <c r="I38" s="302"/>
-      <c r="J38" s="244"/>
-      <c r="K38" s="212"/>
-      <c r="L38" s="212"/>
-      <c r="M38" s="212"/>
-      <c r="N38" s="212"/>
-      <c r="O38" s="298"/>
+      <c r="H38" s="298">
+        <v>0</v>
+      </c>
+      <c r="I38" s="299"/>
+      <c r="J38" s="241"/>
+      <c r="K38" s="209"/>
+      <c r="L38" s="209"/>
+      <c r="M38" s="209"/>
+      <c r="N38" s="209"/>
+      <c r="O38" s="295"/>
     </row>
     <row r="39" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="36"/>
@@ -13434,24 +13440,24 @@
       <c r="C39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="255" t="e">
+      <c r="D39" s="252" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="256"/>
-      <c r="F39" s="256"/>
-      <c r="G39" s="258"/>
-      <c r="H39" s="284">
+      <c r="E39" s="253"/>
+      <c r="F39" s="253"/>
+      <c r="G39" s="255"/>
+      <c r="H39" s="281">
         <f>AVERAGE(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="285"/>
-      <c r="J39" s="244"/>
-      <c r="K39" s="212"/>
-      <c r="L39" s="212"/>
-      <c r="M39" s="212"/>
-      <c r="N39" s="212"/>
-      <c r="O39" s="298"/>
+      <c r="I39" s="282"/>
+      <c r="J39" s="241"/>
+      <c r="K39" s="209"/>
+      <c r="L39" s="209"/>
+      <c r="M39" s="209"/>
+      <c r="N39" s="209"/>
+      <c r="O39" s="295"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="39"/>
@@ -13459,24 +13465,24 @@
       <c r="C40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="262" t="e">
+      <c r="D40" s="259" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="263"/>
-      <c r="F40" s="263"/>
-      <c r="G40" s="265"/>
-      <c r="H40" s="286">
+      <c r="E40" s="260"/>
+      <c r="F40" s="260"/>
+      <c r="G40" s="262"/>
+      <c r="H40" s="283">
         <f>MIN(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="287"/>
-      <c r="J40" s="244"/>
-      <c r="K40" s="212"/>
-      <c r="L40" s="212"/>
-      <c r="M40" s="212"/>
-      <c r="N40" s="212"/>
-      <c r="O40" s="298"/>
+      <c r="I40" s="284"/>
+      <c r="J40" s="241"/>
+      <c r="K40" s="209"/>
+      <c r="L40" s="209"/>
+      <c r="M40" s="209"/>
+      <c r="N40" s="209"/>
+      <c r="O40" s="295"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="41"/>
@@ -13484,54 +13490,54 @@
       <c r="C41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="249" t="e">
+      <c r="D41" s="246" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="250"/>
-      <c r="F41" s="250"/>
-      <c r="G41" s="251"/>
-      <c r="H41" s="295">
+      <c r="E41" s="247"/>
+      <c r="F41" s="247"/>
+      <c r="G41" s="248"/>
+      <c r="H41" s="292">
         <f>MAX(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="296"/>
-      <c r="J41" s="246"/>
-      <c r="K41" s="247"/>
-      <c r="L41" s="247"/>
-      <c r="M41" s="247"/>
-      <c r="N41" s="247"/>
-      <c r="O41" s="292"/>
+      <c r="I41" s="293"/>
+      <c r="J41" s="243"/>
+      <c r="K41" s="244"/>
+      <c r="L41" s="244"/>
+      <c r="M41" s="244"/>
+      <c r="N41" s="244"/>
+      <c r="O41" s="289"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="228" t="s">
+      <c r="B42" s="224"/>
+      <c r="C42" s="224"/>
+      <c r="D42" s="225" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="228"/>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
+      <c r="E42" s="225"/>
+      <c r="F42" s="225"/>
+      <c r="G42" s="225"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="211" t="s">
+      <c r="K42" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="211"/>
-      <c r="M42" s="227"/>
-      <c r="N42" s="227"/>
-      <c r="O42" s="123" t="s">
+      <c r="L42" s="208"/>
+      <c r="M42" s="224"/>
+      <c r="N42" s="224"/>
+      <c r="O42" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="166"/>
-      <c r="C43" s="166"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -13539,17 +13545,17 @@
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="229"/>
-      <c r="N43" s="229"/>
-      <c r="O43" s="116"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="226"/>
+      <c r="N43" s="226"/>
+      <c r="O43" s="111"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="210" t="s">
+      <c r="A44" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="210"/>
+      <c r="B44" s="207"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -13558,12 +13564,12 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="163" t="str">
+      <c r="H44" s="160" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="160"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
@@ -13571,10 +13577,10 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="210" t="s">
+      <c r="A45" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="210"/>
+      <c r="B45" s="207"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -13586,222 +13592,222 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="212" t="s">
+      <c r="N45" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="212"/>
+      <c r="O45" s="209"/>
     </row>
     <row r="46" spans="1:15" s="38" customFormat="1"/>
     <row r="47" spans="1:15" s="38" customFormat="1"/>
     <row r="57" spans="4:15">
-      <c r="D57" s="283"/>
-      <c r="E57" s="283"/>
-      <c r="F57" s="283"/>
-      <c r="G57" s="283"/>
-      <c r="H57" s="283"/>
-      <c r="I57" s="283"/>
-      <c r="J57" s="283"/>
-      <c r="K57" s="283"/>
-      <c r="L57" s="283"/>
-      <c r="M57" s="283"/>
-      <c r="N57" s="283"/>
-      <c r="O57" s="283"/>
+      <c r="D57" s="280"/>
+      <c r="E57" s="280"/>
+      <c r="F57" s="280"/>
+      <c r="G57" s="280"/>
+      <c r="H57" s="280"/>
+      <c r="I57" s="280"/>
+      <c r="J57" s="280"/>
+      <c r="K57" s="280"/>
+      <c r="L57" s="280"/>
+      <c r="M57" s="280"/>
+      <c r="N57" s="280"/>
+      <c r="O57" s="280"/>
     </row>
     <row r="58" spans="4:15">
-      <c r="D58" s="283"/>
-      <c r="E58" s="283"/>
-      <c r="F58" s="283"/>
-      <c r="G58" s="283"/>
-      <c r="H58" s="283"/>
-      <c r="I58" s="283"/>
-      <c r="J58" s="283"/>
-      <c r="K58" s="283"/>
-      <c r="L58" s="283"/>
-      <c r="M58" s="283"/>
-      <c r="N58" s="283"/>
-      <c r="O58" s="283"/>
+      <c r="D58" s="280"/>
+      <c r="E58" s="280"/>
+      <c r="F58" s="280"/>
+      <c r="G58" s="280"/>
+      <c r="H58" s="280"/>
+      <c r="I58" s="280"/>
+      <c r="J58" s="280"/>
+      <c r="K58" s="280"/>
+      <c r="L58" s="280"/>
+      <c r="M58" s="280"/>
+      <c r="N58" s="280"/>
+      <c r="O58" s="280"/>
     </row>
     <row r="59" spans="4:15">
-      <c r="D59" s="283"/>
-      <c r="E59" s="283"/>
-      <c r="F59" s="283"/>
-      <c r="G59" s="283"/>
-      <c r="H59" s="283"/>
-      <c r="I59" s="283"/>
-      <c r="J59" s="283"/>
-      <c r="K59" s="283"/>
-      <c r="L59" s="283"/>
-      <c r="M59" s="283"/>
-      <c r="N59" s="283"/>
-      <c r="O59" s="283"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="280"/>
+      <c r="F59" s="280"/>
+      <c r="G59" s="280"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="280"/>
+      <c r="J59" s="280"/>
+      <c r="K59" s="280"/>
+      <c r="L59" s="280"/>
+      <c r="M59" s="280"/>
+      <c r="N59" s="280"/>
+      <c r="O59" s="280"/>
     </row>
     <row r="60" spans="4:15">
-      <c r="D60" s="283"/>
-      <c r="E60" s="283"/>
-      <c r="F60" s="283"/>
-      <c r="G60" s="283"/>
-      <c r="H60" s="283"/>
-      <c r="I60" s="283"/>
-      <c r="J60" s="283"/>
-      <c r="K60" s="283"/>
-      <c r="L60" s="283"/>
-      <c r="M60" s="283"/>
-      <c r="N60" s="283"/>
-      <c r="O60" s="283"/>
+      <c r="D60" s="280"/>
+      <c r="E60" s="280"/>
+      <c r="F60" s="280"/>
+      <c r="G60" s="280"/>
+      <c r="H60" s="280"/>
+      <c r="I60" s="280"/>
+      <c r="J60" s="280"/>
+      <c r="K60" s="280"/>
+      <c r="L60" s="280"/>
+      <c r="M60" s="280"/>
+      <c r="N60" s="280"/>
+      <c r="O60" s="280"/>
     </row>
     <row r="61" spans="4:15">
-      <c r="D61" s="283"/>
-      <c r="E61" s="283"/>
-      <c r="F61" s="283"/>
-      <c r="G61" s="283"/>
-      <c r="H61" s="283"/>
-      <c r="I61" s="283"/>
-      <c r="J61" s="283"/>
-      <c r="K61" s="283"/>
-      <c r="L61" s="283"/>
-      <c r="M61" s="283"/>
-      <c r="N61" s="283"/>
-      <c r="O61" s="283"/>
+      <c r="D61" s="280"/>
+      <c r="E61" s="280"/>
+      <c r="F61" s="280"/>
+      <c r="G61" s="280"/>
+      <c r="H61" s="280"/>
+      <c r="I61" s="280"/>
+      <c r="J61" s="280"/>
+      <c r="K61" s="280"/>
+      <c r="L61" s="280"/>
+      <c r="M61" s="280"/>
+      <c r="N61" s="280"/>
+      <c r="O61" s="280"/>
     </row>
     <row r="62" spans="4:15">
-      <c r="D62" s="283"/>
-      <c r="E62" s="283"/>
-      <c r="F62" s="283"/>
-      <c r="G62" s="283"/>
-      <c r="H62" s="283"/>
-      <c r="I62" s="283"/>
-      <c r="J62" s="283"/>
-      <c r="K62" s="283"/>
-      <c r="L62" s="283"/>
-      <c r="M62" s="283"/>
-      <c r="N62" s="283"/>
-      <c r="O62" s="283"/>
+      <c r="D62" s="280"/>
+      <c r="E62" s="280"/>
+      <c r="F62" s="280"/>
+      <c r="G62" s="280"/>
+      <c r="H62" s="280"/>
+      <c r="I62" s="280"/>
+      <c r="J62" s="280"/>
+      <c r="K62" s="280"/>
+      <c r="L62" s="280"/>
+      <c r="M62" s="280"/>
+      <c r="N62" s="280"/>
+      <c r="O62" s="280"/>
     </row>
     <row r="63" spans="4:15">
-      <c r="D63" s="283"/>
-      <c r="E63" s="283"/>
-      <c r="F63" s="283"/>
-      <c r="G63" s="283"/>
-      <c r="H63" s="283"/>
-      <c r="I63" s="283"/>
-      <c r="J63" s="283"/>
-      <c r="K63" s="283"/>
-      <c r="L63" s="283"/>
-      <c r="M63" s="283"/>
-      <c r="N63" s="283"/>
-      <c r="O63" s="283"/>
+      <c r="D63" s="280"/>
+      <c r="E63" s="280"/>
+      <c r="F63" s="280"/>
+      <c r="G63" s="280"/>
+      <c r="H63" s="280"/>
+      <c r="I63" s="280"/>
+      <c r="J63" s="280"/>
+      <c r="K63" s="280"/>
+      <c r="L63" s="280"/>
+      <c r="M63" s="280"/>
+      <c r="N63" s="280"/>
+      <c r="O63" s="280"/>
     </row>
     <row r="64" spans="4:15">
-      <c r="D64" s="283"/>
-      <c r="E64" s="283"/>
-      <c r="F64" s="283"/>
-      <c r="G64" s="283"/>
-      <c r="H64" s="283"/>
-      <c r="I64" s="283"/>
-      <c r="J64" s="283"/>
-      <c r="K64" s="283"/>
-      <c r="L64" s="283"/>
-      <c r="M64" s="283"/>
-      <c r="N64" s="283"/>
-      <c r="O64" s="283"/>
+      <c r="D64" s="280"/>
+      <c r="E64" s="280"/>
+      <c r="F64" s="280"/>
+      <c r="G64" s="280"/>
+      <c r="H64" s="280"/>
+      <c r="I64" s="280"/>
+      <c r="J64" s="280"/>
+      <c r="K64" s="280"/>
+      <c r="L64" s="280"/>
+      <c r="M64" s="280"/>
+      <c r="N64" s="280"/>
+      <c r="O64" s="280"/>
     </row>
     <row r="65" spans="4:15">
-      <c r="D65" s="283"/>
-      <c r="E65" s="283"/>
-      <c r="F65" s="283"/>
-      <c r="G65" s="283"/>
-      <c r="H65" s="283"/>
-      <c r="I65" s="283"/>
-      <c r="J65" s="283"/>
-      <c r="K65" s="283"/>
-      <c r="L65" s="283"/>
-      <c r="M65" s="283"/>
-      <c r="N65" s="283"/>
-      <c r="O65" s="283"/>
+      <c r="D65" s="280"/>
+      <c r="E65" s="280"/>
+      <c r="F65" s="280"/>
+      <c r="G65" s="280"/>
+      <c r="H65" s="280"/>
+      <c r="I65" s="280"/>
+      <c r="J65" s="280"/>
+      <c r="K65" s="280"/>
+      <c r="L65" s="280"/>
+      <c r="M65" s="280"/>
+      <c r="N65" s="280"/>
+      <c r="O65" s="280"/>
     </row>
     <row r="66" spans="4:15">
-      <c r="D66" s="283"/>
-      <c r="E66" s="283"/>
-      <c r="F66" s="283"/>
-      <c r="G66" s="283"/>
-      <c r="H66" s="283"/>
-      <c r="I66" s="283"/>
-      <c r="J66" s="283"/>
-      <c r="K66" s="283"/>
-      <c r="L66" s="283"/>
-      <c r="M66" s="283"/>
-      <c r="N66" s="283"/>
-      <c r="O66" s="283"/>
+      <c r="D66" s="280"/>
+      <c r="E66" s="280"/>
+      <c r="F66" s="280"/>
+      <c r="G66" s="280"/>
+      <c r="H66" s="280"/>
+      <c r="I66" s="280"/>
+      <c r="J66" s="280"/>
+      <c r="K66" s="280"/>
+      <c r="L66" s="280"/>
+      <c r="M66" s="280"/>
+      <c r="N66" s="280"/>
+      <c r="O66" s="280"/>
     </row>
     <row r="67" spans="4:15">
-      <c r="D67" s="283"/>
-      <c r="E67" s="283"/>
-      <c r="F67" s="283"/>
-      <c r="G67" s="283"/>
-      <c r="H67" s="283"/>
-      <c r="I67" s="283"/>
-      <c r="J67" s="283"/>
-      <c r="K67" s="283"/>
-      <c r="L67" s="283"/>
-      <c r="M67" s="283"/>
-      <c r="N67" s="283"/>
-      <c r="O67" s="283"/>
+      <c r="D67" s="280"/>
+      <c r="E67" s="280"/>
+      <c r="F67" s="280"/>
+      <c r="G67" s="280"/>
+      <c r="H67" s="280"/>
+      <c r="I67" s="280"/>
+      <c r="J67" s="280"/>
+      <c r="K67" s="280"/>
+      <c r="L67" s="280"/>
+      <c r="M67" s="280"/>
+      <c r="N67" s="280"/>
+      <c r="O67" s="280"/>
     </row>
     <row r="68" spans="4:15">
-      <c r="D68" s="283"/>
-      <c r="E68" s="283"/>
-      <c r="F68" s="283"/>
-      <c r="G68" s="283"/>
-      <c r="H68" s="283"/>
-      <c r="I68" s="283"/>
-      <c r="J68" s="283"/>
-      <c r="K68" s="283"/>
-      <c r="L68" s="283"/>
-      <c r="M68" s="283"/>
-      <c r="N68" s="283"/>
-      <c r="O68" s="283"/>
+      <c r="D68" s="280"/>
+      <c r="E68" s="280"/>
+      <c r="F68" s="280"/>
+      <c r="G68" s="280"/>
+      <c r="H68" s="280"/>
+      <c r="I68" s="280"/>
+      <c r="J68" s="280"/>
+      <c r="K68" s="280"/>
+      <c r="L68" s="280"/>
+      <c r="M68" s="280"/>
+      <c r="N68" s="280"/>
+      <c r="O68" s="280"/>
     </row>
     <row r="69" spans="4:15">
-      <c r="D69" s="283"/>
-      <c r="E69" s="283"/>
-      <c r="F69" s="283"/>
-      <c r="G69" s="283"/>
-      <c r="H69" s="283"/>
-      <c r="I69" s="283"/>
-      <c r="J69" s="283"/>
-      <c r="K69" s="283"/>
-      <c r="L69" s="283"/>
-      <c r="M69" s="283"/>
-      <c r="N69" s="283"/>
-      <c r="O69" s="283"/>
+      <c r="D69" s="280"/>
+      <c r="E69" s="280"/>
+      <c r="F69" s="280"/>
+      <c r="G69" s="280"/>
+      <c r="H69" s="280"/>
+      <c r="I69" s="280"/>
+      <c r="J69" s="280"/>
+      <c r="K69" s="280"/>
+      <c r="L69" s="280"/>
+      <c r="M69" s="280"/>
+      <c r="N69" s="280"/>
+      <c r="O69" s="280"/>
     </row>
     <row r="70" spans="4:15">
-      <c r="D70" s="283"/>
-      <c r="E70" s="283"/>
-      <c r="F70" s="283"/>
-      <c r="G70" s="283"/>
-      <c r="H70" s="283"/>
-      <c r="I70" s="283"/>
-      <c r="J70" s="283"/>
-      <c r="K70" s="283"/>
-      <c r="L70" s="283"/>
-      <c r="M70" s="283"/>
-      <c r="N70" s="283"/>
-      <c r="O70" s="283"/>
+      <c r="D70" s="280"/>
+      <c r="E70" s="280"/>
+      <c r="F70" s="280"/>
+      <c r="G70" s="280"/>
+      <c r="H70" s="280"/>
+      <c r="I70" s="280"/>
+      <c r="J70" s="280"/>
+      <c r="K70" s="280"/>
+      <c r="L70" s="280"/>
+      <c r="M70" s="280"/>
+      <c r="N70" s="280"/>
+      <c r="O70" s="280"/>
     </row>
     <row r="71" spans="4:15">
-      <c r="D71" s="283"/>
-      <c r="E71" s="283"/>
-      <c r="F71" s="283"/>
-      <c r="G71" s="283"/>
-      <c r="H71" s="283"/>
-      <c r="I71" s="283"/>
-      <c r="J71" s="283"/>
-      <c r="K71" s="283"/>
-      <c r="L71" s="283"/>
-      <c r="M71" s="283"/>
-      <c r="N71" s="283"/>
-      <c r="O71" s="283"/>
+      <c r="D71" s="280"/>
+      <c r="E71" s="280"/>
+      <c r="F71" s="280"/>
+      <c r="G71" s="280"/>
+      <c r="H71" s="280"/>
+      <c r="I71" s="280"/>
+      <c r="J71" s="280"/>
+      <c r="K71" s="280"/>
+      <c r="L71" s="280"/>
+      <c r="M71" s="280"/>
+      <c r="N71" s="280"/>
+      <c r="O71" s="280"/>
     </row>
   </sheetData>
   <mergeCells count="114">
@@ -13937,7 +13943,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16095,8 +16101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB2F544-FD28-404D-9524-773BC4F36D40}">
   <dimension ref="A1:AT53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -16320,118 +16326,147 @@
       <c r="J3" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="92">
-        <f t="array" ref="K3:AN3">TRANSPOSE(Page1!L8:M37)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="92">
-        <v>0</v>
-      </c>
-      <c r="M3" s="92">
-        <v>0</v>
-      </c>
-      <c r="N3" s="92">
-        <v>0</v>
-      </c>
-      <c r="O3" s="92">
-        <v>0</v>
-      </c>
-      <c r="P3" s="92">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="92">
-        <v>0</v>
-      </c>
-      <c r="R3" s="92">
-        <v>0</v>
-      </c>
-      <c r="S3" s="92">
-        <v>0</v>
-      </c>
-      <c r="T3" s="92">
-        <v>0</v>
-      </c>
-      <c r="U3" s="92">
-        <v>0</v>
-      </c>
-      <c r="V3" s="92">
-        <v>0</v>
-      </c>
-      <c r="W3" s="92">
-        <v>0</v>
-      </c>
-      <c r="X3" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="92">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="93">
+      <c r="K3" s="124" cm="1">
+        <f t="array" ref="K3">INDEX(Page1!$L$8:$L$37, COLUMN(K3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="124" cm="1">
+        <f t="array" ref="L3">INDEX(Page1!$L$8:$L$37, COLUMN(L3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="124" cm="1">
+        <f t="array" ref="M3">INDEX(Page1!$L$8:$L$37, COLUMN(M3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="124" cm="1">
+        <f t="array" ref="N3">INDEX(Page1!$L$8:$L$37, COLUMN(N3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="124" cm="1">
+        <f t="array" ref="O3">INDEX(Page1!$L$8:$L$37, COLUMN(O3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="124" cm="1">
+        <f t="array" ref="P3">INDEX(Page1!$L$8:$L$37, COLUMN(P3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="124" cm="1">
+        <f t="array" ref="Q3">INDEX(Page1!$L$8:$L$37, COLUMN(Q3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="124" cm="1">
+        <f t="array" ref="R3">INDEX(Page1!$L$8:$L$37, COLUMN(R3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="124" cm="1">
+        <f t="array" ref="S3">INDEX(Page1!$L$8:$L$37, COLUMN(S3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="124" cm="1">
+        <f t="array" ref="T3">INDEX(Page1!$L$8:$L$37, COLUMN(T3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="124" cm="1">
+        <f t="array" ref="U3">INDEX(Page1!$L$8:$L$37, COLUMN(U3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="124" cm="1">
+        <f t="array" ref="V3">INDEX(Page1!$L$8:$L$37, COLUMN(V3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="124" cm="1">
+        <f t="array" ref="W3">INDEX(Page1!$L$8:$L$37, COLUMN(W3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="124" cm="1">
+        <f t="array" ref="X3">INDEX(Page1!$L$8:$L$37, COLUMN(X3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="124" cm="1">
+        <f t="array" ref="Y3">INDEX(Page1!$L$8:$L$37, COLUMN(Y3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="124" cm="1">
+        <f t="array" ref="Z3">INDEX(Page1!$L$8:$L$37, COLUMN(Z3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="124" cm="1">
+        <f t="array" ref="AA3">INDEX(Page1!$L$8:$L$37, COLUMN(AA3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="124" cm="1">
+        <f t="array" ref="AB3">INDEX(Page1!$L$8:$L$37, COLUMN(AB3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="124" cm="1">
+        <f t="array" ref="AC3">INDEX(Page1!$L$8:$L$37, COLUMN(AC3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="124" cm="1">
+        <f t="array" ref="AD3">INDEX(Page1!$L$8:$L$37, COLUMN(AD3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="124" cm="1">
+        <f t="array" ref="AE3">INDEX(Page1!$L$8:$L$37, COLUMN(AE3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="124" cm="1">
+        <f t="array" ref="AF3">INDEX(Page1!$L$8:$L$37, COLUMN(AF3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="124" cm="1">
+        <f t="array" ref="AG3">INDEX(Page1!$L$8:$L$37, COLUMN(AG3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="124" cm="1">
+        <f t="array" ref="AH3">INDEX(Page1!$L$8:$L$37, COLUMN(AH3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="124" cm="1">
+        <f t="array" ref="AI3">INDEX(Page1!$L$8:$L$37, COLUMN(AI3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="124" cm="1">
+        <f t="array" ref="AJ3">INDEX(Page1!$L$8:$L$37, COLUMN(AJ3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="124" cm="1">
+        <f t="array" ref="AK3">INDEX(Page1!$L$8:$L$37, COLUMN(AK3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="124" cm="1">
+        <f t="array" ref="AL3">INDEX(Page1!$L$8:$L$37, COLUMN(AL3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="124" cm="1">
+        <f t="array" ref="AM3">INDEX(Page1!$L$8:$L$37, COLUMN(AM3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="124" cm="1">
+        <f t="array" ref="AN3">INDEX(Page1!$L$8:$L$37, COLUMN(AN3)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="92">
         <f t="shared" ref="AO3:AO16" si="0">AVERAGE(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="94">
+      <c r="AP3" s="93">
         <f>STDEV(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="95" t="e">
+      <c r="AQ3" s="94" t="e">
         <f>MIN((AO3-H3)/(3*AP3), (I3-AO3)/(3*AP3))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR3" s="96">
+      <c r="AR3" s="95">
         <f t="shared" ref="AR3:AR16" si="1">MIN(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AS3" s="96">
+      <c r="AS3" s="95">
         <f>MAX(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="97" t="e">
+      <c r="AT3" s="96" t="e">
         <f>IF(AQ3&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16446,7 +16481,7 @@
       <c r="C4" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="97" t="s">
         <v>106</v>
       </c>
       <c r="E4" s="90" t="s">
@@ -16465,118 +16500,147 @@
       <c r="J4" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="99" t="e">
-        <f t="array" ref="K4:AN4">TRANSPOSE(Page4!G9:G38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN4" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO4" s="100" t="e">
+      <c r="K4" s="125" t="e" cm="1">
+        <f t="array" ref="K4">INDEX(Page4!$G$9:$G$38, COLUMN(K4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="125" t="e" cm="1">
+        <f t="array" ref="L4">INDEX(Page4!$G$9:$G$38, COLUMN(L4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="125" t="e" cm="1">
+        <f t="array" ref="M4">INDEX(Page4!$G$9:$G$38, COLUMN(M4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" s="125" t="e" cm="1">
+        <f t="array" ref="N4">INDEX(Page4!$G$9:$G$38, COLUMN(N4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="125" t="e" cm="1">
+        <f t="array" ref="O4">INDEX(Page4!$G$9:$G$38, COLUMN(O4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" s="125" t="e" cm="1">
+        <f t="array" ref="P4">INDEX(Page4!$G$9:$G$38, COLUMN(P4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" s="125" t="e" cm="1">
+        <f t="array" ref="Q4">INDEX(Page4!$G$9:$G$38, COLUMN(Q4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R4" s="125" t="e" cm="1">
+        <f t="array" ref="R4">INDEX(Page4!$G$9:$G$38, COLUMN(R4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S4" s="125" t="e" cm="1">
+        <f t="array" ref="S4">INDEX(Page4!$G$9:$G$38, COLUMN(S4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T4" s="125" t="e" cm="1">
+        <f t="array" ref="T4">INDEX(Page4!$G$9:$G$38, COLUMN(T4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U4" s="125" t="e" cm="1">
+        <f t="array" ref="U4">INDEX(Page4!$G$9:$G$38, COLUMN(U4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V4" s="125" t="e" cm="1">
+        <f t="array" ref="V4">INDEX(Page4!$G$9:$G$38, COLUMN(V4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="125" t="e" cm="1">
+        <f t="array" ref="W4">INDEX(Page4!$G$9:$G$38, COLUMN(W4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X4" s="125" t="e" cm="1">
+        <f t="array" ref="X4">INDEX(Page4!$G$9:$G$38, COLUMN(X4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y4" s="125" t="e" cm="1">
+        <f t="array" ref="Y4">INDEX(Page4!$G$9:$G$38, COLUMN(Y4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z4" s="125" t="e" cm="1">
+        <f t="array" ref="Z4">INDEX(Page4!$G$9:$G$38, COLUMN(Z4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA4" s="125" t="e" cm="1">
+        <f t="array" ref="AA4">INDEX(Page4!$G$9:$G$38, COLUMN(AA4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB4" s="125" t="e" cm="1">
+        <f t="array" ref="AB4">INDEX(Page4!$G$9:$G$38, COLUMN(AB4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC4" s="125" t="e" cm="1">
+        <f t="array" ref="AC4">INDEX(Page4!$G$9:$G$38, COLUMN(AC4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD4" s="125" t="e" cm="1">
+        <f t="array" ref="AD4">INDEX(Page4!$G$9:$G$38, COLUMN(AD4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE4" s="125" t="e" cm="1">
+        <f t="array" ref="AE4">INDEX(Page4!$G$9:$G$38, COLUMN(AE4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF4" s="125" t="e" cm="1">
+        <f t="array" ref="AF4">INDEX(Page4!$G$9:$G$38, COLUMN(AF4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG4" s="125" t="e" cm="1">
+        <f t="array" ref="AG4">INDEX(Page4!$G$9:$G$38, COLUMN(AG4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH4" s="125" t="e" cm="1">
+        <f t="array" ref="AH4">INDEX(Page4!$G$9:$G$38, COLUMN(AH4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI4" s="125" t="e" cm="1">
+        <f t="array" ref="AI4">INDEX(Page4!$G$9:$G$38, COLUMN(AI4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ4" s="125" t="e" cm="1">
+        <f t="array" ref="AJ4">INDEX(Page4!$G$9:$G$38, COLUMN(AJ4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK4" s="125" t="e" cm="1">
+        <f t="array" ref="AK4">INDEX(Page4!$G$9:$G$38, COLUMN(AK4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL4" s="125" t="e" cm="1">
+        <f t="array" ref="AL4">INDEX(Page4!$G$9:$G$38, COLUMN(AL4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM4" s="125" t="e" cm="1">
+        <f t="array" ref="AM4">INDEX(Page4!$G$9:$G$38, COLUMN(AM4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN4" s="125" t="e" cm="1">
+        <f t="array" ref="AN4">INDEX(Page4!$G$9:$G$38, COLUMN(AN4)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO4" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP4" s="94" t="e">
+      <c r="AP4" s="93" t="e">
         <f>STDEV(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ4" s="101" t="e">
+      <c r="AQ4" s="99" t="e">
         <f>(I4-AO4)/(3*AP4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR4" s="94" t="e">
+      <c r="AR4" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS4" s="94" t="e">
+      <c r="AS4" s="93" t="e">
         <f>MAX(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT4" s="97" t="e">
+      <c r="AT4" s="96" t="e">
         <f>IF(AQ4&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16612,118 +16676,147 @@
       <c r="J5" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="99">
-        <f t="array" ref="K5:AN5">TRANSPOSE(Page1!H8:I370)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="99">
-        <v>0</v>
-      </c>
-      <c r="M5" s="99">
-        <v>0</v>
-      </c>
-      <c r="N5" s="99">
-        <v>0</v>
-      </c>
-      <c r="O5" s="99">
-        <v>0</v>
-      </c>
-      <c r="P5" s="99">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="99">
-        <v>0</v>
-      </c>
-      <c r="R5" s="99">
-        <v>0</v>
-      </c>
-      <c r="S5" s="99">
-        <v>0</v>
-      </c>
-      <c r="T5" s="99">
-        <v>0</v>
-      </c>
-      <c r="U5" s="99">
-        <v>0</v>
-      </c>
-      <c r="V5" s="99">
-        <v>0</v>
-      </c>
-      <c r="W5" s="99">
-        <v>0</v>
-      </c>
-      <c r="X5" s="99">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="99">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="99">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="100">
+      <c r="K5" s="125" cm="1">
+        <f t="array" ref="K5">INDEX(Page1!$H$8:$H$37, COLUMN(K5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="125" cm="1">
+        <f t="array" ref="L5">INDEX(Page1!$H$8:$H$37, COLUMN(L5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="125" cm="1">
+        <f t="array" ref="M5">INDEX(Page1!$H$8:$H$37, COLUMN(M5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="125" cm="1">
+        <f t="array" ref="N5">INDEX(Page1!$H$8:$H$37, COLUMN(N5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="125" cm="1">
+        <f t="array" ref="O5">INDEX(Page1!$H$8:$H$37, COLUMN(O5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="125" cm="1">
+        <f t="array" ref="P5">INDEX(Page1!$H$8:$H$37, COLUMN(P5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="125" cm="1">
+        <f t="array" ref="Q5">INDEX(Page1!$H$8:$H$37, COLUMN(Q5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="125" cm="1">
+        <f t="array" ref="R5">INDEX(Page1!$H$8:$H$37, COLUMN(R5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="125" cm="1">
+        <f t="array" ref="S5">INDEX(Page1!$H$8:$H$37, COLUMN(S5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="125" cm="1">
+        <f t="array" ref="T5">INDEX(Page1!$H$8:$H$37, COLUMN(T5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="125" cm="1">
+        <f t="array" ref="U5">INDEX(Page1!$H$8:$H$37, COLUMN(U5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="125" cm="1">
+        <f t="array" ref="V5">INDEX(Page1!$H$8:$H$37, COLUMN(V5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="125" cm="1">
+        <f t="array" ref="W5">INDEX(Page1!$H$8:$H$37, COLUMN(W5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="125" cm="1">
+        <f t="array" ref="X5">INDEX(Page1!$H$8:$H$37, COLUMN(X5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="125" cm="1">
+        <f t="array" ref="Y5">INDEX(Page1!$H$8:$H$37, COLUMN(Y5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="125" cm="1">
+        <f t="array" ref="Z5">INDEX(Page1!$H$8:$H$37, COLUMN(Z5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="125" cm="1">
+        <f t="array" ref="AA5">INDEX(Page1!$H$8:$H$37, COLUMN(AA5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="125" cm="1">
+        <f t="array" ref="AB5">INDEX(Page1!$H$8:$H$37, COLUMN(AB5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="125" cm="1">
+        <f t="array" ref="AC5">INDEX(Page1!$H$8:$H$37, COLUMN(AC5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="125" cm="1">
+        <f t="array" ref="AD5">INDEX(Page1!$H$8:$H$37, COLUMN(AD5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="125" cm="1">
+        <f t="array" ref="AE5">INDEX(Page1!$H$8:$H$37, COLUMN(AE5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="125" cm="1">
+        <f t="array" ref="AF5">INDEX(Page1!$H$8:$H$37, COLUMN(AF5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="125" cm="1">
+        <f t="array" ref="AG5">INDEX(Page1!$H$8:$H$37, COLUMN(AG5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="125" cm="1">
+        <f t="array" ref="AH5">INDEX(Page1!$H$8:$H$37, COLUMN(AH5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="125" cm="1">
+        <f t="array" ref="AI5">INDEX(Page1!$H$8:$H$37, COLUMN(AI5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="125" cm="1">
+        <f t="array" ref="AJ5">INDEX(Page1!$H$8:$H$37, COLUMN(AJ5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="125" cm="1">
+        <f t="array" ref="AK5">INDEX(Page1!$H$8:$H$37, COLUMN(AK5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="125" cm="1">
+        <f t="array" ref="AL5">INDEX(Page1!$H$8:$H$37, COLUMN(AL5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="125" cm="1">
+        <f t="array" ref="AM5">INDEX(Page1!$H$8:$H$37, COLUMN(AM5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="125" cm="1">
+        <f t="array" ref="AN5">INDEX(Page1!$H$8:$H$37, COLUMN(AN5)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP5" s="94">
+      <c r="AP5" s="93">
         <f>STDEV(K5:AN5)</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="101" t="e">
+      <c r="AQ5" s="99" t="e">
         <f>MIN((AO5-H5)/(3*AP5), (I5-AO5)/(3*AP5))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR5" s="94">
+      <c r="AR5" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS5" s="94">
+      <c r="AS5" s="93">
         <f>MAX(K5:AN5)</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="97" t="e">
+      <c r="AT5" s="96" t="e">
         <f>IF(AQ5&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16757,118 +16850,147 @@
       <c r="J6" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="102">
-        <f t="array" ref="K6:AN6">TRANSPOSE(Page1!N8:N37)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="102">
-        <v>0</v>
-      </c>
-      <c r="M6" s="102">
-        <v>0</v>
-      </c>
-      <c r="N6" s="102">
-        <v>0</v>
-      </c>
-      <c r="O6" s="102">
-        <v>0</v>
-      </c>
-      <c r="P6" s="102">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="102">
-        <v>0</v>
-      </c>
-      <c r="R6" s="102">
-        <v>0</v>
-      </c>
-      <c r="S6" s="102">
-        <v>0</v>
-      </c>
-      <c r="T6" s="102">
-        <v>0</v>
-      </c>
-      <c r="U6" s="102">
-        <v>0</v>
-      </c>
-      <c r="V6" s="102">
-        <v>0</v>
-      </c>
-      <c r="W6" s="102">
-        <v>0</v>
-      </c>
-      <c r="X6" s="102">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="102">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="100">
+      <c r="K6" s="125" cm="1">
+        <f t="array" ref="K6">INDEX(Page1!$N$8:$N$37, COLUMN(K6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="125" cm="1">
+        <f t="array" ref="L6">INDEX(Page1!$N$8:$N$37, COLUMN(L6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="125" cm="1">
+        <f t="array" ref="M6">INDEX(Page1!$N$8:$N$37, COLUMN(M6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="125" cm="1">
+        <f t="array" ref="N6">INDEX(Page1!$N$8:$N$37, COLUMN(N6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="125" cm="1">
+        <f t="array" ref="O6">INDEX(Page1!$N$8:$N$37, COLUMN(O6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="125" cm="1">
+        <f t="array" ref="P6">INDEX(Page1!$N$8:$N$37, COLUMN(P6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="125" cm="1">
+        <f t="array" ref="Q6">INDEX(Page1!$N$8:$N$37, COLUMN(Q6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="125" cm="1">
+        <f t="array" ref="R6">INDEX(Page1!$N$8:$N$37, COLUMN(R6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="125" cm="1">
+        <f t="array" ref="S6">INDEX(Page1!$N$8:$N$37, COLUMN(S6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="125" cm="1">
+        <f t="array" ref="T6">INDEX(Page1!$N$8:$N$37, COLUMN(T6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="125" cm="1">
+        <f t="array" ref="U6">INDEX(Page1!$N$8:$N$37, COLUMN(U6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="125" cm="1">
+        <f t="array" ref="V6">INDEX(Page1!$N$8:$N$37, COLUMN(V6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="125" cm="1">
+        <f t="array" ref="W6">INDEX(Page1!$N$8:$N$37, COLUMN(W6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="125" cm="1">
+        <f t="array" ref="X6">INDEX(Page1!$N$8:$N$37, COLUMN(X6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="125" cm="1">
+        <f t="array" ref="Y6">INDEX(Page1!$N$8:$N$37, COLUMN(Y6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="125" cm="1">
+        <f t="array" ref="Z6">INDEX(Page1!$N$8:$N$37, COLUMN(Z6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="125" cm="1">
+        <f t="array" ref="AA6">INDEX(Page1!$N$8:$N$37, COLUMN(AA6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="125" cm="1">
+        <f t="array" ref="AB6">INDEX(Page1!$N$8:$N$37, COLUMN(AB6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="125" cm="1">
+        <f t="array" ref="AC6">INDEX(Page1!$N$8:$N$37, COLUMN(AC6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="125" cm="1">
+        <f t="array" ref="AD6">INDEX(Page1!$N$8:$N$37, COLUMN(AD6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="125" cm="1">
+        <f t="array" ref="AE6">INDEX(Page1!$N$8:$N$37, COLUMN(AE6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="125" cm="1">
+        <f t="array" ref="AF6">INDEX(Page1!$N$8:$N$37, COLUMN(AF6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="125" cm="1">
+        <f t="array" ref="AG6">INDEX(Page1!$N$8:$N$37, COLUMN(AG6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="125" cm="1">
+        <f t="array" ref="AH6">INDEX(Page1!$N$8:$N$37, COLUMN(AH6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="125" cm="1">
+        <f t="array" ref="AI6">INDEX(Page1!$N$8:$N$37, COLUMN(AI6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="125" cm="1">
+        <f t="array" ref="AJ6">INDEX(Page1!$N$8:$N$37, COLUMN(AJ6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="125" cm="1">
+        <f t="array" ref="AK6">INDEX(Page1!$N$8:$N$37, COLUMN(AK6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="125" cm="1">
+        <f t="array" ref="AL6">INDEX(Page1!$N$8:$N$37, COLUMN(AL6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="125" cm="1">
+        <f t="array" ref="AM6">INDEX(Page1!$N$8:$N$37, COLUMN(AM6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="125" cm="1">
+        <f t="array" ref="AN6">INDEX(Page1!$N$8:$N$37, COLUMN(AN6)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP6" s="94">
+      <c r="AP6" s="93">
         <f>STDEV(K6:AN6)</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="101" t="e">
+      <c r="AQ6" s="99" t="e">
         <f>(I6-AO6)/(3*AP6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR6" s="94">
+      <c r="AR6" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS6" s="94">
+      <c r="AS6" s="93">
         <f>MAX(K6:AN6)</f>
         <v>0</v>
       </c>
-      <c r="AT6" s="97" t="e">
+      <c r="AT6" s="96" t="e">
         <f>IF(AQ6&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16904,118 +17026,147 @@
       <c r="J7" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K7" s="103">
-        <f t="array" ref="K7:AN7">TRANSPOSE(Page1!D8:E37)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="103">
-        <v>0</v>
-      </c>
-      <c r="M7" s="103">
-        <v>0</v>
-      </c>
-      <c r="N7" s="103">
-        <v>0</v>
-      </c>
-      <c r="O7" s="103">
-        <v>0</v>
-      </c>
-      <c r="P7" s="103">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="103">
-        <v>0</v>
-      </c>
-      <c r="R7" s="103">
-        <v>0</v>
-      </c>
-      <c r="S7" s="103">
-        <v>0</v>
-      </c>
-      <c r="T7" s="103">
-        <v>0</v>
-      </c>
-      <c r="U7" s="103">
-        <v>0</v>
-      </c>
-      <c r="V7" s="103">
-        <v>0</v>
-      </c>
-      <c r="W7" s="103">
-        <v>0</v>
-      </c>
-      <c r="X7" s="103">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="103">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="103">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="100">
+      <c r="K7" s="125" cm="1">
+        <f t="array" ref="K7">INDEX(Page1!$D$8:$D$37, COLUMN(K7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="125" cm="1">
+        <f t="array" ref="L7">INDEX(Page1!$D$8:$D$37, COLUMN(L7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="125" cm="1">
+        <f t="array" ref="M7">INDEX(Page1!$D$8:$D$37, COLUMN(M7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="125" cm="1">
+        <f t="array" ref="N7">INDEX(Page1!$D$8:$D$37, COLUMN(N7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="125" cm="1">
+        <f t="array" ref="O7">INDEX(Page1!$D$8:$D$37, COLUMN(O7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="125" cm="1">
+        <f t="array" ref="P7">INDEX(Page1!$D$8:$D$37, COLUMN(P7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="125" cm="1">
+        <f t="array" ref="Q7">INDEX(Page1!$D$8:$D$37, COLUMN(Q7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="125" cm="1">
+        <f t="array" ref="R7">INDEX(Page1!$D$8:$D$37, COLUMN(R7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="125" cm="1">
+        <f t="array" ref="S7">INDEX(Page1!$D$8:$D$37, COLUMN(S7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="125" cm="1">
+        <f t="array" ref="T7">INDEX(Page1!$D$8:$D$37, COLUMN(T7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="125" cm="1">
+        <f t="array" ref="U7">INDEX(Page1!$D$8:$D$37, COLUMN(U7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="125" cm="1">
+        <f t="array" ref="V7">INDEX(Page1!$D$8:$D$37, COLUMN(V7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="125" cm="1">
+        <f t="array" ref="W7">INDEX(Page1!$D$8:$D$37, COLUMN(W7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="125" cm="1">
+        <f t="array" ref="X7">INDEX(Page1!$D$8:$D$37, COLUMN(X7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="125" cm="1">
+        <f t="array" ref="Y7">INDEX(Page1!$D$8:$D$37, COLUMN(Y7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="125" cm="1">
+        <f t="array" ref="Z7">INDEX(Page1!$D$8:$D$37, COLUMN(Z7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="125" cm="1">
+        <f t="array" ref="AA7">INDEX(Page1!$D$8:$D$37, COLUMN(AA7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="125" cm="1">
+        <f t="array" ref="AB7">INDEX(Page1!$D$8:$D$37, COLUMN(AB7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="125" cm="1">
+        <f t="array" ref="AC7">INDEX(Page1!$D$8:$D$37, COLUMN(AC7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="125" cm="1">
+        <f t="array" ref="AD7">INDEX(Page1!$D$8:$D$37, COLUMN(AD7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="125" cm="1">
+        <f t="array" ref="AE7">INDEX(Page1!$D$8:$D$37, COLUMN(AE7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="125" cm="1">
+        <f t="array" ref="AF7">INDEX(Page1!$D$8:$D$37, COLUMN(AF7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="125" cm="1">
+        <f t="array" ref="AG7">INDEX(Page1!$D$8:$D$37, COLUMN(AG7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="125" cm="1">
+        <f t="array" ref="AH7">INDEX(Page1!$D$8:$D$37, COLUMN(AH7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="125" cm="1">
+        <f t="array" ref="AI7">INDEX(Page1!$D$8:$D$37, COLUMN(AI7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="125" cm="1">
+        <f t="array" ref="AJ7">INDEX(Page1!$D$8:$D$37, COLUMN(AJ7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="125" cm="1">
+        <f t="array" ref="AK7">INDEX(Page1!$D$8:$D$37, COLUMN(AK7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="125" cm="1">
+        <f t="array" ref="AL7">INDEX(Page1!$D$8:$D$37, COLUMN(AL7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="125" cm="1">
+        <f t="array" ref="AM7">INDEX(Page1!$D$8:$D$37, COLUMN(AM7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="125" cm="1">
+        <f t="array" ref="AN7">INDEX(Page1!$D$8:$D$37, COLUMN(AN7)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP7" s="94">
+      <c r="AP7" s="93">
         <f t="shared" ref="AP7:AP16" si="2">STDEV(K7:AN7)</f>
         <v>0</v>
       </c>
-      <c r="AQ7" s="101" t="e">
+      <c r="AQ7" s="99" t="e">
         <f>MIN((AO7-H7)/(3*AP7), (I7-AO7)/(3*AP7))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR7" s="94">
+      <c r="AR7" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS7" s="94">
+      <c r="AS7" s="93">
         <f t="shared" ref="AS7:AS16" si="3">MAX(K7:AN7)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="97" t="e">
+      <c r="AT7" s="96" t="e">
         <f t="shared" ref="AT7:AT16" si="4">IF(AQ7&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -17051,118 +17202,147 @@
       <c r="J8" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="92" t="e">
-        <f t="array" ref="K8:AN8">TRANSPOSE(Page3!G9:G38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN8" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO8" s="100" t="e">
+      <c r="K8" s="125" t="e" cm="1">
+        <f t="array" ref="K8">INDEX(Page3!$G$9:$G$38, COLUMN(K8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="125" t="e" cm="1">
+        <f t="array" ref="L8">INDEX(Page3!$G$9:$G$38, COLUMN(L8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="125" t="e" cm="1">
+        <f t="array" ref="M8">INDEX(Page3!$G$9:$G$38, COLUMN(M8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" s="125" t="e" cm="1">
+        <f t="array" ref="N8">INDEX(Page3!$G$9:$G$38, COLUMN(N8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="125" t="e" cm="1">
+        <f t="array" ref="O8">INDEX(Page3!$G$9:$G$38, COLUMN(O8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="125" t="e" cm="1">
+        <f t="array" ref="P8">INDEX(Page3!$G$9:$G$38, COLUMN(P8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="125" t="e" cm="1">
+        <f t="array" ref="Q8">INDEX(Page3!$G$9:$G$38, COLUMN(Q8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R8" s="125" t="e" cm="1">
+        <f t="array" ref="R8">INDEX(Page3!$G$9:$G$38, COLUMN(R8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S8" s="125" t="e" cm="1">
+        <f t="array" ref="S8">INDEX(Page3!$G$9:$G$38, COLUMN(S8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" s="125" t="e" cm="1">
+        <f t="array" ref="T8">INDEX(Page3!$G$9:$G$38, COLUMN(T8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U8" s="125" t="e" cm="1">
+        <f t="array" ref="U8">INDEX(Page3!$G$9:$G$38, COLUMN(U8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V8" s="125" t="e" cm="1">
+        <f t="array" ref="V8">INDEX(Page3!$G$9:$G$38, COLUMN(V8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="125" t="e" cm="1">
+        <f t="array" ref="W8">INDEX(Page3!$G$9:$G$38, COLUMN(W8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X8" s="125" t="e" cm="1">
+        <f t="array" ref="X8">INDEX(Page3!$G$9:$G$38, COLUMN(X8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y8" s="125" t="e" cm="1">
+        <f t="array" ref="Y8">INDEX(Page3!$G$9:$G$38, COLUMN(Y8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z8" s="125" t="e" cm="1">
+        <f t="array" ref="Z8">INDEX(Page3!$G$9:$G$38, COLUMN(Z8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA8" s="125" t="e" cm="1">
+        <f t="array" ref="AA8">INDEX(Page3!$G$9:$G$38, COLUMN(AA8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB8" s="125" t="e" cm="1">
+        <f t="array" ref="AB8">INDEX(Page3!$G$9:$G$38, COLUMN(AB8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC8" s="125" t="e" cm="1">
+        <f t="array" ref="AC8">INDEX(Page3!$G$9:$G$38, COLUMN(AC8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD8" s="125" t="e" cm="1">
+        <f t="array" ref="AD8">INDEX(Page3!$G$9:$G$38, COLUMN(AD8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE8" s="125" t="e" cm="1">
+        <f t="array" ref="AE8">INDEX(Page3!$G$9:$G$38, COLUMN(AE8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF8" s="125" t="e" cm="1">
+        <f t="array" ref="AF8">INDEX(Page3!$G$9:$G$38, COLUMN(AF8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG8" s="125" t="e" cm="1">
+        <f t="array" ref="AG8">INDEX(Page3!$G$9:$G$38, COLUMN(AG8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH8" s="125" t="e" cm="1">
+        <f t="array" ref="AH8">INDEX(Page3!$G$9:$G$38, COLUMN(AH8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI8" s="125" t="e" cm="1">
+        <f t="array" ref="AI8">INDEX(Page3!$G$9:$G$38, COLUMN(AI8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ8" s="125" t="e" cm="1">
+        <f t="array" ref="AJ8">INDEX(Page3!$G$9:$G$38, COLUMN(AJ8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK8" s="125" t="e" cm="1">
+        <f t="array" ref="AK8">INDEX(Page3!$G$9:$G$38, COLUMN(AK8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL8" s="125" t="e" cm="1">
+        <f t="array" ref="AL8">INDEX(Page3!$G$9:$G$38, COLUMN(AL8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM8" s="125" t="e" cm="1">
+        <f t="array" ref="AM8">INDEX(Page3!$G$9:$G$38, COLUMN(AM8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN8" s="125" t="e" cm="1">
+        <f t="array" ref="AN8">INDEX(Page3!$G$9:$G$38, COLUMN(AN8)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO8" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP8" s="94" t="e">
+      <c r="AP8" s="93" t="e">
         <f>STDEV(K8:AN8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ8" s="101" t="e">
+      <c r="AQ8" s="99" t="e">
         <f>(AO8-H8)/(3*AP8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR8" s="94" t="e">
+      <c r="AR8" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS8" s="94" t="e">
+      <c r="AS8" s="93" t="e">
         <f>MAX(K8:AN8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT8" s="97" t="e">
+      <c r="AT8" s="96" t="e">
         <f>IF(AQ8&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -17198,118 +17378,147 @@
       <c r="J9" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K9" s="92" t="e">
-        <f t="array" ref="K9:AN9">TRANSPOSE(Page2!G9:G38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN9" s="92" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO9" s="100" t="e">
+      <c r="K9" s="125" t="e" cm="1">
+        <f t="array" ref="K9">INDEX(Page2!$G$9:$G$38, COLUMN(K9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="125" t="e" cm="1">
+        <f t="array" ref="L9">INDEX(Page2!$G$9:$G$38, COLUMN(L9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="125" t="e" cm="1">
+        <f t="array" ref="M9">INDEX(Page2!$G$9:$G$38, COLUMN(M9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="125" t="e" cm="1">
+        <f t="array" ref="N9">INDEX(Page2!$G$9:$G$38, COLUMN(N9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="125" t="e" cm="1">
+        <f t="array" ref="O9">INDEX(Page2!$G$9:$G$38, COLUMN(O9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" s="125" t="e" cm="1">
+        <f t="array" ref="P9">INDEX(Page2!$G$9:$G$38, COLUMN(P9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="125" t="e" cm="1">
+        <f t="array" ref="Q9">INDEX(Page2!$G$9:$G$38, COLUMN(Q9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" s="125" t="e" cm="1">
+        <f t="array" ref="R9">INDEX(Page2!$G$9:$G$38, COLUMN(R9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" s="125" t="e" cm="1">
+        <f t="array" ref="S9">INDEX(Page2!$G$9:$G$38, COLUMN(S9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" s="125" t="e" cm="1">
+        <f t="array" ref="T9">INDEX(Page2!$G$9:$G$38, COLUMN(T9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" s="125" t="e" cm="1">
+        <f t="array" ref="U9">INDEX(Page2!$G$9:$G$38, COLUMN(U9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" s="125" t="e" cm="1">
+        <f t="array" ref="V9">INDEX(Page2!$G$9:$G$38, COLUMN(V9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="125" t="e" cm="1">
+        <f t="array" ref="W9">INDEX(Page2!$G$9:$G$38, COLUMN(W9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X9" s="125" t="e" cm="1">
+        <f t="array" ref="X9">INDEX(Page2!$G$9:$G$38, COLUMN(X9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y9" s="125" t="e" cm="1">
+        <f t="array" ref="Y9">INDEX(Page2!$G$9:$G$38, COLUMN(Y9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z9" s="125" t="e" cm="1">
+        <f t="array" ref="Z9">INDEX(Page2!$G$9:$G$38, COLUMN(Z9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA9" s="125" t="e" cm="1">
+        <f t="array" ref="AA9">INDEX(Page2!$G$9:$G$38, COLUMN(AA9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB9" s="125" t="e" cm="1">
+        <f t="array" ref="AB9">INDEX(Page2!$G$9:$G$38, COLUMN(AB9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC9" s="125" t="e" cm="1">
+        <f t="array" ref="AC9">INDEX(Page2!$G$9:$G$38, COLUMN(AC9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD9" s="125" t="e" cm="1">
+        <f t="array" ref="AD9">INDEX(Page2!$G$9:$G$38, COLUMN(AD9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE9" s="125" t="e" cm="1">
+        <f t="array" ref="AE9">INDEX(Page2!$G$9:$G$38, COLUMN(AE9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF9" s="125" t="e" cm="1">
+        <f t="array" ref="AF9">INDEX(Page2!$G$9:$G$38, COLUMN(AF9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG9" s="125" t="e" cm="1">
+        <f t="array" ref="AG9">INDEX(Page2!$G$9:$G$38, COLUMN(AG9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH9" s="125" t="e" cm="1">
+        <f t="array" ref="AH9">INDEX(Page2!$G$9:$G$38, COLUMN(AH9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI9" s="125" t="e" cm="1">
+        <f t="array" ref="AI9">INDEX(Page2!$G$9:$G$38, COLUMN(AI9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ9" s="125" t="e" cm="1">
+        <f t="array" ref="AJ9">INDEX(Page2!$G$9:$G$38, COLUMN(AJ9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK9" s="125" t="e" cm="1">
+        <f t="array" ref="AK9">INDEX(Page2!$G$9:$G$38, COLUMN(AK9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL9" s="125" t="e" cm="1">
+        <f t="array" ref="AL9">INDEX(Page2!$G$9:$G$38, COLUMN(AL9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM9" s="125" t="e" cm="1">
+        <f t="array" ref="AM9">INDEX(Page2!$G$9:$G$38, COLUMN(AM9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN9" s="125" t="e" cm="1">
+        <f t="array" ref="AN9">INDEX(Page2!$G$9:$G$38, COLUMN(AN9)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO9" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP9" s="94" t="e">
+      <c r="AP9" s="93" t="e">
         <f>STDEV(K9:AN9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ9" s="101" t="e">
+      <c r="AQ9" s="99" t="e">
         <f>(AO9-H9)/(3*AP9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR9" s="94" t="e">
+      <c r="AR9" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS9" s="94" t="e">
+      <c r="AS9" s="93" t="e">
         <f>MAX(K9:AN9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT9" s="97" t="e">
+      <c r="AT9" s="96" t="e">
         <f>IF(AQ9&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -17345,118 +17554,147 @@
       <c r="J10" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="99" t="e">
-        <f t="array" ref="K10:AN10">TRANSPOSE(Page3!K9:K38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN10" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO10" s="100" t="e">
+      <c r="K10" s="125" t="e" cm="1">
+        <f t="array" ref="K10">INDEX(Page2!$K$9:$K$38, COLUMN(K10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="125" t="e" cm="1">
+        <f t="array" ref="L10">INDEX(Page2!$K$9:$K$38, COLUMN(L10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="125" t="e" cm="1">
+        <f t="array" ref="M10">INDEX(Page2!$K$9:$K$38, COLUMN(M10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="125" t="e" cm="1">
+        <f t="array" ref="N10">INDEX(Page2!$K$9:$K$38, COLUMN(N10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="125" t="e" cm="1">
+        <f t="array" ref="O10">INDEX(Page2!$K$9:$K$38, COLUMN(O10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="125" t="e" cm="1">
+        <f t="array" ref="P10">INDEX(Page2!$K$9:$K$38, COLUMN(P10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="125" t="e" cm="1">
+        <f t="array" ref="Q10">INDEX(Page2!$K$9:$K$38, COLUMN(Q10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" s="125" t="e" cm="1">
+        <f t="array" ref="R10">INDEX(Page2!$K$9:$K$38, COLUMN(R10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" s="125" t="e" cm="1">
+        <f t="array" ref="S10">INDEX(Page2!$K$9:$K$38, COLUMN(S10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" s="125" t="e" cm="1">
+        <f t="array" ref="T10">INDEX(Page2!$K$9:$K$38, COLUMN(T10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" s="125" t="e" cm="1">
+        <f t="array" ref="U10">INDEX(Page2!$K$9:$K$38, COLUMN(U10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" s="125" t="e" cm="1">
+        <f t="array" ref="V10">INDEX(Page2!$K$9:$K$38, COLUMN(V10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="125" t="e" cm="1">
+        <f t="array" ref="W10">INDEX(Page2!$K$9:$K$38, COLUMN(W10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X10" s="125" t="e" cm="1">
+        <f t="array" ref="X10">INDEX(Page2!$K$9:$K$38, COLUMN(X10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y10" s="125" t="e" cm="1">
+        <f t="array" ref="Y10">INDEX(Page2!$K$9:$K$38, COLUMN(Y10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z10" s="125" t="e" cm="1">
+        <f t="array" ref="Z10">INDEX(Page2!$K$9:$K$38, COLUMN(Z10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA10" s="125" t="e" cm="1">
+        <f t="array" ref="AA10">INDEX(Page2!$K$9:$K$38, COLUMN(AA10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB10" s="125" t="e" cm="1">
+        <f t="array" ref="AB10">INDEX(Page2!$K$9:$K$38, COLUMN(AB10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC10" s="125" t="e" cm="1">
+        <f t="array" ref="AC10">INDEX(Page2!$K$9:$K$38, COLUMN(AC10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD10" s="125" t="e" cm="1">
+        <f t="array" ref="AD10">INDEX(Page2!$K$9:$K$38, COLUMN(AD10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE10" s="125" t="e" cm="1">
+        <f t="array" ref="AE10">INDEX(Page2!$K$9:$K$38, COLUMN(AE10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF10" s="125" t="e" cm="1">
+        <f t="array" ref="AF10">INDEX(Page2!$K$9:$K$38, COLUMN(AF10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG10" s="125" t="e" cm="1">
+        <f t="array" ref="AG10">INDEX(Page2!$K$9:$K$38, COLUMN(AG10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH10" s="125" t="e" cm="1">
+        <f t="array" ref="AH10">INDEX(Page2!$K$9:$K$38, COLUMN(AH10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI10" s="125" t="e" cm="1">
+        <f t="array" ref="AI10">INDEX(Page2!$K$9:$K$38, COLUMN(AI10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ10" s="125" t="e" cm="1">
+        <f t="array" ref="AJ10">INDEX(Page2!$K$9:$K$38, COLUMN(AJ10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK10" s="125" t="e" cm="1">
+        <f t="array" ref="AK10">INDEX(Page2!$K$9:$K$38, COLUMN(AK10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL10" s="125" t="e" cm="1">
+        <f t="array" ref="AL10">INDEX(Page2!$K$9:$K$38, COLUMN(AL10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM10" s="125" t="e" cm="1">
+        <f t="array" ref="AM10">INDEX(Page2!$K$9:$K$38, COLUMN(AM10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN10" s="125" t="e" cm="1">
+        <f t="array" ref="AN10">INDEX(Page2!$K$9:$K$38, COLUMN(AN10)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO10" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP10" s="94" t="e">
+      <c r="AP10" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ10" s="101" t="e">
+      <c r="AQ10" s="99" t="e">
         <f>(AO10-H10)/(3*AP10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR10" s="94" t="e">
+      <c r="AR10" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS10" s="94" t="e">
+      <c r="AS10" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT10" s="97" t="e">
+      <c r="AT10" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -17492,118 +17730,147 @@
       <c r="J11" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="99" t="e">
-        <f t="array" ref="K11:AN11">TRANSPOSE(Page3!K9:K38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN11" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO11" s="100" t="e">
+      <c r="K11" s="125" t="e" cm="1">
+        <f t="array" ref="K11">INDEX(Page3!$K$9:$K$38, COLUMN(K11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="125" t="e" cm="1">
+        <f t="array" ref="L11">INDEX(Page3!$K$9:$K$38, COLUMN(L11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="125" t="e" cm="1">
+        <f t="array" ref="M11">INDEX(Page3!$K$9:$K$38, COLUMN(M11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="125" t="e" cm="1">
+        <f t="array" ref="N11">INDEX(Page3!$K$9:$K$38, COLUMN(N11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="125" t="e" cm="1">
+        <f t="array" ref="O11">INDEX(Page3!$K$9:$K$38, COLUMN(O11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="125" t="e" cm="1">
+        <f t="array" ref="P11">INDEX(Page3!$K$9:$K$38, COLUMN(P11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="125" t="e" cm="1">
+        <f t="array" ref="Q11">INDEX(Page3!$K$9:$K$38, COLUMN(Q11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" s="125" t="e" cm="1">
+        <f t="array" ref="R11">INDEX(Page3!$K$9:$K$38, COLUMN(R11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" s="125" t="e" cm="1">
+        <f t="array" ref="S11">INDEX(Page3!$K$9:$K$38, COLUMN(S11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" s="125" t="e" cm="1">
+        <f t="array" ref="T11">INDEX(Page3!$K$9:$K$38, COLUMN(T11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" s="125" t="e" cm="1">
+        <f t="array" ref="U11">INDEX(Page3!$K$9:$K$38, COLUMN(U11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" s="125" t="e" cm="1">
+        <f t="array" ref="V11">INDEX(Page3!$K$9:$K$38, COLUMN(V11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="125" t="e" cm="1">
+        <f t="array" ref="W11">INDEX(Page3!$K$9:$K$38, COLUMN(W11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" s="125" t="e" cm="1">
+        <f t="array" ref="X11">INDEX(Page3!$K$9:$K$38, COLUMN(X11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y11" s="125" t="e" cm="1">
+        <f t="array" ref="Y11">INDEX(Page3!$K$9:$K$38, COLUMN(Y11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z11" s="125" t="e" cm="1">
+        <f t="array" ref="Z11">INDEX(Page3!$K$9:$K$38, COLUMN(Z11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA11" s="125" t="e" cm="1">
+        <f t="array" ref="AA11">INDEX(Page3!$K$9:$K$38, COLUMN(AA11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB11" s="125" t="e" cm="1">
+        <f t="array" ref="AB11">INDEX(Page3!$K$9:$K$38, COLUMN(AB11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC11" s="125" t="e" cm="1">
+        <f t="array" ref="AC11">INDEX(Page3!$K$9:$K$38, COLUMN(AC11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD11" s="125" t="e" cm="1">
+        <f t="array" ref="AD11">INDEX(Page3!$K$9:$K$38, COLUMN(AD11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE11" s="125" t="e" cm="1">
+        <f t="array" ref="AE11">INDEX(Page3!$K$9:$K$38, COLUMN(AE11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF11" s="125" t="e" cm="1">
+        <f t="array" ref="AF11">INDEX(Page3!$K$9:$K$38, COLUMN(AF11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG11" s="125" t="e" cm="1">
+        <f t="array" ref="AG11">INDEX(Page3!$K$9:$K$38, COLUMN(AG11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH11" s="125" t="e" cm="1">
+        <f t="array" ref="AH11">INDEX(Page3!$K$9:$K$38, COLUMN(AH11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI11" s="125" t="e" cm="1">
+        <f t="array" ref="AI11">INDEX(Page3!$K$9:$K$38, COLUMN(AI11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ11" s="125" t="e" cm="1">
+        <f t="array" ref="AJ11">INDEX(Page3!$K$9:$K$38, COLUMN(AJ11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK11" s="125" t="e" cm="1">
+        <f t="array" ref="AK11">INDEX(Page3!$K$9:$K$38, COLUMN(AK11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL11" s="125" t="e" cm="1">
+        <f t="array" ref="AL11">INDEX(Page3!$K$9:$K$38, COLUMN(AL11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM11" s="125" t="e" cm="1">
+        <f t="array" ref="AM11">INDEX(Page3!$K$9:$K$38, COLUMN(AM11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN11" s="125" t="e" cm="1">
+        <f t="array" ref="AN11">INDEX(Page3!$K$9:$K$38, COLUMN(AN11)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO11" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP11" s="94" t="e">
+      <c r="AP11" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ11" s="101" t="e">
+      <c r="AQ11" s="99" t="e">
         <f>(AO11-H11)/(3*AP11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR11" s="94" t="e">
+      <c r="AR11" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS11" s="94" t="e">
+      <c r="AS11" s="93" t="e">
         <f>MAX(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT11" s="97" t="e">
+      <c r="AT11" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -17639,118 +17906,147 @@
       <c r="J12" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K12" s="99" t="e">
-        <f t="array" ref="K12:AN12">TRANSPOSE(Page2!O9:O38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN12" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO12" s="100" t="e">
+      <c r="K12" s="125" t="e" cm="1">
+        <f t="array" ref="K12">INDEX(Page2!$O$9:$O$38, COLUMN(K12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="125" t="e" cm="1">
+        <f t="array" ref="L12">INDEX(Page2!$O$9:$O$38, COLUMN(L12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="125" t="e" cm="1">
+        <f t="array" ref="M12">INDEX(Page2!$O$9:$O$38, COLUMN(M12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" s="125" t="e" cm="1">
+        <f t="array" ref="N12">INDEX(Page2!$O$9:$O$38, COLUMN(N12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="125" t="e" cm="1">
+        <f t="array" ref="O12">INDEX(Page2!$O$9:$O$38, COLUMN(O12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" s="125" t="e" cm="1">
+        <f t="array" ref="P12">INDEX(Page2!$O$9:$O$38, COLUMN(P12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="125" t="e" cm="1">
+        <f t="array" ref="Q12">INDEX(Page2!$O$9:$O$38, COLUMN(Q12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" s="125" t="e" cm="1">
+        <f t="array" ref="R12">INDEX(Page2!$O$9:$O$38, COLUMN(R12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" s="125" t="e" cm="1">
+        <f t="array" ref="S12">INDEX(Page2!$O$9:$O$38, COLUMN(S12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" s="125" t="e" cm="1">
+        <f t="array" ref="T12">INDEX(Page2!$O$9:$O$38, COLUMN(T12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="125" t="e" cm="1">
+        <f t="array" ref="U12">INDEX(Page2!$O$9:$O$38, COLUMN(U12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="125" t="e" cm="1">
+        <f t="array" ref="V12">INDEX(Page2!$O$9:$O$38, COLUMN(V12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="125" t="e" cm="1">
+        <f t="array" ref="W12">INDEX(Page2!$O$9:$O$38, COLUMN(W12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" s="125" t="e" cm="1">
+        <f t="array" ref="X12">INDEX(Page2!$O$9:$O$38, COLUMN(X12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="125" t="e" cm="1">
+        <f t="array" ref="Y12">INDEX(Page2!$O$9:$O$38, COLUMN(Y12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z12" s="125" t="e" cm="1">
+        <f t="array" ref="Z12">INDEX(Page2!$O$9:$O$38, COLUMN(Z12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA12" s="125" t="e" cm="1">
+        <f t="array" ref="AA12">INDEX(Page2!$O$9:$O$38, COLUMN(AA12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB12" s="125" t="e" cm="1">
+        <f t="array" ref="AB12">INDEX(Page2!$O$9:$O$38, COLUMN(AB12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC12" s="125" t="e" cm="1">
+        <f t="array" ref="AC12">INDEX(Page2!$O$9:$O$38, COLUMN(AC12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="125" t="e" cm="1">
+        <f t="array" ref="AD12">INDEX(Page2!$O$9:$O$38, COLUMN(AD12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="125" t="e" cm="1">
+        <f t="array" ref="AE12">INDEX(Page2!$O$9:$O$38, COLUMN(AE12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF12" s="125" t="e" cm="1">
+        <f t="array" ref="AF12">INDEX(Page2!$O$9:$O$38, COLUMN(AF12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" s="125" t="e" cm="1">
+        <f t="array" ref="AG12">INDEX(Page2!$O$9:$O$38, COLUMN(AG12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="125" t="e" cm="1">
+        <f t="array" ref="AH12">INDEX(Page2!$O$9:$O$38, COLUMN(AH12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="125" t="e" cm="1">
+        <f t="array" ref="AI12">INDEX(Page2!$O$9:$O$38, COLUMN(AI12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="125" t="e" cm="1">
+        <f t="array" ref="AJ12">INDEX(Page2!$O$9:$O$38, COLUMN(AJ12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="125" t="e" cm="1">
+        <f t="array" ref="AK12">INDEX(Page2!$O$9:$O$38, COLUMN(AK12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="125" t="e" cm="1">
+        <f t="array" ref="AL12">INDEX(Page2!$O$9:$O$38, COLUMN(AL12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM12" s="125" t="e" cm="1">
+        <f t="array" ref="AM12">INDEX(Page2!$O$9:$O$38, COLUMN(AM12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN12" s="125" t="e" cm="1">
+        <f t="array" ref="AN12">INDEX(Page2!$O$9:$O$38, COLUMN(AN12)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO12" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP12" s="94" t="e">
+      <c r="AP12" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ12" s="101" t="e">
+      <c r="AQ12" s="99" t="e">
         <f>MIN((AO12-H12)/(3*AP12), (I12-AO12)/(3*AP12))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR12" s="94" t="e">
+      <c r="AR12" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS12" s="94" t="e">
+      <c r="AS12" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT12" s="97" t="e">
+      <c r="AT12" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -17783,121 +18079,150 @@
       <c r="I13" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="J13" s="104" t="s">
+      <c r="J13" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="105">
-        <f t="array" ref="K13:AN13">TRANSPOSE(Page1!F8:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="105">
-        <v>0</v>
-      </c>
-      <c r="M13" s="105">
-        <v>0</v>
-      </c>
-      <c r="N13" s="105">
-        <v>0</v>
-      </c>
-      <c r="O13" s="105">
-        <v>0</v>
-      </c>
-      <c r="P13" s="105">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="105">
-        <v>0</v>
-      </c>
-      <c r="R13" s="105">
-        <v>0</v>
-      </c>
-      <c r="S13" s="105">
-        <v>0</v>
-      </c>
-      <c r="T13" s="105">
-        <v>0</v>
-      </c>
-      <c r="U13" s="105">
-        <v>0</v>
-      </c>
-      <c r="V13" s="105">
-        <v>0</v>
-      </c>
-      <c r="W13" s="105">
-        <v>0</v>
-      </c>
-      <c r="X13" s="105">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="105">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="105">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="100">
+      <c r="K13" s="125" cm="1">
+        <f t="array" ref="K13">INDEX(Page1!$F$8:$F$37, COLUMN(K13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="125" cm="1">
+        <f t="array" ref="L13">INDEX(Page1!$F$8:$F$37, COLUMN(L13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="125" cm="1">
+        <f t="array" ref="M13">INDEX(Page1!$F$8:$F$37, COLUMN(M13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="125" cm="1">
+        <f t="array" ref="N13">INDEX(Page1!$F$8:$F$37, COLUMN(N13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="125" cm="1">
+        <f t="array" ref="O13">INDEX(Page1!$F$8:$F$37, COLUMN(O13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="125" cm="1">
+        <f t="array" ref="P13">INDEX(Page1!$F$8:$F$37, COLUMN(P13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="125" cm="1">
+        <f t="array" ref="Q13">INDEX(Page1!$F$8:$F$37, COLUMN(Q13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="125" cm="1">
+        <f t="array" ref="R13">INDEX(Page1!$F$8:$F$37, COLUMN(R13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="125" cm="1">
+        <f t="array" ref="S13">INDEX(Page1!$F$8:$F$37, COLUMN(S13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="125" cm="1">
+        <f t="array" ref="T13">INDEX(Page1!$F$8:$F$37, COLUMN(T13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="125" cm="1">
+        <f t="array" ref="U13">INDEX(Page1!$F$8:$F$37, COLUMN(U13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="125" cm="1">
+        <f t="array" ref="V13">INDEX(Page1!$F$8:$F$37, COLUMN(V13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="125" cm="1">
+        <f t="array" ref="W13">INDEX(Page1!$F$8:$F$37, COLUMN(W13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="125" cm="1">
+        <f t="array" ref="X13">INDEX(Page1!$F$8:$F$37, COLUMN(X13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="125" cm="1">
+        <f t="array" ref="Y13">INDEX(Page1!$F$8:$F$37, COLUMN(Y13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="125" cm="1">
+        <f t="array" ref="Z13">INDEX(Page1!$F$8:$F$37, COLUMN(Z13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="125" cm="1">
+        <f t="array" ref="AA13">INDEX(Page1!$F$8:$F$37, COLUMN(AA13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="125" cm="1">
+        <f t="array" ref="AB13">INDEX(Page1!$F$8:$F$37, COLUMN(AB13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="125" cm="1">
+        <f t="array" ref="AC13">INDEX(Page1!$F$8:$F$37, COLUMN(AC13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="125" cm="1">
+        <f t="array" ref="AD13">INDEX(Page1!$F$8:$F$37, COLUMN(AD13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="125" cm="1">
+        <f t="array" ref="AE13">INDEX(Page1!$F$8:$F$37, COLUMN(AE13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="125" cm="1">
+        <f t="array" ref="AF13">INDEX(Page1!$F$8:$F$37, COLUMN(AF13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="125" cm="1">
+        <f t="array" ref="AG13">INDEX(Page1!$F$8:$F$37, COLUMN(AG13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="125" cm="1">
+        <f t="array" ref="AH13">INDEX(Page1!$F$8:$F$37, COLUMN(AH13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="125" cm="1">
+        <f t="array" ref="AI13">INDEX(Page1!$F$8:$F$37, COLUMN(AI13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="125" cm="1">
+        <f t="array" ref="AJ13">INDEX(Page1!$F$8:$F$37, COLUMN(AJ13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="125" cm="1">
+        <f t="array" ref="AK13">INDEX(Page1!$F$8:$F$37, COLUMN(AK13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="125" cm="1">
+        <f t="array" ref="AL13">INDEX(Page1!$F$8:$F$37, COLUMN(AL13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="125" cm="1">
+        <f t="array" ref="AM13">INDEX(Page1!$F$8:$F$37, COLUMN(AM13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="125" cm="1">
+        <f t="array" ref="AN13">INDEX(Page1!$F$8:$F$37, COLUMN(AN13)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="98">
         <f>AVERAGE(K13:AN13)</f>
         <v>0</v>
       </c>
-      <c r="AP13" s="94">
+      <c r="AP13" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ13" s="101" t="e">
+      <c r="AQ13" s="99" t="e">
         <f>MIN((AO13-H13)/(3*AP13), (I13-AO13)/(3*AP13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR13" s="94">
+      <c r="AR13" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS13" s="94">
+      <c r="AS13" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT13" s="97" t="e">
+      <c r="AT13" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -17921,130 +18246,159 @@
       <c r="F14" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="106">
+      <c r="G14" s="101">
         <v>30</v>
       </c>
-      <c r="H14" s="106">
+      <c r="H14" s="101">
         <v>20</v>
       </c>
-      <c r="I14" s="106">
+      <c r="I14" s="101">
         <v>40</v>
       </c>
-      <c r="J14" s="104" t="s">
+      <c r="J14" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="K14" s="99" t="e">
-        <f t="array" ref="K14:AN14">TRANSPOSE(Page3!O9:O38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN14" s="99" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO14" s="100" t="e">
+      <c r="K14" s="125" t="e" cm="1">
+        <f t="array" ref="K14">INDEX(Page3!$O$9:$O$38, COLUMN(K14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="125" t="e" cm="1">
+        <f t="array" ref="L14">INDEX(Page3!$O$9:$O$38, COLUMN(L14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="125" t="e" cm="1">
+        <f t="array" ref="M14">INDEX(Page3!$O$9:$O$38, COLUMN(M14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="125" t="e" cm="1">
+        <f t="array" ref="N14">INDEX(Page3!$O$9:$O$38, COLUMN(N14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="125" t="e" cm="1">
+        <f t="array" ref="O14">INDEX(Page3!$O$9:$O$38, COLUMN(O14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" s="125" t="e" cm="1">
+        <f t="array" ref="P14">INDEX(Page3!$O$9:$O$38, COLUMN(P14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="125" t="e" cm="1">
+        <f t="array" ref="Q14">INDEX(Page3!$O$9:$O$38, COLUMN(Q14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" s="125" t="e" cm="1">
+        <f t="array" ref="R14">INDEX(Page3!$O$9:$O$38, COLUMN(R14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" s="125" t="e" cm="1">
+        <f t="array" ref="S14">INDEX(Page3!$O$9:$O$38, COLUMN(S14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="125" t="e" cm="1">
+        <f t="array" ref="T14">INDEX(Page3!$O$9:$O$38, COLUMN(T14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="125" t="e" cm="1">
+        <f t="array" ref="U14">INDEX(Page3!$O$9:$O$38, COLUMN(U14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="125" t="e" cm="1">
+        <f t="array" ref="V14">INDEX(Page3!$O$9:$O$38, COLUMN(V14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" s="125" t="e" cm="1">
+        <f t="array" ref="W14">INDEX(Page3!$O$9:$O$38, COLUMN(W14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="125" t="e" cm="1">
+        <f t="array" ref="X14">INDEX(Page3!$O$9:$O$38, COLUMN(X14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="125" t="e" cm="1">
+        <f t="array" ref="Y14">INDEX(Page3!$O$9:$O$38, COLUMN(Y14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z14" s="125" t="e" cm="1">
+        <f t="array" ref="Z14">INDEX(Page3!$O$9:$O$38, COLUMN(Z14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA14" s="125" t="e" cm="1">
+        <f t="array" ref="AA14">INDEX(Page3!$O$9:$O$38, COLUMN(AA14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB14" s="125" t="e" cm="1">
+        <f t="array" ref="AB14">INDEX(Page3!$O$9:$O$38, COLUMN(AB14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC14" s="125" t="e" cm="1">
+        <f t="array" ref="AC14">INDEX(Page3!$O$9:$O$38, COLUMN(AC14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="125" t="e" cm="1">
+        <f t="array" ref="AD14">INDEX(Page3!$O$9:$O$38, COLUMN(AD14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="125" t="e" cm="1">
+        <f t="array" ref="AE14">INDEX(Page3!$O$9:$O$38, COLUMN(AE14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF14" s="125" t="e" cm="1">
+        <f t="array" ref="AF14">INDEX(Page3!$O$9:$O$38, COLUMN(AF14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" s="125" t="e" cm="1">
+        <f t="array" ref="AG14">INDEX(Page3!$O$9:$O$38, COLUMN(AG14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="125" t="e" cm="1">
+        <f t="array" ref="AH14">INDEX(Page3!$O$9:$O$38, COLUMN(AH14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="125" t="e" cm="1">
+        <f t="array" ref="AI14">INDEX(Page3!$O$9:$O$38, COLUMN(AI14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="125" t="e" cm="1">
+        <f t="array" ref="AJ14">INDEX(Page3!$O$9:$O$38, COLUMN(AJ14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="125" t="e" cm="1">
+        <f t="array" ref="AK14">INDEX(Page3!$O$9:$O$38, COLUMN(AK14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="125" t="e" cm="1">
+        <f t="array" ref="AL14">INDEX(Page3!$O$9:$O$38, COLUMN(AL14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM14" s="125" t="e" cm="1">
+        <f t="array" ref="AM14">INDEX(Page3!$O$9:$O$38, COLUMN(AM14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN14" s="125" t="e" cm="1">
+        <f t="array" ref="AN14">INDEX(Page3!$O$9:$O$38, COLUMN(AN14)-10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO14" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP14" s="94" t="e">
+      <c r="AP14" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ14" s="101" t="e">
+      <c r="AQ14" s="99" t="e">
         <f>MIN((AO14-H14)/(3*AP14), (I14-AO14)/(3*AP14))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR14" s="94" t="e">
+      <c r="AR14" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS14" s="94" t="e">
+      <c r="AS14" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT14" s="97" t="e">
+      <c r="AT14" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -18080,118 +18434,147 @@
       <c r="J15" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K15" s="102">
-        <f t="array" ref="K15:AN15">TRANSPOSE(Page1!J8:K37)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="102">
-        <v>0</v>
-      </c>
-      <c r="M15" s="102">
-        <v>0</v>
-      </c>
-      <c r="N15" s="102">
-        <v>0</v>
-      </c>
-      <c r="O15" s="102">
-        <v>0</v>
-      </c>
-      <c r="P15" s="102">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="102">
-        <v>0</v>
-      </c>
-      <c r="R15" s="102">
-        <v>0</v>
-      </c>
-      <c r="S15" s="102">
-        <v>0</v>
-      </c>
-      <c r="T15" s="102">
-        <v>0</v>
-      </c>
-      <c r="U15" s="102">
-        <v>0</v>
-      </c>
-      <c r="V15" s="102">
-        <v>0</v>
-      </c>
-      <c r="W15" s="102">
-        <v>0</v>
-      </c>
-      <c r="X15" s="102">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="100">
+      <c r="K15" s="125" cm="1">
+        <f t="array" ref="K15">INDEX(Page1!$J$8:$J$37, COLUMN(K15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="125" cm="1">
+        <f t="array" ref="L15">INDEX(Page1!$J$8:$J$37, COLUMN(L15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="125" cm="1">
+        <f t="array" ref="M15">INDEX(Page1!$J$8:$J$37, COLUMN(M15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="125" cm="1">
+        <f t="array" ref="N15">INDEX(Page1!$J$8:$J$37, COLUMN(N15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="125" cm="1">
+        <f t="array" ref="O15">INDEX(Page1!$J$8:$J$37, COLUMN(O15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="125" cm="1">
+        <f t="array" ref="P15">INDEX(Page1!$J$8:$J$37, COLUMN(P15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="125" cm="1">
+        <f t="array" ref="Q15">INDEX(Page1!$J$8:$J$37, COLUMN(Q15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="125" cm="1">
+        <f t="array" ref="R15">INDEX(Page1!$J$8:$J$37, COLUMN(R15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="125" cm="1">
+        <f t="array" ref="S15">INDEX(Page1!$J$8:$J$37, COLUMN(S15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="125" cm="1">
+        <f t="array" ref="T15">INDEX(Page1!$J$8:$J$37, COLUMN(T15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="125" cm="1">
+        <f t="array" ref="U15">INDEX(Page1!$J$8:$J$37, COLUMN(U15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="125" cm="1">
+        <f t="array" ref="V15">INDEX(Page1!$J$8:$J$37, COLUMN(V15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="125" cm="1">
+        <f t="array" ref="W15">INDEX(Page1!$J$8:$J$37, COLUMN(W15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="125" cm="1">
+        <f t="array" ref="X15">INDEX(Page1!$J$8:$J$37, COLUMN(X15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="125" cm="1">
+        <f t="array" ref="Y15">INDEX(Page1!$J$8:$J$37, COLUMN(Y15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="125" cm="1">
+        <f t="array" ref="Z15">INDEX(Page1!$J$8:$J$37, COLUMN(Z15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="125" cm="1">
+        <f t="array" ref="AA15">INDEX(Page1!$J$8:$J$37, COLUMN(AA15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="125" cm="1">
+        <f t="array" ref="AB15">INDEX(Page1!$J$8:$J$37, COLUMN(AB15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="125" cm="1">
+        <f t="array" ref="AC15">INDEX(Page1!$J$8:$J$37, COLUMN(AC15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="125" cm="1">
+        <f t="array" ref="AD15">INDEX(Page1!$J$8:$J$37, COLUMN(AD15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="125" cm="1">
+        <f t="array" ref="AE15">INDEX(Page1!$J$8:$J$37, COLUMN(AE15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="125" cm="1">
+        <f t="array" ref="AF15">INDEX(Page1!$J$8:$J$37, COLUMN(AF15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="125" cm="1">
+        <f t="array" ref="AG15">INDEX(Page1!$J$8:$J$37, COLUMN(AG15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="125" cm="1">
+        <f t="array" ref="AH15">INDEX(Page1!$J$8:$J$37, COLUMN(AH15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="125" cm="1">
+        <f t="array" ref="AI15">INDEX(Page1!$J$8:$J$37, COLUMN(AI15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="125" cm="1">
+        <f t="array" ref="AJ15">INDEX(Page1!$J$8:$J$37, COLUMN(AJ15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="125" cm="1">
+        <f t="array" ref="AK15">INDEX(Page1!$J$8:$J$37, COLUMN(AK15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="125" cm="1">
+        <f t="array" ref="AL15">INDEX(Page1!$J$8:$J$37, COLUMN(AL15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="125" cm="1">
+        <f t="array" ref="AM15">INDEX(Page1!$J$8:$J$37, COLUMN(AM15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="125" cm="1">
+        <f t="array" ref="AN15">INDEX(Page1!$J$8:$J$37, COLUMN(AN15)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP15" s="94">
+      <c r="AP15" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="95" t="e">
+      <c r="AQ15" s="94" t="e">
         <f>MIN((AO15-H15)/(3*AP15), (I15-AO15)/(3*AP15))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR15" s="94">
+      <c r="AR15" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS15" s="94">
+      <c r="AS15" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT15" s="97" t="e">
+      <c r="AT15" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -18206,7 +18589,7 @@
       <c r="C16" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="98" t="s">
+      <c r="D16" s="97" t="s">
         <v>154</v>
       </c>
       <c r="E16" s="90" t="s">
@@ -18225,366 +18608,395 @@
       <c r="J16" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="102">
-        <f t="array" ref="K16:AN16">TRANSPOSE(Page1!O8:O37)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="102">
-        <v>0</v>
-      </c>
-      <c r="M16" s="102">
-        <v>0</v>
-      </c>
-      <c r="N16" s="102">
-        <v>0</v>
-      </c>
-      <c r="O16" s="102">
-        <v>0</v>
-      </c>
-      <c r="P16" s="102">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="102">
-        <v>0</v>
-      </c>
-      <c r="R16" s="102">
-        <v>0</v>
-      </c>
-      <c r="S16" s="102">
-        <v>0</v>
-      </c>
-      <c r="T16" s="102">
-        <v>0</v>
-      </c>
-      <c r="U16" s="102">
-        <v>0</v>
-      </c>
-      <c r="V16" s="102">
-        <v>0</v>
-      </c>
-      <c r="W16" s="102">
-        <v>0</v>
-      </c>
-      <c r="X16" s="102">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="102">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="107">
+      <c r="K16" s="125" cm="1">
+        <f t="array" ref="K16">INDEX(Page1!$O$8:$O$37, COLUMN(K16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="125" cm="1">
+        <f t="array" ref="L16">INDEX(Page1!$O$8:$O$37, COLUMN(L16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="125" cm="1">
+        <f t="array" ref="M16">INDEX(Page1!$O$8:$O$37, COLUMN(M16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="125" cm="1">
+        <f t="array" ref="N16">INDEX(Page1!$O$8:$O$37, COLUMN(N16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="125" cm="1">
+        <f t="array" ref="O16">INDEX(Page1!$O$8:$O$37, COLUMN(O16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="125" cm="1">
+        <f t="array" ref="P16">INDEX(Page1!$O$8:$O$37, COLUMN(P16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="125" cm="1">
+        <f t="array" ref="Q16">INDEX(Page1!$O$8:$O$37, COLUMN(Q16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="125" cm="1">
+        <f t="array" ref="R16">INDEX(Page1!$O$8:$O$37, COLUMN(R16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="125" cm="1">
+        <f t="array" ref="S16">INDEX(Page1!$O$8:$O$37, COLUMN(S16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="125" cm="1">
+        <f t="array" ref="T16">INDEX(Page1!$O$8:$O$37, COLUMN(T16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="125" cm="1">
+        <f t="array" ref="U16">INDEX(Page1!$O$8:$O$37, COLUMN(U16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="125" cm="1">
+        <f t="array" ref="V16">INDEX(Page1!$O$8:$O$37, COLUMN(V16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="125" cm="1">
+        <f t="array" ref="W16">INDEX(Page1!$O$8:$O$37, COLUMN(W16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="125" cm="1">
+        <f t="array" ref="X16">INDEX(Page1!$O$8:$O$37, COLUMN(X16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="125" cm="1">
+        <f t="array" ref="Y16">INDEX(Page1!$O$8:$O$37, COLUMN(Y16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="125" cm="1">
+        <f t="array" ref="Z16">INDEX(Page1!$O$8:$O$37, COLUMN(Z16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="125" cm="1">
+        <f t="array" ref="AA16">INDEX(Page1!$O$8:$O$37, COLUMN(AA16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="125" cm="1">
+        <f t="array" ref="AB16">INDEX(Page1!$O$8:$O$37, COLUMN(AB16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="125" cm="1">
+        <f t="array" ref="AC16">INDEX(Page1!$O$8:$O$37, COLUMN(AC16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="125" cm="1">
+        <f t="array" ref="AD16">INDEX(Page1!$O$8:$O$37, COLUMN(AD16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="125" cm="1">
+        <f t="array" ref="AE16">INDEX(Page1!$O$8:$O$37, COLUMN(AE16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="125" cm="1">
+        <f t="array" ref="AF16">INDEX(Page1!$O$8:$O$37, COLUMN(AF16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="125" cm="1">
+        <f t="array" ref="AG16">INDEX(Page1!$O$8:$O$37, COLUMN(AG16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="125" cm="1">
+        <f t="array" ref="AH16">INDEX(Page1!$O$8:$O$37, COLUMN(AH16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="125" cm="1">
+        <f t="array" ref="AI16">INDEX(Page1!$O$8:$O$37, COLUMN(AI16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="125" cm="1">
+        <f t="array" ref="AJ16">INDEX(Page1!$O$8:$O$37, COLUMN(AJ16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="125" cm="1">
+        <f t="array" ref="AK16">INDEX(Page1!$O$8:$O$37, COLUMN(AK16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="125" cm="1">
+        <f t="array" ref="AL16">INDEX(Page1!$O$8:$O$37, COLUMN(AL16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="125" cm="1">
+        <f t="array" ref="AM16">INDEX(Page1!$O$8:$O$37, COLUMN(AM16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="125" cm="1">
+        <f t="array" ref="AN16">INDEX(Page1!$O$8:$O$37, COLUMN(AN16)-10)</f>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP16" s="94">
+      <c r="AP16" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ16" s="101" t="e">
+      <c r="AQ16" s="99" t="e">
         <f>(I16-AO16)/(3*AP16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR16" s="94">
+      <c r="AR16" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS16" s="94">
+      <c r="AS16" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT16" s="97" t="e">
+      <c r="AT16" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="28:46">
-      <c r="AT18" s="108"/>
+      <c r="AT18" s="103"/>
     </row>
     <row r="19" spans="28:46">
-      <c r="AT19" s="108"/>
+      <c r="AT19" s="103"/>
     </row>
     <row r="20" spans="28:46">
-      <c r="AP20" s="108"/>
-      <c r="AQ20" s="108"/>
-      <c r="AR20" s="108"/>
-      <c r="AS20" s="108"/>
-      <c r="AT20" s="108"/>
+      <c r="AP20" s="103"/>
+      <c r="AQ20" s="103"/>
+      <c r="AR20" s="103"/>
+      <c r="AS20" s="103"/>
+      <c r="AT20" s="103"/>
     </row>
     <row r="21" spans="28:46">
-      <c r="AP21" s="108"/>
-      <c r="AQ21" s="108"/>
-      <c r="AR21" s="108"/>
-      <c r="AS21" s="108"/>
-      <c r="AT21" s="108"/>
+      <c r="AP21" s="103"/>
+      <c r="AQ21" s="103"/>
+      <c r="AR21" s="103"/>
+      <c r="AS21" s="103"/>
+      <c r="AT21" s="103"/>
     </row>
     <row r="22" spans="28:46">
-      <c r="AP22" s="108"/>
-      <c r="AQ22" s="108"/>
-      <c r="AR22" s="108"/>
-      <c r="AS22" s="108"/>
-      <c r="AT22" s="108"/>
+      <c r="AP22" s="103"/>
+      <c r="AQ22" s="103"/>
+      <c r="AR22" s="103"/>
+      <c r="AS22" s="103"/>
+      <c r="AT22" s="103"/>
     </row>
     <row r="23" spans="28:46">
-      <c r="AP23" s="108"/>
-      <c r="AQ23" s="108"/>
-      <c r="AR23" s="108"/>
-      <c r="AS23" s="108"/>
-      <c r="AT23" s="108"/>
+      <c r="AP23" s="103"/>
+      <c r="AQ23" s="103"/>
+      <c r="AR23" s="103"/>
+      <c r="AS23" s="103"/>
+      <c r="AT23" s="103"/>
     </row>
     <row r="24" spans="28:46" ht="11.25" customHeight="1">
-      <c r="AB24" s="109"/>
-      <c r="AC24" s="109"/>
-      <c r="AP24" s="108"/>
-      <c r="AQ24" s="108"/>
-      <c r="AR24" s="108"/>
-      <c r="AS24" s="108"/>
-      <c r="AT24" s="108"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="104"/>
+      <c r="AP24" s="103"/>
+      <c r="AQ24" s="103"/>
+      <c r="AR24" s="103"/>
+      <c r="AS24" s="103"/>
+      <c r="AT24" s="103"/>
     </row>
     <row r="25" spans="28:46" ht="11.25" customHeight="1">
-      <c r="AB25" s="109"/>
-      <c r="AC25" s="109"/>
-      <c r="AP25" s="108"/>
-      <c r="AQ25" s="108"/>
-      <c r="AR25" s="108"/>
-      <c r="AS25" s="108"/>
-      <c r="AT25" s="108"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="104"/>
+      <c r="AP25" s="103"/>
+      <c r="AQ25" s="103"/>
+      <c r="AR25" s="103"/>
+      <c r="AS25" s="103"/>
+      <c r="AT25" s="103"/>
     </row>
     <row r="26" spans="28:46">
-      <c r="AB26" s="109"/>
-      <c r="AC26" s="109"/>
-      <c r="AP26" s="108"/>
-      <c r="AQ26" s="108"/>
-      <c r="AR26" s="108"/>
-      <c r="AS26" s="108"/>
-      <c r="AT26" s="108"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AP26" s="103"/>
+      <c r="AQ26" s="103"/>
+      <c r="AR26" s="103"/>
+      <c r="AS26" s="103"/>
+      <c r="AT26" s="103"/>
     </row>
     <row r="27" spans="28:46">
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="109"/>
-      <c r="AP27" s="108"/>
-      <c r="AQ27" s="108"/>
-      <c r="AR27" s="108"/>
-      <c r="AS27" s="108"/>
-      <c r="AT27" s="108"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="104"/>
+      <c r="AP27" s="103"/>
+      <c r="AQ27" s="103"/>
+      <c r="AR27" s="103"/>
+      <c r="AS27" s="103"/>
+      <c r="AT27" s="103"/>
     </row>
     <row r="28" spans="28:46">
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="109"/>
-      <c r="AP28" s="108"/>
-      <c r="AQ28" s="108"/>
-      <c r="AR28" s="108"/>
-      <c r="AS28" s="108"/>
-      <c r="AT28" s="108"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="104"/>
+      <c r="AP28" s="103"/>
+      <c r="AQ28" s="103"/>
+      <c r="AR28" s="103"/>
+      <c r="AS28" s="103"/>
+      <c r="AT28" s="103"/>
     </row>
     <row r="29" spans="28:46">
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="109"/>
-      <c r="AP29" s="108"/>
-      <c r="AQ29" s="108"/>
-      <c r="AR29" s="108"/>
-      <c r="AS29" s="108"/>
-      <c r="AT29" s="108"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="104"/>
+      <c r="AP29" s="103"/>
+      <c r="AQ29" s="103"/>
+      <c r="AR29" s="103"/>
+      <c r="AS29" s="103"/>
+      <c r="AT29" s="103"/>
     </row>
     <row r="30" spans="28:46">
-      <c r="AB30" s="109"/>
-      <c r="AC30" s="109"/>
-      <c r="AP30" s="108"/>
-      <c r="AQ30" s="108"/>
-      <c r="AR30" s="108"/>
-      <c r="AS30" s="108"/>
-      <c r="AT30" s="108"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="104"/>
+      <c r="AP30" s="103"/>
+      <c r="AQ30" s="103"/>
+      <c r="AR30" s="103"/>
+      <c r="AS30" s="103"/>
+      <c r="AT30" s="103"/>
     </row>
     <row r="31" spans="28:46">
-      <c r="AB31" s="109"/>
-      <c r="AC31" s="109"/>
-      <c r="AP31" s="108"/>
-      <c r="AQ31" s="108"/>
-      <c r="AR31" s="108"/>
-      <c r="AS31" s="108"/>
+      <c r="AB31" s="104"/>
+      <c r="AC31" s="104"/>
+      <c r="AP31" s="103"/>
+      <c r="AQ31" s="103"/>
+      <c r="AR31" s="103"/>
+      <c r="AS31" s="103"/>
     </row>
     <row r="32" spans="28:46">
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="109"/>
-      <c r="AP32" s="108"/>
-      <c r="AQ32" s="108"/>
-      <c r="AR32" s="108"/>
-      <c r="AS32" s="108"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="104"/>
+      <c r="AP32" s="103"/>
+      <c r="AQ32" s="103"/>
+      <c r="AR32" s="103"/>
+      <c r="AS32" s="103"/>
     </row>
     <row r="33" spans="28:45">
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="109"/>
-      <c r="AP33" s="108"/>
-      <c r="AQ33" s="108"/>
-      <c r="AR33" s="108"/>
-      <c r="AS33" s="108"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="104"/>
+      <c r="AP33" s="103"/>
+      <c r="AQ33" s="103"/>
+      <c r="AR33" s="103"/>
+      <c r="AS33" s="103"/>
     </row>
     <row r="34" spans="28:45">
-      <c r="AB34" s="109"/>
-      <c r="AC34" s="109"/>
-      <c r="AP34" s="108"/>
-      <c r="AQ34" s="108"/>
-      <c r="AR34" s="108"/>
-      <c r="AS34" s="108"/>
+      <c r="AB34" s="104"/>
+      <c r="AC34" s="104"/>
+      <c r="AP34" s="103"/>
+      <c r="AQ34" s="103"/>
+      <c r="AR34" s="103"/>
+      <c r="AS34" s="103"/>
     </row>
     <row r="35" spans="28:45">
-      <c r="AB35" s="109"/>
-      <c r="AC35" s="109"/>
-      <c r="AP35" s="108"/>
-      <c r="AQ35" s="108"/>
-      <c r="AR35" s="108"/>
-      <c r="AS35" s="108"/>
+      <c r="AB35" s="104"/>
+      <c r="AC35" s="104"/>
+      <c r="AP35" s="103"/>
+      <c r="AQ35" s="103"/>
+      <c r="AR35" s="103"/>
+      <c r="AS35" s="103"/>
     </row>
     <row r="36" spans="28:45">
-      <c r="AB36" s="109"/>
-      <c r="AC36" s="109"/>
-      <c r="AP36" s="108"/>
-      <c r="AQ36" s="108"/>
-      <c r="AR36" s="108"/>
-      <c r="AS36" s="108"/>
+      <c r="AB36" s="104"/>
+      <c r="AC36" s="104"/>
+      <c r="AP36" s="103"/>
+      <c r="AQ36" s="103"/>
+      <c r="AR36" s="103"/>
+      <c r="AS36" s="103"/>
     </row>
     <row r="37" spans="28:45">
-      <c r="AB37" s="109"/>
-      <c r="AC37" s="109"/>
-      <c r="AP37" s="108"/>
-      <c r="AQ37" s="108"/>
-      <c r="AR37" s="108"/>
-      <c r="AS37" s="108"/>
+      <c r="AB37" s="104"/>
+      <c r="AC37" s="104"/>
+      <c r="AP37" s="103"/>
+      <c r="AQ37" s="103"/>
+      <c r="AR37" s="103"/>
+      <c r="AS37" s="103"/>
     </row>
     <row r="38" spans="28:45">
-      <c r="AB38" s="109"/>
-      <c r="AC38" s="109"/>
-      <c r="AP38" s="108"/>
-      <c r="AQ38" s="108"/>
-      <c r="AR38" s="108"/>
-      <c r="AS38" s="108"/>
+      <c r="AB38" s="104"/>
+      <c r="AC38" s="104"/>
+      <c r="AP38" s="103"/>
+      <c r="AQ38" s="103"/>
+      <c r="AR38" s="103"/>
+      <c r="AS38" s="103"/>
     </row>
     <row r="39" spans="28:45">
-      <c r="AB39" s="109"/>
-      <c r="AC39" s="109"/>
-      <c r="AP39" s="108"/>
-      <c r="AQ39" s="108"/>
-      <c r="AR39" s="108"/>
-      <c r="AS39" s="108"/>
+      <c r="AB39" s="104"/>
+      <c r="AC39" s="104"/>
+      <c r="AP39" s="103"/>
+      <c r="AQ39" s="103"/>
+      <c r="AR39" s="103"/>
+      <c r="AS39" s="103"/>
     </row>
     <row r="40" spans="28:45">
-      <c r="AB40" s="109"/>
-      <c r="AC40" s="109"/>
-      <c r="AP40" s="108"/>
-      <c r="AQ40" s="108"/>
-      <c r="AR40" s="108"/>
-      <c r="AS40" s="108"/>
+      <c r="AB40" s="104"/>
+      <c r="AC40" s="104"/>
+      <c r="AP40" s="103"/>
+      <c r="AQ40" s="103"/>
+      <c r="AR40" s="103"/>
+      <c r="AS40" s="103"/>
     </row>
     <row r="41" spans="28:45">
-      <c r="AB41" s="109"/>
-      <c r="AC41" s="109"/>
-      <c r="AP41" s="108"/>
-      <c r="AQ41" s="108"/>
-      <c r="AR41" s="108"/>
-      <c r="AS41" s="108"/>
+      <c r="AB41" s="104"/>
+      <c r="AC41" s="104"/>
+      <c r="AP41" s="103"/>
+      <c r="AQ41" s="103"/>
+      <c r="AR41" s="103"/>
+      <c r="AS41" s="103"/>
     </row>
     <row r="42" spans="28:45">
-      <c r="AB42" s="109"/>
-      <c r="AC42" s="109"/>
-      <c r="AP42" s="108"/>
-      <c r="AQ42" s="108"/>
-      <c r="AR42" s="108"/>
-      <c r="AS42" s="108"/>
+      <c r="AB42" s="104"/>
+      <c r="AC42" s="104"/>
+      <c r="AP42" s="103"/>
+      <c r="AQ42" s="103"/>
+      <c r="AR42" s="103"/>
+      <c r="AS42" s="103"/>
     </row>
     <row r="43" spans="28:45">
-      <c r="AB43" s="109"/>
-      <c r="AC43" s="109"/>
-      <c r="AP43" s="108"/>
-      <c r="AQ43" s="108"/>
-      <c r="AR43" s="108"/>
-      <c r="AS43" s="108"/>
+      <c r="AB43" s="104"/>
+      <c r="AC43" s="104"/>
+      <c r="AP43" s="103"/>
+      <c r="AQ43" s="103"/>
+      <c r="AR43" s="103"/>
+      <c r="AS43" s="103"/>
     </row>
     <row r="44" spans="28:45">
-      <c r="AB44" s="109"/>
-      <c r="AC44" s="109"/>
-      <c r="AP44" s="108"/>
-      <c r="AQ44" s="108"/>
-      <c r="AR44" s="108"/>
-      <c r="AS44" s="108"/>
+      <c r="AB44" s="104"/>
+      <c r="AC44" s="104"/>
+      <c r="AP44" s="103"/>
+      <c r="AQ44" s="103"/>
+      <c r="AR44" s="103"/>
+      <c r="AS44" s="103"/>
     </row>
     <row r="45" spans="28:45">
-      <c r="AB45" s="109"/>
-      <c r="AC45" s="109"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="104"/>
     </row>
     <row r="46" spans="28:45">
-      <c r="AB46" s="109"/>
-      <c r="AC46" s="109"/>
+      <c r="AB46" s="104"/>
+      <c r="AC46" s="104"/>
     </row>
     <row r="47" spans="28:45">
-      <c r="AB47" s="109"/>
-      <c r="AC47" s="109"/>
+      <c r="AB47" s="104"/>
+      <c r="AC47" s="104"/>
     </row>
     <row r="48" spans="28:45">
-      <c r="AB48" s="109"/>
-      <c r="AC48" s="109"/>
+      <c r="AB48" s="104"/>
+      <c r="AC48" s="104"/>
     </row>
     <row r="49" spans="28:29">
-      <c r="AB49" s="109"/>
-      <c r="AC49" s="109"/>
+      <c r="AB49" s="104"/>
+      <c r="AC49" s="104"/>
     </row>
     <row r="50" spans="28:29">
-      <c r="AB50" s="109"/>
-      <c r="AC50" s="109"/>
+      <c r="AB50" s="104"/>
+      <c r="AC50" s="104"/>
     </row>
     <row r="51" spans="28:29">
-      <c r="AB51" s="109"/>
-      <c r="AC51" s="109"/>
+      <c r="AB51" s="104"/>
+      <c r="AC51" s="104"/>
     </row>
     <row r="52" spans="28:29">
-      <c r="AB52" s="109"/>
-      <c r="AC52" s="109"/>
+      <c r="AB52" s="104"/>
+      <c r="AC52" s="104"/>
     </row>
     <row r="53" spans="28:29">
-      <c r="AB53" s="109"/>
-      <c r="AC53" s="109"/>
+      <c r="AB53" s="104"/>
+      <c r="AC53" s="104"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AT3:AT16">

--- a/backend/templates/168-16cp-kranti.xlsx
+++ b/backend/templates/168-16cp-kranti.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984342A4-6A3B-41D7-B826-430916A9D23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24E9687-93EB-41BA-ABBE-482FB84F4691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1434,7 +1434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1849,67 +1849,25 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1931,31 +1889,113 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1982,110 +2022,212 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2131,302 +2273,166 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2445,10 +2451,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2457,26 +2459,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3089,7 +3093,7 @@
             <c:numRef>
               <c:f>CpK!$K$5:$AN$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3232,7 +3236,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4398,7 +4402,7 @@
             <c:numRef>
               <c:f>CpK!$K$4:$AN$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4541,7 +4545,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4717,7 +4721,7 @@
             <c:numRef>
               <c:f>CpK!$K$11:$AN$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4860,7 +4864,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5045,7 +5049,7 @@
             <c:numRef>
               <c:f>CpK!$K$10:$AN$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5187,7 +5191,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5372,7 +5376,7 @@
             <c:numRef>
               <c:f>CpK!$K$12:$AN$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5515,7 +5519,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5700,7 +5704,7 @@
             <c:numRef>
               <c:f>CpK!$K$9:$AN$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5842,7 +5846,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6017,7 +6021,7 @@
             <c:numRef>
               <c:f>CpK!$K$8:$AN$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6159,7 +6163,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6334,7 +6338,7 @@
             <c:numRef>
               <c:f>CpK!$K$13:$AN$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6477,7 +6481,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6652,7 +6656,7 @@
             <c:numRef>
               <c:f>CpK!$K$14:$AN$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6794,7 +6798,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7987,7 +7991,7 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:G37"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7999,161 +8003,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="184" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="184"/>
+      <c r="O1" s="164"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="185" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="185"/>
+      <c r="O2" s="165"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
       <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="175" t="s">
+      <c r="B4" s="155"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="175"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="168"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="148"/>
       <c r="J4" s="29" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="113"/>
-      <c r="L4" s="182" t="s">
+      <c r="L4" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="183"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="173"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="153"/>
     </row>
     <row r="5" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="177" t="s">
+      <c r="B5" s="157"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="177"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="171"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="151"/>
       <c r="J5" s="60" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="114"/>
-      <c r="L5" s="180" t="s">
+      <c r="L5" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="181"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="179"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="159"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="154"/>
-      <c r="O6" s="155"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="174"/>
     </row>
     <row r="7" spans="1:15" s="62" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A7" s="188" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="189" t="s">
+      <c r="A7" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189" t="s">
+      <c r="E7" s="138"/>
+      <c r="F7" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="189"/>
-      <c r="H7" s="190" t="s">
+      <c r="G7" s="138"/>
+      <c r="H7" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="192"/>
-      <c r="J7" s="190" t="s">
+      <c r="I7" s="141"/>
+      <c r="J7" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="192"/>
-      <c r="L7" s="189" t="s">
+      <c r="K7" s="141"/>
+      <c r="L7" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="189"/>
+      <c r="M7" s="138"/>
       <c r="N7" s="119" t="s">
         <v>30</v>
       </c>
@@ -8165,16 +8169,16 @@
       <c r="A8" s="55"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="110"/>
       <c r="O8" s="49"/>
     </row>
@@ -8182,16 +8186,16 @@
       <c r="A9" s="55"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
       <c r="N9" s="108"/>
       <c r="O9" s="50"/>
     </row>
@@ -8199,16 +8203,16 @@
       <c r="A10" s="55"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
       <c r="N10" s="108"/>
       <c r="O10" s="50"/>
     </row>
@@ -8216,16 +8220,16 @@
       <c r="A11" s="55"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
       <c r="N11" s="110"/>
       <c r="O11" s="49"/>
     </row>
@@ -8233,16 +8237,16 @@
       <c r="A12" s="55"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
       <c r="N12" s="108"/>
       <c r="O12" s="50"/>
     </row>
@@ -8250,16 +8254,16 @@
       <c r="A13" s="55"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
       <c r="N13" s="108"/>
       <c r="O13" s="50"/>
     </row>
@@ -8267,16 +8271,16 @@
       <c r="A14" s="55"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
       <c r="N14" s="108"/>
       <c r="O14" s="50"/>
     </row>
@@ -8284,16 +8288,16 @@
       <c r="A15" s="55"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
       <c r="N15" s="108"/>
       <c r="O15" s="50"/>
     </row>
@@ -8301,16 +8305,16 @@
       <c r="A16" s="55"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="148"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
       <c r="N16" s="108"/>
       <c r="O16" s="50"/>
     </row>
@@ -8318,16 +8322,16 @@
       <c r="A17" s="55"/>
       <c r="B17" s="57"/>
       <c r="C17" s="56"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="148"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
       <c r="N17" s="108"/>
       <c r="O17" s="50"/>
     </row>
@@ -8335,16 +8339,16 @@
       <c r="A18" s="55"/>
       <c r="B18" s="57"/>
       <c r="C18" s="56"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
       <c r="N18" s="108"/>
       <c r="O18" s="50"/>
     </row>
@@ -8352,16 +8356,16 @@
       <c r="A19" s="55"/>
       <c r="B19" s="57"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
       <c r="N19" s="108"/>
       <c r="O19" s="50"/>
     </row>
@@ -8369,16 +8373,16 @@
       <c r="A20" s="55"/>
       <c r="B20" s="57"/>
       <c r="C20" s="56"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
       <c r="N20" s="108"/>
       <c r="O20" s="50"/>
     </row>
@@ -8386,16 +8390,16 @@
       <c r="A21" s="55"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
       <c r="N21" s="110"/>
       <c r="O21" s="49"/>
     </row>
@@ -8403,16 +8407,16 @@
       <c r="A22" s="55"/>
       <c r="B22" s="57"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
       <c r="N22" s="108"/>
       <c r="O22" s="50"/>
     </row>
@@ -8420,16 +8424,16 @@
       <c r="A23" s="55"/>
       <c r="B23" s="57"/>
       <c r="C23" s="56"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="133"/>
       <c r="N23" s="108"/>
       <c r="O23" s="50"/>
     </row>
@@ -8437,16 +8441,16 @@
       <c r="A24" s="55"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="128"/>
       <c r="N24" s="110"/>
       <c r="O24" s="49"/>
     </row>
@@ -8454,16 +8458,16 @@
       <c r="A25" s="55"/>
       <c r="B25" s="57"/>
       <c r="C25" s="56"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="133"/>
       <c r="N25" s="108"/>
       <c r="O25" s="50"/>
     </row>
@@ -8471,16 +8475,16 @@
       <c r="A26" s="55"/>
       <c r="B26" s="57"/>
       <c r="C26" s="56"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
       <c r="N26" s="108"/>
       <c r="O26" s="50"/>
     </row>
@@ -8488,16 +8492,16 @@
       <c r="A27" s="55"/>
       <c r="B27" s="57"/>
       <c r="C27" s="56"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
       <c r="N27" s="108"/>
       <c r="O27" s="50"/>
     </row>
@@ -8505,16 +8509,16 @@
       <c r="A28" s="55"/>
       <c r="B28" s="57"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="133"/>
       <c r="N28" s="108"/>
       <c r="O28" s="50"/>
     </row>
@@ -8522,16 +8526,16 @@
       <c r="A29" s="55"/>
       <c r="B29" s="57"/>
       <c r="C29" s="56"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="148"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="133"/>
       <c r="N29" s="108"/>
       <c r="O29" s="50"/>
     </row>
@@ -8539,16 +8543,16 @@
       <c r="A30" s="55"/>
       <c r="B30" s="57"/>
       <c r="C30" s="56"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="148"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="133"/>
+      <c r="M30" s="133"/>
       <c r="N30" s="108"/>
       <c r="O30" s="50"/>
     </row>
@@ -8556,16 +8560,16 @@
       <c r="A31" s="55"/>
       <c r="B31" s="57"/>
       <c r="C31" s="56"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="148"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="133"/>
+      <c r="M31" s="133"/>
       <c r="N31" s="108"/>
       <c r="O31" s="50"/>
     </row>
@@ -8573,16 +8577,16 @@
       <c r="A32" s="55"/>
       <c r="B32" s="57"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="148"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="133"/>
       <c r="N32" s="108"/>
       <c r="O32" s="50"/>
     </row>
@@ -8590,16 +8594,16 @@
       <c r="A33" s="55"/>
       <c r="B33" s="57"/>
       <c r="C33" s="56"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="133"/>
+      <c r="M33" s="133"/>
       <c r="N33" s="108"/>
       <c r="O33" s="50"/>
     </row>
@@ -8607,16 +8611,16 @@
       <c r="A34" s="55"/>
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="128"/>
       <c r="N34" s="110"/>
       <c r="O34" s="49"/>
     </row>
@@ -8624,16 +8628,16 @@
       <c r="A35" s="55"/>
       <c r="B35" s="57"/>
       <c r="C35" s="56"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="148"/>
-      <c r="M35" s="148"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="129"/>
+      <c r="L35" s="133"/>
+      <c r="M35" s="133"/>
       <c r="N35" s="108"/>
       <c r="O35" s="50"/>
     </row>
@@ -8641,16 +8645,16 @@
       <c r="A36" s="55"/>
       <c r="B36" s="57"/>
       <c r="C36" s="56"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="148"/>
-      <c r="M36" s="148"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="133"/>
       <c r="N36" s="108"/>
       <c r="O36" s="50"/>
     </row>
@@ -8658,50 +8662,50 @@
       <c r="A37" s="55"/>
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="128"/>
+      <c r="M37" s="128"/>
       <c r="N37" s="110"/>
       <c r="O37" s="49"/>
     </row>
     <row r="38" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="132" t="s">
+      <c r="A38" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="133"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="126" t="e">
+      <c r="B38" s="182"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="175" t="e">
         <f>AVERAGE(D8:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="126"/>
-      <c r="F38" s="138" t="e">
+      <c r="E38" s="175"/>
+      <c r="F38" s="187" t="e">
         <f t="shared" ref="F38" si="0">AVERAGE(F8:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="138"/>
-      <c r="H38" s="141" t="e">
+      <c r="G38" s="187"/>
+      <c r="H38" s="190" t="e">
         <f t="shared" ref="H38" si="1">AVERAGE(H8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="141"/>
-      <c r="J38" s="126" t="e">
+      <c r="I38" s="190"/>
+      <c r="J38" s="175" t="e">
         <f t="shared" ref="J38" si="2">AVERAGE(J8:K37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="126"/>
-      <c r="L38" s="129" t="e">
+      <c r="K38" s="175"/>
+      <c r="L38" s="178" t="e">
         <f t="shared" ref="L38" si="3">AVERAGE(L8:M37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="129"/>
+      <c r="M38" s="178"/>
       <c r="N38" s="105" t="e">
         <f>AVERAGE(N8:N37)</f>
         <v>#DIV/0!</v>
@@ -8712,36 +8716,36 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="134" t="s">
+      <c r="A39" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="127">
+      <c r="B39" s="184"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="176">
         <f>MIN(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="127"/>
-      <c r="F39" s="139">
+      <c r="E39" s="176"/>
+      <c r="F39" s="188">
         <f t="shared" ref="F39" si="4">MIN(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="139"/>
-      <c r="H39" s="142">
+      <c r="G39" s="188"/>
+      <c r="H39" s="191">
         <f t="shared" ref="H39" si="5">MIN(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="142"/>
-      <c r="J39" s="127">
+      <c r="I39" s="191"/>
+      <c r="J39" s="176">
         <f t="shared" ref="J39" si="6">MIN(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="127"/>
-      <c r="L39" s="130">
+      <c r="K39" s="176"/>
+      <c r="L39" s="179">
         <f t="shared" ref="L39" si="7">MIN(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="130"/>
+      <c r="M39" s="179"/>
       <c r="N39" s="106">
         <f>MIN(N8:N37)</f>
         <v>0</v>
@@ -8752,36 +8756,36 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="136" t="s">
+      <c r="A40" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="128">
+      <c r="B40" s="186"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="177">
         <f>MAX(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="128"/>
-      <c r="F40" s="140">
+      <c r="E40" s="177"/>
+      <c r="F40" s="189">
         <f t="shared" ref="F40" si="8">MAX(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="140"/>
-      <c r="H40" s="143">
+      <c r="G40" s="189"/>
+      <c r="H40" s="192">
         <f t="shared" ref="H40" si="9">MAX(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="143"/>
-      <c r="J40" s="128">
+      <c r="I40" s="192"/>
+      <c r="J40" s="177">
         <f t="shared" ref="J40" si="10">MAX(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="128"/>
-      <c r="L40" s="131">
+      <c r="K40" s="177"/>
+      <c r="L40" s="180">
         <f t="shared" ref="L40" si="11">MAX(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="131"/>
+      <c r="M40" s="180"/>
       <c r="N40" s="107">
         <f>MAX(N8:N37)</f>
         <v>0</v>
@@ -8795,31 +8799,31 @@
       <c r="A41" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="162" t="s">
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="162"/>
+      <c r="E41" s="172"/>
       <c r="F41" s="51"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
-      <c r="K41" s="156" t="s">
+      <c r="K41" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="156"/>
-      <c r="M41" s="158"/>
-      <c r="N41" s="158"/>
+      <c r="L41" s="166"/>
+      <c r="M41" s="168"/>
+      <c r="N41" s="168"/>
       <c r="O41" s="70" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="70"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="163"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="70"/>
@@ -8829,15 +8833,15 @@
       <c r="J42" s="52"/>
       <c r="K42" s="111"/>
       <c r="L42" s="111"/>
-      <c r="M42" s="158"/>
-      <c r="N42" s="158"/>
+      <c r="M42" s="168"/>
+      <c r="N42" s="168"/>
       <c r="O42" s="111"/>
     </row>
     <row r="43" spans="1:15" s="38" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="160" t="s">
+      <c r="A43" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="160"/>
+      <c r="B43" s="170"/>
       <c r="C43" s="70"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -8845,22 +8849,22 @@
       <c r="G43" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="160" t="s">
+      <c r="H43" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="160"/>
-      <c r="J43" s="160"/>
-      <c r="K43" s="160"/>
+      <c r="I43" s="170"/>
+      <c r="J43" s="170"/>
+      <c r="K43" s="170"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="161"/>
+      <c r="B44" s="171"/>
       <c r="C44" s="112"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -8903,49 +8907,241 @@
       <c r="M52" s="54"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="157"/>
-      <c r="D76" s="157"/>
-      <c r="E76" s="157"/>
-      <c r="I76" s="157"/>
-      <c r="J76" s="157"/>
-      <c r="K76" s="157"/>
-      <c r="L76" s="157"/>
-      <c r="M76" s="157"/>
-      <c r="N76" s="157"/>
-      <c r="O76" s="157"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="167"/>
+      <c r="E76" s="167"/>
+      <c r="I76" s="167"/>
+      <c r="J76" s="167"/>
+      <c r="K76" s="167"/>
+      <c r="L76" s="167"/>
+      <c r="M76" s="167"/>
+      <c r="N76" s="167"/>
+      <c r="O76" s="167"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="157"/>
-      <c r="D77" s="157"/>
-      <c r="E77" s="157"/>
-      <c r="F77" s="157"/>
-      <c r="I77" s="157"/>
-      <c r="J77" s="157"/>
-      <c r="K77" s="157"/>
-      <c r="L77" s="157"/>
-      <c r="M77" s="157"/>
-      <c r="N77" s="157"/>
-      <c r="O77" s="157"/>
+      <c r="C77" s="167"/>
+      <c r="D77" s="167"/>
+      <c r="E77" s="167"/>
+      <c r="F77" s="167"/>
+      <c r="I77" s="167"/>
+      <c r="J77" s="167"/>
+      <c r="K77" s="167"/>
+      <c r="L77" s="167"/>
+      <c r="M77" s="167"/>
+      <c r="N77" s="167"/>
+      <c r="O77" s="167"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="157"/>
-      <c r="D78" s="157"/>
-      <c r="E78" s="157"/>
-      <c r="I78" s="157"/>
-      <c r="J78" s="157"/>
-      <c r="K78" s="157"/>
-      <c r="L78" s="157"/>
-      <c r="M78" s="157"/>
-      <c r="N78" s="157"/>
-      <c r="O78" s="157"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="167"/>
+      <c r="E78" s="167"/>
+      <c r="I78" s="167"/>
+      <c r="J78" s="167"/>
+      <c r="K78" s="167"/>
+      <c r="L78" s="167"/>
+      <c r="M78" s="167"/>
+      <c r="N78" s="167"/>
+      <c r="O78" s="167"/>
     </row>
     <row r="79" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C79" s="157"/>
-      <c r="D79" s="157"/>
-      <c r="E79" s="157"/>
+      <c r="C79" s="167"/>
+      <c r="D79" s="167"/>
+      <c r="E79" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
@@ -8970,198 +9166,6 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D8:E40">
@@ -9230,7 +9234,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9241,61 +9245,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="200" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="184" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="184"/>
+      <c r="O1" s="164"/>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="185" t="s">
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="185"/>
+      <c r="O2" s="165"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="235"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -9305,124 +9309,124 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="236">
+      <c r="B4" s="202">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="182" t="s">
+      <c r="C4" s="203"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="183"/>
-      <c r="G4" s="236">
+      <c r="F4" s="163"/>
+      <c r="G4" s="202">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="238"/>
+      <c r="H4" s="204"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="239">
+      <c r="J4" s="205">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="239"/>
-      <c r="L4" s="175" t="s">
+      <c r="K4" s="205"/>
+      <c r="L4" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="175"/>
-      <c r="N4" s="236">
+      <c r="M4" s="155"/>
+      <c r="N4" s="202">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="240"/>
+      <c r="O4" s="206"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="154">
+      <c r="B5" s="136">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="204" t="s">
+      <c r="C5" s="240"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="205"/>
-      <c r="G5" s="154">
+      <c r="F5" s="242"/>
+      <c r="G5" s="136">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="191"/>
+      <c r="H5" s="140"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="187">
+      <c r="J5" s="135">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="187"/>
-      <c r="L5" s="202" t="s">
+      <c r="K5" s="135"/>
+      <c r="L5" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="202"/>
-      <c r="N5" s="154">
+      <c r="M5" s="239"/>
+      <c r="N5" s="136">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="155"/>
+      <c r="O5" s="174"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="236" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="200"/>
-      <c r="K6" s="200"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="201"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="237"/>
+      <c r="J6" s="237"/>
+      <c r="K6" s="237"/>
+      <c r="L6" s="237"/>
+      <c r="M6" s="237"/>
+      <c r="N6" s="237"/>
+      <c r="O6" s="238"/>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="241" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="209"/>
-      <c r="C7" s="242"/>
-      <c r="D7" s="195" t="s">
+      <c r="A7" s="207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="208"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="195"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="196" t="s">
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
+      <c r="G7" s="232"/>
+      <c r="H7" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="198"/>
-      <c r="L7" s="196" t="s">
+      <c r="I7" s="234"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="235"/>
+      <c r="L7" s="233" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="206"/>
+      <c r="M7" s="234"/>
+      <c r="N7" s="234"/>
+      <c r="O7" s="243"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="243"/>
-      <c r="B8" s="244"/>
-      <c r="C8" s="245"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="212"/>
       <c r="D8" s="10">
         <v>1</v>
       </c>
@@ -10516,27 +10520,27 @@
       <c r="C39" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="227" t="e">
+      <c r="D39" s="193" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="228"/>
-      <c r="F39" s="228"/>
-      <c r="G39" s="229"/>
-      <c r="H39" s="230" t="e">
+      <c r="E39" s="194"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="195"/>
+      <c r="H39" s="196" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="231"/>
-      <c r="J39" s="231"/>
-      <c r="K39" s="232"/>
-      <c r="L39" s="230" t="e">
+      <c r="I39" s="197"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="198"/>
+      <c r="L39" s="196" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="231"/>
-      <c r="N39" s="231"/>
-      <c r="O39" s="233"/>
+      <c r="M39" s="197"/>
+      <c r="N39" s="197"/>
+      <c r="O39" s="199"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="16"/>
@@ -10544,27 +10548,27 @@
       <c r="C40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="210" t="e">
+      <c r="D40" s="215" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="211"/>
-      <c r="F40" s="211"/>
-      <c r="G40" s="212"/>
-      <c r="H40" s="213" t="e">
+      <c r="E40" s="216"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="217"/>
+      <c r="H40" s="218" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="214"/>
-      <c r="J40" s="214"/>
-      <c r="K40" s="215"/>
-      <c r="L40" s="213" t="e">
+      <c r="I40" s="219"/>
+      <c r="J40" s="219"/>
+      <c r="K40" s="220"/>
+      <c r="L40" s="218" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="214"/>
-      <c r="N40" s="214"/>
-      <c r="O40" s="216"/>
+      <c r="M40" s="219"/>
+      <c r="N40" s="219"/>
+      <c r="O40" s="221"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -10572,57 +10576,57 @@
       <c r="C41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="217" t="e">
+      <c r="D41" s="222" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="218"/>
-      <c r="F41" s="218"/>
-      <c r="G41" s="219"/>
-      <c r="H41" s="220" t="e">
+      <c r="E41" s="223"/>
+      <c r="F41" s="223"/>
+      <c r="G41" s="224"/>
+      <c r="H41" s="225" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="221"/>
-      <c r="J41" s="221"/>
-      <c r="K41" s="222"/>
-      <c r="L41" s="220" t="e">
+      <c r="I41" s="226"/>
+      <c r="J41" s="226"/>
+      <c r="K41" s="227"/>
+      <c r="L41" s="225" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="221"/>
-      <c r="N41" s="221"/>
-      <c r="O41" s="223"/>
+      <c r="M41" s="226"/>
+      <c r="N41" s="226"/>
+      <c r="O41" s="228"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="224"/>
-      <c r="C42" s="224"/>
-      <c r="D42" s="225" t="s">
+      <c r="B42" s="229"/>
+      <c r="C42" s="229"/>
+      <c r="D42" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="225"/>
-      <c r="F42" s="225"/>
-      <c r="G42" s="225"/>
+      <c r="E42" s="230"/>
+      <c r="F42" s="230"/>
+      <c r="G42" s="230"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="208" t="s">
+      <c r="K42" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="208"/>
-      <c r="M42" s="224"/>
-      <c r="N42" s="224"/>
+      <c r="L42" s="214"/>
+      <c r="M42" s="229"/>
+      <c r="N42" s="229"/>
       <c r="O42" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -10632,15 +10636,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="111"/>
       <c r="L43" s="111"/>
-      <c r="M43" s="226"/>
-      <c r="N43" s="226"/>
+      <c r="M43" s="231"/>
+      <c r="N43" s="231"/>
       <c r="O43" s="111"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="207" t="s">
+      <c r="A44" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="207"/>
+      <c r="B44" s="213"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -10649,23 +10653,23 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="160" t="str">
+      <c r="H44" s="170" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="160"/>
-      <c r="J44" s="160"/>
-      <c r="K44" s="160"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="170"/>
+      <c r="K44" s="170"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A45" s="207" t="s">
+      <c r="A45" s="213" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="207"/>
+      <c r="B45" s="213"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -10677,13 +10681,38 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="209" t="s">
+      <c r="N45" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="209"/>
+      <c r="O45" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:O39"/>
@@ -10700,31 +10729,6 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
@@ -10761,7 +10765,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10772,61 +10776,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="263"/>
-      <c r="K1" s="263"/>
-      <c r="L1" s="263"/>
-      <c r="M1" s="263"/>
-      <c r="N1" s="184" t="s">
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="184"/>
+      <c r="O1" s="164"/>
     </row>
     <row r="2" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="185" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="185"/>
+      <c r="O2" s="165"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -10836,124 +10840,124 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="236">
+      <c r="B4" s="202">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="182" t="s">
+      <c r="C4" s="203"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="183"/>
-      <c r="G4" s="236">
+      <c r="F4" s="163"/>
+      <c r="G4" s="202">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="238"/>
+      <c r="H4" s="204"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="239">
+      <c r="J4" s="205">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="239"/>
-      <c r="L4" s="175" t="s">
+      <c r="K4" s="205"/>
+      <c r="L4" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="175"/>
-      <c r="N4" s="236">
+      <c r="M4" s="155"/>
+      <c r="N4" s="202">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="240"/>
+      <c r="O4" s="206"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="154">
+      <c r="B5" s="136">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="204" t="s">
+      <c r="C5" s="240"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="205"/>
-      <c r="G5" s="154">
+      <c r="F5" s="242"/>
+      <c r="G5" s="136">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="191"/>
+      <c r="H5" s="140"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="187">
+      <c r="J5" s="135">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="187"/>
-      <c r="L5" s="202" t="s">
+      <c r="K5" s="135"/>
+      <c r="L5" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="202"/>
-      <c r="N5" s="154">
+      <c r="M5" s="239"/>
+      <c r="N5" s="136">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="155"/>
+      <c r="O5" s="174"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="264"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="245"/>
     </row>
     <row r="7" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="265" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="266"/>
-      <c r="C7" s="267"/>
-      <c r="D7" s="271" t="s">
+      <c r="A7" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="247"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="252" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="271"/>
-      <c r="F7" s="271"/>
-      <c r="G7" s="271"/>
-      <c r="H7" s="272" t="s">
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="253" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="273"/>
-      <c r="J7" s="273"/>
-      <c r="K7" s="274"/>
-      <c r="L7" s="272" t="s">
+      <c r="I7" s="254"/>
+      <c r="J7" s="254"/>
+      <c r="K7" s="255"/>
+      <c r="L7" s="253" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="273"/>
-      <c r="N7" s="273"/>
-      <c r="O7" s="275"/>
+      <c r="M7" s="254"/>
+      <c r="N7" s="254"/>
+      <c r="O7" s="256"/>
     </row>
     <row r="8" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="268"/>
-      <c r="B8" s="269"/>
-      <c r="C8" s="270"/>
+      <c r="A8" s="249"/>
+      <c r="B8" s="250"/>
+      <c r="C8" s="251"/>
       <c r="D8" s="116">
         <v>1</v>
       </c>
@@ -12047,27 +12051,27 @@
       <c r="C39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="249" t="e">
+      <c r="D39" s="264" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="250"/>
-      <c r="F39" s="250"/>
-      <c r="G39" s="251"/>
-      <c r="H39" s="252" t="e">
+      <c r="E39" s="265"/>
+      <c r="F39" s="265"/>
+      <c r="G39" s="266"/>
+      <c r="H39" s="267" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="253"/>
-      <c r="J39" s="253"/>
-      <c r="K39" s="254"/>
-      <c r="L39" s="252" t="e">
+      <c r="I39" s="268"/>
+      <c r="J39" s="268"/>
+      <c r="K39" s="269"/>
+      <c r="L39" s="267" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="253"/>
-      <c r="N39" s="253"/>
-      <c r="O39" s="255"/>
+      <c r="M39" s="268"/>
+      <c r="N39" s="268"/>
+      <c r="O39" s="270"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="39"/>
@@ -12075,27 +12079,27 @@
       <c r="C40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="256" t="e">
+      <c r="D40" s="271" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="257"/>
-      <c r="F40" s="257"/>
-      <c r="G40" s="258"/>
-      <c r="H40" s="259" t="e">
+      <c r="E40" s="272"/>
+      <c r="F40" s="272"/>
+      <c r="G40" s="273"/>
+      <c r="H40" s="274" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="260"/>
-      <c r="J40" s="260"/>
-      <c r="K40" s="261"/>
-      <c r="L40" s="259" t="e">
+      <c r="I40" s="275"/>
+      <c r="J40" s="275"/>
+      <c r="K40" s="276"/>
+      <c r="L40" s="274" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="260"/>
-      <c r="N40" s="260"/>
-      <c r="O40" s="262"/>
+      <c r="M40" s="275"/>
+      <c r="N40" s="275"/>
+      <c r="O40" s="277"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="41"/>
@@ -12103,57 +12107,57 @@
       <c r="C41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="276" t="e">
+      <c r="D41" s="257" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="277"/>
-      <c r="F41" s="277"/>
-      <c r="G41" s="278"/>
-      <c r="H41" s="246" t="e">
+      <c r="E41" s="258"/>
+      <c r="F41" s="258"/>
+      <c r="G41" s="259"/>
+      <c r="H41" s="260" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="247"/>
-      <c r="J41" s="247"/>
-      <c r="K41" s="279"/>
-      <c r="L41" s="246" t="e">
+      <c r="I41" s="261"/>
+      <c r="J41" s="261"/>
+      <c r="K41" s="262"/>
+      <c r="L41" s="260" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="247"/>
-      <c r="N41" s="247"/>
-      <c r="O41" s="248"/>
+      <c r="M41" s="261"/>
+      <c r="N41" s="261"/>
+      <c r="O41" s="263"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="224"/>
-      <c r="C42" s="224"/>
-      <c r="D42" s="225" t="s">
+      <c r="B42" s="229"/>
+      <c r="C42" s="229"/>
+      <c r="D42" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="225"/>
-      <c r="F42" s="225"/>
-      <c r="G42" s="225"/>
+      <c r="E42" s="230"/>
+      <c r="F42" s="230"/>
+      <c r="G42" s="230"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="208" t="s">
+      <c r="K42" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="208"/>
-      <c r="M42" s="224"/>
-      <c r="N42" s="224"/>
+      <c r="L42" s="214"/>
+      <c r="M42" s="229"/>
+      <c r="N42" s="229"/>
       <c r="O42" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -12163,15 +12167,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="111"/>
       <c r="L43" s="111"/>
-      <c r="M43" s="226"/>
-      <c r="N43" s="226"/>
+      <c r="M43" s="231"/>
+      <c r="N43" s="231"/>
       <c r="O43" s="111"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="207" t="s">
+      <c r="A44" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="207"/>
+      <c r="B44" s="213"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -12180,12 +12184,12 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="160" t="str">
+      <c r="H44" s="170" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="160"/>
-      <c r="J44" s="160"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="170"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
@@ -12193,10 +12197,10 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="207" t="s">
+      <c r="A45" s="213" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="207"/>
+      <c r="B45" s="213"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -12208,26 +12212,25 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="209" t="s">
+      <c r="N45" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="O45" s="209"/>
+      <c r="O45" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="M42:N42"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="N45:O45"/>
@@ -12244,18 +12247,19 @@
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
@@ -12303,61 +12307,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="263"/>
-      <c r="K1" s="263"/>
-      <c r="L1" s="263"/>
-      <c r="M1" s="263"/>
-      <c r="N1" s="184" t="s">
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="184"/>
+      <c r="O1" s="164"/>
     </row>
     <row r="2" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="185" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="185"/>
+      <c r="O2" s="165"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -12367,122 +12371,122 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="236">
+      <c r="B4" s="202">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="182" t="s">
+      <c r="C4" s="203"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="183"/>
-      <c r="G4" s="236">
+      <c r="F4" s="163"/>
+      <c r="G4" s="202">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="238"/>
+      <c r="H4" s="204"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="239">
+      <c r="J4" s="205">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="239"/>
-      <c r="L4" s="175" t="s">
+      <c r="K4" s="205"/>
+      <c r="L4" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="175"/>
-      <c r="N4" s="304">
+      <c r="M4" s="155"/>
+      <c r="N4" s="278">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="305"/>
+      <c r="O4" s="279"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="154">
+      <c r="B5" s="136">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="204" t="s">
+      <c r="C5" s="240"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="205"/>
-      <c r="G5" s="154">
+      <c r="F5" s="242"/>
+      <c r="G5" s="136">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="191"/>
+      <c r="H5" s="140"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="187">
+      <c r="J5" s="135">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="187"/>
-      <c r="L5" s="202" t="s">
+      <c r="K5" s="135"/>
+      <c r="L5" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="202"/>
-      <c r="N5" s="306">
+      <c r="M5" s="239"/>
+      <c r="N5" s="280">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="155"/>
+      <c r="O5" s="174"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="300" t="s">
+      <c r="A6" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="302"/>
-      <c r="E6" s="302"/>
-      <c r="F6" s="302"/>
-      <c r="G6" s="297"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="297"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="294"/>
-      <c r="L6" s="294"/>
-      <c r="M6" s="294"/>
-      <c r="N6" s="294"/>
-      <c r="O6" s="288"/>
+      <c r="B6" s="282"/>
+      <c r="C6" s="282"/>
+      <c r="D6" s="283"/>
+      <c r="E6" s="283"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="284"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="284"/>
+      <c r="J6" s="288"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="296"/>
+      <c r="N6" s="296"/>
+      <c r="O6" s="289"/>
     </row>
     <row r="7" spans="1:15" s="38" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="237" t="s">
+      <c r="A7" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="205"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="203" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="237"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="237"/>
-      <c r="H7" s="287" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+      <c r="H7" s="288" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="288"/>
-      <c r="J7" s="241"/>
-      <c r="K7" s="209"/>
-      <c r="L7" s="209"/>
-      <c r="M7" s="209"/>
-      <c r="N7" s="209"/>
-      <c r="O7" s="295"/>
+      <c r="I7" s="289"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="297"/>
     </row>
     <row r="8" spans="1:15" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="186"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="121">
         <v>1</v>
       </c>
@@ -12495,14 +12499,14 @@
       <c r="G8" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="243"/>
-      <c r="I8" s="289"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="209"/>
-      <c r="L8" s="209"/>
-      <c r="M8" s="209"/>
-      <c r="N8" s="209"/>
-      <c r="O8" s="295"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="208"/>
+      <c r="N8" s="208"/>
+      <c r="O8" s="297"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="A9" s="58">
@@ -12524,16 +12528,16 @@
         <f t="shared" ref="G9:G38" si="0">AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="290">
-        <v>0</v>
-      </c>
-      <c r="I9" s="291"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="209"/>
-      <c r="L9" s="209"/>
-      <c r="M9" s="209"/>
-      <c r="N9" s="209"/>
-      <c r="O9" s="295"/>
+      <c r="H9" s="291">
+        <v>0</v>
+      </c>
+      <c r="I9" s="292"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="208"/>
+      <c r="L9" s="208"/>
+      <c r="M9" s="208"/>
+      <c r="N9" s="208"/>
+      <c r="O9" s="297"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="A10" s="58">
@@ -12559,12 +12563,12 @@
         <v>0</v>
       </c>
       <c r="I10" s="286"/>
-      <c r="J10" s="241"/>
-      <c r="K10" s="209"/>
-      <c r="L10" s="209"/>
-      <c r="M10" s="209"/>
-      <c r="N10" s="209"/>
-      <c r="O10" s="295"/>
+      <c r="J10" s="207"/>
+      <c r="K10" s="208"/>
+      <c r="L10" s="208"/>
+      <c r="M10" s="208"/>
+      <c r="N10" s="208"/>
+      <c r="O10" s="297"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="58">
@@ -12590,12 +12594,12 @@
         <v>0</v>
       </c>
       <c r="I11" s="286"/>
-      <c r="J11" s="241"/>
-      <c r="K11" s="209"/>
-      <c r="L11" s="209"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="209"/>
-      <c r="O11" s="295"/>
+      <c r="J11" s="207"/>
+      <c r="K11" s="208"/>
+      <c r="L11" s="208"/>
+      <c r="M11" s="208"/>
+      <c r="N11" s="208"/>
+      <c r="O11" s="297"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="A12" s="58">
@@ -12621,12 +12625,12 @@
         <v>0</v>
       </c>
       <c r="I12" s="286"/>
-      <c r="J12" s="241"/>
-      <c r="K12" s="209"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="209"/>
-      <c r="O12" s="295"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="208"/>
+      <c r="L12" s="208"/>
+      <c r="M12" s="208"/>
+      <c r="N12" s="208"/>
+      <c r="O12" s="297"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="A13" s="58">
@@ -12652,12 +12656,12 @@
         <v>0</v>
       </c>
       <c r="I13" s="286"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="209"/>
-      <c r="L13" s="209"/>
-      <c r="M13" s="209"/>
-      <c r="N13" s="209"/>
-      <c r="O13" s="295"/>
+      <c r="J13" s="207"/>
+      <c r="K13" s="208"/>
+      <c r="L13" s="208"/>
+      <c r="M13" s="208"/>
+      <c r="N13" s="208"/>
+      <c r="O13" s="297"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="A14" s="58">
@@ -12683,12 +12687,12 @@
         <v>0</v>
       </c>
       <c r="I14" s="286"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="209"/>
-      <c r="L14" s="209"/>
-      <c r="M14" s="209"/>
-      <c r="N14" s="209"/>
-      <c r="O14" s="295"/>
+      <c r="J14" s="207"/>
+      <c r="K14" s="208"/>
+      <c r="L14" s="208"/>
+      <c r="M14" s="208"/>
+      <c r="N14" s="208"/>
+      <c r="O14" s="297"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="A15" s="58">
@@ -12714,12 +12718,12 @@
         <v>0</v>
       </c>
       <c r="I15" s="286"/>
-      <c r="J15" s="241"/>
-      <c r="K15" s="209"/>
-      <c r="L15" s="209"/>
-      <c r="M15" s="209"/>
-      <c r="N15" s="209"/>
-      <c r="O15" s="295"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="208"/>
+      <c r="L15" s="208"/>
+      <c r="M15" s="208"/>
+      <c r="N15" s="208"/>
+      <c r="O15" s="297"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="58">
@@ -12745,12 +12749,12 @@
         <v>0</v>
       </c>
       <c r="I16" s="286"/>
-      <c r="J16" s="241"/>
-      <c r="K16" s="209"/>
-      <c r="L16" s="209"/>
-      <c r="M16" s="209"/>
-      <c r="N16" s="209"/>
-      <c r="O16" s="295"/>
+      <c r="J16" s="207"/>
+      <c r="K16" s="208"/>
+      <c r="L16" s="208"/>
+      <c r="M16" s="208"/>
+      <c r="N16" s="208"/>
+      <c r="O16" s="297"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
       <c r="A17" s="58">
@@ -12776,12 +12780,12 @@
         <v>0</v>
       </c>
       <c r="I17" s="286"/>
-      <c r="J17" s="241"/>
-      <c r="K17" s="209"/>
-      <c r="L17" s="209"/>
-      <c r="M17" s="209"/>
-      <c r="N17" s="209"/>
-      <c r="O17" s="295"/>
+      <c r="J17" s="207"/>
+      <c r="K17" s="208"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="208"/>
+      <c r="N17" s="208"/>
+      <c r="O17" s="297"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
       <c r="A18" s="58">
@@ -12807,12 +12811,12 @@
         <v>0</v>
       </c>
       <c r="I18" s="286"/>
-      <c r="J18" s="241"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
-      <c r="O18" s="295"/>
+      <c r="J18" s="207"/>
+      <c r="K18" s="208"/>
+      <c r="L18" s="208"/>
+      <c r="M18" s="208"/>
+      <c r="N18" s="208"/>
+      <c r="O18" s="297"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
       <c r="A19" s="58">
@@ -12838,12 +12842,12 @@
         <v>0</v>
       </c>
       <c r="I19" s="286"/>
-      <c r="J19" s="241"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="209"/>
-      <c r="M19" s="209"/>
-      <c r="N19" s="209"/>
-      <c r="O19" s="295"/>
+      <c r="J19" s="207"/>
+      <c r="K19" s="208"/>
+      <c r="L19" s="208"/>
+      <c r="M19" s="208"/>
+      <c r="N19" s="208"/>
+      <c r="O19" s="297"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
       <c r="A20" s="58">
@@ -12869,12 +12873,12 @@
         <v>0</v>
       </c>
       <c r="I20" s="286"/>
-      <c r="J20" s="241"/>
-      <c r="K20" s="209"/>
-      <c r="L20" s="209"/>
-      <c r="M20" s="209"/>
-      <c r="N20" s="209"/>
-      <c r="O20" s="295"/>
+      <c r="J20" s="207"/>
+      <c r="K20" s="208"/>
+      <c r="L20" s="208"/>
+      <c r="M20" s="208"/>
+      <c r="N20" s="208"/>
+      <c r="O20" s="297"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
       <c r="A21" s="58">
@@ -12900,12 +12904,12 @@
         <v>0</v>
       </c>
       <c r="I21" s="286"/>
-      <c r="J21" s="241"/>
-      <c r="K21" s="209"/>
-      <c r="L21" s="209"/>
-      <c r="M21" s="209"/>
-      <c r="N21" s="209"/>
-      <c r="O21" s="295"/>
+      <c r="J21" s="207"/>
+      <c r="K21" s="208"/>
+      <c r="L21" s="208"/>
+      <c r="M21" s="208"/>
+      <c r="N21" s="208"/>
+      <c r="O21" s="297"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
       <c r="A22" s="58">
@@ -12931,12 +12935,12 @@
         <v>0</v>
       </c>
       <c r="I22" s="286"/>
-      <c r="J22" s="241"/>
-      <c r="K22" s="209"/>
-      <c r="L22" s="209"/>
-      <c r="M22" s="209"/>
-      <c r="N22" s="209"/>
-      <c r="O22" s="295"/>
+      <c r="J22" s="207"/>
+      <c r="K22" s="208"/>
+      <c r="L22" s="208"/>
+      <c r="M22" s="208"/>
+      <c r="N22" s="208"/>
+      <c r="O22" s="297"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
       <c r="A23" s="58">
@@ -12962,12 +12966,12 @@
         <v>0</v>
       </c>
       <c r="I23" s="286"/>
-      <c r="J23" s="241"/>
-      <c r="K23" s="209"/>
-      <c r="L23" s="209"/>
-      <c r="M23" s="209"/>
-      <c r="N23" s="209"/>
-      <c r="O23" s="295"/>
+      <c r="J23" s="207"/>
+      <c r="K23" s="208"/>
+      <c r="L23" s="208"/>
+      <c r="M23" s="208"/>
+      <c r="N23" s="208"/>
+      <c r="O23" s="297"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
       <c r="A24" s="58">
@@ -12993,12 +12997,12 @@
         <v>0</v>
       </c>
       <c r="I24" s="286"/>
-      <c r="J24" s="241"/>
-      <c r="K24" s="209"/>
-      <c r="L24" s="209"/>
-      <c r="M24" s="209"/>
-      <c r="N24" s="209"/>
-      <c r="O24" s="295"/>
+      <c r="J24" s="207"/>
+      <c r="K24" s="208"/>
+      <c r="L24" s="208"/>
+      <c r="M24" s="208"/>
+      <c r="N24" s="208"/>
+      <c r="O24" s="297"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
       <c r="A25" s="58">
@@ -13024,12 +13028,12 @@
         <v>0</v>
       </c>
       <c r="I25" s="286"/>
-      <c r="J25" s="241"/>
-      <c r="K25" s="209"/>
-      <c r="L25" s="209"/>
-      <c r="M25" s="209"/>
-      <c r="N25" s="209"/>
-      <c r="O25" s="295"/>
+      <c r="J25" s="207"/>
+      <c r="K25" s="208"/>
+      <c r="L25" s="208"/>
+      <c r="M25" s="208"/>
+      <c r="N25" s="208"/>
+      <c r="O25" s="297"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
       <c r="A26" s="58">
@@ -13055,12 +13059,12 @@
         <v>0</v>
       </c>
       <c r="I26" s="286"/>
-      <c r="J26" s="241"/>
-      <c r="K26" s="209"/>
-      <c r="L26" s="209"/>
-      <c r="M26" s="209"/>
-      <c r="N26" s="209"/>
-      <c r="O26" s="295"/>
+      <c r="J26" s="207"/>
+      <c r="K26" s="208"/>
+      <c r="L26" s="208"/>
+      <c r="M26" s="208"/>
+      <c r="N26" s="208"/>
+      <c r="O26" s="297"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
       <c r="A27" s="58">
@@ -13086,12 +13090,12 @@
         <v>0</v>
       </c>
       <c r="I27" s="286"/>
-      <c r="J27" s="241"/>
-      <c r="K27" s="209"/>
-      <c r="L27" s="209"/>
-      <c r="M27" s="209"/>
-      <c r="N27" s="209"/>
-      <c r="O27" s="295"/>
+      <c r="J27" s="207"/>
+      <c r="K27" s="208"/>
+      <c r="L27" s="208"/>
+      <c r="M27" s="208"/>
+      <c r="N27" s="208"/>
+      <c r="O27" s="297"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="58">
@@ -13117,12 +13121,12 @@
         <v>0</v>
       </c>
       <c r="I28" s="286"/>
-      <c r="J28" s="241"/>
-      <c r="K28" s="209"/>
-      <c r="L28" s="209"/>
-      <c r="M28" s="209"/>
-      <c r="N28" s="209"/>
-      <c r="O28" s="295"/>
+      <c r="J28" s="207"/>
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
+      <c r="M28" s="208"/>
+      <c r="N28" s="208"/>
+      <c r="O28" s="297"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="58">
@@ -13148,12 +13152,12 @@
         <v>0</v>
       </c>
       <c r="I29" s="286"/>
-      <c r="J29" s="241"/>
-      <c r="K29" s="209"/>
-      <c r="L29" s="209"/>
-      <c r="M29" s="209"/>
-      <c r="N29" s="209"/>
-      <c r="O29" s="295"/>
+      <c r="J29" s="207"/>
+      <c r="K29" s="208"/>
+      <c r="L29" s="208"/>
+      <c r="M29" s="208"/>
+      <c r="N29" s="208"/>
+      <c r="O29" s="297"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
       <c r="A30" s="58">
@@ -13179,12 +13183,12 @@
         <v>0</v>
       </c>
       <c r="I30" s="286"/>
-      <c r="J30" s="241"/>
-      <c r="K30" s="209"/>
-      <c r="L30" s="209"/>
-      <c r="M30" s="209"/>
-      <c r="N30" s="209"/>
-      <c r="O30" s="295"/>
+      <c r="J30" s="207"/>
+      <c r="K30" s="208"/>
+      <c r="L30" s="208"/>
+      <c r="M30" s="208"/>
+      <c r="N30" s="208"/>
+      <c r="O30" s="297"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
       <c r="A31" s="58">
@@ -13210,12 +13214,12 @@
         <v>0</v>
       </c>
       <c r="I31" s="286"/>
-      <c r="J31" s="241"/>
-      <c r="K31" s="209"/>
-      <c r="L31" s="209"/>
-      <c r="M31" s="209"/>
-      <c r="N31" s="209"/>
-      <c r="O31" s="295"/>
+      <c r="J31" s="207"/>
+      <c r="K31" s="208"/>
+      <c r="L31" s="208"/>
+      <c r="M31" s="208"/>
+      <c r="N31" s="208"/>
+      <c r="O31" s="297"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
       <c r="A32" s="58">
@@ -13241,12 +13245,12 @@
         <v>0</v>
       </c>
       <c r="I32" s="286"/>
-      <c r="J32" s="241"/>
-      <c r="K32" s="209"/>
-      <c r="L32" s="209"/>
-      <c r="M32" s="209"/>
-      <c r="N32" s="209"/>
-      <c r="O32" s="295"/>
+      <c r="J32" s="207"/>
+      <c r="K32" s="208"/>
+      <c r="L32" s="208"/>
+      <c r="M32" s="208"/>
+      <c r="N32" s="208"/>
+      <c r="O32" s="297"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
       <c r="A33" s="58">
@@ -13272,12 +13276,12 @@
         <v>0</v>
       </c>
       <c r="I33" s="286"/>
-      <c r="J33" s="241"/>
-      <c r="K33" s="209"/>
-      <c r="L33" s="209"/>
-      <c r="M33" s="209"/>
-      <c r="N33" s="209"/>
-      <c r="O33" s="295"/>
+      <c r="J33" s="207"/>
+      <c r="K33" s="208"/>
+      <c r="L33" s="208"/>
+      <c r="M33" s="208"/>
+      <c r="N33" s="208"/>
+      <c r="O33" s="297"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
       <c r="A34" s="58">
@@ -13303,12 +13307,12 @@
         <v>0</v>
       </c>
       <c r="I34" s="286"/>
-      <c r="J34" s="241"/>
-      <c r="K34" s="209"/>
-      <c r="L34" s="209"/>
-      <c r="M34" s="209"/>
-      <c r="N34" s="209"/>
-      <c r="O34" s="295"/>
+      <c r="J34" s="207"/>
+      <c r="K34" s="208"/>
+      <c r="L34" s="208"/>
+      <c r="M34" s="208"/>
+      <c r="N34" s="208"/>
+      <c r="O34" s="297"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
       <c r="A35" s="58">
@@ -13334,12 +13338,12 @@
         <v>0</v>
       </c>
       <c r="I35" s="286"/>
-      <c r="J35" s="241"/>
-      <c r="K35" s="209"/>
-      <c r="L35" s="209"/>
-      <c r="M35" s="209"/>
-      <c r="N35" s="209"/>
-      <c r="O35" s="295"/>
+      <c r="J35" s="207"/>
+      <c r="K35" s="208"/>
+      <c r="L35" s="208"/>
+      <c r="M35" s="208"/>
+      <c r="N35" s="208"/>
+      <c r="O35" s="297"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
       <c r="A36" s="58">
@@ -13365,12 +13369,12 @@
         <v>0</v>
       </c>
       <c r="I36" s="286"/>
-      <c r="J36" s="241"/>
-      <c r="K36" s="209"/>
-      <c r="L36" s="209"/>
-      <c r="M36" s="209"/>
-      <c r="N36" s="209"/>
-      <c r="O36" s="295"/>
+      <c r="J36" s="207"/>
+      <c r="K36" s="208"/>
+      <c r="L36" s="208"/>
+      <c r="M36" s="208"/>
+      <c r="N36" s="208"/>
+      <c r="O36" s="297"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="58">
@@ -13396,12 +13400,12 @@
         <v>0</v>
       </c>
       <c r="I37" s="286"/>
-      <c r="J37" s="241"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
-      <c r="M37" s="209"/>
-      <c r="N37" s="209"/>
-      <c r="O37" s="295"/>
+      <c r="J37" s="207"/>
+      <c r="K37" s="208"/>
+      <c r="L37" s="208"/>
+      <c r="M37" s="208"/>
+      <c r="N37" s="208"/>
+      <c r="O37" s="297"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="58">
@@ -13423,16 +13427,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="298">
-        <v>0</v>
-      </c>
-      <c r="I38" s="299"/>
-      <c r="J38" s="241"/>
-      <c r="K38" s="209"/>
-      <c r="L38" s="209"/>
-      <c r="M38" s="209"/>
-      <c r="N38" s="209"/>
-      <c r="O38" s="295"/>
+      <c r="H38" s="299">
+        <v>0</v>
+      </c>
+      <c r="I38" s="300"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="208"/>
+      <c r="L38" s="208"/>
+      <c r="M38" s="208"/>
+      <c r="N38" s="208"/>
+      <c r="O38" s="297"/>
     </row>
     <row r="39" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="36"/>
@@ -13440,24 +13444,24 @@
       <c r="C39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="252" t="e">
+      <c r="D39" s="267" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="253"/>
-      <c r="F39" s="253"/>
-      <c r="G39" s="255"/>
-      <c r="H39" s="281">
+      <c r="E39" s="268"/>
+      <c r="F39" s="268"/>
+      <c r="G39" s="270"/>
+      <c r="H39" s="301">
         <f>AVERAGE(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="282"/>
-      <c r="J39" s="241"/>
-      <c r="K39" s="209"/>
-      <c r="L39" s="209"/>
-      <c r="M39" s="209"/>
-      <c r="N39" s="209"/>
-      <c r="O39" s="295"/>
+      <c r="I39" s="302"/>
+      <c r="J39" s="207"/>
+      <c r="K39" s="208"/>
+      <c r="L39" s="208"/>
+      <c r="M39" s="208"/>
+      <c r="N39" s="208"/>
+      <c r="O39" s="297"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="39"/>
@@ -13465,24 +13469,24 @@
       <c r="C40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="259" t="e">
+      <c r="D40" s="274" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="260"/>
-      <c r="F40" s="260"/>
-      <c r="G40" s="262"/>
-      <c r="H40" s="283">
+      <c r="E40" s="275"/>
+      <c r="F40" s="275"/>
+      <c r="G40" s="277"/>
+      <c r="H40" s="303">
         <f>MIN(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="284"/>
-      <c r="J40" s="241"/>
-      <c r="K40" s="209"/>
-      <c r="L40" s="209"/>
-      <c r="M40" s="209"/>
-      <c r="N40" s="209"/>
-      <c r="O40" s="295"/>
+      <c r="I40" s="304"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="208"/>
+      <c r="L40" s="208"/>
+      <c r="M40" s="208"/>
+      <c r="N40" s="208"/>
+      <c r="O40" s="297"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="41"/>
@@ -13490,54 +13494,54 @@
       <c r="C41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="246" t="e">
+      <c r="D41" s="260" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="247"/>
-      <c r="F41" s="247"/>
-      <c r="G41" s="248"/>
-      <c r="H41" s="292">
+      <c r="E41" s="261"/>
+      <c r="F41" s="261"/>
+      <c r="G41" s="263"/>
+      <c r="H41" s="294">
         <f>MAX(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="293"/>
-      <c r="J41" s="243"/>
-      <c r="K41" s="244"/>
-      <c r="L41" s="244"/>
-      <c r="M41" s="244"/>
-      <c r="N41" s="244"/>
-      <c r="O41" s="289"/>
+      <c r="I41" s="295"/>
+      <c r="J41" s="210"/>
+      <c r="K41" s="211"/>
+      <c r="L41" s="211"/>
+      <c r="M41" s="211"/>
+      <c r="N41" s="211"/>
+      <c r="O41" s="290"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="224"/>
-      <c r="C42" s="224"/>
-      <c r="D42" s="225" t="s">
+      <c r="B42" s="229"/>
+      <c r="C42" s="229"/>
+      <c r="D42" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="225"/>
-      <c r="F42" s="225"/>
-      <c r="G42" s="225"/>
+      <c r="E42" s="230"/>
+      <c r="F42" s="230"/>
+      <c r="G42" s="230"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="208" t="s">
+      <c r="K42" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="208"/>
-      <c r="M42" s="224"/>
-      <c r="N42" s="224"/>
+      <c r="L42" s="214"/>
+      <c r="M42" s="229"/>
+      <c r="N42" s="229"/>
       <c r="O42" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -13547,15 +13551,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="111"/>
       <c r="L43" s="111"/>
-      <c r="M43" s="226"/>
-      <c r="N43" s="226"/>
+      <c r="M43" s="231"/>
+      <c r="N43" s="231"/>
       <c r="O43" s="111"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="207" t="s">
+      <c r="A44" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="207"/>
+      <c r="B44" s="213"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -13564,12 +13568,12 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="160" t="str">
+      <c r="H44" s="170" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="160"/>
-      <c r="J44" s="160"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="170"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
@@ -13577,10 +13581,10 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="207" t="s">
+      <c r="A45" s="213" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="207"/>
+      <c r="B45" s="213"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -13592,236 +13596,304 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="209" t="s">
+      <c r="N45" s="208" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="209"/>
+      <c r="O45" s="208"/>
     </row>
     <row r="46" spans="1:15" s="38" customFormat="1"/>
     <row r="47" spans="1:15" s="38" customFormat="1"/>
     <row r="57" spans="4:15">
-      <c r="D57" s="280"/>
-      <c r="E57" s="280"/>
-      <c r="F57" s="280"/>
-      <c r="G57" s="280"/>
-      <c r="H57" s="280"/>
-      <c r="I57" s="280"/>
-      <c r="J57" s="280"/>
-      <c r="K57" s="280"/>
-      <c r="L57" s="280"/>
-      <c r="M57" s="280"/>
-      <c r="N57" s="280"/>
-      <c r="O57" s="280"/>
+      <c r="D57" s="293"/>
+      <c r="E57" s="293"/>
+      <c r="F57" s="293"/>
+      <c r="G57" s="293"/>
+      <c r="H57" s="293"/>
+      <c r="I57" s="293"/>
+      <c r="J57" s="293"/>
+      <c r="K57" s="293"/>
+      <c r="L57" s="293"/>
+      <c r="M57" s="293"/>
+      <c r="N57" s="293"/>
+      <c r="O57" s="293"/>
     </row>
     <row r="58" spans="4:15">
-      <c r="D58" s="280"/>
-      <c r="E58" s="280"/>
-      <c r="F58" s="280"/>
-      <c r="G58" s="280"/>
-      <c r="H58" s="280"/>
-      <c r="I58" s="280"/>
-      <c r="J58" s="280"/>
-      <c r="K58" s="280"/>
-      <c r="L58" s="280"/>
-      <c r="M58" s="280"/>
-      <c r="N58" s="280"/>
-      <c r="O58" s="280"/>
+      <c r="D58" s="293"/>
+      <c r="E58" s="293"/>
+      <c r="F58" s="293"/>
+      <c r="G58" s="293"/>
+      <c r="H58" s="293"/>
+      <c r="I58" s="293"/>
+      <c r="J58" s="293"/>
+      <c r="K58" s="293"/>
+      <c r="L58" s="293"/>
+      <c r="M58" s="293"/>
+      <c r="N58" s="293"/>
+      <c r="O58" s="293"/>
     </row>
     <row r="59" spans="4:15">
-      <c r="D59" s="280"/>
-      <c r="E59" s="280"/>
-      <c r="F59" s="280"/>
-      <c r="G59" s="280"/>
-      <c r="H59" s="280"/>
-      <c r="I59" s="280"/>
-      <c r="J59" s="280"/>
-      <c r="K59" s="280"/>
-      <c r="L59" s="280"/>
-      <c r="M59" s="280"/>
-      <c r="N59" s="280"/>
-      <c r="O59" s="280"/>
+      <c r="D59" s="293"/>
+      <c r="E59" s="293"/>
+      <c r="F59" s="293"/>
+      <c r="G59" s="293"/>
+      <c r="H59" s="293"/>
+      <c r="I59" s="293"/>
+      <c r="J59" s="293"/>
+      <c r="K59" s="293"/>
+      <c r="L59" s="293"/>
+      <c r="M59" s="293"/>
+      <c r="N59" s="293"/>
+      <c r="O59" s="293"/>
     </row>
     <row r="60" spans="4:15">
-      <c r="D60" s="280"/>
-      <c r="E60" s="280"/>
-      <c r="F60" s="280"/>
-      <c r="G60" s="280"/>
-      <c r="H60" s="280"/>
-      <c r="I60" s="280"/>
-      <c r="J60" s="280"/>
-      <c r="K60" s="280"/>
-      <c r="L60" s="280"/>
-      <c r="M60" s="280"/>
-      <c r="N60" s="280"/>
-      <c r="O60" s="280"/>
+      <c r="D60" s="293"/>
+      <c r="E60" s="293"/>
+      <c r="F60" s="293"/>
+      <c r="G60" s="293"/>
+      <c r="H60" s="293"/>
+      <c r="I60" s="293"/>
+      <c r="J60" s="293"/>
+      <c r="K60" s="293"/>
+      <c r="L60" s="293"/>
+      <c r="M60" s="293"/>
+      <c r="N60" s="293"/>
+      <c r="O60" s="293"/>
     </row>
     <row r="61" spans="4:15">
-      <c r="D61" s="280"/>
-      <c r="E61" s="280"/>
-      <c r="F61" s="280"/>
-      <c r="G61" s="280"/>
-      <c r="H61" s="280"/>
-      <c r="I61" s="280"/>
-      <c r="J61" s="280"/>
-      <c r="K61" s="280"/>
-      <c r="L61" s="280"/>
-      <c r="M61" s="280"/>
-      <c r="N61" s="280"/>
-      <c r="O61" s="280"/>
+      <c r="D61" s="293"/>
+      <c r="E61" s="293"/>
+      <c r="F61" s="293"/>
+      <c r="G61" s="293"/>
+      <c r="H61" s="293"/>
+      <c r="I61" s="293"/>
+      <c r="J61" s="293"/>
+      <c r="K61" s="293"/>
+      <c r="L61" s="293"/>
+      <c r="M61" s="293"/>
+      <c r="N61" s="293"/>
+      <c r="O61" s="293"/>
     </row>
     <row r="62" spans="4:15">
-      <c r="D62" s="280"/>
-      <c r="E62" s="280"/>
-      <c r="F62" s="280"/>
-      <c r="G62" s="280"/>
-      <c r="H62" s="280"/>
-      <c r="I62" s="280"/>
-      <c r="J62" s="280"/>
-      <c r="K62" s="280"/>
-      <c r="L62" s="280"/>
-      <c r="M62" s="280"/>
-      <c r="N62" s="280"/>
-      <c r="O62" s="280"/>
+      <c r="D62" s="293"/>
+      <c r="E62" s="293"/>
+      <c r="F62" s="293"/>
+      <c r="G62" s="293"/>
+      <c r="H62" s="293"/>
+      <c r="I62" s="293"/>
+      <c r="J62" s="293"/>
+      <c r="K62" s="293"/>
+      <c r="L62" s="293"/>
+      <c r="M62" s="293"/>
+      <c r="N62" s="293"/>
+      <c r="O62" s="293"/>
     </row>
     <row r="63" spans="4:15">
-      <c r="D63" s="280"/>
-      <c r="E63" s="280"/>
-      <c r="F63" s="280"/>
-      <c r="G63" s="280"/>
-      <c r="H63" s="280"/>
-      <c r="I63" s="280"/>
-      <c r="J63" s="280"/>
-      <c r="K63" s="280"/>
-      <c r="L63" s="280"/>
-      <c r="M63" s="280"/>
-      <c r="N63" s="280"/>
-      <c r="O63" s="280"/>
+      <c r="D63" s="293"/>
+      <c r="E63" s="293"/>
+      <c r="F63" s="293"/>
+      <c r="G63" s="293"/>
+      <c r="H63" s="293"/>
+      <c r="I63" s="293"/>
+      <c r="J63" s="293"/>
+      <c r="K63" s="293"/>
+      <c r="L63" s="293"/>
+      <c r="M63" s="293"/>
+      <c r="N63" s="293"/>
+      <c r="O63" s="293"/>
     </row>
     <row r="64" spans="4:15">
-      <c r="D64" s="280"/>
-      <c r="E64" s="280"/>
-      <c r="F64" s="280"/>
-      <c r="G64" s="280"/>
-      <c r="H64" s="280"/>
-      <c r="I64" s="280"/>
-      <c r="J64" s="280"/>
-      <c r="K64" s="280"/>
-      <c r="L64" s="280"/>
-      <c r="M64" s="280"/>
-      <c r="N64" s="280"/>
-      <c r="O64" s="280"/>
+      <c r="D64" s="293"/>
+      <c r="E64" s="293"/>
+      <c r="F64" s="293"/>
+      <c r="G64" s="293"/>
+      <c r="H64" s="293"/>
+      <c r="I64" s="293"/>
+      <c r="J64" s="293"/>
+      <c r="K64" s="293"/>
+      <c r="L64" s="293"/>
+      <c r="M64" s="293"/>
+      <c r="N64" s="293"/>
+      <c r="O64" s="293"/>
     </row>
     <row r="65" spans="4:15">
-      <c r="D65" s="280"/>
-      <c r="E65" s="280"/>
-      <c r="F65" s="280"/>
-      <c r="G65" s="280"/>
-      <c r="H65" s="280"/>
-      <c r="I65" s="280"/>
-      <c r="J65" s="280"/>
-      <c r="K65" s="280"/>
-      <c r="L65" s="280"/>
-      <c r="M65" s="280"/>
-      <c r="N65" s="280"/>
-      <c r="O65" s="280"/>
+      <c r="D65" s="293"/>
+      <c r="E65" s="293"/>
+      <c r="F65" s="293"/>
+      <c r="G65" s="293"/>
+      <c r="H65" s="293"/>
+      <c r="I65" s="293"/>
+      <c r="J65" s="293"/>
+      <c r="K65" s="293"/>
+      <c r="L65" s="293"/>
+      <c r="M65" s="293"/>
+      <c r="N65" s="293"/>
+      <c r="O65" s="293"/>
     </row>
     <row r="66" spans="4:15">
-      <c r="D66" s="280"/>
-      <c r="E66" s="280"/>
-      <c r="F66" s="280"/>
-      <c r="G66" s="280"/>
-      <c r="H66" s="280"/>
-      <c r="I66" s="280"/>
-      <c r="J66" s="280"/>
-      <c r="K66" s="280"/>
-      <c r="L66" s="280"/>
-      <c r="M66" s="280"/>
-      <c r="N66" s="280"/>
-      <c r="O66" s="280"/>
+      <c r="D66" s="293"/>
+      <c r="E66" s="293"/>
+      <c r="F66" s="293"/>
+      <c r="G66" s="293"/>
+      <c r="H66" s="293"/>
+      <c r="I66" s="293"/>
+      <c r="J66" s="293"/>
+      <c r="K66" s="293"/>
+      <c r="L66" s="293"/>
+      <c r="M66" s="293"/>
+      <c r="N66" s="293"/>
+      <c r="O66" s="293"/>
     </row>
     <row r="67" spans="4:15">
-      <c r="D67" s="280"/>
-      <c r="E67" s="280"/>
-      <c r="F67" s="280"/>
-      <c r="G67" s="280"/>
-      <c r="H67" s="280"/>
-      <c r="I67" s="280"/>
-      <c r="J67" s="280"/>
-      <c r="K67" s="280"/>
-      <c r="L67" s="280"/>
-      <c r="M67" s="280"/>
-      <c r="N67" s="280"/>
-      <c r="O67" s="280"/>
+      <c r="D67" s="293"/>
+      <c r="E67" s="293"/>
+      <c r="F67" s="293"/>
+      <c r="G67" s="293"/>
+      <c r="H67" s="293"/>
+      <c r="I67" s="293"/>
+      <c r="J67" s="293"/>
+      <c r="K67" s="293"/>
+      <c r="L67" s="293"/>
+      <c r="M67" s="293"/>
+      <c r="N67" s="293"/>
+      <c r="O67" s="293"/>
     </row>
     <row r="68" spans="4:15">
-      <c r="D68" s="280"/>
-      <c r="E68" s="280"/>
-      <c r="F68" s="280"/>
-      <c r="G68" s="280"/>
-      <c r="H68" s="280"/>
-      <c r="I68" s="280"/>
-      <c r="J68" s="280"/>
-      <c r="K68" s="280"/>
-      <c r="L68" s="280"/>
-      <c r="M68" s="280"/>
-      <c r="N68" s="280"/>
-      <c r="O68" s="280"/>
+      <c r="D68" s="293"/>
+      <c r="E68" s="293"/>
+      <c r="F68" s="293"/>
+      <c r="G68" s="293"/>
+      <c r="H68" s="293"/>
+      <c r="I68" s="293"/>
+      <c r="J68" s="293"/>
+      <c r="K68" s="293"/>
+      <c r="L68" s="293"/>
+      <c r="M68" s="293"/>
+      <c r="N68" s="293"/>
+      <c r="O68" s="293"/>
     </row>
     <row r="69" spans="4:15">
-      <c r="D69" s="280"/>
-      <c r="E69" s="280"/>
-      <c r="F69" s="280"/>
-      <c r="G69" s="280"/>
-      <c r="H69" s="280"/>
-      <c r="I69" s="280"/>
-      <c r="J69" s="280"/>
-      <c r="K69" s="280"/>
-      <c r="L69" s="280"/>
-      <c r="M69" s="280"/>
-      <c r="N69" s="280"/>
-      <c r="O69" s="280"/>
+      <c r="D69" s="293"/>
+      <c r="E69" s="293"/>
+      <c r="F69" s="293"/>
+      <c r="G69" s="293"/>
+      <c r="H69" s="293"/>
+      <c r="I69" s="293"/>
+      <c r="J69" s="293"/>
+      <c r="K69" s="293"/>
+      <c r="L69" s="293"/>
+      <c r="M69" s="293"/>
+      <c r="N69" s="293"/>
+      <c r="O69" s="293"/>
     </row>
     <row r="70" spans="4:15">
-      <c r="D70" s="280"/>
-      <c r="E70" s="280"/>
-      <c r="F70" s="280"/>
-      <c r="G70" s="280"/>
-      <c r="H70" s="280"/>
-      <c r="I70" s="280"/>
-      <c r="J70" s="280"/>
-      <c r="K70" s="280"/>
-      <c r="L70" s="280"/>
-      <c r="M70" s="280"/>
-      <c r="N70" s="280"/>
-      <c r="O70" s="280"/>
+      <c r="D70" s="293"/>
+      <c r="E70" s="293"/>
+      <c r="F70" s="293"/>
+      <c r="G70" s="293"/>
+      <c r="H70" s="293"/>
+      <c r="I70" s="293"/>
+      <c r="J70" s="293"/>
+      <c r="K70" s="293"/>
+      <c r="L70" s="293"/>
+      <c r="M70" s="293"/>
+      <c r="N70" s="293"/>
+      <c r="O70" s="293"/>
     </row>
     <row r="71" spans="4:15">
-      <c r="D71" s="280"/>
-      <c r="E71" s="280"/>
-      <c r="F71" s="280"/>
-      <c r="G71" s="280"/>
-      <c r="H71" s="280"/>
-      <c r="I71" s="280"/>
-      <c r="J71" s="280"/>
-      <c r="K71" s="280"/>
-      <c r="L71" s="280"/>
-      <c r="M71" s="280"/>
-      <c r="N71" s="280"/>
-      <c r="O71" s="280"/>
+      <c r="D71" s="293"/>
+      <c r="E71" s="293"/>
+      <c r="F71" s="293"/>
+      <c r="G71" s="293"/>
+      <c r="H71" s="293"/>
+      <c r="I71" s="293"/>
+      <c r="J71" s="293"/>
+      <c r="K71" s="293"/>
+      <c r="L71" s="293"/>
+      <c r="M71" s="293"/>
+      <c r="N71" s="293"/>
+      <c r="O71" s="293"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:O71"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="J6:O41"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A6:C6"/>
@@ -13846,85 +13918,17 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="J6:O41"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:O71"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G38">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
@@ -16102,7 +16106,7 @@
   <dimension ref="A1:AT53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -16326,123 +16330,123 @@
       <c r="J3" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="124" cm="1">
+      <c r="K3" s="305" cm="1">
         <f t="array" ref="K3">INDEX(Page1!$L$8:$L$37, COLUMN(K3)-10)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="124" cm="1">
+      <c r="L3" s="305" cm="1">
         <f t="array" ref="L3">INDEX(Page1!$L$8:$L$37, COLUMN(L3)-10)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="124" cm="1">
+      <c r="M3" s="305" cm="1">
         <f t="array" ref="M3">INDEX(Page1!$L$8:$L$37, COLUMN(M3)-10)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="124" cm="1">
+      <c r="N3" s="305" cm="1">
         <f t="array" ref="N3">INDEX(Page1!$L$8:$L$37, COLUMN(N3)-10)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="124" cm="1">
+      <c r="O3" s="305" cm="1">
         <f t="array" ref="O3">INDEX(Page1!$L$8:$L$37, COLUMN(O3)-10)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="124" cm="1">
+      <c r="P3" s="305" cm="1">
         <f t="array" ref="P3">INDEX(Page1!$L$8:$L$37, COLUMN(P3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="124" cm="1">
+      <c r="Q3" s="305" cm="1">
         <f t="array" ref="Q3">INDEX(Page1!$L$8:$L$37, COLUMN(Q3)-10)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="124" cm="1">
+      <c r="R3" s="305" cm="1">
         <f t="array" ref="R3">INDEX(Page1!$L$8:$L$37, COLUMN(R3)-10)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="124" cm="1">
+      <c r="S3" s="305" cm="1">
         <f t="array" ref="S3">INDEX(Page1!$L$8:$L$37, COLUMN(S3)-10)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="124" cm="1">
+      <c r="T3" s="305" cm="1">
         <f t="array" ref="T3">INDEX(Page1!$L$8:$L$37, COLUMN(T3)-10)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="124" cm="1">
+      <c r="U3" s="305" cm="1">
         <f t="array" ref="U3">INDEX(Page1!$L$8:$L$37, COLUMN(U3)-10)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="124" cm="1">
+      <c r="V3" s="305" cm="1">
         <f t="array" ref="V3">INDEX(Page1!$L$8:$L$37, COLUMN(V3)-10)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="124" cm="1">
+      <c r="W3" s="305" cm="1">
         <f t="array" ref="W3">INDEX(Page1!$L$8:$L$37, COLUMN(W3)-10)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="124" cm="1">
+      <c r="X3" s="305" cm="1">
         <f t="array" ref="X3">INDEX(Page1!$L$8:$L$37, COLUMN(X3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="124" cm="1">
+      <c r="Y3" s="305" cm="1">
         <f t="array" ref="Y3">INDEX(Page1!$L$8:$L$37, COLUMN(Y3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="124" cm="1">
+      <c r="Z3" s="305" cm="1">
         <f t="array" ref="Z3">INDEX(Page1!$L$8:$L$37, COLUMN(Z3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="124" cm="1">
+      <c r="AA3" s="305" cm="1">
         <f t="array" ref="AA3">INDEX(Page1!$L$8:$L$37, COLUMN(AA3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="124" cm="1">
+      <c r="AB3" s="305" cm="1">
         <f t="array" ref="AB3">INDEX(Page1!$L$8:$L$37, COLUMN(AB3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="124" cm="1">
+      <c r="AC3" s="305" cm="1">
         <f t="array" ref="AC3">INDEX(Page1!$L$8:$L$37, COLUMN(AC3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="124" cm="1">
+      <c r="AD3" s="305" cm="1">
         <f t="array" ref="AD3">INDEX(Page1!$L$8:$L$37, COLUMN(AD3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="124" cm="1">
+      <c r="AE3" s="305" cm="1">
         <f t="array" ref="AE3">INDEX(Page1!$L$8:$L$37, COLUMN(AE3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="124" cm="1">
+      <c r="AF3" s="305" cm="1">
         <f t="array" ref="AF3">INDEX(Page1!$L$8:$L$37, COLUMN(AF3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="124" cm="1">
+      <c r="AG3" s="305" cm="1">
         <f t="array" ref="AG3">INDEX(Page1!$L$8:$L$37, COLUMN(AG3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="124" cm="1">
+      <c r="AH3" s="305" cm="1">
         <f t="array" ref="AH3">INDEX(Page1!$L$8:$L$37, COLUMN(AH3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="124" cm="1">
+      <c r="AI3" s="305" cm="1">
         <f t="array" ref="AI3">INDEX(Page1!$L$8:$L$37, COLUMN(AI3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="124" cm="1">
+      <c r="AJ3" s="305" cm="1">
         <f t="array" ref="AJ3">INDEX(Page1!$L$8:$L$37, COLUMN(AJ3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="124" cm="1">
+      <c r="AK3" s="305" cm="1">
         <f t="array" ref="AK3">INDEX(Page1!$L$8:$L$37, COLUMN(AK3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="124" cm="1">
+      <c r="AL3" s="305" cm="1">
         <f t="array" ref="AL3">INDEX(Page1!$L$8:$L$37, COLUMN(AL3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="124" cm="1">
+      <c r="AM3" s="305" cm="1">
         <f t="array" ref="AM3">INDEX(Page1!$L$8:$L$37, COLUMN(AM3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="124" cm="1">
+      <c r="AN3" s="305" cm="1">
         <f t="array" ref="AN3">INDEX(Page1!$L$8:$L$37, COLUMN(AN3)-10)</f>
         <v>0</v>
       </c>
@@ -16500,123 +16504,123 @@
       <c r="J4" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="125" t="e" cm="1">
+      <c r="K4" s="307" t="e" cm="1">
         <f t="array" ref="K4">INDEX(Page4!$G$9:$G$38, COLUMN(K4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="125" t="e" cm="1">
+      <c r="L4" s="307" t="e" cm="1">
         <f t="array" ref="L4">INDEX(Page4!$G$9:$G$38, COLUMN(L4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="125" t="e" cm="1">
+      <c r="M4" s="307" t="e" cm="1">
         <f t="array" ref="M4">INDEX(Page4!$G$9:$G$38, COLUMN(M4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="125" t="e" cm="1">
+      <c r="N4" s="307" t="e" cm="1">
         <f t="array" ref="N4">INDEX(Page4!$G$9:$G$38, COLUMN(N4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="125" t="e" cm="1">
+      <c r="O4" s="307" t="e" cm="1">
         <f t="array" ref="O4">INDEX(Page4!$G$9:$G$38, COLUMN(O4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P4" s="125" t="e" cm="1">
+      <c r="P4" s="307" t="e" cm="1">
         <f t="array" ref="P4">INDEX(Page4!$G$9:$G$38, COLUMN(P4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="125" t="e" cm="1">
+      <c r="Q4" s="307" t="e" cm="1">
         <f t="array" ref="Q4">INDEX(Page4!$G$9:$G$38, COLUMN(Q4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R4" s="125" t="e" cm="1">
+      <c r="R4" s="307" t="e" cm="1">
         <f t="array" ref="R4">INDEX(Page4!$G$9:$G$38, COLUMN(R4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="125" t="e" cm="1">
+      <c r="S4" s="307" t="e" cm="1">
         <f t="array" ref="S4">INDEX(Page4!$G$9:$G$38, COLUMN(S4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T4" s="125" t="e" cm="1">
+      <c r="T4" s="307" t="e" cm="1">
         <f t="array" ref="T4">INDEX(Page4!$G$9:$G$38, COLUMN(T4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U4" s="125" t="e" cm="1">
+      <c r="U4" s="307" t="e" cm="1">
         <f t="array" ref="U4">INDEX(Page4!$G$9:$G$38, COLUMN(U4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V4" s="125" t="e" cm="1">
+      <c r="V4" s="307" t="e" cm="1">
         <f t="array" ref="V4">INDEX(Page4!$G$9:$G$38, COLUMN(V4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W4" s="125" t="e" cm="1">
+      <c r="W4" s="307" t="e" cm="1">
         <f t="array" ref="W4">INDEX(Page4!$G$9:$G$38, COLUMN(W4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X4" s="125" t="e" cm="1">
+      <c r="X4" s="307" t="e" cm="1">
         <f t="array" ref="X4">INDEX(Page4!$G$9:$G$38, COLUMN(X4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y4" s="125" t="e" cm="1">
+      <c r="Y4" s="307" t="e" cm="1">
         <f t="array" ref="Y4">INDEX(Page4!$G$9:$G$38, COLUMN(Y4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z4" s="125" t="e" cm="1">
+      <c r="Z4" s="307" t="e" cm="1">
         <f t="array" ref="Z4">INDEX(Page4!$G$9:$G$38, COLUMN(Z4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA4" s="125" t="e" cm="1">
+      <c r="AA4" s="307" t="e" cm="1">
         <f t="array" ref="AA4">INDEX(Page4!$G$9:$G$38, COLUMN(AA4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB4" s="125" t="e" cm="1">
+      <c r="AB4" s="307" t="e" cm="1">
         <f t="array" ref="AB4">INDEX(Page4!$G$9:$G$38, COLUMN(AB4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="125" t="e" cm="1">
+      <c r="AC4" s="307" t="e" cm="1">
         <f t="array" ref="AC4">INDEX(Page4!$G$9:$G$38, COLUMN(AC4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="125" t="e" cm="1">
+      <c r="AD4" s="307" t="e" cm="1">
         <f t="array" ref="AD4">INDEX(Page4!$G$9:$G$38, COLUMN(AD4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE4" s="125" t="e" cm="1">
+      <c r="AE4" s="307" t="e" cm="1">
         <f t="array" ref="AE4">INDEX(Page4!$G$9:$G$38, COLUMN(AE4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF4" s="125" t="e" cm="1">
+      <c r="AF4" s="307" t="e" cm="1">
         <f t="array" ref="AF4">INDEX(Page4!$G$9:$G$38, COLUMN(AF4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG4" s="125" t="e" cm="1">
+      <c r="AG4" s="307" t="e" cm="1">
         <f t="array" ref="AG4">INDEX(Page4!$G$9:$G$38, COLUMN(AG4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH4" s="125" t="e" cm="1">
+      <c r="AH4" s="307" t="e" cm="1">
         <f t="array" ref="AH4">INDEX(Page4!$G$9:$G$38, COLUMN(AH4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI4" s="125" t="e" cm="1">
+      <c r="AI4" s="307" t="e" cm="1">
         <f t="array" ref="AI4">INDEX(Page4!$G$9:$G$38, COLUMN(AI4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ4" s="125" t="e" cm="1">
+      <c r="AJ4" s="307" t="e" cm="1">
         <f t="array" ref="AJ4">INDEX(Page4!$G$9:$G$38, COLUMN(AJ4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK4" s="125" t="e" cm="1">
+      <c r="AK4" s="307" t="e" cm="1">
         <f t="array" ref="AK4">INDEX(Page4!$G$9:$G$38, COLUMN(AK4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL4" s="125" t="e" cm="1">
+      <c r="AL4" s="307" t="e" cm="1">
         <f t="array" ref="AL4">INDEX(Page4!$G$9:$G$38, COLUMN(AL4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM4" s="125" t="e" cm="1">
+      <c r="AM4" s="307" t="e" cm="1">
         <f t="array" ref="AM4">INDEX(Page4!$G$9:$G$38, COLUMN(AM4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN4" s="125" t="e" cm="1">
+      <c r="AN4" s="307" t="e" cm="1">
         <f t="array" ref="AN4">INDEX(Page4!$G$9:$G$38, COLUMN(AN4)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -16676,123 +16680,123 @@
       <c r="J5" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="125" cm="1">
+      <c r="K5" s="307" cm="1">
         <f t="array" ref="K5">INDEX(Page1!$H$8:$H$37, COLUMN(K5)-10)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="125" cm="1">
+      <c r="L5" s="307" cm="1">
         <f t="array" ref="L5">INDEX(Page1!$H$8:$H$37, COLUMN(L5)-10)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="125" cm="1">
+      <c r="M5" s="307" cm="1">
         <f t="array" ref="M5">INDEX(Page1!$H$8:$H$37, COLUMN(M5)-10)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="125" cm="1">
+      <c r="N5" s="307" cm="1">
         <f t="array" ref="N5">INDEX(Page1!$H$8:$H$37, COLUMN(N5)-10)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="125" cm="1">
+      <c r="O5" s="307" cm="1">
         <f t="array" ref="O5">INDEX(Page1!$H$8:$H$37, COLUMN(O5)-10)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="125" cm="1">
+      <c r="P5" s="307" cm="1">
         <f t="array" ref="P5">INDEX(Page1!$H$8:$H$37, COLUMN(P5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="125" cm="1">
+      <c r="Q5" s="307" cm="1">
         <f t="array" ref="Q5">INDEX(Page1!$H$8:$H$37, COLUMN(Q5)-10)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="125" cm="1">
+      <c r="R5" s="307" cm="1">
         <f t="array" ref="R5">INDEX(Page1!$H$8:$H$37, COLUMN(R5)-10)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="125" cm="1">
+      <c r="S5" s="307" cm="1">
         <f t="array" ref="S5">INDEX(Page1!$H$8:$H$37, COLUMN(S5)-10)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="125" cm="1">
+      <c r="T5" s="307" cm="1">
         <f t="array" ref="T5">INDEX(Page1!$H$8:$H$37, COLUMN(T5)-10)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="125" cm="1">
+      <c r="U5" s="307" cm="1">
         <f t="array" ref="U5">INDEX(Page1!$H$8:$H$37, COLUMN(U5)-10)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="125" cm="1">
+      <c r="V5" s="307" cm="1">
         <f t="array" ref="V5">INDEX(Page1!$H$8:$H$37, COLUMN(V5)-10)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="125" cm="1">
+      <c r="W5" s="307" cm="1">
         <f t="array" ref="W5">INDEX(Page1!$H$8:$H$37, COLUMN(W5)-10)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="125" cm="1">
+      <c r="X5" s="307" cm="1">
         <f t="array" ref="X5">INDEX(Page1!$H$8:$H$37, COLUMN(X5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="125" cm="1">
+      <c r="Y5" s="307" cm="1">
         <f t="array" ref="Y5">INDEX(Page1!$H$8:$H$37, COLUMN(Y5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="125" cm="1">
+      <c r="Z5" s="307" cm="1">
         <f t="array" ref="Z5">INDEX(Page1!$H$8:$H$37, COLUMN(Z5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="125" cm="1">
+      <c r="AA5" s="307" cm="1">
         <f t="array" ref="AA5">INDEX(Page1!$H$8:$H$37, COLUMN(AA5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="125" cm="1">
+      <c r="AB5" s="307" cm="1">
         <f t="array" ref="AB5">INDEX(Page1!$H$8:$H$37, COLUMN(AB5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="125" cm="1">
+      <c r="AC5" s="307" cm="1">
         <f t="array" ref="AC5">INDEX(Page1!$H$8:$H$37, COLUMN(AC5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="125" cm="1">
+      <c r="AD5" s="307" cm="1">
         <f t="array" ref="AD5">INDEX(Page1!$H$8:$H$37, COLUMN(AD5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="125" cm="1">
+      <c r="AE5" s="307" cm="1">
         <f t="array" ref="AE5">INDEX(Page1!$H$8:$H$37, COLUMN(AE5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="125" cm="1">
+      <c r="AF5" s="307" cm="1">
         <f t="array" ref="AF5">INDEX(Page1!$H$8:$H$37, COLUMN(AF5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="125" cm="1">
+      <c r="AG5" s="307" cm="1">
         <f t="array" ref="AG5">INDEX(Page1!$H$8:$H$37, COLUMN(AG5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="125" cm="1">
+      <c r="AH5" s="307" cm="1">
         <f t="array" ref="AH5">INDEX(Page1!$H$8:$H$37, COLUMN(AH5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="125" cm="1">
+      <c r="AI5" s="307" cm="1">
         <f t="array" ref="AI5">INDEX(Page1!$H$8:$H$37, COLUMN(AI5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="125" cm="1">
+      <c r="AJ5" s="307" cm="1">
         <f t="array" ref="AJ5">INDEX(Page1!$H$8:$H$37, COLUMN(AJ5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="125" cm="1">
+      <c r="AK5" s="307" cm="1">
         <f t="array" ref="AK5">INDEX(Page1!$H$8:$H$37, COLUMN(AK5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="125" cm="1">
+      <c r="AL5" s="307" cm="1">
         <f t="array" ref="AL5">INDEX(Page1!$H$8:$H$37, COLUMN(AL5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="125" cm="1">
+      <c r="AM5" s="307" cm="1">
         <f t="array" ref="AM5">INDEX(Page1!$H$8:$H$37, COLUMN(AM5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="125" cm="1">
+      <c r="AN5" s="307" cm="1">
         <f t="array" ref="AN5">INDEX(Page1!$H$8:$H$37, COLUMN(AN5)-10)</f>
         <v>0</v>
       </c>
@@ -16850,123 +16854,123 @@
       <c r="J6" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="125" cm="1">
+      <c r="K6" s="306" cm="1">
         <f t="array" ref="K6">INDEX(Page1!$N$8:$N$37, COLUMN(K6)-10)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="125" cm="1">
+      <c r="L6" s="306" cm="1">
         <f t="array" ref="L6">INDEX(Page1!$N$8:$N$37, COLUMN(L6)-10)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="125" cm="1">
+      <c r="M6" s="306" cm="1">
         <f t="array" ref="M6">INDEX(Page1!$N$8:$N$37, COLUMN(M6)-10)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="125" cm="1">
+      <c r="N6" s="306" cm="1">
         <f t="array" ref="N6">INDEX(Page1!$N$8:$N$37, COLUMN(N6)-10)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="125" cm="1">
+      <c r="O6" s="306" cm="1">
         <f t="array" ref="O6">INDEX(Page1!$N$8:$N$37, COLUMN(O6)-10)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="125" cm="1">
+      <c r="P6" s="306" cm="1">
         <f t="array" ref="P6">INDEX(Page1!$N$8:$N$37, COLUMN(P6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="125" cm="1">
+      <c r="Q6" s="306" cm="1">
         <f t="array" ref="Q6">INDEX(Page1!$N$8:$N$37, COLUMN(Q6)-10)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="125" cm="1">
+      <c r="R6" s="306" cm="1">
         <f t="array" ref="R6">INDEX(Page1!$N$8:$N$37, COLUMN(R6)-10)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="125" cm="1">
+      <c r="S6" s="306" cm="1">
         <f t="array" ref="S6">INDEX(Page1!$N$8:$N$37, COLUMN(S6)-10)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="125" cm="1">
+      <c r="T6" s="306" cm="1">
         <f t="array" ref="T6">INDEX(Page1!$N$8:$N$37, COLUMN(T6)-10)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="125" cm="1">
+      <c r="U6" s="306" cm="1">
         <f t="array" ref="U6">INDEX(Page1!$N$8:$N$37, COLUMN(U6)-10)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="125" cm="1">
+      <c r="V6" s="306" cm="1">
         <f t="array" ref="V6">INDEX(Page1!$N$8:$N$37, COLUMN(V6)-10)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="125" cm="1">
+      <c r="W6" s="306" cm="1">
         <f t="array" ref="W6">INDEX(Page1!$N$8:$N$37, COLUMN(W6)-10)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="125" cm="1">
+      <c r="X6" s="306" cm="1">
         <f t="array" ref="X6">INDEX(Page1!$N$8:$N$37, COLUMN(X6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="125" cm="1">
+      <c r="Y6" s="306" cm="1">
         <f t="array" ref="Y6">INDEX(Page1!$N$8:$N$37, COLUMN(Y6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="125" cm="1">
+      <c r="Z6" s="306" cm="1">
         <f t="array" ref="Z6">INDEX(Page1!$N$8:$N$37, COLUMN(Z6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="125" cm="1">
+      <c r="AA6" s="306" cm="1">
         <f t="array" ref="AA6">INDEX(Page1!$N$8:$N$37, COLUMN(AA6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="125" cm="1">
+      <c r="AB6" s="306" cm="1">
         <f t="array" ref="AB6">INDEX(Page1!$N$8:$N$37, COLUMN(AB6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="125" cm="1">
+      <c r="AC6" s="306" cm="1">
         <f t="array" ref="AC6">INDEX(Page1!$N$8:$N$37, COLUMN(AC6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="125" cm="1">
+      <c r="AD6" s="306" cm="1">
         <f t="array" ref="AD6">INDEX(Page1!$N$8:$N$37, COLUMN(AD6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="125" cm="1">
+      <c r="AE6" s="306" cm="1">
         <f t="array" ref="AE6">INDEX(Page1!$N$8:$N$37, COLUMN(AE6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="125" cm="1">
+      <c r="AF6" s="306" cm="1">
         <f t="array" ref="AF6">INDEX(Page1!$N$8:$N$37, COLUMN(AF6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="125" cm="1">
+      <c r="AG6" s="306" cm="1">
         <f t="array" ref="AG6">INDEX(Page1!$N$8:$N$37, COLUMN(AG6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="125" cm="1">
+      <c r="AH6" s="306" cm="1">
         <f t="array" ref="AH6">INDEX(Page1!$N$8:$N$37, COLUMN(AH6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="125" cm="1">
+      <c r="AI6" s="306" cm="1">
         <f t="array" ref="AI6">INDEX(Page1!$N$8:$N$37, COLUMN(AI6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="125" cm="1">
+      <c r="AJ6" s="306" cm="1">
         <f t="array" ref="AJ6">INDEX(Page1!$N$8:$N$37, COLUMN(AJ6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="125" cm="1">
+      <c r="AK6" s="306" cm="1">
         <f t="array" ref="AK6">INDEX(Page1!$N$8:$N$37, COLUMN(AK6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="125" cm="1">
+      <c r="AL6" s="306" cm="1">
         <f t="array" ref="AL6">INDEX(Page1!$N$8:$N$37, COLUMN(AL6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="125" cm="1">
+      <c r="AM6" s="306" cm="1">
         <f t="array" ref="AM6">INDEX(Page1!$N$8:$N$37, COLUMN(AM6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="125" cm="1">
+      <c r="AN6" s="306" cm="1">
         <f t="array" ref="AN6">INDEX(Page1!$N$8:$N$37, COLUMN(AN6)-10)</f>
         <v>0</v>
       </c>
@@ -17026,123 +17030,123 @@
       <c r="J7" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K7" s="125" cm="1">
+      <c r="K7" s="306" cm="1">
         <f t="array" ref="K7">INDEX(Page1!$D$8:$D$37, COLUMN(K7)-10)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="125" cm="1">
+      <c r="L7" s="306" cm="1">
         <f t="array" ref="L7">INDEX(Page1!$D$8:$D$37, COLUMN(L7)-10)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="125" cm="1">
+      <c r="M7" s="306" cm="1">
         <f t="array" ref="M7">INDEX(Page1!$D$8:$D$37, COLUMN(M7)-10)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="125" cm="1">
+      <c r="N7" s="306" cm="1">
         <f t="array" ref="N7">INDEX(Page1!$D$8:$D$37, COLUMN(N7)-10)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="125" cm="1">
+      <c r="O7" s="306" cm="1">
         <f t="array" ref="O7">INDEX(Page1!$D$8:$D$37, COLUMN(O7)-10)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="125" cm="1">
+      <c r="P7" s="306" cm="1">
         <f t="array" ref="P7">INDEX(Page1!$D$8:$D$37, COLUMN(P7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="125" cm="1">
+      <c r="Q7" s="306" cm="1">
         <f t="array" ref="Q7">INDEX(Page1!$D$8:$D$37, COLUMN(Q7)-10)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="125" cm="1">
+      <c r="R7" s="306" cm="1">
         <f t="array" ref="R7">INDEX(Page1!$D$8:$D$37, COLUMN(R7)-10)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="125" cm="1">
+      <c r="S7" s="306" cm="1">
         <f t="array" ref="S7">INDEX(Page1!$D$8:$D$37, COLUMN(S7)-10)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="125" cm="1">
+      <c r="T7" s="306" cm="1">
         <f t="array" ref="T7">INDEX(Page1!$D$8:$D$37, COLUMN(T7)-10)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="125" cm="1">
+      <c r="U7" s="306" cm="1">
         <f t="array" ref="U7">INDEX(Page1!$D$8:$D$37, COLUMN(U7)-10)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="125" cm="1">
+      <c r="V7" s="306" cm="1">
         <f t="array" ref="V7">INDEX(Page1!$D$8:$D$37, COLUMN(V7)-10)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="125" cm="1">
+      <c r="W7" s="306" cm="1">
         <f t="array" ref="W7">INDEX(Page1!$D$8:$D$37, COLUMN(W7)-10)</f>
         <v>0</v>
       </c>
-      <c r="X7" s="125" cm="1">
+      <c r="X7" s="306" cm="1">
         <f t="array" ref="X7">INDEX(Page1!$D$8:$D$37, COLUMN(X7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="125" cm="1">
+      <c r="Y7" s="306" cm="1">
         <f t="array" ref="Y7">INDEX(Page1!$D$8:$D$37, COLUMN(Y7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="125" cm="1">
+      <c r="Z7" s="306" cm="1">
         <f t="array" ref="Z7">INDEX(Page1!$D$8:$D$37, COLUMN(Z7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="125" cm="1">
+      <c r="AA7" s="306" cm="1">
         <f t="array" ref="AA7">INDEX(Page1!$D$8:$D$37, COLUMN(AA7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="125" cm="1">
+      <c r="AB7" s="306" cm="1">
         <f t="array" ref="AB7">INDEX(Page1!$D$8:$D$37, COLUMN(AB7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="125" cm="1">
+      <c r="AC7" s="306" cm="1">
         <f t="array" ref="AC7">INDEX(Page1!$D$8:$D$37, COLUMN(AC7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="125" cm="1">
+      <c r="AD7" s="306" cm="1">
         <f t="array" ref="AD7">INDEX(Page1!$D$8:$D$37, COLUMN(AD7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="125" cm="1">
+      <c r="AE7" s="306" cm="1">
         <f t="array" ref="AE7">INDEX(Page1!$D$8:$D$37, COLUMN(AE7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="125" cm="1">
+      <c r="AF7" s="306" cm="1">
         <f t="array" ref="AF7">INDEX(Page1!$D$8:$D$37, COLUMN(AF7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="125" cm="1">
+      <c r="AG7" s="306" cm="1">
         <f t="array" ref="AG7">INDEX(Page1!$D$8:$D$37, COLUMN(AG7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="125" cm="1">
+      <c r="AH7" s="306" cm="1">
         <f t="array" ref="AH7">INDEX(Page1!$D$8:$D$37, COLUMN(AH7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="125" cm="1">
+      <c r="AI7" s="306" cm="1">
         <f t="array" ref="AI7">INDEX(Page1!$D$8:$D$37, COLUMN(AI7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ7" s="125" cm="1">
+      <c r="AJ7" s="306" cm="1">
         <f t="array" ref="AJ7">INDEX(Page1!$D$8:$D$37, COLUMN(AJ7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK7" s="125" cm="1">
+      <c r="AK7" s="306" cm="1">
         <f t="array" ref="AK7">INDEX(Page1!$D$8:$D$37, COLUMN(AK7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL7" s="125" cm="1">
+      <c r="AL7" s="306" cm="1">
         <f t="array" ref="AL7">INDEX(Page1!$D$8:$D$37, COLUMN(AL7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="125" cm="1">
+      <c r="AM7" s="306" cm="1">
         <f t="array" ref="AM7">INDEX(Page1!$D$8:$D$37, COLUMN(AM7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN7" s="125" cm="1">
+      <c r="AN7" s="306" cm="1">
         <f t="array" ref="AN7">INDEX(Page1!$D$8:$D$37, COLUMN(AN7)-10)</f>
         <v>0</v>
       </c>
@@ -17202,123 +17206,123 @@
       <c r="J8" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="125" t="e" cm="1">
+      <c r="K8" s="305" t="e" cm="1">
         <f t="array" ref="K8">INDEX(Page3!$G$9:$G$38, COLUMN(K8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="125" t="e" cm="1">
+      <c r="L8" s="305" t="e" cm="1">
         <f t="array" ref="L8">INDEX(Page3!$G$9:$G$38, COLUMN(L8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="125" t="e" cm="1">
+      <c r="M8" s="305" t="e" cm="1">
         <f t="array" ref="M8">INDEX(Page3!$G$9:$G$38, COLUMN(M8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="125" t="e" cm="1">
+      <c r="N8" s="305" t="e" cm="1">
         <f t="array" ref="N8">INDEX(Page3!$G$9:$G$38, COLUMN(N8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="125" t="e" cm="1">
+      <c r="O8" s="305" t="e" cm="1">
         <f t="array" ref="O8">INDEX(Page3!$G$9:$G$38, COLUMN(O8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="125" t="e" cm="1">
+      <c r="P8" s="305" t="e" cm="1">
         <f t="array" ref="P8">INDEX(Page3!$G$9:$G$38, COLUMN(P8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="125" t="e" cm="1">
+      <c r="Q8" s="305" t="e" cm="1">
         <f t="array" ref="Q8">INDEX(Page3!$G$9:$G$38, COLUMN(Q8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R8" s="125" t="e" cm="1">
+      <c r="R8" s="305" t="e" cm="1">
         <f t="array" ref="R8">INDEX(Page3!$G$9:$G$38, COLUMN(R8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S8" s="125" t="e" cm="1">
+      <c r="S8" s="305" t="e" cm="1">
         <f t="array" ref="S8">INDEX(Page3!$G$9:$G$38, COLUMN(S8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T8" s="125" t="e" cm="1">
+      <c r="T8" s="305" t="e" cm="1">
         <f t="array" ref="T8">INDEX(Page3!$G$9:$G$38, COLUMN(T8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="125" t="e" cm="1">
+      <c r="U8" s="305" t="e" cm="1">
         <f t="array" ref="U8">INDEX(Page3!$G$9:$G$38, COLUMN(U8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V8" s="125" t="e" cm="1">
+      <c r="V8" s="305" t="e" cm="1">
         <f t="array" ref="V8">INDEX(Page3!$G$9:$G$38, COLUMN(V8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W8" s="125" t="e" cm="1">
+      <c r="W8" s="305" t="e" cm="1">
         <f t="array" ref="W8">INDEX(Page3!$G$9:$G$38, COLUMN(W8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X8" s="125" t="e" cm="1">
+      <c r="X8" s="305" t="e" cm="1">
         <f t="array" ref="X8">INDEX(Page3!$G$9:$G$38, COLUMN(X8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y8" s="125" t="e" cm="1">
+      <c r="Y8" s="305" t="e" cm="1">
         <f t="array" ref="Y8">INDEX(Page3!$G$9:$G$38, COLUMN(Y8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z8" s="125" t="e" cm="1">
+      <c r="Z8" s="305" t="e" cm="1">
         <f t="array" ref="Z8">INDEX(Page3!$G$9:$G$38, COLUMN(Z8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA8" s="125" t="e" cm="1">
+      <c r="AA8" s="305" t="e" cm="1">
         <f t="array" ref="AA8">INDEX(Page3!$G$9:$G$38, COLUMN(AA8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB8" s="125" t="e" cm="1">
+      <c r="AB8" s="305" t="e" cm="1">
         <f t="array" ref="AB8">INDEX(Page3!$G$9:$G$38, COLUMN(AB8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="125" t="e" cm="1">
+      <c r="AC8" s="305" t="e" cm="1">
         <f t="array" ref="AC8">INDEX(Page3!$G$9:$G$38, COLUMN(AC8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="125" t="e" cm="1">
+      <c r="AD8" s="305" t="e" cm="1">
         <f t="array" ref="AD8">INDEX(Page3!$G$9:$G$38, COLUMN(AD8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE8" s="125" t="e" cm="1">
+      <c r="AE8" s="305" t="e" cm="1">
         <f t="array" ref="AE8">INDEX(Page3!$G$9:$G$38, COLUMN(AE8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF8" s="125" t="e" cm="1">
+      <c r="AF8" s="305" t="e" cm="1">
         <f t="array" ref="AF8">INDEX(Page3!$G$9:$G$38, COLUMN(AF8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG8" s="125" t="e" cm="1">
+      <c r="AG8" s="305" t="e" cm="1">
         <f t="array" ref="AG8">INDEX(Page3!$G$9:$G$38, COLUMN(AG8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH8" s="125" t="e" cm="1">
+      <c r="AH8" s="305" t="e" cm="1">
         <f t="array" ref="AH8">INDEX(Page3!$G$9:$G$38, COLUMN(AH8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI8" s="125" t="e" cm="1">
+      <c r="AI8" s="305" t="e" cm="1">
         <f t="array" ref="AI8">INDEX(Page3!$G$9:$G$38, COLUMN(AI8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ8" s="125" t="e" cm="1">
+      <c r="AJ8" s="305" t="e" cm="1">
         <f t="array" ref="AJ8">INDEX(Page3!$G$9:$G$38, COLUMN(AJ8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK8" s="125" t="e" cm="1">
+      <c r="AK8" s="305" t="e" cm="1">
         <f t="array" ref="AK8">INDEX(Page3!$G$9:$G$38, COLUMN(AK8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL8" s="125" t="e" cm="1">
+      <c r="AL8" s="305" t="e" cm="1">
         <f t="array" ref="AL8">INDEX(Page3!$G$9:$G$38, COLUMN(AL8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM8" s="125" t="e" cm="1">
+      <c r="AM8" s="305" t="e" cm="1">
         <f t="array" ref="AM8">INDEX(Page3!$G$9:$G$38, COLUMN(AM8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN8" s="125" t="e" cm="1">
+      <c r="AN8" s="305" t="e" cm="1">
         <f t="array" ref="AN8">INDEX(Page3!$G$9:$G$38, COLUMN(AN8)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17378,123 +17382,123 @@
       <c r="J9" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K9" s="125" t="e" cm="1">
+      <c r="K9" s="305" t="e" cm="1">
         <f t="array" ref="K9">INDEX(Page2!$G$9:$G$38, COLUMN(K9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="125" t="e" cm="1">
+      <c r="L9" s="305" t="e" cm="1">
         <f t="array" ref="L9">INDEX(Page2!$G$9:$G$38, COLUMN(L9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="125" t="e" cm="1">
+      <c r="M9" s="305" t="e" cm="1">
         <f t="array" ref="M9">INDEX(Page2!$G$9:$G$38, COLUMN(M9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="125" t="e" cm="1">
+      <c r="N9" s="305" t="e" cm="1">
         <f t="array" ref="N9">INDEX(Page2!$G$9:$G$38, COLUMN(N9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="125" t="e" cm="1">
+      <c r="O9" s="305" t="e" cm="1">
         <f t="array" ref="O9">INDEX(Page2!$G$9:$G$38, COLUMN(O9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P9" s="125" t="e" cm="1">
+      <c r="P9" s="305" t="e" cm="1">
         <f t="array" ref="P9">INDEX(Page2!$G$9:$G$38, COLUMN(P9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q9" s="125" t="e" cm="1">
+      <c r="Q9" s="305" t="e" cm="1">
         <f t="array" ref="Q9">INDEX(Page2!$G$9:$G$38, COLUMN(Q9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R9" s="125" t="e" cm="1">
+      <c r="R9" s="305" t="e" cm="1">
         <f t="array" ref="R9">INDEX(Page2!$G$9:$G$38, COLUMN(R9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S9" s="125" t="e" cm="1">
+      <c r="S9" s="305" t="e" cm="1">
         <f t="array" ref="S9">INDEX(Page2!$G$9:$G$38, COLUMN(S9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T9" s="125" t="e" cm="1">
+      <c r="T9" s="305" t="e" cm="1">
         <f t="array" ref="T9">INDEX(Page2!$G$9:$G$38, COLUMN(T9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U9" s="125" t="e" cm="1">
+      <c r="U9" s="305" t="e" cm="1">
         <f t="array" ref="U9">INDEX(Page2!$G$9:$G$38, COLUMN(U9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V9" s="125" t="e" cm="1">
+      <c r="V9" s="305" t="e" cm="1">
         <f t="array" ref="V9">INDEX(Page2!$G$9:$G$38, COLUMN(V9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W9" s="125" t="e" cm="1">
+      <c r="W9" s="305" t="e" cm="1">
         <f t="array" ref="W9">INDEX(Page2!$G$9:$G$38, COLUMN(W9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X9" s="125" t="e" cm="1">
+      <c r="X9" s="305" t="e" cm="1">
         <f t="array" ref="X9">INDEX(Page2!$G$9:$G$38, COLUMN(X9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y9" s="125" t="e" cm="1">
+      <c r="Y9" s="305" t="e" cm="1">
         <f t="array" ref="Y9">INDEX(Page2!$G$9:$G$38, COLUMN(Y9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z9" s="125" t="e" cm="1">
+      <c r="Z9" s="305" t="e" cm="1">
         <f t="array" ref="Z9">INDEX(Page2!$G$9:$G$38, COLUMN(Z9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA9" s="125" t="e" cm="1">
+      <c r="AA9" s="305" t="e" cm="1">
         <f t="array" ref="AA9">INDEX(Page2!$G$9:$G$38, COLUMN(AA9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB9" s="125" t="e" cm="1">
+      <c r="AB9" s="305" t="e" cm="1">
         <f t="array" ref="AB9">INDEX(Page2!$G$9:$G$38, COLUMN(AB9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC9" s="125" t="e" cm="1">
+      <c r="AC9" s="305" t="e" cm="1">
         <f t="array" ref="AC9">INDEX(Page2!$G$9:$G$38, COLUMN(AC9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="125" t="e" cm="1">
+      <c r="AD9" s="305" t="e" cm="1">
         <f t="array" ref="AD9">INDEX(Page2!$G$9:$G$38, COLUMN(AD9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE9" s="125" t="e" cm="1">
+      <c r="AE9" s="305" t="e" cm="1">
         <f t="array" ref="AE9">INDEX(Page2!$G$9:$G$38, COLUMN(AE9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF9" s="125" t="e" cm="1">
+      <c r="AF9" s="305" t="e" cm="1">
         <f t="array" ref="AF9">INDEX(Page2!$G$9:$G$38, COLUMN(AF9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG9" s="125" t="e" cm="1">
+      <c r="AG9" s="305" t="e" cm="1">
         <f t="array" ref="AG9">INDEX(Page2!$G$9:$G$38, COLUMN(AG9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH9" s="125" t="e" cm="1">
+      <c r="AH9" s="305" t="e" cm="1">
         <f t="array" ref="AH9">INDEX(Page2!$G$9:$G$38, COLUMN(AH9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI9" s="125" t="e" cm="1">
+      <c r="AI9" s="305" t="e" cm="1">
         <f t="array" ref="AI9">INDEX(Page2!$G$9:$G$38, COLUMN(AI9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ9" s="125" t="e" cm="1">
+      <c r="AJ9" s="305" t="e" cm="1">
         <f t="array" ref="AJ9">INDEX(Page2!$G$9:$G$38, COLUMN(AJ9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK9" s="125" t="e" cm="1">
+      <c r="AK9" s="305" t="e" cm="1">
         <f t="array" ref="AK9">INDEX(Page2!$G$9:$G$38, COLUMN(AK9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL9" s="125" t="e" cm="1">
+      <c r="AL9" s="305" t="e" cm="1">
         <f t="array" ref="AL9">INDEX(Page2!$G$9:$G$38, COLUMN(AL9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM9" s="125" t="e" cm="1">
+      <c r="AM9" s="305" t="e" cm="1">
         <f t="array" ref="AM9">INDEX(Page2!$G$9:$G$38, COLUMN(AM9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN9" s="125" t="e" cm="1">
+      <c r="AN9" s="305" t="e" cm="1">
         <f t="array" ref="AN9">INDEX(Page2!$G$9:$G$38, COLUMN(AN9)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17554,123 +17558,123 @@
       <c r="J10" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="125" t="e" cm="1">
+      <c r="K10" s="307" t="e" cm="1">
         <f t="array" ref="K10">INDEX(Page2!$K$9:$K$38, COLUMN(K10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="125" t="e" cm="1">
+      <c r="L10" s="307" t="e" cm="1">
         <f t="array" ref="L10">INDEX(Page2!$K$9:$K$38, COLUMN(L10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="125" t="e" cm="1">
+      <c r="M10" s="307" t="e" cm="1">
         <f t="array" ref="M10">INDEX(Page2!$K$9:$K$38, COLUMN(M10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="125" t="e" cm="1">
+      <c r="N10" s="307" t="e" cm="1">
         <f t="array" ref="N10">INDEX(Page2!$K$9:$K$38, COLUMN(N10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="125" t="e" cm="1">
+      <c r="O10" s="307" t="e" cm="1">
         <f t="array" ref="O10">INDEX(Page2!$K$9:$K$38, COLUMN(O10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P10" s="125" t="e" cm="1">
+      <c r="P10" s="307" t="e" cm="1">
         <f t="array" ref="P10">INDEX(Page2!$K$9:$K$38, COLUMN(P10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="125" t="e" cm="1">
+      <c r="Q10" s="307" t="e" cm="1">
         <f t="array" ref="Q10">INDEX(Page2!$K$9:$K$38, COLUMN(Q10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R10" s="125" t="e" cm="1">
+      <c r="R10" s="307" t="e" cm="1">
         <f t="array" ref="R10">INDEX(Page2!$K$9:$K$38, COLUMN(R10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="125" t="e" cm="1">
+      <c r="S10" s="307" t="e" cm="1">
         <f t="array" ref="S10">INDEX(Page2!$K$9:$K$38, COLUMN(S10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T10" s="125" t="e" cm="1">
+      <c r="T10" s="307" t="e" cm="1">
         <f t="array" ref="T10">INDEX(Page2!$K$9:$K$38, COLUMN(T10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U10" s="125" t="e" cm="1">
+      <c r="U10" s="307" t="e" cm="1">
         <f t="array" ref="U10">INDEX(Page2!$K$9:$K$38, COLUMN(U10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V10" s="125" t="e" cm="1">
+      <c r="V10" s="307" t="e" cm="1">
         <f t="array" ref="V10">INDEX(Page2!$K$9:$K$38, COLUMN(V10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W10" s="125" t="e" cm="1">
+      <c r="W10" s="307" t="e" cm="1">
         <f t="array" ref="W10">INDEX(Page2!$K$9:$K$38, COLUMN(W10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X10" s="125" t="e" cm="1">
+      <c r="X10" s="307" t="e" cm="1">
         <f t="array" ref="X10">INDEX(Page2!$K$9:$K$38, COLUMN(X10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y10" s="125" t="e" cm="1">
+      <c r="Y10" s="307" t="e" cm="1">
         <f t="array" ref="Y10">INDEX(Page2!$K$9:$K$38, COLUMN(Y10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z10" s="125" t="e" cm="1">
+      <c r="Z10" s="307" t="e" cm="1">
         <f t="array" ref="Z10">INDEX(Page2!$K$9:$K$38, COLUMN(Z10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA10" s="125" t="e" cm="1">
+      <c r="AA10" s="307" t="e" cm="1">
         <f t="array" ref="AA10">INDEX(Page2!$K$9:$K$38, COLUMN(AA10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB10" s="125" t="e" cm="1">
+      <c r="AB10" s="307" t="e" cm="1">
         <f t="array" ref="AB10">INDEX(Page2!$K$9:$K$38, COLUMN(AB10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC10" s="125" t="e" cm="1">
+      <c r="AC10" s="307" t="e" cm="1">
         <f t="array" ref="AC10">INDEX(Page2!$K$9:$K$38, COLUMN(AC10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="125" t="e" cm="1">
+      <c r="AD10" s="307" t="e" cm="1">
         <f t="array" ref="AD10">INDEX(Page2!$K$9:$K$38, COLUMN(AD10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE10" s="125" t="e" cm="1">
+      <c r="AE10" s="307" t="e" cm="1">
         <f t="array" ref="AE10">INDEX(Page2!$K$9:$K$38, COLUMN(AE10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF10" s="125" t="e" cm="1">
+      <c r="AF10" s="307" t="e" cm="1">
         <f t="array" ref="AF10">INDEX(Page2!$K$9:$K$38, COLUMN(AF10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG10" s="125" t="e" cm="1">
+      <c r="AG10" s="307" t="e" cm="1">
         <f t="array" ref="AG10">INDEX(Page2!$K$9:$K$38, COLUMN(AG10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH10" s="125" t="e" cm="1">
+      <c r="AH10" s="307" t="e" cm="1">
         <f t="array" ref="AH10">INDEX(Page2!$K$9:$K$38, COLUMN(AH10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI10" s="125" t="e" cm="1">
+      <c r="AI10" s="307" t="e" cm="1">
         <f t="array" ref="AI10">INDEX(Page2!$K$9:$K$38, COLUMN(AI10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ10" s="125" t="e" cm="1">
+      <c r="AJ10" s="307" t="e" cm="1">
         <f t="array" ref="AJ10">INDEX(Page2!$K$9:$K$38, COLUMN(AJ10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK10" s="125" t="e" cm="1">
+      <c r="AK10" s="307" t="e" cm="1">
         <f t="array" ref="AK10">INDEX(Page2!$K$9:$K$38, COLUMN(AK10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL10" s="125" t="e" cm="1">
+      <c r="AL10" s="307" t="e" cm="1">
         <f t="array" ref="AL10">INDEX(Page2!$K$9:$K$38, COLUMN(AL10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM10" s="125" t="e" cm="1">
+      <c r="AM10" s="307" t="e" cm="1">
         <f t="array" ref="AM10">INDEX(Page2!$K$9:$K$38, COLUMN(AM10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN10" s="125" t="e" cm="1">
+      <c r="AN10" s="307" t="e" cm="1">
         <f t="array" ref="AN10">INDEX(Page2!$K$9:$K$38, COLUMN(AN10)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17730,123 +17734,123 @@
       <c r="J11" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="125" t="e" cm="1">
+      <c r="K11" s="307" t="e" cm="1">
         <f t="array" ref="K11">INDEX(Page3!$K$9:$K$38, COLUMN(K11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="125" t="e" cm="1">
+      <c r="L11" s="307" t="e" cm="1">
         <f t="array" ref="L11">INDEX(Page3!$K$9:$K$38, COLUMN(L11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="125" t="e" cm="1">
+      <c r="M11" s="307" t="e" cm="1">
         <f t="array" ref="M11">INDEX(Page3!$K$9:$K$38, COLUMN(M11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="125" t="e" cm="1">
+      <c r="N11" s="307" t="e" cm="1">
         <f t="array" ref="N11">INDEX(Page3!$K$9:$K$38, COLUMN(N11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="125" t="e" cm="1">
+      <c r="O11" s="307" t="e" cm="1">
         <f t="array" ref="O11">INDEX(Page3!$K$9:$K$38, COLUMN(O11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P11" s="125" t="e" cm="1">
+      <c r="P11" s="307" t="e" cm="1">
         <f t="array" ref="P11">INDEX(Page3!$K$9:$K$38, COLUMN(P11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="125" t="e" cm="1">
+      <c r="Q11" s="307" t="e" cm="1">
         <f t="array" ref="Q11">INDEX(Page3!$K$9:$K$38, COLUMN(Q11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="125" t="e" cm="1">
+      <c r="R11" s="307" t="e" cm="1">
         <f t="array" ref="R11">INDEX(Page3!$K$9:$K$38, COLUMN(R11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="125" t="e" cm="1">
+      <c r="S11" s="307" t="e" cm="1">
         <f t="array" ref="S11">INDEX(Page3!$K$9:$K$38, COLUMN(S11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T11" s="125" t="e" cm="1">
+      <c r="T11" s="307" t="e" cm="1">
         <f t="array" ref="T11">INDEX(Page3!$K$9:$K$38, COLUMN(T11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U11" s="125" t="e" cm="1">
+      <c r="U11" s="307" t="e" cm="1">
         <f t="array" ref="U11">INDEX(Page3!$K$9:$K$38, COLUMN(U11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V11" s="125" t="e" cm="1">
+      <c r="V11" s="307" t="e" cm="1">
         <f t="array" ref="V11">INDEX(Page3!$K$9:$K$38, COLUMN(V11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W11" s="125" t="e" cm="1">
+      <c r="W11" s="307" t="e" cm="1">
         <f t="array" ref="W11">INDEX(Page3!$K$9:$K$38, COLUMN(W11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X11" s="125" t="e" cm="1">
+      <c r="X11" s="307" t="e" cm="1">
         <f t="array" ref="X11">INDEX(Page3!$K$9:$K$38, COLUMN(X11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y11" s="125" t="e" cm="1">
+      <c r="Y11" s="307" t="e" cm="1">
         <f t="array" ref="Y11">INDEX(Page3!$K$9:$K$38, COLUMN(Y11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z11" s="125" t="e" cm="1">
+      <c r="Z11" s="307" t="e" cm="1">
         <f t="array" ref="Z11">INDEX(Page3!$K$9:$K$38, COLUMN(Z11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA11" s="125" t="e" cm="1">
+      <c r="AA11" s="307" t="e" cm="1">
         <f t="array" ref="AA11">INDEX(Page3!$K$9:$K$38, COLUMN(AA11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB11" s="125" t="e" cm="1">
+      <c r="AB11" s="307" t="e" cm="1">
         <f t="array" ref="AB11">INDEX(Page3!$K$9:$K$38, COLUMN(AB11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="125" t="e" cm="1">
+      <c r="AC11" s="307" t="e" cm="1">
         <f t="array" ref="AC11">INDEX(Page3!$K$9:$K$38, COLUMN(AC11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="125" t="e" cm="1">
+      <c r="AD11" s="307" t="e" cm="1">
         <f t="array" ref="AD11">INDEX(Page3!$K$9:$K$38, COLUMN(AD11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE11" s="125" t="e" cm="1">
+      <c r="AE11" s="307" t="e" cm="1">
         <f t="array" ref="AE11">INDEX(Page3!$K$9:$K$38, COLUMN(AE11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF11" s="125" t="e" cm="1">
+      <c r="AF11" s="307" t="e" cm="1">
         <f t="array" ref="AF11">INDEX(Page3!$K$9:$K$38, COLUMN(AF11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG11" s="125" t="e" cm="1">
+      <c r="AG11" s="307" t="e" cm="1">
         <f t="array" ref="AG11">INDEX(Page3!$K$9:$K$38, COLUMN(AG11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH11" s="125" t="e" cm="1">
+      <c r="AH11" s="307" t="e" cm="1">
         <f t="array" ref="AH11">INDEX(Page3!$K$9:$K$38, COLUMN(AH11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI11" s="125" t="e" cm="1">
+      <c r="AI11" s="307" t="e" cm="1">
         <f t="array" ref="AI11">INDEX(Page3!$K$9:$K$38, COLUMN(AI11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ11" s="125" t="e" cm="1">
+      <c r="AJ11" s="307" t="e" cm="1">
         <f t="array" ref="AJ11">INDEX(Page3!$K$9:$K$38, COLUMN(AJ11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK11" s="125" t="e" cm="1">
+      <c r="AK11" s="307" t="e" cm="1">
         <f t="array" ref="AK11">INDEX(Page3!$K$9:$K$38, COLUMN(AK11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL11" s="125" t="e" cm="1">
+      <c r="AL11" s="307" t="e" cm="1">
         <f t="array" ref="AL11">INDEX(Page3!$K$9:$K$38, COLUMN(AL11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM11" s="125" t="e" cm="1">
+      <c r="AM11" s="307" t="e" cm="1">
         <f t="array" ref="AM11">INDEX(Page3!$K$9:$K$38, COLUMN(AM11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN11" s="125" t="e" cm="1">
+      <c r="AN11" s="307" t="e" cm="1">
         <f t="array" ref="AN11">INDEX(Page3!$K$9:$K$38, COLUMN(AN11)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17906,123 +17910,123 @@
       <c r="J12" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K12" s="125" t="e" cm="1">
+      <c r="K12" s="307" t="e" cm="1">
         <f t="array" ref="K12">INDEX(Page2!$O$9:$O$38, COLUMN(K12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="125" t="e" cm="1">
+      <c r="L12" s="307" t="e" cm="1">
         <f t="array" ref="L12">INDEX(Page2!$O$9:$O$38, COLUMN(L12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="125" t="e" cm="1">
+      <c r="M12" s="307" t="e" cm="1">
         <f t="array" ref="M12">INDEX(Page2!$O$9:$O$38, COLUMN(M12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="125" t="e" cm="1">
+      <c r="N12" s="307" t="e" cm="1">
         <f t="array" ref="N12">INDEX(Page2!$O$9:$O$38, COLUMN(N12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O12" s="125" t="e" cm="1">
+      <c r="O12" s="307" t="e" cm="1">
         <f t="array" ref="O12">INDEX(Page2!$O$9:$O$38, COLUMN(O12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="125" t="e" cm="1">
+      <c r="P12" s="307" t="e" cm="1">
         <f t="array" ref="P12">INDEX(Page2!$O$9:$O$38, COLUMN(P12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q12" s="125" t="e" cm="1">
+      <c r="Q12" s="307" t="e" cm="1">
         <f t="array" ref="Q12">INDEX(Page2!$O$9:$O$38, COLUMN(Q12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R12" s="125" t="e" cm="1">
+      <c r="R12" s="307" t="e" cm="1">
         <f t="array" ref="R12">INDEX(Page2!$O$9:$O$38, COLUMN(R12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S12" s="125" t="e" cm="1">
+      <c r="S12" s="307" t="e" cm="1">
         <f t="array" ref="S12">INDEX(Page2!$O$9:$O$38, COLUMN(S12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T12" s="125" t="e" cm="1">
+      <c r="T12" s="307" t="e" cm="1">
         <f t="array" ref="T12">INDEX(Page2!$O$9:$O$38, COLUMN(T12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U12" s="125" t="e" cm="1">
+      <c r="U12" s="307" t="e" cm="1">
         <f t="array" ref="U12">INDEX(Page2!$O$9:$O$38, COLUMN(U12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V12" s="125" t="e" cm="1">
+      <c r="V12" s="307" t="e" cm="1">
         <f t="array" ref="V12">INDEX(Page2!$O$9:$O$38, COLUMN(V12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W12" s="125" t="e" cm="1">
+      <c r="W12" s="307" t="e" cm="1">
         <f t="array" ref="W12">INDEX(Page2!$O$9:$O$38, COLUMN(W12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X12" s="125" t="e" cm="1">
+      <c r="X12" s="307" t="e" cm="1">
         <f t="array" ref="X12">INDEX(Page2!$O$9:$O$38, COLUMN(X12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y12" s="125" t="e" cm="1">
+      <c r="Y12" s="307" t="e" cm="1">
         <f t="array" ref="Y12">INDEX(Page2!$O$9:$O$38, COLUMN(Y12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z12" s="125" t="e" cm="1">
+      <c r="Z12" s="307" t="e" cm="1">
         <f t="array" ref="Z12">INDEX(Page2!$O$9:$O$38, COLUMN(Z12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA12" s="125" t="e" cm="1">
+      <c r="AA12" s="307" t="e" cm="1">
         <f t="array" ref="AA12">INDEX(Page2!$O$9:$O$38, COLUMN(AA12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB12" s="125" t="e" cm="1">
+      <c r="AB12" s="307" t="e" cm="1">
         <f t="array" ref="AB12">INDEX(Page2!$O$9:$O$38, COLUMN(AB12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="125" t="e" cm="1">
+      <c r="AC12" s="307" t="e" cm="1">
         <f t="array" ref="AC12">INDEX(Page2!$O$9:$O$38, COLUMN(AC12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" s="125" t="e" cm="1">
+      <c r="AD12" s="307" t="e" cm="1">
         <f t="array" ref="AD12">INDEX(Page2!$O$9:$O$38, COLUMN(AD12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE12" s="125" t="e" cm="1">
+      <c r="AE12" s="307" t="e" cm="1">
         <f t="array" ref="AE12">INDEX(Page2!$O$9:$O$38, COLUMN(AE12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF12" s="125" t="e" cm="1">
+      <c r="AF12" s="307" t="e" cm="1">
         <f t="array" ref="AF12">INDEX(Page2!$O$9:$O$38, COLUMN(AF12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG12" s="125" t="e" cm="1">
+      <c r="AG12" s="307" t="e" cm="1">
         <f t="array" ref="AG12">INDEX(Page2!$O$9:$O$38, COLUMN(AG12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH12" s="125" t="e" cm="1">
+      <c r="AH12" s="307" t="e" cm="1">
         <f t="array" ref="AH12">INDEX(Page2!$O$9:$O$38, COLUMN(AH12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="125" t="e" cm="1">
+      <c r="AI12" s="307" t="e" cm="1">
         <f t="array" ref="AI12">INDEX(Page2!$O$9:$O$38, COLUMN(AI12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ12" s="125" t="e" cm="1">
+      <c r="AJ12" s="307" t="e" cm="1">
         <f t="array" ref="AJ12">INDEX(Page2!$O$9:$O$38, COLUMN(AJ12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK12" s="125" t="e" cm="1">
+      <c r="AK12" s="307" t="e" cm="1">
         <f t="array" ref="AK12">INDEX(Page2!$O$9:$O$38, COLUMN(AK12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL12" s="125" t="e" cm="1">
+      <c r="AL12" s="307" t="e" cm="1">
         <f t="array" ref="AL12">INDEX(Page2!$O$9:$O$38, COLUMN(AL12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM12" s="125" t="e" cm="1">
+      <c r="AM12" s="307" t="e" cm="1">
         <f t="array" ref="AM12">INDEX(Page2!$O$9:$O$38, COLUMN(AM12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN12" s="125" t="e" cm="1">
+      <c r="AN12" s="307" t="e" cm="1">
         <f t="array" ref="AN12">INDEX(Page2!$O$9:$O$38, COLUMN(AN12)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -18082,123 +18086,123 @@
       <c r="J13" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="125" cm="1">
+      <c r="K13" s="308" cm="1">
         <f t="array" ref="K13">INDEX(Page1!$F$8:$F$37, COLUMN(K13)-10)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="125" cm="1">
+      <c r="L13" s="308" cm="1">
         <f t="array" ref="L13">INDEX(Page1!$F$8:$F$37, COLUMN(L13)-10)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="125" cm="1">
+      <c r="M13" s="308" cm="1">
         <f t="array" ref="M13">INDEX(Page1!$F$8:$F$37, COLUMN(M13)-10)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="125" cm="1">
+      <c r="N13" s="308" cm="1">
         <f t="array" ref="N13">INDEX(Page1!$F$8:$F$37, COLUMN(N13)-10)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="125" cm="1">
+      <c r="O13" s="308" cm="1">
         <f t="array" ref="O13">INDEX(Page1!$F$8:$F$37, COLUMN(O13)-10)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="125" cm="1">
+      <c r="P13" s="308" cm="1">
         <f t="array" ref="P13">INDEX(Page1!$F$8:$F$37, COLUMN(P13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="125" cm="1">
+      <c r="Q13" s="308" cm="1">
         <f t="array" ref="Q13">INDEX(Page1!$F$8:$F$37, COLUMN(Q13)-10)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="125" cm="1">
+      <c r="R13" s="308" cm="1">
         <f t="array" ref="R13">INDEX(Page1!$F$8:$F$37, COLUMN(R13)-10)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="125" cm="1">
+      <c r="S13" s="308" cm="1">
         <f t="array" ref="S13">INDEX(Page1!$F$8:$F$37, COLUMN(S13)-10)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="125" cm="1">
+      <c r="T13" s="308" cm="1">
         <f t="array" ref="T13">INDEX(Page1!$F$8:$F$37, COLUMN(T13)-10)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="125" cm="1">
+      <c r="U13" s="308" cm="1">
         <f t="array" ref="U13">INDEX(Page1!$F$8:$F$37, COLUMN(U13)-10)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="125" cm="1">
+      <c r="V13" s="308" cm="1">
         <f t="array" ref="V13">INDEX(Page1!$F$8:$F$37, COLUMN(V13)-10)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="125" cm="1">
+      <c r="W13" s="308" cm="1">
         <f t="array" ref="W13">INDEX(Page1!$F$8:$F$37, COLUMN(W13)-10)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="125" cm="1">
+      <c r="X13" s="308" cm="1">
         <f t="array" ref="X13">INDEX(Page1!$F$8:$F$37, COLUMN(X13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="125" cm="1">
+      <c r="Y13" s="308" cm="1">
         <f t="array" ref="Y13">INDEX(Page1!$F$8:$F$37, COLUMN(Y13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="125" cm="1">
+      <c r="Z13" s="308" cm="1">
         <f t="array" ref="Z13">INDEX(Page1!$F$8:$F$37, COLUMN(Z13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="125" cm="1">
+      <c r="AA13" s="308" cm="1">
         <f t="array" ref="AA13">INDEX(Page1!$F$8:$F$37, COLUMN(AA13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="125" cm="1">
+      <c r="AB13" s="308" cm="1">
         <f t="array" ref="AB13">INDEX(Page1!$F$8:$F$37, COLUMN(AB13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="125" cm="1">
+      <c r="AC13" s="308" cm="1">
         <f t="array" ref="AC13">INDEX(Page1!$F$8:$F$37, COLUMN(AC13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="125" cm="1">
+      <c r="AD13" s="308" cm="1">
         <f t="array" ref="AD13">INDEX(Page1!$F$8:$F$37, COLUMN(AD13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="125" cm="1">
+      <c r="AE13" s="308" cm="1">
         <f t="array" ref="AE13">INDEX(Page1!$F$8:$F$37, COLUMN(AE13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="125" cm="1">
+      <c r="AF13" s="308" cm="1">
         <f t="array" ref="AF13">INDEX(Page1!$F$8:$F$37, COLUMN(AF13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="125" cm="1">
+      <c r="AG13" s="308" cm="1">
         <f t="array" ref="AG13">INDEX(Page1!$F$8:$F$37, COLUMN(AG13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="125" cm="1">
+      <c r="AH13" s="308" cm="1">
         <f t="array" ref="AH13">INDEX(Page1!$F$8:$F$37, COLUMN(AH13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="125" cm="1">
+      <c r="AI13" s="308" cm="1">
         <f t="array" ref="AI13">INDEX(Page1!$F$8:$F$37, COLUMN(AI13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="125" cm="1">
+      <c r="AJ13" s="308" cm="1">
         <f t="array" ref="AJ13">INDEX(Page1!$F$8:$F$37, COLUMN(AJ13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="125" cm="1">
+      <c r="AK13" s="308" cm="1">
         <f t="array" ref="AK13">INDEX(Page1!$F$8:$F$37, COLUMN(AK13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="125" cm="1">
+      <c r="AL13" s="308" cm="1">
         <f t="array" ref="AL13">INDEX(Page1!$F$8:$F$37, COLUMN(AL13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="125" cm="1">
+      <c r="AM13" s="308" cm="1">
         <f t="array" ref="AM13">INDEX(Page1!$F$8:$F$37, COLUMN(AM13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="125" cm="1">
+      <c r="AN13" s="308" cm="1">
         <f t="array" ref="AN13">INDEX(Page1!$F$8:$F$37, COLUMN(AN13)-10)</f>
         <v>0</v>
       </c>
@@ -18258,123 +18262,123 @@
       <c r="J14" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="K14" s="125" t="e" cm="1">
+      <c r="K14" s="307" t="e" cm="1">
         <f t="array" ref="K14">INDEX(Page3!$O$9:$O$38, COLUMN(K14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="125" t="e" cm="1">
+      <c r="L14" s="307" t="e" cm="1">
         <f t="array" ref="L14">INDEX(Page3!$O$9:$O$38, COLUMN(L14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="125" t="e" cm="1">
+      <c r="M14" s="307" t="e" cm="1">
         <f t="array" ref="M14">INDEX(Page3!$O$9:$O$38, COLUMN(M14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="125" t="e" cm="1">
+      <c r="N14" s="307" t="e" cm="1">
         <f t="array" ref="N14">INDEX(Page3!$O$9:$O$38, COLUMN(N14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O14" s="125" t="e" cm="1">
+      <c r="O14" s="307" t="e" cm="1">
         <f t="array" ref="O14">INDEX(Page3!$O$9:$O$38, COLUMN(O14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P14" s="125" t="e" cm="1">
+      <c r="P14" s="307" t="e" cm="1">
         <f t="array" ref="P14">INDEX(Page3!$O$9:$O$38, COLUMN(P14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="125" t="e" cm="1">
+      <c r="Q14" s="307" t="e" cm="1">
         <f t="array" ref="Q14">INDEX(Page3!$O$9:$O$38, COLUMN(Q14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R14" s="125" t="e" cm="1">
+      <c r="R14" s="307" t="e" cm="1">
         <f t="array" ref="R14">INDEX(Page3!$O$9:$O$38, COLUMN(R14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S14" s="125" t="e" cm="1">
+      <c r="S14" s="307" t="e" cm="1">
         <f t="array" ref="S14">INDEX(Page3!$O$9:$O$38, COLUMN(S14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T14" s="125" t="e" cm="1">
+      <c r="T14" s="307" t="e" cm="1">
         <f t="array" ref="T14">INDEX(Page3!$O$9:$O$38, COLUMN(T14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U14" s="125" t="e" cm="1">
+      <c r="U14" s="307" t="e" cm="1">
         <f t="array" ref="U14">INDEX(Page3!$O$9:$O$38, COLUMN(U14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V14" s="125" t="e" cm="1">
+      <c r="V14" s="307" t="e" cm="1">
         <f t="array" ref="V14">INDEX(Page3!$O$9:$O$38, COLUMN(V14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W14" s="125" t="e" cm="1">
+      <c r="W14" s="307" t="e" cm="1">
         <f t="array" ref="W14">INDEX(Page3!$O$9:$O$38, COLUMN(W14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X14" s="125" t="e" cm="1">
+      <c r="X14" s="307" t="e" cm="1">
         <f t="array" ref="X14">INDEX(Page3!$O$9:$O$38, COLUMN(X14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y14" s="125" t="e" cm="1">
+      <c r="Y14" s="307" t="e" cm="1">
         <f t="array" ref="Y14">INDEX(Page3!$O$9:$O$38, COLUMN(Y14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z14" s="125" t="e" cm="1">
+      <c r="Z14" s="307" t="e" cm="1">
         <f t="array" ref="Z14">INDEX(Page3!$O$9:$O$38, COLUMN(Z14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA14" s="125" t="e" cm="1">
+      <c r="AA14" s="307" t="e" cm="1">
         <f t="array" ref="AA14">INDEX(Page3!$O$9:$O$38, COLUMN(AA14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB14" s="125" t="e" cm="1">
+      <c r="AB14" s="307" t="e" cm="1">
         <f t="array" ref="AB14">INDEX(Page3!$O$9:$O$38, COLUMN(AB14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC14" s="125" t="e" cm="1">
+      <c r="AC14" s="307" t="e" cm="1">
         <f t="array" ref="AC14">INDEX(Page3!$O$9:$O$38, COLUMN(AC14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="125" t="e" cm="1">
+      <c r="AD14" s="307" t="e" cm="1">
         <f t="array" ref="AD14">INDEX(Page3!$O$9:$O$38, COLUMN(AD14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE14" s="125" t="e" cm="1">
+      <c r="AE14" s="307" t="e" cm="1">
         <f t="array" ref="AE14">INDEX(Page3!$O$9:$O$38, COLUMN(AE14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF14" s="125" t="e" cm="1">
+      <c r="AF14" s="307" t="e" cm="1">
         <f t="array" ref="AF14">INDEX(Page3!$O$9:$O$38, COLUMN(AF14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG14" s="125" t="e" cm="1">
+      <c r="AG14" s="307" t="e" cm="1">
         <f t="array" ref="AG14">INDEX(Page3!$O$9:$O$38, COLUMN(AG14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH14" s="125" t="e" cm="1">
+      <c r="AH14" s="307" t="e" cm="1">
         <f t="array" ref="AH14">INDEX(Page3!$O$9:$O$38, COLUMN(AH14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI14" s="125" t="e" cm="1">
+      <c r="AI14" s="307" t="e" cm="1">
         <f t="array" ref="AI14">INDEX(Page3!$O$9:$O$38, COLUMN(AI14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ14" s="125" t="e" cm="1">
+      <c r="AJ14" s="307" t="e" cm="1">
         <f t="array" ref="AJ14">INDEX(Page3!$O$9:$O$38, COLUMN(AJ14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK14" s="125" t="e" cm="1">
+      <c r="AK14" s="307" t="e" cm="1">
         <f t="array" ref="AK14">INDEX(Page3!$O$9:$O$38, COLUMN(AK14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL14" s="125" t="e" cm="1">
+      <c r="AL14" s="307" t="e" cm="1">
         <f t="array" ref="AL14">INDEX(Page3!$O$9:$O$38, COLUMN(AL14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM14" s="125" t="e" cm="1">
+      <c r="AM14" s="307" t="e" cm="1">
         <f t="array" ref="AM14">INDEX(Page3!$O$9:$O$38, COLUMN(AM14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN14" s="125" t="e" cm="1">
+      <c r="AN14" s="307" t="e" cm="1">
         <f t="array" ref="AN14">INDEX(Page3!$O$9:$O$38, COLUMN(AN14)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -18434,123 +18438,123 @@
       <c r="J15" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K15" s="125" cm="1">
+      <c r="K15" s="306" cm="1">
         <f t="array" ref="K15">INDEX(Page1!$J$8:$J$37, COLUMN(K15)-10)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="125" cm="1">
+      <c r="L15" s="306" cm="1">
         <f t="array" ref="L15">INDEX(Page1!$J$8:$J$37, COLUMN(L15)-10)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="125" cm="1">
+      <c r="M15" s="306" cm="1">
         <f t="array" ref="M15">INDEX(Page1!$J$8:$J$37, COLUMN(M15)-10)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="125" cm="1">
+      <c r="N15" s="306" cm="1">
         <f t="array" ref="N15">INDEX(Page1!$J$8:$J$37, COLUMN(N15)-10)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="125" cm="1">
+      <c r="O15" s="306" cm="1">
         <f t="array" ref="O15">INDEX(Page1!$J$8:$J$37, COLUMN(O15)-10)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="125" cm="1">
+      <c r="P15" s="306" cm="1">
         <f t="array" ref="P15">INDEX(Page1!$J$8:$J$37, COLUMN(P15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="125" cm="1">
+      <c r="Q15" s="306" cm="1">
         <f t="array" ref="Q15">INDEX(Page1!$J$8:$J$37, COLUMN(Q15)-10)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="125" cm="1">
+      <c r="R15" s="306" cm="1">
         <f t="array" ref="R15">INDEX(Page1!$J$8:$J$37, COLUMN(R15)-10)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="125" cm="1">
+      <c r="S15" s="306" cm="1">
         <f t="array" ref="S15">INDEX(Page1!$J$8:$J$37, COLUMN(S15)-10)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="125" cm="1">
+      <c r="T15" s="306" cm="1">
         <f t="array" ref="T15">INDEX(Page1!$J$8:$J$37, COLUMN(T15)-10)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="125" cm="1">
+      <c r="U15" s="306" cm="1">
         <f t="array" ref="U15">INDEX(Page1!$J$8:$J$37, COLUMN(U15)-10)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="125" cm="1">
+      <c r="V15" s="306" cm="1">
         <f t="array" ref="V15">INDEX(Page1!$J$8:$J$37, COLUMN(V15)-10)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="125" cm="1">
+      <c r="W15" s="306" cm="1">
         <f t="array" ref="W15">INDEX(Page1!$J$8:$J$37, COLUMN(W15)-10)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="125" cm="1">
+      <c r="X15" s="306" cm="1">
         <f t="array" ref="X15">INDEX(Page1!$J$8:$J$37, COLUMN(X15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="125" cm="1">
+      <c r="Y15" s="306" cm="1">
         <f t="array" ref="Y15">INDEX(Page1!$J$8:$J$37, COLUMN(Y15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="125" cm="1">
+      <c r="Z15" s="306" cm="1">
         <f t="array" ref="Z15">INDEX(Page1!$J$8:$J$37, COLUMN(Z15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="125" cm="1">
+      <c r="AA15" s="306" cm="1">
         <f t="array" ref="AA15">INDEX(Page1!$J$8:$J$37, COLUMN(AA15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="125" cm="1">
+      <c r="AB15" s="306" cm="1">
         <f t="array" ref="AB15">INDEX(Page1!$J$8:$J$37, COLUMN(AB15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="125" cm="1">
+      <c r="AC15" s="306" cm="1">
         <f t="array" ref="AC15">INDEX(Page1!$J$8:$J$37, COLUMN(AC15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="125" cm="1">
+      <c r="AD15" s="306" cm="1">
         <f t="array" ref="AD15">INDEX(Page1!$J$8:$J$37, COLUMN(AD15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="125" cm="1">
+      <c r="AE15" s="306" cm="1">
         <f t="array" ref="AE15">INDEX(Page1!$J$8:$J$37, COLUMN(AE15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="125" cm="1">
+      <c r="AF15" s="306" cm="1">
         <f t="array" ref="AF15">INDEX(Page1!$J$8:$J$37, COLUMN(AF15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="125" cm="1">
+      <c r="AG15" s="306" cm="1">
         <f t="array" ref="AG15">INDEX(Page1!$J$8:$J$37, COLUMN(AG15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="125" cm="1">
+      <c r="AH15" s="306" cm="1">
         <f t="array" ref="AH15">INDEX(Page1!$J$8:$J$37, COLUMN(AH15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="125" cm="1">
+      <c r="AI15" s="306" cm="1">
         <f t="array" ref="AI15">INDEX(Page1!$J$8:$J$37, COLUMN(AI15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="125" cm="1">
+      <c r="AJ15" s="306" cm="1">
         <f t="array" ref="AJ15">INDEX(Page1!$J$8:$J$37, COLUMN(AJ15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="125" cm="1">
+      <c r="AK15" s="306" cm="1">
         <f t="array" ref="AK15">INDEX(Page1!$J$8:$J$37, COLUMN(AK15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="125" cm="1">
+      <c r="AL15" s="306" cm="1">
         <f t="array" ref="AL15">INDEX(Page1!$J$8:$J$37, COLUMN(AL15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="125" cm="1">
+      <c r="AM15" s="306" cm="1">
         <f t="array" ref="AM15">INDEX(Page1!$J$8:$J$37, COLUMN(AM15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="125" cm="1">
+      <c r="AN15" s="306" cm="1">
         <f t="array" ref="AN15">INDEX(Page1!$J$8:$J$37, COLUMN(AN15)-10)</f>
         <v>0</v>
       </c>
@@ -18608,123 +18612,123 @@
       <c r="J16" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="125" cm="1">
+      <c r="K16" s="306" cm="1">
         <f t="array" ref="K16">INDEX(Page1!$O$8:$O$37, COLUMN(K16)-10)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="125" cm="1">
+      <c r="L16" s="306" cm="1">
         <f t="array" ref="L16">INDEX(Page1!$O$8:$O$37, COLUMN(L16)-10)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="125" cm="1">
+      <c r="M16" s="306" cm="1">
         <f t="array" ref="M16">INDEX(Page1!$O$8:$O$37, COLUMN(M16)-10)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="125" cm="1">
+      <c r="N16" s="306" cm="1">
         <f t="array" ref="N16">INDEX(Page1!$O$8:$O$37, COLUMN(N16)-10)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="125" cm="1">
+      <c r="O16" s="306" cm="1">
         <f t="array" ref="O16">INDEX(Page1!$O$8:$O$37, COLUMN(O16)-10)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="125" cm="1">
+      <c r="P16" s="306" cm="1">
         <f t="array" ref="P16">INDEX(Page1!$O$8:$O$37, COLUMN(P16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="125" cm="1">
+      <c r="Q16" s="306" cm="1">
         <f t="array" ref="Q16">INDEX(Page1!$O$8:$O$37, COLUMN(Q16)-10)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="125" cm="1">
+      <c r="R16" s="306" cm="1">
         <f t="array" ref="R16">INDEX(Page1!$O$8:$O$37, COLUMN(R16)-10)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="125" cm="1">
+      <c r="S16" s="306" cm="1">
         <f t="array" ref="S16">INDEX(Page1!$O$8:$O$37, COLUMN(S16)-10)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="125" cm="1">
+      <c r="T16" s="306" cm="1">
         <f t="array" ref="T16">INDEX(Page1!$O$8:$O$37, COLUMN(T16)-10)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="125" cm="1">
+      <c r="U16" s="306" cm="1">
         <f t="array" ref="U16">INDEX(Page1!$O$8:$O$37, COLUMN(U16)-10)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="125" cm="1">
+      <c r="V16" s="306" cm="1">
         <f t="array" ref="V16">INDEX(Page1!$O$8:$O$37, COLUMN(V16)-10)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="125" cm="1">
+      <c r="W16" s="306" cm="1">
         <f t="array" ref="W16">INDEX(Page1!$O$8:$O$37, COLUMN(W16)-10)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="125" cm="1">
+      <c r="X16" s="306" cm="1">
         <f t="array" ref="X16">INDEX(Page1!$O$8:$O$37, COLUMN(X16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="125" cm="1">
+      <c r="Y16" s="306" cm="1">
         <f t="array" ref="Y16">INDEX(Page1!$O$8:$O$37, COLUMN(Y16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="125" cm="1">
+      <c r="Z16" s="306" cm="1">
         <f t="array" ref="Z16">INDEX(Page1!$O$8:$O$37, COLUMN(Z16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="125" cm="1">
+      <c r="AA16" s="306" cm="1">
         <f t="array" ref="AA16">INDEX(Page1!$O$8:$O$37, COLUMN(AA16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="125" cm="1">
+      <c r="AB16" s="306" cm="1">
         <f t="array" ref="AB16">INDEX(Page1!$O$8:$O$37, COLUMN(AB16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="125" cm="1">
+      <c r="AC16" s="306" cm="1">
         <f t="array" ref="AC16">INDEX(Page1!$O$8:$O$37, COLUMN(AC16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="125" cm="1">
+      <c r="AD16" s="306" cm="1">
         <f t="array" ref="AD16">INDEX(Page1!$O$8:$O$37, COLUMN(AD16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="125" cm="1">
+      <c r="AE16" s="306" cm="1">
         <f t="array" ref="AE16">INDEX(Page1!$O$8:$O$37, COLUMN(AE16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="125" cm="1">
+      <c r="AF16" s="306" cm="1">
         <f t="array" ref="AF16">INDEX(Page1!$O$8:$O$37, COLUMN(AF16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="125" cm="1">
+      <c r="AG16" s="306" cm="1">
         <f t="array" ref="AG16">INDEX(Page1!$O$8:$O$37, COLUMN(AG16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="125" cm="1">
+      <c r="AH16" s="306" cm="1">
         <f t="array" ref="AH16">INDEX(Page1!$O$8:$O$37, COLUMN(AH16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="125" cm="1">
+      <c r="AI16" s="306" cm="1">
         <f t="array" ref="AI16">INDEX(Page1!$O$8:$O$37, COLUMN(AI16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="125" cm="1">
+      <c r="AJ16" s="306" cm="1">
         <f t="array" ref="AJ16">INDEX(Page1!$O$8:$O$37, COLUMN(AJ16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="125" cm="1">
+      <c r="AK16" s="306" cm="1">
         <f t="array" ref="AK16">INDEX(Page1!$O$8:$O$37, COLUMN(AK16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="125" cm="1">
+      <c r="AL16" s="306" cm="1">
         <f t="array" ref="AL16">INDEX(Page1!$O$8:$O$37, COLUMN(AL16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="125" cm="1">
+      <c r="AM16" s="306" cm="1">
         <f t="array" ref="AM16">INDEX(Page1!$O$8:$O$37, COLUMN(AM16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="125" cm="1">
+      <c r="AN16" s="306" cm="1">
         <f t="array" ref="AN16">INDEX(Page1!$O$8:$O$37, COLUMN(AN16)-10)</f>
         <v>0</v>
       </c>

--- a/backend/templates/168-16cp-kranti.xlsx
+++ b/backend/templates/168-16cp-kranti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24E9687-93EB-41BA-ABBE-482FB84F4691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878BAC61-D6D0-4DE1-AC1C-16BB0CF947C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="154">
   <si>
     <t>Sample No.</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>Page No 3 of 4</t>
-  </si>
-  <si>
-    <t>Testing Equipment Identification number</t>
   </si>
   <si>
     <t xml:space="preserve">Gloss (Gloss unit)
@@ -1849,6 +1846,92 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1869,33 +1952,117 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1921,163 +2088,128 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2134,10 +2266,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2154,235 +2282,181 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2394,93 +2468,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2912,8 +2909,8 @@
         <c:axId val="202516736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
-          <c:min val="16"/>
+          <c:max val="18"/>
+          <c:min val="14"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2925,6 +2922,7 @@
         <c:crossAx val="202515200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3230,7 +3228,7 @@
         <c:axId val="203190656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="55"/>
           <c:min val="45"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3243,7 +3241,7 @@
         <c:crossAx val="203180672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.5"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7990,8 +7988,8 @@
   </sheetPr>
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8003,161 +8001,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="164" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="164"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="165" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="165"/>
+      <c r="O2" s="187"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="145"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
       <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="155" t="s">
+      <c r="B4" s="177"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="155"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="148"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="170"/>
       <c r="J4" s="29" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="113"/>
-      <c r="L4" s="162" t="s">
+      <c r="L4" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="163"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="153"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="175"/>
     </row>
     <row r="5" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="157" t="s">
+      <c r="B5" s="179"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="157"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="151"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="173"/>
       <c r="J5" s="60" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="114"/>
-      <c r="L5" s="160" t="s">
+      <c r="L5" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="161"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="159"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="181"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="174"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="157"/>
     </row>
     <row r="7" spans="1:15" s="62" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A7" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="138" t="s">
+      <c r="A7" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="191"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138" t="s">
+      <c r="E7" s="191"/>
+      <c r="F7" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="138"/>
-      <c r="H7" s="139" t="s">
+      <c r="G7" s="191"/>
+      <c r="H7" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="141"/>
-      <c r="J7" s="139" t="s">
+      <c r="I7" s="194"/>
+      <c r="J7" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="141"/>
-      <c r="L7" s="138" t="s">
+      <c r="K7" s="194"/>
+      <c r="L7" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="138"/>
+      <c r="M7" s="191"/>
       <c r="N7" s="119" t="s">
         <v>30</v>
       </c>
@@ -8169,16 +8167,16 @@
       <c r="A8" s="55"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
       <c r="N8" s="110"/>
       <c r="O8" s="49"/>
     </row>
@@ -8186,16 +8184,16 @@
       <c r="A9" s="55"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
       <c r="N9" s="108"/>
       <c r="O9" s="50"/>
     </row>
@@ -8203,16 +8201,16 @@
       <c r="A10" s="55"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
       <c r="N10" s="108"/>
       <c r="O10" s="50"/>
     </row>
@@ -8220,16 +8218,16 @@
       <c r="A11" s="55"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
       <c r="N11" s="110"/>
       <c r="O11" s="49"/>
     </row>
@@ -8237,16 +8235,16 @@
       <c r="A12" s="55"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
       <c r="N12" s="108"/>
       <c r="O12" s="50"/>
     </row>
@@ -8254,16 +8252,16 @@
       <c r="A13" s="55"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
       <c r="N13" s="108"/>
       <c r="O13" s="50"/>
     </row>
@@ -8271,16 +8269,16 @@
       <c r="A14" s="55"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
       <c r="N14" s="108"/>
       <c r="O14" s="50"/>
     </row>
@@ -8288,16 +8286,16 @@
       <c r="A15" s="55"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="133"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
       <c r="N15" s="108"/>
       <c r="O15" s="50"/>
     </row>
@@ -8305,16 +8303,16 @@
       <c r="A16" s="55"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="133"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
       <c r="N16" s="108"/>
       <c r="O16" s="50"/>
     </row>
@@ -8322,16 +8320,16 @@
       <c r="A17" s="55"/>
       <c r="B17" s="57"/>
       <c r="C17" s="56"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
       <c r="N17" s="108"/>
       <c r="O17" s="50"/>
     </row>
@@ -8339,16 +8337,16 @@
       <c r="A18" s="55"/>
       <c r="B18" s="57"/>
       <c r="C18" s="56"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="150"/>
+      <c r="M18" s="150"/>
       <c r="N18" s="108"/>
       <c r="O18" s="50"/>
     </row>
@@ -8356,16 +8354,16 @@
       <c r="A19" s="55"/>
       <c r="B19" s="57"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
       <c r="N19" s="108"/>
       <c r="O19" s="50"/>
     </row>
@@ -8373,16 +8371,16 @@
       <c r="A20" s="55"/>
       <c r="B20" s="57"/>
       <c r="C20" s="56"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="150"/>
+      <c r="M20" s="150"/>
       <c r="N20" s="108"/>
       <c r="O20" s="50"/>
     </row>
@@ -8390,16 +8388,16 @@
       <c r="A21" s="55"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
       <c r="N21" s="110"/>
       <c r="O21" s="49"/>
     </row>
@@ -8407,16 +8405,16 @@
       <c r="A22" s="55"/>
       <c r="B22" s="57"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150"/>
       <c r="N22" s="108"/>
       <c r="O22" s="50"/>
     </row>
@@ -8424,16 +8422,16 @@
       <c r="A23" s="55"/>
       <c r="B23" s="57"/>
       <c r="C23" s="56"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="133"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
       <c r="N23" s="108"/>
       <c r="O23" s="50"/>
     </row>
@@ -8441,16 +8439,16 @@
       <c r="A24" s="55"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="128"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
       <c r="N24" s="110"/>
       <c r="O24" s="49"/>
     </row>
@@ -8458,16 +8456,16 @@
       <c r="A25" s="55"/>
       <c r="B25" s="57"/>
       <c r="C25" s="56"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="133"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
       <c r="N25" s="108"/>
       <c r="O25" s="50"/>
     </row>
@@ -8475,16 +8473,16 @@
       <c r="A26" s="55"/>
       <c r="B26" s="57"/>
       <c r="C26" s="56"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="133"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
       <c r="N26" s="108"/>
       <c r="O26" s="50"/>
     </row>
@@ -8492,16 +8490,16 @@
       <c r="A27" s="55"/>
       <c r="B27" s="57"/>
       <c r="C27" s="56"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
       <c r="N27" s="108"/>
       <c r="O27" s="50"/>
     </row>
@@ -8509,16 +8507,16 @@
       <c r="A28" s="55"/>
       <c r="B28" s="57"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
       <c r="N28" s="108"/>
       <c r="O28" s="50"/>
     </row>
@@ -8526,16 +8524,16 @@
       <c r="A29" s="55"/>
       <c r="B29" s="57"/>
       <c r="C29" s="56"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
       <c r="N29" s="108"/>
       <c r="O29" s="50"/>
     </row>
@@ -8543,16 +8541,16 @@
       <c r="A30" s="55"/>
       <c r="B30" s="57"/>
       <c r="C30" s="56"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="133"/>
-      <c r="M30" s="133"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
       <c r="N30" s="108"/>
       <c r="O30" s="50"/>
     </row>
@@ -8560,16 +8558,16 @@
       <c r="A31" s="55"/>
       <c r="B31" s="57"/>
       <c r="C31" s="56"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="133"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
       <c r="N31" s="108"/>
       <c r="O31" s="50"/>
     </row>
@@ -8577,16 +8575,16 @@
       <c r="A32" s="55"/>
       <c r="B32" s="57"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="133"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
       <c r="N32" s="108"/>
       <c r="O32" s="50"/>
     </row>
@@ -8594,16 +8592,16 @@
       <c r="A33" s="55"/>
       <c r="B33" s="57"/>
       <c r="C33" s="56"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
       <c r="N33" s="108"/>
       <c r="O33" s="50"/>
     </row>
@@ -8611,16 +8609,16 @@
       <c r="A34" s="55"/>
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="127"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="128"/>
-      <c r="M34" s="128"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
       <c r="N34" s="110"/>
       <c r="O34" s="49"/>
     </row>
@@ -8628,16 +8626,16 @@
       <c r="A35" s="55"/>
       <c r="B35" s="57"/>
       <c r="C35" s="56"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="129"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="133"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
       <c r="N35" s="108"/>
       <c r="O35" s="50"/>
     </row>
@@ -8645,16 +8643,16 @@
       <c r="A36" s="55"/>
       <c r="B36" s="57"/>
       <c r="C36" s="56"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="129"/>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="146"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="108"/>
       <c r="O36" s="50"/>
     </row>
@@ -8662,50 +8660,50 @@
       <c r="A37" s="55"/>
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
       <c r="N37" s="110"/>
       <c r="O37" s="49"/>
     </row>
     <row r="38" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="181" t="s">
+      <c r="A38" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="182"/>
-      <c r="C38" s="182"/>
-      <c r="D38" s="175" t="e">
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="128" t="e">
         <f>AVERAGE(D8:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="175"/>
-      <c r="F38" s="187" t="e">
+      <c r="E38" s="128"/>
+      <c r="F38" s="140" t="e">
         <f t="shared" ref="F38" si="0">AVERAGE(F8:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="187"/>
-      <c r="H38" s="190" t="e">
+      <c r="G38" s="140"/>
+      <c r="H38" s="143" t="e">
         <f t="shared" ref="H38" si="1">AVERAGE(H8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="190"/>
-      <c r="J38" s="175" t="e">
+      <c r="I38" s="143"/>
+      <c r="J38" s="128" t="e">
         <f t="shared" ref="J38" si="2">AVERAGE(J8:K37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="175"/>
-      <c r="L38" s="178" t="e">
+      <c r="K38" s="128"/>
+      <c r="L38" s="131" t="e">
         <f t="shared" ref="L38" si="3">AVERAGE(L8:M37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="178"/>
+      <c r="M38" s="131"/>
       <c r="N38" s="105" t="e">
         <f>AVERAGE(N8:N37)</f>
         <v>#DIV/0!</v>
@@ -8716,36 +8714,36 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="183" t="s">
+      <c r="A39" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="176">
+      <c r="B39" s="137"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="129">
         <f>MIN(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="176"/>
-      <c r="F39" s="188">
+      <c r="E39" s="129"/>
+      <c r="F39" s="141">
         <f t="shared" ref="F39" si="4">MIN(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="188"/>
-      <c r="H39" s="191">
+      <c r="G39" s="141"/>
+      <c r="H39" s="144">
         <f t="shared" ref="H39" si="5">MIN(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="191"/>
-      <c r="J39" s="176">
+      <c r="I39" s="144"/>
+      <c r="J39" s="129">
         <f t="shared" ref="J39" si="6">MIN(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="176"/>
-      <c r="L39" s="179">
+      <c r="K39" s="129"/>
+      <c r="L39" s="132">
         <f t="shared" ref="L39" si="7">MIN(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="179"/>
+      <c r="M39" s="132"/>
       <c r="N39" s="106">
         <f>MIN(N8:N37)</f>
         <v>0</v>
@@ -8756,36 +8754,36 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="185" t="s">
+      <c r="A40" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="186"/>
-      <c r="C40" s="186"/>
-      <c r="D40" s="177">
+      <c r="B40" s="139"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="130">
         <f>MAX(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="177"/>
-      <c r="F40" s="189">
+      <c r="E40" s="130"/>
+      <c r="F40" s="142">
         <f t="shared" ref="F40" si="8">MAX(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="189"/>
-      <c r="H40" s="192">
+      <c r="G40" s="142"/>
+      <c r="H40" s="145">
         <f t="shared" ref="H40" si="9">MAX(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="192"/>
-      <c r="J40" s="177">
+      <c r="I40" s="145"/>
+      <c r="J40" s="130">
         <f t="shared" ref="J40" si="10">MAX(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="177"/>
-      <c r="L40" s="180">
+      <c r="K40" s="130"/>
+      <c r="L40" s="133">
         <f t="shared" ref="L40" si="11">MAX(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="180"/>
+      <c r="M40" s="133"/>
       <c r="N40" s="107">
         <f>MAX(N8:N37)</f>
         <v>0</v>
@@ -8799,31 +8797,31 @@
       <c r="A41" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="172" t="s">
+      <c r="B41" s="161"/>
+      <c r="C41" s="161"/>
+      <c r="D41" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="172"/>
+      <c r="E41" s="164"/>
       <c r="F41" s="51"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
-      <c r="K41" s="166" t="s">
+      <c r="K41" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="166"/>
-      <c r="M41" s="168"/>
-      <c r="N41" s="168"/>
+      <c r="L41" s="158"/>
+      <c r="M41" s="160"/>
+      <c r="N41" s="160"/>
       <c r="O41" s="70" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="70"/>
-      <c r="B42" s="173"/>
-      <c r="C42" s="173"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="70"/>
@@ -8833,15 +8831,15 @@
       <c r="J42" s="52"/>
       <c r="K42" s="111"/>
       <c r="L42" s="111"/>
-      <c r="M42" s="168"/>
-      <c r="N42" s="168"/>
+      <c r="M42" s="160"/>
+      <c r="N42" s="160"/>
       <c r="O42" s="111"/>
     </row>
     <row r="43" spans="1:15" s="38" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="170" t="s">
+      <c r="A43" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="170"/>
+      <c r="B43" s="162"/>
       <c r="C43" s="70"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -8849,22 +8847,22 @@
       <c r="G43" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="170" t="s">
+      <c r="H43" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="170"/>
-      <c r="J43" s="170"/>
-      <c r="K43" s="170"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="162"/>
+      <c r="K43" s="162"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="171" t="s">
+      <c r="A44" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="171"/>
+      <c r="B44" s="163"/>
       <c r="C44" s="112"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -8907,107 +8905,183 @@
       <c r="M52" s="54"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="167"/>
-      <c r="D76" s="167"/>
-      <c r="E76" s="167"/>
-      <c r="I76" s="167"/>
-      <c r="J76" s="167"/>
-      <c r="K76" s="167"/>
-      <c r="L76" s="167"/>
-      <c r="M76" s="167"/>
-      <c r="N76" s="167"/>
-      <c r="O76" s="167"/>
+      <c r="C76" s="159"/>
+      <c r="D76" s="159"/>
+      <c r="E76" s="159"/>
+      <c r="I76" s="159"/>
+      <c r="J76" s="159"/>
+      <c r="K76" s="159"/>
+      <c r="L76" s="159"/>
+      <c r="M76" s="159"/>
+      <c r="N76" s="159"/>
+      <c r="O76" s="159"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="167"/>
-      <c r="D77" s="167"/>
-      <c r="E77" s="167"/>
-      <c r="F77" s="167"/>
-      <c r="I77" s="167"/>
-      <c r="J77" s="167"/>
-      <c r="K77" s="167"/>
-      <c r="L77" s="167"/>
-      <c r="M77" s="167"/>
-      <c r="N77" s="167"/>
-      <c r="O77" s="167"/>
+      <c r="C77" s="159"/>
+      <c r="D77" s="159"/>
+      <c r="E77" s="159"/>
+      <c r="F77" s="159"/>
+      <c r="I77" s="159"/>
+      <c r="J77" s="159"/>
+      <c r="K77" s="159"/>
+      <c r="L77" s="159"/>
+      <c r="M77" s="159"/>
+      <c r="N77" s="159"/>
+      <c r="O77" s="159"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="167"/>
-      <c r="D78" s="167"/>
-      <c r="E78" s="167"/>
-      <c r="I78" s="167"/>
-      <c r="J78" s="167"/>
-      <c r="K78" s="167"/>
-      <c r="L78" s="167"/>
-      <c r="M78" s="167"/>
-      <c r="N78" s="167"/>
-      <c r="O78" s="167"/>
+      <c r="C78" s="159"/>
+      <c r="D78" s="159"/>
+      <c r="E78" s="159"/>
+      <c r="I78" s="159"/>
+      <c r="J78" s="159"/>
+      <c r="K78" s="159"/>
+      <c r="L78" s="159"/>
+      <c r="M78" s="159"/>
+      <c r="N78" s="159"/>
+      <c r="O78" s="159"/>
     </row>
     <row r="79" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C79" s="167"/>
-      <c r="D79" s="167"/>
-      <c r="E79" s="167"/>
+      <c r="C79" s="159"/>
+      <c r="D79" s="159"/>
+      <c r="E79" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="M42:N42"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="L36:M36"/>
@@ -9032,140 +9106,64 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D8:E40">
@@ -9245,61 +9243,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="236" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="164" t="s">
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="164"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="165" t="s">
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="165"/>
+      <c r="O2" s="187"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="201"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
+      <c r="A3" s="237"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -9309,124 +9307,124 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="202">
+      <c r="B4" s="238">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="162" t="s">
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="163"/>
-      <c r="G4" s="202">
+      <c r="F4" s="185"/>
+      <c r="G4" s="238">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="204"/>
+      <c r="H4" s="240"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="205">
+      <c r="J4" s="241">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="205"/>
-      <c r="L4" s="155" t="s">
+      <c r="K4" s="241"/>
+      <c r="L4" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="155"/>
-      <c r="N4" s="202">
+      <c r="M4" s="177"/>
+      <c r="N4" s="238">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="206"/>
+      <c r="O4" s="242"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="136">
+      <c r="B5" s="156">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="241" t="s">
+      <c r="C5" s="205"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="242"/>
-      <c r="G5" s="136">
+      <c r="F5" s="207"/>
+      <c r="G5" s="156">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="193"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="135">
+      <c r="J5" s="189">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="239" t="s">
+      <c r="K5" s="189"/>
+      <c r="L5" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="136">
+      <c r="M5" s="204"/>
+      <c r="N5" s="156">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="174"/>
+      <c r="O5" s="157"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="237"/>
-      <c r="J6" s="237"/>
-      <c r="K6" s="237"/>
-      <c r="L6" s="237"/>
-      <c r="M6" s="237"/>
-      <c r="N6" s="237"/>
-      <c r="O6" s="238"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="202"/>
+      <c r="N6" s="202"/>
+      <c r="O6" s="203"/>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="207" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="208"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="232" t="s">
+      <c r="A7" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="211"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="232"/>
-      <c r="H7" s="233" t="s">
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="234"/>
-      <c r="J7" s="234"/>
-      <c r="K7" s="235"/>
-      <c r="L7" s="233" t="s">
+      <c r="I7" s="199"/>
+      <c r="J7" s="199"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="234"/>
-      <c r="N7" s="234"/>
-      <c r="O7" s="243"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
+      <c r="O7" s="208"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="210"/>
-      <c r="B8" s="211"/>
-      <c r="C8" s="212"/>
+      <c r="A8" s="245"/>
+      <c r="B8" s="246"/>
+      <c r="C8" s="247"/>
       <c r="D8" s="10">
         <v>1</v>
       </c>
@@ -10520,27 +10518,27 @@
       <c r="C39" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="193" t="e">
+      <c r="D39" s="229" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="194"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="195"/>
-      <c r="H39" s="196" t="e">
+      <c r="E39" s="230"/>
+      <c r="F39" s="230"/>
+      <c r="G39" s="231"/>
+      <c r="H39" s="232" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="197"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="198"/>
-      <c r="L39" s="196" t="e">
+      <c r="I39" s="233"/>
+      <c r="J39" s="233"/>
+      <c r="K39" s="234"/>
+      <c r="L39" s="232" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="197"/>
-      <c r="N39" s="197"/>
-      <c r="O39" s="199"/>
+      <c r="M39" s="233"/>
+      <c r="N39" s="233"/>
+      <c r="O39" s="235"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="16"/>
@@ -10548,27 +10546,27 @@
       <c r="C40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="215" t="e">
+      <c r="D40" s="212" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="216"/>
-      <c r="F40" s="216"/>
-      <c r="G40" s="217"/>
-      <c r="H40" s="218" t="e">
+      <c r="E40" s="213"/>
+      <c r="F40" s="213"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="215" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="219"/>
-      <c r="J40" s="219"/>
-      <c r="K40" s="220"/>
-      <c r="L40" s="218" t="e">
+      <c r="I40" s="216"/>
+      <c r="J40" s="216"/>
+      <c r="K40" s="217"/>
+      <c r="L40" s="215" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="219"/>
-      <c r="N40" s="219"/>
-      <c r="O40" s="221"/>
+      <c r="M40" s="216"/>
+      <c r="N40" s="216"/>
+      <c r="O40" s="218"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -10576,57 +10574,57 @@
       <c r="C41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="222" t="e">
+      <c r="D41" s="219" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="223"/>
-      <c r="F41" s="223"/>
-      <c r="G41" s="224"/>
-      <c r="H41" s="225" t="e">
+      <c r="E41" s="220"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="222" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="226"/>
-      <c r="J41" s="226"/>
-      <c r="K41" s="227"/>
-      <c r="L41" s="225" t="e">
+      <c r="I41" s="223"/>
+      <c r="J41" s="223"/>
+      <c r="K41" s="224"/>
+      <c r="L41" s="222" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="226"/>
-      <c r="N41" s="226"/>
-      <c r="O41" s="228"/>
+      <c r="M41" s="223"/>
+      <c r="N41" s="223"/>
+      <c r="O41" s="225"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="229"/>
-      <c r="C42" s="229"/>
-      <c r="D42" s="230" t="s">
+      <c r="B42" s="226"/>
+      <c r="C42" s="226"/>
+      <c r="D42" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="230"/>
-      <c r="F42" s="230"/>
-      <c r="G42" s="230"/>
+      <c r="E42" s="227"/>
+      <c r="F42" s="227"/>
+      <c r="G42" s="227"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="214" t="s">
+      <c r="K42" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="214"/>
-      <c r="M42" s="229"/>
-      <c r="N42" s="229"/>
+      <c r="L42" s="210"/>
+      <c r="M42" s="226"/>
+      <c r="N42" s="226"/>
       <c r="O42" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="173"/>
-      <c r="C43" s="173"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -10636,15 +10634,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="111"/>
       <c r="L43" s="111"/>
-      <c r="M43" s="231"/>
-      <c r="N43" s="231"/>
+      <c r="M43" s="228"/>
+      <c r="N43" s="228"/>
       <c r="O43" s="111"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="213" t="s">
+      <c r="A44" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="213"/>
+      <c r="B44" s="209"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -10653,23 +10651,23 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="170" t="str">
+      <c r="H44" s="162" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="170"/>
-      <c r="J44" s="170"/>
-      <c r="K44" s="170"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="162"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A45" s="213" t="s">
+      <c r="A45" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="213"/>
+      <c r="B45" s="209"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -10681,22 +10679,29 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="208" t="s">
+      <c r="N45" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="208"/>
+      <c r="O45" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A7:C8"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="N45:O45"/>
@@ -10713,22 +10718,15 @@
     <mergeCell ref="M42:N42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="M43:N43"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
@@ -10776,61 +10774,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="164" t="s">
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
+      <c r="N1" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="164"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="165" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="165"/>
+      <c r="O2" s="187"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="145"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -10840,124 +10838,124 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="202">
+      <c r="B4" s="238">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="162" t="s">
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="163"/>
-      <c r="G4" s="202">
+      <c r="F4" s="185"/>
+      <c r="G4" s="238">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="204"/>
+      <c r="H4" s="240"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="205">
+      <c r="J4" s="241">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="205"/>
-      <c r="L4" s="155" t="s">
+      <c r="K4" s="241"/>
+      <c r="L4" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="155"/>
-      <c r="N4" s="202">
+      <c r="M4" s="177"/>
+      <c r="N4" s="238">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="206"/>
+      <c r="O4" s="242"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="136">
+      <c r="B5" s="156">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="241" t="s">
+      <c r="C5" s="205"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="242"/>
-      <c r="G5" s="136">
+      <c r="F5" s="207"/>
+      <c r="G5" s="156">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="193"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="135">
+      <c r="J5" s="189">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="239" t="s">
+      <c r="K5" s="189"/>
+      <c r="L5" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="136">
+      <c r="M5" s="204"/>
+      <c r="N5" s="156">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="174"/>
+      <c r="O5" s="157"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="245"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="266"/>
     </row>
     <row r="7" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="246" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="252" t="s">
+      <c r="A7" s="267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="268"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="252"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="252"/>
-      <c r="H7" s="253" t="s">
+      <c r="E7" s="273"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="273"/>
+      <c r="H7" s="274" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="254"/>
-      <c r="J7" s="254"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="253" t="s">
+      <c r="I7" s="275"/>
+      <c r="J7" s="275"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="254"/>
-      <c r="N7" s="254"/>
-      <c r="O7" s="256"/>
+      <c r="M7" s="275"/>
+      <c r="N7" s="275"/>
+      <c r="O7" s="277"/>
     </row>
     <row r="8" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="249"/>
-      <c r="B8" s="250"/>
-      <c r="C8" s="251"/>
+      <c r="A8" s="270"/>
+      <c r="B8" s="271"/>
+      <c r="C8" s="272"/>
       <c r="D8" s="116">
         <v>1</v>
       </c>
@@ -12051,27 +12049,27 @@
       <c r="C39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="264" t="e">
+      <c r="D39" s="251" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="265"/>
-      <c r="F39" s="265"/>
-      <c r="G39" s="266"/>
-      <c r="H39" s="267" t="e">
+      <c r="E39" s="252"/>
+      <c r="F39" s="252"/>
+      <c r="G39" s="253"/>
+      <c r="H39" s="254" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="268"/>
-      <c r="J39" s="268"/>
-      <c r="K39" s="269"/>
-      <c r="L39" s="267" t="e">
+      <c r="I39" s="255"/>
+      <c r="J39" s="255"/>
+      <c r="K39" s="256"/>
+      <c r="L39" s="254" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="268"/>
-      <c r="N39" s="268"/>
-      <c r="O39" s="270"/>
+      <c r="M39" s="255"/>
+      <c r="N39" s="255"/>
+      <c r="O39" s="257"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="39"/>
@@ -12079,27 +12077,27 @@
       <c r="C40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="271" t="e">
+      <c r="D40" s="258" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="272"/>
-      <c r="F40" s="272"/>
-      <c r="G40" s="273"/>
-      <c r="H40" s="274" t="e">
+      <c r="E40" s="259"/>
+      <c r="F40" s="259"/>
+      <c r="G40" s="260"/>
+      <c r="H40" s="261" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="275"/>
-      <c r="J40" s="275"/>
-      <c r="K40" s="276"/>
-      <c r="L40" s="274" t="e">
+      <c r="I40" s="262"/>
+      <c r="J40" s="262"/>
+      <c r="K40" s="263"/>
+      <c r="L40" s="261" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="275"/>
-      <c r="N40" s="275"/>
-      <c r="O40" s="277"/>
+      <c r="M40" s="262"/>
+      <c r="N40" s="262"/>
+      <c r="O40" s="264"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="41"/>
@@ -12107,57 +12105,57 @@
       <c r="C41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="257" t="e">
+      <c r="D41" s="278" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="258"/>
-      <c r="F41" s="258"/>
-      <c r="G41" s="259"/>
-      <c r="H41" s="260" t="e">
+      <c r="E41" s="279"/>
+      <c r="F41" s="279"/>
+      <c r="G41" s="280"/>
+      <c r="H41" s="248" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="261"/>
-      <c r="J41" s="261"/>
-      <c r="K41" s="262"/>
-      <c r="L41" s="260" t="e">
+      <c r="I41" s="249"/>
+      <c r="J41" s="249"/>
+      <c r="K41" s="281"/>
+      <c r="L41" s="248" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="261"/>
-      <c r="N41" s="261"/>
-      <c r="O41" s="263"/>
+      <c r="M41" s="249"/>
+      <c r="N41" s="249"/>
+      <c r="O41" s="250"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="229"/>
-      <c r="C42" s="229"/>
-      <c r="D42" s="230" t="s">
+      <c r="B42" s="226"/>
+      <c r="C42" s="226"/>
+      <c r="D42" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="230"/>
-      <c r="F42" s="230"/>
-      <c r="G42" s="230"/>
+      <c r="E42" s="227"/>
+      <c r="F42" s="227"/>
+      <c r="G42" s="227"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="214" t="s">
+      <c r="K42" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="214"/>
-      <c r="M42" s="229"/>
-      <c r="N42" s="229"/>
+      <c r="L42" s="210"/>
+      <c r="M42" s="226"/>
+      <c r="N42" s="226"/>
       <c r="O42" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="173"/>
-      <c r="C43" s="173"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -12167,15 +12165,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="111"/>
       <c r="L43" s="111"/>
-      <c r="M43" s="231"/>
-      <c r="N43" s="231"/>
+      <c r="M43" s="228"/>
+      <c r="N43" s="228"/>
       <c r="O43" s="111"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="213" t="s">
+      <c r="A44" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="213"/>
+      <c r="B44" s="209"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -12184,12 +12182,12 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="170" t="str">
+      <c r="H44" s="162" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="170"/>
-      <c r="J44" s="170"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
@@ -12197,10 +12195,10 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="213" t="s">
+      <c r="A45" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="213"/>
+      <c r="B45" s="209"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -12212,25 +12210,26 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="208" t="s">
+      <c r="N45" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="O45" s="208"/>
+      <c r="O45" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="N45:O45"/>
@@ -12247,19 +12246,18 @@
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="M42:N42"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
@@ -12296,7 +12294,7 @@
   <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="J6" sqref="J6:O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12307,61 +12305,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="164" t="s">
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
+      <c r="N1" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="164"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="165" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="165"/>
+      <c r="O2" s="187"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="145"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -12371,122 +12369,122 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="202">
+      <c r="B4" s="238">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="162" t="s">
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="163"/>
-      <c r="G4" s="202">
+      <c r="F4" s="185"/>
+      <c r="G4" s="238">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="204"/>
+      <c r="H4" s="240"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="205">
+      <c r="J4" s="241">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="205"/>
-      <c r="L4" s="155" t="s">
+      <c r="K4" s="241"/>
+      <c r="L4" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="155"/>
-      <c r="N4" s="278">
+      <c r="M4" s="177"/>
+      <c r="N4" s="306">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="279"/>
+      <c r="O4" s="307"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="136">
+      <c r="B5" s="156">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="241" t="s">
+      <c r="C5" s="205"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="242"/>
-      <c r="G5" s="136">
+      <c r="F5" s="207"/>
+      <c r="G5" s="156">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="193"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="135">
+      <c r="J5" s="189">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="239" t="s">
+      <c r="K5" s="189"/>
+      <c r="L5" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="280">
+      <c r="M5" s="204"/>
+      <c r="N5" s="308">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="174"/>
+      <c r="O5" s="157"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="281" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="282"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="283"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="284"/>
+      <c r="A6" s="302" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="303"/>
+      <c r="C6" s="303"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="299"/>
       <c r="H6" s="298"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="288"/>
+      <c r="I6" s="299"/>
+      <c r="J6" s="289"/>
       <c r="K6" s="296"/>
       <c r="L6" s="296"/>
       <c r="M6" s="296"/>
       <c r="N6" s="296"/>
-      <c r="O6" s="289"/>
+      <c r="O6" s="290"/>
     </row>
     <row r="7" spans="1:15" s="38" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="205"/>
-      <c r="C7" s="205"/>
-      <c r="D7" s="203" t="s">
+      <c r="A7" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="241"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="239" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="289" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="203"/>
-      <c r="H7" s="288" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="289"/>
-      <c r="J7" s="207"/>
-      <c r="K7" s="208"/>
-      <c r="L7" s="208"/>
-      <c r="M7" s="208"/>
-      <c r="N7" s="208"/>
+      <c r="I7" s="290"/>
+      <c r="J7" s="243"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
       <c r="O7" s="297"/>
     </row>
     <row r="8" spans="1:15" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="134"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
       <c r="D8" s="121">
         <v>1</v>
       </c>
@@ -12499,13 +12497,13 @@
       <c r="G8" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="210"/>
-      <c r="I8" s="290"/>
-      <c r="J8" s="207"/>
-      <c r="K8" s="208"/>
-      <c r="L8" s="208"/>
-      <c r="M8" s="208"/>
-      <c r="N8" s="208"/>
+      <c r="H8" s="245"/>
+      <c r="I8" s="291"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="211"/>
       <c r="O8" s="297"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
@@ -12528,15 +12526,15 @@
         <f t="shared" ref="G9:G38" si="0">AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="291">
-        <v>0</v>
-      </c>
-      <c r="I9" s="292"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="208"/>
-      <c r="M9" s="208"/>
-      <c r="N9" s="208"/>
+      <c r="H9" s="292">
+        <v>0</v>
+      </c>
+      <c r="I9" s="293"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="211"/>
       <c r="O9" s="297"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
@@ -12559,15 +12557,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="285">
-        <v>0</v>
-      </c>
-      <c r="I10" s="286"/>
-      <c r="J10" s="207"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="208"/>
-      <c r="N10" s="208"/>
+      <c r="H10" s="287">
+        <v>0</v>
+      </c>
+      <c r="I10" s="288"/>
+      <c r="J10" s="243"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
       <c r="O10" s="297"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
@@ -12590,15 +12588,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="285">
-        <v>0</v>
-      </c>
-      <c r="I11" s="286"/>
-      <c r="J11" s="207"/>
-      <c r="K11" s="208"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="208"/>
-      <c r="N11" s="208"/>
+      <c r="H11" s="287">
+        <v>0</v>
+      </c>
+      <c r="I11" s="288"/>
+      <c r="J11" s="243"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="211"/>
+      <c r="N11" s="211"/>
       <c r="O11" s="297"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
@@ -12621,15 +12619,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="285">
-        <v>0</v>
-      </c>
-      <c r="I12" s="286"/>
-      <c r="J12" s="207"/>
-      <c r="K12" s="208"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="208"/>
-      <c r="N12" s="208"/>
+      <c r="H12" s="287">
+        <v>0</v>
+      </c>
+      <c r="I12" s="288"/>
+      <c r="J12" s="243"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="211"/>
+      <c r="N12" s="211"/>
       <c r="O12" s="297"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
@@ -12652,15 +12650,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="285">
-        <v>0</v>
-      </c>
-      <c r="I13" s="286"/>
-      <c r="J13" s="207"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="208"/>
-      <c r="N13" s="208"/>
+      <c r="H13" s="287">
+        <v>0</v>
+      </c>
+      <c r="I13" s="288"/>
+      <c r="J13" s="243"/>
+      <c r="K13" s="211"/>
+      <c r="L13" s="211"/>
+      <c r="M13" s="211"/>
+      <c r="N13" s="211"/>
       <c r="O13" s="297"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
@@ -12683,15 +12681,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="285">
-        <v>0</v>
-      </c>
-      <c r="I14" s="286"/>
-      <c r="J14" s="207"/>
-      <c r="K14" s="208"/>
-      <c r="L14" s="208"/>
-      <c r="M14" s="208"/>
-      <c r="N14" s="208"/>
+      <c r="H14" s="287">
+        <v>0</v>
+      </c>
+      <c r="I14" s="288"/>
+      <c r="J14" s="243"/>
+      <c r="K14" s="211"/>
+      <c r="L14" s="211"/>
+      <c r="M14" s="211"/>
+      <c r="N14" s="211"/>
       <c r="O14" s="297"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
@@ -12714,15 +12712,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="285">
-        <v>0</v>
-      </c>
-      <c r="I15" s="286"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="208"/>
-      <c r="L15" s="208"/>
-      <c r="M15" s="208"/>
-      <c r="N15" s="208"/>
+      <c r="H15" s="287">
+        <v>0</v>
+      </c>
+      <c r="I15" s="288"/>
+      <c r="J15" s="243"/>
+      <c r="K15" s="211"/>
+      <c r="L15" s="211"/>
+      <c r="M15" s="211"/>
+      <c r="N15" s="211"/>
       <c r="O15" s="297"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
@@ -12745,15 +12743,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="285">
-        <v>0</v>
-      </c>
-      <c r="I16" s="286"/>
-      <c r="J16" s="207"/>
-      <c r="K16" s="208"/>
-      <c r="L16" s="208"/>
-      <c r="M16" s="208"/>
-      <c r="N16" s="208"/>
+      <c r="H16" s="287">
+        <v>0</v>
+      </c>
+      <c r="I16" s="288"/>
+      <c r="J16" s="243"/>
+      <c r="K16" s="211"/>
+      <c r="L16" s="211"/>
+      <c r="M16" s="211"/>
+      <c r="N16" s="211"/>
       <c r="O16" s="297"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
@@ -12776,15 +12774,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="285">
-        <v>0</v>
-      </c>
-      <c r="I17" s="286"/>
-      <c r="J17" s="207"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="208"/>
+      <c r="H17" s="287">
+        <v>0</v>
+      </c>
+      <c r="I17" s="288"/>
+      <c r="J17" s="243"/>
+      <c r="K17" s="211"/>
+      <c r="L17" s="211"/>
+      <c r="M17" s="211"/>
+      <c r="N17" s="211"/>
       <c r="O17" s="297"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
@@ -12807,15 +12805,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="285">
-        <v>0</v>
-      </c>
-      <c r="I18" s="286"/>
-      <c r="J18" s="207"/>
-      <c r="K18" s="208"/>
-      <c r="L18" s="208"/>
-      <c r="M18" s="208"/>
-      <c r="N18" s="208"/>
+      <c r="H18" s="287">
+        <v>0</v>
+      </c>
+      <c r="I18" s="288"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="211"/>
+      <c r="L18" s="211"/>
+      <c r="M18" s="211"/>
+      <c r="N18" s="211"/>
       <c r="O18" s="297"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
@@ -12838,15 +12836,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="285">
-        <v>0</v>
-      </c>
-      <c r="I19" s="286"/>
-      <c r="J19" s="207"/>
-      <c r="K19" s="208"/>
-      <c r="L19" s="208"/>
-      <c r="M19" s="208"/>
-      <c r="N19" s="208"/>
+      <c r="H19" s="287">
+        <v>0</v>
+      </c>
+      <c r="I19" s="288"/>
+      <c r="J19" s="243"/>
+      <c r="K19" s="211"/>
+      <c r="L19" s="211"/>
+      <c r="M19" s="211"/>
+      <c r="N19" s="211"/>
       <c r="O19" s="297"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
@@ -12869,15 +12867,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="285">
-        <v>0</v>
-      </c>
-      <c r="I20" s="286"/>
-      <c r="J20" s="207"/>
-      <c r="K20" s="208"/>
-      <c r="L20" s="208"/>
-      <c r="M20" s="208"/>
-      <c r="N20" s="208"/>
+      <c r="H20" s="287">
+        <v>0</v>
+      </c>
+      <c r="I20" s="288"/>
+      <c r="J20" s="243"/>
+      <c r="K20" s="211"/>
+      <c r="L20" s="211"/>
+      <c r="M20" s="211"/>
+      <c r="N20" s="211"/>
       <c r="O20" s="297"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
@@ -12900,15 +12898,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="285">
-        <v>0</v>
-      </c>
-      <c r="I21" s="286"/>
-      <c r="J21" s="207"/>
-      <c r="K21" s="208"/>
-      <c r="L21" s="208"/>
-      <c r="M21" s="208"/>
-      <c r="N21" s="208"/>
+      <c r="H21" s="287">
+        <v>0</v>
+      </c>
+      <c r="I21" s="288"/>
+      <c r="J21" s="243"/>
+      <c r="K21" s="211"/>
+      <c r="L21" s="211"/>
+      <c r="M21" s="211"/>
+      <c r="N21" s="211"/>
       <c r="O21" s="297"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
@@ -12931,15 +12929,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="285">
-        <v>0</v>
-      </c>
-      <c r="I22" s="286"/>
-      <c r="J22" s="207"/>
-      <c r="K22" s="208"/>
-      <c r="L22" s="208"/>
-      <c r="M22" s="208"/>
-      <c r="N22" s="208"/>
+      <c r="H22" s="287">
+        <v>0</v>
+      </c>
+      <c r="I22" s="288"/>
+      <c r="J22" s="243"/>
+      <c r="K22" s="211"/>
+      <c r="L22" s="211"/>
+      <c r="M22" s="211"/>
+      <c r="N22" s="211"/>
       <c r="O22" s="297"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
@@ -12962,15 +12960,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="285">
-        <v>0</v>
-      </c>
-      <c r="I23" s="286"/>
-      <c r="J23" s="207"/>
-      <c r="K23" s="208"/>
-      <c r="L23" s="208"/>
-      <c r="M23" s="208"/>
-      <c r="N23" s="208"/>
+      <c r="H23" s="287">
+        <v>0</v>
+      </c>
+      <c r="I23" s="288"/>
+      <c r="J23" s="243"/>
+      <c r="K23" s="211"/>
+      <c r="L23" s="211"/>
+      <c r="M23" s="211"/>
+      <c r="N23" s="211"/>
       <c r="O23" s="297"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
@@ -12993,15 +12991,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="285">
-        <v>0</v>
-      </c>
-      <c r="I24" s="286"/>
-      <c r="J24" s="207"/>
-      <c r="K24" s="208"/>
-      <c r="L24" s="208"/>
-      <c r="M24" s="208"/>
-      <c r="N24" s="208"/>
+      <c r="H24" s="287">
+        <v>0</v>
+      </c>
+      <c r="I24" s="288"/>
+      <c r="J24" s="243"/>
+      <c r="K24" s="211"/>
+      <c r="L24" s="211"/>
+      <c r="M24" s="211"/>
+      <c r="N24" s="211"/>
       <c r="O24" s="297"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
@@ -13024,15 +13022,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="285">
-        <v>0</v>
-      </c>
-      <c r="I25" s="286"/>
-      <c r="J25" s="207"/>
-      <c r="K25" s="208"/>
-      <c r="L25" s="208"/>
-      <c r="M25" s="208"/>
-      <c r="N25" s="208"/>
+      <c r="H25" s="287">
+        <v>0</v>
+      </c>
+      <c r="I25" s="288"/>
+      <c r="J25" s="243"/>
+      <c r="K25" s="211"/>
+      <c r="L25" s="211"/>
+      <c r="M25" s="211"/>
+      <c r="N25" s="211"/>
       <c r="O25" s="297"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
@@ -13055,15 +13053,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="285">
-        <v>0</v>
-      </c>
-      <c r="I26" s="286"/>
-      <c r="J26" s="207"/>
-      <c r="K26" s="208"/>
-      <c r="L26" s="208"/>
-      <c r="M26" s="208"/>
-      <c r="N26" s="208"/>
+      <c r="H26" s="287">
+        <v>0</v>
+      </c>
+      <c r="I26" s="288"/>
+      <c r="J26" s="243"/>
+      <c r="K26" s="211"/>
+      <c r="L26" s="211"/>
+      <c r="M26" s="211"/>
+      <c r="N26" s="211"/>
       <c r="O26" s="297"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
@@ -13086,15 +13084,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="285">
-        <v>0</v>
-      </c>
-      <c r="I27" s="286"/>
-      <c r="J27" s="207"/>
-      <c r="K27" s="208"/>
-      <c r="L27" s="208"/>
-      <c r="M27" s="208"/>
-      <c r="N27" s="208"/>
+      <c r="H27" s="287">
+        <v>0</v>
+      </c>
+      <c r="I27" s="288"/>
+      <c r="J27" s="243"/>
+      <c r="K27" s="211"/>
+      <c r="L27" s="211"/>
+      <c r="M27" s="211"/>
+      <c r="N27" s="211"/>
       <c r="O27" s="297"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
@@ -13117,15 +13115,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="285">
-        <v>0</v>
-      </c>
-      <c r="I28" s="286"/>
-      <c r="J28" s="207"/>
-      <c r="K28" s="208"/>
-      <c r="L28" s="208"/>
-      <c r="M28" s="208"/>
-      <c r="N28" s="208"/>
+      <c r="H28" s="287">
+        <v>0</v>
+      </c>
+      <c r="I28" s="288"/>
+      <c r="J28" s="243"/>
+      <c r="K28" s="211"/>
+      <c r="L28" s="211"/>
+      <c r="M28" s="211"/>
+      <c r="N28" s="211"/>
       <c r="O28" s="297"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
@@ -13148,15 +13146,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="285">
-        <v>0</v>
-      </c>
-      <c r="I29" s="286"/>
-      <c r="J29" s="207"/>
-      <c r="K29" s="208"/>
-      <c r="L29" s="208"/>
-      <c r="M29" s="208"/>
-      <c r="N29" s="208"/>
+      <c r="H29" s="287">
+        <v>0</v>
+      </c>
+      <c r="I29" s="288"/>
+      <c r="J29" s="243"/>
+      <c r="K29" s="211"/>
+      <c r="L29" s="211"/>
+      <c r="M29" s="211"/>
+      <c r="N29" s="211"/>
       <c r="O29" s="297"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
@@ -13179,15 +13177,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="285">
-        <v>0</v>
-      </c>
-      <c r="I30" s="286"/>
-      <c r="J30" s="207"/>
-      <c r="K30" s="208"/>
-      <c r="L30" s="208"/>
-      <c r="M30" s="208"/>
-      <c r="N30" s="208"/>
+      <c r="H30" s="287">
+        <v>0</v>
+      </c>
+      <c r="I30" s="288"/>
+      <c r="J30" s="243"/>
+      <c r="K30" s="211"/>
+      <c r="L30" s="211"/>
+      <c r="M30" s="211"/>
+      <c r="N30" s="211"/>
       <c r="O30" s="297"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
@@ -13210,15 +13208,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="285">
-        <v>0</v>
-      </c>
-      <c r="I31" s="286"/>
-      <c r="J31" s="207"/>
-      <c r="K31" s="208"/>
-      <c r="L31" s="208"/>
-      <c r="M31" s="208"/>
-      <c r="N31" s="208"/>
+      <c r="H31" s="287">
+        <v>0</v>
+      </c>
+      <c r="I31" s="288"/>
+      <c r="J31" s="243"/>
+      <c r="K31" s="211"/>
+      <c r="L31" s="211"/>
+      <c r="M31" s="211"/>
+      <c r="N31" s="211"/>
       <c r="O31" s="297"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
@@ -13241,15 +13239,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="285">
-        <v>0</v>
-      </c>
-      <c r="I32" s="286"/>
-      <c r="J32" s="207"/>
-      <c r="K32" s="208"/>
-      <c r="L32" s="208"/>
-      <c r="M32" s="208"/>
-      <c r="N32" s="208"/>
+      <c r="H32" s="287">
+        <v>0</v>
+      </c>
+      <c r="I32" s="288"/>
+      <c r="J32" s="243"/>
+      <c r="K32" s="211"/>
+      <c r="L32" s="211"/>
+      <c r="M32" s="211"/>
+      <c r="N32" s="211"/>
       <c r="O32" s="297"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
@@ -13272,15 +13270,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="285">
-        <v>0</v>
-      </c>
-      <c r="I33" s="286"/>
-      <c r="J33" s="207"/>
-      <c r="K33" s="208"/>
-      <c r="L33" s="208"/>
-      <c r="M33" s="208"/>
-      <c r="N33" s="208"/>
+      <c r="H33" s="287">
+        <v>0</v>
+      </c>
+      <c r="I33" s="288"/>
+      <c r="J33" s="243"/>
+      <c r="K33" s="211"/>
+      <c r="L33" s="211"/>
+      <c r="M33" s="211"/>
+      <c r="N33" s="211"/>
       <c r="O33" s="297"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
@@ -13303,15 +13301,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="285">
-        <v>0</v>
-      </c>
-      <c r="I34" s="286"/>
-      <c r="J34" s="207"/>
-      <c r="K34" s="208"/>
-      <c r="L34" s="208"/>
-      <c r="M34" s="208"/>
-      <c r="N34" s="208"/>
+      <c r="H34" s="287">
+        <v>0</v>
+      </c>
+      <c r="I34" s="288"/>
+      <c r="J34" s="243"/>
+      <c r="K34" s="211"/>
+      <c r="L34" s="211"/>
+      <c r="M34" s="211"/>
+      <c r="N34" s="211"/>
       <c r="O34" s="297"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
@@ -13334,15 +13332,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="285">
-        <v>0</v>
-      </c>
-      <c r="I35" s="286"/>
-      <c r="J35" s="207"/>
-      <c r="K35" s="208"/>
-      <c r="L35" s="208"/>
-      <c r="M35" s="208"/>
-      <c r="N35" s="208"/>
+      <c r="H35" s="287">
+        <v>0</v>
+      </c>
+      <c r="I35" s="288"/>
+      <c r="J35" s="243"/>
+      <c r="K35" s="211"/>
+      <c r="L35" s="211"/>
+      <c r="M35" s="211"/>
+      <c r="N35" s="211"/>
       <c r="O35" s="297"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
@@ -13365,15 +13363,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="285">
-        <v>0</v>
-      </c>
-      <c r="I36" s="286"/>
-      <c r="J36" s="207"/>
-      <c r="K36" s="208"/>
-      <c r="L36" s="208"/>
-      <c r="M36" s="208"/>
-      <c r="N36" s="208"/>
+      <c r="H36" s="287">
+        <v>0</v>
+      </c>
+      <c r="I36" s="288"/>
+      <c r="J36" s="243"/>
+      <c r="K36" s="211"/>
+      <c r="L36" s="211"/>
+      <c r="M36" s="211"/>
+      <c r="N36" s="211"/>
       <c r="O36" s="297"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
@@ -13396,15 +13394,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="285">
-        <v>0</v>
-      </c>
-      <c r="I37" s="286"/>
-      <c r="J37" s="207"/>
-      <c r="K37" s="208"/>
-      <c r="L37" s="208"/>
-      <c r="M37" s="208"/>
-      <c r="N37" s="208"/>
+      <c r="H37" s="287">
+        <v>0</v>
+      </c>
+      <c r="I37" s="288"/>
+      <c r="J37" s="243"/>
+      <c r="K37" s="211"/>
+      <c r="L37" s="211"/>
+      <c r="M37" s="211"/>
+      <c r="N37" s="211"/>
       <c r="O37" s="297"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -13427,15 +13425,15 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="299">
-        <v>0</v>
-      </c>
-      <c r="I38" s="300"/>
-      <c r="J38" s="207"/>
-      <c r="K38" s="208"/>
-      <c r="L38" s="208"/>
-      <c r="M38" s="208"/>
-      <c r="N38" s="208"/>
+      <c r="H38" s="300">
+        <v>0</v>
+      </c>
+      <c r="I38" s="301"/>
+      <c r="J38" s="243"/>
+      <c r="K38" s="211"/>
+      <c r="L38" s="211"/>
+      <c r="M38" s="211"/>
+      <c r="N38" s="211"/>
       <c r="O38" s="297"/>
     </row>
     <row r="39" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
@@ -13444,23 +13442,23 @@
       <c r="C39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="267" t="e">
+      <c r="D39" s="254" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="268"/>
-      <c r="F39" s="268"/>
-      <c r="G39" s="270"/>
-      <c r="H39" s="301">
+      <c r="E39" s="255"/>
+      <c r="F39" s="255"/>
+      <c r="G39" s="257"/>
+      <c r="H39" s="283">
         <f>AVERAGE(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="302"/>
-      <c r="J39" s="207"/>
-      <c r="K39" s="208"/>
-      <c r="L39" s="208"/>
-      <c r="M39" s="208"/>
-      <c r="N39" s="208"/>
+      <c r="I39" s="284"/>
+      <c r="J39" s="243"/>
+      <c r="K39" s="211"/>
+      <c r="L39" s="211"/>
+      <c r="M39" s="211"/>
+      <c r="N39" s="211"/>
       <c r="O39" s="297"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
@@ -13469,23 +13467,23 @@
       <c r="C40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="274" t="e">
+      <c r="D40" s="261" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="275"/>
-      <c r="F40" s="275"/>
-      <c r="G40" s="277"/>
-      <c r="H40" s="303">
+      <c r="E40" s="262"/>
+      <c r="F40" s="262"/>
+      <c r="G40" s="264"/>
+      <c r="H40" s="285">
         <f>MIN(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="304"/>
-      <c r="J40" s="207"/>
-      <c r="K40" s="208"/>
-      <c r="L40" s="208"/>
-      <c r="M40" s="208"/>
-      <c r="N40" s="208"/>
+      <c r="I40" s="286"/>
+      <c r="J40" s="243"/>
+      <c r="K40" s="211"/>
+      <c r="L40" s="211"/>
+      <c r="M40" s="211"/>
+      <c r="N40" s="211"/>
       <c r="O40" s="297"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
@@ -13494,54 +13492,54 @@
       <c r="C41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="260" t="e">
+      <c r="D41" s="248" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="261"/>
-      <c r="F41" s="261"/>
-      <c r="G41" s="263"/>
+      <c r="E41" s="249"/>
+      <c r="F41" s="249"/>
+      <c r="G41" s="250"/>
       <c r="H41" s="294">
         <f>MAX(I9:I38)</f>
         <v>0</v>
       </c>
       <c r="I41" s="295"/>
-      <c r="J41" s="210"/>
-      <c r="K41" s="211"/>
-      <c r="L41" s="211"/>
-      <c r="M41" s="211"/>
-      <c r="N41" s="211"/>
-      <c r="O41" s="290"/>
+      <c r="J41" s="245"/>
+      <c r="K41" s="246"/>
+      <c r="L41" s="246"/>
+      <c r="M41" s="246"/>
+      <c r="N41" s="246"/>
+      <c r="O41" s="291"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="229"/>
-      <c r="C42" s="229"/>
-      <c r="D42" s="230" t="s">
+      <c r="B42" s="226"/>
+      <c r="C42" s="226"/>
+      <c r="D42" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="230"/>
-      <c r="F42" s="230"/>
-      <c r="G42" s="230"/>
+      <c r="E42" s="227"/>
+      <c r="F42" s="227"/>
+      <c r="G42" s="227"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="214" t="s">
+      <c r="K42" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="214"/>
-      <c r="M42" s="229"/>
-      <c r="N42" s="229"/>
+      <c r="L42" s="210"/>
+      <c r="M42" s="226"/>
+      <c r="N42" s="226"/>
       <c r="O42" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="173"/>
-      <c r="C43" s="173"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -13551,15 +13549,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="111"/>
       <c r="L43" s="111"/>
-      <c r="M43" s="231"/>
-      <c r="N43" s="231"/>
+      <c r="M43" s="228"/>
+      <c r="N43" s="228"/>
       <c r="O43" s="111"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="213" t="s">
+      <c r="A44" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="213"/>
+      <c r="B44" s="209"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -13568,12 +13566,12 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="170" t="str">
+      <c r="H44" s="162" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="170"/>
-      <c r="J44" s="170"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
@@ -13581,10 +13579,10 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="213" t="s">
+      <c r="A45" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="213"/>
+      <c r="B45" s="209"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -13596,225 +13594,315 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="208" t="s">
-        <v>47</v>
-      </c>
-      <c r="O45" s="208"/>
+      <c r="N45" s="211" t="s">
+        <v>46</v>
+      </c>
+      <c r="O45" s="211"/>
     </row>
     <row r="46" spans="1:15" s="38" customFormat="1"/>
     <row r="47" spans="1:15" s="38" customFormat="1"/>
     <row r="57" spans="4:15">
-      <c r="D57" s="293"/>
-      <c r="E57" s="293"/>
-      <c r="F57" s="293"/>
-      <c r="G57" s="293"/>
-      <c r="H57" s="293"/>
-      <c r="I57" s="293"/>
-      <c r="J57" s="293"/>
-      <c r="K57" s="293"/>
-      <c r="L57" s="293"/>
-      <c r="M57" s="293"/>
-      <c r="N57" s="293"/>
-      <c r="O57" s="293"/>
+      <c r="D57" s="282"/>
+      <c r="E57" s="282"/>
+      <c r="F57" s="282"/>
+      <c r="G57" s="282"/>
+      <c r="H57" s="282"/>
+      <c r="I57" s="282"/>
+      <c r="J57" s="282"/>
+      <c r="K57" s="282"/>
+      <c r="L57" s="282"/>
+      <c r="M57" s="282"/>
+      <c r="N57" s="282"/>
+      <c r="O57" s="282"/>
     </row>
     <row r="58" spans="4:15">
-      <c r="D58" s="293"/>
-      <c r="E58" s="293"/>
-      <c r="F58" s="293"/>
-      <c r="G58" s="293"/>
-      <c r="H58" s="293"/>
-      <c r="I58" s="293"/>
-      <c r="J58" s="293"/>
-      <c r="K58" s="293"/>
-      <c r="L58" s="293"/>
-      <c r="M58" s="293"/>
-      <c r="N58" s="293"/>
-      <c r="O58" s="293"/>
+      <c r="D58" s="282"/>
+      <c r="E58" s="282"/>
+      <c r="F58" s="282"/>
+      <c r="G58" s="282"/>
+      <c r="H58" s="282"/>
+      <c r="I58" s="282"/>
+      <c r="J58" s="282"/>
+      <c r="K58" s="282"/>
+      <c r="L58" s="282"/>
+      <c r="M58" s="282"/>
+      <c r="N58" s="282"/>
+      <c r="O58" s="282"/>
     </row>
     <row r="59" spans="4:15">
-      <c r="D59" s="293"/>
-      <c r="E59" s="293"/>
-      <c r="F59" s="293"/>
-      <c r="G59" s="293"/>
-      <c r="H59" s="293"/>
-      <c r="I59" s="293"/>
-      <c r="J59" s="293"/>
-      <c r="K59" s="293"/>
-      <c r="L59" s="293"/>
-      <c r="M59" s="293"/>
-      <c r="N59" s="293"/>
-      <c r="O59" s="293"/>
+      <c r="D59" s="282"/>
+      <c r="E59" s="282"/>
+      <c r="F59" s="282"/>
+      <c r="G59" s="282"/>
+      <c r="H59" s="282"/>
+      <c r="I59" s="282"/>
+      <c r="J59" s="282"/>
+      <c r="K59" s="282"/>
+      <c r="L59" s="282"/>
+      <c r="M59" s="282"/>
+      <c r="N59" s="282"/>
+      <c r="O59" s="282"/>
     </row>
     <row r="60" spans="4:15">
-      <c r="D60" s="293"/>
-      <c r="E60" s="293"/>
-      <c r="F60" s="293"/>
-      <c r="G60" s="293"/>
-      <c r="H60" s="293"/>
-      <c r="I60" s="293"/>
-      <c r="J60" s="293"/>
-      <c r="K60" s="293"/>
-      <c r="L60" s="293"/>
-      <c r="M60" s="293"/>
-      <c r="N60" s="293"/>
-      <c r="O60" s="293"/>
+      <c r="D60" s="282"/>
+      <c r="E60" s="282"/>
+      <c r="F60" s="282"/>
+      <c r="G60" s="282"/>
+      <c r="H60" s="282"/>
+      <c r="I60" s="282"/>
+      <c r="J60" s="282"/>
+      <c r="K60" s="282"/>
+      <c r="L60" s="282"/>
+      <c r="M60" s="282"/>
+      <c r="N60" s="282"/>
+      <c r="O60" s="282"/>
     </row>
     <row r="61" spans="4:15">
-      <c r="D61" s="293"/>
-      <c r="E61" s="293"/>
-      <c r="F61" s="293"/>
-      <c r="G61" s="293"/>
-      <c r="H61" s="293"/>
-      <c r="I61" s="293"/>
-      <c r="J61" s="293"/>
-      <c r="K61" s="293"/>
-      <c r="L61" s="293"/>
-      <c r="M61" s="293"/>
-      <c r="N61" s="293"/>
-      <c r="O61" s="293"/>
+      <c r="D61" s="282"/>
+      <c r="E61" s="282"/>
+      <c r="F61" s="282"/>
+      <c r="G61" s="282"/>
+      <c r="H61" s="282"/>
+      <c r="I61" s="282"/>
+      <c r="J61" s="282"/>
+      <c r="K61" s="282"/>
+      <c r="L61" s="282"/>
+      <c r="M61" s="282"/>
+      <c r="N61" s="282"/>
+      <c r="O61" s="282"/>
     </row>
     <row r="62" spans="4:15">
-      <c r="D62" s="293"/>
-      <c r="E62" s="293"/>
-      <c r="F62" s="293"/>
-      <c r="G62" s="293"/>
-      <c r="H62" s="293"/>
-      <c r="I62" s="293"/>
-      <c r="J62" s="293"/>
-      <c r="K62" s="293"/>
-      <c r="L62" s="293"/>
-      <c r="M62" s="293"/>
-      <c r="N62" s="293"/>
-      <c r="O62" s="293"/>
+      <c r="D62" s="282"/>
+      <c r="E62" s="282"/>
+      <c r="F62" s="282"/>
+      <c r="G62" s="282"/>
+      <c r="H62" s="282"/>
+      <c r="I62" s="282"/>
+      <c r="J62" s="282"/>
+      <c r="K62" s="282"/>
+      <c r="L62" s="282"/>
+      <c r="M62" s="282"/>
+      <c r="N62" s="282"/>
+      <c r="O62" s="282"/>
     </row>
     <row r="63" spans="4:15">
-      <c r="D63" s="293"/>
-      <c r="E63" s="293"/>
-      <c r="F63" s="293"/>
-      <c r="G63" s="293"/>
-      <c r="H63" s="293"/>
-      <c r="I63" s="293"/>
-      <c r="J63" s="293"/>
-      <c r="K63" s="293"/>
-      <c r="L63" s="293"/>
-      <c r="M63" s="293"/>
-      <c r="N63" s="293"/>
-      <c r="O63" s="293"/>
+      <c r="D63" s="282"/>
+      <c r="E63" s="282"/>
+      <c r="F63" s="282"/>
+      <c r="G63" s="282"/>
+      <c r="H63" s="282"/>
+      <c r="I63" s="282"/>
+      <c r="J63" s="282"/>
+      <c r="K63" s="282"/>
+      <c r="L63" s="282"/>
+      <c r="M63" s="282"/>
+      <c r="N63" s="282"/>
+      <c r="O63" s="282"/>
     </row>
     <row r="64" spans="4:15">
-      <c r="D64" s="293"/>
-      <c r="E64" s="293"/>
-      <c r="F64" s="293"/>
-      <c r="G64" s="293"/>
-      <c r="H64" s="293"/>
-      <c r="I64" s="293"/>
-      <c r="J64" s="293"/>
-      <c r="K64" s="293"/>
-      <c r="L64" s="293"/>
-      <c r="M64" s="293"/>
-      <c r="N64" s="293"/>
-      <c r="O64" s="293"/>
+      <c r="D64" s="282"/>
+      <c r="E64" s="282"/>
+      <c r="F64" s="282"/>
+      <c r="G64" s="282"/>
+      <c r="H64" s="282"/>
+      <c r="I64" s="282"/>
+      <c r="J64" s="282"/>
+      <c r="K64" s="282"/>
+      <c r="L64" s="282"/>
+      <c r="M64" s="282"/>
+      <c r="N64" s="282"/>
+      <c r="O64" s="282"/>
     </row>
     <row r="65" spans="4:15">
-      <c r="D65" s="293"/>
-      <c r="E65" s="293"/>
-      <c r="F65" s="293"/>
-      <c r="G65" s="293"/>
-      <c r="H65" s="293"/>
-      <c r="I65" s="293"/>
-      <c r="J65" s="293"/>
-      <c r="K65" s="293"/>
-      <c r="L65" s="293"/>
-      <c r="M65" s="293"/>
-      <c r="N65" s="293"/>
-      <c r="O65" s="293"/>
+      <c r="D65" s="282"/>
+      <c r="E65" s="282"/>
+      <c r="F65" s="282"/>
+      <c r="G65" s="282"/>
+      <c r="H65" s="282"/>
+      <c r="I65" s="282"/>
+      <c r="J65" s="282"/>
+      <c r="K65" s="282"/>
+      <c r="L65" s="282"/>
+      <c r="M65" s="282"/>
+      <c r="N65" s="282"/>
+      <c r="O65" s="282"/>
     </row>
     <row r="66" spans="4:15">
-      <c r="D66" s="293"/>
-      <c r="E66" s="293"/>
-      <c r="F66" s="293"/>
-      <c r="G66" s="293"/>
-      <c r="H66" s="293"/>
-      <c r="I66" s="293"/>
-      <c r="J66" s="293"/>
-      <c r="K66" s="293"/>
-      <c r="L66" s="293"/>
-      <c r="M66" s="293"/>
-      <c r="N66" s="293"/>
-      <c r="O66" s="293"/>
+      <c r="D66" s="282"/>
+      <c r="E66" s="282"/>
+      <c r="F66" s="282"/>
+      <c r="G66" s="282"/>
+      <c r="H66" s="282"/>
+      <c r="I66" s="282"/>
+      <c r="J66" s="282"/>
+      <c r="K66" s="282"/>
+      <c r="L66" s="282"/>
+      <c r="M66" s="282"/>
+      <c r="N66" s="282"/>
+      <c r="O66" s="282"/>
     </row>
     <row r="67" spans="4:15">
-      <c r="D67" s="293"/>
-      <c r="E67" s="293"/>
-      <c r="F67" s="293"/>
-      <c r="G67" s="293"/>
-      <c r="H67" s="293"/>
-      <c r="I67" s="293"/>
-      <c r="J67" s="293"/>
-      <c r="K67" s="293"/>
-      <c r="L67" s="293"/>
-      <c r="M67" s="293"/>
-      <c r="N67" s="293"/>
-      <c r="O67" s="293"/>
+      <c r="D67" s="282"/>
+      <c r="E67" s="282"/>
+      <c r="F67" s="282"/>
+      <c r="G67" s="282"/>
+      <c r="H67" s="282"/>
+      <c r="I67" s="282"/>
+      <c r="J67" s="282"/>
+      <c r="K67" s="282"/>
+      <c r="L67" s="282"/>
+      <c r="M67" s="282"/>
+      <c r="N67" s="282"/>
+      <c r="O67" s="282"/>
     </row>
     <row r="68" spans="4:15">
-      <c r="D68" s="293"/>
-      <c r="E68" s="293"/>
-      <c r="F68" s="293"/>
-      <c r="G68" s="293"/>
-      <c r="H68" s="293"/>
-      <c r="I68" s="293"/>
-      <c r="J68" s="293"/>
-      <c r="K68" s="293"/>
-      <c r="L68" s="293"/>
-      <c r="M68" s="293"/>
-      <c r="N68" s="293"/>
-      <c r="O68" s="293"/>
+      <c r="D68" s="282"/>
+      <c r="E68" s="282"/>
+      <c r="F68" s="282"/>
+      <c r="G68" s="282"/>
+      <c r="H68" s="282"/>
+      <c r="I68" s="282"/>
+      <c r="J68" s="282"/>
+      <c r="K68" s="282"/>
+      <c r="L68" s="282"/>
+      <c r="M68" s="282"/>
+      <c r="N68" s="282"/>
+      <c r="O68" s="282"/>
     </row>
     <row r="69" spans="4:15">
-      <c r="D69" s="293"/>
-      <c r="E69" s="293"/>
-      <c r="F69" s="293"/>
-      <c r="G69" s="293"/>
-      <c r="H69" s="293"/>
-      <c r="I69" s="293"/>
-      <c r="J69" s="293"/>
-      <c r="K69" s="293"/>
-      <c r="L69" s="293"/>
-      <c r="M69" s="293"/>
-      <c r="N69" s="293"/>
-      <c r="O69" s="293"/>
+      <c r="D69" s="282"/>
+      <c r="E69" s="282"/>
+      <c r="F69" s="282"/>
+      <c r="G69" s="282"/>
+      <c r="H69" s="282"/>
+      <c r="I69" s="282"/>
+      <c r="J69" s="282"/>
+      <c r="K69" s="282"/>
+      <c r="L69" s="282"/>
+      <c r="M69" s="282"/>
+      <c r="N69" s="282"/>
+      <c r="O69" s="282"/>
     </row>
     <row r="70" spans="4:15">
-      <c r="D70" s="293"/>
-      <c r="E70" s="293"/>
-      <c r="F70" s="293"/>
-      <c r="G70" s="293"/>
-      <c r="H70" s="293"/>
-      <c r="I70" s="293"/>
-      <c r="J70" s="293"/>
-      <c r="K70" s="293"/>
-      <c r="L70" s="293"/>
-      <c r="M70" s="293"/>
-      <c r="N70" s="293"/>
-      <c r="O70" s="293"/>
+      <c r="D70" s="282"/>
+      <c r="E70" s="282"/>
+      <c r="F70" s="282"/>
+      <c r="G70" s="282"/>
+      <c r="H70" s="282"/>
+      <c r="I70" s="282"/>
+      <c r="J70" s="282"/>
+      <c r="K70" s="282"/>
+      <c r="L70" s="282"/>
+      <c r="M70" s="282"/>
+      <c r="N70" s="282"/>
+      <c r="O70" s="282"/>
     </row>
     <row r="71" spans="4:15">
-      <c r="D71" s="293"/>
-      <c r="E71" s="293"/>
-      <c r="F71" s="293"/>
-      <c r="G71" s="293"/>
-      <c r="H71" s="293"/>
-      <c r="I71" s="293"/>
-      <c r="J71" s="293"/>
-      <c r="K71" s="293"/>
-      <c r="L71" s="293"/>
-      <c r="M71" s="293"/>
-      <c r="N71" s="293"/>
-      <c r="O71" s="293"/>
+      <c r="D71" s="282"/>
+      <c r="E71" s="282"/>
+      <c r="F71" s="282"/>
+      <c r="G71" s="282"/>
+      <c r="H71" s="282"/>
+      <c r="I71" s="282"/>
+      <c r="J71" s="282"/>
+      <c r="K71" s="282"/>
+      <c r="L71" s="282"/>
+      <c r="M71" s="282"/>
+      <c r="N71" s="282"/>
+      <c r="O71" s="282"/>
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="J6:O41"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="H31:I31"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="D70:G70"/>
@@ -13839,96 +13927,6 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:O64"/>
     <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="J6:O41"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G38">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
@@ -13940,8 +13938,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 N3 A4:A5 E4:F5 I4:I5 L4:M5 A6:C6 A7:I8 A9:C41 G9:G38 D39:I41 N1:O2 D42:G42 A44:O45 K42:L43 O42:O43 A42:A43 D43:E43" xr:uid="{45AA03E7-926C-423A-BDFE-A2DF2A6DCF8E}">
+  <dataValidations count="2">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 N3 A4:A5 E4:F5 I4:I5 L4:M5 D43:E43 A7:I8 A9:C41 G9:G38 D39:I41 N1:O2 D42:G42 A44:O45 K42:L43 O42:O43 A42:A43" xr:uid="{45AA03E7-926C-423A-BDFE-A2DF2A6DCF8E}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:C6" xr:uid="{34732148-F4A8-4BF7-9592-25D7B43627FC}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13984,108 +13986,108 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1">
       <c r="C1" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="E1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="F1" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="G1" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="H1" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="I1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="J1" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="K1" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="L1" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="M1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="N1" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="O1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="64" t="s">
+      <c r="P1" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="Q1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="R1" s="64" t="s">
         <v>62</v>
-      </c>
-      <c r="R1" s="64" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30">
       <c r="A2" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="C2" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="D2" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="E2" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="F2" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="G2" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="H2" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="I2" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="J2" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="K2" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="L2" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="64" t="s">
+      <c r="M2" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="N2" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="64" t="s">
+      <c r="O2" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="64" t="s">
+      <c r="P2" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="64" t="s">
+      <c r="Q2" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="64" t="s">
+      <c r="R2" s="64" t="s">
         <v>80</v>
-      </c>
-      <c r="R2" s="64" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -16105,8 +16107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB2F544-FD28-404D-9524-773BC4F36D40}">
   <dimension ref="A1:AT53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q319" sqref="Q319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -16161,34 +16164,34 @@
     </row>
     <row r="2" spans="1:46" s="86" customFormat="1" ht="22.5">
       <c r="A2" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="C2" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="D2" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="E2" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="F2" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="G2" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="H2" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="I2" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>90</v>
-      </c>
-      <c r="J2" s="83" t="s">
-        <v>91</v>
       </c>
       <c r="K2" s="83">
         <v>1</v>
@@ -16284,19 +16287,19 @@
         <v>19</v>
       </c>
       <c r="AP2" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ2" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="AQ2" s="83" t="s">
+      <c r="AR2" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="AR2" s="84" t="s">
+      <c r="AS2" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="AS2" s="84" t="s">
+      <c r="AT2" s="85" t="s">
         <v>95</v>
-      </c>
-      <c r="AT2" s="85" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:46" s="76" customFormat="1" ht="15">
@@ -16304,149 +16307,149 @@
         <v>1</v>
       </c>
       <c r="B3" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="D3" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="E3" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="F3" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="91" t="s">
+      <c r="H3" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="I3" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="91" t="s">
+      <c r="J3" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" s="305" cm="1">
+      <c r="K3" s="124" cm="1">
         <f t="array" ref="K3">INDEX(Page1!$L$8:$L$37, COLUMN(K3)-10)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="305" cm="1">
+      <c r="L3" s="124" cm="1">
         <f t="array" ref="L3">INDEX(Page1!$L$8:$L$37, COLUMN(L3)-10)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="305" cm="1">
+      <c r="M3" s="124" cm="1">
         <f t="array" ref="M3">INDEX(Page1!$L$8:$L$37, COLUMN(M3)-10)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="305" cm="1">
+      <c r="N3" s="124" cm="1">
         <f t="array" ref="N3">INDEX(Page1!$L$8:$L$37, COLUMN(N3)-10)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="305" cm="1">
+      <c r="O3" s="124" cm="1">
         <f t="array" ref="O3">INDEX(Page1!$L$8:$L$37, COLUMN(O3)-10)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="305" cm="1">
+      <c r="P3" s="124" cm="1">
         <f t="array" ref="P3">INDEX(Page1!$L$8:$L$37, COLUMN(P3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="305" cm="1">
+      <c r="Q3" s="124" cm="1">
         <f t="array" ref="Q3">INDEX(Page1!$L$8:$L$37, COLUMN(Q3)-10)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="305" cm="1">
+      <c r="R3" s="124" cm="1">
         <f t="array" ref="R3">INDEX(Page1!$L$8:$L$37, COLUMN(R3)-10)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="305" cm="1">
+      <c r="S3" s="124" cm="1">
         <f t="array" ref="S3">INDEX(Page1!$L$8:$L$37, COLUMN(S3)-10)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="305" cm="1">
+      <c r="T3" s="124" cm="1">
         <f t="array" ref="T3">INDEX(Page1!$L$8:$L$37, COLUMN(T3)-10)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="305" cm="1">
+      <c r="U3" s="124" cm="1">
         <f t="array" ref="U3">INDEX(Page1!$L$8:$L$37, COLUMN(U3)-10)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="305" cm="1">
+      <c r="V3" s="124" cm="1">
         <f t="array" ref="V3">INDEX(Page1!$L$8:$L$37, COLUMN(V3)-10)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="305" cm="1">
+      <c r="W3" s="124" cm="1">
         <f t="array" ref="W3">INDEX(Page1!$L$8:$L$37, COLUMN(W3)-10)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="305" cm="1">
+      <c r="X3" s="124" cm="1">
         <f t="array" ref="X3">INDEX(Page1!$L$8:$L$37, COLUMN(X3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="305" cm="1">
+      <c r="Y3" s="124" cm="1">
         <f t="array" ref="Y3">INDEX(Page1!$L$8:$L$37, COLUMN(Y3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="305" cm="1">
+      <c r="Z3" s="124" cm="1">
         <f t="array" ref="Z3">INDEX(Page1!$L$8:$L$37, COLUMN(Z3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="305" cm="1">
+      <c r="AA3" s="124" cm="1">
         <f t="array" ref="AA3">INDEX(Page1!$L$8:$L$37, COLUMN(AA3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="305" cm="1">
+      <c r="AB3" s="124" cm="1">
         <f t="array" ref="AB3">INDEX(Page1!$L$8:$L$37, COLUMN(AB3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="305" cm="1">
+      <c r="AC3" s="124" cm="1">
         <f t="array" ref="AC3">INDEX(Page1!$L$8:$L$37, COLUMN(AC3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="305" cm="1">
+      <c r="AD3" s="124" cm="1">
         <f t="array" ref="AD3">INDEX(Page1!$L$8:$L$37, COLUMN(AD3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="305" cm="1">
+      <c r="AE3" s="124" cm="1">
         <f t="array" ref="AE3">INDEX(Page1!$L$8:$L$37, COLUMN(AE3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="305" cm="1">
+      <c r="AF3" s="124" cm="1">
         <f t="array" ref="AF3">INDEX(Page1!$L$8:$L$37, COLUMN(AF3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="305" cm="1">
+      <c r="AG3" s="124" cm="1">
         <f t="array" ref="AG3">INDEX(Page1!$L$8:$L$37, COLUMN(AG3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="305" cm="1">
+      <c r="AH3" s="124" cm="1">
         <f t="array" ref="AH3">INDEX(Page1!$L$8:$L$37, COLUMN(AH3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="305" cm="1">
+      <c r="AI3" s="124" cm="1">
         <f t="array" ref="AI3">INDEX(Page1!$L$8:$L$37, COLUMN(AI3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="305" cm="1">
+      <c r="AJ3" s="124" cm="1">
         <f t="array" ref="AJ3">INDEX(Page1!$L$8:$L$37, COLUMN(AJ3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="305" cm="1">
+      <c r="AK3" s="124" cm="1">
         <f t="array" ref="AK3">INDEX(Page1!$L$8:$L$37, COLUMN(AK3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="305" cm="1">
+      <c r="AL3" s="124" cm="1">
         <f t="array" ref="AL3">INDEX(Page1!$L$8:$L$37, COLUMN(AL3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="305" cm="1">
+      <c r="AM3" s="124" cm="1">
         <f t="array" ref="AM3">INDEX(Page1!$L$8:$L$37, COLUMN(AM3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="305" cm="1">
+      <c r="AN3" s="124" cm="1">
         <f t="array" ref="AN3">INDEX(Page1!$L$8:$L$37, COLUMN(AN3)-10)</f>
         <v>0</v>
       </c>
@@ -16480,147 +16483,147 @@
         <v>2</v>
       </c>
       <c r="B4" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="97" t="s">
+      <c r="E4" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="F4" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="G4" s="91" t="s">
         <v>108</v>
-      </c>
-      <c r="G4" s="91" t="s">
-        <v>109</v>
       </c>
       <c r="H4" s="91"/>
       <c r="I4" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J4" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="307" t="e" cm="1">
+        <v>103</v>
+      </c>
+      <c r="K4" s="126" t="e" cm="1">
         <f t="array" ref="K4">INDEX(Page4!$G$9:$G$38, COLUMN(K4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="307" t="e" cm="1">
+      <c r="L4" s="126" t="e" cm="1">
         <f t="array" ref="L4">INDEX(Page4!$G$9:$G$38, COLUMN(L4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="307" t="e" cm="1">
+      <c r="M4" s="126" t="e" cm="1">
         <f t="array" ref="M4">INDEX(Page4!$G$9:$G$38, COLUMN(M4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="307" t="e" cm="1">
+      <c r="N4" s="126" t="e" cm="1">
         <f t="array" ref="N4">INDEX(Page4!$G$9:$G$38, COLUMN(N4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="307" t="e" cm="1">
+      <c r="O4" s="126" t="e" cm="1">
         <f t="array" ref="O4">INDEX(Page4!$G$9:$G$38, COLUMN(O4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P4" s="307" t="e" cm="1">
+      <c r="P4" s="126" t="e" cm="1">
         <f t="array" ref="P4">INDEX(Page4!$G$9:$G$38, COLUMN(P4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="307" t="e" cm="1">
+      <c r="Q4" s="126" t="e" cm="1">
         <f t="array" ref="Q4">INDEX(Page4!$G$9:$G$38, COLUMN(Q4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R4" s="307" t="e" cm="1">
+      <c r="R4" s="126" t="e" cm="1">
         <f t="array" ref="R4">INDEX(Page4!$G$9:$G$38, COLUMN(R4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="307" t="e" cm="1">
+      <c r="S4" s="126" t="e" cm="1">
         <f t="array" ref="S4">INDEX(Page4!$G$9:$G$38, COLUMN(S4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T4" s="307" t="e" cm="1">
+      <c r="T4" s="126" t="e" cm="1">
         <f t="array" ref="T4">INDEX(Page4!$G$9:$G$38, COLUMN(T4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U4" s="307" t="e" cm="1">
+      <c r="U4" s="126" t="e" cm="1">
         <f t="array" ref="U4">INDEX(Page4!$G$9:$G$38, COLUMN(U4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V4" s="307" t="e" cm="1">
+      <c r="V4" s="126" t="e" cm="1">
         <f t="array" ref="V4">INDEX(Page4!$G$9:$G$38, COLUMN(V4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W4" s="307" t="e" cm="1">
+      <c r="W4" s="126" t="e" cm="1">
         <f t="array" ref="W4">INDEX(Page4!$G$9:$G$38, COLUMN(W4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X4" s="307" t="e" cm="1">
+      <c r="X4" s="126" t="e" cm="1">
         <f t="array" ref="X4">INDEX(Page4!$G$9:$G$38, COLUMN(X4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y4" s="307" t="e" cm="1">
+      <c r="Y4" s="126" t="e" cm="1">
         <f t="array" ref="Y4">INDEX(Page4!$G$9:$G$38, COLUMN(Y4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z4" s="307" t="e" cm="1">
+      <c r="Z4" s="126" t="e" cm="1">
         <f t="array" ref="Z4">INDEX(Page4!$G$9:$G$38, COLUMN(Z4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA4" s="307" t="e" cm="1">
+      <c r="AA4" s="126" t="e" cm="1">
         <f t="array" ref="AA4">INDEX(Page4!$G$9:$G$38, COLUMN(AA4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB4" s="307" t="e" cm="1">
+      <c r="AB4" s="126" t="e" cm="1">
         <f t="array" ref="AB4">INDEX(Page4!$G$9:$G$38, COLUMN(AB4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="307" t="e" cm="1">
+      <c r="AC4" s="126" t="e" cm="1">
         <f t="array" ref="AC4">INDEX(Page4!$G$9:$G$38, COLUMN(AC4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="307" t="e" cm="1">
+      <c r="AD4" s="126" t="e" cm="1">
         <f t="array" ref="AD4">INDEX(Page4!$G$9:$G$38, COLUMN(AD4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE4" s="307" t="e" cm="1">
+      <c r="AE4" s="126" t="e" cm="1">
         <f t="array" ref="AE4">INDEX(Page4!$G$9:$G$38, COLUMN(AE4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF4" s="307" t="e" cm="1">
+      <c r="AF4" s="126" t="e" cm="1">
         <f t="array" ref="AF4">INDEX(Page4!$G$9:$G$38, COLUMN(AF4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG4" s="307" t="e" cm="1">
+      <c r="AG4" s="126" t="e" cm="1">
         <f t="array" ref="AG4">INDEX(Page4!$G$9:$G$38, COLUMN(AG4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH4" s="307" t="e" cm="1">
+      <c r="AH4" s="126" t="e" cm="1">
         <f t="array" ref="AH4">INDEX(Page4!$G$9:$G$38, COLUMN(AH4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI4" s="307" t="e" cm="1">
+      <c r="AI4" s="126" t="e" cm="1">
         <f t="array" ref="AI4">INDEX(Page4!$G$9:$G$38, COLUMN(AI4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ4" s="307" t="e" cm="1">
+      <c r="AJ4" s="126" t="e" cm="1">
         <f t="array" ref="AJ4">INDEX(Page4!$G$9:$G$38, COLUMN(AJ4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK4" s="307" t="e" cm="1">
+      <c r="AK4" s="126" t="e" cm="1">
         <f t="array" ref="AK4">INDEX(Page4!$G$9:$G$38, COLUMN(AK4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL4" s="307" t="e" cm="1">
+      <c r="AL4" s="126" t="e" cm="1">
         <f t="array" ref="AL4">INDEX(Page4!$G$9:$G$38, COLUMN(AL4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM4" s="307" t="e" cm="1">
+      <c r="AM4" s="126" t="e" cm="1">
         <f t="array" ref="AM4">INDEX(Page4!$G$9:$G$38, COLUMN(AM4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN4" s="307" t="e" cm="1">
+      <c r="AN4" s="126" t="e" cm="1">
         <f t="array" ref="AN4">INDEX(Page4!$G$9:$G$38, COLUMN(AN4)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -16654,149 +16657,149 @@
         <v>3</v>
       </c>
       <c r="B5" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="90" t="s">
+      <c r="E5" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="91" t="s">
+      <c r="H5" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="91" t="s">
+      <c r="I5" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="91" t="s">
-        <v>115</v>
-      </c>
       <c r="J5" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" s="307" cm="1">
+        <v>103</v>
+      </c>
+      <c r="K5" s="126" cm="1">
         <f t="array" ref="K5">INDEX(Page1!$H$8:$H$37, COLUMN(K5)-10)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="307" cm="1">
+      <c r="L5" s="126" cm="1">
         <f t="array" ref="L5">INDEX(Page1!$H$8:$H$37, COLUMN(L5)-10)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="307" cm="1">
+      <c r="M5" s="126" cm="1">
         <f t="array" ref="M5">INDEX(Page1!$H$8:$H$37, COLUMN(M5)-10)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="307" cm="1">
+      <c r="N5" s="126" cm="1">
         <f t="array" ref="N5">INDEX(Page1!$H$8:$H$37, COLUMN(N5)-10)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="307" cm="1">
+      <c r="O5" s="126" cm="1">
         <f t="array" ref="O5">INDEX(Page1!$H$8:$H$37, COLUMN(O5)-10)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="307" cm="1">
+      <c r="P5" s="126" cm="1">
         <f t="array" ref="P5">INDEX(Page1!$H$8:$H$37, COLUMN(P5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="307" cm="1">
+      <c r="Q5" s="126" cm="1">
         <f t="array" ref="Q5">INDEX(Page1!$H$8:$H$37, COLUMN(Q5)-10)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="307" cm="1">
+      <c r="R5" s="126" cm="1">
         <f t="array" ref="R5">INDEX(Page1!$H$8:$H$37, COLUMN(R5)-10)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="307" cm="1">
+      <c r="S5" s="126" cm="1">
         <f t="array" ref="S5">INDEX(Page1!$H$8:$H$37, COLUMN(S5)-10)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="307" cm="1">
+      <c r="T5" s="126" cm="1">
         <f t="array" ref="T5">INDEX(Page1!$H$8:$H$37, COLUMN(T5)-10)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="307" cm="1">
+      <c r="U5" s="126" cm="1">
         <f t="array" ref="U5">INDEX(Page1!$H$8:$H$37, COLUMN(U5)-10)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="307" cm="1">
+      <c r="V5" s="126" cm="1">
         <f t="array" ref="V5">INDEX(Page1!$H$8:$H$37, COLUMN(V5)-10)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="307" cm="1">
+      <c r="W5" s="126" cm="1">
         <f t="array" ref="W5">INDEX(Page1!$H$8:$H$37, COLUMN(W5)-10)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="307" cm="1">
+      <c r="X5" s="126" cm="1">
         <f t="array" ref="X5">INDEX(Page1!$H$8:$H$37, COLUMN(X5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="307" cm="1">
+      <c r="Y5" s="126" cm="1">
         <f t="array" ref="Y5">INDEX(Page1!$H$8:$H$37, COLUMN(Y5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="307" cm="1">
+      <c r="Z5" s="126" cm="1">
         <f t="array" ref="Z5">INDEX(Page1!$H$8:$H$37, COLUMN(Z5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="307" cm="1">
+      <c r="AA5" s="126" cm="1">
         <f t="array" ref="AA5">INDEX(Page1!$H$8:$H$37, COLUMN(AA5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="307" cm="1">
+      <c r="AB5" s="126" cm="1">
         <f t="array" ref="AB5">INDEX(Page1!$H$8:$H$37, COLUMN(AB5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="307" cm="1">
+      <c r="AC5" s="126" cm="1">
         <f t="array" ref="AC5">INDEX(Page1!$H$8:$H$37, COLUMN(AC5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="307" cm="1">
+      <c r="AD5" s="126" cm="1">
         <f t="array" ref="AD5">INDEX(Page1!$H$8:$H$37, COLUMN(AD5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="307" cm="1">
+      <c r="AE5" s="126" cm="1">
         <f t="array" ref="AE5">INDEX(Page1!$H$8:$H$37, COLUMN(AE5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="307" cm="1">
+      <c r="AF5" s="126" cm="1">
         <f t="array" ref="AF5">INDEX(Page1!$H$8:$H$37, COLUMN(AF5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="307" cm="1">
+      <c r="AG5" s="126" cm="1">
         <f t="array" ref="AG5">INDEX(Page1!$H$8:$H$37, COLUMN(AG5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="307" cm="1">
+      <c r="AH5" s="126" cm="1">
         <f t="array" ref="AH5">INDEX(Page1!$H$8:$H$37, COLUMN(AH5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="307" cm="1">
+      <c r="AI5" s="126" cm="1">
         <f t="array" ref="AI5">INDEX(Page1!$H$8:$H$37, COLUMN(AI5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="307" cm="1">
+      <c r="AJ5" s="126" cm="1">
         <f t="array" ref="AJ5">INDEX(Page1!$H$8:$H$37, COLUMN(AJ5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="307" cm="1">
+      <c r="AK5" s="126" cm="1">
         <f t="array" ref="AK5">INDEX(Page1!$H$8:$H$37, COLUMN(AK5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="307" cm="1">
+      <c r="AL5" s="126" cm="1">
         <f t="array" ref="AL5">INDEX(Page1!$H$8:$H$37, COLUMN(AL5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="307" cm="1">
+      <c r="AM5" s="126" cm="1">
         <f t="array" ref="AM5">INDEX(Page1!$H$8:$H$37, COLUMN(AM5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="307" cm="1">
+      <c r="AN5" s="126" cm="1">
         <f t="array" ref="AN5">INDEX(Page1!$H$8:$H$37, COLUMN(AN5)-10)</f>
         <v>0</v>
       </c>
@@ -16830,147 +16833,147 @@
         <v>4</v>
       </c>
       <c r="B6" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="90" t="s">
+      <c r="G6" s="91" t="s">
         <v>117</v>
-      </c>
-      <c r="G6" s="91" t="s">
-        <v>118</v>
       </c>
       <c r="H6" s="91"/>
       <c r="I6" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" s="306" cm="1">
+        <v>103</v>
+      </c>
+      <c r="K6" s="125" cm="1">
         <f t="array" ref="K6">INDEX(Page1!$N$8:$N$37, COLUMN(K6)-10)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="306" cm="1">
+      <c r="L6" s="125" cm="1">
         <f t="array" ref="L6">INDEX(Page1!$N$8:$N$37, COLUMN(L6)-10)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="306" cm="1">
+      <c r="M6" s="125" cm="1">
         <f t="array" ref="M6">INDEX(Page1!$N$8:$N$37, COLUMN(M6)-10)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="306" cm="1">
+      <c r="N6" s="125" cm="1">
         <f t="array" ref="N6">INDEX(Page1!$N$8:$N$37, COLUMN(N6)-10)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="306" cm="1">
+      <c r="O6" s="125" cm="1">
         <f t="array" ref="O6">INDEX(Page1!$N$8:$N$37, COLUMN(O6)-10)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="306" cm="1">
+      <c r="P6" s="125" cm="1">
         <f t="array" ref="P6">INDEX(Page1!$N$8:$N$37, COLUMN(P6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="306" cm="1">
+      <c r="Q6" s="125" cm="1">
         <f t="array" ref="Q6">INDEX(Page1!$N$8:$N$37, COLUMN(Q6)-10)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="306" cm="1">
+      <c r="R6" s="125" cm="1">
         <f t="array" ref="R6">INDEX(Page1!$N$8:$N$37, COLUMN(R6)-10)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="306" cm="1">
+      <c r="S6" s="125" cm="1">
         <f t="array" ref="S6">INDEX(Page1!$N$8:$N$37, COLUMN(S6)-10)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="306" cm="1">
+      <c r="T6" s="125" cm="1">
         <f t="array" ref="T6">INDEX(Page1!$N$8:$N$37, COLUMN(T6)-10)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="306" cm="1">
+      <c r="U6" s="125" cm="1">
         <f t="array" ref="U6">INDEX(Page1!$N$8:$N$37, COLUMN(U6)-10)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="306" cm="1">
+      <c r="V6" s="125" cm="1">
         <f t="array" ref="V6">INDEX(Page1!$N$8:$N$37, COLUMN(V6)-10)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="306" cm="1">
+      <c r="W6" s="125" cm="1">
         <f t="array" ref="W6">INDEX(Page1!$N$8:$N$37, COLUMN(W6)-10)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="306" cm="1">
+      <c r="X6" s="125" cm="1">
         <f t="array" ref="X6">INDEX(Page1!$N$8:$N$37, COLUMN(X6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="306" cm="1">
+      <c r="Y6" s="125" cm="1">
         <f t="array" ref="Y6">INDEX(Page1!$N$8:$N$37, COLUMN(Y6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="306" cm="1">
+      <c r="Z6" s="125" cm="1">
         <f t="array" ref="Z6">INDEX(Page1!$N$8:$N$37, COLUMN(Z6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="306" cm="1">
+      <c r="AA6" s="125" cm="1">
         <f t="array" ref="AA6">INDEX(Page1!$N$8:$N$37, COLUMN(AA6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="306" cm="1">
+      <c r="AB6" s="125" cm="1">
         <f t="array" ref="AB6">INDEX(Page1!$N$8:$N$37, COLUMN(AB6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="306" cm="1">
+      <c r="AC6" s="125" cm="1">
         <f t="array" ref="AC6">INDEX(Page1!$N$8:$N$37, COLUMN(AC6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="306" cm="1">
+      <c r="AD6" s="125" cm="1">
         <f t="array" ref="AD6">INDEX(Page1!$N$8:$N$37, COLUMN(AD6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="306" cm="1">
+      <c r="AE6" s="125" cm="1">
         <f t="array" ref="AE6">INDEX(Page1!$N$8:$N$37, COLUMN(AE6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="306" cm="1">
+      <c r="AF6" s="125" cm="1">
         <f t="array" ref="AF6">INDEX(Page1!$N$8:$N$37, COLUMN(AF6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="306" cm="1">
+      <c r="AG6" s="125" cm="1">
         <f t="array" ref="AG6">INDEX(Page1!$N$8:$N$37, COLUMN(AG6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="306" cm="1">
+      <c r="AH6" s="125" cm="1">
         <f t="array" ref="AH6">INDEX(Page1!$N$8:$N$37, COLUMN(AH6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="306" cm="1">
+      <c r="AI6" s="125" cm="1">
         <f t="array" ref="AI6">INDEX(Page1!$N$8:$N$37, COLUMN(AI6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="306" cm="1">
+      <c r="AJ6" s="125" cm="1">
         <f t="array" ref="AJ6">INDEX(Page1!$N$8:$N$37, COLUMN(AJ6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="306" cm="1">
+      <c r="AK6" s="125" cm="1">
         <f t="array" ref="AK6">INDEX(Page1!$N$8:$N$37, COLUMN(AK6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="306" cm="1">
+      <c r="AL6" s="125" cm="1">
         <f t="array" ref="AL6">INDEX(Page1!$N$8:$N$37, COLUMN(AL6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="306" cm="1">
+      <c r="AM6" s="125" cm="1">
         <f t="array" ref="AM6">INDEX(Page1!$N$8:$N$37, COLUMN(AM6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="306" cm="1">
+      <c r="AN6" s="125" cm="1">
         <f t="array" ref="AN6">INDEX(Page1!$N$8:$N$37, COLUMN(AN6)-10)</f>
         <v>0</v>
       </c>
@@ -17004,149 +17007,149 @@
         <v>5</v>
       </c>
       <c r="B7" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="90" t="s">
+      <c r="E7" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="91" t="s">
+      <c r="H7" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="91" t="s">
+      <c r="I7" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="91" t="s">
+      <c r="J7" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" s="306" cm="1">
+      <c r="K7" s="125" cm="1">
         <f t="array" ref="K7">INDEX(Page1!$D$8:$D$37, COLUMN(K7)-10)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="306" cm="1">
+      <c r="L7" s="125" cm="1">
         <f t="array" ref="L7">INDEX(Page1!$D$8:$D$37, COLUMN(L7)-10)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="306" cm="1">
+      <c r="M7" s="125" cm="1">
         <f t="array" ref="M7">INDEX(Page1!$D$8:$D$37, COLUMN(M7)-10)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="306" cm="1">
+      <c r="N7" s="125" cm="1">
         <f t="array" ref="N7">INDEX(Page1!$D$8:$D$37, COLUMN(N7)-10)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="306" cm="1">
+      <c r="O7" s="125" cm="1">
         <f t="array" ref="O7">INDEX(Page1!$D$8:$D$37, COLUMN(O7)-10)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="306" cm="1">
+      <c r="P7" s="125" cm="1">
         <f t="array" ref="P7">INDEX(Page1!$D$8:$D$37, COLUMN(P7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="306" cm="1">
+      <c r="Q7" s="125" cm="1">
         <f t="array" ref="Q7">INDEX(Page1!$D$8:$D$37, COLUMN(Q7)-10)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="306" cm="1">
+      <c r="R7" s="125" cm="1">
         <f t="array" ref="R7">INDEX(Page1!$D$8:$D$37, COLUMN(R7)-10)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="306" cm="1">
+      <c r="S7" s="125" cm="1">
         <f t="array" ref="S7">INDEX(Page1!$D$8:$D$37, COLUMN(S7)-10)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="306" cm="1">
+      <c r="T7" s="125" cm="1">
         <f t="array" ref="T7">INDEX(Page1!$D$8:$D$37, COLUMN(T7)-10)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="306" cm="1">
+      <c r="U7" s="125" cm="1">
         <f t="array" ref="U7">INDEX(Page1!$D$8:$D$37, COLUMN(U7)-10)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="306" cm="1">
+      <c r="V7" s="125" cm="1">
         <f t="array" ref="V7">INDEX(Page1!$D$8:$D$37, COLUMN(V7)-10)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="306" cm="1">
+      <c r="W7" s="125" cm="1">
         <f t="array" ref="W7">INDEX(Page1!$D$8:$D$37, COLUMN(W7)-10)</f>
         <v>0</v>
       </c>
-      <c r="X7" s="306" cm="1">
+      <c r="X7" s="125" cm="1">
         <f t="array" ref="X7">INDEX(Page1!$D$8:$D$37, COLUMN(X7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="306" cm="1">
+      <c r="Y7" s="125" cm="1">
         <f t="array" ref="Y7">INDEX(Page1!$D$8:$D$37, COLUMN(Y7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="306" cm="1">
+      <c r="Z7" s="125" cm="1">
         <f t="array" ref="Z7">INDEX(Page1!$D$8:$D$37, COLUMN(Z7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="306" cm="1">
+      <c r="AA7" s="125" cm="1">
         <f t="array" ref="AA7">INDEX(Page1!$D$8:$D$37, COLUMN(AA7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="306" cm="1">
+      <c r="AB7" s="125" cm="1">
         <f t="array" ref="AB7">INDEX(Page1!$D$8:$D$37, COLUMN(AB7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="306" cm="1">
+      <c r="AC7" s="125" cm="1">
         <f t="array" ref="AC7">INDEX(Page1!$D$8:$D$37, COLUMN(AC7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="306" cm="1">
+      <c r="AD7" s="125" cm="1">
         <f t="array" ref="AD7">INDEX(Page1!$D$8:$D$37, COLUMN(AD7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="306" cm="1">
+      <c r="AE7" s="125" cm="1">
         <f t="array" ref="AE7">INDEX(Page1!$D$8:$D$37, COLUMN(AE7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="306" cm="1">
+      <c r="AF7" s="125" cm="1">
         <f t="array" ref="AF7">INDEX(Page1!$D$8:$D$37, COLUMN(AF7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="306" cm="1">
+      <c r="AG7" s="125" cm="1">
         <f t="array" ref="AG7">INDEX(Page1!$D$8:$D$37, COLUMN(AG7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="306" cm="1">
+      <c r="AH7" s="125" cm="1">
         <f t="array" ref="AH7">INDEX(Page1!$D$8:$D$37, COLUMN(AH7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="306" cm="1">
+      <c r="AI7" s="125" cm="1">
         <f t="array" ref="AI7">INDEX(Page1!$D$8:$D$37, COLUMN(AI7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ7" s="306" cm="1">
+      <c r="AJ7" s="125" cm="1">
         <f t="array" ref="AJ7">INDEX(Page1!$D$8:$D$37, COLUMN(AJ7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK7" s="306" cm="1">
+      <c r="AK7" s="125" cm="1">
         <f t="array" ref="AK7">INDEX(Page1!$D$8:$D$37, COLUMN(AK7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL7" s="306" cm="1">
+      <c r="AL7" s="125" cm="1">
         <f t="array" ref="AL7">INDEX(Page1!$D$8:$D$37, COLUMN(AL7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="306" cm="1">
+      <c r="AM7" s="125" cm="1">
         <f t="array" ref="AM7">INDEX(Page1!$D$8:$D$37, COLUMN(AM7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN7" s="306" cm="1">
+      <c r="AN7" s="125" cm="1">
         <f t="array" ref="AN7">INDEX(Page1!$D$8:$D$37, COLUMN(AN7)-10)</f>
         <v>0</v>
       </c>
@@ -17180,149 +17183,149 @@
         <v>6</v>
       </c>
       <c r="B8" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="91" t="s">
+      <c r="H8" s="91" t="s">
         <v>127</v>
-      </c>
-      <c r="H8" s="91" t="s">
-        <v>128</v>
       </c>
       <c r="I8" s="91" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="K8" s="305" t="e" cm="1">
+        <v>124</v>
+      </c>
+      <c r="K8" s="124" t="e" cm="1">
         <f t="array" ref="K8">INDEX(Page3!$G$9:$G$38, COLUMN(K8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="305" t="e" cm="1">
+      <c r="L8" s="124" t="e" cm="1">
         <f t="array" ref="L8">INDEX(Page3!$G$9:$G$38, COLUMN(L8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="305" t="e" cm="1">
+      <c r="M8" s="124" t="e" cm="1">
         <f t="array" ref="M8">INDEX(Page3!$G$9:$G$38, COLUMN(M8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="305" t="e" cm="1">
+      <c r="N8" s="124" t="e" cm="1">
         <f t="array" ref="N8">INDEX(Page3!$G$9:$G$38, COLUMN(N8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="305" t="e" cm="1">
+      <c r="O8" s="124" t="e" cm="1">
         <f t="array" ref="O8">INDEX(Page3!$G$9:$G$38, COLUMN(O8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="305" t="e" cm="1">
+      <c r="P8" s="124" t="e" cm="1">
         <f t="array" ref="P8">INDEX(Page3!$G$9:$G$38, COLUMN(P8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="305" t="e" cm="1">
+      <c r="Q8" s="124" t="e" cm="1">
         <f t="array" ref="Q8">INDEX(Page3!$G$9:$G$38, COLUMN(Q8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R8" s="305" t="e" cm="1">
+      <c r="R8" s="124" t="e" cm="1">
         <f t="array" ref="R8">INDEX(Page3!$G$9:$G$38, COLUMN(R8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S8" s="305" t="e" cm="1">
+      <c r="S8" s="124" t="e" cm="1">
         <f t="array" ref="S8">INDEX(Page3!$G$9:$G$38, COLUMN(S8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T8" s="305" t="e" cm="1">
+      <c r="T8" s="124" t="e" cm="1">
         <f t="array" ref="T8">INDEX(Page3!$G$9:$G$38, COLUMN(T8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="305" t="e" cm="1">
+      <c r="U8" s="124" t="e" cm="1">
         <f t="array" ref="U8">INDEX(Page3!$G$9:$G$38, COLUMN(U8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V8" s="305" t="e" cm="1">
+      <c r="V8" s="124" t="e" cm="1">
         <f t="array" ref="V8">INDEX(Page3!$G$9:$G$38, COLUMN(V8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W8" s="305" t="e" cm="1">
+      <c r="W8" s="124" t="e" cm="1">
         <f t="array" ref="W8">INDEX(Page3!$G$9:$G$38, COLUMN(W8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X8" s="305" t="e" cm="1">
+      <c r="X8" s="124" t="e" cm="1">
         <f t="array" ref="X8">INDEX(Page3!$G$9:$G$38, COLUMN(X8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y8" s="305" t="e" cm="1">
+      <c r="Y8" s="124" t="e" cm="1">
         <f t="array" ref="Y8">INDEX(Page3!$G$9:$G$38, COLUMN(Y8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z8" s="305" t="e" cm="1">
+      <c r="Z8" s="124" t="e" cm="1">
         <f t="array" ref="Z8">INDEX(Page3!$G$9:$G$38, COLUMN(Z8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA8" s="305" t="e" cm="1">
+      <c r="AA8" s="124" t="e" cm="1">
         <f t="array" ref="AA8">INDEX(Page3!$G$9:$G$38, COLUMN(AA8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB8" s="305" t="e" cm="1">
+      <c r="AB8" s="124" t="e" cm="1">
         <f t="array" ref="AB8">INDEX(Page3!$G$9:$G$38, COLUMN(AB8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="305" t="e" cm="1">
+      <c r="AC8" s="124" t="e" cm="1">
         <f t="array" ref="AC8">INDEX(Page3!$G$9:$G$38, COLUMN(AC8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="305" t="e" cm="1">
+      <c r="AD8" s="124" t="e" cm="1">
         <f t="array" ref="AD8">INDEX(Page3!$G$9:$G$38, COLUMN(AD8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE8" s="305" t="e" cm="1">
+      <c r="AE8" s="124" t="e" cm="1">
         <f t="array" ref="AE8">INDEX(Page3!$G$9:$G$38, COLUMN(AE8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF8" s="305" t="e" cm="1">
+      <c r="AF8" s="124" t="e" cm="1">
         <f t="array" ref="AF8">INDEX(Page3!$G$9:$G$38, COLUMN(AF8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG8" s="305" t="e" cm="1">
+      <c r="AG8" s="124" t="e" cm="1">
         <f t="array" ref="AG8">INDEX(Page3!$G$9:$G$38, COLUMN(AG8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH8" s="305" t="e" cm="1">
+      <c r="AH8" s="124" t="e" cm="1">
         <f t="array" ref="AH8">INDEX(Page3!$G$9:$G$38, COLUMN(AH8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI8" s="305" t="e" cm="1">
+      <c r="AI8" s="124" t="e" cm="1">
         <f t="array" ref="AI8">INDEX(Page3!$G$9:$G$38, COLUMN(AI8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ8" s="305" t="e" cm="1">
+      <c r="AJ8" s="124" t="e" cm="1">
         <f t="array" ref="AJ8">INDEX(Page3!$G$9:$G$38, COLUMN(AJ8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK8" s="305" t="e" cm="1">
+      <c r="AK8" s="124" t="e" cm="1">
         <f t="array" ref="AK8">INDEX(Page3!$G$9:$G$38, COLUMN(AK8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL8" s="305" t="e" cm="1">
+      <c r="AL8" s="124" t="e" cm="1">
         <f t="array" ref="AL8">INDEX(Page3!$G$9:$G$38, COLUMN(AL8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM8" s="305" t="e" cm="1">
+      <c r="AM8" s="124" t="e" cm="1">
         <f t="array" ref="AM8">INDEX(Page3!$G$9:$G$38, COLUMN(AM8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN8" s="305" t="e" cm="1">
+      <c r="AN8" s="124" t="e" cm="1">
         <f t="array" ref="AN8">INDEX(Page3!$G$9:$G$38, COLUMN(AN8)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17356,149 +17359,149 @@
         <v>7</v>
       </c>
       <c r="B9" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="91" t="s">
+      <c r="H9" s="91" t="s">
         <v>130</v>
-      </c>
-      <c r="H9" s="91" t="s">
-        <v>131</v>
       </c>
       <c r="I9" s="91" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="K9" s="305" t="e" cm="1">
+        <v>124</v>
+      </c>
+      <c r="K9" s="124" t="e" cm="1">
         <f t="array" ref="K9">INDEX(Page2!$G$9:$G$38, COLUMN(K9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="305" t="e" cm="1">
+      <c r="L9" s="124" t="e" cm="1">
         <f t="array" ref="L9">INDEX(Page2!$G$9:$G$38, COLUMN(L9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="305" t="e" cm="1">
+      <c r="M9" s="124" t="e" cm="1">
         <f t="array" ref="M9">INDEX(Page2!$G$9:$G$38, COLUMN(M9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="305" t="e" cm="1">
+      <c r="N9" s="124" t="e" cm="1">
         <f t="array" ref="N9">INDEX(Page2!$G$9:$G$38, COLUMN(N9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="305" t="e" cm="1">
+      <c r="O9" s="124" t="e" cm="1">
         <f t="array" ref="O9">INDEX(Page2!$G$9:$G$38, COLUMN(O9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P9" s="305" t="e" cm="1">
+      <c r="P9" s="124" t="e" cm="1">
         <f t="array" ref="P9">INDEX(Page2!$G$9:$G$38, COLUMN(P9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q9" s="305" t="e" cm="1">
+      <c r="Q9" s="124" t="e" cm="1">
         <f t="array" ref="Q9">INDEX(Page2!$G$9:$G$38, COLUMN(Q9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R9" s="305" t="e" cm="1">
+      <c r="R9" s="124" t="e" cm="1">
         <f t="array" ref="R9">INDEX(Page2!$G$9:$G$38, COLUMN(R9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S9" s="305" t="e" cm="1">
+      <c r="S9" s="124" t="e" cm="1">
         <f t="array" ref="S9">INDEX(Page2!$G$9:$G$38, COLUMN(S9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T9" s="305" t="e" cm="1">
+      <c r="T9" s="124" t="e" cm="1">
         <f t="array" ref="T9">INDEX(Page2!$G$9:$G$38, COLUMN(T9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U9" s="305" t="e" cm="1">
+      <c r="U9" s="124" t="e" cm="1">
         <f t="array" ref="U9">INDEX(Page2!$G$9:$G$38, COLUMN(U9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V9" s="305" t="e" cm="1">
+      <c r="V9" s="124" t="e" cm="1">
         <f t="array" ref="V9">INDEX(Page2!$G$9:$G$38, COLUMN(V9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W9" s="305" t="e" cm="1">
+      <c r="W9" s="124" t="e" cm="1">
         <f t="array" ref="W9">INDEX(Page2!$G$9:$G$38, COLUMN(W9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X9" s="305" t="e" cm="1">
+      <c r="X9" s="124" t="e" cm="1">
         <f t="array" ref="X9">INDEX(Page2!$G$9:$G$38, COLUMN(X9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y9" s="305" t="e" cm="1">
+      <c r="Y9" s="124" t="e" cm="1">
         <f t="array" ref="Y9">INDEX(Page2!$G$9:$G$38, COLUMN(Y9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z9" s="305" t="e" cm="1">
+      <c r="Z9" s="124" t="e" cm="1">
         <f t="array" ref="Z9">INDEX(Page2!$G$9:$G$38, COLUMN(Z9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA9" s="305" t="e" cm="1">
+      <c r="AA9" s="124" t="e" cm="1">
         <f t="array" ref="AA9">INDEX(Page2!$G$9:$G$38, COLUMN(AA9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB9" s="305" t="e" cm="1">
+      <c r="AB9" s="124" t="e" cm="1">
         <f t="array" ref="AB9">INDEX(Page2!$G$9:$G$38, COLUMN(AB9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC9" s="305" t="e" cm="1">
+      <c r="AC9" s="124" t="e" cm="1">
         <f t="array" ref="AC9">INDEX(Page2!$G$9:$G$38, COLUMN(AC9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="305" t="e" cm="1">
+      <c r="AD9" s="124" t="e" cm="1">
         <f t="array" ref="AD9">INDEX(Page2!$G$9:$G$38, COLUMN(AD9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE9" s="305" t="e" cm="1">
+      <c r="AE9" s="124" t="e" cm="1">
         <f t="array" ref="AE9">INDEX(Page2!$G$9:$G$38, COLUMN(AE9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF9" s="305" t="e" cm="1">
+      <c r="AF9" s="124" t="e" cm="1">
         <f t="array" ref="AF9">INDEX(Page2!$G$9:$G$38, COLUMN(AF9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG9" s="305" t="e" cm="1">
+      <c r="AG9" s="124" t="e" cm="1">
         <f t="array" ref="AG9">INDEX(Page2!$G$9:$G$38, COLUMN(AG9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH9" s="305" t="e" cm="1">
+      <c r="AH9" s="124" t="e" cm="1">
         <f t="array" ref="AH9">INDEX(Page2!$G$9:$G$38, COLUMN(AH9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI9" s="305" t="e" cm="1">
+      <c r="AI9" s="124" t="e" cm="1">
         <f t="array" ref="AI9">INDEX(Page2!$G$9:$G$38, COLUMN(AI9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ9" s="305" t="e" cm="1">
+      <c r="AJ9" s="124" t="e" cm="1">
         <f t="array" ref="AJ9">INDEX(Page2!$G$9:$G$38, COLUMN(AJ9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK9" s="305" t="e" cm="1">
+      <c r="AK9" s="124" t="e" cm="1">
         <f t="array" ref="AK9">INDEX(Page2!$G$9:$G$38, COLUMN(AK9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL9" s="305" t="e" cm="1">
+      <c r="AL9" s="124" t="e" cm="1">
         <f t="array" ref="AL9">INDEX(Page2!$G$9:$G$38, COLUMN(AL9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM9" s="305" t="e" cm="1">
+      <c r="AM9" s="124" t="e" cm="1">
         <f t="array" ref="AM9">INDEX(Page2!$G$9:$G$38, COLUMN(AM9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN9" s="305" t="e" cm="1">
+      <c r="AN9" s="124" t="e" cm="1">
         <f t="array" ref="AN9">INDEX(Page2!$G$9:$G$38, COLUMN(AN9)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17532,149 +17535,149 @@
         <v>8</v>
       </c>
       <c r="B10" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="90" t="s">
+      <c r="E10" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="90" t="s">
+      <c r="H10" s="91" t="s">
         <v>108</v>
-      </c>
-      <c r="G10" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="91" t="s">
-        <v>109</v>
       </c>
       <c r="I10" s="91" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="K10" s="307" t="e" cm="1">
+        <v>124</v>
+      </c>
+      <c r="K10" s="126" t="e" cm="1">
         <f t="array" ref="K10">INDEX(Page2!$K$9:$K$38, COLUMN(K10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="307" t="e" cm="1">
+      <c r="L10" s="126" t="e" cm="1">
         <f t="array" ref="L10">INDEX(Page2!$K$9:$K$38, COLUMN(L10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="307" t="e" cm="1">
+      <c r="M10" s="126" t="e" cm="1">
         <f t="array" ref="M10">INDEX(Page2!$K$9:$K$38, COLUMN(M10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="307" t="e" cm="1">
+      <c r="N10" s="126" t="e" cm="1">
         <f t="array" ref="N10">INDEX(Page2!$K$9:$K$38, COLUMN(N10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="307" t="e" cm="1">
+      <c r="O10" s="126" t="e" cm="1">
         <f t="array" ref="O10">INDEX(Page2!$K$9:$K$38, COLUMN(O10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P10" s="307" t="e" cm="1">
+      <c r="P10" s="126" t="e" cm="1">
         <f t="array" ref="P10">INDEX(Page2!$K$9:$K$38, COLUMN(P10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="307" t="e" cm="1">
+      <c r="Q10" s="126" t="e" cm="1">
         <f t="array" ref="Q10">INDEX(Page2!$K$9:$K$38, COLUMN(Q10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R10" s="307" t="e" cm="1">
+      <c r="R10" s="126" t="e" cm="1">
         <f t="array" ref="R10">INDEX(Page2!$K$9:$K$38, COLUMN(R10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="307" t="e" cm="1">
+      <c r="S10" s="126" t="e" cm="1">
         <f t="array" ref="S10">INDEX(Page2!$K$9:$K$38, COLUMN(S10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T10" s="307" t="e" cm="1">
+      <c r="T10" s="126" t="e" cm="1">
         <f t="array" ref="T10">INDEX(Page2!$K$9:$K$38, COLUMN(T10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U10" s="307" t="e" cm="1">
+      <c r="U10" s="126" t="e" cm="1">
         <f t="array" ref="U10">INDEX(Page2!$K$9:$K$38, COLUMN(U10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V10" s="307" t="e" cm="1">
+      <c r="V10" s="126" t="e" cm="1">
         <f t="array" ref="V10">INDEX(Page2!$K$9:$K$38, COLUMN(V10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W10" s="307" t="e" cm="1">
+      <c r="W10" s="126" t="e" cm="1">
         <f t="array" ref="W10">INDEX(Page2!$K$9:$K$38, COLUMN(W10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X10" s="307" t="e" cm="1">
+      <c r="X10" s="126" t="e" cm="1">
         <f t="array" ref="X10">INDEX(Page2!$K$9:$K$38, COLUMN(X10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y10" s="307" t="e" cm="1">
+      <c r="Y10" s="126" t="e" cm="1">
         <f t="array" ref="Y10">INDEX(Page2!$K$9:$K$38, COLUMN(Y10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z10" s="307" t="e" cm="1">
+      <c r="Z10" s="126" t="e" cm="1">
         <f t="array" ref="Z10">INDEX(Page2!$K$9:$K$38, COLUMN(Z10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA10" s="307" t="e" cm="1">
+      <c r="AA10" s="126" t="e" cm="1">
         <f t="array" ref="AA10">INDEX(Page2!$K$9:$K$38, COLUMN(AA10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB10" s="307" t="e" cm="1">
+      <c r="AB10" s="126" t="e" cm="1">
         <f t="array" ref="AB10">INDEX(Page2!$K$9:$K$38, COLUMN(AB10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC10" s="307" t="e" cm="1">
+      <c r="AC10" s="126" t="e" cm="1">
         <f t="array" ref="AC10">INDEX(Page2!$K$9:$K$38, COLUMN(AC10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="307" t="e" cm="1">
+      <c r="AD10" s="126" t="e" cm="1">
         <f t="array" ref="AD10">INDEX(Page2!$K$9:$K$38, COLUMN(AD10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE10" s="307" t="e" cm="1">
+      <c r="AE10" s="126" t="e" cm="1">
         <f t="array" ref="AE10">INDEX(Page2!$K$9:$K$38, COLUMN(AE10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF10" s="307" t="e" cm="1">
+      <c r="AF10" s="126" t="e" cm="1">
         <f t="array" ref="AF10">INDEX(Page2!$K$9:$K$38, COLUMN(AF10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG10" s="307" t="e" cm="1">
+      <c r="AG10" s="126" t="e" cm="1">
         <f t="array" ref="AG10">INDEX(Page2!$K$9:$K$38, COLUMN(AG10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH10" s="307" t="e" cm="1">
+      <c r="AH10" s="126" t="e" cm="1">
         <f t="array" ref="AH10">INDEX(Page2!$K$9:$K$38, COLUMN(AH10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI10" s="307" t="e" cm="1">
+      <c r="AI10" s="126" t="e" cm="1">
         <f t="array" ref="AI10">INDEX(Page2!$K$9:$K$38, COLUMN(AI10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ10" s="307" t="e" cm="1">
+      <c r="AJ10" s="126" t="e" cm="1">
         <f t="array" ref="AJ10">INDEX(Page2!$K$9:$K$38, COLUMN(AJ10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK10" s="307" t="e" cm="1">
+      <c r="AK10" s="126" t="e" cm="1">
         <f t="array" ref="AK10">INDEX(Page2!$K$9:$K$38, COLUMN(AK10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL10" s="307" t="e" cm="1">
+      <c r="AL10" s="126" t="e" cm="1">
         <f t="array" ref="AL10">INDEX(Page2!$K$9:$K$38, COLUMN(AL10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM10" s="307" t="e" cm="1">
+      <c r="AM10" s="126" t="e" cm="1">
         <f t="array" ref="AM10">INDEX(Page2!$K$9:$K$38, COLUMN(AM10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN10" s="307" t="e" cm="1">
+      <c r="AN10" s="126" t="e" cm="1">
         <f t="array" ref="AN10">INDEX(Page2!$K$9:$K$38, COLUMN(AN10)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17708,149 +17711,149 @@
         <v>9</v>
       </c>
       <c r="B11" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="91" t="s">
         <v>135</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="91" t="s">
-        <v>136</v>
       </c>
       <c r="I11" s="91" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="K11" s="307" t="e" cm="1">
+        <v>124</v>
+      </c>
+      <c r="K11" s="126" t="e" cm="1">
         <f t="array" ref="K11">INDEX(Page3!$K$9:$K$38, COLUMN(K11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="307" t="e" cm="1">
+      <c r="L11" s="126" t="e" cm="1">
         <f t="array" ref="L11">INDEX(Page3!$K$9:$K$38, COLUMN(L11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="307" t="e" cm="1">
+      <c r="M11" s="126" t="e" cm="1">
         <f t="array" ref="M11">INDEX(Page3!$K$9:$K$38, COLUMN(M11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="307" t="e" cm="1">
+      <c r="N11" s="126" t="e" cm="1">
         <f t="array" ref="N11">INDEX(Page3!$K$9:$K$38, COLUMN(N11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="307" t="e" cm="1">
+      <c r="O11" s="126" t="e" cm="1">
         <f t="array" ref="O11">INDEX(Page3!$K$9:$K$38, COLUMN(O11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P11" s="307" t="e" cm="1">
+      <c r="P11" s="126" t="e" cm="1">
         <f t="array" ref="P11">INDEX(Page3!$K$9:$K$38, COLUMN(P11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="307" t="e" cm="1">
+      <c r="Q11" s="126" t="e" cm="1">
         <f t="array" ref="Q11">INDEX(Page3!$K$9:$K$38, COLUMN(Q11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="307" t="e" cm="1">
+      <c r="R11" s="126" t="e" cm="1">
         <f t="array" ref="R11">INDEX(Page3!$K$9:$K$38, COLUMN(R11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="307" t="e" cm="1">
+      <c r="S11" s="126" t="e" cm="1">
         <f t="array" ref="S11">INDEX(Page3!$K$9:$K$38, COLUMN(S11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T11" s="307" t="e" cm="1">
+      <c r="T11" s="126" t="e" cm="1">
         <f t="array" ref="T11">INDEX(Page3!$K$9:$K$38, COLUMN(T11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U11" s="307" t="e" cm="1">
+      <c r="U11" s="126" t="e" cm="1">
         <f t="array" ref="U11">INDEX(Page3!$K$9:$K$38, COLUMN(U11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V11" s="307" t="e" cm="1">
+      <c r="V11" s="126" t="e" cm="1">
         <f t="array" ref="V11">INDEX(Page3!$K$9:$K$38, COLUMN(V11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W11" s="307" t="e" cm="1">
+      <c r="W11" s="126" t="e" cm="1">
         <f t="array" ref="W11">INDEX(Page3!$K$9:$K$38, COLUMN(W11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X11" s="307" t="e" cm="1">
+      <c r="X11" s="126" t="e" cm="1">
         <f t="array" ref="X11">INDEX(Page3!$K$9:$K$38, COLUMN(X11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y11" s="307" t="e" cm="1">
+      <c r="Y11" s="126" t="e" cm="1">
         <f t="array" ref="Y11">INDEX(Page3!$K$9:$K$38, COLUMN(Y11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z11" s="307" t="e" cm="1">
+      <c r="Z11" s="126" t="e" cm="1">
         <f t="array" ref="Z11">INDEX(Page3!$K$9:$K$38, COLUMN(Z11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA11" s="307" t="e" cm="1">
+      <c r="AA11" s="126" t="e" cm="1">
         <f t="array" ref="AA11">INDEX(Page3!$K$9:$K$38, COLUMN(AA11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB11" s="307" t="e" cm="1">
+      <c r="AB11" s="126" t="e" cm="1">
         <f t="array" ref="AB11">INDEX(Page3!$K$9:$K$38, COLUMN(AB11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="307" t="e" cm="1">
+      <c r="AC11" s="126" t="e" cm="1">
         <f t="array" ref="AC11">INDEX(Page3!$K$9:$K$38, COLUMN(AC11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="307" t="e" cm="1">
+      <c r="AD11" s="126" t="e" cm="1">
         <f t="array" ref="AD11">INDEX(Page3!$K$9:$K$38, COLUMN(AD11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE11" s="307" t="e" cm="1">
+      <c r="AE11" s="126" t="e" cm="1">
         <f t="array" ref="AE11">INDEX(Page3!$K$9:$K$38, COLUMN(AE11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF11" s="307" t="e" cm="1">
+      <c r="AF11" s="126" t="e" cm="1">
         <f t="array" ref="AF11">INDEX(Page3!$K$9:$K$38, COLUMN(AF11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG11" s="307" t="e" cm="1">
+      <c r="AG11" s="126" t="e" cm="1">
         <f t="array" ref="AG11">INDEX(Page3!$K$9:$K$38, COLUMN(AG11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH11" s="307" t="e" cm="1">
+      <c r="AH11" s="126" t="e" cm="1">
         <f t="array" ref="AH11">INDEX(Page3!$K$9:$K$38, COLUMN(AH11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI11" s="307" t="e" cm="1">
+      <c r="AI11" s="126" t="e" cm="1">
         <f t="array" ref="AI11">INDEX(Page3!$K$9:$K$38, COLUMN(AI11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ11" s="307" t="e" cm="1">
+      <c r="AJ11" s="126" t="e" cm="1">
         <f t="array" ref="AJ11">INDEX(Page3!$K$9:$K$38, COLUMN(AJ11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK11" s="307" t="e" cm="1">
+      <c r="AK11" s="126" t="e" cm="1">
         <f t="array" ref="AK11">INDEX(Page3!$K$9:$K$38, COLUMN(AK11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL11" s="307" t="e" cm="1">
+      <c r="AL11" s="126" t="e" cm="1">
         <f t="array" ref="AL11">INDEX(Page3!$K$9:$K$38, COLUMN(AL11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM11" s="307" t="e" cm="1">
+      <c r="AM11" s="126" t="e" cm="1">
         <f t="array" ref="AM11">INDEX(Page3!$K$9:$K$38, COLUMN(AM11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN11" s="307" t="e" cm="1">
+      <c r="AN11" s="126" t="e" cm="1">
         <f t="array" ref="AN11">INDEX(Page3!$K$9:$K$38, COLUMN(AN11)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17884,149 +17887,149 @@
         <v>10</v>
       </c>
       <c r="B12" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="91" t="s">
+      <c r="H12" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="91" t="s">
+      <c r="I12" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="91" t="s">
-        <v>140</v>
-      </c>
       <c r="J12" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" s="307" t="e" cm="1">
+        <v>124</v>
+      </c>
+      <c r="K12" s="126" t="e" cm="1">
         <f t="array" ref="K12">INDEX(Page2!$O$9:$O$38, COLUMN(K12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="307" t="e" cm="1">
+      <c r="L12" s="126" t="e" cm="1">
         <f t="array" ref="L12">INDEX(Page2!$O$9:$O$38, COLUMN(L12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="307" t="e" cm="1">
+      <c r="M12" s="126" t="e" cm="1">
         <f t="array" ref="M12">INDEX(Page2!$O$9:$O$38, COLUMN(M12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="307" t="e" cm="1">
+      <c r="N12" s="126" t="e" cm="1">
         <f t="array" ref="N12">INDEX(Page2!$O$9:$O$38, COLUMN(N12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O12" s="307" t="e" cm="1">
+      <c r="O12" s="126" t="e" cm="1">
         <f t="array" ref="O12">INDEX(Page2!$O$9:$O$38, COLUMN(O12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="307" t="e" cm="1">
+      <c r="P12" s="126" t="e" cm="1">
         <f t="array" ref="P12">INDEX(Page2!$O$9:$O$38, COLUMN(P12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q12" s="307" t="e" cm="1">
+      <c r="Q12" s="126" t="e" cm="1">
         <f t="array" ref="Q12">INDEX(Page2!$O$9:$O$38, COLUMN(Q12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R12" s="307" t="e" cm="1">
+      <c r="R12" s="126" t="e" cm="1">
         <f t="array" ref="R12">INDEX(Page2!$O$9:$O$38, COLUMN(R12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S12" s="307" t="e" cm="1">
+      <c r="S12" s="126" t="e" cm="1">
         <f t="array" ref="S12">INDEX(Page2!$O$9:$O$38, COLUMN(S12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T12" s="307" t="e" cm="1">
+      <c r="T12" s="126" t="e" cm="1">
         <f t="array" ref="T12">INDEX(Page2!$O$9:$O$38, COLUMN(T12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U12" s="307" t="e" cm="1">
+      <c r="U12" s="126" t="e" cm="1">
         <f t="array" ref="U12">INDEX(Page2!$O$9:$O$38, COLUMN(U12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V12" s="307" t="e" cm="1">
+      <c r="V12" s="126" t="e" cm="1">
         <f t="array" ref="V12">INDEX(Page2!$O$9:$O$38, COLUMN(V12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W12" s="307" t="e" cm="1">
+      <c r="W12" s="126" t="e" cm="1">
         <f t="array" ref="W12">INDEX(Page2!$O$9:$O$38, COLUMN(W12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X12" s="307" t="e" cm="1">
+      <c r="X12" s="126" t="e" cm="1">
         <f t="array" ref="X12">INDEX(Page2!$O$9:$O$38, COLUMN(X12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y12" s="307" t="e" cm="1">
+      <c r="Y12" s="126" t="e" cm="1">
         <f t="array" ref="Y12">INDEX(Page2!$O$9:$O$38, COLUMN(Y12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z12" s="307" t="e" cm="1">
+      <c r="Z12" s="126" t="e" cm="1">
         <f t="array" ref="Z12">INDEX(Page2!$O$9:$O$38, COLUMN(Z12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA12" s="307" t="e" cm="1">
+      <c r="AA12" s="126" t="e" cm="1">
         <f t="array" ref="AA12">INDEX(Page2!$O$9:$O$38, COLUMN(AA12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB12" s="307" t="e" cm="1">
+      <c r="AB12" s="126" t="e" cm="1">
         <f t="array" ref="AB12">INDEX(Page2!$O$9:$O$38, COLUMN(AB12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="307" t="e" cm="1">
+      <c r="AC12" s="126" t="e" cm="1">
         <f t="array" ref="AC12">INDEX(Page2!$O$9:$O$38, COLUMN(AC12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" s="307" t="e" cm="1">
+      <c r="AD12" s="126" t="e" cm="1">
         <f t="array" ref="AD12">INDEX(Page2!$O$9:$O$38, COLUMN(AD12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE12" s="307" t="e" cm="1">
+      <c r="AE12" s="126" t="e" cm="1">
         <f t="array" ref="AE12">INDEX(Page2!$O$9:$O$38, COLUMN(AE12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF12" s="307" t="e" cm="1">
+      <c r="AF12" s="126" t="e" cm="1">
         <f t="array" ref="AF12">INDEX(Page2!$O$9:$O$38, COLUMN(AF12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG12" s="307" t="e" cm="1">
+      <c r="AG12" s="126" t="e" cm="1">
         <f t="array" ref="AG12">INDEX(Page2!$O$9:$O$38, COLUMN(AG12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH12" s="307" t="e" cm="1">
+      <c r="AH12" s="126" t="e" cm="1">
         <f t="array" ref="AH12">INDEX(Page2!$O$9:$O$38, COLUMN(AH12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="307" t="e" cm="1">
+      <c r="AI12" s="126" t="e" cm="1">
         <f t="array" ref="AI12">INDEX(Page2!$O$9:$O$38, COLUMN(AI12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ12" s="307" t="e" cm="1">
+      <c r="AJ12" s="126" t="e" cm="1">
         <f t="array" ref="AJ12">INDEX(Page2!$O$9:$O$38, COLUMN(AJ12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK12" s="307" t="e" cm="1">
+      <c r="AK12" s="126" t="e" cm="1">
         <f t="array" ref="AK12">INDEX(Page2!$O$9:$O$38, COLUMN(AK12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL12" s="307" t="e" cm="1">
+      <c r="AL12" s="126" t="e" cm="1">
         <f t="array" ref="AL12">INDEX(Page2!$O$9:$O$38, COLUMN(AL12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM12" s="307" t="e" cm="1">
+      <c r="AM12" s="126" t="e" cm="1">
         <f t="array" ref="AM12">INDEX(Page2!$O$9:$O$38, COLUMN(AM12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN12" s="307" t="e" cm="1">
+      <c r="AN12" s="126" t="e" cm="1">
         <f t="array" ref="AN12">INDEX(Page2!$O$9:$O$38, COLUMN(AN12)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -18060,149 +18063,149 @@
         <v>11</v>
       </c>
       <c r="B13" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="90" t="s">
+      <c r="E13" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="90" t="s">
+      <c r="G13" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="91" t="s">
+      <c r="H13" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="H13" s="91" t="s">
+      <c r="I13" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="I13" s="91" t="s">
-        <v>146</v>
-      </c>
       <c r="J13" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="308" cm="1">
+        <v>103</v>
+      </c>
+      <c r="K13" s="127" cm="1">
         <f t="array" ref="K13">INDEX(Page1!$F$8:$F$37, COLUMN(K13)-10)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="308" cm="1">
+      <c r="L13" s="127" cm="1">
         <f t="array" ref="L13">INDEX(Page1!$F$8:$F$37, COLUMN(L13)-10)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="308" cm="1">
+      <c r="M13" s="127" cm="1">
         <f t="array" ref="M13">INDEX(Page1!$F$8:$F$37, COLUMN(M13)-10)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="308" cm="1">
+      <c r="N13" s="127" cm="1">
         <f t="array" ref="N13">INDEX(Page1!$F$8:$F$37, COLUMN(N13)-10)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="308" cm="1">
+      <c r="O13" s="127" cm="1">
         <f t="array" ref="O13">INDEX(Page1!$F$8:$F$37, COLUMN(O13)-10)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="308" cm="1">
+      <c r="P13" s="127" cm="1">
         <f t="array" ref="P13">INDEX(Page1!$F$8:$F$37, COLUMN(P13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="308" cm="1">
+      <c r="Q13" s="127" cm="1">
         <f t="array" ref="Q13">INDEX(Page1!$F$8:$F$37, COLUMN(Q13)-10)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="308" cm="1">
+      <c r="R13" s="127" cm="1">
         <f t="array" ref="R13">INDEX(Page1!$F$8:$F$37, COLUMN(R13)-10)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="308" cm="1">
+      <c r="S13" s="127" cm="1">
         <f t="array" ref="S13">INDEX(Page1!$F$8:$F$37, COLUMN(S13)-10)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="308" cm="1">
+      <c r="T13" s="127" cm="1">
         <f t="array" ref="T13">INDEX(Page1!$F$8:$F$37, COLUMN(T13)-10)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="308" cm="1">
+      <c r="U13" s="127" cm="1">
         <f t="array" ref="U13">INDEX(Page1!$F$8:$F$37, COLUMN(U13)-10)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="308" cm="1">
+      <c r="V13" s="127" cm="1">
         <f t="array" ref="V13">INDEX(Page1!$F$8:$F$37, COLUMN(V13)-10)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="308" cm="1">
+      <c r="W13" s="127" cm="1">
         <f t="array" ref="W13">INDEX(Page1!$F$8:$F$37, COLUMN(W13)-10)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="308" cm="1">
+      <c r="X13" s="127" cm="1">
         <f t="array" ref="X13">INDEX(Page1!$F$8:$F$37, COLUMN(X13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="308" cm="1">
+      <c r="Y13" s="127" cm="1">
         <f t="array" ref="Y13">INDEX(Page1!$F$8:$F$37, COLUMN(Y13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="308" cm="1">
+      <c r="Z13" s="127" cm="1">
         <f t="array" ref="Z13">INDEX(Page1!$F$8:$F$37, COLUMN(Z13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="308" cm="1">
+      <c r="AA13" s="127" cm="1">
         <f t="array" ref="AA13">INDEX(Page1!$F$8:$F$37, COLUMN(AA13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="308" cm="1">
+      <c r="AB13" s="127" cm="1">
         <f t="array" ref="AB13">INDEX(Page1!$F$8:$F$37, COLUMN(AB13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="308" cm="1">
+      <c r="AC13" s="127" cm="1">
         <f t="array" ref="AC13">INDEX(Page1!$F$8:$F$37, COLUMN(AC13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="308" cm="1">
+      <c r="AD13" s="127" cm="1">
         <f t="array" ref="AD13">INDEX(Page1!$F$8:$F$37, COLUMN(AD13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="308" cm="1">
+      <c r="AE13" s="127" cm="1">
         <f t="array" ref="AE13">INDEX(Page1!$F$8:$F$37, COLUMN(AE13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="308" cm="1">
+      <c r="AF13" s="127" cm="1">
         <f t="array" ref="AF13">INDEX(Page1!$F$8:$F$37, COLUMN(AF13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="308" cm="1">
+      <c r="AG13" s="127" cm="1">
         <f t="array" ref="AG13">INDEX(Page1!$F$8:$F$37, COLUMN(AG13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="308" cm="1">
+      <c r="AH13" s="127" cm="1">
         <f t="array" ref="AH13">INDEX(Page1!$F$8:$F$37, COLUMN(AH13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="308" cm="1">
+      <c r="AI13" s="127" cm="1">
         <f t="array" ref="AI13">INDEX(Page1!$F$8:$F$37, COLUMN(AI13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="308" cm="1">
+      <c r="AJ13" s="127" cm="1">
         <f t="array" ref="AJ13">INDEX(Page1!$F$8:$F$37, COLUMN(AJ13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="308" cm="1">
+      <c r="AK13" s="127" cm="1">
         <f t="array" ref="AK13">INDEX(Page1!$F$8:$F$37, COLUMN(AK13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="308" cm="1">
+      <c r="AL13" s="127" cm="1">
         <f t="array" ref="AL13">INDEX(Page1!$F$8:$F$37, COLUMN(AL13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="308" cm="1">
+      <c r="AM13" s="127" cm="1">
         <f t="array" ref="AM13">INDEX(Page1!$F$8:$F$37, COLUMN(AM13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="308" cm="1">
+      <c r="AN13" s="127" cm="1">
         <f t="array" ref="AN13">INDEX(Page1!$F$8:$F$37, COLUMN(AN13)-10)</f>
         <v>0</v>
       </c>
@@ -18236,19 +18239,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>148</v>
-      </c>
       <c r="E14" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="90" t="s">
         <v>107</v>
-      </c>
-      <c r="F14" s="90" t="s">
-        <v>108</v>
       </c>
       <c r="G14" s="101">
         <v>30</v>
@@ -18260,125 +18263,125 @@
         <v>40</v>
       </c>
       <c r="J14" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="K14" s="307" t="e" cm="1">
+        <v>103</v>
+      </c>
+      <c r="K14" s="126" t="e" cm="1">
         <f t="array" ref="K14">INDEX(Page3!$O$9:$O$38, COLUMN(K14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="307" t="e" cm="1">
+      <c r="L14" s="126" t="e" cm="1">
         <f t="array" ref="L14">INDEX(Page3!$O$9:$O$38, COLUMN(L14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="307" t="e" cm="1">
+      <c r="M14" s="126" t="e" cm="1">
         <f t="array" ref="M14">INDEX(Page3!$O$9:$O$38, COLUMN(M14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="307" t="e" cm="1">
+      <c r="N14" s="126" t="e" cm="1">
         <f t="array" ref="N14">INDEX(Page3!$O$9:$O$38, COLUMN(N14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O14" s="307" t="e" cm="1">
+      <c r="O14" s="126" t="e" cm="1">
         <f t="array" ref="O14">INDEX(Page3!$O$9:$O$38, COLUMN(O14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P14" s="307" t="e" cm="1">
+      <c r="P14" s="126" t="e" cm="1">
         <f t="array" ref="P14">INDEX(Page3!$O$9:$O$38, COLUMN(P14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="307" t="e" cm="1">
+      <c r="Q14" s="126" t="e" cm="1">
         <f t="array" ref="Q14">INDEX(Page3!$O$9:$O$38, COLUMN(Q14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R14" s="307" t="e" cm="1">
+      <c r="R14" s="126" t="e" cm="1">
         <f t="array" ref="R14">INDEX(Page3!$O$9:$O$38, COLUMN(R14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S14" s="307" t="e" cm="1">
+      <c r="S14" s="126" t="e" cm="1">
         <f t="array" ref="S14">INDEX(Page3!$O$9:$O$38, COLUMN(S14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T14" s="307" t="e" cm="1">
+      <c r="T14" s="126" t="e" cm="1">
         <f t="array" ref="T14">INDEX(Page3!$O$9:$O$38, COLUMN(T14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U14" s="307" t="e" cm="1">
+      <c r="U14" s="126" t="e" cm="1">
         <f t="array" ref="U14">INDEX(Page3!$O$9:$O$38, COLUMN(U14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V14" s="307" t="e" cm="1">
+      <c r="V14" s="126" t="e" cm="1">
         <f t="array" ref="V14">INDEX(Page3!$O$9:$O$38, COLUMN(V14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W14" s="307" t="e" cm="1">
+      <c r="W14" s="126" t="e" cm="1">
         <f t="array" ref="W14">INDEX(Page3!$O$9:$O$38, COLUMN(W14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X14" s="307" t="e" cm="1">
+      <c r="X14" s="126" t="e" cm="1">
         <f t="array" ref="X14">INDEX(Page3!$O$9:$O$38, COLUMN(X14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y14" s="307" t="e" cm="1">
+      <c r="Y14" s="126" t="e" cm="1">
         <f t="array" ref="Y14">INDEX(Page3!$O$9:$O$38, COLUMN(Y14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z14" s="307" t="e" cm="1">
+      <c r="Z14" s="126" t="e" cm="1">
         <f t="array" ref="Z14">INDEX(Page3!$O$9:$O$38, COLUMN(Z14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA14" s="307" t="e" cm="1">
+      <c r="AA14" s="126" t="e" cm="1">
         <f t="array" ref="AA14">INDEX(Page3!$O$9:$O$38, COLUMN(AA14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB14" s="307" t="e" cm="1">
+      <c r="AB14" s="126" t="e" cm="1">
         <f t="array" ref="AB14">INDEX(Page3!$O$9:$O$38, COLUMN(AB14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC14" s="307" t="e" cm="1">
+      <c r="AC14" s="126" t="e" cm="1">
         <f t="array" ref="AC14">INDEX(Page3!$O$9:$O$38, COLUMN(AC14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="307" t="e" cm="1">
+      <c r="AD14" s="126" t="e" cm="1">
         <f t="array" ref="AD14">INDEX(Page3!$O$9:$O$38, COLUMN(AD14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE14" s="307" t="e" cm="1">
+      <c r="AE14" s="126" t="e" cm="1">
         <f t="array" ref="AE14">INDEX(Page3!$O$9:$O$38, COLUMN(AE14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF14" s="307" t="e" cm="1">
+      <c r="AF14" s="126" t="e" cm="1">
         <f t="array" ref="AF14">INDEX(Page3!$O$9:$O$38, COLUMN(AF14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG14" s="307" t="e" cm="1">
+      <c r="AG14" s="126" t="e" cm="1">
         <f t="array" ref="AG14">INDEX(Page3!$O$9:$O$38, COLUMN(AG14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH14" s="307" t="e" cm="1">
+      <c r="AH14" s="126" t="e" cm="1">
         <f t="array" ref="AH14">INDEX(Page3!$O$9:$O$38, COLUMN(AH14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI14" s="307" t="e" cm="1">
+      <c r="AI14" s="126" t="e" cm="1">
         <f t="array" ref="AI14">INDEX(Page3!$O$9:$O$38, COLUMN(AI14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ14" s="307" t="e" cm="1">
+      <c r="AJ14" s="126" t="e" cm="1">
         <f t="array" ref="AJ14">INDEX(Page3!$O$9:$O$38, COLUMN(AJ14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK14" s="307" t="e" cm="1">
+      <c r="AK14" s="126" t="e" cm="1">
         <f t="array" ref="AK14">INDEX(Page3!$O$9:$O$38, COLUMN(AK14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL14" s="307" t="e" cm="1">
+      <c r="AL14" s="126" t="e" cm="1">
         <f t="array" ref="AL14">INDEX(Page3!$O$9:$O$38, COLUMN(AL14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM14" s="307" t="e" cm="1">
+      <c r="AM14" s="126" t="e" cm="1">
         <f t="array" ref="AM14">INDEX(Page3!$O$9:$O$38, COLUMN(AM14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN14" s="307" t="e" cm="1">
+      <c r="AN14" s="126" t="e" cm="1">
         <f t="array" ref="AN14">INDEX(Page3!$O$9:$O$38, COLUMN(AN14)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -18412,149 +18415,149 @@
         <v>13</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="90" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="H15" s="91" t="s">
+      <c r="I15" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="I15" s="91" t="s">
-        <v>152</v>
-      </c>
       <c r="J15" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" s="306" cm="1">
+        <v>124</v>
+      </c>
+      <c r="K15" s="125" cm="1">
         <f t="array" ref="K15">INDEX(Page1!$J$8:$J$37, COLUMN(K15)-10)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="306" cm="1">
+      <c r="L15" s="125" cm="1">
         <f t="array" ref="L15">INDEX(Page1!$J$8:$J$37, COLUMN(L15)-10)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="306" cm="1">
+      <c r="M15" s="125" cm="1">
         <f t="array" ref="M15">INDEX(Page1!$J$8:$J$37, COLUMN(M15)-10)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="306" cm="1">
+      <c r="N15" s="125" cm="1">
         <f t="array" ref="N15">INDEX(Page1!$J$8:$J$37, COLUMN(N15)-10)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="306" cm="1">
+      <c r="O15" s="125" cm="1">
         <f t="array" ref="O15">INDEX(Page1!$J$8:$J$37, COLUMN(O15)-10)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="306" cm="1">
+      <c r="P15" s="125" cm="1">
         <f t="array" ref="P15">INDEX(Page1!$J$8:$J$37, COLUMN(P15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="306" cm="1">
+      <c r="Q15" s="125" cm="1">
         <f t="array" ref="Q15">INDEX(Page1!$J$8:$J$37, COLUMN(Q15)-10)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="306" cm="1">
+      <c r="R15" s="125" cm="1">
         <f t="array" ref="R15">INDEX(Page1!$J$8:$J$37, COLUMN(R15)-10)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="306" cm="1">
+      <c r="S15" s="125" cm="1">
         <f t="array" ref="S15">INDEX(Page1!$J$8:$J$37, COLUMN(S15)-10)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="306" cm="1">
+      <c r="T15" s="125" cm="1">
         <f t="array" ref="T15">INDEX(Page1!$J$8:$J$37, COLUMN(T15)-10)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="306" cm="1">
+      <c r="U15" s="125" cm="1">
         <f t="array" ref="U15">INDEX(Page1!$J$8:$J$37, COLUMN(U15)-10)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="306" cm="1">
+      <c r="V15" s="125" cm="1">
         <f t="array" ref="V15">INDEX(Page1!$J$8:$J$37, COLUMN(V15)-10)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="306" cm="1">
+      <c r="W15" s="125" cm="1">
         <f t="array" ref="W15">INDEX(Page1!$J$8:$J$37, COLUMN(W15)-10)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="306" cm="1">
+      <c r="X15" s="125" cm="1">
         <f t="array" ref="X15">INDEX(Page1!$J$8:$J$37, COLUMN(X15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="306" cm="1">
+      <c r="Y15" s="125" cm="1">
         <f t="array" ref="Y15">INDEX(Page1!$J$8:$J$37, COLUMN(Y15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="306" cm="1">
+      <c r="Z15" s="125" cm="1">
         <f t="array" ref="Z15">INDEX(Page1!$J$8:$J$37, COLUMN(Z15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="306" cm="1">
+      <c r="AA15" s="125" cm="1">
         <f t="array" ref="AA15">INDEX(Page1!$J$8:$J$37, COLUMN(AA15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="306" cm="1">
+      <c r="AB15" s="125" cm="1">
         <f t="array" ref="AB15">INDEX(Page1!$J$8:$J$37, COLUMN(AB15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="306" cm="1">
+      <c r="AC15" s="125" cm="1">
         <f t="array" ref="AC15">INDEX(Page1!$J$8:$J$37, COLUMN(AC15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="306" cm="1">
+      <c r="AD15" s="125" cm="1">
         <f t="array" ref="AD15">INDEX(Page1!$J$8:$J$37, COLUMN(AD15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="306" cm="1">
+      <c r="AE15" s="125" cm="1">
         <f t="array" ref="AE15">INDEX(Page1!$J$8:$J$37, COLUMN(AE15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="306" cm="1">
+      <c r="AF15" s="125" cm="1">
         <f t="array" ref="AF15">INDEX(Page1!$J$8:$J$37, COLUMN(AF15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="306" cm="1">
+      <c r="AG15" s="125" cm="1">
         <f t="array" ref="AG15">INDEX(Page1!$J$8:$J$37, COLUMN(AG15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="306" cm="1">
+      <c r="AH15" s="125" cm="1">
         <f t="array" ref="AH15">INDEX(Page1!$J$8:$J$37, COLUMN(AH15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="306" cm="1">
+      <c r="AI15" s="125" cm="1">
         <f t="array" ref="AI15">INDEX(Page1!$J$8:$J$37, COLUMN(AI15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="306" cm="1">
+      <c r="AJ15" s="125" cm="1">
         <f t="array" ref="AJ15">INDEX(Page1!$J$8:$J$37, COLUMN(AJ15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="306" cm="1">
+      <c r="AK15" s="125" cm="1">
         <f t="array" ref="AK15">INDEX(Page1!$J$8:$J$37, COLUMN(AK15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="306" cm="1">
+      <c r="AL15" s="125" cm="1">
         <f t="array" ref="AL15">INDEX(Page1!$J$8:$J$37, COLUMN(AL15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="306" cm="1">
+      <c r="AM15" s="125" cm="1">
         <f t="array" ref="AM15">INDEX(Page1!$J$8:$J$37, COLUMN(AM15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="306" cm="1">
+      <c r="AN15" s="125" cm="1">
         <f t="array" ref="AN15">INDEX(Page1!$J$8:$J$37, COLUMN(AN15)-10)</f>
         <v>0</v>
       </c>
@@ -18588,147 +18591,147 @@
         <v>14</v>
       </c>
       <c r="B16" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="97" t="s">
-        <v>154</v>
-      </c>
       <c r="E16" s="90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="91" t="s">
         <v>117</v>
-      </c>
-      <c r="G16" s="91" t="s">
-        <v>118</v>
       </c>
       <c r="H16" s="91"/>
       <c r="I16" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J16" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" s="306" cm="1">
+        <v>103</v>
+      </c>
+      <c r="K16" s="125" cm="1">
         <f t="array" ref="K16">INDEX(Page1!$O$8:$O$37, COLUMN(K16)-10)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="306" cm="1">
+      <c r="L16" s="125" cm="1">
         <f t="array" ref="L16">INDEX(Page1!$O$8:$O$37, COLUMN(L16)-10)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="306" cm="1">
+      <c r="M16" s="125" cm="1">
         <f t="array" ref="M16">INDEX(Page1!$O$8:$O$37, COLUMN(M16)-10)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="306" cm="1">
+      <c r="N16" s="125" cm="1">
         <f t="array" ref="N16">INDEX(Page1!$O$8:$O$37, COLUMN(N16)-10)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="306" cm="1">
+      <c r="O16" s="125" cm="1">
         <f t="array" ref="O16">INDEX(Page1!$O$8:$O$37, COLUMN(O16)-10)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="306" cm="1">
+      <c r="P16" s="125" cm="1">
         <f t="array" ref="P16">INDEX(Page1!$O$8:$O$37, COLUMN(P16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="306" cm="1">
+      <c r="Q16" s="125" cm="1">
         <f t="array" ref="Q16">INDEX(Page1!$O$8:$O$37, COLUMN(Q16)-10)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="306" cm="1">
+      <c r="R16" s="125" cm="1">
         <f t="array" ref="R16">INDEX(Page1!$O$8:$O$37, COLUMN(R16)-10)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="306" cm="1">
+      <c r="S16" s="125" cm="1">
         <f t="array" ref="S16">INDEX(Page1!$O$8:$O$37, COLUMN(S16)-10)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="306" cm="1">
+      <c r="T16" s="125" cm="1">
         <f t="array" ref="T16">INDEX(Page1!$O$8:$O$37, COLUMN(T16)-10)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="306" cm="1">
+      <c r="U16" s="125" cm="1">
         <f t="array" ref="U16">INDEX(Page1!$O$8:$O$37, COLUMN(U16)-10)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="306" cm="1">
+      <c r="V16" s="125" cm="1">
         <f t="array" ref="V16">INDEX(Page1!$O$8:$O$37, COLUMN(V16)-10)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="306" cm="1">
+      <c r="W16" s="125" cm="1">
         <f t="array" ref="W16">INDEX(Page1!$O$8:$O$37, COLUMN(W16)-10)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="306" cm="1">
+      <c r="X16" s="125" cm="1">
         <f t="array" ref="X16">INDEX(Page1!$O$8:$O$37, COLUMN(X16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="306" cm="1">
+      <c r="Y16" s="125" cm="1">
         <f t="array" ref="Y16">INDEX(Page1!$O$8:$O$37, COLUMN(Y16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="306" cm="1">
+      <c r="Z16" s="125" cm="1">
         <f t="array" ref="Z16">INDEX(Page1!$O$8:$O$37, COLUMN(Z16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="306" cm="1">
+      <c r="AA16" s="125" cm="1">
         <f t="array" ref="AA16">INDEX(Page1!$O$8:$O$37, COLUMN(AA16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="306" cm="1">
+      <c r="AB16" s="125" cm="1">
         <f t="array" ref="AB16">INDEX(Page1!$O$8:$O$37, COLUMN(AB16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="306" cm="1">
+      <c r="AC16" s="125" cm="1">
         <f t="array" ref="AC16">INDEX(Page1!$O$8:$O$37, COLUMN(AC16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="306" cm="1">
+      <c r="AD16" s="125" cm="1">
         <f t="array" ref="AD16">INDEX(Page1!$O$8:$O$37, COLUMN(AD16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="306" cm="1">
+      <c r="AE16" s="125" cm="1">
         <f t="array" ref="AE16">INDEX(Page1!$O$8:$O$37, COLUMN(AE16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="306" cm="1">
+      <c r="AF16" s="125" cm="1">
         <f t="array" ref="AF16">INDEX(Page1!$O$8:$O$37, COLUMN(AF16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="306" cm="1">
+      <c r="AG16" s="125" cm="1">
         <f t="array" ref="AG16">INDEX(Page1!$O$8:$O$37, COLUMN(AG16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="306" cm="1">
+      <c r="AH16" s="125" cm="1">
         <f t="array" ref="AH16">INDEX(Page1!$O$8:$O$37, COLUMN(AH16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="306" cm="1">
+      <c r="AI16" s="125" cm="1">
         <f t="array" ref="AI16">INDEX(Page1!$O$8:$O$37, COLUMN(AI16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="306" cm="1">
+      <c r="AJ16" s="125" cm="1">
         <f t="array" ref="AJ16">INDEX(Page1!$O$8:$O$37, COLUMN(AJ16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="306" cm="1">
+      <c r="AK16" s="125" cm="1">
         <f t="array" ref="AK16">INDEX(Page1!$O$8:$O$37, COLUMN(AK16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="306" cm="1">
+      <c r="AL16" s="125" cm="1">
         <f t="array" ref="AL16">INDEX(Page1!$O$8:$O$37, COLUMN(AL16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="306" cm="1">
+      <c r="AM16" s="125" cm="1">
         <f t="array" ref="AM16">INDEX(Page1!$O$8:$O$37, COLUMN(AM16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="306" cm="1">
+      <c r="AN16" s="125" cm="1">
         <f t="array" ref="AN16">INDEX(Page1!$O$8:$O$37, COLUMN(AN16)-10)</f>
         <v>0</v>
       </c>

--- a/backend/templates/168-16cp-kranti.xlsx
+++ b/backend/templates/168-16cp-kranti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878BAC61-D6D0-4DE1-AC1C-16BB0CF947C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE3097C-65E1-40AB-B24E-48C2D23B7B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1858,59 +1858,25 @@
     <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1932,31 +1898,113 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1983,110 +2031,212 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2132,302 +2282,166 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2446,10 +2460,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2458,26 +2468,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4856,8 +4856,8 @@
         <c:axId val="202539392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="18"/>
-          <c:min val="9.5"/>
+          <c:max val="15"/>
+          <c:min val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4869,6 +4869,7 @@
         <c:crossAx val="202537600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5184,7 +5185,8 @@
         <c:axId val="202447104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="6.5"/>
+          <c:max val="15"/>
+          <c:min val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5196,6 +5198,7 @@
         <c:crossAx val="202445568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7989,7 +7992,7 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8001,161 +8004,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="186" t="s">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="186"/>
+      <c r="O1" s="168"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="187" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="187"/>
+      <c r="O2" s="169"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
       <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="177" t="s">
+      <c r="B4" s="159"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="177"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="170"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="29" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="113"/>
-      <c r="L4" s="184" t="s">
+      <c r="L4" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="185"/>
-      <c r="N4" s="174"/>
-      <c r="O4" s="175"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="157"/>
     </row>
     <row r="5" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="179" t="s">
+      <c r="B5" s="161"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="179"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="173"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
       <c r="J5" s="60" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="114"/>
-      <c r="L5" s="182" t="s">
+      <c r="L5" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="183"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="181"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="163"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="189"/>
-      <c r="M6" s="189"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="157"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="178"/>
     </row>
     <row r="7" spans="1:15" s="62" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A7" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="191" t="s">
+      <c r="A7" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="142"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="191"/>
-      <c r="F7" s="191" t="s">
+      <c r="E7" s="142"/>
+      <c r="F7" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="191"/>
-      <c r="H7" s="192" t="s">
+      <c r="G7" s="142"/>
+      <c r="H7" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="194"/>
-      <c r="J7" s="192" t="s">
+      <c r="I7" s="145"/>
+      <c r="J7" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="194"/>
-      <c r="L7" s="191" t="s">
+      <c r="K7" s="145"/>
+      <c r="L7" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="191"/>
+      <c r="M7" s="142"/>
       <c r="N7" s="119" t="s">
         <v>30</v>
       </c>
@@ -8167,16 +8170,16 @@
       <c r="A8" s="55"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="110"/>
       <c r="O8" s="49"/>
     </row>
@@ -8184,16 +8187,16 @@
       <c r="A9" s="55"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
       <c r="N9" s="108"/>
       <c r="O9" s="50"/>
     </row>
@@ -8201,16 +8204,16 @@
       <c r="A10" s="55"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
       <c r="N10" s="108"/>
       <c r="O10" s="50"/>
     </row>
@@ -8218,16 +8221,16 @@
       <c r="A11" s="55"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
       <c r="N11" s="110"/>
       <c r="O11" s="49"/>
     </row>
@@ -8235,16 +8238,16 @@
       <c r="A12" s="55"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
       <c r="N12" s="108"/>
       <c r="O12" s="50"/>
     </row>
@@ -8252,16 +8255,16 @@
       <c r="A13" s="55"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
       <c r="N13" s="108"/>
       <c r="O13" s="50"/>
     </row>
@@ -8269,16 +8272,16 @@
       <c r="A14" s="55"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
       <c r="N14" s="108"/>
       <c r="O14" s="50"/>
     </row>
@@ -8286,16 +8289,16 @@
       <c r="A15" s="55"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="150"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
       <c r="N15" s="108"/>
       <c r="O15" s="50"/>
     </row>
@@ -8303,16 +8306,16 @@
       <c r="A16" s="55"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="150"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
       <c r="N16" s="108"/>
       <c r="O16" s="50"/>
     </row>
@@ -8320,16 +8323,16 @@
       <c r="A17" s="55"/>
       <c r="B17" s="57"/>
       <c r="C17" s="56"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
       <c r="N17" s="108"/>
       <c r="O17" s="50"/>
     </row>
@@ -8337,16 +8340,16 @@
       <c r="A18" s="55"/>
       <c r="B18" s="57"/>
       <c r="C18" s="56"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="150"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
       <c r="N18" s="108"/>
       <c r="O18" s="50"/>
     </row>
@@ -8354,16 +8357,16 @@
       <c r="A19" s="55"/>
       <c r="B19" s="57"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="150"/>
-      <c r="M19" s="150"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
       <c r="N19" s="108"/>
       <c r="O19" s="50"/>
     </row>
@@ -8371,16 +8374,16 @@
       <c r="A20" s="55"/>
       <c r="B20" s="57"/>
       <c r="C20" s="56"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="150"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
       <c r="N20" s="108"/>
       <c r="O20" s="50"/>
     </row>
@@ -8388,16 +8391,16 @@
       <c r="A21" s="55"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
       <c r="N21" s="110"/>
       <c r="O21" s="49"/>
     </row>
@@ -8405,16 +8408,16 @@
       <c r="A22" s="55"/>
       <c r="B22" s="57"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="150"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
       <c r="N22" s="108"/>
       <c r="O22" s="50"/>
     </row>
@@ -8422,16 +8425,16 @@
       <c r="A23" s="55"/>
       <c r="B23" s="57"/>
       <c r="C23" s="56"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
       <c r="N23" s="108"/>
       <c r="O23" s="50"/>
     </row>
@@ -8439,16 +8442,16 @@
       <c r="A24" s="55"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="155"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
       <c r="N24" s="110"/>
       <c r="O24" s="49"/>
     </row>
@@ -8456,16 +8459,16 @@
       <c r="A25" s="55"/>
       <c r="B25" s="57"/>
       <c r="C25" s="56"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
       <c r="N25" s="108"/>
       <c r="O25" s="50"/>
     </row>
@@ -8473,16 +8476,16 @@
       <c r="A26" s="55"/>
       <c r="B26" s="57"/>
       <c r="C26" s="56"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
       <c r="N26" s="108"/>
       <c r="O26" s="50"/>
     </row>
@@ -8490,16 +8493,16 @@
       <c r="A27" s="55"/>
       <c r="B27" s="57"/>
       <c r="C27" s="56"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
       <c r="N27" s="108"/>
       <c r="O27" s="50"/>
     </row>
@@ -8507,16 +8510,16 @@
       <c r="A28" s="55"/>
       <c r="B28" s="57"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
       <c r="N28" s="108"/>
       <c r="O28" s="50"/>
     </row>
@@ -8524,16 +8527,16 @@
       <c r="A29" s="55"/>
       <c r="B29" s="57"/>
       <c r="C29" s="56"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
       <c r="N29" s="108"/>
       <c r="O29" s="50"/>
     </row>
@@ -8541,16 +8544,16 @@
       <c r="A30" s="55"/>
       <c r="B30" s="57"/>
       <c r="C30" s="56"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
       <c r="N30" s="108"/>
       <c r="O30" s="50"/>
     </row>
@@ -8558,16 +8561,16 @@
       <c r="A31" s="55"/>
       <c r="B31" s="57"/>
       <c r="C31" s="56"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="137"/>
       <c r="N31" s="108"/>
       <c r="O31" s="50"/>
     </row>
@@ -8575,16 +8578,16 @@
       <c r="A32" s="55"/>
       <c r="B32" s="57"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="137"/>
       <c r="N32" s="108"/>
       <c r="O32" s="50"/>
     </row>
@@ -8592,16 +8595,16 @@
       <c r="A33" s="55"/>
       <c r="B33" s="57"/>
       <c r="C33" s="56"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="137"/>
+      <c r="M33" s="137"/>
       <c r="N33" s="108"/>
       <c r="O33" s="50"/>
     </row>
@@ -8609,16 +8612,16 @@
       <c r="A34" s="55"/>
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="155"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
       <c r="N34" s="110"/>
       <c r="O34" s="49"/>
     </row>
@@ -8626,16 +8629,16 @@
       <c r="A35" s="55"/>
       <c r="B35" s="57"/>
       <c r="C35" s="56"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="146"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="137"/>
+      <c r="M35" s="137"/>
       <c r="N35" s="108"/>
       <c r="O35" s="50"/>
     </row>
@@ -8643,16 +8646,16 @@
       <c r="A36" s="55"/>
       <c r="B36" s="57"/>
       <c r="C36" s="56"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="146"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="137"/>
+      <c r="M36" s="137"/>
       <c r="N36" s="108"/>
       <c r="O36" s="50"/>
     </row>
@@ -8660,50 +8663,50 @@
       <c r="A37" s="55"/>
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
       <c r="N37" s="110"/>
       <c r="O37" s="49"/>
     </row>
     <row r="38" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="134" t="s">
+      <c r="A38" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="128" t="e">
+      <c r="B38" s="186"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="179" t="e">
         <f>AVERAGE(D8:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="128"/>
-      <c r="F38" s="140" t="e">
+      <c r="E38" s="179"/>
+      <c r="F38" s="191" t="e">
         <f t="shared" ref="F38" si="0">AVERAGE(F8:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="140"/>
-      <c r="H38" s="143" t="e">
+      <c r="G38" s="191"/>
+      <c r="H38" s="194" t="e">
         <f t="shared" ref="H38" si="1">AVERAGE(H8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="143"/>
-      <c r="J38" s="128" t="e">
+      <c r="I38" s="194"/>
+      <c r="J38" s="179" t="e">
         <f t="shared" ref="J38" si="2">AVERAGE(J8:K37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="128"/>
-      <c r="L38" s="131" t="e">
+      <c r="K38" s="179"/>
+      <c r="L38" s="182" t="e">
         <f t="shared" ref="L38" si="3">AVERAGE(L8:M37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="131"/>
+      <c r="M38" s="182"/>
       <c r="N38" s="105" t="e">
         <f>AVERAGE(N8:N37)</f>
         <v>#DIV/0!</v>
@@ -8714,36 +8717,36 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="136" t="s">
+      <c r="A39" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="129">
+      <c r="B39" s="188"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="180">
         <f>MIN(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="129"/>
-      <c r="F39" s="141">
+      <c r="E39" s="180"/>
+      <c r="F39" s="192">
         <f t="shared" ref="F39" si="4">MIN(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="141"/>
-      <c r="H39" s="144">
+      <c r="G39" s="192"/>
+      <c r="H39" s="195">
         <f t="shared" ref="H39" si="5">MIN(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="144"/>
-      <c r="J39" s="129">
+      <c r="I39" s="195"/>
+      <c r="J39" s="180">
         <f t="shared" ref="J39" si="6">MIN(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="129"/>
-      <c r="L39" s="132">
+      <c r="K39" s="180"/>
+      <c r="L39" s="183">
         <f t="shared" ref="L39" si="7">MIN(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="132"/>
+      <c r="M39" s="183"/>
       <c r="N39" s="106">
         <f>MIN(N8:N37)</f>
         <v>0</v>
@@ -8754,36 +8757,36 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="138" t="s">
+      <c r="A40" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="139"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="130">
+      <c r="B40" s="190"/>
+      <c r="C40" s="190"/>
+      <c r="D40" s="181">
         <f>MAX(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="130"/>
-      <c r="F40" s="142">
+      <c r="E40" s="181"/>
+      <c r="F40" s="193">
         <f t="shared" ref="F40" si="8">MAX(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="142"/>
-      <c r="H40" s="145">
+      <c r="G40" s="193"/>
+      <c r="H40" s="196">
         <f t="shared" ref="H40" si="9">MAX(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="145"/>
-      <c r="J40" s="130">
+      <c r="I40" s="196"/>
+      <c r="J40" s="181">
         <f t="shared" ref="J40" si="10">MAX(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="130"/>
-      <c r="L40" s="133">
+      <c r="K40" s="181"/>
+      <c r="L40" s="184">
         <f t="shared" ref="L40" si="11">MAX(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="133"/>
+      <c r="M40" s="184"/>
       <c r="N40" s="107">
         <f>MAX(N8:N37)</f>
         <v>0</v>
@@ -8797,31 +8800,31 @@
       <c r="A41" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="161"/>
-      <c r="C41" s="161"/>
-      <c r="D41" s="164" t="s">
+      <c r="B41" s="173"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="164"/>
+      <c r="E41" s="176"/>
       <c r="F41" s="51"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
-      <c r="K41" s="158" t="s">
+      <c r="K41" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="158"/>
-      <c r="M41" s="160"/>
-      <c r="N41" s="160"/>
+      <c r="L41" s="170"/>
+      <c r="M41" s="172"/>
+      <c r="N41" s="172"/>
       <c r="O41" s="70" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="70"/>
-      <c r="B42" s="165"/>
-      <c r="C42" s="165"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="70"/>
@@ -8831,15 +8834,15 @@
       <c r="J42" s="52"/>
       <c r="K42" s="111"/>
       <c r="L42" s="111"/>
-      <c r="M42" s="160"/>
-      <c r="N42" s="160"/>
+      <c r="M42" s="172"/>
+      <c r="N42" s="172"/>
       <c r="O42" s="111"/>
     </row>
     <row r="43" spans="1:15" s="38" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="162" t="s">
+      <c r="A43" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="162"/>
+      <c r="B43" s="174"/>
       <c r="C43" s="70"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -8847,22 +8850,22 @@
       <c r="G43" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="162" t="s">
+      <c r="H43" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="162"/>
-      <c r="J43" s="162"/>
-      <c r="K43" s="162"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="174"/>
+      <c r="K43" s="174"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="163" t="s">
+      <c r="A44" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="163"/>
+      <c r="B44" s="175"/>
       <c r="C44" s="112"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -8905,49 +8908,241 @@
       <c r="M52" s="54"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="159"/>
-      <c r="D76" s="159"/>
-      <c r="E76" s="159"/>
-      <c r="I76" s="159"/>
-      <c r="J76" s="159"/>
-      <c r="K76" s="159"/>
-      <c r="L76" s="159"/>
-      <c r="M76" s="159"/>
-      <c r="N76" s="159"/>
-      <c r="O76" s="159"/>
+      <c r="C76" s="171"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="171"/>
+      <c r="I76" s="171"/>
+      <c r="J76" s="171"/>
+      <c r="K76" s="171"/>
+      <c r="L76" s="171"/>
+      <c r="M76" s="171"/>
+      <c r="N76" s="171"/>
+      <c r="O76" s="171"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="159"/>
-      <c r="D77" s="159"/>
-      <c r="E77" s="159"/>
-      <c r="F77" s="159"/>
-      <c r="I77" s="159"/>
-      <c r="J77" s="159"/>
-      <c r="K77" s="159"/>
-      <c r="L77" s="159"/>
-      <c r="M77" s="159"/>
-      <c r="N77" s="159"/>
-      <c r="O77" s="159"/>
+      <c r="C77" s="171"/>
+      <c r="D77" s="171"/>
+      <c r="E77" s="171"/>
+      <c r="F77" s="171"/>
+      <c r="I77" s="171"/>
+      <c r="J77" s="171"/>
+      <c r="K77" s="171"/>
+      <c r="L77" s="171"/>
+      <c r="M77" s="171"/>
+      <c r="N77" s="171"/>
+      <c r="O77" s="171"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="159"/>
-      <c r="D78" s="159"/>
-      <c r="E78" s="159"/>
-      <c r="I78" s="159"/>
-      <c r="J78" s="159"/>
-      <c r="K78" s="159"/>
-      <c r="L78" s="159"/>
-      <c r="M78" s="159"/>
-      <c r="N78" s="159"/>
-      <c r="O78" s="159"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="171"/>
+      <c r="E78" s="171"/>
+      <c r="I78" s="171"/>
+      <c r="J78" s="171"/>
+      <c r="K78" s="171"/>
+      <c r="L78" s="171"/>
+      <c r="M78" s="171"/>
+      <c r="N78" s="171"/>
+      <c r="O78" s="171"/>
     </row>
     <row r="79" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C79" s="159"/>
-      <c r="D79" s="159"/>
-      <c r="E79" s="159"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="171"/>
+      <c r="E79" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
@@ -8972,198 +9167,6 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D8:E40">
@@ -9232,7 +9235,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9243,61 +9246,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="186" t="s">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="186"/>
+      <c r="O1" s="168"/>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="187" t="s">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="187"/>
+      <c r="O2" s="169"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="237"/>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -9307,124 +9310,124 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="206">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="184" t="s">
+      <c r="C4" s="207"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="185"/>
-      <c r="G4" s="238">
+      <c r="F4" s="167"/>
+      <c r="G4" s="206">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="240"/>
+      <c r="H4" s="208"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="241">
+      <c r="J4" s="209">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="241"/>
-      <c r="L4" s="177" t="s">
+      <c r="K4" s="209"/>
+      <c r="L4" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="177"/>
-      <c r="N4" s="238">
+      <c r="M4" s="159"/>
+      <c r="N4" s="206">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="242"/>
+      <c r="O4" s="210"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="156">
+      <c r="B5" s="140">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="206" t="s">
+      <c r="C5" s="244"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="207"/>
-      <c r="G5" s="156">
+      <c r="F5" s="246"/>
+      <c r="G5" s="140">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="193"/>
+      <c r="H5" s="144"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="189">
+      <c r="J5" s="139">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="189"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="139"/>
+      <c r="L5" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="204"/>
-      <c r="N5" s="156">
+      <c r="M5" s="243"/>
+      <c r="N5" s="140">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="157"/>
+      <c r="O5" s="178"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="240" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="202"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202"/>
-      <c r="O6" s="203"/>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="242"/>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="211"/>
-      <c r="C7" s="244"/>
-      <c r="D7" s="197" t="s">
+      <c r="A7" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="212"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="236" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="198" t="s">
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="198" t="s">
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="239"/>
+      <c r="L7" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="208"/>
+      <c r="M7" s="238"/>
+      <c r="N7" s="238"/>
+      <c r="O7" s="247"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="245"/>
-      <c r="B8" s="246"/>
-      <c r="C8" s="247"/>
+      <c r="A8" s="214"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="216"/>
       <c r="D8" s="10">
         <v>1</v>
       </c>
@@ -10518,27 +10521,27 @@
       <c r="C39" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="229" t="e">
+      <c r="D39" s="197" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="230"/>
-      <c r="F39" s="230"/>
-      <c r="G39" s="231"/>
-      <c r="H39" s="232" t="e">
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="199"/>
+      <c r="H39" s="200" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="233"/>
-      <c r="J39" s="233"/>
-      <c r="K39" s="234"/>
-      <c r="L39" s="232" t="e">
+      <c r="I39" s="201"/>
+      <c r="J39" s="201"/>
+      <c r="K39" s="202"/>
+      <c r="L39" s="200" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="233"/>
-      <c r="N39" s="233"/>
-      <c r="O39" s="235"/>
+      <c r="M39" s="201"/>
+      <c r="N39" s="201"/>
+      <c r="O39" s="203"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="16"/>
@@ -10546,27 +10549,27 @@
       <c r="C40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="212" t="e">
+      <c r="D40" s="219" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="213"/>
-      <c r="F40" s="213"/>
-      <c r="G40" s="214"/>
-      <c r="H40" s="215" t="e">
+      <c r="E40" s="220"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="221"/>
+      <c r="H40" s="222" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="216"/>
-      <c r="J40" s="216"/>
-      <c r="K40" s="217"/>
-      <c r="L40" s="215" t="e">
+      <c r="I40" s="223"/>
+      <c r="J40" s="223"/>
+      <c r="K40" s="224"/>
+      <c r="L40" s="222" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="216"/>
-      <c r="N40" s="216"/>
-      <c r="O40" s="218"/>
+      <c r="M40" s="223"/>
+      <c r="N40" s="223"/>
+      <c r="O40" s="225"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -10574,57 +10577,57 @@
       <c r="C41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="219" t="e">
+      <c r="D41" s="226" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="220"/>
-      <c r="F41" s="220"/>
-      <c r="G41" s="221"/>
-      <c r="H41" s="222" t="e">
+      <c r="E41" s="227"/>
+      <c r="F41" s="227"/>
+      <c r="G41" s="228"/>
+      <c r="H41" s="229" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="223"/>
-      <c r="J41" s="223"/>
-      <c r="K41" s="224"/>
-      <c r="L41" s="222" t="e">
+      <c r="I41" s="230"/>
+      <c r="J41" s="230"/>
+      <c r="K41" s="231"/>
+      <c r="L41" s="229" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="223"/>
-      <c r="N41" s="223"/>
-      <c r="O41" s="225"/>
+      <c r="M41" s="230"/>
+      <c r="N41" s="230"/>
+      <c r="O41" s="232"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="226"/>
-      <c r="C42" s="226"/>
-      <c r="D42" s="227" t="s">
+      <c r="B42" s="233"/>
+      <c r="C42" s="233"/>
+      <c r="D42" s="234" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="227"/>
-      <c r="F42" s="227"/>
-      <c r="G42" s="227"/>
+      <c r="E42" s="234"/>
+      <c r="F42" s="234"/>
+      <c r="G42" s="234"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="210" t="s">
+      <c r="K42" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="210"/>
-      <c r="M42" s="226"/>
-      <c r="N42" s="226"/>
+      <c r="L42" s="218"/>
+      <c r="M42" s="233"/>
+      <c r="N42" s="233"/>
       <c r="O42" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -10634,15 +10637,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="111"/>
       <c r="L43" s="111"/>
-      <c r="M43" s="228"/>
-      <c r="N43" s="228"/>
+      <c r="M43" s="235"/>
+      <c r="N43" s="235"/>
       <c r="O43" s="111"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="209" t="s">
+      <c r="A44" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="209"/>
+      <c r="B44" s="217"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -10651,23 +10654,23 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="162" t="str">
+      <c r="H44" s="174" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="162"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="174"/>
+      <c r="K44" s="174"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A45" s="209" t="s">
+      <c r="A45" s="217" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="209"/>
+      <c r="B45" s="217"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -10679,13 +10682,38 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="211" t="s">
+      <c r="N45" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="211"/>
+      <c r="O45" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:O39"/>
@@ -10702,31 +10730,6 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
@@ -10763,7 +10766,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10774,61 +10777,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
-      <c r="N1" s="186" t="s">
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="186"/>
+      <c r="O1" s="168"/>
     </row>
     <row r="2" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="187" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="187"/>
+      <c r="O2" s="169"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -10838,124 +10841,124 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="206">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="184" t="s">
+      <c r="C4" s="207"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="185"/>
-      <c r="G4" s="238">
+      <c r="F4" s="167"/>
+      <c r="G4" s="206">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="240"/>
+      <c r="H4" s="208"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="241">
+      <c r="J4" s="209">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="241"/>
-      <c r="L4" s="177" t="s">
+      <c r="K4" s="209"/>
+      <c r="L4" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="177"/>
-      <c r="N4" s="238">
+      <c r="M4" s="159"/>
+      <c r="N4" s="206">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="242"/>
+      <c r="O4" s="210"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="156">
+      <c r="B5" s="140">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="206" t="s">
+      <c r="C5" s="244"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="207"/>
-      <c r="G5" s="156">
+      <c r="F5" s="246"/>
+      <c r="G5" s="140">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="193"/>
+      <c r="H5" s="144"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="189">
+      <c r="J5" s="139">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="189"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="139"/>
+      <c r="L5" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="204"/>
-      <c r="N5" s="156">
+      <c r="M5" s="243"/>
+      <c r="N5" s="140">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="157"/>
+      <c r="O5" s="178"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="189"/>
-      <c r="L6" s="189"/>
-      <c r="M6" s="189"/>
-      <c r="N6" s="189"/>
-      <c r="O6" s="266"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="249"/>
     </row>
     <row r="7" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="267" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="268"/>
-      <c r="C7" s="269"/>
-      <c r="D7" s="273" t="s">
+      <c r="A7" s="250" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="251"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="273"/>
-      <c r="F7" s="273"/>
-      <c r="G7" s="273"/>
-      <c r="H7" s="274" t="s">
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="275"/>
-      <c r="J7" s="275"/>
-      <c r="K7" s="276"/>
-      <c r="L7" s="274" t="s">
+      <c r="I7" s="258"/>
+      <c r="J7" s="258"/>
+      <c r="K7" s="259"/>
+      <c r="L7" s="257" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="275"/>
-      <c r="N7" s="275"/>
-      <c r="O7" s="277"/>
+      <c r="M7" s="258"/>
+      <c r="N7" s="258"/>
+      <c r="O7" s="260"/>
     </row>
     <row r="8" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="270"/>
-      <c r="B8" s="271"/>
-      <c r="C8" s="272"/>
+      <c r="A8" s="253"/>
+      <c r="B8" s="254"/>
+      <c r="C8" s="255"/>
       <c r="D8" s="116">
         <v>1</v>
       </c>
@@ -12049,27 +12052,27 @@
       <c r="C39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="251" t="e">
+      <c r="D39" s="268" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="252"/>
-      <c r="F39" s="252"/>
-      <c r="G39" s="253"/>
-      <c r="H39" s="254" t="e">
+      <c r="E39" s="269"/>
+      <c r="F39" s="269"/>
+      <c r="G39" s="270"/>
+      <c r="H39" s="271" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="255"/>
-      <c r="J39" s="255"/>
-      <c r="K39" s="256"/>
-      <c r="L39" s="254" t="e">
+      <c r="I39" s="272"/>
+      <c r="J39" s="272"/>
+      <c r="K39" s="273"/>
+      <c r="L39" s="271" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="255"/>
-      <c r="N39" s="255"/>
-      <c r="O39" s="257"/>
+      <c r="M39" s="272"/>
+      <c r="N39" s="272"/>
+      <c r="O39" s="274"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="39"/>
@@ -12077,27 +12080,27 @@
       <c r="C40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="258" t="e">
+      <c r="D40" s="275" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="259"/>
-      <c r="F40" s="259"/>
-      <c r="G40" s="260"/>
-      <c r="H40" s="261" t="e">
+      <c r="E40" s="276"/>
+      <c r="F40" s="276"/>
+      <c r="G40" s="277"/>
+      <c r="H40" s="278" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="262"/>
-      <c r="J40" s="262"/>
-      <c r="K40" s="263"/>
-      <c r="L40" s="261" t="e">
+      <c r="I40" s="279"/>
+      <c r="J40" s="279"/>
+      <c r="K40" s="280"/>
+      <c r="L40" s="278" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="262"/>
-      <c r="N40" s="262"/>
-      <c r="O40" s="264"/>
+      <c r="M40" s="279"/>
+      <c r="N40" s="279"/>
+      <c r="O40" s="281"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="41"/>
@@ -12105,57 +12108,57 @@
       <c r="C41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="278" t="e">
+      <c r="D41" s="261" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="279"/>
-      <c r="F41" s="279"/>
-      <c r="G41" s="280"/>
-      <c r="H41" s="248" t="e">
+      <c r="E41" s="262"/>
+      <c r="F41" s="262"/>
+      <c r="G41" s="263"/>
+      <c r="H41" s="264" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="249"/>
-      <c r="J41" s="249"/>
-      <c r="K41" s="281"/>
-      <c r="L41" s="248" t="e">
+      <c r="I41" s="265"/>
+      <c r="J41" s="265"/>
+      <c r="K41" s="266"/>
+      <c r="L41" s="264" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="249"/>
-      <c r="N41" s="249"/>
-      <c r="O41" s="250"/>
+      <c r="M41" s="265"/>
+      <c r="N41" s="265"/>
+      <c r="O41" s="267"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="226"/>
-      <c r="C42" s="226"/>
-      <c r="D42" s="227" t="s">
+      <c r="B42" s="233"/>
+      <c r="C42" s="233"/>
+      <c r="D42" s="234" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="227"/>
-      <c r="F42" s="227"/>
-      <c r="G42" s="227"/>
+      <c r="E42" s="234"/>
+      <c r="F42" s="234"/>
+      <c r="G42" s="234"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="210" t="s">
+      <c r="K42" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="210"/>
-      <c r="M42" s="226"/>
-      <c r="N42" s="226"/>
+      <c r="L42" s="218"/>
+      <c r="M42" s="233"/>
+      <c r="N42" s="233"/>
       <c r="O42" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -12165,15 +12168,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="111"/>
       <c r="L43" s="111"/>
-      <c r="M43" s="228"/>
-      <c r="N43" s="228"/>
+      <c r="M43" s="235"/>
+      <c r="N43" s="235"/>
       <c r="O43" s="111"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="209" t="s">
+      <c r="A44" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="209"/>
+      <c r="B44" s="217"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -12182,12 +12185,12 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="162" t="str">
+      <c r="H44" s="174" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="174"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
@@ -12195,10 +12198,10 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="209" t="s">
+      <c r="A45" s="217" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="209"/>
+      <c r="B45" s="217"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -12210,26 +12213,25 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="211" t="s">
+      <c r="N45" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="O45" s="211"/>
+      <c r="O45" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="M42:N42"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="N45:O45"/>
@@ -12246,18 +12248,19 @@
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
@@ -12294,7 +12297,7 @@
   <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:O41"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12305,61 +12308,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
-      <c r="N1" s="186" t="s">
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="186"/>
+      <c r="O1" s="168"/>
     </row>
     <row r="2" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="187" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="187"/>
+      <c r="O2" s="169"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -12369,122 +12372,122 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="206">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="184" t="s">
+      <c r="C4" s="207"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="185"/>
-      <c r="G4" s="238">
+      <c r="F4" s="167"/>
+      <c r="G4" s="206">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="240"/>
+      <c r="H4" s="208"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="241">
+      <c r="J4" s="209">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="241"/>
-      <c r="L4" s="177" t="s">
+      <c r="K4" s="209"/>
+      <c r="L4" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="177"/>
-      <c r="N4" s="306">
+      <c r="M4" s="159"/>
+      <c r="N4" s="282">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="307"/>
+      <c r="O4" s="283"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="156">
+      <c r="B5" s="140">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="206" t="s">
+      <c r="C5" s="244"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="207"/>
-      <c r="G5" s="156">
+      <c r="F5" s="246"/>
+      <c r="G5" s="140">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="193"/>
+      <c r="H5" s="144"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="189">
+      <c r="J5" s="139">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="189"/>
-      <c r="L5" s="204" t="s">
+      <c r="K5" s="139"/>
+      <c r="L5" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="204"/>
-      <c r="N5" s="308">
+      <c r="M5" s="243"/>
+      <c r="N5" s="284">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="157"/>
+      <c r="O5" s="178"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="302" t="s">
+      <c r="A6" s="285" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="303"/>
-      <c r="C6" s="303"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="304"/>
-      <c r="G6" s="299"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="299"/>
-      <c r="J6" s="289"/>
-      <c r="K6" s="296"/>
-      <c r="L6" s="296"/>
-      <c r="M6" s="296"/>
-      <c r="N6" s="296"/>
-      <c r="O6" s="290"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="288"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="288"/>
+      <c r="J6" s="292"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="300"/>
+      <c r="O6" s="293"/>
     </row>
     <row r="7" spans="1:15" s="38" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="241"/>
-      <c r="C7" s="241"/>
-      <c r="D7" s="239" t="s">
+      <c r="A7" s="291" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="289" t="s">
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="292" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="290"/>
-      <c r="J7" s="243"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211"/>
-      <c r="O7" s="297"/>
+      <c r="I7" s="293"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="301"/>
     </row>
     <row r="8" spans="1:15" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="188"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="121">
         <v>1</v>
       </c>
@@ -12497,14 +12500,14 @@
       <c r="G8" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="245"/>
-      <c r="I8" s="291"/>
-      <c r="J8" s="243"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="211"/>
-      <c r="O8" s="297"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="294"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="212"/>
+      <c r="O8" s="301"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="A9" s="58">
@@ -12526,16 +12529,16 @@
         <f t="shared" ref="G9:G38" si="0">AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="292">
-        <v>0</v>
-      </c>
-      <c r="I9" s="293"/>
-      <c r="J9" s="243"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="211"/>
-      <c r="O9" s="297"/>
+      <c r="H9" s="295">
+        <v>0</v>
+      </c>
+      <c r="I9" s="296"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="212"/>
+      <c r="L9" s="212"/>
+      <c r="M9" s="212"/>
+      <c r="N9" s="212"/>
+      <c r="O9" s="301"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="A10" s="58">
@@ -12557,16 +12560,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="287">
-        <v>0</v>
-      </c>
-      <c r="I10" s="288"/>
-      <c r="J10" s="243"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="297"/>
+      <c r="H10" s="289">
+        <v>0</v>
+      </c>
+      <c r="I10" s="290"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="212"/>
+      <c r="L10" s="212"/>
+      <c r="M10" s="212"/>
+      <c r="N10" s="212"/>
+      <c r="O10" s="301"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="58">
@@ -12588,16 +12591,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="287">
-        <v>0</v>
-      </c>
-      <c r="I11" s="288"/>
-      <c r="J11" s="243"/>
-      <c r="K11" s="211"/>
-      <c r="L11" s="211"/>
-      <c r="M11" s="211"/>
-      <c r="N11" s="211"/>
-      <c r="O11" s="297"/>
+      <c r="H11" s="289">
+        <v>0</v>
+      </c>
+      <c r="I11" s="290"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="212"/>
+      <c r="L11" s="212"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="212"/>
+      <c r="O11" s="301"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="A12" s="58">
@@ -12619,16 +12622,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="287">
-        <v>0</v>
-      </c>
-      <c r="I12" s="288"/>
-      <c r="J12" s="243"/>
-      <c r="K12" s="211"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="211"/>
-      <c r="N12" s="211"/>
-      <c r="O12" s="297"/>
+      <c r="H12" s="289">
+        <v>0</v>
+      </c>
+      <c r="I12" s="290"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="212"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="212"/>
+      <c r="O12" s="301"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="A13" s="58">
@@ -12650,16 +12653,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="287">
-        <v>0</v>
-      </c>
-      <c r="I13" s="288"/>
-      <c r="J13" s="243"/>
-      <c r="K13" s="211"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="211"/>
-      <c r="N13" s="211"/>
-      <c r="O13" s="297"/>
+      <c r="H13" s="289">
+        <v>0</v>
+      </c>
+      <c r="I13" s="290"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="212"/>
+      <c r="L13" s="212"/>
+      <c r="M13" s="212"/>
+      <c r="N13" s="212"/>
+      <c r="O13" s="301"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="A14" s="58">
@@ -12681,16 +12684,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="287">
-        <v>0</v>
-      </c>
-      <c r="I14" s="288"/>
-      <c r="J14" s="243"/>
-      <c r="K14" s="211"/>
-      <c r="L14" s="211"/>
-      <c r="M14" s="211"/>
-      <c r="N14" s="211"/>
-      <c r="O14" s="297"/>
+      <c r="H14" s="289">
+        <v>0</v>
+      </c>
+      <c r="I14" s="290"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="212"/>
+      <c r="L14" s="212"/>
+      <c r="M14" s="212"/>
+      <c r="N14" s="212"/>
+      <c r="O14" s="301"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="A15" s="58">
@@ -12712,16 +12715,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="287">
-        <v>0</v>
-      </c>
-      <c r="I15" s="288"/>
-      <c r="J15" s="243"/>
-      <c r="K15" s="211"/>
-      <c r="L15" s="211"/>
-      <c r="M15" s="211"/>
-      <c r="N15" s="211"/>
-      <c r="O15" s="297"/>
+      <c r="H15" s="289">
+        <v>0</v>
+      </c>
+      <c r="I15" s="290"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="212"/>
+      <c r="L15" s="212"/>
+      <c r="M15" s="212"/>
+      <c r="N15" s="212"/>
+      <c r="O15" s="301"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="58">
@@ -12743,16 +12746,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="287">
-        <v>0</v>
-      </c>
-      <c r="I16" s="288"/>
-      <c r="J16" s="243"/>
-      <c r="K16" s="211"/>
-      <c r="L16" s="211"/>
-      <c r="M16" s="211"/>
-      <c r="N16" s="211"/>
-      <c r="O16" s="297"/>
+      <c r="H16" s="289">
+        <v>0</v>
+      </c>
+      <c r="I16" s="290"/>
+      <c r="J16" s="211"/>
+      <c r="K16" s="212"/>
+      <c r="L16" s="212"/>
+      <c r="M16" s="212"/>
+      <c r="N16" s="212"/>
+      <c r="O16" s="301"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
       <c r="A17" s="58">
@@ -12774,16 +12777,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="287">
-        <v>0</v>
-      </c>
-      <c r="I17" s="288"/>
-      <c r="J17" s="243"/>
-      <c r="K17" s="211"/>
-      <c r="L17" s="211"/>
-      <c r="M17" s="211"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="297"/>
+      <c r="H17" s="289">
+        <v>0</v>
+      </c>
+      <c r="I17" s="290"/>
+      <c r="J17" s="211"/>
+      <c r="K17" s="212"/>
+      <c r="L17" s="212"/>
+      <c r="M17" s="212"/>
+      <c r="N17" s="212"/>
+      <c r="O17" s="301"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
       <c r="A18" s="58">
@@ -12805,16 +12808,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="287">
-        <v>0</v>
-      </c>
-      <c r="I18" s="288"/>
-      <c r="J18" s="243"/>
-      <c r="K18" s="211"/>
-      <c r="L18" s="211"/>
-      <c r="M18" s="211"/>
-      <c r="N18" s="211"/>
-      <c r="O18" s="297"/>
+      <c r="H18" s="289">
+        <v>0</v>
+      </c>
+      <c r="I18" s="290"/>
+      <c r="J18" s="211"/>
+      <c r="K18" s="212"/>
+      <c r="L18" s="212"/>
+      <c r="M18" s="212"/>
+      <c r="N18" s="212"/>
+      <c r="O18" s="301"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
       <c r="A19" s="58">
@@ -12836,16 +12839,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="287">
-        <v>0</v>
-      </c>
-      <c r="I19" s="288"/>
-      <c r="J19" s="243"/>
-      <c r="K19" s="211"/>
-      <c r="L19" s="211"/>
-      <c r="M19" s="211"/>
-      <c r="N19" s="211"/>
-      <c r="O19" s="297"/>
+      <c r="H19" s="289">
+        <v>0</v>
+      </c>
+      <c r="I19" s="290"/>
+      <c r="J19" s="211"/>
+      <c r="K19" s="212"/>
+      <c r="L19" s="212"/>
+      <c r="M19" s="212"/>
+      <c r="N19" s="212"/>
+      <c r="O19" s="301"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
       <c r="A20" s="58">
@@ -12867,16 +12870,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="287">
-        <v>0</v>
-      </c>
-      <c r="I20" s="288"/>
-      <c r="J20" s="243"/>
-      <c r="K20" s="211"/>
-      <c r="L20" s="211"/>
-      <c r="M20" s="211"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="297"/>
+      <c r="H20" s="289">
+        <v>0</v>
+      </c>
+      <c r="I20" s="290"/>
+      <c r="J20" s="211"/>
+      <c r="K20" s="212"/>
+      <c r="L20" s="212"/>
+      <c r="M20" s="212"/>
+      <c r="N20" s="212"/>
+      <c r="O20" s="301"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
       <c r="A21" s="58">
@@ -12898,16 +12901,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="287">
-        <v>0</v>
-      </c>
-      <c r="I21" s="288"/>
-      <c r="J21" s="243"/>
-      <c r="K21" s="211"/>
-      <c r="L21" s="211"/>
-      <c r="M21" s="211"/>
-      <c r="N21" s="211"/>
-      <c r="O21" s="297"/>
+      <c r="H21" s="289">
+        <v>0</v>
+      </c>
+      <c r="I21" s="290"/>
+      <c r="J21" s="211"/>
+      <c r="K21" s="212"/>
+      <c r="L21" s="212"/>
+      <c r="M21" s="212"/>
+      <c r="N21" s="212"/>
+      <c r="O21" s="301"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
       <c r="A22" s="58">
@@ -12929,16 +12932,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="287">
-        <v>0</v>
-      </c>
-      <c r="I22" s="288"/>
-      <c r="J22" s="243"/>
-      <c r="K22" s="211"/>
-      <c r="L22" s="211"/>
-      <c r="M22" s="211"/>
-      <c r="N22" s="211"/>
-      <c r="O22" s="297"/>
+      <c r="H22" s="289">
+        <v>0</v>
+      </c>
+      <c r="I22" s="290"/>
+      <c r="J22" s="211"/>
+      <c r="K22" s="212"/>
+      <c r="L22" s="212"/>
+      <c r="M22" s="212"/>
+      <c r="N22" s="212"/>
+      <c r="O22" s="301"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
       <c r="A23" s="58">
@@ -12960,16 +12963,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="287">
-        <v>0</v>
-      </c>
-      <c r="I23" s="288"/>
-      <c r="J23" s="243"/>
-      <c r="K23" s="211"/>
-      <c r="L23" s="211"/>
-      <c r="M23" s="211"/>
-      <c r="N23" s="211"/>
-      <c r="O23" s="297"/>
+      <c r="H23" s="289">
+        <v>0</v>
+      </c>
+      <c r="I23" s="290"/>
+      <c r="J23" s="211"/>
+      <c r="K23" s="212"/>
+      <c r="L23" s="212"/>
+      <c r="M23" s="212"/>
+      <c r="N23" s="212"/>
+      <c r="O23" s="301"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
       <c r="A24" s="58">
@@ -12991,16 +12994,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="287">
-        <v>0</v>
-      </c>
-      <c r="I24" s="288"/>
-      <c r="J24" s="243"/>
-      <c r="K24" s="211"/>
-      <c r="L24" s="211"/>
-      <c r="M24" s="211"/>
-      <c r="N24" s="211"/>
-      <c r="O24" s="297"/>
+      <c r="H24" s="289">
+        <v>0</v>
+      </c>
+      <c r="I24" s="290"/>
+      <c r="J24" s="211"/>
+      <c r="K24" s="212"/>
+      <c r="L24" s="212"/>
+      <c r="M24" s="212"/>
+      <c r="N24" s="212"/>
+      <c r="O24" s="301"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
       <c r="A25" s="58">
@@ -13022,16 +13025,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="287">
-        <v>0</v>
-      </c>
-      <c r="I25" s="288"/>
-      <c r="J25" s="243"/>
-      <c r="K25" s="211"/>
-      <c r="L25" s="211"/>
-      <c r="M25" s="211"/>
-      <c r="N25" s="211"/>
-      <c r="O25" s="297"/>
+      <c r="H25" s="289">
+        <v>0</v>
+      </c>
+      <c r="I25" s="290"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="212"/>
+      <c r="L25" s="212"/>
+      <c r="M25" s="212"/>
+      <c r="N25" s="212"/>
+      <c r="O25" s="301"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
       <c r="A26" s="58">
@@ -13053,16 +13056,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="287">
-        <v>0</v>
-      </c>
-      <c r="I26" s="288"/>
-      <c r="J26" s="243"/>
-      <c r="K26" s="211"/>
-      <c r="L26" s="211"/>
-      <c r="M26" s="211"/>
-      <c r="N26" s="211"/>
-      <c r="O26" s="297"/>
+      <c r="H26" s="289">
+        <v>0</v>
+      </c>
+      <c r="I26" s="290"/>
+      <c r="J26" s="211"/>
+      <c r="K26" s="212"/>
+      <c r="L26" s="212"/>
+      <c r="M26" s="212"/>
+      <c r="N26" s="212"/>
+      <c r="O26" s="301"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
       <c r="A27" s="58">
@@ -13084,16 +13087,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="287">
-        <v>0</v>
-      </c>
-      <c r="I27" s="288"/>
-      <c r="J27" s="243"/>
-      <c r="K27" s="211"/>
-      <c r="L27" s="211"/>
-      <c r="M27" s="211"/>
-      <c r="N27" s="211"/>
-      <c r="O27" s="297"/>
+      <c r="H27" s="289">
+        <v>0</v>
+      </c>
+      <c r="I27" s="290"/>
+      <c r="J27" s="211"/>
+      <c r="K27" s="212"/>
+      <c r="L27" s="212"/>
+      <c r="M27" s="212"/>
+      <c r="N27" s="212"/>
+      <c r="O27" s="301"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="58">
@@ -13115,16 +13118,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="287">
-        <v>0</v>
-      </c>
-      <c r="I28" s="288"/>
-      <c r="J28" s="243"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="211"/>
-      <c r="M28" s="211"/>
-      <c r="N28" s="211"/>
-      <c r="O28" s="297"/>
+      <c r="H28" s="289">
+        <v>0</v>
+      </c>
+      <c r="I28" s="290"/>
+      <c r="J28" s="211"/>
+      <c r="K28" s="212"/>
+      <c r="L28" s="212"/>
+      <c r="M28" s="212"/>
+      <c r="N28" s="212"/>
+      <c r="O28" s="301"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="58">
@@ -13146,16 +13149,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="287">
-        <v>0</v>
-      </c>
-      <c r="I29" s="288"/>
-      <c r="J29" s="243"/>
-      <c r="K29" s="211"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="211"/>
-      <c r="N29" s="211"/>
-      <c r="O29" s="297"/>
+      <c r="H29" s="289">
+        <v>0</v>
+      </c>
+      <c r="I29" s="290"/>
+      <c r="J29" s="211"/>
+      <c r="K29" s="212"/>
+      <c r="L29" s="212"/>
+      <c r="M29" s="212"/>
+      <c r="N29" s="212"/>
+      <c r="O29" s="301"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
       <c r="A30" s="58">
@@ -13177,16 +13180,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="287">
-        <v>0</v>
-      </c>
-      <c r="I30" s="288"/>
-      <c r="J30" s="243"/>
-      <c r="K30" s="211"/>
-      <c r="L30" s="211"/>
-      <c r="M30" s="211"/>
-      <c r="N30" s="211"/>
-      <c r="O30" s="297"/>
+      <c r="H30" s="289">
+        <v>0</v>
+      </c>
+      <c r="I30" s="290"/>
+      <c r="J30" s="211"/>
+      <c r="K30" s="212"/>
+      <c r="L30" s="212"/>
+      <c r="M30" s="212"/>
+      <c r="N30" s="212"/>
+      <c r="O30" s="301"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
       <c r="A31" s="58">
@@ -13208,16 +13211,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="287">
-        <v>0</v>
-      </c>
-      <c r="I31" s="288"/>
-      <c r="J31" s="243"/>
-      <c r="K31" s="211"/>
-      <c r="L31" s="211"/>
-      <c r="M31" s="211"/>
-      <c r="N31" s="211"/>
-      <c r="O31" s="297"/>
+      <c r="H31" s="289">
+        <v>0</v>
+      </c>
+      <c r="I31" s="290"/>
+      <c r="J31" s="211"/>
+      <c r="K31" s="212"/>
+      <c r="L31" s="212"/>
+      <c r="M31" s="212"/>
+      <c r="N31" s="212"/>
+      <c r="O31" s="301"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
       <c r="A32" s="58">
@@ -13239,16 +13242,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="287">
-        <v>0</v>
-      </c>
-      <c r="I32" s="288"/>
-      <c r="J32" s="243"/>
-      <c r="K32" s="211"/>
-      <c r="L32" s="211"/>
-      <c r="M32" s="211"/>
-      <c r="N32" s="211"/>
-      <c r="O32" s="297"/>
+      <c r="H32" s="289">
+        <v>0</v>
+      </c>
+      <c r="I32" s="290"/>
+      <c r="J32" s="211"/>
+      <c r="K32" s="212"/>
+      <c r="L32" s="212"/>
+      <c r="M32" s="212"/>
+      <c r="N32" s="212"/>
+      <c r="O32" s="301"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
       <c r="A33" s="58">
@@ -13270,16 +13273,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="287">
-        <v>0</v>
-      </c>
-      <c r="I33" s="288"/>
-      <c r="J33" s="243"/>
-      <c r="K33" s="211"/>
-      <c r="L33" s="211"/>
-      <c r="M33" s="211"/>
-      <c r="N33" s="211"/>
-      <c r="O33" s="297"/>
+      <c r="H33" s="289">
+        <v>0</v>
+      </c>
+      <c r="I33" s="290"/>
+      <c r="J33" s="211"/>
+      <c r="K33" s="212"/>
+      <c r="L33" s="212"/>
+      <c r="M33" s="212"/>
+      <c r="N33" s="212"/>
+      <c r="O33" s="301"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
       <c r="A34" s="58">
@@ -13301,16 +13304,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="287">
-        <v>0</v>
-      </c>
-      <c r="I34" s="288"/>
-      <c r="J34" s="243"/>
-      <c r="K34" s="211"/>
-      <c r="L34" s="211"/>
-      <c r="M34" s="211"/>
-      <c r="N34" s="211"/>
-      <c r="O34" s="297"/>
+      <c r="H34" s="289">
+        <v>0</v>
+      </c>
+      <c r="I34" s="290"/>
+      <c r="J34" s="211"/>
+      <c r="K34" s="212"/>
+      <c r="L34" s="212"/>
+      <c r="M34" s="212"/>
+      <c r="N34" s="212"/>
+      <c r="O34" s="301"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
       <c r="A35" s="58">
@@ -13332,16 +13335,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="287">
-        <v>0</v>
-      </c>
-      <c r="I35" s="288"/>
-      <c r="J35" s="243"/>
-      <c r="K35" s="211"/>
-      <c r="L35" s="211"/>
-      <c r="M35" s="211"/>
-      <c r="N35" s="211"/>
-      <c r="O35" s="297"/>
+      <c r="H35" s="289">
+        <v>0</v>
+      </c>
+      <c r="I35" s="290"/>
+      <c r="J35" s="211"/>
+      <c r="K35" s="212"/>
+      <c r="L35" s="212"/>
+      <c r="M35" s="212"/>
+      <c r="N35" s="212"/>
+      <c r="O35" s="301"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
       <c r="A36" s="58">
@@ -13363,16 +13366,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="287">
-        <v>0</v>
-      </c>
-      <c r="I36" s="288"/>
-      <c r="J36" s="243"/>
-      <c r="K36" s="211"/>
-      <c r="L36" s="211"/>
-      <c r="M36" s="211"/>
-      <c r="N36" s="211"/>
-      <c r="O36" s="297"/>
+      <c r="H36" s="289">
+        <v>0</v>
+      </c>
+      <c r="I36" s="290"/>
+      <c r="J36" s="211"/>
+      <c r="K36" s="212"/>
+      <c r="L36" s="212"/>
+      <c r="M36" s="212"/>
+      <c r="N36" s="212"/>
+      <c r="O36" s="301"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="58">
@@ -13394,16 +13397,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="287">
-        <v>0</v>
-      </c>
-      <c r="I37" s="288"/>
-      <c r="J37" s="243"/>
-      <c r="K37" s="211"/>
-      <c r="L37" s="211"/>
-      <c r="M37" s="211"/>
-      <c r="N37" s="211"/>
-      <c r="O37" s="297"/>
+      <c r="H37" s="289">
+        <v>0</v>
+      </c>
+      <c r="I37" s="290"/>
+      <c r="J37" s="211"/>
+      <c r="K37" s="212"/>
+      <c r="L37" s="212"/>
+      <c r="M37" s="212"/>
+      <c r="N37" s="212"/>
+      <c r="O37" s="301"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="58">
@@ -13425,16 +13428,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="300">
-        <v>0</v>
-      </c>
-      <c r="I38" s="301"/>
-      <c r="J38" s="243"/>
-      <c r="K38" s="211"/>
-      <c r="L38" s="211"/>
-      <c r="M38" s="211"/>
-      <c r="N38" s="211"/>
-      <c r="O38" s="297"/>
+      <c r="H38" s="303">
+        <v>0</v>
+      </c>
+      <c r="I38" s="304"/>
+      <c r="J38" s="211"/>
+      <c r="K38" s="212"/>
+      <c r="L38" s="212"/>
+      <c r="M38" s="212"/>
+      <c r="N38" s="212"/>
+      <c r="O38" s="301"/>
     </row>
     <row r="39" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="36"/>
@@ -13442,24 +13445,24 @@
       <c r="C39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="254" t="e">
+      <c r="D39" s="271" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="255"/>
-      <c r="F39" s="255"/>
-      <c r="G39" s="257"/>
-      <c r="H39" s="283">
+      <c r="E39" s="272"/>
+      <c r="F39" s="272"/>
+      <c r="G39" s="274"/>
+      <c r="H39" s="305">
         <f>AVERAGE(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="284"/>
-      <c r="J39" s="243"/>
-      <c r="K39" s="211"/>
-      <c r="L39" s="211"/>
-      <c r="M39" s="211"/>
-      <c r="N39" s="211"/>
-      <c r="O39" s="297"/>
+      <c r="I39" s="306"/>
+      <c r="J39" s="211"/>
+      <c r="K39" s="212"/>
+      <c r="L39" s="212"/>
+      <c r="M39" s="212"/>
+      <c r="N39" s="212"/>
+      <c r="O39" s="301"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="39"/>
@@ -13467,24 +13470,24 @@
       <c r="C40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="261" t="e">
+      <c r="D40" s="278" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="262"/>
-      <c r="F40" s="262"/>
-      <c r="G40" s="264"/>
-      <c r="H40" s="285">
+      <c r="E40" s="279"/>
+      <c r="F40" s="279"/>
+      <c r="G40" s="281"/>
+      <c r="H40" s="307">
         <f>MIN(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="286"/>
-      <c r="J40" s="243"/>
-      <c r="K40" s="211"/>
-      <c r="L40" s="211"/>
-      <c r="M40" s="211"/>
-      <c r="N40" s="211"/>
-      <c r="O40" s="297"/>
+      <c r="I40" s="308"/>
+      <c r="J40" s="211"/>
+      <c r="K40" s="212"/>
+      <c r="L40" s="212"/>
+      <c r="M40" s="212"/>
+      <c r="N40" s="212"/>
+      <c r="O40" s="301"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="41"/>
@@ -13492,54 +13495,54 @@
       <c r="C41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="248" t="e">
+      <c r="D41" s="264" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="249"/>
-      <c r="F41" s="249"/>
-      <c r="G41" s="250"/>
-      <c r="H41" s="294">
+      <c r="E41" s="265"/>
+      <c r="F41" s="265"/>
+      <c r="G41" s="267"/>
+      <c r="H41" s="298">
         <f>MAX(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="295"/>
-      <c r="J41" s="245"/>
-      <c r="K41" s="246"/>
-      <c r="L41" s="246"/>
-      <c r="M41" s="246"/>
-      <c r="N41" s="246"/>
-      <c r="O41" s="291"/>
+      <c r="I41" s="299"/>
+      <c r="J41" s="214"/>
+      <c r="K41" s="215"/>
+      <c r="L41" s="215"/>
+      <c r="M41" s="215"/>
+      <c r="N41" s="215"/>
+      <c r="O41" s="294"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="226"/>
-      <c r="C42" s="226"/>
-      <c r="D42" s="227" t="s">
+      <c r="B42" s="233"/>
+      <c r="C42" s="233"/>
+      <c r="D42" s="234" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="227"/>
-      <c r="F42" s="227"/>
-      <c r="G42" s="227"/>
+      <c r="E42" s="234"/>
+      <c r="F42" s="234"/>
+      <c r="G42" s="234"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="210" t="s">
+      <c r="K42" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="210"/>
-      <c r="M42" s="226"/>
-      <c r="N42" s="226"/>
+      <c r="L42" s="218"/>
+      <c r="M42" s="233"/>
+      <c r="N42" s="233"/>
       <c r="O42" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -13549,15 +13552,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="111"/>
       <c r="L43" s="111"/>
-      <c r="M43" s="228"/>
-      <c r="N43" s="228"/>
+      <c r="M43" s="235"/>
+      <c r="N43" s="235"/>
       <c r="O43" s="111"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="209" t="s">
+      <c r="A44" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="209"/>
+      <c r="B44" s="217"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -13566,12 +13569,12 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="162" t="str">
+      <c r="H44" s="174" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="174"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
@@ -13579,10 +13582,10 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="209" t="s">
+      <c r="A45" s="217" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="209"/>
+      <c r="B45" s="217"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -13594,236 +13597,304 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="211" t="s">
+      <c r="N45" s="212" t="s">
         <v>46</v>
       </c>
-      <c r="O45" s="211"/>
+      <c r="O45" s="212"/>
     </row>
     <row r="46" spans="1:15" s="38" customFormat="1"/>
     <row r="47" spans="1:15" s="38" customFormat="1"/>
     <row r="57" spans="4:15">
-      <c r="D57" s="282"/>
-      <c r="E57" s="282"/>
-      <c r="F57" s="282"/>
-      <c r="G57" s="282"/>
-      <c r="H57" s="282"/>
-      <c r="I57" s="282"/>
-      <c r="J57" s="282"/>
-      <c r="K57" s="282"/>
-      <c r="L57" s="282"/>
-      <c r="M57" s="282"/>
-      <c r="N57" s="282"/>
-      <c r="O57" s="282"/>
+      <c r="D57" s="297"/>
+      <c r="E57" s="297"/>
+      <c r="F57" s="297"/>
+      <c r="G57" s="297"/>
+      <c r="H57" s="297"/>
+      <c r="I57" s="297"/>
+      <c r="J57" s="297"/>
+      <c r="K57" s="297"/>
+      <c r="L57" s="297"/>
+      <c r="M57" s="297"/>
+      <c r="N57" s="297"/>
+      <c r="O57" s="297"/>
     </row>
     <row r="58" spans="4:15">
-      <c r="D58" s="282"/>
-      <c r="E58" s="282"/>
-      <c r="F58" s="282"/>
-      <c r="G58" s="282"/>
-      <c r="H58" s="282"/>
-      <c r="I58" s="282"/>
-      <c r="J58" s="282"/>
-      <c r="K58" s="282"/>
-      <c r="L58" s="282"/>
-      <c r="M58" s="282"/>
-      <c r="N58" s="282"/>
-      <c r="O58" s="282"/>
+      <c r="D58" s="297"/>
+      <c r="E58" s="297"/>
+      <c r="F58" s="297"/>
+      <c r="G58" s="297"/>
+      <c r="H58" s="297"/>
+      <c r="I58" s="297"/>
+      <c r="J58" s="297"/>
+      <c r="K58" s="297"/>
+      <c r="L58" s="297"/>
+      <c r="M58" s="297"/>
+      <c r="N58" s="297"/>
+      <c r="O58" s="297"/>
     </row>
     <row r="59" spans="4:15">
-      <c r="D59" s="282"/>
-      <c r="E59" s="282"/>
-      <c r="F59" s="282"/>
-      <c r="G59" s="282"/>
-      <c r="H59" s="282"/>
-      <c r="I59" s="282"/>
-      <c r="J59" s="282"/>
-      <c r="K59" s="282"/>
-      <c r="L59" s="282"/>
-      <c r="M59" s="282"/>
-      <c r="N59" s="282"/>
-      <c r="O59" s="282"/>
+      <c r="D59" s="297"/>
+      <c r="E59" s="297"/>
+      <c r="F59" s="297"/>
+      <c r="G59" s="297"/>
+      <c r="H59" s="297"/>
+      <c r="I59" s="297"/>
+      <c r="J59" s="297"/>
+      <c r="K59" s="297"/>
+      <c r="L59" s="297"/>
+      <c r="M59" s="297"/>
+      <c r="N59" s="297"/>
+      <c r="O59" s="297"/>
     </row>
     <row r="60" spans="4:15">
-      <c r="D60" s="282"/>
-      <c r="E60" s="282"/>
-      <c r="F60" s="282"/>
-      <c r="G60" s="282"/>
-      <c r="H60" s="282"/>
-      <c r="I60" s="282"/>
-      <c r="J60" s="282"/>
-      <c r="K60" s="282"/>
-      <c r="L60" s="282"/>
-      <c r="M60" s="282"/>
-      <c r="N60" s="282"/>
-      <c r="O60" s="282"/>
+      <c r="D60" s="297"/>
+      <c r="E60" s="297"/>
+      <c r="F60" s="297"/>
+      <c r="G60" s="297"/>
+      <c r="H60" s="297"/>
+      <c r="I60" s="297"/>
+      <c r="J60" s="297"/>
+      <c r="K60" s="297"/>
+      <c r="L60" s="297"/>
+      <c r="M60" s="297"/>
+      <c r="N60" s="297"/>
+      <c r="O60" s="297"/>
     </row>
     <row r="61" spans="4:15">
-      <c r="D61" s="282"/>
-      <c r="E61" s="282"/>
-      <c r="F61" s="282"/>
-      <c r="G61" s="282"/>
-      <c r="H61" s="282"/>
-      <c r="I61" s="282"/>
-      <c r="J61" s="282"/>
-      <c r="K61" s="282"/>
-      <c r="L61" s="282"/>
-      <c r="M61" s="282"/>
-      <c r="N61" s="282"/>
-      <c r="O61" s="282"/>
+      <c r="D61" s="297"/>
+      <c r="E61" s="297"/>
+      <c r="F61" s="297"/>
+      <c r="G61" s="297"/>
+      <c r="H61" s="297"/>
+      <c r="I61" s="297"/>
+      <c r="J61" s="297"/>
+      <c r="K61" s="297"/>
+      <c r="L61" s="297"/>
+      <c r="M61" s="297"/>
+      <c r="N61" s="297"/>
+      <c r="O61" s="297"/>
     </row>
     <row r="62" spans="4:15">
-      <c r="D62" s="282"/>
-      <c r="E62" s="282"/>
-      <c r="F62" s="282"/>
-      <c r="G62" s="282"/>
-      <c r="H62" s="282"/>
-      <c r="I62" s="282"/>
-      <c r="J62" s="282"/>
-      <c r="K62" s="282"/>
-      <c r="L62" s="282"/>
-      <c r="M62" s="282"/>
-      <c r="N62" s="282"/>
-      <c r="O62" s="282"/>
+      <c r="D62" s="297"/>
+      <c r="E62" s="297"/>
+      <c r="F62" s="297"/>
+      <c r="G62" s="297"/>
+      <c r="H62" s="297"/>
+      <c r="I62" s="297"/>
+      <c r="J62" s="297"/>
+      <c r="K62" s="297"/>
+      <c r="L62" s="297"/>
+      <c r="M62" s="297"/>
+      <c r="N62" s="297"/>
+      <c r="O62" s="297"/>
     </row>
     <row r="63" spans="4:15">
-      <c r="D63" s="282"/>
-      <c r="E63" s="282"/>
-      <c r="F63" s="282"/>
-      <c r="G63" s="282"/>
-      <c r="H63" s="282"/>
-      <c r="I63" s="282"/>
-      <c r="J63" s="282"/>
-      <c r="K63" s="282"/>
-      <c r="L63" s="282"/>
-      <c r="M63" s="282"/>
-      <c r="N63" s="282"/>
-      <c r="O63" s="282"/>
+      <c r="D63" s="297"/>
+      <c r="E63" s="297"/>
+      <c r="F63" s="297"/>
+      <c r="G63" s="297"/>
+      <c r="H63" s="297"/>
+      <c r="I63" s="297"/>
+      <c r="J63" s="297"/>
+      <c r="K63" s="297"/>
+      <c r="L63" s="297"/>
+      <c r="M63" s="297"/>
+      <c r="N63" s="297"/>
+      <c r="O63" s="297"/>
     </row>
     <row r="64" spans="4:15">
-      <c r="D64" s="282"/>
-      <c r="E64" s="282"/>
-      <c r="F64" s="282"/>
-      <c r="G64" s="282"/>
-      <c r="H64" s="282"/>
-      <c r="I64" s="282"/>
-      <c r="J64" s="282"/>
-      <c r="K64" s="282"/>
-      <c r="L64" s="282"/>
-      <c r="M64" s="282"/>
-      <c r="N64" s="282"/>
-      <c r="O64" s="282"/>
+      <c r="D64" s="297"/>
+      <c r="E64" s="297"/>
+      <c r="F64" s="297"/>
+      <c r="G64" s="297"/>
+      <c r="H64" s="297"/>
+      <c r="I64" s="297"/>
+      <c r="J64" s="297"/>
+      <c r="K64" s="297"/>
+      <c r="L64" s="297"/>
+      <c r="M64" s="297"/>
+      <c r="N64" s="297"/>
+      <c r="O64" s="297"/>
     </row>
     <row r="65" spans="4:15">
-      <c r="D65" s="282"/>
-      <c r="E65" s="282"/>
-      <c r="F65" s="282"/>
-      <c r="G65" s="282"/>
-      <c r="H65" s="282"/>
-      <c r="I65" s="282"/>
-      <c r="J65" s="282"/>
-      <c r="K65" s="282"/>
-      <c r="L65" s="282"/>
-      <c r="M65" s="282"/>
-      <c r="N65" s="282"/>
-      <c r="O65" s="282"/>
+      <c r="D65" s="297"/>
+      <c r="E65" s="297"/>
+      <c r="F65" s="297"/>
+      <c r="G65" s="297"/>
+      <c r="H65" s="297"/>
+      <c r="I65" s="297"/>
+      <c r="J65" s="297"/>
+      <c r="K65" s="297"/>
+      <c r="L65" s="297"/>
+      <c r="M65" s="297"/>
+      <c r="N65" s="297"/>
+      <c r="O65" s="297"/>
     </row>
     <row r="66" spans="4:15">
-      <c r="D66" s="282"/>
-      <c r="E66" s="282"/>
-      <c r="F66" s="282"/>
-      <c r="G66" s="282"/>
-      <c r="H66" s="282"/>
-      <c r="I66" s="282"/>
-      <c r="J66" s="282"/>
-      <c r="K66" s="282"/>
-      <c r="L66" s="282"/>
-      <c r="M66" s="282"/>
-      <c r="N66" s="282"/>
-      <c r="O66" s="282"/>
+      <c r="D66" s="297"/>
+      <c r="E66" s="297"/>
+      <c r="F66" s="297"/>
+      <c r="G66" s="297"/>
+      <c r="H66" s="297"/>
+      <c r="I66" s="297"/>
+      <c r="J66" s="297"/>
+      <c r="K66" s="297"/>
+      <c r="L66" s="297"/>
+      <c r="M66" s="297"/>
+      <c r="N66" s="297"/>
+      <c r="O66" s="297"/>
     </row>
     <row r="67" spans="4:15">
-      <c r="D67" s="282"/>
-      <c r="E67" s="282"/>
-      <c r="F67" s="282"/>
-      <c r="G67" s="282"/>
-      <c r="H67" s="282"/>
-      <c r="I67" s="282"/>
-      <c r="J67" s="282"/>
-      <c r="K67" s="282"/>
-      <c r="L67" s="282"/>
-      <c r="M67" s="282"/>
-      <c r="N67" s="282"/>
-      <c r="O67" s="282"/>
+      <c r="D67" s="297"/>
+      <c r="E67" s="297"/>
+      <c r="F67" s="297"/>
+      <c r="G67" s="297"/>
+      <c r="H67" s="297"/>
+      <c r="I67" s="297"/>
+      <c r="J67" s="297"/>
+      <c r="K67" s="297"/>
+      <c r="L67" s="297"/>
+      <c r="M67" s="297"/>
+      <c r="N67" s="297"/>
+      <c r="O67" s="297"/>
     </row>
     <row r="68" spans="4:15">
-      <c r="D68" s="282"/>
-      <c r="E68" s="282"/>
-      <c r="F68" s="282"/>
-      <c r="G68" s="282"/>
-      <c r="H68" s="282"/>
-      <c r="I68" s="282"/>
-      <c r="J68" s="282"/>
-      <c r="K68" s="282"/>
-      <c r="L68" s="282"/>
-      <c r="M68" s="282"/>
-      <c r="N68" s="282"/>
-      <c r="O68" s="282"/>
+      <c r="D68" s="297"/>
+      <c r="E68" s="297"/>
+      <c r="F68" s="297"/>
+      <c r="G68" s="297"/>
+      <c r="H68" s="297"/>
+      <c r="I68" s="297"/>
+      <c r="J68" s="297"/>
+      <c r="K68" s="297"/>
+      <c r="L68" s="297"/>
+      <c r="M68" s="297"/>
+      <c r="N68" s="297"/>
+      <c r="O68" s="297"/>
     </row>
     <row r="69" spans="4:15">
-      <c r="D69" s="282"/>
-      <c r="E69" s="282"/>
-      <c r="F69" s="282"/>
-      <c r="G69" s="282"/>
-      <c r="H69" s="282"/>
-      <c r="I69" s="282"/>
-      <c r="J69" s="282"/>
-      <c r="K69" s="282"/>
-      <c r="L69" s="282"/>
-      <c r="M69" s="282"/>
-      <c r="N69" s="282"/>
-      <c r="O69" s="282"/>
+      <c r="D69" s="297"/>
+      <c r="E69" s="297"/>
+      <c r="F69" s="297"/>
+      <c r="G69" s="297"/>
+      <c r="H69" s="297"/>
+      <c r="I69" s="297"/>
+      <c r="J69" s="297"/>
+      <c r="K69" s="297"/>
+      <c r="L69" s="297"/>
+      <c r="M69" s="297"/>
+      <c r="N69" s="297"/>
+      <c r="O69" s="297"/>
     </row>
     <row r="70" spans="4:15">
-      <c r="D70" s="282"/>
-      <c r="E70" s="282"/>
-      <c r="F70" s="282"/>
-      <c r="G70" s="282"/>
-      <c r="H70" s="282"/>
-      <c r="I70" s="282"/>
-      <c r="J70" s="282"/>
-      <c r="K70" s="282"/>
-      <c r="L70" s="282"/>
-      <c r="M70" s="282"/>
-      <c r="N70" s="282"/>
-      <c r="O70" s="282"/>
+      <c r="D70" s="297"/>
+      <c r="E70" s="297"/>
+      <c r="F70" s="297"/>
+      <c r="G70" s="297"/>
+      <c r="H70" s="297"/>
+      <c r="I70" s="297"/>
+      <c r="J70" s="297"/>
+      <c r="K70" s="297"/>
+      <c r="L70" s="297"/>
+      <c r="M70" s="297"/>
+      <c r="N70" s="297"/>
+      <c r="O70" s="297"/>
     </row>
     <row r="71" spans="4:15">
-      <c r="D71" s="282"/>
-      <c r="E71" s="282"/>
-      <c r="F71" s="282"/>
-      <c r="G71" s="282"/>
-      <c r="H71" s="282"/>
-      <c r="I71" s="282"/>
-      <c r="J71" s="282"/>
-      <c r="K71" s="282"/>
-      <c r="L71" s="282"/>
-      <c r="M71" s="282"/>
-      <c r="N71" s="282"/>
-      <c r="O71" s="282"/>
+      <c r="D71" s="297"/>
+      <c r="E71" s="297"/>
+      <c r="F71" s="297"/>
+      <c r="G71" s="297"/>
+      <c r="H71" s="297"/>
+      <c r="I71" s="297"/>
+      <c r="J71" s="297"/>
+      <c r="K71" s="297"/>
+      <c r="L71" s="297"/>
+      <c r="M71" s="297"/>
+      <c r="N71" s="297"/>
+      <c r="O71" s="297"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:O71"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="J6:O41"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A6:C6"/>
@@ -13848,85 +13919,17 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="J6:O41"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:O71"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G38">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
@@ -13938,12 +13941,8 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 N3 A4:A5 E4:F5 I4:I5 L4:M5 D43:E43 A7:I8 A9:C41 G9:G38 D39:I41 N1:O2 D42:G42 A44:O45 K42:L43 O42:O43 A42:A43" xr:uid="{45AA03E7-926C-423A-BDFE-A2DF2A6DCF8E}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:C6" xr:uid="{34732148-F4A8-4BF7-9592-25D7B43627FC}">
+  <dataValidations count="1">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 N3 A4:A5 E4:F5 I4:I5 L4:M5 D43:E43 A7:I8 A9:C41 G9:G38 D39:I41 N1:O2 D42:G42 A44:O45 K42:L43 O42:O43 A42:A43 A6:C6" xr:uid="{45AA03E7-926C-423A-BDFE-A2DF2A6DCF8E}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16109,7 +16108,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q319" sqref="Q319"/>
+      <selection pane="bottomLeft" activeCell="Z269" sqref="Z269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/backend/templates/168-16cp-kranti.xlsx
+++ b/backend/templates/168-16cp-kranti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86953068-4087-406C-920C-641481B9FA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A307C02B-0369-4341-B2C7-41C9A71A304F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +635,12 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1424,7 +1430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1807,59 +1813,79 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1881,31 +1907,113 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1932,110 +2040,212 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2081,302 +2291,166 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2395,10 +2469,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2407,88 +2477,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -7981,7 +8002,7 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:O6"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8104,50 +8125,50 @@
       <c r="O5" s="166"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="174"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="181"/>
     </row>
     <row r="7" spans="1:15" s="62" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A7" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="176" t="s">
+      <c r="A7" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="145"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176" t="s">
+      <c r="E7" s="145"/>
+      <c r="F7" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177" t="s">
+      <c r="G7" s="145"/>
+      <c r="H7" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="179"/>
-      <c r="J7" s="177" t="s">
+      <c r="I7" s="148"/>
+      <c r="J7" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="179"/>
-      <c r="L7" s="176" t="s">
+      <c r="K7" s="148"/>
+      <c r="L7" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="176"/>
+      <c r="M7" s="145"/>
       <c r="N7" s="108" t="s">
         <v>30</v>
       </c>
@@ -8159,16 +8180,16 @@
       <c r="A8" s="55"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="135"/>
       <c r="N8" s="99"/>
       <c r="O8" s="49"/>
     </row>
@@ -8176,16 +8197,16 @@
       <c r="A9" s="55"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
       <c r="N9" s="97"/>
       <c r="O9" s="50"/>
     </row>
@@ -8193,16 +8214,16 @@
       <c r="A10" s="55"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="140"/>
       <c r="N10" s="97"/>
       <c r="O10" s="50"/>
     </row>
@@ -8210,16 +8231,16 @@
       <c r="A11" s="55"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
       <c r="N11" s="99"/>
       <c r="O11" s="49"/>
     </row>
@@ -8227,16 +8248,16 @@
       <c r="A12" s="55"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
       <c r="N12" s="97"/>
       <c r="O12" s="50"/>
     </row>
@@ -8244,16 +8265,16 @@
       <c r="A13" s="55"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
       <c r="N13" s="97"/>
       <c r="O13" s="50"/>
     </row>
@@ -8261,16 +8282,16 @@
       <c r="A14" s="55"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
       <c r="N14" s="97"/>
       <c r="O14" s="50"/>
     </row>
@@ -8278,16 +8299,16 @@
       <c r="A15" s="55"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
       <c r="N15" s="97"/>
       <c r="O15" s="50"/>
     </row>
@@ -8295,16 +8316,16 @@
       <c r="A16" s="55"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
       <c r="N16" s="97"/>
       <c r="O16" s="50"/>
     </row>
@@ -8312,16 +8333,16 @@
       <c r="A17" s="55"/>
       <c r="B17" s="57"/>
       <c r="C17" s="56"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
       <c r="N17" s="97"/>
       <c r="O17" s="50"/>
     </row>
@@ -8329,16 +8350,16 @@
       <c r="A18" s="55"/>
       <c r="B18" s="57"/>
       <c r="C18" s="56"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
       <c r="N18" s="97"/>
       <c r="O18" s="50"/>
     </row>
@@ -8346,16 +8367,16 @@
       <c r="A19" s="55"/>
       <c r="B19" s="57"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
       <c r="N19" s="97"/>
       <c r="O19" s="50"/>
     </row>
@@ -8363,16 +8384,16 @@
       <c r="A20" s="55"/>
       <c r="B20" s="57"/>
       <c r="C20" s="56"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
       <c r="N20" s="97"/>
       <c r="O20" s="50"/>
     </row>
@@ -8380,16 +8401,16 @@
       <c r="A21" s="55"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
       <c r="N21" s="99"/>
       <c r="O21" s="49"/>
     </row>
@@ -8397,16 +8418,16 @@
       <c r="A22" s="55"/>
       <c r="B22" s="57"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="140"/>
       <c r="N22" s="97"/>
       <c r="O22" s="50"/>
     </row>
@@ -8414,16 +8435,16 @@
       <c r="A23" s="55"/>
       <c r="B23" s="57"/>
       <c r="C23" s="56"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="140"/>
       <c r="N23" s="97"/>
       <c r="O23" s="50"/>
     </row>
@@ -8431,16 +8452,16 @@
       <c r="A24" s="55"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="140"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
       <c r="N24" s="99"/>
       <c r="O24" s="49"/>
     </row>
@@ -8448,16 +8469,16 @@
       <c r="A25" s="55"/>
       <c r="B25" s="57"/>
       <c r="C25" s="56"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="140"/>
       <c r="N25" s="97"/>
       <c r="O25" s="50"/>
     </row>
@@ -8465,16 +8486,16 @@
       <c r="A26" s="55"/>
       <c r="B26" s="57"/>
       <c r="C26" s="56"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
       <c r="N26" s="97"/>
       <c r="O26" s="50"/>
     </row>
@@ -8482,16 +8503,16 @@
       <c r="A27" s="55"/>
       <c r="B27" s="57"/>
       <c r="C27" s="56"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="140"/>
       <c r="N27" s="97"/>
       <c r="O27" s="50"/>
     </row>
@@ -8499,16 +8520,16 @@
       <c r="A28" s="55"/>
       <c r="B28" s="57"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
       <c r="N28" s="97"/>
       <c r="O28" s="50"/>
     </row>
@@ -8516,16 +8537,16 @@
       <c r="A29" s="55"/>
       <c r="B29" s="57"/>
       <c r="C29" s="56"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="140"/>
       <c r="N29" s="97"/>
       <c r="O29" s="50"/>
     </row>
@@ -8533,16 +8554,16 @@
       <c r="A30" s="55"/>
       <c r="B30" s="57"/>
       <c r="C30" s="56"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="140"/>
+      <c r="M30" s="140"/>
       <c r="N30" s="97"/>
       <c r="O30" s="50"/>
     </row>
@@ -8550,16 +8571,16 @@
       <c r="A31" s="55"/>
       <c r="B31" s="57"/>
       <c r="C31" s="56"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="140"/>
       <c r="N31" s="97"/>
       <c r="O31" s="50"/>
     </row>
@@ -8567,16 +8588,16 @@
       <c r="A32" s="55"/>
       <c r="B32" s="57"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="140"/>
       <c r="N32" s="97"/>
       <c r="O32" s="50"/>
     </row>
@@ -8584,16 +8605,16 @@
       <c r="A33" s="55"/>
       <c r="B33" s="57"/>
       <c r="C33" s="56"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="140"/>
+      <c r="M33" s="140"/>
       <c r="N33" s="97"/>
       <c r="O33" s="50"/>
     </row>
@@ -8601,16 +8622,16 @@
       <c r="A34" s="55"/>
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="140"/>
-      <c r="M34" s="140"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="131"/>
+      <c r="L34" s="135"/>
+      <c r="M34" s="135"/>
       <c r="N34" s="99"/>
       <c r="O34" s="49"/>
     </row>
@@ -8618,16 +8639,16 @@
       <c r="A35" s="55"/>
       <c r="B35" s="57"/>
       <c r="C35" s="56"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="134"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="135"/>
-      <c r="M35" s="135"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="140"/>
+      <c r="M35" s="140"/>
       <c r="N35" s="97"/>
       <c r="O35" s="50"/>
     </row>
@@ -8635,16 +8656,16 @@
       <c r="A36" s="55"/>
       <c r="B36" s="57"/>
       <c r="C36" s="56"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="135"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="140"/>
+      <c r="M36" s="140"/>
       <c r="N36" s="97"/>
       <c r="O36" s="50"/>
     </row>
@@ -8652,50 +8673,50 @@
       <c r="A37" s="55"/>
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="136"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="140"/>
-      <c r="M37" s="140"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="135"/>
       <c r="N37" s="99"/>
       <c r="O37" s="49"/>
     </row>
     <row r="38" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="119" t="s">
+      <c r="A38" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="120"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="113" t="e">
+      <c r="B38" s="189"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="182" t="e">
         <f>AVERAGE(D8:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="113"/>
-      <c r="F38" s="125" t="e">
+      <c r="E38" s="182"/>
+      <c r="F38" s="194" t="e">
         <f t="shared" ref="F38" si="0">AVERAGE(F8:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="125"/>
-      <c r="H38" s="128" t="e">
+      <c r="G38" s="194"/>
+      <c r="H38" s="197" t="e">
         <f t="shared" ref="H38" si="1">AVERAGE(H8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="128"/>
-      <c r="J38" s="113" t="e">
+      <c r="I38" s="197"/>
+      <c r="J38" s="182" t="e">
         <f t="shared" ref="J38" si="2">AVERAGE(J8:K37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="113"/>
-      <c r="L38" s="116" t="e">
+      <c r="K38" s="182"/>
+      <c r="L38" s="185" t="e">
         <f t="shared" ref="L38" si="3">AVERAGE(L8:M37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="116"/>
+      <c r="M38" s="185"/>
       <c r="N38" s="94" t="e">
         <f>AVERAGE(N8:N37)</f>
         <v>#DIV/0!</v>
@@ -8706,36 +8727,36 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="122"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="114">
+      <c r="B39" s="191"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="183">
         <f>MIN(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="114"/>
-      <c r="F39" s="126">
+      <c r="E39" s="183"/>
+      <c r="F39" s="195">
         <f t="shared" ref="F39" si="4">MIN(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="126"/>
-      <c r="H39" s="129">
+      <c r="G39" s="195"/>
+      <c r="H39" s="198">
         <f t="shared" ref="H39" si="5">MIN(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="129"/>
-      <c r="J39" s="114">
+      <c r="I39" s="198"/>
+      <c r="J39" s="183">
         <f t="shared" ref="J39" si="6">MIN(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="114"/>
-      <c r="L39" s="117">
+      <c r="K39" s="183"/>
+      <c r="L39" s="186">
         <f t="shared" ref="L39" si="7">MIN(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="117"/>
+      <c r="M39" s="186"/>
       <c r="N39" s="95">
         <f>MIN(N8:N37)</f>
         <v>0</v>
@@ -8746,36 +8767,36 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="123" t="s">
+      <c r="A40" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="124"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="115">
+      <c r="B40" s="193"/>
+      <c r="C40" s="193"/>
+      <c r="D40" s="184">
         <f>MAX(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="115"/>
-      <c r="F40" s="127">
+      <c r="E40" s="184"/>
+      <c r="F40" s="196">
         <f t="shared" ref="F40" si="8">MAX(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="127"/>
-      <c r="H40" s="130">
+      <c r="G40" s="196"/>
+      <c r="H40" s="199">
         <f t="shared" ref="H40" si="9">MAX(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="130"/>
-      <c r="J40" s="115">
+      <c r="I40" s="199"/>
+      <c r="J40" s="184">
         <f t="shared" ref="J40" si="10">MAX(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="115"/>
-      <c r="L40" s="118">
+      <c r="K40" s="184"/>
+      <c r="L40" s="187">
         <f t="shared" ref="L40" si="11">MAX(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="118"/>
+      <c r="M40" s="187"/>
       <c r="N40" s="96">
         <f>MAX(N8:N37)</f>
         <v>0</v>
@@ -8789,31 +8810,31 @@
       <c r="A41" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="149" t="s">
+      <c r="B41" s="176"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="149"/>
+      <c r="E41" s="179"/>
       <c r="F41" s="51"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
-      <c r="K41" s="143" t="s">
+      <c r="K41" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="143"/>
-      <c r="M41" s="145"/>
-      <c r="N41" s="145"/>
+      <c r="L41" s="173"/>
+      <c r="M41" s="175"/>
+      <c r="N41" s="175"/>
       <c r="O41" s="70" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="70"/>
-      <c r="B42" s="150"/>
-      <c r="C42" s="150"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="180"/>
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="70"/>
@@ -8823,15 +8844,15 @@
       <c r="J42" s="52"/>
       <c r="K42" s="100"/>
       <c r="L42" s="100"/>
-      <c r="M42" s="145"/>
-      <c r="N42" s="145"/>
+      <c r="M42" s="175"/>
+      <c r="N42" s="175"/>
       <c r="O42" s="100"/>
     </row>
     <row r="43" spans="1:15" s="38" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="147" t="s">
+      <c r="A43" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="147"/>
+      <c r="B43" s="177"/>
       <c r="C43" s="70"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -8839,22 +8860,22 @@
       <c r="G43" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="147" t="s">
+      <c r="H43" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="177"/>
+      <c r="K43" s="177"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="148" t="s">
+      <c r="A44" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="148"/>
+      <c r="B44" s="178"/>
       <c r="C44" s="101"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -8897,49 +8918,241 @@
       <c r="M52" s="54"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="144"/>
-      <c r="D76" s="144"/>
-      <c r="E76" s="144"/>
-      <c r="I76" s="144"/>
-      <c r="J76" s="144"/>
-      <c r="K76" s="144"/>
-      <c r="L76" s="144"/>
-      <c r="M76" s="144"/>
-      <c r="N76" s="144"/>
-      <c r="O76" s="144"/>
+      <c r="C76" s="174"/>
+      <c r="D76" s="174"/>
+      <c r="E76" s="174"/>
+      <c r="I76" s="174"/>
+      <c r="J76" s="174"/>
+      <c r="K76" s="174"/>
+      <c r="L76" s="174"/>
+      <c r="M76" s="174"/>
+      <c r="N76" s="174"/>
+      <c r="O76" s="174"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="144"/>
-      <c r="D77" s="144"/>
-      <c r="E77" s="144"/>
-      <c r="F77" s="144"/>
-      <c r="I77" s="144"/>
-      <c r="J77" s="144"/>
-      <c r="K77" s="144"/>
-      <c r="L77" s="144"/>
-      <c r="M77" s="144"/>
-      <c r="N77" s="144"/>
-      <c r="O77" s="144"/>
+      <c r="C77" s="174"/>
+      <c r="D77" s="174"/>
+      <c r="E77" s="174"/>
+      <c r="F77" s="174"/>
+      <c r="I77" s="174"/>
+      <c r="J77" s="174"/>
+      <c r="K77" s="174"/>
+      <c r="L77" s="174"/>
+      <c r="M77" s="174"/>
+      <c r="N77" s="174"/>
+      <c r="O77" s="174"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="144"/>
-      <c r="D78" s="144"/>
-      <c r="E78" s="144"/>
-      <c r="I78" s="144"/>
-      <c r="J78" s="144"/>
-      <c r="K78" s="144"/>
-      <c r="L78" s="144"/>
-      <c r="M78" s="144"/>
-      <c r="N78" s="144"/>
-      <c r="O78" s="144"/>
+      <c r="C78" s="174"/>
+      <c r="D78" s="174"/>
+      <c r="E78" s="174"/>
+      <c r="I78" s="174"/>
+      <c r="J78" s="174"/>
+      <c r="K78" s="174"/>
+      <c r="L78" s="174"/>
+      <c r="M78" s="174"/>
+      <c r="N78" s="174"/>
+      <c r="O78" s="174"/>
     </row>
     <row r="79" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C79" s="144"/>
-      <c r="D79" s="144"/>
-      <c r="E79" s="144"/>
+      <c r="C79" s="174"/>
+      <c r="D79" s="174"/>
+      <c r="E79" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
@@ -8964,208 +9177,16 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D8:E40">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="notBetween">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="notBetween">
       <formula>14</formula>
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:G38">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="notBetween">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="notBetween">
       <formula>0.025</formula>
       <formula>0.035</formula>
     </cfRule>
@@ -9181,25 +9202,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:I40">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="notBetween">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="notBetween">
       <formula>45</formula>
       <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:K40">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="notBetween">
       <formula>0.2</formula>
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:M40">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="notBetween">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="notBetween">
       <formula>167</formula>
       <formula>170</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:O40">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="notBetween">
       <formula>0</formula>
       <formula>4</formula>
     </cfRule>
@@ -9235,61 +9256,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
       <c r="N1" s="171" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="171"/>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
       <c r="N2" s="172" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="172"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="222"/>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="222"/>
-      <c r="H3" s="222"/>
-      <c r="I3" s="222"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="222"/>
-      <c r="M3" s="222"/>
+      <c r="A3" s="208"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -9299,124 +9320,124 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="223">
+      <c r="B4" s="209">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="225"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="211"/>
       <c r="E4" s="169" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="170"/>
-      <c r="G4" s="223">
+      <c r="G4" s="209">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="225"/>
+      <c r="H4" s="211"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="226">
+      <c r="J4" s="212">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="226"/>
+      <c r="K4" s="212"/>
       <c r="L4" s="162" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="162"/>
-      <c r="N4" s="223">
+      <c r="N4" s="209">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="227"/>
+      <c r="O4" s="213"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="141">
+      <c r="B5" s="143">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="190"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="191" t="s">
+      <c r="C5" s="247"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="192"/>
-      <c r="G5" s="141">
+      <c r="F5" s="249"/>
+      <c r="G5" s="143">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="178"/>
+      <c r="H5" s="147"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="174">
+      <c r="J5" s="142">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="174"/>
-      <c r="L5" s="189" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="189"/>
-      <c r="N5" s="141">
+      <c r="M5" s="246"/>
+      <c r="N5" s="143">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="142"/>
+      <c r="O5" s="181"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="243" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="188"/>
+      <c r="B6" s="244"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="244"/>
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="244"/>
+      <c r="L6" s="244"/>
+      <c r="M6" s="244"/>
+      <c r="N6" s="244"/>
+      <c r="O6" s="245"/>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="228" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="229"/>
-      <c r="D7" s="182" t="s">
+      <c r="A7" s="214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="215"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="183" t="s">
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="184"/>
-      <c r="J7" s="184"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="183" t="s">
+      <c r="I7" s="241"/>
+      <c r="J7" s="241"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="184"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="193"/>
+      <c r="M7" s="241"/>
+      <c r="N7" s="241"/>
+      <c r="O7" s="250"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="230"/>
-      <c r="B8" s="231"/>
-      <c r="C8" s="232"/>
+      <c r="A8" s="217"/>
+      <c r="B8" s="218"/>
+      <c r="C8" s="219"/>
       <c r="D8" s="10">
         <v>1</v>
       </c>
@@ -10510,27 +10531,27 @@
       <c r="C39" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="214" t="e">
+      <c r="D39" s="200" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="216"/>
-      <c r="H39" s="217" t="e">
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="202"/>
+      <c r="H39" s="203" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="218"/>
-      <c r="J39" s="218"/>
-      <c r="K39" s="219"/>
-      <c r="L39" s="217" t="e">
+      <c r="I39" s="204"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="205"/>
+      <c r="L39" s="203" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="218"/>
-      <c r="N39" s="218"/>
-      <c r="O39" s="220"/>
+      <c r="M39" s="204"/>
+      <c r="N39" s="204"/>
+      <c r="O39" s="206"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="16"/>
@@ -10538,27 +10559,27 @@
       <c r="C40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="197" t="e">
+      <c r="D40" s="222" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="199"/>
-      <c r="H40" s="200" t="e">
+      <c r="E40" s="223"/>
+      <c r="F40" s="223"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="225" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="201"/>
-      <c r="J40" s="201"/>
-      <c r="K40" s="202"/>
-      <c r="L40" s="200" t="e">
+      <c r="I40" s="226"/>
+      <c r="J40" s="226"/>
+      <c r="K40" s="227"/>
+      <c r="L40" s="225" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="201"/>
-      <c r="N40" s="201"/>
-      <c r="O40" s="203"/>
+      <c r="M40" s="226"/>
+      <c r="N40" s="226"/>
+      <c r="O40" s="228"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -10566,57 +10587,57 @@
       <c r="C41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="204" t="e">
+      <c r="D41" s="229" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="205"/>
-      <c r="F41" s="205"/>
-      <c r="G41" s="206"/>
-      <c r="H41" s="207" t="e">
+      <c r="E41" s="230"/>
+      <c r="F41" s="230"/>
+      <c r="G41" s="231"/>
+      <c r="H41" s="232" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="208"/>
-      <c r="J41" s="208"/>
-      <c r="K41" s="209"/>
-      <c r="L41" s="207" t="e">
+      <c r="I41" s="233"/>
+      <c r="J41" s="233"/>
+      <c r="K41" s="234"/>
+      <c r="L41" s="232" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="208"/>
-      <c r="N41" s="208"/>
-      <c r="O41" s="210"/>
+      <c r="M41" s="233"/>
+      <c r="N41" s="233"/>
+      <c r="O41" s="235"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="211"/>
-      <c r="C42" s="211"/>
-      <c r="D42" s="212" t="s">
+      <c r="B42" s="236"/>
+      <c r="C42" s="236"/>
+      <c r="D42" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="212"/>
-      <c r="F42" s="212"/>
-      <c r="G42" s="212"/>
+      <c r="E42" s="237"/>
+      <c r="F42" s="237"/>
+      <c r="G42" s="237"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="195" t="s">
+      <c r="K42" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="195"/>
-      <c r="M42" s="211"/>
-      <c r="N42" s="211"/>
+      <c r="L42" s="221"/>
+      <c r="M42" s="236"/>
+      <c r="N42" s="236"/>
       <c r="O42" s="107" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -10626,15 +10647,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="100"/>
       <c r="L43" s="100"/>
-      <c r="M43" s="213"/>
-      <c r="N43" s="213"/>
+      <c r="M43" s="238"/>
+      <c r="N43" s="238"/>
       <c r="O43" s="100"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="194" t="s">
+      <c r="A44" s="220" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="194"/>
+      <c r="B44" s="220"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -10643,23 +10664,23 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="147" t="str">
+      <c r="H44" s="177" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
-      <c r="K44" s="147"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="177"/>
+      <c r="K44" s="177"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A45" s="194" t="s">
+      <c r="A45" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="194"/>
+      <c r="B45" s="220"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -10671,13 +10692,38 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="196" t="s">
+      <c r="N45" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="196"/>
+      <c r="O45" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:O39"/>
@@ -10694,44 +10740,19 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
       <formula>350</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:K41">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:O26 M27:O27 L28:O41">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="notBetween">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="notBetween">
       <formula>2.5</formula>
       <formula>5.5</formula>
     </cfRule>
@@ -10766,21 +10787,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
       <c r="N1" s="171" t="s">
         <v>22</v>
       </c>
@@ -10830,124 +10851,124 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="223">
+      <c r="B4" s="209">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="225"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="211"/>
       <c r="E4" s="169" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="170"/>
-      <c r="G4" s="223">
+      <c r="G4" s="209">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="225"/>
+      <c r="H4" s="211"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="226">
+      <c r="J4" s="212">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="226"/>
+      <c r="K4" s="212"/>
       <c r="L4" s="162" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="162"/>
-      <c r="N4" s="223">
+      <c r="N4" s="209">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="227"/>
+      <c r="O4" s="213"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="141">
+      <c r="B5" s="143">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="190"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="191" t="s">
+      <c r="C5" s="247"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="192"/>
-      <c r="G5" s="141">
+      <c r="F5" s="249"/>
+      <c r="G5" s="143">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="178"/>
+      <c r="H5" s="147"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="174">
+      <c r="J5" s="142">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="174"/>
-      <c r="L5" s="189" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="189"/>
-      <c r="N5" s="141">
+      <c r="M5" s="246"/>
+      <c r="N5" s="143">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="142"/>
+      <c r="O5" s="181"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="174"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="251"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="252"/>
     </row>
     <row r="7" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="252" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="253"/>
-      <c r="C7" s="254"/>
-      <c r="D7" s="258" t="s">
+      <c r="A7" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="254"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="259" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="258"/>
-      <c r="F7" s="258"/>
-      <c r="G7" s="258"/>
-      <c r="H7" s="259" t="s">
+      <c r="E7" s="259"/>
+      <c r="F7" s="259"/>
+      <c r="G7" s="259"/>
+      <c r="H7" s="260" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
-      <c r="L7" s="259" t="s">
+      <c r="I7" s="261"/>
+      <c r="J7" s="261"/>
+      <c r="K7" s="262"/>
+      <c r="L7" s="260" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="260"/>
-      <c r="N7" s="260"/>
-      <c r="O7" s="262"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="261"/>
+      <c r="O7" s="263"/>
     </row>
     <row r="8" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="255"/>
-      <c r="B8" s="256"/>
-      <c r="C8" s="257"/>
+      <c r="A8" s="256"/>
+      <c r="B8" s="257"/>
+      <c r="C8" s="258"/>
       <c r="D8" s="105">
         <v>1</v>
       </c>
@@ -12041,27 +12062,27 @@
       <c r="C39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="236" t="e">
+      <c r="D39" s="271" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="237"/>
-      <c r="F39" s="237"/>
-      <c r="G39" s="238"/>
-      <c r="H39" s="239" t="e">
+      <c r="E39" s="272"/>
+      <c r="F39" s="272"/>
+      <c r="G39" s="273"/>
+      <c r="H39" s="274" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="240"/>
-      <c r="J39" s="240"/>
-      <c r="K39" s="241"/>
-      <c r="L39" s="239" t="e">
+      <c r="I39" s="275"/>
+      <c r="J39" s="275"/>
+      <c r="K39" s="276"/>
+      <c r="L39" s="274" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="240"/>
-      <c r="N39" s="240"/>
-      <c r="O39" s="242"/>
+      <c r="M39" s="275"/>
+      <c r="N39" s="275"/>
+      <c r="O39" s="277"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="39"/>
@@ -12069,27 +12090,27 @@
       <c r="C40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="243" t="e">
+      <c r="D40" s="278" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="244"/>
-      <c r="F40" s="244"/>
-      <c r="G40" s="245"/>
-      <c r="H40" s="246" t="e">
+      <c r="E40" s="279"/>
+      <c r="F40" s="279"/>
+      <c r="G40" s="280"/>
+      <c r="H40" s="281" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="247"/>
-      <c r="J40" s="247"/>
-      <c r="K40" s="248"/>
-      <c r="L40" s="246" t="e">
+      <c r="I40" s="282"/>
+      <c r="J40" s="282"/>
+      <c r="K40" s="283"/>
+      <c r="L40" s="281" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="247"/>
-      <c r="N40" s="247"/>
-      <c r="O40" s="249"/>
+      <c r="M40" s="282"/>
+      <c r="N40" s="282"/>
+      <c r="O40" s="284"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="41"/>
@@ -12097,57 +12118,57 @@
       <c r="C41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="263" t="e">
+      <c r="D41" s="264" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="264"/>
-      <c r="F41" s="264"/>
-      <c r="G41" s="265"/>
-      <c r="H41" s="233" t="e">
+      <c r="E41" s="265"/>
+      <c r="F41" s="265"/>
+      <c r="G41" s="266"/>
+      <c r="H41" s="267" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="234"/>
-      <c r="J41" s="234"/>
-      <c r="K41" s="266"/>
-      <c r="L41" s="233" t="e">
+      <c r="I41" s="268"/>
+      <c r="J41" s="268"/>
+      <c r="K41" s="269"/>
+      <c r="L41" s="267" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="234"/>
-      <c r="N41" s="234"/>
-      <c r="O41" s="235"/>
+      <c r="M41" s="268"/>
+      <c r="N41" s="268"/>
+      <c r="O41" s="270"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="211"/>
-      <c r="C42" s="211"/>
-      <c r="D42" s="212" t="s">
+      <c r="B42" s="236"/>
+      <c r="C42" s="236"/>
+      <c r="D42" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="212"/>
-      <c r="F42" s="212"/>
-      <c r="G42" s="212"/>
+      <c r="E42" s="237"/>
+      <c r="F42" s="237"/>
+      <c r="G42" s="237"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="195" t="s">
+      <c r="K42" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="195"/>
-      <c r="M42" s="211"/>
-      <c r="N42" s="211"/>
+      <c r="L42" s="221"/>
+      <c r="M42" s="236"/>
+      <c r="N42" s="236"/>
       <c r="O42" s="107" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -12157,15 +12178,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="100"/>
       <c r="L43" s="100"/>
-      <c r="M43" s="213"/>
-      <c r="N43" s="213"/>
+      <c r="M43" s="238"/>
+      <c r="N43" s="238"/>
       <c r="O43" s="100"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="194" t="s">
+      <c r="A44" s="220" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="194"/>
+      <c r="B44" s="220"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -12174,12 +12195,12 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="147" t="str">
+      <c r="H44" s="177" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="177"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
@@ -12187,10 +12208,10 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="194" t="s">
+      <c r="A45" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="194"/>
+      <c r="B45" s="220"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -12202,26 +12223,25 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="196" t="s">
+      <c r="N45" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="O45" s="196"/>
+      <c r="O45" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="M42:N42"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="N45:O45"/>
@@ -12238,31 +12258,32 @@
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:K41">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:O41">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="notBetween">
       <formula>20</formula>
       <formula>40</formula>
     </cfRule>
@@ -12297,21 +12318,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
       <c r="N1" s="171" t="s">
         <v>22</v>
       </c>
@@ -12361,122 +12382,122 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="223">
+      <c r="B4" s="209">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="225"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="211"/>
       <c r="E4" s="169" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="170"/>
-      <c r="G4" s="223">
+      <c r="G4" s="209">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="225"/>
+      <c r="H4" s="211"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="226">
+      <c r="J4" s="212">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="226"/>
+      <c r="K4" s="212"/>
       <c r="L4" s="162" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="162"/>
-      <c r="N4" s="291">
+      <c r="N4" s="285">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="292"/>
+      <c r="O4" s="286"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="141">
+      <c r="B5" s="143">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="190"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="191" t="s">
+      <c r="C5" s="247"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="192"/>
-      <c r="G5" s="141">
+      <c r="F5" s="249"/>
+      <c r="G5" s="143">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="178"/>
+      <c r="H5" s="147"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="174">
+      <c r="J5" s="142">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="174"/>
-      <c r="L5" s="189" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="189"/>
-      <c r="N5" s="293">
+      <c r="M5" s="246"/>
+      <c r="N5" s="287">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="142"/>
+      <c r="O5" s="181"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="287" t="s">
+      <c r="A6" s="288" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="288"/>
-      <c r="C6" s="288"/>
-      <c r="D6" s="289"/>
-      <c r="E6" s="289"/>
-      <c r="F6" s="289"/>
-      <c r="G6" s="284"/>
-      <c r="H6" s="283"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="274"/>
-      <c r="K6" s="281"/>
-      <c r="L6" s="281"/>
-      <c r="M6" s="281"/>
-      <c r="N6" s="281"/>
-      <c r="O6" s="275"/>
+      <c r="B6" s="289"/>
+      <c r="C6" s="289"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="290"/>
+      <c r="G6" s="291"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="291"/>
+      <c r="J6" s="295"/>
+      <c r="K6" s="303"/>
+      <c r="L6" s="303"/>
+      <c r="M6" s="303"/>
+      <c r="N6" s="303"/>
+      <c r="O6" s="296"/>
     </row>
     <row r="7" spans="1:15" s="38" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="290" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="226"/>
-      <c r="C7" s="226"/>
-      <c r="D7" s="224" t="s">
+      <c r="A7" s="294" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="274" t="s">
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="295" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="275"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="196"/>
-      <c r="O7" s="282"/>
+      <c r="I7" s="296"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="215"/>
+      <c r="O7" s="304"/>
     </row>
     <row r="8" spans="1:15" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="173"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
       <c r="D8" s="110">
         <v>1</v>
       </c>
@@ -12489,14 +12510,14 @@
       <c r="G8" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="230"/>
-      <c r="I8" s="276"/>
-      <c r="J8" s="228"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
-      <c r="N8" s="196"/>
-      <c r="O8" s="282"/>
+      <c r="H8" s="217"/>
+      <c r="I8" s="297"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="215"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="215"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="304"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="A9" s="58">
@@ -12518,16 +12539,16 @@
         <f t="shared" ref="G9:G38" si="0">AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="277">
-        <v>0</v>
-      </c>
-      <c r="I9" s="278"/>
-      <c r="J9" s="228"/>
-      <c r="K9" s="196"/>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="196"/>
-      <c r="O9" s="282"/>
+      <c r="H9" s="298">
+        <v>0</v>
+      </c>
+      <c r="I9" s="299"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="215"/>
+      <c r="L9" s="215"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="304"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="A10" s="58">
@@ -12549,16 +12570,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="272">
-        <v>0</v>
-      </c>
-      <c r="I10" s="273"/>
-      <c r="J10" s="228"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
-      <c r="N10" s="196"/>
-      <c r="O10" s="282"/>
+      <c r="H10" s="292">
+        <v>0</v>
+      </c>
+      <c r="I10" s="293"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="215"/>
+      <c r="M10" s="215"/>
+      <c r="N10" s="215"/>
+      <c r="O10" s="304"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="58">
@@ -12580,16 +12601,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="272">
-        <v>0</v>
-      </c>
-      <c r="I11" s="273"/>
-      <c r="J11" s="228"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="196"/>
-      <c r="N11" s="196"/>
-      <c r="O11" s="282"/>
+      <c r="H11" s="292">
+        <v>0</v>
+      </c>
+      <c r="I11" s="293"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="215"/>
+      <c r="L11" s="215"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="304"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="A12" s="58">
@@ -12611,16 +12632,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="272">
-        <v>0</v>
-      </c>
-      <c r="I12" s="273"/>
-      <c r="J12" s="228"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="196"/>
-      <c r="M12" s="196"/>
-      <c r="N12" s="196"/>
-      <c r="O12" s="282"/>
+      <c r="H12" s="292">
+        <v>0</v>
+      </c>
+      <c r="I12" s="293"/>
+      <c r="J12" s="214"/>
+      <c r="K12" s="215"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="215"/>
+      <c r="O12" s="304"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="A13" s="58">
@@ -12642,16 +12663,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="272">
-        <v>0</v>
-      </c>
-      <c r="I13" s="273"/>
-      <c r="J13" s="228"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="196"/>
-      <c r="O13" s="282"/>
+      <c r="H13" s="292">
+        <v>0</v>
+      </c>
+      <c r="I13" s="293"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="215"/>
+      <c r="M13" s="215"/>
+      <c r="N13" s="215"/>
+      <c r="O13" s="304"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="A14" s="58">
@@ -12673,16 +12694,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="272">
-        <v>0</v>
-      </c>
-      <c r="I14" s="273"/>
-      <c r="J14" s="228"/>
-      <c r="K14" s="196"/>
-      <c r="L14" s="196"/>
-      <c r="M14" s="196"/>
-      <c r="N14" s="196"/>
-      <c r="O14" s="282"/>
+      <c r="H14" s="292">
+        <v>0</v>
+      </c>
+      <c r="I14" s="293"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="215"/>
+      <c r="L14" s="215"/>
+      <c r="M14" s="215"/>
+      <c r="N14" s="215"/>
+      <c r="O14" s="304"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="A15" s="58">
@@ -12704,16 +12725,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="272">
-        <v>0</v>
-      </c>
-      <c r="I15" s="273"/>
-      <c r="J15" s="228"/>
-      <c r="K15" s="196"/>
-      <c r="L15" s="196"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="196"/>
-      <c r="O15" s="282"/>
+      <c r="H15" s="292">
+        <v>0</v>
+      </c>
+      <c r="I15" s="293"/>
+      <c r="J15" s="214"/>
+      <c r="K15" s="215"/>
+      <c r="L15" s="215"/>
+      <c r="M15" s="215"/>
+      <c r="N15" s="215"/>
+      <c r="O15" s="304"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="58">
@@ -12735,16 +12756,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="272">
-        <v>0</v>
-      </c>
-      <c r="I16" s="273"/>
-      <c r="J16" s="228"/>
-      <c r="K16" s="196"/>
-      <c r="L16" s="196"/>
-      <c r="M16" s="196"/>
-      <c r="N16" s="196"/>
-      <c r="O16" s="282"/>
+      <c r="H16" s="292">
+        <v>0</v>
+      </c>
+      <c r="I16" s="293"/>
+      <c r="J16" s="214"/>
+      <c r="K16" s="215"/>
+      <c r="L16" s="215"/>
+      <c r="M16" s="215"/>
+      <c r="N16" s="215"/>
+      <c r="O16" s="304"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
       <c r="A17" s="58">
@@ -12766,16 +12787,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="272">
-        <v>0</v>
-      </c>
-      <c r="I17" s="273"/>
-      <c r="J17" s="228"/>
-      <c r="K17" s="196"/>
-      <c r="L17" s="196"/>
-      <c r="M17" s="196"/>
-      <c r="N17" s="196"/>
-      <c r="O17" s="282"/>
+      <c r="H17" s="292">
+        <v>0</v>
+      </c>
+      <c r="I17" s="293"/>
+      <c r="J17" s="214"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="215"/>
+      <c r="M17" s="215"/>
+      <c r="N17" s="215"/>
+      <c r="O17" s="304"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
       <c r="A18" s="58">
@@ -12797,16 +12818,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="272">
-        <v>0</v>
-      </c>
-      <c r="I18" s="273"/>
-      <c r="J18" s="228"/>
-      <c r="K18" s="196"/>
-      <c r="L18" s="196"/>
-      <c r="M18" s="196"/>
-      <c r="N18" s="196"/>
-      <c r="O18" s="282"/>
+      <c r="H18" s="292">
+        <v>0</v>
+      </c>
+      <c r="I18" s="293"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="215"/>
+      <c r="L18" s="215"/>
+      <c r="M18" s="215"/>
+      <c r="N18" s="215"/>
+      <c r="O18" s="304"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
       <c r="A19" s="58">
@@ -12828,16 +12849,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="272">
-        <v>0</v>
-      </c>
-      <c r="I19" s="273"/>
-      <c r="J19" s="228"/>
-      <c r="K19" s="196"/>
-      <c r="L19" s="196"/>
-      <c r="M19" s="196"/>
-      <c r="N19" s="196"/>
-      <c r="O19" s="282"/>
+      <c r="H19" s="292">
+        <v>0</v>
+      </c>
+      <c r="I19" s="293"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="215"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="215"/>
+      <c r="O19" s="304"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
       <c r="A20" s="58">
@@ -12859,16 +12880,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="272">
-        <v>0</v>
-      </c>
-      <c r="I20" s="273"/>
-      <c r="J20" s="228"/>
-      <c r="K20" s="196"/>
-      <c r="L20" s="196"/>
-      <c r="M20" s="196"/>
-      <c r="N20" s="196"/>
-      <c r="O20" s="282"/>
+      <c r="H20" s="292">
+        <v>0</v>
+      </c>
+      <c r="I20" s="293"/>
+      <c r="J20" s="214"/>
+      <c r="K20" s="215"/>
+      <c r="L20" s="215"/>
+      <c r="M20" s="215"/>
+      <c r="N20" s="215"/>
+      <c r="O20" s="304"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
       <c r="A21" s="58">
@@ -12890,16 +12911,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="272">
-        <v>0</v>
-      </c>
-      <c r="I21" s="273"/>
-      <c r="J21" s="228"/>
-      <c r="K21" s="196"/>
-      <c r="L21" s="196"/>
-      <c r="M21" s="196"/>
-      <c r="N21" s="196"/>
-      <c r="O21" s="282"/>
+      <c r="H21" s="292">
+        <v>0</v>
+      </c>
+      <c r="I21" s="293"/>
+      <c r="J21" s="214"/>
+      <c r="K21" s="215"/>
+      <c r="L21" s="215"/>
+      <c r="M21" s="215"/>
+      <c r="N21" s="215"/>
+      <c r="O21" s="304"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
       <c r="A22" s="58">
@@ -12921,16 +12942,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="272">
-        <v>0</v>
-      </c>
-      <c r="I22" s="273"/>
-      <c r="J22" s="228"/>
-      <c r="K22" s="196"/>
-      <c r="L22" s="196"/>
-      <c r="M22" s="196"/>
-      <c r="N22" s="196"/>
-      <c r="O22" s="282"/>
+      <c r="H22" s="292">
+        <v>0</v>
+      </c>
+      <c r="I22" s="293"/>
+      <c r="J22" s="214"/>
+      <c r="K22" s="215"/>
+      <c r="L22" s="215"/>
+      <c r="M22" s="215"/>
+      <c r="N22" s="215"/>
+      <c r="O22" s="304"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
       <c r="A23" s="58">
@@ -12952,16 +12973,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="272">
-        <v>0</v>
-      </c>
-      <c r="I23" s="273"/>
-      <c r="J23" s="228"/>
-      <c r="K23" s="196"/>
-      <c r="L23" s="196"/>
-      <c r="M23" s="196"/>
-      <c r="N23" s="196"/>
-      <c r="O23" s="282"/>
+      <c r="H23" s="292">
+        <v>0</v>
+      </c>
+      <c r="I23" s="293"/>
+      <c r="J23" s="214"/>
+      <c r="K23" s="215"/>
+      <c r="L23" s="215"/>
+      <c r="M23" s="215"/>
+      <c r="N23" s="215"/>
+      <c r="O23" s="304"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
       <c r="A24" s="58">
@@ -12983,16 +13004,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="272">
-        <v>0</v>
-      </c>
-      <c r="I24" s="273"/>
-      <c r="J24" s="228"/>
-      <c r="K24" s="196"/>
-      <c r="L24" s="196"/>
-      <c r="M24" s="196"/>
-      <c r="N24" s="196"/>
-      <c r="O24" s="282"/>
+      <c r="H24" s="292">
+        <v>0</v>
+      </c>
+      <c r="I24" s="293"/>
+      <c r="J24" s="214"/>
+      <c r="K24" s="215"/>
+      <c r="L24" s="215"/>
+      <c r="M24" s="215"/>
+      <c r="N24" s="215"/>
+      <c r="O24" s="304"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
       <c r="A25" s="58">
@@ -13014,16 +13035,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="272">
-        <v>0</v>
-      </c>
-      <c r="I25" s="273"/>
-      <c r="J25" s="228"/>
-      <c r="K25" s="196"/>
-      <c r="L25" s="196"/>
-      <c r="M25" s="196"/>
-      <c r="N25" s="196"/>
-      <c r="O25" s="282"/>
+      <c r="H25" s="292">
+        <v>0</v>
+      </c>
+      <c r="I25" s="293"/>
+      <c r="J25" s="214"/>
+      <c r="K25" s="215"/>
+      <c r="L25" s="215"/>
+      <c r="M25" s="215"/>
+      <c r="N25" s="215"/>
+      <c r="O25" s="304"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
       <c r="A26" s="58">
@@ -13045,16 +13066,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="272">
-        <v>0</v>
-      </c>
-      <c r="I26" s="273"/>
-      <c r="J26" s="228"/>
-      <c r="K26" s="196"/>
-      <c r="L26" s="196"/>
-      <c r="M26" s="196"/>
-      <c r="N26" s="196"/>
-      <c r="O26" s="282"/>
+      <c r="H26" s="292">
+        <v>0</v>
+      </c>
+      <c r="I26" s="293"/>
+      <c r="J26" s="214"/>
+      <c r="K26" s="215"/>
+      <c r="L26" s="215"/>
+      <c r="M26" s="215"/>
+      <c r="N26" s="215"/>
+      <c r="O26" s="304"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
       <c r="A27" s="58">
@@ -13076,16 +13097,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="272">
-        <v>0</v>
-      </c>
-      <c r="I27" s="273"/>
-      <c r="J27" s="228"/>
-      <c r="K27" s="196"/>
-      <c r="L27" s="196"/>
-      <c r="M27" s="196"/>
-      <c r="N27" s="196"/>
-      <c r="O27" s="282"/>
+      <c r="H27" s="292">
+        <v>0</v>
+      </c>
+      <c r="I27" s="293"/>
+      <c r="J27" s="214"/>
+      <c r="K27" s="215"/>
+      <c r="L27" s="215"/>
+      <c r="M27" s="215"/>
+      <c r="N27" s="215"/>
+      <c r="O27" s="304"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="58">
@@ -13107,16 +13128,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="272">
-        <v>0</v>
-      </c>
-      <c r="I28" s="273"/>
-      <c r="J28" s="228"/>
-      <c r="K28" s="196"/>
-      <c r="L28" s="196"/>
-      <c r="M28" s="196"/>
-      <c r="N28" s="196"/>
-      <c r="O28" s="282"/>
+      <c r="H28" s="292">
+        <v>0</v>
+      </c>
+      <c r="I28" s="293"/>
+      <c r="J28" s="214"/>
+      <c r="K28" s="215"/>
+      <c r="L28" s="215"/>
+      <c r="M28" s="215"/>
+      <c r="N28" s="215"/>
+      <c r="O28" s="304"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="58">
@@ -13138,16 +13159,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="272">
-        <v>0</v>
-      </c>
-      <c r="I29" s="273"/>
-      <c r="J29" s="228"/>
-      <c r="K29" s="196"/>
-      <c r="L29" s="196"/>
-      <c r="M29" s="196"/>
-      <c r="N29" s="196"/>
-      <c r="O29" s="282"/>
+      <c r="H29" s="292">
+        <v>0</v>
+      </c>
+      <c r="I29" s="293"/>
+      <c r="J29" s="214"/>
+      <c r="K29" s="215"/>
+      <c r="L29" s="215"/>
+      <c r="M29" s="215"/>
+      <c r="N29" s="215"/>
+      <c r="O29" s="304"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
       <c r="A30" s="58">
@@ -13169,16 +13190,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="272">
-        <v>0</v>
-      </c>
-      <c r="I30" s="273"/>
-      <c r="J30" s="228"/>
-      <c r="K30" s="196"/>
-      <c r="L30" s="196"/>
-      <c r="M30" s="196"/>
-      <c r="N30" s="196"/>
-      <c r="O30" s="282"/>
+      <c r="H30" s="292">
+        <v>0</v>
+      </c>
+      <c r="I30" s="293"/>
+      <c r="J30" s="214"/>
+      <c r="K30" s="215"/>
+      <c r="L30" s="215"/>
+      <c r="M30" s="215"/>
+      <c r="N30" s="215"/>
+      <c r="O30" s="304"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
       <c r="A31" s="58">
@@ -13200,16 +13221,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="272">
-        <v>0</v>
-      </c>
-      <c r="I31" s="273"/>
-      <c r="J31" s="228"/>
-      <c r="K31" s="196"/>
-      <c r="L31" s="196"/>
-      <c r="M31" s="196"/>
-      <c r="N31" s="196"/>
-      <c r="O31" s="282"/>
+      <c r="H31" s="292">
+        <v>0</v>
+      </c>
+      <c r="I31" s="293"/>
+      <c r="J31" s="214"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="215"/>
+      <c r="O31" s="304"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
       <c r="A32" s="58">
@@ -13231,16 +13252,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="272">
-        <v>0</v>
-      </c>
-      <c r="I32" s="273"/>
-      <c r="J32" s="228"/>
-      <c r="K32" s="196"/>
-      <c r="L32" s="196"/>
-      <c r="M32" s="196"/>
-      <c r="N32" s="196"/>
-      <c r="O32" s="282"/>
+      <c r="H32" s="292">
+        <v>0</v>
+      </c>
+      <c r="I32" s="293"/>
+      <c r="J32" s="214"/>
+      <c r="K32" s="215"/>
+      <c r="L32" s="215"/>
+      <c r="M32" s="215"/>
+      <c r="N32" s="215"/>
+      <c r="O32" s="304"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
       <c r="A33" s="58">
@@ -13262,16 +13283,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="272">
-        <v>0</v>
-      </c>
-      <c r="I33" s="273"/>
-      <c r="J33" s="228"/>
-      <c r="K33" s="196"/>
-      <c r="L33" s="196"/>
-      <c r="M33" s="196"/>
-      <c r="N33" s="196"/>
-      <c r="O33" s="282"/>
+      <c r="H33" s="292">
+        <v>0</v>
+      </c>
+      <c r="I33" s="293"/>
+      <c r="J33" s="214"/>
+      <c r="K33" s="215"/>
+      <c r="L33" s="215"/>
+      <c r="M33" s="215"/>
+      <c r="N33" s="215"/>
+      <c r="O33" s="304"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
       <c r="A34" s="58">
@@ -13293,16 +13314,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="272">
-        <v>0</v>
-      </c>
-      <c r="I34" s="273"/>
-      <c r="J34" s="228"/>
-      <c r="K34" s="196"/>
-      <c r="L34" s="196"/>
-      <c r="M34" s="196"/>
-      <c r="N34" s="196"/>
-      <c r="O34" s="282"/>
+      <c r="H34" s="292">
+        <v>0</v>
+      </c>
+      <c r="I34" s="293"/>
+      <c r="J34" s="214"/>
+      <c r="K34" s="215"/>
+      <c r="L34" s="215"/>
+      <c r="M34" s="215"/>
+      <c r="N34" s="215"/>
+      <c r="O34" s="304"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
       <c r="A35" s="58">
@@ -13324,16 +13345,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="272">
-        <v>0</v>
-      </c>
-      <c r="I35" s="273"/>
-      <c r="J35" s="228"/>
-      <c r="K35" s="196"/>
-      <c r="L35" s="196"/>
-      <c r="M35" s="196"/>
-      <c r="N35" s="196"/>
-      <c r="O35" s="282"/>
+      <c r="H35" s="292">
+        <v>0</v>
+      </c>
+      <c r="I35" s="293"/>
+      <c r="J35" s="214"/>
+      <c r="K35" s="215"/>
+      <c r="L35" s="215"/>
+      <c r="M35" s="215"/>
+      <c r="N35" s="215"/>
+      <c r="O35" s="304"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
       <c r="A36" s="58">
@@ -13355,16 +13376,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="272">
-        <v>0</v>
-      </c>
-      <c r="I36" s="273"/>
-      <c r="J36" s="228"/>
-      <c r="K36" s="196"/>
-      <c r="L36" s="196"/>
-      <c r="M36" s="196"/>
-      <c r="N36" s="196"/>
-      <c r="O36" s="282"/>
+      <c r="H36" s="292">
+        <v>0</v>
+      </c>
+      <c r="I36" s="293"/>
+      <c r="J36" s="214"/>
+      <c r="K36" s="215"/>
+      <c r="L36" s="215"/>
+      <c r="M36" s="215"/>
+      <c r="N36" s="215"/>
+      <c r="O36" s="304"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="58">
@@ -13386,16 +13407,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="272">
-        <v>0</v>
-      </c>
-      <c r="I37" s="273"/>
-      <c r="J37" s="228"/>
-      <c r="K37" s="196"/>
-      <c r="L37" s="196"/>
-      <c r="M37" s="196"/>
-      <c r="N37" s="196"/>
-      <c r="O37" s="282"/>
+      <c r="H37" s="292">
+        <v>0</v>
+      </c>
+      <c r="I37" s="293"/>
+      <c r="J37" s="214"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="215"/>
+      <c r="M37" s="215"/>
+      <c r="N37" s="215"/>
+      <c r="O37" s="304"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="58">
@@ -13417,16 +13438,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="285">
-        <v>0</v>
-      </c>
-      <c r="I38" s="286"/>
-      <c r="J38" s="228"/>
-      <c r="K38" s="196"/>
-      <c r="L38" s="196"/>
-      <c r="M38" s="196"/>
-      <c r="N38" s="196"/>
-      <c r="O38" s="282"/>
+      <c r="H38" s="306">
+        <v>0</v>
+      </c>
+      <c r="I38" s="307"/>
+      <c r="J38" s="214"/>
+      <c r="K38" s="215"/>
+      <c r="L38" s="215"/>
+      <c r="M38" s="215"/>
+      <c r="N38" s="215"/>
+      <c r="O38" s="304"/>
     </row>
     <row r="39" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="36"/>
@@ -13434,24 +13455,24 @@
       <c r="C39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="239" t="e">
+      <c r="D39" s="274" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="240"/>
-      <c r="F39" s="240"/>
-      <c r="G39" s="242"/>
-      <c r="H39" s="268">
+      <c r="E39" s="275"/>
+      <c r="F39" s="275"/>
+      <c r="G39" s="277"/>
+      <c r="H39" s="308">
         <f>AVERAGE(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="269"/>
-      <c r="J39" s="228"/>
-      <c r="K39" s="196"/>
-      <c r="L39" s="196"/>
-      <c r="M39" s="196"/>
-      <c r="N39" s="196"/>
-      <c r="O39" s="282"/>
+      <c r="I39" s="309"/>
+      <c r="J39" s="214"/>
+      <c r="K39" s="215"/>
+      <c r="L39" s="215"/>
+      <c r="M39" s="215"/>
+      <c r="N39" s="215"/>
+      <c r="O39" s="304"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="39"/>
@@ -13459,24 +13480,24 @@
       <c r="C40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="246" t="e">
+      <c r="D40" s="281" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="247"/>
-      <c r="F40" s="247"/>
-      <c r="G40" s="249"/>
-      <c r="H40" s="270">
+      <c r="E40" s="282"/>
+      <c r="F40" s="282"/>
+      <c r="G40" s="284"/>
+      <c r="H40" s="310">
         <f>MIN(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="271"/>
-      <c r="J40" s="228"/>
-      <c r="K40" s="196"/>
-      <c r="L40" s="196"/>
-      <c r="M40" s="196"/>
-      <c r="N40" s="196"/>
-      <c r="O40" s="282"/>
+      <c r="I40" s="311"/>
+      <c r="J40" s="214"/>
+      <c r="K40" s="215"/>
+      <c r="L40" s="215"/>
+      <c r="M40" s="215"/>
+      <c r="N40" s="215"/>
+      <c r="O40" s="304"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="41"/>
@@ -13484,54 +13505,54 @@
       <c r="C41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="233" t="e">
+      <c r="D41" s="267" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="234"/>
-      <c r="F41" s="234"/>
-      <c r="G41" s="235"/>
-      <c r="H41" s="279">
+      <c r="E41" s="268"/>
+      <c r="F41" s="268"/>
+      <c r="G41" s="270"/>
+      <c r="H41" s="301">
         <f>MAX(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="280"/>
-      <c r="J41" s="230"/>
-      <c r="K41" s="231"/>
-      <c r="L41" s="231"/>
-      <c r="M41" s="231"/>
-      <c r="N41" s="231"/>
-      <c r="O41" s="276"/>
+      <c r="I41" s="302"/>
+      <c r="J41" s="217"/>
+      <c r="K41" s="218"/>
+      <c r="L41" s="218"/>
+      <c r="M41" s="218"/>
+      <c r="N41" s="218"/>
+      <c r="O41" s="297"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="211"/>
-      <c r="C42" s="211"/>
-      <c r="D42" s="212" t="s">
+      <c r="B42" s="236"/>
+      <c r="C42" s="236"/>
+      <c r="D42" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="212"/>
-      <c r="F42" s="212"/>
-      <c r="G42" s="212"/>
+      <c r="E42" s="237"/>
+      <c r="F42" s="237"/>
+      <c r="G42" s="237"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="195" t="s">
+      <c r="K42" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="195"/>
-      <c r="M42" s="211"/>
-      <c r="N42" s="211"/>
+      <c r="L42" s="221"/>
+      <c r="M42" s="236"/>
+      <c r="N42" s="236"/>
       <c r="O42" s="107" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -13541,15 +13562,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="100"/>
       <c r="L43" s="100"/>
-      <c r="M43" s="213"/>
-      <c r="N43" s="213"/>
+      <c r="M43" s="238"/>
+      <c r="N43" s="238"/>
       <c r="O43" s="100"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="194" t="s">
+      <c r="A44" s="220" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="194"/>
+      <c r="B44" s="220"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -13558,12 +13579,12 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="147" t="str">
+      <c r="H44" s="177" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="177"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
@@ -13571,10 +13592,10 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="194" t="s">
+      <c r="A45" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="194"/>
+      <c r="B45" s="220"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -13586,236 +13607,304 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="196" t="s">
+      <c r="N45" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="O45" s="196"/>
+      <c r="O45" s="215"/>
     </row>
     <row r="46" spans="1:15" s="38" customFormat="1"/>
     <row r="47" spans="1:15" s="38" customFormat="1"/>
     <row r="57" spans="4:15">
-      <c r="D57" s="267"/>
-      <c r="E57" s="267"/>
-      <c r="F57" s="267"/>
-      <c r="G57" s="267"/>
-      <c r="H57" s="267"/>
-      <c r="I57" s="267"/>
-      <c r="J57" s="267"/>
-      <c r="K57" s="267"/>
-      <c r="L57" s="267"/>
-      <c r="M57" s="267"/>
-      <c r="N57" s="267"/>
-      <c r="O57" s="267"/>
+      <c r="D57" s="300"/>
+      <c r="E57" s="300"/>
+      <c r="F57" s="300"/>
+      <c r="G57" s="300"/>
+      <c r="H57" s="300"/>
+      <c r="I57" s="300"/>
+      <c r="J57" s="300"/>
+      <c r="K57" s="300"/>
+      <c r="L57" s="300"/>
+      <c r="M57" s="300"/>
+      <c r="N57" s="300"/>
+      <c r="O57" s="300"/>
     </row>
     <row r="58" spans="4:15">
-      <c r="D58" s="267"/>
-      <c r="E58" s="267"/>
-      <c r="F58" s="267"/>
-      <c r="G58" s="267"/>
-      <c r="H58" s="267"/>
-      <c r="I58" s="267"/>
-      <c r="J58" s="267"/>
-      <c r="K58" s="267"/>
-      <c r="L58" s="267"/>
-      <c r="M58" s="267"/>
-      <c r="N58" s="267"/>
-      <c r="O58" s="267"/>
+      <c r="D58" s="300"/>
+      <c r="E58" s="300"/>
+      <c r="F58" s="300"/>
+      <c r="G58" s="300"/>
+      <c r="H58" s="300"/>
+      <c r="I58" s="300"/>
+      <c r="J58" s="300"/>
+      <c r="K58" s="300"/>
+      <c r="L58" s="300"/>
+      <c r="M58" s="300"/>
+      <c r="N58" s="300"/>
+      <c r="O58" s="300"/>
     </row>
     <row r="59" spans="4:15">
-      <c r="D59" s="267"/>
-      <c r="E59" s="267"/>
-      <c r="F59" s="267"/>
-      <c r="G59" s="267"/>
-      <c r="H59" s="267"/>
-      <c r="I59" s="267"/>
-      <c r="J59" s="267"/>
-      <c r="K59" s="267"/>
-      <c r="L59" s="267"/>
-      <c r="M59" s="267"/>
-      <c r="N59" s="267"/>
-      <c r="O59" s="267"/>
+      <c r="D59" s="300"/>
+      <c r="E59" s="300"/>
+      <c r="F59" s="300"/>
+      <c r="G59" s="300"/>
+      <c r="H59" s="300"/>
+      <c r="I59" s="300"/>
+      <c r="J59" s="300"/>
+      <c r="K59" s="300"/>
+      <c r="L59" s="300"/>
+      <c r="M59" s="300"/>
+      <c r="N59" s="300"/>
+      <c r="O59" s="300"/>
     </row>
     <row r="60" spans="4:15">
-      <c r="D60" s="267"/>
-      <c r="E60" s="267"/>
-      <c r="F60" s="267"/>
-      <c r="G60" s="267"/>
-      <c r="H60" s="267"/>
-      <c r="I60" s="267"/>
-      <c r="J60" s="267"/>
-      <c r="K60" s="267"/>
-      <c r="L60" s="267"/>
-      <c r="M60" s="267"/>
-      <c r="N60" s="267"/>
-      <c r="O60" s="267"/>
+      <c r="D60" s="300"/>
+      <c r="E60" s="300"/>
+      <c r="F60" s="300"/>
+      <c r="G60" s="300"/>
+      <c r="H60" s="300"/>
+      <c r="I60" s="300"/>
+      <c r="J60" s="300"/>
+      <c r="K60" s="300"/>
+      <c r="L60" s="300"/>
+      <c r="M60" s="300"/>
+      <c r="N60" s="300"/>
+      <c r="O60" s="300"/>
     </row>
     <row r="61" spans="4:15">
-      <c r="D61" s="267"/>
-      <c r="E61" s="267"/>
-      <c r="F61" s="267"/>
-      <c r="G61" s="267"/>
-      <c r="H61" s="267"/>
-      <c r="I61" s="267"/>
-      <c r="J61" s="267"/>
-      <c r="K61" s="267"/>
-      <c r="L61" s="267"/>
-      <c r="M61" s="267"/>
-      <c r="N61" s="267"/>
-      <c r="O61" s="267"/>
+      <c r="D61" s="300"/>
+      <c r="E61" s="300"/>
+      <c r="F61" s="300"/>
+      <c r="G61" s="300"/>
+      <c r="H61" s="300"/>
+      <c r="I61" s="300"/>
+      <c r="J61" s="300"/>
+      <c r="K61" s="300"/>
+      <c r="L61" s="300"/>
+      <c r="M61" s="300"/>
+      <c r="N61" s="300"/>
+      <c r="O61" s="300"/>
     </row>
     <row r="62" spans="4:15">
-      <c r="D62" s="267"/>
-      <c r="E62" s="267"/>
-      <c r="F62" s="267"/>
-      <c r="G62" s="267"/>
-      <c r="H62" s="267"/>
-      <c r="I62" s="267"/>
-      <c r="J62" s="267"/>
-      <c r="K62" s="267"/>
-      <c r="L62" s="267"/>
-      <c r="M62" s="267"/>
-      <c r="N62" s="267"/>
-      <c r="O62" s="267"/>
+      <c r="D62" s="300"/>
+      <c r="E62" s="300"/>
+      <c r="F62" s="300"/>
+      <c r="G62" s="300"/>
+      <c r="H62" s="300"/>
+      <c r="I62" s="300"/>
+      <c r="J62" s="300"/>
+      <c r="K62" s="300"/>
+      <c r="L62" s="300"/>
+      <c r="M62" s="300"/>
+      <c r="N62" s="300"/>
+      <c r="O62" s="300"/>
     </row>
     <row r="63" spans="4:15">
-      <c r="D63" s="267"/>
-      <c r="E63" s="267"/>
-      <c r="F63" s="267"/>
-      <c r="G63" s="267"/>
-      <c r="H63" s="267"/>
-      <c r="I63" s="267"/>
-      <c r="J63" s="267"/>
-      <c r="K63" s="267"/>
-      <c r="L63" s="267"/>
-      <c r="M63" s="267"/>
-      <c r="N63" s="267"/>
-      <c r="O63" s="267"/>
+      <c r="D63" s="300"/>
+      <c r="E63" s="300"/>
+      <c r="F63" s="300"/>
+      <c r="G63" s="300"/>
+      <c r="H63" s="300"/>
+      <c r="I63" s="300"/>
+      <c r="J63" s="300"/>
+      <c r="K63" s="300"/>
+      <c r="L63" s="300"/>
+      <c r="M63" s="300"/>
+      <c r="N63" s="300"/>
+      <c r="O63" s="300"/>
     </row>
     <row r="64" spans="4:15">
-      <c r="D64" s="267"/>
-      <c r="E64" s="267"/>
-      <c r="F64" s="267"/>
-      <c r="G64" s="267"/>
-      <c r="H64" s="267"/>
-      <c r="I64" s="267"/>
-      <c r="J64" s="267"/>
-      <c r="K64" s="267"/>
-      <c r="L64" s="267"/>
-      <c r="M64" s="267"/>
-      <c r="N64" s="267"/>
-      <c r="O64" s="267"/>
+      <c r="D64" s="300"/>
+      <c r="E64" s="300"/>
+      <c r="F64" s="300"/>
+      <c r="G64" s="300"/>
+      <c r="H64" s="300"/>
+      <c r="I64" s="300"/>
+      <c r="J64" s="300"/>
+      <c r="K64" s="300"/>
+      <c r="L64" s="300"/>
+      <c r="M64" s="300"/>
+      <c r="N64" s="300"/>
+      <c r="O64" s="300"/>
     </row>
     <row r="65" spans="4:15">
-      <c r="D65" s="267"/>
-      <c r="E65" s="267"/>
-      <c r="F65" s="267"/>
-      <c r="G65" s="267"/>
-      <c r="H65" s="267"/>
-      <c r="I65" s="267"/>
-      <c r="J65" s="267"/>
-      <c r="K65" s="267"/>
-      <c r="L65" s="267"/>
-      <c r="M65" s="267"/>
-      <c r="N65" s="267"/>
-      <c r="O65" s="267"/>
+      <c r="D65" s="300"/>
+      <c r="E65" s="300"/>
+      <c r="F65" s="300"/>
+      <c r="G65" s="300"/>
+      <c r="H65" s="300"/>
+      <c r="I65" s="300"/>
+      <c r="J65" s="300"/>
+      <c r="K65" s="300"/>
+      <c r="L65" s="300"/>
+      <c r="M65" s="300"/>
+      <c r="N65" s="300"/>
+      <c r="O65" s="300"/>
     </row>
     <row r="66" spans="4:15">
-      <c r="D66" s="267"/>
-      <c r="E66" s="267"/>
-      <c r="F66" s="267"/>
-      <c r="G66" s="267"/>
-      <c r="H66" s="267"/>
-      <c r="I66" s="267"/>
-      <c r="J66" s="267"/>
-      <c r="K66" s="267"/>
-      <c r="L66" s="267"/>
-      <c r="M66" s="267"/>
-      <c r="N66" s="267"/>
-      <c r="O66" s="267"/>
+      <c r="D66" s="300"/>
+      <c r="E66" s="300"/>
+      <c r="F66" s="300"/>
+      <c r="G66" s="300"/>
+      <c r="H66" s="300"/>
+      <c r="I66" s="300"/>
+      <c r="J66" s="300"/>
+      <c r="K66" s="300"/>
+      <c r="L66" s="300"/>
+      <c r="M66" s="300"/>
+      <c r="N66" s="300"/>
+      <c r="O66" s="300"/>
     </row>
     <row r="67" spans="4:15">
-      <c r="D67" s="267"/>
-      <c r="E67" s="267"/>
-      <c r="F67" s="267"/>
-      <c r="G67" s="267"/>
-      <c r="H67" s="267"/>
-      <c r="I67" s="267"/>
-      <c r="J67" s="267"/>
-      <c r="K67" s="267"/>
-      <c r="L67" s="267"/>
-      <c r="M67" s="267"/>
-      <c r="N67" s="267"/>
-      <c r="O67" s="267"/>
+      <c r="D67" s="300"/>
+      <c r="E67" s="300"/>
+      <c r="F67" s="300"/>
+      <c r="G67" s="300"/>
+      <c r="H67" s="300"/>
+      <c r="I67" s="300"/>
+      <c r="J67" s="300"/>
+      <c r="K67" s="300"/>
+      <c r="L67" s="300"/>
+      <c r="M67" s="300"/>
+      <c r="N67" s="300"/>
+      <c r="O67" s="300"/>
     </row>
     <row r="68" spans="4:15">
-      <c r="D68" s="267"/>
-      <c r="E68" s="267"/>
-      <c r="F68" s="267"/>
-      <c r="G68" s="267"/>
-      <c r="H68" s="267"/>
-      <c r="I68" s="267"/>
-      <c r="J68" s="267"/>
-      <c r="K68" s="267"/>
-      <c r="L68" s="267"/>
-      <c r="M68" s="267"/>
-      <c r="N68" s="267"/>
-      <c r="O68" s="267"/>
+      <c r="D68" s="300"/>
+      <c r="E68" s="300"/>
+      <c r="F68" s="300"/>
+      <c r="G68" s="300"/>
+      <c r="H68" s="300"/>
+      <c r="I68" s="300"/>
+      <c r="J68" s="300"/>
+      <c r="K68" s="300"/>
+      <c r="L68" s="300"/>
+      <c r="M68" s="300"/>
+      <c r="N68" s="300"/>
+      <c r="O68" s="300"/>
     </row>
     <row r="69" spans="4:15">
-      <c r="D69" s="267"/>
-      <c r="E69" s="267"/>
-      <c r="F69" s="267"/>
-      <c r="G69" s="267"/>
-      <c r="H69" s="267"/>
-      <c r="I69" s="267"/>
-      <c r="J69" s="267"/>
-      <c r="K69" s="267"/>
-      <c r="L69" s="267"/>
-      <c r="M69" s="267"/>
-      <c r="N69" s="267"/>
-      <c r="O69" s="267"/>
+      <c r="D69" s="300"/>
+      <c r="E69" s="300"/>
+      <c r="F69" s="300"/>
+      <c r="G69" s="300"/>
+      <c r="H69" s="300"/>
+      <c r="I69" s="300"/>
+      <c r="J69" s="300"/>
+      <c r="K69" s="300"/>
+      <c r="L69" s="300"/>
+      <c r="M69" s="300"/>
+      <c r="N69" s="300"/>
+      <c r="O69" s="300"/>
     </row>
     <row r="70" spans="4:15">
-      <c r="D70" s="267"/>
-      <c r="E70" s="267"/>
-      <c r="F70" s="267"/>
-      <c r="G70" s="267"/>
-      <c r="H70" s="267"/>
-      <c r="I70" s="267"/>
-      <c r="J70" s="267"/>
-      <c r="K70" s="267"/>
-      <c r="L70" s="267"/>
-      <c r="M70" s="267"/>
-      <c r="N70" s="267"/>
-      <c r="O70" s="267"/>
+      <c r="D70" s="300"/>
+      <c r="E70" s="300"/>
+      <c r="F70" s="300"/>
+      <c r="G70" s="300"/>
+      <c r="H70" s="300"/>
+      <c r="I70" s="300"/>
+      <c r="J70" s="300"/>
+      <c r="K70" s="300"/>
+      <c r="L70" s="300"/>
+      <c r="M70" s="300"/>
+      <c r="N70" s="300"/>
+      <c r="O70" s="300"/>
     </row>
     <row r="71" spans="4:15">
-      <c r="D71" s="267"/>
-      <c r="E71" s="267"/>
-      <c r="F71" s="267"/>
-      <c r="G71" s="267"/>
-      <c r="H71" s="267"/>
-      <c r="I71" s="267"/>
-      <c r="J71" s="267"/>
-      <c r="K71" s="267"/>
-      <c r="L71" s="267"/>
-      <c r="M71" s="267"/>
-      <c r="N71" s="267"/>
-      <c r="O71" s="267"/>
+      <c r="D71" s="300"/>
+      <c r="E71" s="300"/>
+      <c r="F71" s="300"/>
+      <c r="G71" s="300"/>
+      <c r="H71" s="300"/>
+      <c r="I71" s="300"/>
+      <c r="J71" s="300"/>
+      <c r="K71" s="300"/>
+      <c r="L71" s="300"/>
+      <c r="M71" s="300"/>
+      <c r="N71" s="300"/>
+      <c r="O71" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:O71"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="J6:O41"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A6:C6"/>
@@ -13840,93 +13929,25 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="J6:O41"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:O71"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G38">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:I41">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16096,7 +16117,7 @@
   <dimension ref="A1:AT53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -16301,165 +16322,165 @@
       <c r="D3" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="294" t="s">
+      <c r="E3" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="294" t="s">
+      <c r="F3" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="295" t="s">
+      <c r="G3" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="295" t="s">
+      <c r="H3" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="295" t="s">
+      <c r="I3" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="295" t="s">
+      <c r="J3" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="296" cm="1">
+      <c r="K3" s="115" cm="1">
         <f t="array" ref="K3">INDEX(Page1!$L$8:$L$37, COLUMN(K3)-10)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="296" cm="1">
+      <c r="L3" s="115" cm="1">
         <f t="array" ref="L3">INDEX(Page1!$L$8:$L$37, COLUMN(L3)-10)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="296" cm="1">
+      <c r="M3" s="115" cm="1">
         <f t="array" ref="M3">INDEX(Page1!$L$8:$L$37, COLUMN(M3)-10)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="296" cm="1">
+      <c r="N3" s="115" cm="1">
         <f t="array" ref="N3">INDEX(Page1!$L$8:$L$37, COLUMN(N3)-10)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="296" cm="1">
+      <c r="O3" s="115" cm="1">
         <f t="array" ref="O3">INDEX(Page1!$L$8:$L$37, COLUMN(O3)-10)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="296" cm="1">
+      <c r="P3" s="115" cm="1">
         <f t="array" ref="P3">INDEX(Page1!$L$8:$L$37, COLUMN(P3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="296" cm="1">
+      <c r="Q3" s="115" cm="1">
         <f t="array" ref="Q3">INDEX(Page1!$L$8:$L$37, COLUMN(Q3)-10)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="296" cm="1">
+      <c r="R3" s="115" cm="1">
         <f t="array" ref="R3">INDEX(Page1!$L$8:$L$37, COLUMN(R3)-10)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="296" cm="1">
+      <c r="S3" s="115" cm="1">
         <f t="array" ref="S3">INDEX(Page1!$L$8:$L$37, COLUMN(S3)-10)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="296" cm="1">
+      <c r="T3" s="115" cm="1">
         <f t="array" ref="T3">INDEX(Page1!$L$8:$L$37, COLUMN(T3)-10)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="296" cm="1">
+      <c r="U3" s="115" cm="1">
         <f t="array" ref="U3">INDEX(Page1!$L$8:$L$37, COLUMN(U3)-10)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="296" cm="1">
+      <c r="V3" s="115" cm="1">
         <f t="array" ref="V3">INDEX(Page1!$L$8:$L$37, COLUMN(V3)-10)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="296" cm="1">
+      <c r="W3" s="115" cm="1">
         <f t="array" ref="W3">INDEX(Page1!$L$8:$L$37, COLUMN(W3)-10)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="296" cm="1">
+      <c r="X3" s="115" cm="1">
         <f t="array" ref="X3">INDEX(Page1!$L$8:$L$37, COLUMN(X3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="296" cm="1">
+      <c r="Y3" s="115" cm="1">
         <f t="array" ref="Y3">INDEX(Page1!$L$8:$L$37, COLUMN(Y3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="296" cm="1">
+      <c r="Z3" s="115" cm="1">
         <f t="array" ref="Z3">INDEX(Page1!$L$8:$L$37, COLUMN(Z3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="296" cm="1">
+      <c r="AA3" s="115" cm="1">
         <f t="array" ref="AA3">INDEX(Page1!$L$8:$L$37, COLUMN(AA3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="296" cm="1">
+      <c r="AB3" s="115" cm="1">
         <f t="array" ref="AB3">INDEX(Page1!$L$8:$L$37, COLUMN(AB3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="296" cm="1">
+      <c r="AC3" s="115" cm="1">
         <f t="array" ref="AC3">INDEX(Page1!$L$8:$L$37, COLUMN(AC3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="296" cm="1">
+      <c r="AD3" s="115" cm="1">
         <f t="array" ref="AD3">INDEX(Page1!$L$8:$L$37, COLUMN(AD3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="296" cm="1">
+      <c r="AE3" s="115" cm="1">
         <f t="array" ref="AE3">INDEX(Page1!$L$8:$L$37, COLUMN(AE3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="296" cm="1">
+      <c r="AF3" s="115" cm="1">
         <f t="array" ref="AF3">INDEX(Page1!$L$8:$L$37, COLUMN(AF3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="296" cm="1">
+      <c r="AG3" s="115" cm="1">
         <f t="array" ref="AG3">INDEX(Page1!$L$8:$L$37, COLUMN(AG3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="296" cm="1">
+      <c r="AH3" s="115" cm="1">
         <f t="array" ref="AH3">INDEX(Page1!$L$8:$L$37, COLUMN(AH3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="296" cm="1">
+      <c r="AI3" s="115" cm="1">
         <f t="array" ref="AI3">INDEX(Page1!$L$8:$L$37, COLUMN(AI3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="296" cm="1">
+      <c r="AJ3" s="115" cm="1">
         <f t="array" ref="AJ3">INDEX(Page1!$L$8:$L$37, COLUMN(AJ3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="296" cm="1">
+      <c r="AK3" s="115" cm="1">
         <f t="array" ref="AK3">INDEX(Page1!$L$8:$L$37, COLUMN(AK3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="296" cm="1">
+      <c r="AL3" s="115" cm="1">
         <f t="array" ref="AL3">INDEX(Page1!$L$8:$L$37, COLUMN(AL3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="296" cm="1">
+      <c r="AM3" s="115" cm="1">
         <f t="array" ref="AM3">INDEX(Page1!$L$8:$L$37, COLUMN(AM3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="296" cm="1">
+      <c r="AN3" s="115" cm="1">
         <f t="array" ref="AN3">INDEX(Page1!$L$8:$L$37, COLUMN(AN3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO3" s="297">
+      <c r="AO3" s="116">
         <f t="shared" ref="AO3:AO16" si="0">AVERAGE(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="298">
+      <c r="AP3" s="117">
         <f>STDEV(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="299" t="e">
+      <c r="AQ3" s="118" t="e">
         <f>MIN((AO3-H3)/(3*AP3), (I3-AO3)/(3*AP3))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR3" s="300">
+      <c r="AR3" s="119">
         <f t="shared" ref="AR3:AR16" si="1">MIN(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AS3" s="300">
+      <c r="AS3" s="119">
         <f>MAX(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="297" t="e">
+      <c r="AT3" s="312" t="e">
         <f>IF(AQ3&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16477,163 +16498,163 @@
       <c r="D4" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="294" t="s">
+      <c r="E4" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="294" t="s">
+      <c r="F4" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="295" t="s">
+      <c r="G4" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="295"/>
-      <c r="I4" s="295" t="s">
+      <c r="H4" s="114"/>
+      <c r="I4" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="295" t="s">
+      <c r="J4" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="301" t="e" cm="1">
+      <c r="K4" s="120" t="e" cm="1">
         <f t="array" ref="K4">INDEX(Page4!$G$9:$G$38, COLUMN(K4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="301" t="e" cm="1">
+      <c r="L4" s="120" t="e" cm="1">
         <f t="array" ref="L4">INDEX(Page4!$G$9:$G$38, COLUMN(L4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="301" t="e" cm="1">
+      <c r="M4" s="120" t="e" cm="1">
         <f t="array" ref="M4">INDEX(Page4!$G$9:$G$38, COLUMN(M4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="301" t="e" cm="1">
+      <c r="N4" s="120" t="e" cm="1">
         <f t="array" ref="N4">INDEX(Page4!$G$9:$G$38, COLUMN(N4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="301" t="e" cm="1">
+      <c r="O4" s="120" t="e" cm="1">
         <f t="array" ref="O4">INDEX(Page4!$G$9:$G$38, COLUMN(O4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P4" s="301" t="e" cm="1">
+      <c r="P4" s="120" t="e" cm="1">
         <f t="array" ref="P4">INDEX(Page4!$G$9:$G$38, COLUMN(P4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="301" t="e" cm="1">
+      <c r="Q4" s="120" t="e" cm="1">
         <f t="array" ref="Q4">INDEX(Page4!$G$9:$G$38, COLUMN(Q4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R4" s="301" t="e" cm="1">
+      <c r="R4" s="120" t="e" cm="1">
         <f t="array" ref="R4">INDEX(Page4!$G$9:$G$38, COLUMN(R4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="301" t="e" cm="1">
+      <c r="S4" s="120" t="e" cm="1">
         <f t="array" ref="S4">INDEX(Page4!$G$9:$G$38, COLUMN(S4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T4" s="301" t="e" cm="1">
+      <c r="T4" s="120" t="e" cm="1">
         <f t="array" ref="T4">INDEX(Page4!$G$9:$G$38, COLUMN(T4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U4" s="301" t="e" cm="1">
+      <c r="U4" s="120" t="e" cm="1">
         <f t="array" ref="U4">INDEX(Page4!$G$9:$G$38, COLUMN(U4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V4" s="301" t="e" cm="1">
+      <c r="V4" s="120" t="e" cm="1">
         <f t="array" ref="V4">INDEX(Page4!$G$9:$G$38, COLUMN(V4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W4" s="301" t="e" cm="1">
+      <c r="W4" s="120" t="e" cm="1">
         <f t="array" ref="W4">INDEX(Page4!$G$9:$G$38, COLUMN(W4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X4" s="301" t="e" cm="1">
+      <c r="X4" s="120" t="e" cm="1">
         <f t="array" ref="X4">INDEX(Page4!$G$9:$G$38, COLUMN(X4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y4" s="301" t="e" cm="1">
+      <c r="Y4" s="120" t="e" cm="1">
         <f t="array" ref="Y4">INDEX(Page4!$G$9:$G$38, COLUMN(Y4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z4" s="301" t="e" cm="1">
+      <c r="Z4" s="120" t="e" cm="1">
         <f t="array" ref="Z4">INDEX(Page4!$G$9:$G$38, COLUMN(Z4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA4" s="301" t="e" cm="1">
+      <c r="AA4" s="120" t="e" cm="1">
         <f t="array" ref="AA4">INDEX(Page4!$G$9:$G$38, COLUMN(AA4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB4" s="301" t="e" cm="1">
+      <c r="AB4" s="120" t="e" cm="1">
         <f t="array" ref="AB4">INDEX(Page4!$G$9:$G$38, COLUMN(AB4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="301" t="e" cm="1">
+      <c r="AC4" s="120" t="e" cm="1">
         <f t="array" ref="AC4">INDEX(Page4!$G$9:$G$38, COLUMN(AC4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="301" t="e" cm="1">
+      <c r="AD4" s="120" t="e" cm="1">
         <f t="array" ref="AD4">INDEX(Page4!$G$9:$G$38, COLUMN(AD4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE4" s="301" t="e" cm="1">
+      <c r="AE4" s="120" t="e" cm="1">
         <f t="array" ref="AE4">INDEX(Page4!$G$9:$G$38, COLUMN(AE4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF4" s="301" t="e" cm="1">
+      <c r="AF4" s="120" t="e" cm="1">
         <f t="array" ref="AF4">INDEX(Page4!$G$9:$G$38, COLUMN(AF4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG4" s="301" t="e" cm="1">
+      <c r="AG4" s="120" t="e" cm="1">
         <f t="array" ref="AG4">INDEX(Page4!$G$9:$G$38, COLUMN(AG4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH4" s="301" t="e" cm="1">
+      <c r="AH4" s="120" t="e" cm="1">
         <f t="array" ref="AH4">INDEX(Page4!$G$9:$G$38, COLUMN(AH4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI4" s="301" t="e" cm="1">
+      <c r="AI4" s="120" t="e" cm="1">
         <f t="array" ref="AI4">INDEX(Page4!$G$9:$G$38, COLUMN(AI4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ4" s="301" t="e" cm="1">
+      <c r="AJ4" s="120" t="e" cm="1">
         <f t="array" ref="AJ4">INDEX(Page4!$G$9:$G$38, COLUMN(AJ4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK4" s="301" t="e" cm="1">
+      <c r="AK4" s="120" t="e" cm="1">
         <f t="array" ref="AK4">INDEX(Page4!$G$9:$G$38, COLUMN(AK4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL4" s="301" t="e" cm="1">
+      <c r="AL4" s="120" t="e" cm="1">
         <f t="array" ref="AL4">INDEX(Page4!$G$9:$G$38, COLUMN(AL4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM4" s="301" t="e" cm="1">
+      <c r="AM4" s="120" t="e" cm="1">
         <f t="array" ref="AM4">INDEX(Page4!$G$9:$G$38, COLUMN(AM4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN4" s="301" t="e" cm="1">
+      <c r="AN4" s="120" t="e" cm="1">
         <f t="array" ref="AN4">INDEX(Page4!$G$9:$G$38, COLUMN(AN4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO4" s="302" t="e">
+      <c r="AO4" s="121" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP4" s="298" t="e">
+      <c r="AP4" s="117" t="e">
         <f>STDEV(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ4" s="303" t="e">
+      <c r="AQ4" s="122" t="e">
         <f>(I4-AO4)/(3*AP4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR4" s="304" t="e">
+      <c r="AR4" s="123" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS4" s="304" t="e">
+      <c r="AS4" s="123" t="e">
         <f>MAX(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT4" s="302" t="e">
+      <c r="AT4" s="312" t="e">
         <f>IF(AQ4&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16651,165 +16672,165 @@
       <c r="D5" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="294" t="s">
+      <c r="E5" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="294" t="s">
+      <c r="F5" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="295" t="s">
+      <c r="G5" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="295" t="s">
+      <c r="H5" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="295" t="s">
+      <c r="I5" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="295" t="s">
+      <c r="J5" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="301" cm="1">
+      <c r="K5" s="120" cm="1">
         <f t="array" ref="K5">INDEX(Page1!$H$8:$H$37, COLUMN(K5)-10)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="301" cm="1">
+      <c r="L5" s="120" cm="1">
         <f t="array" ref="L5">INDEX(Page1!$H$8:$H$37, COLUMN(L5)-10)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="301" cm="1">
+      <c r="M5" s="120" cm="1">
         <f t="array" ref="M5">INDEX(Page1!$H$8:$H$37, COLUMN(M5)-10)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="301" cm="1">
+      <c r="N5" s="120" cm="1">
         <f t="array" ref="N5">INDEX(Page1!$H$8:$H$37, COLUMN(N5)-10)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="301" cm="1">
+      <c r="O5" s="120" cm="1">
         <f t="array" ref="O5">INDEX(Page1!$H$8:$H$37, COLUMN(O5)-10)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="301" cm="1">
+      <c r="P5" s="120" cm="1">
         <f t="array" ref="P5">INDEX(Page1!$H$8:$H$37, COLUMN(P5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="301" cm="1">
+      <c r="Q5" s="120" cm="1">
         <f t="array" ref="Q5">INDEX(Page1!$H$8:$H$37, COLUMN(Q5)-10)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="301" cm="1">
+      <c r="R5" s="120" cm="1">
         <f t="array" ref="R5">INDEX(Page1!$H$8:$H$37, COLUMN(R5)-10)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="301" cm="1">
+      <c r="S5" s="120" cm="1">
         <f t="array" ref="S5">INDEX(Page1!$H$8:$H$37, COLUMN(S5)-10)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="301" cm="1">
+      <c r="T5" s="120" cm="1">
         <f t="array" ref="T5">INDEX(Page1!$H$8:$H$37, COLUMN(T5)-10)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="301" cm="1">
+      <c r="U5" s="120" cm="1">
         <f t="array" ref="U5">INDEX(Page1!$H$8:$H$37, COLUMN(U5)-10)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="301" cm="1">
+      <c r="V5" s="120" cm="1">
         <f t="array" ref="V5">INDEX(Page1!$H$8:$H$37, COLUMN(V5)-10)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="301" cm="1">
+      <c r="W5" s="120" cm="1">
         <f t="array" ref="W5">INDEX(Page1!$H$8:$H$37, COLUMN(W5)-10)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="301" cm="1">
+      <c r="X5" s="120" cm="1">
         <f t="array" ref="X5">INDEX(Page1!$H$8:$H$37, COLUMN(X5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="301" cm="1">
+      <c r="Y5" s="120" cm="1">
         <f t="array" ref="Y5">INDEX(Page1!$H$8:$H$37, COLUMN(Y5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="301" cm="1">
+      <c r="Z5" s="120" cm="1">
         <f t="array" ref="Z5">INDEX(Page1!$H$8:$H$37, COLUMN(Z5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="301" cm="1">
+      <c r="AA5" s="120" cm="1">
         <f t="array" ref="AA5">INDEX(Page1!$H$8:$H$37, COLUMN(AA5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="301" cm="1">
+      <c r="AB5" s="120" cm="1">
         <f t="array" ref="AB5">INDEX(Page1!$H$8:$H$37, COLUMN(AB5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="301" cm="1">
+      <c r="AC5" s="120" cm="1">
         <f t="array" ref="AC5">INDEX(Page1!$H$8:$H$37, COLUMN(AC5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="301" cm="1">
+      <c r="AD5" s="120" cm="1">
         <f t="array" ref="AD5">INDEX(Page1!$H$8:$H$37, COLUMN(AD5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="301" cm="1">
+      <c r="AE5" s="120" cm="1">
         <f t="array" ref="AE5">INDEX(Page1!$H$8:$H$37, COLUMN(AE5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="301" cm="1">
+      <c r="AF5" s="120" cm="1">
         <f t="array" ref="AF5">INDEX(Page1!$H$8:$H$37, COLUMN(AF5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="301" cm="1">
+      <c r="AG5" s="120" cm="1">
         <f t="array" ref="AG5">INDEX(Page1!$H$8:$H$37, COLUMN(AG5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="301" cm="1">
+      <c r="AH5" s="120" cm="1">
         <f t="array" ref="AH5">INDEX(Page1!$H$8:$H$37, COLUMN(AH5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="301" cm="1">
+      <c r="AI5" s="120" cm="1">
         <f t="array" ref="AI5">INDEX(Page1!$H$8:$H$37, COLUMN(AI5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="301" cm="1">
+      <c r="AJ5" s="120" cm="1">
         <f t="array" ref="AJ5">INDEX(Page1!$H$8:$H$37, COLUMN(AJ5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="301" cm="1">
+      <c r="AK5" s="120" cm="1">
         <f t="array" ref="AK5">INDEX(Page1!$H$8:$H$37, COLUMN(AK5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="301" cm="1">
+      <c r="AL5" s="120" cm="1">
         <f t="array" ref="AL5">INDEX(Page1!$H$8:$H$37, COLUMN(AL5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="301" cm="1">
+      <c r="AM5" s="120" cm="1">
         <f t="array" ref="AM5">INDEX(Page1!$H$8:$H$37, COLUMN(AM5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="301" cm="1">
+      <c r="AN5" s="120" cm="1">
         <f t="array" ref="AN5">INDEX(Page1!$H$8:$H$37, COLUMN(AN5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="302">
+      <c r="AO5" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP5" s="298">
+      <c r="AP5" s="117">
         <f>STDEV(K5:AN5)</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="303" t="e">
+      <c r="AQ5" s="122" t="e">
         <f>MIN((AO5-H5)/(3*AP5), (I5-AO5)/(3*AP5))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR5" s="304">
+      <c r="AR5" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS5" s="304">
+      <c r="AS5" s="123">
         <f>MAX(K5:AN5)</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="302" t="e">
+      <c r="AT5" s="312" t="e">
         <f>IF(AQ5&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16827,163 +16848,163 @@
       <c r="D6" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="294" t="s">
+      <c r="E6" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="294" t="s">
+      <c r="F6" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="295" t="s">
+      <c r="G6" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="295"/>
-      <c r="I6" s="295" t="s">
+      <c r="H6" s="114"/>
+      <c r="I6" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="295" t="s">
+      <c r="J6" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="305" cm="1">
+      <c r="K6" s="124" cm="1">
         <f t="array" ref="K6">INDEX(Page1!$N$8:$N$37, COLUMN(K6)-10)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="305" cm="1">
+      <c r="L6" s="124" cm="1">
         <f t="array" ref="L6">INDEX(Page1!$N$8:$N$37, COLUMN(L6)-10)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="305" cm="1">
+      <c r="M6" s="124" cm="1">
         <f t="array" ref="M6">INDEX(Page1!$N$8:$N$37, COLUMN(M6)-10)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="305" cm="1">
+      <c r="N6" s="124" cm="1">
         <f t="array" ref="N6">INDEX(Page1!$N$8:$N$37, COLUMN(N6)-10)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="305" cm="1">
+      <c r="O6" s="124" cm="1">
         <f t="array" ref="O6">INDEX(Page1!$N$8:$N$37, COLUMN(O6)-10)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="305" cm="1">
+      <c r="P6" s="124" cm="1">
         <f t="array" ref="P6">INDEX(Page1!$N$8:$N$37, COLUMN(P6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="305" cm="1">
+      <c r="Q6" s="124" cm="1">
         <f t="array" ref="Q6">INDEX(Page1!$N$8:$N$37, COLUMN(Q6)-10)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="305" cm="1">
+      <c r="R6" s="124" cm="1">
         <f t="array" ref="R6">INDEX(Page1!$N$8:$N$37, COLUMN(R6)-10)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="305" cm="1">
+      <c r="S6" s="124" cm="1">
         <f t="array" ref="S6">INDEX(Page1!$N$8:$N$37, COLUMN(S6)-10)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="305" cm="1">
+      <c r="T6" s="124" cm="1">
         <f t="array" ref="T6">INDEX(Page1!$N$8:$N$37, COLUMN(T6)-10)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="305" cm="1">
+      <c r="U6" s="124" cm="1">
         <f t="array" ref="U6">INDEX(Page1!$N$8:$N$37, COLUMN(U6)-10)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="305" cm="1">
+      <c r="V6" s="124" cm="1">
         <f t="array" ref="V6">INDEX(Page1!$N$8:$N$37, COLUMN(V6)-10)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="305" cm="1">
+      <c r="W6" s="124" cm="1">
         <f t="array" ref="W6">INDEX(Page1!$N$8:$N$37, COLUMN(W6)-10)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="305" cm="1">
+      <c r="X6" s="124" cm="1">
         <f t="array" ref="X6">INDEX(Page1!$N$8:$N$37, COLUMN(X6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="305" cm="1">
+      <c r="Y6" s="124" cm="1">
         <f t="array" ref="Y6">INDEX(Page1!$N$8:$N$37, COLUMN(Y6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="305" cm="1">
+      <c r="Z6" s="124" cm="1">
         <f t="array" ref="Z6">INDEX(Page1!$N$8:$N$37, COLUMN(Z6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="305" cm="1">
+      <c r="AA6" s="124" cm="1">
         <f t="array" ref="AA6">INDEX(Page1!$N$8:$N$37, COLUMN(AA6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="305" cm="1">
+      <c r="AB6" s="124" cm="1">
         <f t="array" ref="AB6">INDEX(Page1!$N$8:$N$37, COLUMN(AB6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="305" cm="1">
+      <c r="AC6" s="124" cm="1">
         <f t="array" ref="AC6">INDEX(Page1!$N$8:$N$37, COLUMN(AC6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="305" cm="1">
+      <c r="AD6" s="124" cm="1">
         <f t="array" ref="AD6">INDEX(Page1!$N$8:$N$37, COLUMN(AD6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="305" cm="1">
+      <c r="AE6" s="124" cm="1">
         <f t="array" ref="AE6">INDEX(Page1!$N$8:$N$37, COLUMN(AE6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="305" cm="1">
+      <c r="AF6" s="124" cm="1">
         <f t="array" ref="AF6">INDEX(Page1!$N$8:$N$37, COLUMN(AF6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="305" cm="1">
+      <c r="AG6" s="124" cm="1">
         <f t="array" ref="AG6">INDEX(Page1!$N$8:$N$37, COLUMN(AG6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="305" cm="1">
+      <c r="AH6" s="124" cm="1">
         <f t="array" ref="AH6">INDEX(Page1!$N$8:$N$37, COLUMN(AH6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="305" cm="1">
+      <c r="AI6" s="124" cm="1">
         <f t="array" ref="AI6">INDEX(Page1!$N$8:$N$37, COLUMN(AI6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="305" cm="1">
+      <c r="AJ6" s="124" cm="1">
         <f t="array" ref="AJ6">INDEX(Page1!$N$8:$N$37, COLUMN(AJ6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="305" cm="1">
+      <c r="AK6" s="124" cm="1">
         <f t="array" ref="AK6">INDEX(Page1!$N$8:$N$37, COLUMN(AK6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="305" cm="1">
+      <c r="AL6" s="124" cm="1">
         <f t="array" ref="AL6">INDEX(Page1!$N$8:$N$37, COLUMN(AL6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="305" cm="1">
+      <c r="AM6" s="124" cm="1">
         <f t="array" ref="AM6">INDEX(Page1!$N$8:$N$37, COLUMN(AM6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="305" cm="1">
+      <c r="AN6" s="124" cm="1">
         <f t="array" ref="AN6">INDEX(Page1!$N$8:$N$37, COLUMN(AN6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="306">
+      <c r="AO6" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP6" s="298">
+      <c r="AP6" s="117">
         <f>STDEV(K6:AN6)</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="303" t="e">
+      <c r="AQ6" s="122" t="e">
         <f>(I6-AO6)/(3*AP6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR6" s="298">
+      <c r="AR6" s="117">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS6" s="298">
+      <c r="AS6" s="117">
         <f>MAX(K6:AN6)</f>
         <v>0</v>
       </c>
-      <c r="AT6" s="306" t="e">
+      <c r="AT6" s="312" t="e">
         <f>IF(AQ6&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -17001,165 +17022,165 @@
       <c r="D7" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="294" t="s">
+      <c r="E7" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="294" t="s">
+      <c r="F7" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="295" t="s">
+      <c r="G7" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="295" t="s">
+      <c r="H7" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="295" t="s">
+      <c r="I7" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="J7" s="295" t="s">
+      <c r="J7" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="305" cm="1">
+      <c r="K7" s="124" cm="1">
         <f t="array" ref="K7">INDEX(Page1!$D$8:$D$37, COLUMN(K7)-10)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="305" cm="1">
+      <c r="L7" s="124" cm="1">
         <f t="array" ref="L7">INDEX(Page1!$D$8:$D$37, COLUMN(L7)-10)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="305" cm="1">
+      <c r="M7" s="124" cm="1">
         <f t="array" ref="M7">INDEX(Page1!$D$8:$D$37, COLUMN(M7)-10)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="305" cm="1">
+      <c r="N7" s="124" cm="1">
         <f t="array" ref="N7">INDEX(Page1!$D$8:$D$37, COLUMN(N7)-10)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="305" cm="1">
+      <c r="O7" s="124" cm="1">
         <f t="array" ref="O7">INDEX(Page1!$D$8:$D$37, COLUMN(O7)-10)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="305" cm="1">
+      <c r="P7" s="124" cm="1">
         <f t="array" ref="P7">INDEX(Page1!$D$8:$D$37, COLUMN(P7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="305" cm="1">
+      <c r="Q7" s="124" cm="1">
         <f t="array" ref="Q7">INDEX(Page1!$D$8:$D$37, COLUMN(Q7)-10)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="305" cm="1">
+      <c r="R7" s="124" cm="1">
         <f t="array" ref="R7">INDEX(Page1!$D$8:$D$37, COLUMN(R7)-10)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="305" cm="1">
+      <c r="S7" s="124" cm="1">
         <f t="array" ref="S7">INDEX(Page1!$D$8:$D$37, COLUMN(S7)-10)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="305" cm="1">
+      <c r="T7" s="124" cm="1">
         <f t="array" ref="T7">INDEX(Page1!$D$8:$D$37, COLUMN(T7)-10)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="305" cm="1">
+      <c r="U7" s="124" cm="1">
         <f t="array" ref="U7">INDEX(Page1!$D$8:$D$37, COLUMN(U7)-10)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="305" cm="1">
+      <c r="V7" s="124" cm="1">
         <f t="array" ref="V7">INDEX(Page1!$D$8:$D$37, COLUMN(V7)-10)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="305" cm="1">
+      <c r="W7" s="124" cm="1">
         <f t="array" ref="W7">INDEX(Page1!$D$8:$D$37, COLUMN(W7)-10)</f>
         <v>0</v>
       </c>
-      <c r="X7" s="305" cm="1">
+      <c r="X7" s="124" cm="1">
         <f t="array" ref="X7">INDEX(Page1!$D$8:$D$37, COLUMN(X7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="305" cm="1">
+      <c r="Y7" s="124" cm="1">
         <f t="array" ref="Y7">INDEX(Page1!$D$8:$D$37, COLUMN(Y7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="305" cm="1">
+      <c r="Z7" s="124" cm="1">
         <f t="array" ref="Z7">INDEX(Page1!$D$8:$D$37, COLUMN(Z7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="305" cm="1">
+      <c r="AA7" s="124" cm="1">
         <f t="array" ref="AA7">INDEX(Page1!$D$8:$D$37, COLUMN(AA7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="305" cm="1">
+      <c r="AB7" s="124" cm="1">
         <f t="array" ref="AB7">INDEX(Page1!$D$8:$D$37, COLUMN(AB7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="305" cm="1">
+      <c r="AC7" s="124" cm="1">
         <f t="array" ref="AC7">INDEX(Page1!$D$8:$D$37, COLUMN(AC7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="305" cm="1">
+      <c r="AD7" s="124" cm="1">
         <f t="array" ref="AD7">INDEX(Page1!$D$8:$D$37, COLUMN(AD7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="305" cm="1">
+      <c r="AE7" s="124" cm="1">
         <f t="array" ref="AE7">INDEX(Page1!$D$8:$D$37, COLUMN(AE7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="305" cm="1">
+      <c r="AF7" s="124" cm="1">
         <f t="array" ref="AF7">INDEX(Page1!$D$8:$D$37, COLUMN(AF7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="305" cm="1">
+      <c r="AG7" s="124" cm="1">
         <f t="array" ref="AG7">INDEX(Page1!$D$8:$D$37, COLUMN(AG7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="305" cm="1">
+      <c r="AH7" s="124" cm="1">
         <f t="array" ref="AH7">INDEX(Page1!$D$8:$D$37, COLUMN(AH7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="305" cm="1">
+      <c r="AI7" s="124" cm="1">
         <f t="array" ref="AI7">INDEX(Page1!$D$8:$D$37, COLUMN(AI7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ7" s="305" cm="1">
+      <c r="AJ7" s="124" cm="1">
         <f t="array" ref="AJ7">INDEX(Page1!$D$8:$D$37, COLUMN(AJ7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK7" s="305" cm="1">
+      <c r="AK7" s="124" cm="1">
         <f t="array" ref="AK7">INDEX(Page1!$D$8:$D$37, COLUMN(AK7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL7" s="305" cm="1">
+      <c r="AL7" s="124" cm="1">
         <f t="array" ref="AL7">INDEX(Page1!$D$8:$D$37, COLUMN(AL7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="305" cm="1">
+      <c r="AM7" s="124" cm="1">
         <f t="array" ref="AM7">INDEX(Page1!$D$8:$D$37, COLUMN(AM7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN7" s="305" cm="1">
+      <c r="AN7" s="124" cm="1">
         <f t="array" ref="AN7">INDEX(Page1!$D$8:$D$37, COLUMN(AN7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO7" s="306">
+      <c r="AO7" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP7" s="298">
+      <c r="AP7" s="117">
         <f t="shared" ref="AP7:AP16" si="2">STDEV(K7:AN7)</f>
         <v>0</v>
       </c>
-      <c r="AQ7" s="303" t="e">
+      <c r="AQ7" s="122" t="e">
         <f>MIN((AO7-H7)/(3*AP7), (I7-AO7)/(3*AP7))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR7" s="298">
+      <c r="AR7" s="117">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS7" s="298">
+      <c r="AS7" s="117">
         <f t="shared" ref="AS7:AS16" si="3">MAX(K7:AN7)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="306" t="e">
+      <c r="AT7" s="312" t="e">
         <f t="shared" ref="AT7:AT16" si="4">IF(AQ7&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -17177,165 +17198,165 @@
       <c r="D8" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="294" t="s">
+      <c r="E8" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="294" t="s">
+      <c r="F8" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="295" t="s">
+      <c r="G8" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="295" t="s">
+      <c r="H8" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="295" t="s">
+      <c r="I8" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="295" t="s">
+      <c r="J8" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="296" t="e" cm="1">
+      <c r="K8" s="115" t="e" cm="1">
         <f t="array" ref="K8">INDEX(Page3!$G$9:$G$38, COLUMN(K8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="296" t="e" cm="1">
+      <c r="L8" s="115" t="e" cm="1">
         <f t="array" ref="L8">INDEX(Page3!$G$9:$G$38, COLUMN(L8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="296" t="e" cm="1">
+      <c r="M8" s="115" t="e" cm="1">
         <f t="array" ref="M8">INDEX(Page3!$G$9:$G$38, COLUMN(M8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="296" t="e" cm="1">
+      <c r="N8" s="115" t="e" cm="1">
         <f t="array" ref="N8">INDEX(Page3!$G$9:$G$38, COLUMN(N8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="296" t="e" cm="1">
+      <c r="O8" s="115" t="e" cm="1">
         <f t="array" ref="O8">INDEX(Page3!$G$9:$G$38, COLUMN(O8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="296" t="e" cm="1">
+      <c r="P8" s="115" t="e" cm="1">
         <f t="array" ref="P8">INDEX(Page3!$G$9:$G$38, COLUMN(P8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="296" t="e" cm="1">
+      <c r="Q8" s="115" t="e" cm="1">
         <f t="array" ref="Q8">INDEX(Page3!$G$9:$G$38, COLUMN(Q8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R8" s="296" t="e" cm="1">
+      <c r="R8" s="115" t="e" cm="1">
         <f t="array" ref="R8">INDEX(Page3!$G$9:$G$38, COLUMN(R8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S8" s="296" t="e" cm="1">
+      <c r="S8" s="115" t="e" cm="1">
         <f t="array" ref="S8">INDEX(Page3!$G$9:$G$38, COLUMN(S8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T8" s="296" t="e" cm="1">
+      <c r="T8" s="115" t="e" cm="1">
         <f t="array" ref="T8">INDEX(Page3!$G$9:$G$38, COLUMN(T8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="296" t="e" cm="1">
+      <c r="U8" s="115" t="e" cm="1">
         <f t="array" ref="U8">INDEX(Page3!$G$9:$G$38, COLUMN(U8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V8" s="296" t="e" cm="1">
+      <c r="V8" s="115" t="e" cm="1">
         <f t="array" ref="V8">INDEX(Page3!$G$9:$G$38, COLUMN(V8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W8" s="296" t="e" cm="1">
+      <c r="W8" s="115" t="e" cm="1">
         <f t="array" ref="W8">INDEX(Page3!$G$9:$G$38, COLUMN(W8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X8" s="296" t="e" cm="1">
+      <c r="X8" s="115" t="e" cm="1">
         <f t="array" ref="X8">INDEX(Page3!$G$9:$G$38, COLUMN(X8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y8" s="296" t="e" cm="1">
+      <c r="Y8" s="115" t="e" cm="1">
         <f t="array" ref="Y8">INDEX(Page3!$G$9:$G$38, COLUMN(Y8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z8" s="296" t="e" cm="1">
+      <c r="Z8" s="115" t="e" cm="1">
         <f t="array" ref="Z8">INDEX(Page3!$G$9:$G$38, COLUMN(Z8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA8" s="296" t="e" cm="1">
+      <c r="AA8" s="115" t="e" cm="1">
         <f t="array" ref="AA8">INDEX(Page3!$G$9:$G$38, COLUMN(AA8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB8" s="296" t="e" cm="1">
+      <c r="AB8" s="115" t="e" cm="1">
         <f t="array" ref="AB8">INDEX(Page3!$G$9:$G$38, COLUMN(AB8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="296" t="e" cm="1">
+      <c r="AC8" s="115" t="e" cm="1">
         <f t="array" ref="AC8">INDEX(Page3!$G$9:$G$38, COLUMN(AC8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="296" t="e" cm="1">
+      <c r="AD8" s="115" t="e" cm="1">
         <f t="array" ref="AD8">INDEX(Page3!$G$9:$G$38, COLUMN(AD8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE8" s="296" t="e" cm="1">
+      <c r="AE8" s="115" t="e" cm="1">
         <f t="array" ref="AE8">INDEX(Page3!$G$9:$G$38, COLUMN(AE8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF8" s="296" t="e" cm="1">
+      <c r="AF8" s="115" t="e" cm="1">
         <f t="array" ref="AF8">INDEX(Page3!$G$9:$G$38, COLUMN(AF8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG8" s="296" t="e" cm="1">
+      <c r="AG8" s="115" t="e" cm="1">
         <f t="array" ref="AG8">INDEX(Page3!$G$9:$G$38, COLUMN(AG8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH8" s="296" t="e" cm="1">
+      <c r="AH8" s="115" t="e" cm="1">
         <f t="array" ref="AH8">INDEX(Page3!$G$9:$G$38, COLUMN(AH8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI8" s="296" t="e" cm="1">
+      <c r="AI8" s="115" t="e" cm="1">
         <f t="array" ref="AI8">INDEX(Page3!$G$9:$G$38, COLUMN(AI8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ8" s="296" t="e" cm="1">
+      <c r="AJ8" s="115" t="e" cm="1">
         <f t="array" ref="AJ8">INDEX(Page3!$G$9:$G$38, COLUMN(AJ8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK8" s="296" t="e" cm="1">
+      <c r="AK8" s="115" t="e" cm="1">
         <f t="array" ref="AK8">INDEX(Page3!$G$9:$G$38, COLUMN(AK8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL8" s="296" t="e" cm="1">
+      <c r="AL8" s="115" t="e" cm="1">
         <f t="array" ref="AL8">INDEX(Page3!$G$9:$G$38, COLUMN(AL8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM8" s="296" t="e" cm="1">
+      <c r="AM8" s="115" t="e" cm="1">
         <f t="array" ref="AM8">INDEX(Page3!$G$9:$G$38, COLUMN(AM8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN8" s="296" t="e" cm="1">
+      <c r="AN8" s="115" t="e" cm="1">
         <f t="array" ref="AN8">INDEX(Page3!$G$9:$G$38, COLUMN(AN8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO8" s="297" t="e">
+      <c r="AO8" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP8" s="298" t="e">
+      <c r="AP8" s="117" t="e">
         <f>STDEV(K8:AN8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ8" s="303" t="e">
+      <c r="AQ8" s="122" t="e">
         <f>(AO8-H8)/(3*AP8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR8" s="300" t="e">
+      <c r="AR8" s="119" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS8" s="300" t="e">
+      <c r="AS8" s="119" t="e">
         <f>MAX(K8:AN8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT8" s="297" t="e">
+      <c r="AT8" s="312" t="e">
         <f>IF(AQ8&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -17353,165 +17374,165 @@
       <c r="D9" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="294" t="s">
+      <c r="E9" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="294" t="s">
+      <c r="F9" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="295" t="s">
+      <c r="G9" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="295" t="s">
+      <c r="H9" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="295" t="s">
+      <c r="I9" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="295" t="s">
+      <c r="J9" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="296" t="e" cm="1">
+      <c r="K9" s="115" t="e" cm="1">
         <f t="array" ref="K9">INDEX(Page2!$G$9:$G$38, COLUMN(K9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="296" t="e" cm="1">
+      <c r="L9" s="115" t="e" cm="1">
         <f t="array" ref="L9">INDEX(Page2!$G$9:$G$38, COLUMN(L9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="296" t="e" cm="1">
+      <c r="M9" s="115" t="e" cm="1">
         <f t="array" ref="M9">INDEX(Page2!$G$9:$G$38, COLUMN(M9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="296" t="e" cm="1">
+      <c r="N9" s="115" t="e" cm="1">
         <f t="array" ref="N9">INDEX(Page2!$G$9:$G$38, COLUMN(N9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="296" t="e" cm="1">
+      <c r="O9" s="115" t="e" cm="1">
         <f t="array" ref="O9">INDEX(Page2!$G$9:$G$38, COLUMN(O9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P9" s="296" t="e" cm="1">
+      <c r="P9" s="115" t="e" cm="1">
         <f t="array" ref="P9">INDEX(Page2!$G$9:$G$38, COLUMN(P9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q9" s="296" t="e" cm="1">
+      <c r="Q9" s="115" t="e" cm="1">
         <f t="array" ref="Q9">INDEX(Page2!$G$9:$G$38, COLUMN(Q9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R9" s="296" t="e" cm="1">
+      <c r="R9" s="115" t="e" cm="1">
         <f t="array" ref="R9">INDEX(Page2!$G$9:$G$38, COLUMN(R9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S9" s="296" t="e" cm="1">
+      <c r="S9" s="115" t="e" cm="1">
         <f t="array" ref="S9">INDEX(Page2!$G$9:$G$38, COLUMN(S9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T9" s="296" t="e" cm="1">
+      <c r="T9" s="115" t="e" cm="1">
         <f t="array" ref="T9">INDEX(Page2!$G$9:$G$38, COLUMN(T9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U9" s="296" t="e" cm="1">
+      <c r="U9" s="115" t="e" cm="1">
         <f t="array" ref="U9">INDEX(Page2!$G$9:$G$38, COLUMN(U9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V9" s="296" t="e" cm="1">
+      <c r="V9" s="115" t="e" cm="1">
         <f t="array" ref="V9">INDEX(Page2!$G$9:$G$38, COLUMN(V9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W9" s="296" t="e" cm="1">
+      <c r="W9" s="115" t="e" cm="1">
         <f t="array" ref="W9">INDEX(Page2!$G$9:$G$38, COLUMN(W9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X9" s="296" t="e" cm="1">
+      <c r="X9" s="115" t="e" cm="1">
         <f t="array" ref="X9">INDEX(Page2!$G$9:$G$38, COLUMN(X9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y9" s="296" t="e" cm="1">
+      <c r="Y9" s="115" t="e" cm="1">
         <f t="array" ref="Y9">INDEX(Page2!$G$9:$G$38, COLUMN(Y9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z9" s="296" t="e" cm="1">
+      <c r="Z9" s="115" t="e" cm="1">
         <f t="array" ref="Z9">INDEX(Page2!$G$9:$G$38, COLUMN(Z9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA9" s="296" t="e" cm="1">
+      <c r="AA9" s="115" t="e" cm="1">
         <f t="array" ref="AA9">INDEX(Page2!$G$9:$G$38, COLUMN(AA9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB9" s="296" t="e" cm="1">
+      <c r="AB9" s="115" t="e" cm="1">
         <f t="array" ref="AB9">INDEX(Page2!$G$9:$G$38, COLUMN(AB9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC9" s="296" t="e" cm="1">
+      <c r="AC9" s="115" t="e" cm="1">
         <f t="array" ref="AC9">INDEX(Page2!$G$9:$G$38, COLUMN(AC9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="296" t="e" cm="1">
+      <c r="AD9" s="115" t="e" cm="1">
         <f t="array" ref="AD9">INDEX(Page2!$G$9:$G$38, COLUMN(AD9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE9" s="296" t="e" cm="1">
+      <c r="AE9" s="115" t="e" cm="1">
         <f t="array" ref="AE9">INDEX(Page2!$G$9:$G$38, COLUMN(AE9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF9" s="296" t="e" cm="1">
+      <c r="AF9" s="115" t="e" cm="1">
         <f t="array" ref="AF9">INDEX(Page2!$G$9:$G$38, COLUMN(AF9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG9" s="296" t="e" cm="1">
+      <c r="AG9" s="115" t="e" cm="1">
         <f t="array" ref="AG9">INDEX(Page2!$G$9:$G$38, COLUMN(AG9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH9" s="296" t="e" cm="1">
+      <c r="AH9" s="115" t="e" cm="1">
         <f t="array" ref="AH9">INDEX(Page2!$G$9:$G$38, COLUMN(AH9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI9" s="296" t="e" cm="1">
+      <c r="AI9" s="115" t="e" cm="1">
         <f t="array" ref="AI9">INDEX(Page2!$G$9:$G$38, COLUMN(AI9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ9" s="296" t="e" cm="1">
+      <c r="AJ9" s="115" t="e" cm="1">
         <f t="array" ref="AJ9">INDEX(Page2!$G$9:$G$38, COLUMN(AJ9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK9" s="296" t="e" cm="1">
+      <c r="AK9" s="115" t="e" cm="1">
         <f t="array" ref="AK9">INDEX(Page2!$G$9:$G$38, COLUMN(AK9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL9" s="296" t="e" cm="1">
+      <c r="AL9" s="115" t="e" cm="1">
         <f t="array" ref="AL9">INDEX(Page2!$G$9:$G$38, COLUMN(AL9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM9" s="296" t="e" cm="1">
+      <c r="AM9" s="115" t="e" cm="1">
         <f t="array" ref="AM9">INDEX(Page2!$G$9:$G$38, COLUMN(AM9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN9" s="296" t="e" cm="1">
+      <c r="AN9" s="115" t="e" cm="1">
         <f t="array" ref="AN9">INDEX(Page2!$G$9:$G$38, COLUMN(AN9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO9" s="297" t="e">
+      <c r="AO9" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP9" s="298" t="e">
+      <c r="AP9" s="117" t="e">
         <f>STDEV(K9:AN9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ9" s="303" t="e">
+      <c r="AQ9" s="122" t="e">
         <f>(AO9-H9)/(3*AP9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR9" s="300" t="e">
+      <c r="AR9" s="119" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS9" s="300" t="e">
+      <c r="AS9" s="119" t="e">
         <f>MAX(K9:AN9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT9" s="297" t="e">
+      <c r="AT9" s="312" t="e">
         <f>IF(AQ9&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -17529,165 +17550,165 @@
       <c r="D10" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="294" t="s">
+      <c r="E10" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="294" t="s">
+      <c r="F10" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="295" t="s">
+      <c r="G10" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="295" t="s">
+      <c r="H10" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="295" t="s">
+      <c r="I10" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="295" t="s">
+      <c r="J10" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="301" t="e" cm="1">
+      <c r="K10" s="120" t="e" cm="1">
         <f t="array" ref="K10">INDEX(Page2!$K$9:$K$38, COLUMN(K10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="301" t="e" cm="1">
+      <c r="L10" s="120" t="e" cm="1">
         <f t="array" ref="L10">INDEX(Page2!$K$9:$K$38, COLUMN(L10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="301" t="e" cm="1">
+      <c r="M10" s="120" t="e" cm="1">
         <f t="array" ref="M10">INDEX(Page2!$K$9:$K$38, COLUMN(M10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="301" t="e" cm="1">
+      <c r="N10" s="120" t="e" cm="1">
         <f t="array" ref="N10">INDEX(Page2!$K$9:$K$38, COLUMN(N10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="301" t="e" cm="1">
+      <c r="O10" s="120" t="e" cm="1">
         <f t="array" ref="O10">INDEX(Page2!$K$9:$K$38, COLUMN(O10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P10" s="301" t="e" cm="1">
+      <c r="P10" s="120" t="e" cm="1">
         <f t="array" ref="P10">INDEX(Page2!$K$9:$K$38, COLUMN(P10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="301" t="e" cm="1">
+      <c r="Q10" s="120" t="e" cm="1">
         <f t="array" ref="Q10">INDEX(Page2!$K$9:$K$38, COLUMN(Q10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R10" s="301" t="e" cm="1">
+      <c r="R10" s="120" t="e" cm="1">
         <f t="array" ref="R10">INDEX(Page2!$K$9:$K$38, COLUMN(R10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="301" t="e" cm="1">
+      <c r="S10" s="120" t="e" cm="1">
         <f t="array" ref="S10">INDEX(Page2!$K$9:$K$38, COLUMN(S10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T10" s="301" t="e" cm="1">
+      <c r="T10" s="120" t="e" cm="1">
         <f t="array" ref="T10">INDEX(Page2!$K$9:$K$38, COLUMN(T10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U10" s="301" t="e" cm="1">
+      <c r="U10" s="120" t="e" cm="1">
         <f t="array" ref="U10">INDEX(Page2!$K$9:$K$38, COLUMN(U10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V10" s="301" t="e" cm="1">
+      <c r="V10" s="120" t="e" cm="1">
         <f t="array" ref="V10">INDEX(Page2!$K$9:$K$38, COLUMN(V10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W10" s="301" t="e" cm="1">
+      <c r="W10" s="120" t="e" cm="1">
         <f t="array" ref="W10">INDEX(Page2!$K$9:$K$38, COLUMN(W10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X10" s="301" t="e" cm="1">
+      <c r="X10" s="120" t="e" cm="1">
         <f t="array" ref="X10">INDEX(Page2!$K$9:$K$38, COLUMN(X10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y10" s="301" t="e" cm="1">
+      <c r="Y10" s="120" t="e" cm="1">
         <f t="array" ref="Y10">INDEX(Page2!$K$9:$K$38, COLUMN(Y10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z10" s="301" t="e" cm="1">
+      <c r="Z10" s="120" t="e" cm="1">
         <f t="array" ref="Z10">INDEX(Page2!$K$9:$K$38, COLUMN(Z10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA10" s="301" t="e" cm="1">
+      <c r="AA10" s="120" t="e" cm="1">
         <f t="array" ref="AA10">INDEX(Page2!$K$9:$K$38, COLUMN(AA10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB10" s="301" t="e" cm="1">
+      <c r="AB10" s="120" t="e" cm="1">
         <f t="array" ref="AB10">INDEX(Page2!$K$9:$K$38, COLUMN(AB10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC10" s="301" t="e" cm="1">
+      <c r="AC10" s="120" t="e" cm="1">
         <f t="array" ref="AC10">INDEX(Page2!$K$9:$K$38, COLUMN(AC10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="301" t="e" cm="1">
+      <c r="AD10" s="120" t="e" cm="1">
         <f t="array" ref="AD10">INDEX(Page2!$K$9:$K$38, COLUMN(AD10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE10" s="301" t="e" cm="1">
+      <c r="AE10" s="120" t="e" cm="1">
         <f t="array" ref="AE10">INDEX(Page2!$K$9:$K$38, COLUMN(AE10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF10" s="301" t="e" cm="1">
+      <c r="AF10" s="120" t="e" cm="1">
         <f t="array" ref="AF10">INDEX(Page2!$K$9:$K$38, COLUMN(AF10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG10" s="301" t="e" cm="1">
+      <c r="AG10" s="120" t="e" cm="1">
         <f t="array" ref="AG10">INDEX(Page2!$K$9:$K$38, COLUMN(AG10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH10" s="301" t="e" cm="1">
+      <c r="AH10" s="120" t="e" cm="1">
         <f t="array" ref="AH10">INDEX(Page2!$K$9:$K$38, COLUMN(AH10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI10" s="301" t="e" cm="1">
+      <c r="AI10" s="120" t="e" cm="1">
         <f t="array" ref="AI10">INDEX(Page2!$K$9:$K$38, COLUMN(AI10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ10" s="301" t="e" cm="1">
+      <c r="AJ10" s="120" t="e" cm="1">
         <f t="array" ref="AJ10">INDEX(Page2!$K$9:$K$38, COLUMN(AJ10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK10" s="301" t="e" cm="1">
+      <c r="AK10" s="120" t="e" cm="1">
         <f t="array" ref="AK10">INDEX(Page2!$K$9:$K$38, COLUMN(AK10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL10" s="301" t="e" cm="1">
+      <c r="AL10" s="120" t="e" cm="1">
         <f t="array" ref="AL10">INDEX(Page2!$K$9:$K$38, COLUMN(AL10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM10" s="301" t="e" cm="1">
+      <c r="AM10" s="120" t="e" cm="1">
         <f t="array" ref="AM10">INDEX(Page2!$K$9:$K$38, COLUMN(AM10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN10" s="301" t="e" cm="1">
+      <c r="AN10" s="120" t="e" cm="1">
         <f t="array" ref="AN10">INDEX(Page2!$K$9:$K$38, COLUMN(AN10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO10" s="302" t="e">
+      <c r="AO10" s="121" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP10" s="298" t="e">
+      <c r="AP10" s="117" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ10" s="303" t="e">
+      <c r="AQ10" s="122" t="e">
         <f>(AO10-H10)/(3*AP10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR10" s="304" t="e">
+      <c r="AR10" s="123" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS10" s="304" t="e">
+      <c r="AS10" s="123" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT10" s="302" t="e">
+      <c r="AT10" s="312" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -17705,165 +17726,165 @@
       <c r="D11" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="294" t="s">
+      <c r="E11" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="294" t="s">
+      <c r="F11" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="295" t="s">
+      <c r="G11" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="295" t="s">
+      <c r="H11" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="I11" s="295" t="s">
+      <c r="I11" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="295" t="s">
+      <c r="J11" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="301" t="e" cm="1">
+      <c r="K11" s="120" t="e" cm="1">
         <f t="array" ref="K11">INDEX(Page3!$K$9:$K$38, COLUMN(K11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="301" t="e" cm="1">
+      <c r="L11" s="120" t="e" cm="1">
         <f t="array" ref="L11">INDEX(Page3!$K$9:$K$38, COLUMN(L11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="301" t="e" cm="1">
+      <c r="M11" s="120" t="e" cm="1">
         <f t="array" ref="M11">INDEX(Page3!$K$9:$K$38, COLUMN(M11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="301" t="e" cm="1">
+      <c r="N11" s="120" t="e" cm="1">
         <f t="array" ref="N11">INDEX(Page3!$K$9:$K$38, COLUMN(N11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="301" t="e" cm="1">
+      <c r="O11" s="120" t="e" cm="1">
         <f t="array" ref="O11">INDEX(Page3!$K$9:$K$38, COLUMN(O11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P11" s="301" t="e" cm="1">
+      <c r="P11" s="120" t="e" cm="1">
         <f t="array" ref="P11">INDEX(Page3!$K$9:$K$38, COLUMN(P11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="301" t="e" cm="1">
+      <c r="Q11" s="120" t="e" cm="1">
         <f t="array" ref="Q11">INDEX(Page3!$K$9:$K$38, COLUMN(Q11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="301" t="e" cm="1">
+      <c r="R11" s="120" t="e" cm="1">
         <f t="array" ref="R11">INDEX(Page3!$K$9:$K$38, COLUMN(R11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="301" t="e" cm="1">
+      <c r="S11" s="120" t="e" cm="1">
         <f t="array" ref="S11">INDEX(Page3!$K$9:$K$38, COLUMN(S11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T11" s="301" t="e" cm="1">
+      <c r="T11" s="120" t="e" cm="1">
         <f t="array" ref="T11">INDEX(Page3!$K$9:$K$38, COLUMN(T11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U11" s="301" t="e" cm="1">
+      <c r="U11" s="120" t="e" cm="1">
         <f t="array" ref="U11">INDEX(Page3!$K$9:$K$38, COLUMN(U11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V11" s="301" t="e" cm="1">
+      <c r="V11" s="120" t="e" cm="1">
         <f t="array" ref="V11">INDEX(Page3!$K$9:$K$38, COLUMN(V11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W11" s="301" t="e" cm="1">
+      <c r="W11" s="120" t="e" cm="1">
         <f t="array" ref="W11">INDEX(Page3!$K$9:$K$38, COLUMN(W11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X11" s="301" t="e" cm="1">
+      <c r="X11" s="120" t="e" cm="1">
         <f t="array" ref="X11">INDEX(Page3!$K$9:$K$38, COLUMN(X11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y11" s="301" t="e" cm="1">
+      <c r="Y11" s="120" t="e" cm="1">
         <f t="array" ref="Y11">INDEX(Page3!$K$9:$K$38, COLUMN(Y11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z11" s="301" t="e" cm="1">
+      <c r="Z11" s="120" t="e" cm="1">
         <f t="array" ref="Z11">INDEX(Page3!$K$9:$K$38, COLUMN(Z11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA11" s="301" t="e" cm="1">
+      <c r="AA11" s="120" t="e" cm="1">
         <f t="array" ref="AA11">INDEX(Page3!$K$9:$K$38, COLUMN(AA11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB11" s="301" t="e" cm="1">
+      <c r="AB11" s="120" t="e" cm="1">
         <f t="array" ref="AB11">INDEX(Page3!$K$9:$K$38, COLUMN(AB11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="301" t="e" cm="1">
+      <c r="AC11" s="120" t="e" cm="1">
         <f t="array" ref="AC11">INDEX(Page3!$K$9:$K$38, COLUMN(AC11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="301" t="e" cm="1">
+      <c r="AD11" s="120" t="e" cm="1">
         <f t="array" ref="AD11">INDEX(Page3!$K$9:$K$38, COLUMN(AD11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE11" s="301" t="e" cm="1">
+      <c r="AE11" s="120" t="e" cm="1">
         <f t="array" ref="AE11">INDEX(Page3!$K$9:$K$38, COLUMN(AE11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF11" s="301" t="e" cm="1">
+      <c r="AF11" s="120" t="e" cm="1">
         <f t="array" ref="AF11">INDEX(Page3!$K$9:$K$38, COLUMN(AF11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG11" s="301" t="e" cm="1">
+      <c r="AG11" s="120" t="e" cm="1">
         <f t="array" ref="AG11">INDEX(Page3!$K$9:$K$38, COLUMN(AG11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH11" s="301" t="e" cm="1">
+      <c r="AH11" s="120" t="e" cm="1">
         <f t="array" ref="AH11">INDEX(Page3!$K$9:$K$38, COLUMN(AH11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI11" s="301" t="e" cm="1">
+      <c r="AI11" s="120" t="e" cm="1">
         <f t="array" ref="AI11">INDEX(Page3!$K$9:$K$38, COLUMN(AI11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ11" s="301" t="e" cm="1">
+      <c r="AJ11" s="120" t="e" cm="1">
         <f t="array" ref="AJ11">INDEX(Page3!$K$9:$K$38, COLUMN(AJ11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK11" s="301" t="e" cm="1">
+      <c r="AK11" s="120" t="e" cm="1">
         <f t="array" ref="AK11">INDEX(Page3!$K$9:$K$38, COLUMN(AK11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL11" s="301" t="e" cm="1">
+      <c r="AL11" s="120" t="e" cm="1">
         <f t="array" ref="AL11">INDEX(Page3!$K$9:$K$38, COLUMN(AL11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM11" s="301" t="e" cm="1">
+      <c r="AM11" s="120" t="e" cm="1">
         <f t="array" ref="AM11">INDEX(Page3!$K$9:$K$38, COLUMN(AM11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN11" s="301" t="e" cm="1">
+      <c r="AN11" s="120" t="e" cm="1">
         <f t="array" ref="AN11">INDEX(Page3!$K$9:$K$38, COLUMN(AN11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO11" s="302" t="e">
+      <c r="AO11" s="121" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP11" s="298" t="e">
+      <c r="AP11" s="117" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ11" s="303" t="e">
+      <c r="AQ11" s="122" t="e">
         <f>(AO11-H11)/(3*AP11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR11" s="304" t="e">
+      <c r="AR11" s="123" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS11" s="304" t="e">
+      <c r="AS11" s="123" t="e">
         <f>MAX(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT11" s="302" t="e">
+      <c r="AT11" s="312" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -17881,165 +17902,165 @@
       <c r="D12" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="294" t="s">
+      <c r="E12" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="294" t="s">
+      <c r="F12" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="295" t="s">
+      <c r="G12" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="295" t="s">
+      <c r="H12" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="295" t="s">
+      <c r="I12" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="295" t="s">
+      <c r="J12" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="K12" s="301" t="e" cm="1">
+      <c r="K12" s="120" t="e" cm="1">
         <f t="array" ref="K12">INDEX(Page2!$O$9:$O$38, COLUMN(K12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="301" t="e" cm="1">
+      <c r="L12" s="120" t="e" cm="1">
         <f t="array" ref="L12">INDEX(Page2!$O$9:$O$38, COLUMN(L12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="301" t="e" cm="1">
+      <c r="M12" s="120" t="e" cm="1">
         <f t="array" ref="M12">INDEX(Page2!$O$9:$O$38, COLUMN(M12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="301" t="e" cm="1">
+      <c r="N12" s="120" t="e" cm="1">
         <f t="array" ref="N12">INDEX(Page2!$O$9:$O$38, COLUMN(N12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O12" s="301" t="e" cm="1">
+      <c r="O12" s="120" t="e" cm="1">
         <f t="array" ref="O12">INDEX(Page2!$O$9:$O$38, COLUMN(O12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="301" t="e" cm="1">
+      <c r="P12" s="120" t="e" cm="1">
         <f t="array" ref="P12">INDEX(Page2!$O$9:$O$38, COLUMN(P12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q12" s="301" t="e" cm="1">
+      <c r="Q12" s="120" t="e" cm="1">
         <f t="array" ref="Q12">INDEX(Page2!$O$9:$O$38, COLUMN(Q12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R12" s="301" t="e" cm="1">
+      <c r="R12" s="120" t="e" cm="1">
         <f t="array" ref="R12">INDEX(Page2!$O$9:$O$38, COLUMN(R12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S12" s="301" t="e" cm="1">
+      <c r="S12" s="120" t="e" cm="1">
         <f t="array" ref="S12">INDEX(Page2!$O$9:$O$38, COLUMN(S12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T12" s="301" t="e" cm="1">
+      <c r="T12" s="120" t="e" cm="1">
         <f t="array" ref="T12">INDEX(Page2!$O$9:$O$38, COLUMN(T12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U12" s="301" t="e" cm="1">
+      <c r="U12" s="120" t="e" cm="1">
         <f t="array" ref="U12">INDEX(Page2!$O$9:$O$38, COLUMN(U12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V12" s="301" t="e" cm="1">
+      <c r="V12" s="120" t="e" cm="1">
         <f t="array" ref="V12">INDEX(Page2!$O$9:$O$38, COLUMN(V12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W12" s="301" t="e" cm="1">
+      <c r="W12" s="120" t="e" cm="1">
         <f t="array" ref="W12">INDEX(Page2!$O$9:$O$38, COLUMN(W12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X12" s="301" t="e" cm="1">
+      <c r="X12" s="120" t="e" cm="1">
         <f t="array" ref="X12">INDEX(Page2!$O$9:$O$38, COLUMN(X12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y12" s="301" t="e" cm="1">
+      <c r="Y12" s="120" t="e" cm="1">
         <f t="array" ref="Y12">INDEX(Page2!$O$9:$O$38, COLUMN(Y12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z12" s="301" t="e" cm="1">
+      <c r="Z12" s="120" t="e" cm="1">
         <f t="array" ref="Z12">INDEX(Page2!$O$9:$O$38, COLUMN(Z12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA12" s="301" t="e" cm="1">
+      <c r="AA12" s="120" t="e" cm="1">
         <f t="array" ref="AA12">INDEX(Page2!$O$9:$O$38, COLUMN(AA12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB12" s="301" t="e" cm="1">
+      <c r="AB12" s="120" t="e" cm="1">
         <f t="array" ref="AB12">INDEX(Page2!$O$9:$O$38, COLUMN(AB12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="301" t="e" cm="1">
+      <c r="AC12" s="120" t="e" cm="1">
         <f t="array" ref="AC12">INDEX(Page2!$O$9:$O$38, COLUMN(AC12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" s="301" t="e" cm="1">
+      <c r="AD12" s="120" t="e" cm="1">
         <f t="array" ref="AD12">INDEX(Page2!$O$9:$O$38, COLUMN(AD12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE12" s="301" t="e" cm="1">
+      <c r="AE12" s="120" t="e" cm="1">
         <f t="array" ref="AE12">INDEX(Page2!$O$9:$O$38, COLUMN(AE12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF12" s="301" t="e" cm="1">
+      <c r="AF12" s="120" t="e" cm="1">
         <f t="array" ref="AF12">INDEX(Page2!$O$9:$O$38, COLUMN(AF12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG12" s="301" t="e" cm="1">
+      <c r="AG12" s="120" t="e" cm="1">
         <f t="array" ref="AG12">INDEX(Page2!$O$9:$O$38, COLUMN(AG12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH12" s="301" t="e" cm="1">
+      <c r="AH12" s="120" t="e" cm="1">
         <f t="array" ref="AH12">INDEX(Page2!$O$9:$O$38, COLUMN(AH12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="301" t="e" cm="1">
+      <c r="AI12" s="120" t="e" cm="1">
         <f t="array" ref="AI12">INDEX(Page2!$O$9:$O$38, COLUMN(AI12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ12" s="301" t="e" cm="1">
+      <c r="AJ12" s="120" t="e" cm="1">
         <f t="array" ref="AJ12">INDEX(Page2!$O$9:$O$38, COLUMN(AJ12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK12" s="301" t="e" cm="1">
+      <c r="AK12" s="120" t="e" cm="1">
         <f t="array" ref="AK12">INDEX(Page2!$O$9:$O$38, COLUMN(AK12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL12" s="301" t="e" cm="1">
+      <c r="AL12" s="120" t="e" cm="1">
         <f t="array" ref="AL12">INDEX(Page2!$O$9:$O$38, COLUMN(AL12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM12" s="301" t="e" cm="1">
+      <c r="AM12" s="120" t="e" cm="1">
         <f t="array" ref="AM12">INDEX(Page2!$O$9:$O$38, COLUMN(AM12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN12" s="301" t="e" cm="1">
+      <c r="AN12" s="120" t="e" cm="1">
         <f t="array" ref="AN12">INDEX(Page2!$O$9:$O$38, COLUMN(AN12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO12" s="302" t="e">
+      <c r="AO12" s="121" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP12" s="298" t="e">
+      <c r="AP12" s="117" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ12" s="303" t="e">
+      <c r="AQ12" s="122" t="e">
         <f>MIN((AO12-H12)/(3*AP12), (I12-AO12)/(3*AP12))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR12" s="304" t="e">
+      <c r="AR12" s="123" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS12" s="304" t="e">
+      <c r="AS12" s="123" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT12" s="302" t="e">
+      <c r="AT12" s="312" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -18057,165 +18078,165 @@
       <c r="D13" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="294" t="s">
+      <c r="E13" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="294" t="s">
+      <c r="F13" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="295" t="s">
+      <c r="G13" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="295" t="s">
+      <c r="H13" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="295" t="s">
+      <c r="I13" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="J13" s="307" t="s">
+      <c r="J13" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="308" cm="1">
+      <c r="K13" s="127" cm="1">
         <f t="array" ref="K13">INDEX(Page1!$F$8:$F$37, COLUMN(K13)-10)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="308" cm="1">
+      <c r="L13" s="127" cm="1">
         <f t="array" ref="L13">INDEX(Page1!$F$8:$F$37, COLUMN(L13)-10)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="308" cm="1">
+      <c r="M13" s="127" cm="1">
         <f t="array" ref="M13">INDEX(Page1!$F$8:$F$37, COLUMN(M13)-10)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="308" cm="1">
+      <c r="N13" s="127" cm="1">
         <f t="array" ref="N13">INDEX(Page1!$F$8:$F$37, COLUMN(N13)-10)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="308" cm="1">
+      <c r="O13" s="127" cm="1">
         <f t="array" ref="O13">INDEX(Page1!$F$8:$F$37, COLUMN(O13)-10)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="308" cm="1">
+      <c r="P13" s="127" cm="1">
         <f t="array" ref="P13">INDEX(Page1!$F$8:$F$37, COLUMN(P13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="308" cm="1">
+      <c r="Q13" s="127" cm="1">
         <f t="array" ref="Q13">INDEX(Page1!$F$8:$F$37, COLUMN(Q13)-10)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="308" cm="1">
+      <c r="R13" s="127" cm="1">
         <f t="array" ref="R13">INDEX(Page1!$F$8:$F$37, COLUMN(R13)-10)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="308" cm="1">
+      <c r="S13" s="127" cm="1">
         <f t="array" ref="S13">INDEX(Page1!$F$8:$F$37, COLUMN(S13)-10)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="308" cm="1">
+      <c r="T13" s="127" cm="1">
         <f t="array" ref="T13">INDEX(Page1!$F$8:$F$37, COLUMN(T13)-10)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="308" cm="1">
+      <c r="U13" s="127" cm="1">
         <f t="array" ref="U13">INDEX(Page1!$F$8:$F$37, COLUMN(U13)-10)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="308" cm="1">
+      <c r="V13" s="127" cm="1">
         <f t="array" ref="V13">INDEX(Page1!$F$8:$F$37, COLUMN(V13)-10)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="308" cm="1">
+      <c r="W13" s="127" cm="1">
         <f t="array" ref="W13">INDEX(Page1!$F$8:$F$37, COLUMN(W13)-10)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="308" cm="1">
+      <c r="X13" s="127" cm="1">
         <f t="array" ref="X13">INDEX(Page1!$F$8:$F$37, COLUMN(X13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="308" cm="1">
+      <c r="Y13" s="127" cm="1">
         <f t="array" ref="Y13">INDEX(Page1!$F$8:$F$37, COLUMN(Y13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="308" cm="1">
+      <c r="Z13" s="127" cm="1">
         <f t="array" ref="Z13">INDEX(Page1!$F$8:$F$37, COLUMN(Z13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="308" cm="1">
+      <c r="AA13" s="127" cm="1">
         <f t="array" ref="AA13">INDEX(Page1!$F$8:$F$37, COLUMN(AA13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="308" cm="1">
+      <c r="AB13" s="127" cm="1">
         <f t="array" ref="AB13">INDEX(Page1!$F$8:$F$37, COLUMN(AB13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="308" cm="1">
+      <c r="AC13" s="127" cm="1">
         <f t="array" ref="AC13">INDEX(Page1!$F$8:$F$37, COLUMN(AC13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="308" cm="1">
+      <c r="AD13" s="127" cm="1">
         <f t="array" ref="AD13">INDEX(Page1!$F$8:$F$37, COLUMN(AD13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="308" cm="1">
+      <c r="AE13" s="127" cm="1">
         <f t="array" ref="AE13">INDEX(Page1!$F$8:$F$37, COLUMN(AE13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="308" cm="1">
+      <c r="AF13" s="127" cm="1">
         <f t="array" ref="AF13">INDEX(Page1!$F$8:$F$37, COLUMN(AF13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="308" cm="1">
+      <c r="AG13" s="127" cm="1">
         <f t="array" ref="AG13">INDEX(Page1!$F$8:$F$37, COLUMN(AG13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="308" cm="1">
+      <c r="AH13" s="127" cm="1">
         <f t="array" ref="AH13">INDEX(Page1!$F$8:$F$37, COLUMN(AH13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="308" cm="1">
+      <c r="AI13" s="127" cm="1">
         <f t="array" ref="AI13">INDEX(Page1!$F$8:$F$37, COLUMN(AI13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="308" cm="1">
+      <c r="AJ13" s="127" cm="1">
         <f t="array" ref="AJ13">INDEX(Page1!$F$8:$F$37, COLUMN(AJ13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="308" cm="1">
+      <c r="AK13" s="127" cm="1">
         <f t="array" ref="AK13">INDEX(Page1!$F$8:$F$37, COLUMN(AK13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="308" cm="1">
+      <c r="AL13" s="127" cm="1">
         <f t="array" ref="AL13">INDEX(Page1!$F$8:$F$37, COLUMN(AL13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="308" cm="1">
+      <c r="AM13" s="127" cm="1">
         <f t="array" ref="AM13">INDEX(Page1!$F$8:$F$37, COLUMN(AM13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="308" cm="1">
+      <c r="AN13" s="127" cm="1">
         <f t="array" ref="AN13">INDEX(Page1!$F$8:$F$37, COLUMN(AN13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO13" s="309">
+      <c r="AO13" s="128">
         <f>AVERAGE(K13:AN13)</f>
         <v>0</v>
       </c>
-      <c r="AP13" s="298">
+      <c r="AP13" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ13" s="303" t="e">
+      <c r="AQ13" s="122" t="e">
         <f>MIN((AO13-H13)/(3*AP13), (I13-AO13)/(3*AP13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR13" s="310">
+      <c r="AR13" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS13" s="310">
+      <c r="AS13" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT13" s="309" t="e">
+      <c r="AT13" s="312" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -18233,165 +18254,165 @@
       <c r="D14" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="294" t="s">
+      <c r="E14" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="294" t="s">
+      <c r="F14" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="311">
+      <c r="G14" s="130">
         <v>30</v>
       </c>
-      <c r="H14" s="311">
+      <c r="H14" s="130">
         <v>20</v>
       </c>
-      <c r="I14" s="311">
+      <c r="I14" s="130">
         <v>40</v>
       </c>
-      <c r="J14" s="307" t="s">
+      <c r="J14" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="K14" s="301" t="e" cm="1">
+      <c r="K14" s="120" t="e" cm="1">
         <f t="array" ref="K14">INDEX(Page3!$O$9:$O$38, COLUMN(K14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="301" t="e" cm="1">
+      <c r="L14" s="120" t="e" cm="1">
         <f t="array" ref="L14">INDEX(Page3!$O$9:$O$38, COLUMN(L14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="301" t="e" cm="1">
+      <c r="M14" s="120" t="e" cm="1">
         <f t="array" ref="M14">INDEX(Page3!$O$9:$O$38, COLUMN(M14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="301" t="e" cm="1">
+      <c r="N14" s="120" t="e" cm="1">
         <f t="array" ref="N14">INDEX(Page3!$O$9:$O$38, COLUMN(N14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O14" s="301" t="e" cm="1">
+      <c r="O14" s="120" t="e" cm="1">
         <f t="array" ref="O14">INDEX(Page3!$O$9:$O$38, COLUMN(O14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P14" s="301" t="e" cm="1">
+      <c r="P14" s="120" t="e" cm="1">
         <f t="array" ref="P14">INDEX(Page3!$O$9:$O$38, COLUMN(P14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="301" t="e" cm="1">
+      <c r="Q14" s="120" t="e" cm="1">
         <f t="array" ref="Q14">INDEX(Page3!$O$9:$O$38, COLUMN(Q14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R14" s="301" t="e" cm="1">
+      <c r="R14" s="120" t="e" cm="1">
         <f t="array" ref="R14">INDEX(Page3!$O$9:$O$38, COLUMN(R14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S14" s="301" t="e" cm="1">
+      <c r="S14" s="120" t="e" cm="1">
         <f t="array" ref="S14">INDEX(Page3!$O$9:$O$38, COLUMN(S14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T14" s="301" t="e" cm="1">
+      <c r="T14" s="120" t="e" cm="1">
         <f t="array" ref="T14">INDEX(Page3!$O$9:$O$38, COLUMN(T14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U14" s="301" t="e" cm="1">
+      <c r="U14" s="120" t="e" cm="1">
         <f t="array" ref="U14">INDEX(Page3!$O$9:$O$38, COLUMN(U14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V14" s="301" t="e" cm="1">
+      <c r="V14" s="120" t="e" cm="1">
         <f t="array" ref="V14">INDEX(Page3!$O$9:$O$38, COLUMN(V14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W14" s="301" t="e" cm="1">
+      <c r="W14" s="120" t="e" cm="1">
         <f t="array" ref="W14">INDEX(Page3!$O$9:$O$38, COLUMN(W14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X14" s="301" t="e" cm="1">
+      <c r="X14" s="120" t="e" cm="1">
         <f t="array" ref="X14">INDEX(Page3!$O$9:$O$38, COLUMN(X14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y14" s="301" t="e" cm="1">
+      <c r="Y14" s="120" t="e" cm="1">
         <f t="array" ref="Y14">INDEX(Page3!$O$9:$O$38, COLUMN(Y14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z14" s="301" t="e" cm="1">
+      <c r="Z14" s="120" t="e" cm="1">
         <f t="array" ref="Z14">INDEX(Page3!$O$9:$O$38, COLUMN(Z14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA14" s="301" t="e" cm="1">
+      <c r="AA14" s="120" t="e" cm="1">
         <f t="array" ref="AA14">INDEX(Page3!$O$9:$O$38, COLUMN(AA14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB14" s="301" t="e" cm="1">
+      <c r="AB14" s="120" t="e" cm="1">
         <f t="array" ref="AB14">INDEX(Page3!$O$9:$O$38, COLUMN(AB14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC14" s="301" t="e" cm="1">
+      <c r="AC14" s="120" t="e" cm="1">
         <f t="array" ref="AC14">INDEX(Page3!$O$9:$O$38, COLUMN(AC14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="301" t="e" cm="1">
+      <c r="AD14" s="120" t="e" cm="1">
         <f t="array" ref="AD14">INDEX(Page3!$O$9:$O$38, COLUMN(AD14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE14" s="301" t="e" cm="1">
+      <c r="AE14" s="120" t="e" cm="1">
         <f t="array" ref="AE14">INDEX(Page3!$O$9:$O$38, COLUMN(AE14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF14" s="301" t="e" cm="1">
+      <c r="AF14" s="120" t="e" cm="1">
         <f t="array" ref="AF14">INDEX(Page3!$O$9:$O$38, COLUMN(AF14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG14" s="301" t="e" cm="1">
+      <c r="AG14" s="120" t="e" cm="1">
         <f t="array" ref="AG14">INDEX(Page3!$O$9:$O$38, COLUMN(AG14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH14" s="301" t="e" cm="1">
+      <c r="AH14" s="120" t="e" cm="1">
         <f t="array" ref="AH14">INDEX(Page3!$O$9:$O$38, COLUMN(AH14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI14" s="301" t="e" cm="1">
+      <c r="AI14" s="120" t="e" cm="1">
         <f t="array" ref="AI14">INDEX(Page3!$O$9:$O$38, COLUMN(AI14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ14" s="301" t="e" cm="1">
+      <c r="AJ14" s="120" t="e" cm="1">
         <f t="array" ref="AJ14">INDEX(Page3!$O$9:$O$38, COLUMN(AJ14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK14" s="301" t="e" cm="1">
+      <c r="AK14" s="120" t="e" cm="1">
         <f t="array" ref="AK14">INDEX(Page3!$O$9:$O$38, COLUMN(AK14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL14" s="301" t="e" cm="1">
+      <c r="AL14" s="120" t="e" cm="1">
         <f t="array" ref="AL14">INDEX(Page3!$O$9:$O$38, COLUMN(AL14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM14" s="301" t="e" cm="1">
+      <c r="AM14" s="120" t="e" cm="1">
         <f t="array" ref="AM14">INDEX(Page3!$O$9:$O$38, COLUMN(AM14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN14" s="301" t="e" cm="1">
+      <c r="AN14" s="120" t="e" cm="1">
         <f t="array" ref="AN14">INDEX(Page3!$O$9:$O$38, COLUMN(AN14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO14" s="302" t="e">
+      <c r="AO14" s="121" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP14" s="298" t="e">
+      <c r="AP14" s="117" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ14" s="303" t="e">
+      <c r="AQ14" s="122" t="e">
         <f>MIN((AO14-H14)/(3*AP14), (I14-AO14)/(3*AP14))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR14" s="304" t="e">
+      <c r="AR14" s="123" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS14" s="304" t="e">
+      <c r="AS14" s="123" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT14" s="302" t="e">
+      <c r="AT14" s="312" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -18409,165 +18430,165 @@
       <c r="D15" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="294" t="s">
+      <c r="E15" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="294" t="s">
+      <c r="F15" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="295" t="s">
+      <c r="G15" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="295" t="s">
+      <c r="H15" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="I15" s="295" t="s">
+      <c r="I15" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="295" t="s">
+      <c r="J15" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="305" cm="1">
+      <c r="K15" s="124" cm="1">
         <f t="array" ref="K15">INDEX(Page1!$J$8:$J$37, COLUMN(K15)-10)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="305" cm="1">
+      <c r="L15" s="124" cm="1">
         <f t="array" ref="L15">INDEX(Page1!$J$8:$J$37, COLUMN(L15)-10)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="305" cm="1">
+      <c r="M15" s="124" cm="1">
         <f t="array" ref="M15">INDEX(Page1!$J$8:$J$37, COLUMN(M15)-10)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="305" cm="1">
+      <c r="N15" s="124" cm="1">
         <f t="array" ref="N15">INDEX(Page1!$J$8:$J$37, COLUMN(N15)-10)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="305" cm="1">
+      <c r="O15" s="124" cm="1">
         <f t="array" ref="O15">INDEX(Page1!$J$8:$J$37, COLUMN(O15)-10)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="305" cm="1">
+      <c r="P15" s="124" cm="1">
         <f t="array" ref="P15">INDEX(Page1!$J$8:$J$37, COLUMN(P15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="305" cm="1">
+      <c r="Q15" s="124" cm="1">
         <f t="array" ref="Q15">INDEX(Page1!$J$8:$J$37, COLUMN(Q15)-10)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="305" cm="1">
+      <c r="R15" s="124" cm="1">
         <f t="array" ref="R15">INDEX(Page1!$J$8:$J$37, COLUMN(R15)-10)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="305" cm="1">
+      <c r="S15" s="124" cm="1">
         <f t="array" ref="S15">INDEX(Page1!$J$8:$J$37, COLUMN(S15)-10)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="305" cm="1">
+      <c r="T15" s="124" cm="1">
         <f t="array" ref="T15">INDEX(Page1!$J$8:$J$37, COLUMN(T15)-10)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="305" cm="1">
+      <c r="U15" s="124" cm="1">
         <f t="array" ref="U15">INDEX(Page1!$J$8:$J$37, COLUMN(U15)-10)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="305" cm="1">
+      <c r="V15" s="124" cm="1">
         <f t="array" ref="V15">INDEX(Page1!$J$8:$J$37, COLUMN(V15)-10)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="305" cm="1">
+      <c r="W15" s="124" cm="1">
         <f t="array" ref="W15">INDEX(Page1!$J$8:$J$37, COLUMN(W15)-10)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="305" cm="1">
+      <c r="X15" s="124" cm="1">
         <f t="array" ref="X15">INDEX(Page1!$J$8:$J$37, COLUMN(X15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="305" cm="1">
+      <c r="Y15" s="124" cm="1">
         <f t="array" ref="Y15">INDEX(Page1!$J$8:$J$37, COLUMN(Y15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="305" cm="1">
+      <c r="Z15" s="124" cm="1">
         <f t="array" ref="Z15">INDEX(Page1!$J$8:$J$37, COLUMN(Z15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="305" cm="1">
+      <c r="AA15" s="124" cm="1">
         <f t="array" ref="AA15">INDEX(Page1!$J$8:$J$37, COLUMN(AA15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="305" cm="1">
+      <c r="AB15" s="124" cm="1">
         <f t="array" ref="AB15">INDEX(Page1!$J$8:$J$37, COLUMN(AB15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="305" cm="1">
+      <c r="AC15" s="124" cm="1">
         <f t="array" ref="AC15">INDEX(Page1!$J$8:$J$37, COLUMN(AC15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="305" cm="1">
+      <c r="AD15" s="124" cm="1">
         <f t="array" ref="AD15">INDEX(Page1!$J$8:$J$37, COLUMN(AD15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="305" cm="1">
+      <c r="AE15" s="124" cm="1">
         <f t="array" ref="AE15">INDEX(Page1!$J$8:$J$37, COLUMN(AE15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="305" cm="1">
+      <c r="AF15" s="124" cm="1">
         <f t="array" ref="AF15">INDEX(Page1!$J$8:$J$37, COLUMN(AF15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="305" cm="1">
+      <c r="AG15" s="124" cm="1">
         <f t="array" ref="AG15">INDEX(Page1!$J$8:$J$37, COLUMN(AG15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="305" cm="1">
+      <c r="AH15" s="124" cm="1">
         <f t="array" ref="AH15">INDEX(Page1!$J$8:$J$37, COLUMN(AH15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="305" cm="1">
+      <c r="AI15" s="124" cm="1">
         <f t="array" ref="AI15">INDEX(Page1!$J$8:$J$37, COLUMN(AI15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="305" cm="1">
+      <c r="AJ15" s="124" cm="1">
         <f t="array" ref="AJ15">INDEX(Page1!$J$8:$J$37, COLUMN(AJ15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="305" cm="1">
+      <c r="AK15" s="124" cm="1">
         <f t="array" ref="AK15">INDEX(Page1!$J$8:$J$37, COLUMN(AK15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="305" cm="1">
+      <c r="AL15" s="124" cm="1">
         <f t="array" ref="AL15">INDEX(Page1!$J$8:$J$37, COLUMN(AL15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="305" cm="1">
+      <c r="AM15" s="124" cm="1">
         <f t="array" ref="AM15">INDEX(Page1!$J$8:$J$37, COLUMN(AM15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="305" cm="1">
+      <c r="AN15" s="124" cm="1">
         <f t="array" ref="AN15">INDEX(Page1!$J$8:$J$37, COLUMN(AN15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO15" s="306">
+      <c r="AO15" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP15" s="298">
+      <c r="AP15" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="299" t="e">
+      <c r="AQ15" s="118" t="e">
         <f>MIN((AO15-H15)/(3*AP15), (I15-AO15)/(3*AP15))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR15" s="298">
+      <c r="AR15" s="117">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS15" s="298">
+      <c r="AS15" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT15" s="306" t="e">
+      <c r="AT15" s="312" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -18585,163 +18606,163 @@
       <c r="D16" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="294" t="s">
+      <c r="E16" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="294" t="s">
+      <c r="F16" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="295" t="s">
+      <c r="G16" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="295"/>
-      <c r="I16" s="295" t="s">
+      <c r="H16" s="114"/>
+      <c r="I16" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="295" t="s">
+      <c r="J16" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="305" cm="1">
+      <c r="K16" s="124" cm="1">
         <f t="array" ref="K16">INDEX(Page1!$O$8:$O$37, COLUMN(K16)-10)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="305" cm="1">
+      <c r="L16" s="124" cm="1">
         <f t="array" ref="L16">INDEX(Page1!$O$8:$O$37, COLUMN(L16)-10)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="305" cm="1">
+      <c r="M16" s="124" cm="1">
         <f t="array" ref="M16">INDEX(Page1!$O$8:$O$37, COLUMN(M16)-10)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="305" cm="1">
+      <c r="N16" s="124" cm="1">
         <f t="array" ref="N16">INDEX(Page1!$O$8:$O$37, COLUMN(N16)-10)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="305" cm="1">
+      <c r="O16" s="124" cm="1">
         <f t="array" ref="O16">INDEX(Page1!$O$8:$O$37, COLUMN(O16)-10)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="305" cm="1">
+      <c r="P16" s="124" cm="1">
         <f t="array" ref="P16">INDEX(Page1!$O$8:$O$37, COLUMN(P16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="305" cm="1">
+      <c r="Q16" s="124" cm="1">
         <f t="array" ref="Q16">INDEX(Page1!$O$8:$O$37, COLUMN(Q16)-10)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="305" cm="1">
+      <c r="R16" s="124" cm="1">
         <f t="array" ref="R16">INDEX(Page1!$O$8:$O$37, COLUMN(R16)-10)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="305" cm="1">
+      <c r="S16" s="124" cm="1">
         <f t="array" ref="S16">INDEX(Page1!$O$8:$O$37, COLUMN(S16)-10)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="305" cm="1">
+      <c r="T16" s="124" cm="1">
         <f t="array" ref="T16">INDEX(Page1!$O$8:$O$37, COLUMN(T16)-10)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="305" cm="1">
+      <c r="U16" s="124" cm="1">
         <f t="array" ref="U16">INDEX(Page1!$O$8:$O$37, COLUMN(U16)-10)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="305" cm="1">
+      <c r="V16" s="124" cm="1">
         <f t="array" ref="V16">INDEX(Page1!$O$8:$O$37, COLUMN(V16)-10)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="305" cm="1">
+      <c r="W16" s="124" cm="1">
         <f t="array" ref="W16">INDEX(Page1!$O$8:$O$37, COLUMN(W16)-10)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="305" cm="1">
+      <c r="X16" s="124" cm="1">
         <f t="array" ref="X16">INDEX(Page1!$O$8:$O$37, COLUMN(X16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="305" cm="1">
+      <c r="Y16" s="124" cm="1">
         <f t="array" ref="Y16">INDEX(Page1!$O$8:$O$37, COLUMN(Y16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="305" cm="1">
+      <c r="Z16" s="124" cm="1">
         <f t="array" ref="Z16">INDEX(Page1!$O$8:$O$37, COLUMN(Z16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="305" cm="1">
+      <c r="AA16" s="124" cm="1">
         <f t="array" ref="AA16">INDEX(Page1!$O$8:$O$37, COLUMN(AA16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="305" cm="1">
+      <c r="AB16" s="124" cm="1">
         <f t="array" ref="AB16">INDEX(Page1!$O$8:$O$37, COLUMN(AB16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="305" cm="1">
+      <c r="AC16" s="124" cm="1">
         <f t="array" ref="AC16">INDEX(Page1!$O$8:$O$37, COLUMN(AC16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="305" cm="1">
+      <c r="AD16" s="124" cm="1">
         <f t="array" ref="AD16">INDEX(Page1!$O$8:$O$37, COLUMN(AD16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="305" cm="1">
+      <c r="AE16" s="124" cm="1">
         <f t="array" ref="AE16">INDEX(Page1!$O$8:$O$37, COLUMN(AE16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="305" cm="1">
+      <c r="AF16" s="124" cm="1">
         <f t="array" ref="AF16">INDEX(Page1!$O$8:$O$37, COLUMN(AF16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="305" cm="1">
+      <c r="AG16" s="124" cm="1">
         <f t="array" ref="AG16">INDEX(Page1!$O$8:$O$37, COLUMN(AG16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="305" cm="1">
+      <c r="AH16" s="124" cm="1">
         <f t="array" ref="AH16">INDEX(Page1!$O$8:$O$37, COLUMN(AH16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="305" cm="1">
+      <c r="AI16" s="124" cm="1">
         <f t="array" ref="AI16">INDEX(Page1!$O$8:$O$37, COLUMN(AI16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="305" cm="1">
+      <c r="AJ16" s="124" cm="1">
         <f t="array" ref="AJ16">INDEX(Page1!$O$8:$O$37, COLUMN(AJ16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="305" cm="1">
+      <c r="AK16" s="124" cm="1">
         <f t="array" ref="AK16">INDEX(Page1!$O$8:$O$37, COLUMN(AK16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="305" cm="1">
+      <c r="AL16" s="124" cm="1">
         <f t="array" ref="AL16">INDEX(Page1!$O$8:$O$37, COLUMN(AL16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="305" cm="1">
+      <c r="AM16" s="124" cm="1">
         <f t="array" ref="AM16">INDEX(Page1!$O$8:$O$37, COLUMN(AM16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="305" cm="1">
+      <c r="AN16" s="124" cm="1">
         <f t="array" ref="AN16">INDEX(Page1!$O$8:$O$37, COLUMN(AN16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO16" s="306">
+      <c r="AO16" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP16" s="298">
+      <c r="AP16" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ16" s="303" t="e">
+      <c r="AQ16" s="122" t="e">
         <f>(I16-AO16)/(3*AP16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR16" s="298">
+      <c r="AR16" s="117">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS16" s="298">
+      <c r="AS16" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT16" s="306" t="e">
+      <c r="AT16" s="312" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -18991,6 +19012,14 @@
       <c r="AC53" s="93"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="AT3:AT16">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",AT3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",AT3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/backend/templates/168-16cp-kranti.xlsx
+++ b/backend/templates/168-16cp-kranti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A307C02B-0369-4341-B2C7-41C9A71A304F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E55EAAA-AA7E-4F0E-A7A6-10345E4178AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1430,7 +1430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1813,60 +1813,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2489,7 +2435,77 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8014,161 +8030,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="171" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="171"/>
+      <c r="O1" s="153"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="172" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="172"/>
+      <c r="O2" s="154"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
       <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="162" t="s">
+      <c r="B4" s="144"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="162"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="155"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="137"/>
       <c r="J4" s="29" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="102"/>
-      <c r="L4" s="169" t="s">
+      <c r="L4" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="170"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="160"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="142"/>
     </row>
     <row r="5" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="164" t="s">
+      <c r="B5" s="146"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="164"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="158"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="140"/>
       <c r="J5" s="60" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="103"/>
-      <c r="L5" s="167" t="s">
+      <c r="L5" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="168"/>
-      <c r="N5" s="165"/>
-      <c r="O5" s="166"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="148"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="181"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="163"/>
     </row>
     <row r="7" spans="1:15" s="62" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A7" s="144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="145" t="s">
+      <c r="A7" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145" t="s">
+      <c r="E7" s="127"/>
+      <c r="F7" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="145"/>
-      <c r="H7" s="146" t="s">
+      <c r="G7" s="127"/>
+      <c r="H7" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="148"/>
-      <c r="J7" s="146" t="s">
+      <c r="I7" s="130"/>
+      <c r="J7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="148"/>
-      <c r="L7" s="145" t="s">
+      <c r="K7" s="130"/>
+      <c r="L7" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="145"/>
+      <c r="M7" s="127"/>
       <c r="N7" s="108" t="s">
         <v>30</v>
       </c>
@@ -8180,16 +8196,16 @@
       <c r="A8" s="55"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
       <c r="N8" s="99"/>
       <c r="O8" s="49"/>
     </row>
@@ -8197,16 +8213,16 @@
       <c r="A9" s="55"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
       <c r="N9" s="97"/>
       <c r="O9" s="50"/>
     </row>
@@ -8214,16 +8230,16 @@
       <c r="A10" s="55"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
       <c r="N10" s="97"/>
       <c r="O10" s="50"/>
     </row>
@@ -8231,16 +8247,16 @@
       <c r="A11" s="55"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
       <c r="N11" s="99"/>
       <c r="O11" s="49"/>
     </row>
@@ -8248,16 +8264,16 @@
       <c r="A12" s="55"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
       <c r="N12" s="97"/>
       <c r="O12" s="50"/>
     </row>
@@ -8265,16 +8281,16 @@
       <c r="A13" s="55"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
       <c r="N13" s="97"/>
       <c r="O13" s="50"/>
     </row>
@@ -8282,16 +8298,16 @@
       <c r="A14" s="55"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
       <c r="N14" s="97"/>
       <c r="O14" s="50"/>
     </row>
@@ -8299,16 +8315,16 @@
       <c r="A15" s="55"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
       <c r="N15" s="97"/>
       <c r="O15" s="50"/>
     </row>
@@ -8316,16 +8332,16 @@
       <c r="A16" s="55"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
       <c r="N16" s="97"/>
       <c r="O16" s="50"/>
     </row>
@@ -8333,16 +8349,16 @@
       <c r="A17" s="55"/>
       <c r="B17" s="57"/>
       <c r="C17" s="56"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="122"/>
       <c r="N17" s="97"/>
       <c r="O17" s="50"/>
     </row>
@@ -8350,16 +8366,16 @@
       <c r="A18" s="55"/>
       <c r="B18" s="57"/>
       <c r="C18" s="56"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
       <c r="N18" s="97"/>
       <c r="O18" s="50"/>
     </row>
@@ -8367,16 +8383,16 @@
       <c r="A19" s="55"/>
       <c r="B19" s="57"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="97"/>
       <c r="O19" s="50"/>
     </row>
@@ -8384,16 +8400,16 @@
       <c r="A20" s="55"/>
       <c r="B20" s="57"/>
       <c r="C20" s="56"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
       <c r="N20" s="97"/>
       <c r="O20" s="50"/>
     </row>
@@ -8401,16 +8417,16 @@
       <c r="A21" s="55"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
       <c r="N21" s="99"/>
       <c r="O21" s="49"/>
     </row>
@@ -8418,16 +8434,16 @@
       <c r="A22" s="55"/>
       <c r="B22" s="57"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="140"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
       <c r="N22" s="97"/>
       <c r="O22" s="50"/>
     </row>
@@ -8435,16 +8451,16 @@
       <c r="A23" s="55"/>
       <c r="B23" s="57"/>
       <c r="C23" s="56"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="140"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
       <c r="N23" s="97"/>
       <c r="O23" s="50"/>
     </row>
@@ -8452,16 +8468,16 @@
       <c r="A24" s="55"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
       <c r="N24" s="99"/>
       <c r="O24" s="49"/>
     </row>
@@ -8469,16 +8485,16 @@
       <c r="A25" s="55"/>
       <c r="B25" s="57"/>
       <c r="C25" s="56"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="140"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
       <c r="N25" s="97"/>
       <c r="O25" s="50"/>
     </row>
@@ -8486,16 +8502,16 @@
       <c r="A26" s="55"/>
       <c r="B26" s="57"/>
       <c r="C26" s="56"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
       <c r="N26" s="97"/>
       <c r="O26" s="50"/>
     </row>
@@ -8503,16 +8519,16 @@
       <c r="A27" s="55"/>
       <c r="B27" s="57"/>
       <c r="C27" s="56"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="140"/>
-      <c r="M27" s="140"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
       <c r="N27" s="97"/>
       <c r="O27" s="50"/>
     </row>
@@ -8520,16 +8536,16 @@
       <c r="A28" s="55"/>
       <c r="B28" s="57"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="122"/>
       <c r="N28" s="97"/>
       <c r="O28" s="50"/>
     </row>
@@ -8537,16 +8553,16 @@
       <c r="A29" s="55"/>
       <c r="B29" s="57"/>
       <c r="C29" s="56"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
       <c r="N29" s="97"/>
       <c r="O29" s="50"/>
     </row>
@@ -8554,16 +8570,16 @@
       <c r="A30" s="55"/>
       <c r="B30" s="57"/>
       <c r="C30" s="56"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="140"/>
-      <c r="M30" s="140"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
       <c r="N30" s="97"/>
       <c r="O30" s="50"/>
     </row>
@@ -8571,16 +8587,16 @@
       <c r="A31" s="55"/>
       <c r="B31" s="57"/>
       <c r="C31" s="56"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="140"/>
-      <c r="M31" s="140"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
       <c r="N31" s="97"/>
       <c r="O31" s="50"/>
     </row>
@@ -8588,16 +8604,16 @@
       <c r="A32" s="55"/>
       <c r="B32" s="57"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="140"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
       <c r="N32" s="97"/>
       <c r="O32" s="50"/>
     </row>
@@ -8605,16 +8621,16 @@
       <c r="A33" s="55"/>
       <c r="B33" s="57"/>
       <c r="C33" s="56"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="140"/>
-      <c r="M33" s="140"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
       <c r="N33" s="97"/>
       <c r="O33" s="50"/>
     </row>
@@ -8622,16 +8638,16 @@
       <c r="A34" s="55"/>
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="131"/>
-      <c r="K34" s="131"/>
-      <c r="L34" s="135"/>
-      <c r="M34" s="135"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
       <c r="N34" s="99"/>
       <c r="O34" s="49"/>
     </row>
@@ -8639,16 +8655,16 @@
       <c r="A35" s="55"/>
       <c r="B35" s="57"/>
       <c r="C35" s="56"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="140"/>
-      <c r="M35" s="140"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
       <c r="N35" s="97"/>
       <c r="O35" s="50"/>
     </row>
@@ -8656,16 +8672,16 @@
       <c r="A36" s="55"/>
       <c r="B36" s="57"/>
       <c r="C36" s="56"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="136"/>
-      <c r="K36" s="136"/>
-      <c r="L36" s="140"/>
-      <c r="M36" s="140"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="122"/>
       <c r="N36" s="97"/>
       <c r="O36" s="50"/>
     </row>
@@ -8673,50 +8689,50 @@
       <c r="A37" s="55"/>
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="134"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="135"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
       <c r="N37" s="99"/>
       <c r="O37" s="49"/>
     </row>
     <row r="38" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="188" t="s">
+      <c r="A38" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="189"/>
-      <c r="C38" s="189"/>
-      <c r="D38" s="182" t="e">
+      <c r="B38" s="171"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="164" t="e">
         <f>AVERAGE(D8:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="182"/>
-      <c r="F38" s="194" t="e">
+      <c r="E38" s="164"/>
+      <c r="F38" s="176" t="e">
         <f t="shared" ref="F38" si="0">AVERAGE(F8:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="194"/>
-      <c r="H38" s="197" t="e">
+      <c r="G38" s="176"/>
+      <c r="H38" s="179" t="e">
         <f t="shared" ref="H38" si="1">AVERAGE(H8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="197"/>
-      <c r="J38" s="182" t="e">
+      <c r="I38" s="179"/>
+      <c r="J38" s="164" t="e">
         <f t="shared" ref="J38" si="2">AVERAGE(J8:K37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="182"/>
-      <c r="L38" s="185" t="e">
+      <c r="K38" s="164"/>
+      <c r="L38" s="167" t="e">
         <f t="shared" ref="L38" si="3">AVERAGE(L8:M37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="185"/>
+      <c r="M38" s="167"/>
       <c r="N38" s="94" t="e">
         <f>AVERAGE(N8:N37)</f>
         <v>#DIV/0!</v>
@@ -8727,36 +8743,36 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="190" t="s">
+      <c r="A39" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="191"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="183">
+      <c r="B39" s="173"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="165">
         <f>MIN(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="183"/>
-      <c r="F39" s="195">
+      <c r="E39" s="165"/>
+      <c r="F39" s="177">
         <f t="shared" ref="F39" si="4">MIN(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="195"/>
-      <c r="H39" s="198">
+      <c r="G39" s="177"/>
+      <c r="H39" s="180">
         <f t="shared" ref="H39" si="5">MIN(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="198"/>
-      <c r="J39" s="183">
+      <c r="I39" s="180"/>
+      <c r="J39" s="165">
         <f t="shared" ref="J39" si="6">MIN(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="183"/>
-      <c r="L39" s="186">
+      <c r="K39" s="165"/>
+      <c r="L39" s="168">
         <f t="shared" ref="L39" si="7">MIN(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="186"/>
+      <c r="M39" s="168"/>
       <c r="N39" s="95">
         <f>MIN(N8:N37)</f>
         <v>0</v>
@@ -8767,36 +8783,36 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="192" t="s">
+      <c r="A40" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="193"/>
-      <c r="C40" s="193"/>
-      <c r="D40" s="184">
+      <c r="B40" s="175"/>
+      <c r="C40" s="175"/>
+      <c r="D40" s="166">
         <f>MAX(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="184"/>
-      <c r="F40" s="196">
+      <c r="E40" s="166"/>
+      <c r="F40" s="178">
         <f t="shared" ref="F40" si="8">MAX(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="196"/>
-      <c r="H40" s="199">
+      <c r="G40" s="178"/>
+      <c r="H40" s="181">
         <f t="shared" ref="H40" si="9">MAX(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="199"/>
-      <c r="J40" s="184">
+      <c r="I40" s="181"/>
+      <c r="J40" s="166">
         <f t="shared" ref="J40" si="10">MAX(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="184"/>
-      <c r="L40" s="187">
+      <c r="K40" s="166"/>
+      <c r="L40" s="169">
         <f t="shared" ref="L40" si="11">MAX(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="187"/>
+      <c r="M40" s="169"/>
       <c r="N40" s="96">
         <f>MAX(N8:N37)</f>
         <v>0</v>
@@ -8810,31 +8826,31 @@
       <c r="A41" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="179" t="s">
+      <c r="B41" s="158"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="179"/>
+      <c r="E41" s="161"/>
       <c r="F41" s="51"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
-      <c r="K41" s="173" t="s">
+      <c r="K41" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="173"/>
-      <c r="M41" s="175"/>
-      <c r="N41" s="175"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="157"/>
+      <c r="N41" s="157"/>
       <c r="O41" s="70" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="70"/>
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="162"/>
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="70"/>
@@ -8844,15 +8860,15 @@
       <c r="J42" s="52"/>
       <c r="K42" s="100"/>
       <c r="L42" s="100"/>
-      <c r="M42" s="175"/>
-      <c r="N42" s="175"/>
+      <c r="M42" s="157"/>
+      <c r="N42" s="157"/>
       <c r="O42" s="100"/>
     </row>
     <row r="43" spans="1:15" s="38" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="177" t="s">
+      <c r="A43" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="177"/>
+      <c r="B43" s="159"/>
       <c r="C43" s="70"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -8860,22 +8876,22 @@
       <c r="G43" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="177" t="s">
+      <c r="H43" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="177"/>
-      <c r="J43" s="177"/>
-      <c r="K43" s="177"/>
+      <c r="I43" s="159"/>
+      <c r="J43" s="159"/>
+      <c r="K43" s="159"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="178" t="s">
+      <c r="A44" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="178"/>
+      <c r="B44" s="160"/>
       <c r="C44" s="101"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -8918,46 +8934,46 @@
       <c r="M52" s="54"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="174"/>
-      <c r="D76" s="174"/>
-      <c r="E76" s="174"/>
-      <c r="I76" s="174"/>
-      <c r="J76" s="174"/>
-      <c r="K76" s="174"/>
-      <c r="L76" s="174"/>
-      <c r="M76" s="174"/>
-      <c r="N76" s="174"/>
-      <c r="O76" s="174"/>
+      <c r="C76" s="156"/>
+      <c r="D76" s="156"/>
+      <c r="E76" s="156"/>
+      <c r="I76" s="156"/>
+      <c r="J76" s="156"/>
+      <c r="K76" s="156"/>
+      <c r="L76" s="156"/>
+      <c r="M76" s="156"/>
+      <c r="N76" s="156"/>
+      <c r="O76" s="156"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="174"/>
-      <c r="D77" s="174"/>
-      <c r="E77" s="174"/>
-      <c r="F77" s="174"/>
-      <c r="I77" s="174"/>
-      <c r="J77" s="174"/>
-      <c r="K77" s="174"/>
-      <c r="L77" s="174"/>
-      <c r="M77" s="174"/>
-      <c r="N77" s="174"/>
-      <c r="O77" s="174"/>
+      <c r="C77" s="156"/>
+      <c r="D77" s="156"/>
+      <c r="E77" s="156"/>
+      <c r="F77" s="156"/>
+      <c r="I77" s="156"/>
+      <c r="J77" s="156"/>
+      <c r="K77" s="156"/>
+      <c r="L77" s="156"/>
+      <c r="M77" s="156"/>
+      <c r="N77" s="156"/>
+      <c r="O77" s="156"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
-      <c r="E78" s="174"/>
-      <c r="I78" s="174"/>
-      <c r="J78" s="174"/>
-      <c r="K78" s="174"/>
-      <c r="L78" s="174"/>
-      <c r="M78" s="174"/>
-      <c r="N78" s="174"/>
-      <c r="O78" s="174"/>
+      <c r="C78" s="156"/>
+      <c r="D78" s="156"/>
+      <c r="E78" s="156"/>
+      <c r="I78" s="156"/>
+      <c r="J78" s="156"/>
+      <c r="K78" s="156"/>
+      <c r="L78" s="156"/>
+      <c r="M78" s="156"/>
+      <c r="N78" s="156"/>
+      <c r="O78" s="156"/>
     </row>
     <row r="79" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
-      <c r="E79" s="174"/>
+      <c r="C79" s="156"/>
+      <c r="D79" s="156"/>
+      <c r="E79" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="216">
@@ -9256,61 +9272,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="171" t="s">
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="171"/>
+      <c r="O1" s="153"/>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="172" t="s">
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="172"/>
+      <c r="O2" s="154"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="208"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
+      <c r="A3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -9320,124 +9336,124 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="209">
+      <c r="B4" s="191">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="169" t="s">
+      <c r="C4" s="192"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="170"/>
-      <c r="G4" s="209">
+      <c r="F4" s="152"/>
+      <c r="G4" s="191">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="211"/>
+      <c r="H4" s="193"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="212">
+      <c r="J4" s="194">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="212"/>
-      <c r="L4" s="162" t="s">
+      <c r="K4" s="194"/>
+      <c r="L4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="162"/>
-      <c r="N4" s="209">
+      <c r="M4" s="144"/>
+      <c r="N4" s="191">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="213"/>
+      <c r="O4" s="195"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="143">
+      <c r="B5" s="125">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="247"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="248" t="s">
+      <c r="C5" s="229"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="143">
+      <c r="F5" s="231"/>
+      <c r="G5" s="125">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="147"/>
+      <c r="H5" s="129"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="142">
+      <c r="J5" s="124">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="142"/>
-      <c r="L5" s="246" t="s">
+      <c r="K5" s="124"/>
+      <c r="L5" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="246"/>
-      <c r="N5" s="143">
+      <c r="M5" s="228"/>
+      <c r="N5" s="125">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="181"/>
+      <c r="O5" s="163"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="243" t="s">
+      <c r="A6" s="225" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="244"/>
-      <c r="C6" s="244"/>
-      <c r="D6" s="244"/>
-      <c r="E6" s="244"/>
-      <c r="F6" s="244"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="244"/>
-      <c r="L6" s="244"/>
-      <c r="M6" s="244"/>
-      <c r="N6" s="244"/>
-      <c r="O6" s="245"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="226"/>
+      <c r="N6" s="226"/>
+      <c r="O6" s="227"/>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="214" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="215"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="239" t="s">
+      <c r="A7" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="197"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="221" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240" t="s">
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="241"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="240" t="s">
+      <c r="I7" s="223"/>
+      <c r="J7" s="223"/>
+      <c r="K7" s="224"/>
+      <c r="L7" s="222" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="241"/>
-      <c r="N7" s="241"/>
-      <c r="O7" s="250"/>
+      <c r="M7" s="223"/>
+      <c r="N7" s="223"/>
+      <c r="O7" s="232"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="217"/>
-      <c r="B8" s="218"/>
-      <c r="C8" s="219"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="201"/>
       <c r="D8" s="10">
         <v>1</v>
       </c>
@@ -10531,27 +10547,27 @@
       <c r="C39" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="200" t="e">
+      <c r="D39" s="182" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="203" t="e">
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="184"/>
+      <c r="H39" s="185" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="204"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="205"/>
-      <c r="L39" s="203" t="e">
+      <c r="I39" s="186"/>
+      <c r="J39" s="186"/>
+      <c r="K39" s="187"/>
+      <c r="L39" s="185" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="204"/>
-      <c r="N39" s="204"/>
-      <c r="O39" s="206"/>
+      <c r="M39" s="186"/>
+      <c r="N39" s="186"/>
+      <c r="O39" s="188"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="16"/>
@@ -10559,27 +10575,27 @@
       <c r="C40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="222" t="e">
+      <c r="D40" s="204" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="223"/>
-      <c r="F40" s="223"/>
-      <c r="G40" s="224"/>
-      <c r="H40" s="225" t="e">
+      <c r="E40" s="205"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="207" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="226"/>
-      <c r="J40" s="226"/>
-      <c r="K40" s="227"/>
-      <c r="L40" s="225" t="e">
+      <c r="I40" s="208"/>
+      <c r="J40" s="208"/>
+      <c r="K40" s="209"/>
+      <c r="L40" s="207" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="226"/>
-      <c r="N40" s="226"/>
-      <c r="O40" s="228"/>
+      <c r="M40" s="208"/>
+      <c r="N40" s="208"/>
+      <c r="O40" s="210"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -10587,57 +10603,57 @@
       <c r="C41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="229" t="e">
+      <c r="D41" s="211" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="230"/>
-      <c r="F41" s="230"/>
-      <c r="G41" s="231"/>
-      <c r="H41" s="232" t="e">
+      <c r="E41" s="212"/>
+      <c r="F41" s="212"/>
+      <c r="G41" s="213"/>
+      <c r="H41" s="214" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="233"/>
-      <c r="J41" s="233"/>
-      <c r="K41" s="234"/>
-      <c r="L41" s="232" t="e">
+      <c r="I41" s="215"/>
+      <c r="J41" s="215"/>
+      <c r="K41" s="216"/>
+      <c r="L41" s="214" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="233"/>
-      <c r="N41" s="233"/>
-      <c r="O41" s="235"/>
+      <c r="M41" s="215"/>
+      <c r="N41" s="215"/>
+      <c r="O41" s="217"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="236"/>
-      <c r="C42" s="236"/>
-      <c r="D42" s="237" t="s">
+      <c r="B42" s="218"/>
+      <c r="C42" s="218"/>
+      <c r="D42" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="237"/>
-      <c r="F42" s="237"/>
-      <c r="G42" s="237"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="221" t="s">
+      <c r="K42" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="221"/>
-      <c r="M42" s="236"/>
-      <c r="N42" s="236"/>
+      <c r="L42" s="203"/>
+      <c r="M42" s="218"/>
+      <c r="N42" s="218"/>
       <c r="O42" s="107" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="162"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -10647,15 +10663,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="100"/>
       <c r="L43" s="100"/>
-      <c r="M43" s="238"/>
-      <c r="N43" s="238"/>
+      <c r="M43" s="220"/>
+      <c r="N43" s="220"/>
       <c r="O43" s="100"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="220" t="s">
+      <c r="A44" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="220"/>
+      <c r="B44" s="202"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -10664,23 +10680,23 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="177" t="str">
+      <c r="H44" s="159" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="177"/>
-      <c r="J44" s="177"/>
-      <c r="K44" s="177"/>
+      <c r="I44" s="159"/>
+      <c r="J44" s="159"/>
+      <c r="K44" s="159"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A45" s="220" t="s">
+      <c r="A45" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="220"/>
+      <c r="B45" s="202"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -10692,10 +10708,10 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="215" t="s">
+      <c r="N45" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="215"/>
+      <c r="O45" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -10787,61 +10803,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="171" t="s">
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="171"/>
+      <c r="O1" s="153"/>
     </row>
     <row r="2" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="172" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="172"/>
+      <c r="O2" s="154"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -10851,124 +10867,124 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="209">
+      <c r="B4" s="191">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="169" t="s">
+      <c r="C4" s="192"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="170"/>
-      <c r="G4" s="209">
+      <c r="F4" s="152"/>
+      <c r="G4" s="191">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="211"/>
+      <c r="H4" s="193"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="212">
+      <c r="J4" s="194">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="212"/>
-      <c r="L4" s="162" t="s">
+      <c r="K4" s="194"/>
+      <c r="L4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="162"/>
-      <c r="N4" s="209">
+      <c r="M4" s="144"/>
+      <c r="N4" s="191">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="213"/>
+      <c r="O4" s="195"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="143">
+      <c r="B5" s="125">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="247"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="248" t="s">
+      <c r="C5" s="229"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="143">
+      <c r="F5" s="231"/>
+      <c r="G5" s="125">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="147"/>
+      <c r="H5" s="129"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="142">
+      <c r="J5" s="124">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="142"/>
-      <c r="L5" s="246" t="s">
+      <c r="K5" s="124"/>
+      <c r="L5" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="246"/>
-      <c r="N5" s="143">
+      <c r="M5" s="228"/>
+      <c r="N5" s="125">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="181"/>
+      <c r="O5" s="163"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="252"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="234"/>
     </row>
     <row r="7" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="253" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="254"/>
-      <c r="C7" s="255"/>
-      <c r="D7" s="259" t="s">
+      <c r="A7" s="235" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="236"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="241" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="259"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
-      <c r="H7" s="260" t="s">
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="261"/>
-      <c r="J7" s="261"/>
-      <c r="K7" s="262"/>
-      <c r="L7" s="260" t="s">
+      <c r="I7" s="243"/>
+      <c r="J7" s="243"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="261"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="263"/>
+      <c r="M7" s="243"/>
+      <c r="N7" s="243"/>
+      <c r="O7" s="245"/>
     </row>
     <row r="8" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="256"/>
-      <c r="B8" s="257"/>
-      <c r="C8" s="258"/>
+      <c r="A8" s="238"/>
+      <c r="B8" s="239"/>
+      <c r="C8" s="240"/>
       <c r="D8" s="105">
         <v>1</v>
       </c>
@@ -12062,27 +12078,27 @@
       <c r="C39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="271" t="e">
+      <c r="D39" s="253" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="272"/>
-      <c r="F39" s="272"/>
-      <c r="G39" s="273"/>
-      <c r="H39" s="274" t="e">
+      <c r="E39" s="254"/>
+      <c r="F39" s="254"/>
+      <c r="G39" s="255"/>
+      <c r="H39" s="256" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="275"/>
-      <c r="J39" s="275"/>
-      <c r="K39" s="276"/>
-      <c r="L39" s="274" t="e">
+      <c r="I39" s="257"/>
+      <c r="J39" s="257"/>
+      <c r="K39" s="258"/>
+      <c r="L39" s="256" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="275"/>
-      <c r="N39" s="275"/>
-      <c r="O39" s="277"/>
+      <c r="M39" s="257"/>
+      <c r="N39" s="257"/>
+      <c r="O39" s="259"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="39"/>
@@ -12090,27 +12106,27 @@
       <c r="C40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="278" t="e">
+      <c r="D40" s="260" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="279"/>
-      <c r="F40" s="279"/>
-      <c r="G40" s="280"/>
-      <c r="H40" s="281" t="e">
+      <c r="E40" s="261"/>
+      <c r="F40" s="261"/>
+      <c r="G40" s="262"/>
+      <c r="H40" s="263" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="282"/>
-      <c r="J40" s="282"/>
-      <c r="K40" s="283"/>
-      <c r="L40" s="281" t="e">
+      <c r="I40" s="264"/>
+      <c r="J40" s="264"/>
+      <c r="K40" s="265"/>
+      <c r="L40" s="263" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="282"/>
-      <c r="N40" s="282"/>
-      <c r="O40" s="284"/>
+      <c r="M40" s="264"/>
+      <c r="N40" s="264"/>
+      <c r="O40" s="266"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="41"/>
@@ -12118,57 +12134,57 @@
       <c r="C41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="264" t="e">
+      <c r="D41" s="246" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="265"/>
-      <c r="F41" s="265"/>
-      <c r="G41" s="266"/>
-      <c r="H41" s="267" t="e">
+      <c r="E41" s="247"/>
+      <c r="F41" s="247"/>
+      <c r="G41" s="248"/>
+      <c r="H41" s="249" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="268"/>
-      <c r="J41" s="268"/>
-      <c r="K41" s="269"/>
-      <c r="L41" s="267" t="e">
+      <c r="I41" s="250"/>
+      <c r="J41" s="250"/>
+      <c r="K41" s="251"/>
+      <c r="L41" s="249" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="268"/>
-      <c r="N41" s="268"/>
-      <c r="O41" s="270"/>
+      <c r="M41" s="250"/>
+      <c r="N41" s="250"/>
+      <c r="O41" s="252"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="236"/>
-      <c r="C42" s="236"/>
-      <c r="D42" s="237" t="s">
+      <c r="B42" s="218"/>
+      <c r="C42" s="218"/>
+      <c r="D42" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="237"/>
-      <c r="F42" s="237"/>
-      <c r="G42" s="237"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="221" t="s">
+      <c r="K42" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="221"/>
-      <c r="M42" s="236"/>
-      <c r="N42" s="236"/>
+      <c r="L42" s="203"/>
+      <c r="M42" s="218"/>
+      <c r="N42" s="218"/>
       <c r="O42" s="107" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="162"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -12178,15 +12194,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="100"/>
       <c r="L43" s="100"/>
-      <c r="M43" s="238"/>
-      <c r="N43" s="238"/>
+      <c r="M43" s="220"/>
+      <c r="N43" s="220"/>
       <c r="O43" s="100"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="220" t="s">
+      <c r="A44" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="220"/>
+      <c r="B44" s="202"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -12195,12 +12211,12 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="177" t="str">
+      <c r="H44" s="159" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="177"/>
-      <c r="J44" s="177"/>
+      <c r="I44" s="159"/>
+      <c r="J44" s="159"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
@@ -12208,10 +12224,10 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="220" t="s">
+      <c r="A45" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="220"/>
+      <c r="B45" s="202"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -12223,10 +12239,10 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="215" t="s">
+      <c r="N45" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="O45" s="215"/>
+      <c r="O45" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -12318,61 +12334,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="171" t="s">
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="171"/>
+      <c r="O1" s="153"/>
     </row>
     <row r="2" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="172" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="172"/>
+      <c r="O2" s="154"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -12382,122 +12398,122 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="209">
+      <c r="B4" s="191">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="169" t="s">
+      <c r="C4" s="192"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="170"/>
-      <c r="G4" s="209">
+      <c r="F4" s="152"/>
+      <c r="G4" s="191">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="211"/>
+      <c r="H4" s="193"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="212">
+      <c r="J4" s="194">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="212"/>
-      <c r="L4" s="162" t="s">
+      <c r="K4" s="194"/>
+      <c r="L4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="162"/>
-      <c r="N4" s="285">
+      <c r="M4" s="144"/>
+      <c r="N4" s="267">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="286"/>
+      <c r="O4" s="268"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="143">
+      <c r="B5" s="125">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="247"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="248" t="s">
+      <c r="C5" s="229"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="143">
+      <c r="F5" s="231"/>
+      <c r="G5" s="125">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="147"/>
+      <c r="H5" s="129"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="142">
+      <c r="J5" s="124">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="142"/>
-      <c r="L5" s="246" t="s">
+      <c r="K5" s="124"/>
+      <c r="L5" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="246"/>
-      <c r="N5" s="287">
+      <c r="M5" s="228"/>
+      <c r="N5" s="269">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="181"/>
+      <c r="O5" s="163"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="288" t="s">
+      <c r="A6" s="270" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="289"/>
-      <c r="C6" s="289"/>
-      <c r="D6" s="290"/>
-      <c r="E6" s="290"/>
-      <c r="F6" s="290"/>
-      <c r="G6" s="291"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="291"/>
-      <c r="J6" s="295"/>
-      <c r="K6" s="303"/>
-      <c r="L6" s="303"/>
-      <c r="M6" s="303"/>
-      <c r="N6" s="303"/>
-      <c r="O6" s="296"/>
+      <c r="B6" s="271"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="273"/>
+      <c r="J6" s="277"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="285"/>
+      <c r="M6" s="285"/>
+      <c r="N6" s="285"/>
+      <c r="O6" s="278"/>
     </row>
     <row r="7" spans="1:15" s="38" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="294" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="212"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="210" t="s">
+      <c r="A7" s="276" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="295" t="s">
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="277" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="296"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="215"/>
-      <c r="N7" s="215"/>
-      <c r="O7" s="304"/>
+      <c r="I7" s="278"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="197"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="286"/>
     </row>
     <row r="8" spans="1:15" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="141"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="142"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="110">
         <v>1</v>
       </c>
@@ -12510,14 +12526,14 @@
       <c r="G8" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="217"/>
-      <c r="I8" s="297"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="215"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="215"/>
-      <c r="N8" s="215"/>
-      <c r="O8" s="304"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="197"/>
+      <c r="N8" s="197"/>
+      <c r="O8" s="286"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="A9" s="58">
@@ -12539,16 +12555,16 @@
         <f t="shared" ref="G9:G38" si="0">AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="298">
-        <v>0</v>
-      </c>
-      <c r="I9" s="299"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="215"/>
-      <c r="L9" s="215"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="215"/>
-      <c r="O9" s="304"/>
+      <c r="H9" s="280">
+        <v>0</v>
+      </c>
+      <c r="I9" s="281"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="197"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="197"/>
+      <c r="O9" s="286"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="A10" s="58">
@@ -12570,16 +12586,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="292">
-        <v>0</v>
-      </c>
-      <c r="I10" s="293"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="215"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="304"/>
+      <c r="H10" s="274">
+        <v>0</v>
+      </c>
+      <c r="I10" s="275"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="197"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="197"/>
+      <c r="O10" s="286"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="58">
@@ -12601,16 +12617,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="292">
-        <v>0</v>
-      </c>
-      <c r="I11" s="293"/>
-      <c r="J11" s="214"/>
-      <c r="K11" s="215"/>
-      <c r="L11" s="215"/>
-      <c r="M11" s="215"/>
-      <c r="N11" s="215"/>
-      <c r="O11" s="304"/>
+      <c r="H11" s="274">
+        <v>0</v>
+      </c>
+      <c r="I11" s="275"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="197"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="197"/>
+      <c r="O11" s="286"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="A12" s="58">
@@ -12632,16 +12648,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="292">
-        <v>0</v>
-      </c>
-      <c r="I12" s="293"/>
-      <c r="J12" s="214"/>
-      <c r="K12" s="215"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="215"/>
-      <c r="N12" s="215"/>
-      <c r="O12" s="304"/>
+      <c r="H12" s="274">
+        <v>0</v>
+      </c>
+      <c r="I12" s="275"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="197"/>
+      <c r="M12" s="197"/>
+      <c r="N12" s="197"/>
+      <c r="O12" s="286"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="A13" s="58">
@@ -12663,16 +12679,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="292">
-        <v>0</v>
-      </c>
-      <c r="I13" s="293"/>
-      <c r="J13" s="214"/>
-      <c r="K13" s="215"/>
-      <c r="L13" s="215"/>
-      <c r="M13" s="215"/>
-      <c r="N13" s="215"/>
-      <c r="O13" s="304"/>
+      <c r="H13" s="274">
+        <v>0</v>
+      </c>
+      <c r="I13" s="275"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="197"/>
+      <c r="M13" s="197"/>
+      <c r="N13" s="197"/>
+      <c r="O13" s="286"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="A14" s="58">
@@ -12694,16 +12710,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="292">
-        <v>0</v>
-      </c>
-      <c r="I14" s="293"/>
-      <c r="J14" s="214"/>
-      <c r="K14" s="215"/>
-      <c r="L14" s="215"/>
-      <c r="M14" s="215"/>
-      <c r="N14" s="215"/>
-      <c r="O14" s="304"/>
+      <c r="H14" s="274">
+        <v>0</v>
+      </c>
+      <c r="I14" s="275"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="197"/>
+      <c r="M14" s="197"/>
+      <c r="N14" s="197"/>
+      <c r="O14" s="286"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="A15" s="58">
@@ -12725,16 +12741,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="292">
-        <v>0</v>
-      </c>
-      <c r="I15" s="293"/>
-      <c r="J15" s="214"/>
-      <c r="K15" s="215"/>
-      <c r="L15" s="215"/>
-      <c r="M15" s="215"/>
-      <c r="N15" s="215"/>
-      <c r="O15" s="304"/>
+      <c r="H15" s="274">
+        <v>0</v>
+      </c>
+      <c r="I15" s="275"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="197"/>
+      <c r="M15" s="197"/>
+      <c r="N15" s="197"/>
+      <c r="O15" s="286"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="58">
@@ -12756,16 +12772,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="292">
-        <v>0</v>
-      </c>
-      <c r="I16" s="293"/>
-      <c r="J16" s="214"/>
-      <c r="K16" s="215"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="215"/>
-      <c r="N16" s="215"/>
-      <c r="O16" s="304"/>
+      <c r="H16" s="274">
+        <v>0</v>
+      </c>
+      <c r="I16" s="275"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
+      <c r="O16" s="286"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
       <c r="A17" s="58">
@@ -12787,16 +12803,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="292">
-        <v>0</v>
-      </c>
-      <c r="I17" s="293"/>
-      <c r="J17" s="214"/>
-      <c r="K17" s="215"/>
-      <c r="L17" s="215"/>
-      <c r="M17" s="215"/>
-      <c r="N17" s="215"/>
-      <c r="O17" s="304"/>
+      <c r="H17" s="274">
+        <v>0</v>
+      </c>
+      <c r="I17" s="275"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="197"/>
+      <c r="N17" s="197"/>
+      <c r="O17" s="286"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
       <c r="A18" s="58">
@@ -12818,16 +12834,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="292">
-        <v>0</v>
-      </c>
-      <c r="I18" s="293"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="215"/>
-      <c r="L18" s="215"/>
-      <c r="M18" s="215"/>
-      <c r="N18" s="215"/>
-      <c r="O18" s="304"/>
+      <c r="H18" s="274">
+        <v>0</v>
+      </c>
+      <c r="I18" s="275"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="197"/>
+      <c r="M18" s="197"/>
+      <c r="N18" s="197"/>
+      <c r="O18" s="286"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
       <c r="A19" s="58">
@@ -12849,16 +12865,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="292">
-        <v>0</v>
-      </c>
-      <c r="I19" s="293"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="215"/>
-      <c r="M19" s="215"/>
-      <c r="N19" s="215"/>
-      <c r="O19" s="304"/>
+      <c r="H19" s="274">
+        <v>0</v>
+      </c>
+      <c r="I19" s="275"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="197"/>
+      <c r="L19" s="197"/>
+      <c r="M19" s="197"/>
+      <c r="N19" s="197"/>
+      <c r="O19" s="286"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
       <c r="A20" s="58">
@@ -12880,16 +12896,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="292">
-        <v>0</v>
-      </c>
-      <c r="I20" s="293"/>
-      <c r="J20" s="214"/>
-      <c r="K20" s="215"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="215"/>
-      <c r="N20" s="215"/>
-      <c r="O20" s="304"/>
+      <c r="H20" s="274">
+        <v>0</v>
+      </c>
+      <c r="I20" s="275"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="197"/>
+      <c r="L20" s="197"/>
+      <c r="M20" s="197"/>
+      <c r="N20" s="197"/>
+      <c r="O20" s="286"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
       <c r="A21" s="58">
@@ -12911,16 +12927,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="292">
-        <v>0</v>
-      </c>
-      <c r="I21" s="293"/>
-      <c r="J21" s="214"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="215"/>
-      <c r="M21" s="215"/>
-      <c r="N21" s="215"/>
-      <c r="O21" s="304"/>
+      <c r="H21" s="274">
+        <v>0</v>
+      </c>
+      <c r="I21" s="275"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="197"/>
+      <c r="L21" s="197"/>
+      <c r="M21" s="197"/>
+      <c r="N21" s="197"/>
+      <c r="O21" s="286"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
       <c r="A22" s="58">
@@ -12942,16 +12958,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="292">
-        <v>0</v>
-      </c>
-      <c r="I22" s="293"/>
-      <c r="J22" s="214"/>
-      <c r="K22" s="215"/>
-      <c r="L22" s="215"/>
-      <c r="M22" s="215"/>
-      <c r="N22" s="215"/>
-      <c r="O22" s="304"/>
+      <c r="H22" s="274">
+        <v>0</v>
+      </c>
+      <c r="I22" s="275"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="197"/>
+      <c r="L22" s="197"/>
+      <c r="M22" s="197"/>
+      <c r="N22" s="197"/>
+      <c r="O22" s="286"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
       <c r="A23" s="58">
@@ -12973,16 +12989,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="292">
-        <v>0</v>
-      </c>
-      <c r="I23" s="293"/>
-      <c r="J23" s="214"/>
-      <c r="K23" s="215"/>
-      <c r="L23" s="215"/>
-      <c r="M23" s="215"/>
-      <c r="N23" s="215"/>
-      <c r="O23" s="304"/>
+      <c r="H23" s="274">
+        <v>0</v>
+      </c>
+      <c r="I23" s="275"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="197"/>
+      <c r="L23" s="197"/>
+      <c r="M23" s="197"/>
+      <c r="N23" s="197"/>
+      <c r="O23" s="286"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
       <c r="A24" s="58">
@@ -13004,16 +13020,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="292">
-        <v>0</v>
-      </c>
-      <c r="I24" s="293"/>
-      <c r="J24" s="214"/>
-      <c r="K24" s="215"/>
-      <c r="L24" s="215"/>
-      <c r="M24" s="215"/>
-      <c r="N24" s="215"/>
-      <c r="O24" s="304"/>
+      <c r="H24" s="274">
+        <v>0</v>
+      </c>
+      <c r="I24" s="275"/>
+      <c r="J24" s="196"/>
+      <c r="K24" s="197"/>
+      <c r="L24" s="197"/>
+      <c r="M24" s="197"/>
+      <c r="N24" s="197"/>
+      <c r="O24" s="286"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
       <c r="A25" s="58">
@@ -13035,16 +13051,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="292">
-        <v>0</v>
-      </c>
-      <c r="I25" s="293"/>
-      <c r="J25" s="214"/>
-      <c r="K25" s="215"/>
-      <c r="L25" s="215"/>
-      <c r="M25" s="215"/>
-      <c r="N25" s="215"/>
-      <c r="O25" s="304"/>
+      <c r="H25" s="274">
+        <v>0</v>
+      </c>
+      <c r="I25" s="275"/>
+      <c r="J25" s="196"/>
+      <c r="K25" s="197"/>
+      <c r="L25" s="197"/>
+      <c r="M25" s="197"/>
+      <c r="N25" s="197"/>
+      <c r="O25" s="286"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
       <c r="A26" s="58">
@@ -13066,16 +13082,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="292">
-        <v>0</v>
-      </c>
-      <c r="I26" s="293"/>
-      <c r="J26" s="214"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="215"/>
-      <c r="M26" s="215"/>
-      <c r="N26" s="215"/>
-      <c r="O26" s="304"/>
+      <c r="H26" s="274">
+        <v>0</v>
+      </c>
+      <c r="I26" s="275"/>
+      <c r="J26" s="196"/>
+      <c r="K26" s="197"/>
+      <c r="L26" s="197"/>
+      <c r="M26" s="197"/>
+      <c r="N26" s="197"/>
+      <c r="O26" s="286"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
       <c r="A27" s="58">
@@ -13097,16 +13113,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="292">
-        <v>0</v>
-      </c>
-      <c r="I27" s="293"/>
-      <c r="J27" s="214"/>
-      <c r="K27" s="215"/>
-      <c r="L27" s="215"/>
-      <c r="M27" s="215"/>
-      <c r="N27" s="215"/>
-      <c r="O27" s="304"/>
+      <c r="H27" s="274">
+        <v>0</v>
+      </c>
+      <c r="I27" s="275"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="197"/>
+      <c r="L27" s="197"/>
+      <c r="M27" s="197"/>
+      <c r="N27" s="197"/>
+      <c r="O27" s="286"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="58">
@@ -13128,16 +13144,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="292">
-        <v>0</v>
-      </c>
-      <c r="I28" s="293"/>
-      <c r="J28" s="214"/>
-      <c r="K28" s="215"/>
-      <c r="L28" s="215"/>
-      <c r="M28" s="215"/>
-      <c r="N28" s="215"/>
-      <c r="O28" s="304"/>
+      <c r="H28" s="274">
+        <v>0</v>
+      </c>
+      <c r="I28" s="275"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="197"/>
+      <c r="N28" s="197"/>
+      <c r="O28" s="286"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="58">
@@ -13159,16 +13175,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="292">
-        <v>0</v>
-      </c>
-      <c r="I29" s="293"/>
-      <c r="J29" s="214"/>
-      <c r="K29" s="215"/>
-      <c r="L29" s="215"/>
-      <c r="M29" s="215"/>
-      <c r="N29" s="215"/>
-      <c r="O29" s="304"/>
+      <c r="H29" s="274">
+        <v>0</v>
+      </c>
+      <c r="I29" s="275"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="197"/>
+      <c r="L29" s="197"/>
+      <c r="M29" s="197"/>
+      <c r="N29" s="197"/>
+      <c r="O29" s="286"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
       <c r="A30" s="58">
@@ -13190,16 +13206,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="292">
-        <v>0</v>
-      </c>
-      <c r="I30" s="293"/>
-      <c r="J30" s="214"/>
-      <c r="K30" s="215"/>
-      <c r="L30" s="215"/>
-      <c r="M30" s="215"/>
-      <c r="N30" s="215"/>
-      <c r="O30" s="304"/>
+      <c r="H30" s="274">
+        <v>0</v>
+      </c>
+      <c r="I30" s="275"/>
+      <c r="J30" s="196"/>
+      <c r="K30" s="197"/>
+      <c r="L30" s="197"/>
+      <c r="M30" s="197"/>
+      <c r="N30" s="197"/>
+      <c r="O30" s="286"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
       <c r="A31" s="58">
@@ -13221,16 +13237,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="292">
-        <v>0</v>
-      </c>
-      <c r="I31" s="293"/>
-      <c r="J31" s="214"/>
-      <c r="K31" s="215"/>
-      <c r="L31" s="215"/>
-      <c r="M31" s="215"/>
-      <c r="N31" s="215"/>
-      <c r="O31" s="304"/>
+      <c r="H31" s="274">
+        <v>0</v>
+      </c>
+      <c r="I31" s="275"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="197"/>
+      <c r="L31" s="197"/>
+      <c r="M31" s="197"/>
+      <c r="N31" s="197"/>
+      <c r="O31" s="286"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
       <c r="A32" s="58">
@@ -13252,16 +13268,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="292">
-        <v>0</v>
-      </c>
-      <c r="I32" s="293"/>
-      <c r="J32" s="214"/>
-      <c r="K32" s="215"/>
-      <c r="L32" s="215"/>
-      <c r="M32" s="215"/>
-      <c r="N32" s="215"/>
-      <c r="O32" s="304"/>
+      <c r="H32" s="274">
+        <v>0</v>
+      </c>
+      <c r="I32" s="275"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="197"/>
+      <c r="L32" s="197"/>
+      <c r="M32" s="197"/>
+      <c r="N32" s="197"/>
+      <c r="O32" s="286"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
       <c r="A33" s="58">
@@ -13283,16 +13299,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="292">
-        <v>0</v>
-      </c>
-      <c r="I33" s="293"/>
-      <c r="J33" s="214"/>
-      <c r="K33" s="215"/>
-      <c r="L33" s="215"/>
-      <c r="M33" s="215"/>
-      <c r="N33" s="215"/>
-      <c r="O33" s="304"/>
+      <c r="H33" s="274">
+        <v>0</v>
+      </c>
+      <c r="I33" s="275"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="197"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="197"/>
+      <c r="N33" s="197"/>
+      <c r="O33" s="286"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
       <c r="A34" s="58">
@@ -13314,16 +13330,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="292">
-        <v>0</v>
-      </c>
-      <c r="I34" s="293"/>
-      <c r="J34" s="214"/>
-      <c r="K34" s="215"/>
-      <c r="L34" s="215"/>
-      <c r="M34" s="215"/>
-      <c r="N34" s="215"/>
-      <c r="O34" s="304"/>
+      <c r="H34" s="274">
+        <v>0</v>
+      </c>
+      <c r="I34" s="275"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="197"/>
+      <c r="L34" s="197"/>
+      <c r="M34" s="197"/>
+      <c r="N34" s="197"/>
+      <c r="O34" s="286"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
       <c r="A35" s="58">
@@ -13345,16 +13361,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="292">
-        <v>0</v>
-      </c>
-      <c r="I35" s="293"/>
-      <c r="J35" s="214"/>
-      <c r="K35" s="215"/>
-      <c r="L35" s="215"/>
-      <c r="M35" s="215"/>
-      <c r="N35" s="215"/>
-      <c r="O35" s="304"/>
+      <c r="H35" s="274">
+        <v>0</v>
+      </c>
+      <c r="I35" s="275"/>
+      <c r="J35" s="196"/>
+      <c r="K35" s="197"/>
+      <c r="L35" s="197"/>
+      <c r="M35" s="197"/>
+      <c r="N35" s="197"/>
+      <c r="O35" s="286"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
       <c r="A36" s="58">
@@ -13376,16 +13392,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="292">
-        <v>0</v>
-      </c>
-      <c r="I36" s="293"/>
-      <c r="J36" s="214"/>
-      <c r="K36" s="215"/>
-      <c r="L36" s="215"/>
-      <c r="M36" s="215"/>
-      <c r="N36" s="215"/>
-      <c r="O36" s="304"/>
+      <c r="H36" s="274">
+        <v>0</v>
+      </c>
+      <c r="I36" s="275"/>
+      <c r="J36" s="196"/>
+      <c r="K36" s="197"/>
+      <c r="L36" s="197"/>
+      <c r="M36" s="197"/>
+      <c r="N36" s="197"/>
+      <c r="O36" s="286"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="58">
@@ -13407,16 +13423,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="292">
-        <v>0</v>
-      </c>
-      <c r="I37" s="293"/>
-      <c r="J37" s="214"/>
-      <c r="K37" s="215"/>
-      <c r="L37" s="215"/>
-      <c r="M37" s="215"/>
-      <c r="N37" s="215"/>
-      <c r="O37" s="304"/>
+      <c r="H37" s="274">
+        <v>0</v>
+      </c>
+      <c r="I37" s="275"/>
+      <c r="J37" s="196"/>
+      <c r="K37" s="197"/>
+      <c r="L37" s="197"/>
+      <c r="M37" s="197"/>
+      <c r="N37" s="197"/>
+      <c r="O37" s="286"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="58">
@@ -13438,16 +13454,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="306">
-        <v>0</v>
-      </c>
-      <c r="I38" s="307"/>
-      <c r="J38" s="214"/>
-      <c r="K38" s="215"/>
-      <c r="L38" s="215"/>
-      <c r="M38" s="215"/>
-      <c r="N38" s="215"/>
-      <c r="O38" s="304"/>
+      <c r="H38" s="288">
+        <v>0</v>
+      </c>
+      <c r="I38" s="289"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="197"/>
+      <c r="L38" s="197"/>
+      <c r="M38" s="197"/>
+      <c r="N38" s="197"/>
+      <c r="O38" s="286"/>
     </row>
     <row r="39" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="36"/>
@@ -13455,24 +13471,24 @@
       <c r="C39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="274" t="e">
+      <c r="D39" s="256" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="275"/>
-      <c r="F39" s="275"/>
-      <c r="G39" s="277"/>
-      <c r="H39" s="308">
+      <c r="E39" s="257"/>
+      <c r="F39" s="257"/>
+      <c r="G39" s="259"/>
+      <c r="H39" s="290">
         <f>AVERAGE(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="309"/>
-      <c r="J39" s="214"/>
-      <c r="K39" s="215"/>
-      <c r="L39" s="215"/>
-      <c r="M39" s="215"/>
-      <c r="N39" s="215"/>
-      <c r="O39" s="304"/>
+      <c r="I39" s="291"/>
+      <c r="J39" s="196"/>
+      <c r="K39" s="197"/>
+      <c r="L39" s="197"/>
+      <c r="M39" s="197"/>
+      <c r="N39" s="197"/>
+      <c r="O39" s="286"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="39"/>
@@ -13480,24 +13496,24 @@
       <c r="C40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="281" t="e">
+      <c r="D40" s="263" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="282"/>
-      <c r="F40" s="282"/>
-      <c r="G40" s="284"/>
-      <c r="H40" s="310">
+      <c r="E40" s="264"/>
+      <c r="F40" s="264"/>
+      <c r="G40" s="266"/>
+      <c r="H40" s="292">
         <f>MIN(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="311"/>
-      <c r="J40" s="214"/>
-      <c r="K40" s="215"/>
-      <c r="L40" s="215"/>
-      <c r="M40" s="215"/>
-      <c r="N40" s="215"/>
-      <c r="O40" s="304"/>
+      <c r="I40" s="293"/>
+      <c r="J40" s="196"/>
+      <c r="K40" s="197"/>
+      <c r="L40" s="197"/>
+      <c r="M40" s="197"/>
+      <c r="N40" s="197"/>
+      <c r="O40" s="286"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="41"/>
@@ -13505,54 +13521,54 @@
       <c r="C41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="267" t="e">
+      <c r="D41" s="249" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="268"/>
-      <c r="F41" s="268"/>
-      <c r="G41" s="270"/>
-      <c r="H41" s="301">
+      <c r="E41" s="250"/>
+      <c r="F41" s="250"/>
+      <c r="G41" s="252"/>
+      <c r="H41" s="283">
         <f>MAX(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="302"/>
-      <c r="J41" s="217"/>
-      <c r="K41" s="218"/>
-      <c r="L41" s="218"/>
-      <c r="M41" s="218"/>
-      <c r="N41" s="218"/>
-      <c r="O41" s="297"/>
+      <c r="I41" s="284"/>
+      <c r="J41" s="199"/>
+      <c r="K41" s="200"/>
+      <c r="L41" s="200"/>
+      <c r="M41" s="200"/>
+      <c r="N41" s="200"/>
+      <c r="O41" s="279"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="236"/>
-      <c r="C42" s="236"/>
-      <c r="D42" s="237" t="s">
+      <c r="B42" s="218"/>
+      <c r="C42" s="218"/>
+      <c r="D42" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="237"/>
-      <c r="F42" s="237"/>
-      <c r="G42" s="237"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="221" t="s">
+      <c r="K42" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="221"/>
-      <c r="M42" s="236"/>
-      <c r="N42" s="236"/>
+      <c r="L42" s="203"/>
+      <c r="M42" s="218"/>
+      <c r="N42" s="218"/>
       <c r="O42" s="107" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="162"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -13562,15 +13578,15 @@
       <c r="J43" s="52"/>
       <c r="K43" s="100"/>
       <c r="L43" s="100"/>
-      <c r="M43" s="238"/>
-      <c r="N43" s="238"/>
+      <c r="M43" s="220"/>
+      <c r="N43" s="220"/>
       <c r="O43" s="100"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="220" t="s">
+      <c r="A44" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="220"/>
+      <c r="B44" s="202"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
@@ -13579,12 +13595,12 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="177" t="str">
+      <c r="H44" s="159" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="177"/>
-      <c r="J44" s="177"/>
+      <c r="I44" s="159"/>
+      <c r="J44" s="159"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
@@ -13592,10 +13608,10 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="220" t="s">
+      <c r="A45" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="220"/>
+      <c r="B45" s="202"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -13607,222 +13623,222 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="215" t="s">
+      <c r="N45" s="197" t="s">
         <v>46</v>
       </c>
-      <c r="O45" s="215"/>
+      <c r="O45" s="197"/>
     </row>
     <row r="46" spans="1:15" s="38" customFormat="1"/>
     <row r="47" spans="1:15" s="38" customFormat="1"/>
     <row r="57" spans="4:15">
-      <c r="D57" s="300"/>
-      <c r="E57" s="300"/>
-      <c r="F57" s="300"/>
-      <c r="G57" s="300"/>
-      <c r="H57" s="300"/>
-      <c r="I57" s="300"/>
-      <c r="J57" s="300"/>
-      <c r="K57" s="300"/>
-      <c r="L57" s="300"/>
-      <c r="M57" s="300"/>
-      <c r="N57" s="300"/>
-      <c r="O57" s="300"/>
+      <c r="D57" s="282"/>
+      <c r="E57" s="282"/>
+      <c r="F57" s="282"/>
+      <c r="G57" s="282"/>
+      <c r="H57" s="282"/>
+      <c r="I57" s="282"/>
+      <c r="J57" s="282"/>
+      <c r="K57" s="282"/>
+      <c r="L57" s="282"/>
+      <c r="M57" s="282"/>
+      <c r="N57" s="282"/>
+      <c r="O57" s="282"/>
     </row>
     <row r="58" spans="4:15">
-      <c r="D58" s="300"/>
-      <c r="E58" s="300"/>
-      <c r="F58" s="300"/>
-      <c r="G58" s="300"/>
-      <c r="H58" s="300"/>
-      <c r="I58" s="300"/>
-      <c r="J58" s="300"/>
-      <c r="K58" s="300"/>
-      <c r="L58" s="300"/>
-      <c r="M58" s="300"/>
-      <c r="N58" s="300"/>
-      <c r="O58" s="300"/>
+      <c r="D58" s="282"/>
+      <c r="E58" s="282"/>
+      <c r="F58" s="282"/>
+      <c r="G58" s="282"/>
+      <c r="H58" s="282"/>
+      <c r="I58" s="282"/>
+      <c r="J58" s="282"/>
+      <c r="K58" s="282"/>
+      <c r="L58" s="282"/>
+      <c r="M58" s="282"/>
+      <c r="N58" s="282"/>
+      <c r="O58" s="282"/>
     </row>
     <row r="59" spans="4:15">
-      <c r="D59" s="300"/>
-      <c r="E59" s="300"/>
-      <c r="F59" s="300"/>
-      <c r="G59" s="300"/>
-      <c r="H59" s="300"/>
-      <c r="I59" s="300"/>
-      <c r="J59" s="300"/>
-      <c r="K59" s="300"/>
-      <c r="L59" s="300"/>
-      <c r="M59" s="300"/>
-      <c r="N59" s="300"/>
-      <c r="O59" s="300"/>
+      <c r="D59" s="282"/>
+      <c r="E59" s="282"/>
+      <c r="F59" s="282"/>
+      <c r="G59" s="282"/>
+      <c r="H59" s="282"/>
+      <c r="I59" s="282"/>
+      <c r="J59" s="282"/>
+      <c r="K59" s="282"/>
+      <c r="L59" s="282"/>
+      <c r="M59" s="282"/>
+      <c r="N59" s="282"/>
+      <c r="O59" s="282"/>
     </row>
     <row r="60" spans="4:15">
-      <c r="D60" s="300"/>
-      <c r="E60" s="300"/>
-      <c r="F60" s="300"/>
-      <c r="G60" s="300"/>
-      <c r="H60" s="300"/>
-      <c r="I60" s="300"/>
-      <c r="J60" s="300"/>
-      <c r="K60" s="300"/>
-      <c r="L60" s="300"/>
-      <c r="M60" s="300"/>
-      <c r="N60" s="300"/>
-      <c r="O60" s="300"/>
+      <c r="D60" s="282"/>
+      <c r="E60" s="282"/>
+      <c r="F60" s="282"/>
+      <c r="G60" s="282"/>
+      <c r="H60" s="282"/>
+      <c r="I60" s="282"/>
+      <c r="J60" s="282"/>
+      <c r="K60" s="282"/>
+      <c r="L60" s="282"/>
+      <c r="M60" s="282"/>
+      <c r="N60" s="282"/>
+      <c r="O60" s="282"/>
     </row>
     <row r="61" spans="4:15">
-      <c r="D61" s="300"/>
-      <c r="E61" s="300"/>
-      <c r="F61" s="300"/>
-      <c r="G61" s="300"/>
-      <c r="H61" s="300"/>
-      <c r="I61" s="300"/>
-      <c r="J61" s="300"/>
-      <c r="K61" s="300"/>
-      <c r="L61" s="300"/>
-      <c r="M61" s="300"/>
-      <c r="N61" s="300"/>
-      <c r="O61" s="300"/>
+      <c r="D61" s="282"/>
+      <c r="E61" s="282"/>
+      <c r="F61" s="282"/>
+      <c r="G61" s="282"/>
+      <c r="H61" s="282"/>
+      <c r="I61" s="282"/>
+      <c r="J61" s="282"/>
+      <c r="K61" s="282"/>
+      <c r="L61" s="282"/>
+      <c r="M61" s="282"/>
+      <c r="N61" s="282"/>
+      <c r="O61" s="282"/>
     </row>
     <row r="62" spans="4:15">
-      <c r="D62" s="300"/>
-      <c r="E62" s="300"/>
-      <c r="F62" s="300"/>
-      <c r="G62" s="300"/>
-      <c r="H62" s="300"/>
-      <c r="I62" s="300"/>
-      <c r="J62" s="300"/>
-      <c r="K62" s="300"/>
-      <c r="L62" s="300"/>
-      <c r="M62" s="300"/>
-      <c r="N62" s="300"/>
-      <c r="O62" s="300"/>
+      <c r="D62" s="282"/>
+      <c r="E62" s="282"/>
+      <c r="F62" s="282"/>
+      <c r="G62" s="282"/>
+      <c r="H62" s="282"/>
+      <c r="I62" s="282"/>
+      <c r="J62" s="282"/>
+      <c r="K62" s="282"/>
+      <c r="L62" s="282"/>
+      <c r="M62" s="282"/>
+      <c r="N62" s="282"/>
+      <c r="O62" s="282"/>
     </row>
     <row r="63" spans="4:15">
-      <c r="D63" s="300"/>
-      <c r="E63" s="300"/>
-      <c r="F63" s="300"/>
-      <c r="G63" s="300"/>
-      <c r="H63" s="300"/>
-      <c r="I63" s="300"/>
-      <c r="J63" s="300"/>
-      <c r="K63" s="300"/>
-      <c r="L63" s="300"/>
-      <c r="M63" s="300"/>
-      <c r="N63" s="300"/>
-      <c r="O63" s="300"/>
+      <c r="D63" s="282"/>
+      <c r="E63" s="282"/>
+      <c r="F63" s="282"/>
+      <c r="G63" s="282"/>
+      <c r="H63" s="282"/>
+      <c r="I63" s="282"/>
+      <c r="J63" s="282"/>
+      <c r="K63" s="282"/>
+      <c r="L63" s="282"/>
+      <c r="M63" s="282"/>
+      <c r="N63" s="282"/>
+      <c r="O63" s="282"/>
     </row>
     <row r="64" spans="4:15">
-      <c r="D64" s="300"/>
-      <c r="E64" s="300"/>
-      <c r="F64" s="300"/>
-      <c r="G64" s="300"/>
-      <c r="H64" s="300"/>
-      <c r="I64" s="300"/>
-      <c r="J64" s="300"/>
-      <c r="K64" s="300"/>
-      <c r="L64" s="300"/>
-      <c r="M64" s="300"/>
-      <c r="N64" s="300"/>
-      <c r="O64" s="300"/>
+      <c r="D64" s="282"/>
+      <c r="E64" s="282"/>
+      <c r="F64" s="282"/>
+      <c r="G64" s="282"/>
+      <c r="H64" s="282"/>
+      <c r="I64" s="282"/>
+      <c r="J64" s="282"/>
+      <c r="K64" s="282"/>
+      <c r="L64" s="282"/>
+      <c r="M64" s="282"/>
+      <c r="N64" s="282"/>
+      <c r="O64" s="282"/>
     </row>
     <row r="65" spans="4:15">
-      <c r="D65" s="300"/>
-      <c r="E65" s="300"/>
-      <c r="F65" s="300"/>
-      <c r="G65" s="300"/>
-      <c r="H65" s="300"/>
-      <c r="I65" s="300"/>
-      <c r="J65" s="300"/>
-      <c r="K65" s="300"/>
-      <c r="L65" s="300"/>
-      <c r="M65" s="300"/>
-      <c r="N65" s="300"/>
-      <c r="O65" s="300"/>
+      <c r="D65" s="282"/>
+      <c r="E65" s="282"/>
+      <c r="F65" s="282"/>
+      <c r="G65" s="282"/>
+      <c r="H65" s="282"/>
+      <c r="I65" s="282"/>
+      <c r="J65" s="282"/>
+      <c r="K65" s="282"/>
+      <c r="L65" s="282"/>
+      <c r="M65" s="282"/>
+      <c r="N65" s="282"/>
+      <c r="O65" s="282"/>
     </row>
     <row r="66" spans="4:15">
-      <c r="D66" s="300"/>
-      <c r="E66" s="300"/>
-      <c r="F66" s="300"/>
-      <c r="G66" s="300"/>
-      <c r="H66" s="300"/>
-      <c r="I66" s="300"/>
-      <c r="J66" s="300"/>
-      <c r="K66" s="300"/>
-      <c r="L66" s="300"/>
-      <c r="M66" s="300"/>
-      <c r="N66" s="300"/>
-      <c r="O66" s="300"/>
+      <c r="D66" s="282"/>
+      <c r="E66" s="282"/>
+      <c r="F66" s="282"/>
+      <c r="G66" s="282"/>
+      <c r="H66" s="282"/>
+      <c r="I66" s="282"/>
+      <c r="J66" s="282"/>
+      <c r="K66" s="282"/>
+      <c r="L66" s="282"/>
+      <c r="M66" s="282"/>
+      <c r="N66" s="282"/>
+      <c r="O66" s="282"/>
     </row>
     <row r="67" spans="4:15">
-      <c r="D67" s="300"/>
-      <c r="E67" s="300"/>
-      <c r="F67" s="300"/>
-      <c r="G67" s="300"/>
-      <c r="H67" s="300"/>
-      <c r="I67" s="300"/>
-      <c r="J67" s="300"/>
-      <c r="K67" s="300"/>
-      <c r="L67" s="300"/>
-      <c r="M67" s="300"/>
-      <c r="N67" s="300"/>
-      <c r="O67" s="300"/>
+      <c r="D67" s="282"/>
+      <c r="E67" s="282"/>
+      <c r="F67" s="282"/>
+      <c r="G67" s="282"/>
+      <c r="H67" s="282"/>
+      <c r="I67" s="282"/>
+      <c r="J67" s="282"/>
+      <c r="K67" s="282"/>
+      <c r="L67" s="282"/>
+      <c r="M67" s="282"/>
+      <c r="N67" s="282"/>
+      <c r="O67" s="282"/>
     </row>
     <row r="68" spans="4:15">
-      <c r="D68" s="300"/>
-      <c r="E68" s="300"/>
-      <c r="F68" s="300"/>
-      <c r="G68" s="300"/>
-      <c r="H68" s="300"/>
-      <c r="I68" s="300"/>
-      <c r="J68" s="300"/>
-      <c r="K68" s="300"/>
-      <c r="L68" s="300"/>
-      <c r="M68" s="300"/>
-      <c r="N68" s="300"/>
-      <c r="O68" s="300"/>
+      <c r="D68" s="282"/>
+      <c r="E68" s="282"/>
+      <c r="F68" s="282"/>
+      <c r="G68" s="282"/>
+      <c r="H68" s="282"/>
+      <c r="I68" s="282"/>
+      <c r="J68" s="282"/>
+      <c r="K68" s="282"/>
+      <c r="L68" s="282"/>
+      <c r="M68" s="282"/>
+      <c r="N68" s="282"/>
+      <c r="O68" s="282"/>
     </row>
     <row r="69" spans="4:15">
-      <c r="D69" s="300"/>
-      <c r="E69" s="300"/>
-      <c r="F69" s="300"/>
-      <c r="G69" s="300"/>
-      <c r="H69" s="300"/>
-      <c r="I69" s="300"/>
-      <c r="J69" s="300"/>
-      <c r="K69" s="300"/>
-      <c r="L69" s="300"/>
-      <c r="M69" s="300"/>
-      <c r="N69" s="300"/>
-      <c r="O69" s="300"/>
+      <c r="D69" s="282"/>
+      <c r="E69" s="282"/>
+      <c r="F69" s="282"/>
+      <c r="G69" s="282"/>
+      <c r="H69" s="282"/>
+      <c r="I69" s="282"/>
+      <c r="J69" s="282"/>
+      <c r="K69" s="282"/>
+      <c r="L69" s="282"/>
+      <c r="M69" s="282"/>
+      <c r="N69" s="282"/>
+      <c r="O69" s="282"/>
     </row>
     <row r="70" spans="4:15">
-      <c r="D70" s="300"/>
-      <c r="E70" s="300"/>
-      <c r="F70" s="300"/>
-      <c r="G70" s="300"/>
-      <c r="H70" s="300"/>
-      <c r="I70" s="300"/>
-      <c r="J70" s="300"/>
-      <c r="K70" s="300"/>
-      <c r="L70" s="300"/>
-      <c r="M70" s="300"/>
-      <c r="N70" s="300"/>
-      <c r="O70" s="300"/>
+      <c r="D70" s="282"/>
+      <c r="E70" s="282"/>
+      <c r="F70" s="282"/>
+      <c r="G70" s="282"/>
+      <c r="H70" s="282"/>
+      <c r="I70" s="282"/>
+      <c r="J70" s="282"/>
+      <c r="K70" s="282"/>
+      <c r="L70" s="282"/>
+      <c r="M70" s="282"/>
+      <c r="N70" s="282"/>
+      <c r="O70" s="282"/>
     </row>
     <row r="71" spans="4:15">
-      <c r="D71" s="300"/>
-      <c r="E71" s="300"/>
-      <c r="F71" s="300"/>
-      <c r="G71" s="300"/>
-      <c r="H71" s="300"/>
-      <c r="I71" s="300"/>
-      <c r="J71" s="300"/>
-      <c r="K71" s="300"/>
-      <c r="L71" s="300"/>
-      <c r="M71" s="300"/>
-      <c r="N71" s="300"/>
-      <c r="O71" s="300"/>
+      <c r="D71" s="282"/>
+      <c r="E71" s="282"/>
+      <c r="F71" s="282"/>
+      <c r="G71" s="282"/>
+      <c r="H71" s="282"/>
+      <c r="I71" s="282"/>
+      <c r="J71" s="282"/>
+      <c r="K71" s="282"/>
+      <c r="L71" s="282"/>
+      <c r="M71" s="282"/>
+      <c r="N71" s="282"/>
+      <c r="O71" s="282"/>
     </row>
   </sheetData>
   <mergeCells count="114">
@@ -16116,8 +16132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB2F544-FD28-404D-9524-773BC4F36D40}">
   <dimension ref="A1:AT53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR25" sqref="AR25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -16322,165 +16338,165 @@
       <c r="D3" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="294" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="294" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="114" t="s">
+      <c r="I3" s="294" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="114" t="s">
+      <c r="J3" s="294" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="115" cm="1">
+      <c r="K3" s="295" cm="1">
         <f t="array" ref="K3">INDEX(Page1!$L$8:$L$37, COLUMN(K3)-10)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="115" cm="1">
+      <c r="L3" s="295" cm="1">
         <f t="array" ref="L3">INDEX(Page1!$L$8:$L$37, COLUMN(L3)-10)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="115" cm="1">
+      <c r="M3" s="295" cm="1">
         <f t="array" ref="M3">INDEX(Page1!$L$8:$L$37, COLUMN(M3)-10)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="115" cm="1">
+      <c r="N3" s="295" cm="1">
         <f t="array" ref="N3">INDEX(Page1!$L$8:$L$37, COLUMN(N3)-10)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="115" cm="1">
+      <c r="O3" s="295" cm="1">
         <f t="array" ref="O3">INDEX(Page1!$L$8:$L$37, COLUMN(O3)-10)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="115" cm="1">
+      <c r="P3" s="295" cm="1">
         <f t="array" ref="P3">INDEX(Page1!$L$8:$L$37, COLUMN(P3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="115" cm="1">
+      <c r="Q3" s="295" cm="1">
         <f t="array" ref="Q3">INDEX(Page1!$L$8:$L$37, COLUMN(Q3)-10)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="115" cm="1">
+      <c r="R3" s="295" cm="1">
         <f t="array" ref="R3">INDEX(Page1!$L$8:$L$37, COLUMN(R3)-10)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="115" cm="1">
+      <c r="S3" s="295" cm="1">
         <f t="array" ref="S3">INDEX(Page1!$L$8:$L$37, COLUMN(S3)-10)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="115" cm="1">
+      <c r="T3" s="295" cm="1">
         <f t="array" ref="T3">INDEX(Page1!$L$8:$L$37, COLUMN(T3)-10)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="115" cm="1">
+      <c r="U3" s="295" cm="1">
         <f t="array" ref="U3">INDEX(Page1!$L$8:$L$37, COLUMN(U3)-10)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="115" cm="1">
+      <c r="V3" s="295" cm="1">
         <f t="array" ref="V3">INDEX(Page1!$L$8:$L$37, COLUMN(V3)-10)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="115" cm="1">
+      <c r="W3" s="295" cm="1">
         <f t="array" ref="W3">INDEX(Page1!$L$8:$L$37, COLUMN(W3)-10)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="115" cm="1">
+      <c r="X3" s="295" cm="1">
         <f t="array" ref="X3">INDEX(Page1!$L$8:$L$37, COLUMN(X3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="115" cm="1">
+      <c r="Y3" s="295" cm="1">
         <f t="array" ref="Y3">INDEX(Page1!$L$8:$L$37, COLUMN(Y3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="115" cm="1">
+      <c r="Z3" s="295" cm="1">
         <f t="array" ref="Z3">INDEX(Page1!$L$8:$L$37, COLUMN(Z3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="115" cm="1">
+      <c r="AA3" s="295" cm="1">
         <f t="array" ref="AA3">INDEX(Page1!$L$8:$L$37, COLUMN(AA3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="115" cm="1">
+      <c r="AB3" s="295" cm="1">
         <f t="array" ref="AB3">INDEX(Page1!$L$8:$L$37, COLUMN(AB3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="115" cm="1">
+      <c r="AC3" s="295" cm="1">
         <f t="array" ref="AC3">INDEX(Page1!$L$8:$L$37, COLUMN(AC3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="115" cm="1">
+      <c r="AD3" s="295" cm="1">
         <f t="array" ref="AD3">INDEX(Page1!$L$8:$L$37, COLUMN(AD3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="115" cm="1">
+      <c r="AE3" s="295" cm="1">
         <f t="array" ref="AE3">INDEX(Page1!$L$8:$L$37, COLUMN(AE3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="115" cm="1">
+      <c r="AF3" s="295" cm="1">
         <f t="array" ref="AF3">INDEX(Page1!$L$8:$L$37, COLUMN(AF3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="115" cm="1">
+      <c r="AG3" s="295" cm="1">
         <f t="array" ref="AG3">INDEX(Page1!$L$8:$L$37, COLUMN(AG3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="115" cm="1">
+      <c r="AH3" s="295" cm="1">
         <f t="array" ref="AH3">INDEX(Page1!$L$8:$L$37, COLUMN(AH3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="115" cm="1">
+      <c r="AI3" s="295" cm="1">
         <f t="array" ref="AI3">INDEX(Page1!$L$8:$L$37, COLUMN(AI3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="115" cm="1">
+      <c r="AJ3" s="295" cm="1">
         <f t="array" ref="AJ3">INDEX(Page1!$L$8:$L$37, COLUMN(AJ3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="115" cm="1">
+      <c r="AK3" s="295" cm="1">
         <f t="array" ref="AK3">INDEX(Page1!$L$8:$L$37, COLUMN(AK3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="115" cm="1">
+      <c r="AL3" s="295" cm="1">
         <f t="array" ref="AL3">INDEX(Page1!$L$8:$L$37, COLUMN(AL3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="115" cm="1">
+      <c r="AM3" s="295" cm="1">
         <f t="array" ref="AM3">INDEX(Page1!$L$8:$L$37, COLUMN(AM3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="115" cm="1">
+      <c r="AN3" s="295" cm="1">
         <f t="array" ref="AN3">INDEX(Page1!$L$8:$L$37, COLUMN(AN3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO3" s="116">
+      <c r="AO3" s="296">
         <f t="shared" ref="AO3:AO16" si="0">AVERAGE(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="117">
+      <c r="AP3" s="297">
         <f>STDEV(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="118" t="e">
+      <c r="AQ3" s="298" t="e">
         <f>MIN((AO3-H3)/(3*AP3), (I3-AO3)/(3*AP3))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR3" s="119">
+      <c r="AR3" s="299">
         <f t="shared" ref="AR3:AR16" si="1">MIN(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AS3" s="119">
+      <c r="AS3" s="299">
         <f>MAX(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="312" t="e">
+      <c r="AT3" s="300" t="e">
         <f>IF(AQ3&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16498,163 +16514,163 @@
       <c r="D4" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="113" t="s">
+      <c r="E4" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="113" t="s">
+      <c r="F4" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114" t="s">
+      <c r="H4" s="294"/>
+      <c r="I4" s="294" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="294" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="120" t="e" cm="1">
+      <c r="K4" s="301" t="e" cm="1">
         <f t="array" ref="K4">INDEX(Page4!$G$9:$G$38, COLUMN(K4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="120" t="e" cm="1">
+      <c r="L4" s="301" t="e" cm="1">
         <f t="array" ref="L4">INDEX(Page4!$G$9:$G$38, COLUMN(L4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="120" t="e" cm="1">
+      <c r="M4" s="301" t="e" cm="1">
         <f t="array" ref="M4">INDEX(Page4!$G$9:$G$38, COLUMN(M4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="120" t="e" cm="1">
+      <c r="N4" s="301" t="e" cm="1">
         <f t="array" ref="N4">INDEX(Page4!$G$9:$G$38, COLUMN(N4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="120" t="e" cm="1">
+      <c r="O4" s="301" t="e" cm="1">
         <f t="array" ref="O4">INDEX(Page4!$G$9:$G$38, COLUMN(O4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P4" s="120" t="e" cm="1">
+      <c r="P4" s="301" t="e" cm="1">
         <f t="array" ref="P4">INDEX(Page4!$G$9:$G$38, COLUMN(P4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="120" t="e" cm="1">
+      <c r="Q4" s="301" t="e" cm="1">
         <f t="array" ref="Q4">INDEX(Page4!$G$9:$G$38, COLUMN(Q4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R4" s="120" t="e" cm="1">
+      <c r="R4" s="301" t="e" cm="1">
         <f t="array" ref="R4">INDEX(Page4!$G$9:$G$38, COLUMN(R4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="120" t="e" cm="1">
+      <c r="S4" s="301" t="e" cm="1">
         <f t="array" ref="S4">INDEX(Page4!$G$9:$G$38, COLUMN(S4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T4" s="120" t="e" cm="1">
+      <c r="T4" s="301" t="e" cm="1">
         <f t="array" ref="T4">INDEX(Page4!$G$9:$G$38, COLUMN(T4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U4" s="120" t="e" cm="1">
+      <c r="U4" s="301" t="e" cm="1">
         <f t="array" ref="U4">INDEX(Page4!$G$9:$G$38, COLUMN(U4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V4" s="120" t="e" cm="1">
+      <c r="V4" s="301" t="e" cm="1">
         <f t="array" ref="V4">INDEX(Page4!$G$9:$G$38, COLUMN(V4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W4" s="120" t="e" cm="1">
+      <c r="W4" s="301" t="e" cm="1">
         <f t="array" ref="W4">INDEX(Page4!$G$9:$G$38, COLUMN(W4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X4" s="120" t="e" cm="1">
+      <c r="X4" s="301" t="e" cm="1">
         <f t="array" ref="X4">INDEX(Page4!$G$9:$G$38, COLUMN(X4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y4" s="120" t="e" cm="1">
+      <c r="Y4" s="301" t="e" cm="1">
         <f t="array" ref="Y4">INDEX(Page4!$G$9:$G$38, COLUMN(Y4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z4" s="120" t="e" cm="1">
+      <c r="Z4" s="301" t="e" cm="1">
         <f t="array" ref="Z4">INDEX(Page4!$G$9:$G$38, COLUMN(Z4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA4" s="120" t="e" cm="1">
+      <c r="AA4" s="301" t="e" cm="1">
         <f t="array" ref="AA4">INDEX(Page4!$G$9:$G$38, COLUMN(AA4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB4" s="120" t="e" cm="1">
+      <c r="AB4" s="301" t="e" cm="1">
         <f t="array" ref="AB4">INDEX(Page4!$G$9:$G$38, COLUMN(AB4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="120" t="e" cm="1">
+      <c r="AC4" s="301" t="e" cm="1">
         <f t="array" ref="AC4">INDEX(Page4!$G$9:$G$38, COLUMN(AC4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="120" t="e" cm="1">
+      <c r="AD4" s="301" t="e" cm="1">
         <f t="array" ref="AD4">INDEX(Page4!$G$9:$G$38, COLUMN(AD4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE4" s="120" t="e" cm="1">
+      <c r="AE4" s="301" t="e" cm="1">
         <f t="array" ref="AE4">INDEX(Page4!$G$9:$G$38, COLUMN(AE4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF4" s="120" t="e" cm="1">
+      <c r="AF4" s="301" t="e" cm="1">
         <f t="array" ref="AF4">INDEX(Page4!$G$9:$G$38, COLUMN(AF4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG4" s="120" t="e" cm="1">
+      <c r="AG4" s="301" t="e" cm="1">
         <f t="array" ref="AG4">INDEX(Page4!$G$9:$G$38, COLUMN(AG4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH4" s="120" t="e" cm="1">
+      <c r="AH4" s="301" t="e" cm="1">
         <f t="array" ref="AH4">INDEX(Page4!$G$9:$G$38, COLUMN(AH4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI4" s="120" t="e" cm="1">
+      <c r="AI4" s="301" t="e" cm="1">
         <f t="array" ref="AI4">INDEX(Page4!$G$9:$G$38, COLUMN(AI4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ4" s="120" t="e" cm="1">
+      <c r="AJ4" s="301" t="e" cm="1">
         <f t="array" ref="AJ4">INDEX(Page4!$G$9:$G$38, COLUMN(AJ4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK4" s="120" t="e" cm="1">
+      <c r="AK4" s="301" t="e" cm="1">
         <f t="array" ref="AK4">INDEX(Page4!$G$9:$G$38, COLUMN(AK4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL4" s="120" t="e" cm="1">
+      <c r="AL4" s="301" t="e" cm="1">
         <f t="array" ref="AL4">INDEX(Page4!$G$9:$G$38, COLUMN(AL4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM4" s="120" t="e" cm="1">
+      <c r="AM4" s="301" t="e" cm="1">
         <f t="array" ref="AM4">INDEX(Page4!$G$9:$G$38, COLUMN(AM4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN4" s="120" t="e" cm="1">
+      <c r="AN4" s="301" t="e" cm="1">
         <f t="array" ref="AN4">INDEX(Page4!$G$9:$G$38, COLUMN(AN4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO4" s="121" t="e">
+      <c r="AO4" s="302" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP4" s="117" t="e">
+      <c r="AP4" s="297" t="e">
         <f>STDEV(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ4" s="122" t="e">
+      <c r="AQ4" s="303" t="e">
         <f>(I4-AO4)/(3*AP4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR4" s="123" t="e">
+      <c r="AR4" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS4" s="123" t="e">
+      <c r="AS4" s="304" t="e">
         <f>MAX(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT4" s="312" t="e">
+      <c r="AT4" s="300" t="e">
         <f>IF(AQ4&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16672,165 +16688,165 @@
       <c r="D5" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="294" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="114" t="s">
+      <c r="H5" s="294" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="114" t="s">
+      <c r="I5" s="294" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="114" t="s">
+      <c r="J5" s="294" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="120" cm="1">
+      <c r="K5" s="301" cm="1">
         <f t="array" ref="K5">INDEX(Page1!$H$8:$H$37, COLUMN(K5)-10)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="120" cm="1">
+      <c r="L5" s="301" cm="1">
         <f t="array" ref="L5">INDEX(Page1!$H$8:$H$37, COLUMN(L5)-10)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="120" cm="1">
+      <c r="M5" s="301" cm="1">
         <f t="array" ref="M5">INDEX(Page1!$H$8:$H$37, COLUMN(M5)-10)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="120" cm="1">
+      <c r="N5" s="301" cm="1">
         <f t="array" ref="N5">INDEX(Page1!$H$8:$H$37, COLUMN(N5)-10)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="120" cm="1">
+      <c r="O5" s="301" cm="1">
         <f t="array" ref="O5">INDEX(Page1!$H$8:$H$37, COLUMN(O5)-10)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="120" cm="1">
+      <c r="P5" s="301" cm="1">
         <f t="array" ref="P5">INDEX(Page1!$H$8:$H$37, COLUMN(P5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="120" cm="1">
+      <c r="Q5" s="301" cm="1">
         <f t="array" ref="Q5">INDEX(Page1!$H$8:$H$37, COLUMN(Q5)-10)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="120" cm="1">
+      <c r="R5" s="301" cm="1">
         <f t="array" ref="R5">INDEX(Page1!$H$8:$H$37, COLUMN(R5)-10)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="120" cm="1">
+      <c r="S5" s="301" cm="1">
         <f t="array" ref="S5">INDEX(Page1!$H$8:$H$37, COLUMN(S5)-10)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="120" cm="1">
+      <c r="T5" s="301" cm="1">
         <f t="array" ref="T5">INDEX(Page1!$H$8:$H$37, COLUMN(T5)-10)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="120" cm="1">
+      <c r="U5" s="301" cm="1">
         <f t="array" ref="U5">INDEX(Page1!$H$8:$H$37, COLUMN(U5)-10)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="120" cm="1">
+      <c r="V5" s="301" cm="1">
         <f t="array" ref="V5">INDEX(Page1!$H$8:$H$37, COLUMN(V5)-10)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="120" cm="1">
+      <c r="W5" s="301" cm="1">
         <f t="array" ref="W5">INDEX(Page1!$H$8:$H$37, COLUMN(W5)-10)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="120" cm="1">
+      <c r="X5" s="301" cm="1">
         <f t="array" ref="X5">INDEX(Page1!$H$8:$H$37, COLUMN(X5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="120" cm="1">
+      <c r="Y5" s="301" cm="1">
         <f t="array" ref="Y5">INDEX(Page1!$H$8:$H$37, COLUMN(Y5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="120" cm="1">
+      <c r="Z5" s="301" cm="1">
         <f t="array" ref="Z5">INDEX(Page1!$H$8:$H$37, COLUMN(Z5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="120" cm="1">
+      <c r="AA5" s="301" cm="1">
         <f t="array" ref="AA5">INDEX(Page1!$H$8:$H$37, COLUMN(AA5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="120" cm="1">
+      <c r="AB5" s="301" cm="1">
         <f t="array" ref="AB5">INDEX(Page1!$H$8:$H$37, COLUMN(AB5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="120" cm="1">
+      <c r="AC5" s="301" cm="1">
         <f t="array" ref="AC5">INDEX(Page1!$H$8:$H$37, COLUMN(AC5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="120" cm="1">
+      <c r="AD5" s="301" cm="1">
         <f t="array" ref="AD5">INDEX(Page1!$H$8:$H$37, COLUMN(AD5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="120" cm="1">
+      <c r="AE5" s="301" cm="1">
         <f t="array" ref="AE5">INDEX(Page1!$H$8:$H$37, COLUMN(AE5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="120" cm="1">
+      <c r="AF5" s="301" cm="1">
         <f t="array" ref="AF5">INDEX(Page1!$H$8:$H$37, COLUMN(AF5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="120" cm="1">
+      <c r="AG5" s="301" cm="1">
         <f t="array" ref="AG5">INDEX(Page1!$H$8:$H$37, COLUMN(AG5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="120" cm="1">
+      <c r="AH5" s="301" cm="1">
         <f t="array" ref="AH5">INDEX(Page1!$H$8:$H$37, COLUMN(AH5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="120" cm="1">
+      <c r="AI5" s="301" cm="1">
         <f t="array" ref="AI5">INDEX(Page1!$H$8:$H$37, COLUMN(AI5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="120" cm="1">
+      <c r="AJ5" s="301" cm="1">
         <f t="array" ref="AJ5">INDEX(Page1!$H$8:$H$37, COLUMN(AJ5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="120" cm="1">
+      <c r="AK5" s="301" cm="1">
         <f t="array" ref="AK5">INDEX(Page1!$H$8:$H$37, COLUMN(AK5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="120" cm="1">
+      <c r="AL5" s="301" cm="1">
         <f t="array" ref="AL5">INDEX(Page1!$H$8:$H$37, COLUMN(AL5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="120" cm="1">
+      <c r="AM5" s="301" cm="1">
         <f t="array" ref="AM5">INDEX(Page1!$H$8:$H$37, COLUMN(AM5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="120" cm="1">
+      <c r="AN5" s="301" cm="1">
         <f t="array" ref="AN5">INDEX(Page1!$H$8:$H$37, COLUMN(AN5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="121">
+      <c r="AO5" s="302">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP5" s="117">
+      <c r="AP5" s="297">
         <f>STDEV(K5:AN5)</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="122" t="e">
+      <c r="AQ5" s="303" t="e">
         <f>MIN((AO5-H5)/(3*AP5), (I5-AO5)/(3*AP5))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR5" s="123">
+      <c r="AR5" s="304">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS5" s="123">
+      <c r="AS5" s="304">
         <f>MAX(K5:AN5)</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="312" t="e">
+      <c r="AT5" s="300" t="e">
         <f>IF(AQ5&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16848,163 +16864,163 @@
       <c r="D6" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="294" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114" t="s">
+      <c r="H6" s="294"/>
+      <c r="I6" s="294" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="114" t="s">
+      <c r="J6" s="294" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="124" cm="1">
+      <c r="K6" s="305" cm="1">
         <f t="array" ref="K6">INDEX(Page1!$N$8:$N$37, COLUMN(K6)-10)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="124" cm="1">
+      <c r="L6" s="305" cm="1">
         <f t="array" ref="L6">INDEX(Page1!$N$8:$N$37, COLUMN(L6)-10)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="124" cm="1">
+      <c r="M6" s="305" cm="1">
         <f t="array" ref="M6">INDEX(Page1!$N$8:$N$37, COLUMN(M6)-10)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="124" cm="1">
+      <c r="N6" s="305" cm="1">
         <f t="array" ref="N6">INDEX(Page1!$N$8:$N$37, COLUMN(N6)-10)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="124" cm="1">
+      <c r="O6" s="305" cm="1">
         <f t="array" ref="O6">INDEX(Page1!$N$8:$N$37, COLUMN(O6)-10)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="124" cm="1">
+      <c r="P6" s="305" cm="1">
         <f t="array" ref="P6">INDEX(Page1!$N$8:$N$37, COLUMN(P6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="124" cm="1">
+      <c r="Q6" s="305" cm="1">
         <f t="array" ref="Q6">INDEX(Page1!$N$8:$N$37, COLUMN(Q6)-10)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="124" cm="1">
+      <c r="R6" s="305" cm="1">
         <f t="array" ref="R6">INDEX(Page1!$N$8:$N$37, COLUMN(R6)-10)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="124" cm="1">
+      <c r="S6" s="305" cm="1">
         <f t="array" ref="S6">INDEX(Page1!$N$8:$N$37, COLUMN(S6)-10)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="124" cm="1">
+      <c r="T6" s="305" cm="1">
         <f t="array" ref="T6">INDEX(Page1!$N$8:$N$37, COLUMN(T6)-10)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="124" cm="1">
+      <c r="U6" s="305" cm="1">
         <f t="array" ref="U6">INDEX(Page1!$N$8:$N$37, COLUMN(U6)-10)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="124" cm="1">
+      <c r="V6" s="305" cm="1">
         <f t="array" ref="V6">INDEX(Page1!$N$8:$N$37, COLUMN(V6)-10)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="124" cm="1">
+      <c r="W6" s="305" cm="1">
         <f t="array" ref="W6">INDEX(Page1!$N$8:$N$37, COLUMN(W6)-10)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="124" cm="1">
+      <c r="X6" s="305" cm="1">
         <f t="array" ref="X6">INDEX(Page1!$N$8:$N$37, COLUMN(X6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="124" cm="1">
+      <c r="Y6" s="305" cm="1">
         <f t="array" ref="Y6">INDEX(Page1!$N$8:$N$37, COLUMN(Y6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="124" cm="1">
+      <c r="Z6" s="305" cm="1">
         <f t="array" ref="Z6">INDEX(Page1!$N$8:$N$37, COLUMN(Z6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="124" cm="1">
+      <c r="AA6" s="305" cm="1">
         <f t="array" ref="AA6">INDEX(Page1!$N$8:$N$37, COLUMN(AA6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="124" cm="1">
+      <c r="AB6" s="305" cm="1">
         <f t="array" ref="AB6">INDEX(Page1!$N$8:$N$37, COLUMN(AB6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="124" cm="1">
+      <c r="AC6" s="305" cm="1">
         <f t="array" ref="AC6">INDEX(Page1!$N$8:$N$37, COLUMN(AC6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="124" cm="1">
+      <c r="AD6" s="305" cm="1">
         <f t="array" ref="AD6">INDEX(Page1!$N$8:$N$37, COLUMN(AD6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="124" cm="1">
+      <c r="AE6" s="305" cm="1">
         <f t="array" ref="AE6">INDEX(Page1!$N$8:$N$37, COLUMN(AE6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="124" cm="1">
+      <c r="AF6" s="305" cm="1">
         <f t="array" ref="AF6">INDEX(Page1!$N$8:$N$37, COLUMN(AF6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="124" cm="1">
+      <c r="AG6" s="305" cm="1">
         <f t="array" ref="AG6">INDEX(Page1!$N$8:$N$37, COLUMN(AG6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="124" cm="1">
+      <c r="AH6" s="305" cm="1">
         <f t="array" ref="AH6">INDEX(Page1!$N$8:$N$37, COLUMN(AH6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="124" cm="1">
+      <c r="AI6" s="305" cm="1">
         <f t="array" ref="AI6">INDEX(Page1!$N$8:$N$37, COLUMN(AI6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="124" cm="1">
+      <c r="AJ6" s="305" cm="1">
         <f t="array" ref="AJ6">INDEX(Page1!$N$8:$N$37, COLUMN(AJ6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="124" cm="1">
+      <c r="AK6" s="305" cm="1">
         <f t="array" ref="AK6">INDEX(Page1!$N$8:$N$37, COLUMN(AK6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="124" cm="1">
+      <c r="AL6" s="305" cm="1">
         <f t="array" ref="AL6">INDEX(Page1!$N$8:$N$37, COLUMN(AL6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="124" cm="1">
+      <c r="AM6" s="305" cm="1">
         <f t="array" ref="AM6">INDEX(Page1!$N$8:$N$37, COLUMN(AM6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="124" cm="1">
+      <c r="AN6" s="305" cm="1">
         <f t="array" ref="AN6">INDEX(Page1!$N$8:$N$37, COLUMN(AN6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="125">
+      <c r="AO6" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP6" s="117">
+      <c r="AP6" s="297">
         <f>STDEV(K6:AN6)</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="122" t="e">
+      <c r="AQ6" s="303" t="e">
         <f>(I6-AO6)/(3*AP6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR6" s="117">
+      <c r="AR6" s="297">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS6" s="117">
+      <c r="AS6" s="297">
         <f>MAX(K6:AN6)</f>
         <v>0</v>
       </c>
-      <c r="AT6" s="312" t="e">
+      <c r="AT6" s="300" t="e">
         <f>IF(AQ6&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -17022,165 +17038,165 @@
       <c r="D7" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="294" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="114" t="s">
+      <c r="H7" s="294" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="294" t="s">
         <v>123</v>
       </c>
-      <c r="J7" s="114" t="s">
+      <c r="J7" s="294" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="124" cm="1">
+      <c r="K7" s="305" cm="1">
         <f t="array" ref="K7">INDEX(Page1!$D$8:$D$37, COLUMN(K7)-10)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="124" cm="1">
+      <c r="L7" s="305" cm="1">
         <f t="array" ref="L7">INDEX(Page1!$D$8:$D$37, COLUMN(L7)-10)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="124" cm="1">
+      <c r="M7" s="305" cm="1">
         <f t="array" ref="M7">INDEX(Page1!$D$8:$D$37, COLUMN(M7)-10)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="124" cm="1">
+      <c r="N7" s="305" cm="1">
         <f t="array" ref="N7">INDEX(Page1!$D$8:$D$37, COLUMN(N7)-10)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="124" cm="1">
+      <c r="O7" s="305" cm="1">
         <f t="array" ref="O7">INDEX(Page1!$D$8:$D$37, COLUMN(O7)-10)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="124" cm="1">
+      <c r="P7" s="305" cm="1">
         <f t="array" ref="P7">INDEX(Page1!$D$8:$D$37, COLUMN(P7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="124" cm="1">
+      <c r="Q7" s="305" cm="1">
         <f t="array" ref="Q7">INDEX(Page1!$D$8:$D$37, COLUMN(Q7)-10)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="124" cm="1">
+      <c r="R7" s="305" cm="1">
         <f t="array" ref="R7">INDEX(Page1!$D$8:$D$37, COLUMN(R7)-10)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="124" cm="1">
+      <c r="S7" s="305" cm="1">
         <f t="array" ref="S7">INDEX(Page1!$D$8:$D$37, COLUMN(S7)-10)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="124" cm="1">
+      <c r="T7" s="305" cm="1">
         <f t="array" ref="T7">INDEX(Page1!$D$8:$D$37, COLUMN(T7)-10)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="124" cm="1">
+      <c r="U7" s="305" cm="1">
         <f t="array" ref="U7">INDEX(Page1!$D$8:$D$37, COLUMN(U7)-10)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="124" cm="1">
+      <c r="V7" s="305" cm="1">
         <f t="array" ref="V7">INDEX(Page1!$D$8:$D$37, COLUMN(V7)-10)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="124" cm="1">
+      <c r="W7" s="305" cm="1">
         <f t="array" ref="W7">INDEX(Page1!$D$8:$D$37, COLUMN(W7)-10)</f>
         <v>0</v>
       </c>
-      <c r="X7" s="124" cm="1">
+      <c r="X7" s="305" cm="1">
         <f t="array" ref="X7">INDEX(Page1!$D$8:$D$37, COLUMN(X7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="124" cm="1">
+      <c r="Y7" s="305" cm="1">
         <f t="array" ref="Y7">INDEX(Page1!$D$8:$D$37, COLUMN(Y7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="124" cm="1">
+      <c r="Z7" s="305" cm="1">
         <f t="array" ref="Z7">INDEX(Page1!$D$8:$D$37, COLUMN(Z7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="124" cm="1">
+      <c r="AA7" s="305" cm="1">
         <f t="array" ref="AA7">INDEX(Page1!$D$8:$D$37, COLUMN(AA7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="124" cm="1">
+      <c r="AB7" s="305" cm="1">
         <f t="array" ref="AB7">INDEX(Page1!$D$8:$D$37, COLUMN(AB7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="124" cm="1">
+      <c r="AC7" s="305" cm="1">
         <f t="array" ref="AC7">INDEX(Page1!$D$8:$D$37, COLUMN(AC7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="124" cm="1">
+      <c r="AD7" s="305" cm="1">
         <f t="array" ref="AD7">INDEX(Page1!$D$8:$D$37, COLUMN(AD7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="124" cm="1">
+      <c r="AE7" s="305" cm="1">
         <f t="array" ref="AE7">INDEX(Page1!$D$8:$D$37, COLUMN(AE7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="124" cm="1">
+      <c r="AF7" s="305" cm="1">
         <f t="array" ref="AF7">INDEX(Page1!$D$8:$D$37, COLUMN(AF7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="124" cm="1">
+      <c r="AG7" s="305" cm="1">
         <f t="array" ref="AG7">INDEX(Page1!$D$8:$D$37, COLUMN(AG7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="124" cm="1">
+      <c r="AH7" s="305" cm="1">
         <f t="array" ref="AH7">INDEX(Page1!$D$8:$D$37, COLUMN(AH7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="124" cm="1">
+      <c r="AI7" s="305" cm="1">
         <f t="array" ref="AI7">INDEX(Page1!$D$8:$D$37, COLUMN(AI7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ7" s="124" cm="1">
+      <c r="AJ7" s="305" cm="1">
         <f t="array" ref="AJ7">INDEX(Page1!$D$8:$D$37, COLUMN(AJ7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK7" s="124" cm="1">
+      <c r="AK7" s="305" cm="1">
         <f t="array" ref="AK7">INDEX(Page1!$D$8:$D$37, COLUMN(AK7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL7" s="124" cm="1">
+      <c r="AL7" s="305" cm="1">
         <f t="array" ref="AL7">INDEX(Page1!$D$8:$D$37, COLUMN(AL7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="124" cm="1">
+      <c r="AM7" s="305" cm="1">
         <f t="array" ref="AM7">INDEX(Page1!$D$8:$D$37, COLUMN(AM7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN7" s="124" cm="1">
+      <c r="AN7" s="305" cm="1">
         <f t="array" ref="AN7">INDEX(Page1!$D$8:$D$37, COLUMN(AN7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO7" s="125">
+      <c r="AO7" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP7" s="117">
+      <c r="AP7" s="297">
         <f t="shared" ref="AP7:AP16" si="2">STDEV(K7:AN7)</f>
         <v>0</v>
       </c>
-      <c r="AQ7" s="122" t="e">
+      <c r="AQ7" s="303" t="e">
         <f>MIN((AO7-H7)/(3*AP7), (I7-AO7)/(3*AP7))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR7" s="117">
+      <c r="AR7" s="297">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS7" s="117">
+      <c r="AS7" s="297">
         <f t="shared" ref="AS7:AS16" si="3">MAX(K7:AN7)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="312" t="e">
+      <c r="AT7" s="300" t="e">
         <f t="shared" ref="AT7:AT16" si="4">IF(AQ7&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -17198,165 +17214,165 @@
       <c r="D8" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="294" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="114" t="s">
+      <c r="H8" s="294" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="114" t="s">
+      <c r="I8" s="294" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="114" t="s">
+      <c r="J8" s="294" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="115" t="e" cm="1">
+      <c r="K8" s="295" t="e" cm="1">
         <f t="array" ref="K8">INDEX(Page3!$G$9:$G$38, COLUMN(K8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="115" t="e" cm="1">
+      <c r="L8" s="295" t="e" cm="1">
         <f t="array" ref="L8">INDEX(Page3!$G$9:$G$38, COLUMN(L8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="115" t="e" cm="1">
+      <c r="M8" s="295" t="e" cm="1">
         <f t="array" ref="M8">INDEX(Page3!$G$9:$G$38, COLUMN(M8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="115" t="e" cm="1">
+      <c r="N8" s="295" t="e" cm="1">
         <f t="array" ref="N8">INDEX(Page3!$G$9:$G$38, COLUMN(N8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="115" t="e" cm="1">
+      <c r="O8" s="295" t="e" cm="1">
         <f t="array" ref="O8">INDEX(Page3!$G$9:$G$38, COLUMN(O8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="115" t="e" cm="1">
+      <c r="P8" s="295" t="e" cm="1">
         <f t="array" ref="P8">INDEX(Page3!$G$9:$G$38, COLUMN(P8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="115" t="e" cm="1">
+      <c r="Q8" s="295" t="e" cm="1">
         <f t="array" ref="Q8">INDEX(Page3!$G$9:$G$38, COLUMN(Q8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R8" s="115" t="e" cm="1">
+      <c r="R8" s="295" t="e" cm="1">
         <f t="array" ref="R8">INDEX(Page3!$G$9:$G$38, COLUMN(R8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S8" s="115" t="e" cm="1">
+      <c r="S8" s="295" t="e" cm="1">
         <f t="array" ref="S8">INDEX(Page3!$G$9:$G$38, COLUMN(S8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T8" s="115" t="e" cm="1">
+      <c r="T8" s="295" t="e" cm="1">
         <f t="array" ref="T8">INDEX(Page3!$G$9:$G$38, COLUMN(T8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="115" t="e" cm="1">
+      <c r="U8" s="295" t="e" cm="1">
         <f t="array" ref="U8">INDEX(Page3!$G$9:$G$38, COLUMN(U8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V8" s="115" t="e" cm="1">
+      <c r="V8" s="295" t="e" cm="1">
         <f t="array" ref="V8">INDEX(Page3!$G$9:$G$38, COLUMN(V8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W8" s="115" t="e" cm="1">
+      <c r="W8" s="295" t="e" cm="1">
         <f t="array" ref="W8">INDEX(Page3!$G$9:$G$38, COLUMN(W8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X8" s="115" t="e" cm="1">
+      <c r="X8" s="295" t="e" cm="1">
         <f t="array" ref="X8">INDEX(Page3!$G$9:$G$38, COLUMN(X8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y8" s="115" t="e" cm="1">
+      <c r="Y8" s="295" t="e" cm="1">
         <f t="array" ref="Y8">INDEX(Page3!$G$9:$G$38, COLUMN(Y8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z8" s="115" t="e" cm="1">
+      <c r="Z8" s="295" t="e" cm="1">
         <f t="array" ref="Z8">INDEX(Page3!$G$9:$G$38, COLUMN(Z8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA8" s="115" t="e" cm="1">
+      <c r="AA8" s="295" t="e" cm="1">
         <f t="array" ref="AA8">INDEX(Page3!$G$9:$G$38, COLUMN(AA8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB8" s="115" t="e" cm="1">
+      <c r="AB8" s="295" t="e" cm="1">
         <f t="array" ref="AB8">INDEX(Page3!$G$9:$G$38, COLUMN(AB8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="115" t="e" cm="1">
+      <c r="AC8" s="295" t="e" cm="1">
         <f t="array" ref="AC8">INDEX(Page3!$G$9:$G$38, COLUMN(AC8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="115" t="e" cm="1">
+      <c r="AD8" s="295" t="e" cm="1">
         <f t="array" ref="AD8">INDEX(Page3!$G$9:$G$38, COLUMN(AD8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE8" s="115" t="e" cm="1">
+      <c r="AE8" s="295" t="e" cm="1">
         <f t="array" ref="AE8">INDEX(Page3!$G$9:$G$38, COLUMN(AE8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF8" s="115" t="e" cm="1">
+      <c r="AF8" s="295" t="e" cm="1">
         <f t="array" ref="AF8">INDEX(Page3!$G$9:$G$38, COLUMN(AF8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG8" s="115" t="e" cm="1">
+      <c r="AG8" s="295" t="e" cm="1">
         <f t="array" ref="AG8">INDEX(Page3!$G$9:$G$38, COLUMN(AG8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH8" s="115" t="e" cm="1">
+      <c r="AH8" s="295" t="e" cm="1">
         <f t="array" ref="AH8">INDEX(Page3!$G$9:$G$38, COLUMN(AH8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI8" s="115" t="e" cm="1">
+      <c r="AI8" s="295" t="e" cm="1">
         <f t="array" ref="AI8">INDEX(Page3!$G$9:$G$38, COLUMN(AI8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ8" s="115" t="e" cm="1">
+      <c r="AJ8" s="295" t="e" cm="1">
         <f t="array" ref="AJ8">INDEX(Page3!$G$9:$G$38, COLUMN(AJ8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK8" s="115" t="e" cm="1">
+      <c r="AK8" s="295" t="e" cm="1">
         <f t="array" ref="AK8">INDEX(Page3!$G$9:$G$38, COLUMN(AK8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL8" s="115" t="e" cm="1">
+      <c r="AL8" s="295" t="e" cm="1">
         <f t="array" ref="AL8">INDEX(Page3!$G$9:$G$38, COLUMN(AL8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM8" s="115" t="e" cm="1">
+      <c r="AM8" s="295" t="e" cm="1">
         <f t="array" ref="AM8">INDEX(Page3!$G$9:$G$38, COLUMN(AM8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN8" s="115" t="e" cm="1">
+      <c r="AN8" s="295" t="e" cm="1">
         <f t="array" ref="AN8">INDEX(Page3!$G$9:$G$38, COLUMN(AN8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO8" s="116" t="e">
+      <c r="AO8" s="296" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP8" s="117" t="e">
+      <c r="AP8" s="297" t="e">
         <f>STDEV(K8:AN8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ8" s="122" t="e">
+      <c r="AQ8" s="303" t="e">
         <f>(AO8-H8)/(3*AP8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR8" s="119" t="e">
+      <c r="AR8" s="299" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS8" s="119" t="e">
+      <c r="AS8" s="299" t="e">
         <f>MAX(K8:AN8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT8" s="312" t="e">
+      <c r="AT8" s="300" t="e">
         <f>IF(AQ8&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -17374,165 +17390,165 @@
       <c r="D9" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="113" t="s">
+      <c r="F9" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="294" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="114" t="s">
+      <c r="H9" s="294" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="114" t="s">
+      <c r="I9" s="294" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="114" t="s">
+      <c r="J9" s="294" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="115" t="e" cm="1">
+      <c r="K9" s="295" t="e" cm="1">
         <f t="array" ref="K9">INDEX(Page2!$G$9:$G$38, COLUMN(K9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="115" t="e" cm="1">
+      <c r="L9" s="295" t="e" cm="1">
         <f t="array" ref="L9">INDEX(Page2!$G$9:$G$38, COLUMN(L9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="115" t="e" cm="1">
+      <c r="M9" s="295" t="e" cm="1">
         <f t="array" ref="M9">INDEX(Page2!$G$9:$G$38, COLUMN(M9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="115" t="e" cm="1">
+      <c r="N9" s="295" t="e" cm="1">
         <f t="array" ref="N9">INDEX(Page2!$G$9:$G$38, COLUMN(N9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="115" t="e" cm="1">
+      <c r="O9" s="295" t="e" cm="1">
         <f t="array" ref="O9">INDEX(Page2!$G$9:$G$38, COLUMN(O9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P9" s="115" t="e" cm="1">
+      <c r="P9" s="295" t="e" cm="1">
         <f t="array" ref="P9">INDEX(Page2!$G$9:$G$38, COLUMN(P9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q9" s="115" t="e" cm="1">
+      <c r="Q9" s="295" t="e" cm="1">
         <f t="array" ref="Q9">INDEX(Page2!$G$9:$G$38, COLUMN(Q9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R9" s="115" t="e" cm="1">
+      <c r="R9" s="295" t="e" cm="1">
         <f t="array" ref="R9">INDEX(Page2!$G$9:$G$38, COLUMN(R9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S9" s="115" t="e" cm="1">
+      <c r="S9" s="295" t="e" cm="1">
         <f t="array" ref="S9">INDEX(Page2!$G$9:$G$38, COLUMN(S9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T9" s="115" t="e" cm="1">
+      <c r="T9" s="295" t="e" cm="1">
         <f t="array" ref="T9">INDEX(Page2!$G$9:$G$38, COLUMN(T9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U9" s="115" t="e" cm="1">
+      <c r="U9" s="295" t="e" cm="1">
         <f t="array" ref="U9">INDEX(Page2!$G$9:$G$38, COLUMN(U9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V9" s="115" t="e" cm="1">
+      <c r="V9" s="295" t="e" cm="1">
         <f t="array" ref="V9">INDEX(Page2!$G$9:$G$38, COLUMN(V9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W9" s="115" t="e" cm="1">
+      <c r="W9" s="295" t="e" cm="1">
         <f t="array" ref="W9">INDEX(Page2!$G$9:$G$38, COLUMN(W9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X9" s="115" t="e" cm="1">
+      <c r="X9" s="295" t="e" cm="1">
         <f t="array" ref="X9">INDEX(Page2!$G$9:$G$38, COLUMN(X9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y9" s="115" t="e" cm="1">
+      <c r="Y9" s="295" t="e" cm="1">
         <f t="array" ref="Y9">INDEX(Page2!$G$9:$G$38, COLUMN(Y9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z9" s="115" t="e" cm="1">
+      <c r="Z9" s="295" t="e" cm="1">
         <f t="array" ref="Z9">INDEX(Page2!$G$9:$G$38, COLUMN(Z9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA9" s="115" t="e" cm="1">
+      <c r="AA9" s="295" t="e" cm="1">
         <f t="array" ref="AA9">INDEX(Page2!$G$9:$G$38, COLUMN(AA9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB9" s="115" t="e" cm="1">
+      <c r="AB9" s="295" t="e" cm="1">
         <f t="array" ref="AB9">INDEX(Page2!$G$9:$G$38, COLUMN(AB9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC9" s="115" t="e" cm="1">
+      <c r="AC9" s="295" t="e" cm="1">
         <f t="array" ref="AC9">INDEX(Page2!$G$9:$G$38, COLUMN(AC9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="115" t="e" cm="1">
+      <c r="AD9" s="295" t="e" cm="1">
         <f t="array" ref="AD9">INDEX(Page2!$G$9:$G$38, COLUMN(AD9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE9" s="115" t="e" cm="1">
+      <c r="AE9" s="295" t="e" cm="1">
         <f t="array" ref="AE9">INDEX(Page2!$G$9:$G$38, COLUMN(AE9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF9" s="115" t="e" cm="1">
+      <c r="AF9" s="295" t="e" cm="1">
         <f t="array" ref="AF9">INDEX(Page2!$G$9:$G$38, COLUMN(AF9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG9" s="115" t="e" cm="1">
+      <c r="AG9" s="295" t="e" cm="1">
         <f t="array" ref="AG9">INDEX(Page2!$G$9:$G$38, COLUMN(AG9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH9" s="115" t="e" cm="1">
+      <c r="AH9" s="295" t="e" cm="1">
         <f t="array" ref="AH9">INDEX(Page2!$G$9:$G$38, COLUMN(AH9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI9" s="115" t="e" cm="1">
+      <c r="AI9" s="295" t="e" cm="1">
         <f t="array" ref="AI9">INDEX(Page2!$G$9:$G$38, COLUMN(AI9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ9" s="115" t="e" cm="1">
+      <c r="AJ9" s="295" t="e" cm="1">
         <f t="array" ref="AJ9">INDEX(Page2!$G$9:$G$38, COLUMN(AJ9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK9" s="115" t="e" cm="1">
+      <c r="AK9" s="295" t="e" cm="1">
         <f t="array" ref="AK9">INDEX(Page2!$G$9:$G$38, COLUMN(AK9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL9" s="115" t="e" cm="1">
+      <c r="AL9" s="295" t="e" cm="1">
         <f t="array" ref="AL9">INDEX(Page2!$G$9:$G$38, COLUMN(AL9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM9" s="115" t="e" cm="1">
+      <c r="AM9" s="295" t="e" cm="1">
         <f t="array" ref="AM9">INDEX(Page2!$G$9:$G$38, COLUMN(AM9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN9" s="115" t="e" cm="1">
+      <c r="AN9" s="295" t="e" cm="1">
         <f t="array" ref="AN9">INDEX(Page2!$G$9:$G$38, COLUMN(AN9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO9" s="116" t="e">
+      <c r="AO9" s="296" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP9" s="117" t="e">
+      <c r="AP9" s="297" t="e">
         <f>STDEV(K9:AN9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ9" s="122" t="e">
+      <c r="AQ9" s="303" t="e">
         <f>(AO9-H9)/(3*AP9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR9" s="119" t="e">
+      <c r="AR9" s="299" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS9" s="119" t="e">
+      <c r="AS9" s="299" t="e">
         <f>MAX(K9:AN9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT9" s="312" t="e">
+      <c r="AT9" s="300" t="e">
         <f>IF(AQ9&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
@@ -17550,165 +17566,165 @@
       <c r="D10" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="113" t="s">
+      <c r="F10" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="114" t="s">
+      <c r="G10" s="294" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="114" t="s">
+      <c r="H10" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="114" t="s">
+      <c r="I10" s="294" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="114" t="s">
+      <c r="J10" s="294" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="120" t="e" cm="1">
+      <c r="K10" s="301" t="e" cm="1">
         <f t="array" ref="K10">INDEX(Page2!$K$9:$K$38, COLUMN(K10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="120" t="e" cm="1">
+      <c r="L10" s="301" t="e" cm="1">
         <f t="array" ref="L10">INDEX(Page2!$K$9:$K$38, COLUMN(L10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="120" t="e" cm="1">
+      <c r="M10" s="301" t="e" cm="1">
         <f t="array" ref="M10">INDEX(Page2!$K$9:$K$38, COLUMN(M10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="120" t="e" cm="1">
+      <c r="N10" s="301" t="e" cm="1">
         <f t="array" ref="N10">INDEX(Page2!$K$9:$K$38, COLUMN(N10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="120" t="e" cm="1">
+      <c r="O10" s="301" t="e" cm="1">
         <f t="array" ref="O10">INDEX(Page2!$K$9:$K$38, COLUMN(O10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P10" s="120" t="e" cm="1">
+      <c r="P10" s="301" t="e" cm="1">
         <f t="array" ref="P10">INDEX(Page2!$K$9:$K$38, COLUMN(P10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="120" t="e" cm="1">
+      <c r="Q10" s="301" t="e" cm="1">
         <f t="array" ref="Q10">INDEX(Page2!$K$9:$K$38, COLUMN(Q10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R10" s="120" t="e" cm="1">
+      <c r="R10" s="301" t="e" cm="1">
         <f t="array" ref="R10">INDEX(Page2!$K$9:$K$38, COLUMN(R10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="120" t="e" cm="1">
+      <c r="S10" s="301" t="e" cm="1">
         <f t="array" ref="S10">INDEX(Page2!$K$9:$K$38, COLUMN(S10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T10" s="120" t="e" cm="1">
+      <c r="T10" s="301" t="e" cm="1">
         <f t="array" ref="T10">INDEX(Page2!$K$9:$K$38, COLUMN(T10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U10" s="120" t="e" cm="1">
+      <c r="U10" s="301" t="e" cm="1">
         <f t="array" ref="U10">INDEX(Page2!$K$9:$K$38, COLUMN(U10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V10" s="120" t="e" cm="1">
+      <c r="V10" s="301" t="e" cm="1">
         <f t="array" ref="V10">INDEX(Page2!$K$9:$K$38, COLUMN(V10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W10" s="120" t="e" cm="1">
+      <c r="W10" s="301" t="e" cm="1">
         <f t="array" ref="W10">INDEX(Page2!$K$9:$K$38, COLUMN(W10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X10" s="120" t="e" cm="1">
+      <c r="X10" s="301" t="e" cm="1">
         <f t="array" ref="X10">INDEX(Page2!$K$9:$K$38, COLUMN(X10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y10" s="120" t="e" cm="1">
+      <c r="Y10" s="301" t="e" cm="1">
         <f t="array" ref="Y10">INDEX(Page2!$K$9:$K$38, COLUMN(Y10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z10" s="120" t="e" cm="1">
+      <c r="Z10" s="301" t="e" cm="1">
         <f t="array" ref="Z10">INDEX(Page2!$K$9:$K$38, COLUMN(Z10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA10" s="120" t="e" cm="1">
+      <c r="AA10" s="301" t="e" cm="1">
         <f t="array" ref="AA10">INDEX(Page2!$K$9:$K$38, COLUMN(AA10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB10" s="120" t="e" cm="1">
+      <c r="AB10" s="301" t="e" cm="1">
         <f t="array" ref="AB10">INDEX(Page2!$K$9:$K$38, COLUMN(AB10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC10" s="120" t="e" cm="1">
+      <c r="AC10" s="301" t="e" cm="1">
         <f t="array" ref="AC10">INDEX(Page2!$K$9:$K$38, COLUMN(AC10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="120" t="e" cm="1">
+      <c r="AD10" s="301" t="e" cm="1">
         <f t="array" ref="AD10">INDEX(Page2!$K$9:$K$38, COLUMN(AD10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE10" s="120" t="e" cm="1">
+      <c r="AE10" s="301" t="e" cm="1">
         <f t="array" ref="AE10">INDEX(Page2!$K$9:$K$38, COLUMN(AE10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF10" s="120" t="e" cm="1">
+      <c r="AF10" s="301" t="e" cm="1">
         <f t="array" ref="AF10">INDEX(Page2!$K$9:$K$38, COLUMN(AF10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG10" s="120" t="e" cm="1">
+      <c r="AG10" s="301" t="e" cm="1">
         <f t="array" ref="AG10">INDEX(Page2!$K$9:$K$38, COLUMN(AG10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH10" s="120" t="e" cm="1">
+      <c r="AH10" s="301" t="e" cm="1">
         <f t="array" ref="AH10">INDEX(Page2!$K$9:$K$38, COLUMN(AH10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI10" s="120" t="e" cm="1">
+      <c r="AI10" s="301" t="e" cm="1">
         <f t="array" ref="AI10">INDEX(Page2!$K$9:$K$38, COLUMN(AI10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ10" s="120" t="e" cm="1">
+      <c r="AJ10" s="301" t="e" cm="1">
         <f t="array" ref="AJ10">INDEX(Page2!$K$9:$K$38, COLUMN(AJ10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK10" s="120" t="e" cm="1">
+      <c r="AK10" s="301" t="e" cm="1">
         <f t="array" ref="AK10">INDEX(Page2!$K$9:$K$38, COLUMN(AK10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL10" s="120" t="e" cm="1">
+      <c r="AL10" s="301" t="e" cm="1">
         <f t="array" ref="AL10">INDEX(Page2!$K$9:$K$38, COLUMN(AL10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM10" s="120" t="e" cm="1">
+      <c r="AM10" s="301" t="e" cm="1">
         <f t="array" ref="AM10">INDEX(Page2!$K$9:$K$38, COLUMN(AM10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN10" s="120" t="e" cm="1">
+      <c r="AN10" s="301" t="e" cm="1">
         <f t="array" ref="AN10">INDEX(Page2!$K$9:$K$38, COLUMN(AN10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO10" s="121" t="e">
+      <c r="AO10" s="302" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP10" s="117" t="e">
+      <c r="AP10" s="297" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ10" s="122" t="e">
+      <c r="AQ10" s="303" t="e">
         <f>(AO10-H10)/(3*AP10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR10" s="123" t="e">
+      <c r="AR10" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS10" s="123" t="e">
+      <c r="AS10" s="304" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT10" s="312" t="e">
+      <c r="AT10" s="300" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -17726,165 +17742,165 @@
       <c r="D11" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="114" t="s">
+      <c r="H11" s="294" t="s">
         <v>135</v>
       </c>
-      <c r="I11" s="114" t="s">
+      <c r="I11" s="294" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="114" t="s">
+      <c r="J11" s="294" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="120" t="e" cm="1">
+      <c r="K11" s="301" t="e" cm="1">
         <f t="array" ref="K11">INDEX(Page3!$K$9:$K$38, COLUMN(K11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="120" t="e" cm="1">
+      <c r="L11" s="301" t="e" cm="1">
         <f t="array" ref="L11">INDEX(Page3!$K$9:$K$38, COLUMN(L11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="120" t="e" cm="1">
+      <c r="M11" s="301" t="e" cm="1">
         <f t="array" ref="M11">INDEX(Page3!$K$9:$K$38, COLUMN(M11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="120" t="e" cm="1">
+      <c r="N11" s="301" t="e" cm="1">
         <f t="array" ref="N11">INDEX(Page3!$K$9:$K$38, COLUMN(N11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="120" t="e" cm="1">
+      <c r="O11" s="301" t="e" cm="1">
         <f t="array" ref="O11">INDEX(Page3!$K$9:$K$38, COLUMN(O11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P11" s="120" t="e" cm="1">
+      <c r="P11" s="301" t="e" cm="1">
         <f t="array" ref="P11">INDEX(Page3!$K$9:$K$38, COLUMN(P11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="120" t="e" cm="1">
+      <c r="Q11" s="301" t="e" cm="1">
         <f t="array" ref="Q11">INDEX(Page3!$K$9:$K$38, COLUMN(Q11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="120" t="e" cm="1">
+      <c r="R11" s="301" t="e" cm="1">
         <f t="array" ref="R11">INDEX(Page3!$K$9:$K$38, COLUMN(R11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="120" t="e" cm="1">
+      <c r="S11" s="301" t="e" cm="1">
         <f t="array" ref="S11">INDEX(Page3!$K$9:$K$38, COLUMN(S11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T11" s="120" t="e" cm="1">
+      <c r="T11" s="301" t="e" cm="1">
         <f t="array" ref="T11">INDEX(Page3!$K$9:$K$38, COLUMN(T11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U11" s="120" t="e" cm="1">
+      <c r="U11" s="301" t="e" cm="1">
         <f t="array" ref="U11">INDEX(Page3!$K$9:$K$38, COLUMN(U11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V11" s="120" t="e" cm="1">
+      <c r="V11" s="301" t="e" cm="1">
         <f t="array" ref="V11">INDEX(Page3!$K$9:$K$38, COLUMN(V11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W11" s="120" t="e" cm="1">
+      <c r="W11" s="301" t="e" cm="1">
         <f t="array" ref="W11">INDEX(Page3!$K$9:$K$38, COLUMN(W11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X11" s="120" t="e" cm="1">
+      <c r="X11" s="301" t="e" cm="1">
         <f t="array" ref="X11">INDEX(Page3!$K$9:$K$38, COLUMN(X11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y11" s="120" t="e" cm="1">
+      <c r="Y11" s="301" t="e" cm="1">
         <f t="array" ref="Y11">INDEX(Page3!$K$9:$K$38, COLUMN(Y11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z11" s="120" t="e" cm="1">
+      <c r="Z11" s="301" t="e" cm="1">
         <f t="array" ref="Z11">INDEX(Page3!$K$9:$K$38, COLUMN(Z11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA11" s="120" t="e" cm="1">
+      <c r="AA11" s="301" t="e" cm="1">
         <f t="array" ref="AA11">INDEX(Page3!$K$9:$K$38, COLUMN(AA11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB11" s="120" t="e" cm="1">
+      <c r="AB11" s="301" t="e" cm="1">
         <f t="array" ref="AB11">INDEX(Page3!$K$9:$K$38, COLUMN(AB11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="120" t="e" cm="1">
+      <c r="AC11" s="301" t="e" cm="1">
         <f t="array" ref="AC11">INDEX(Page3!$K$9:$K$38, COLUMN(AC11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="120" t="e" cm="1">
+      <c r="AD11" s="301" t="e" cm="1">
         <f t="array" ref="AD11">INDEX(Page3!$K$9:$K$38, COLUMN(AD11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE11" s="120" t="e" cm="1">
+      <c r="AE11" s="301" t="e" cm="1">
         <f t="array" ref="AE11">INDEX(Page3!$K$9:$K$38, COLUMN(AE11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF11" s="120" t="e" cm="1">
+      <c r="AF11" s="301" t="e" cm="1">
         <f t="array" ref="AF11">INDEX(Page3!$K$9:$K$38, COLUMN(AF11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG11" s="120" t="e" cm="1">
+      <c r="AG11" s="301" t="e" cm="1">
         <f t="array" ref="AG11">INDEX(Page3!$K$9:$K$38, COLUMN(AG11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH11" s="120" t="e" cm="1">
+      <c r="AH11" s="301" t="e" cm="1">
         <f t="array" ref="AH11">INDEX(Page3!$K$9:$K$38, COLUMN(AH11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI11" s="120" t="e" cm="1">
+      <c r="AI11" s="301" t="e" cm="1">
         <f t="array" ref="AI11">INDEX(Page3!$K$9:$K$38, COLUMN(AI11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ11" s="120" t="e" cm="1">
+      <c r="AJ11" s="301" t="e" cm="1">
         <f t="array" ref="AJ11">INDEX(Page3!$K$9:$K$38, COLUMN(AJ11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK11" s="120" t="e" cm="1">
+      <c r="AK11" s="301" t="e" cm="1">
         <f t="array" ref="AK11">INDEX(Page3!$K$9:$K$38, COLUMN(AK11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL11" s="120" t="e" cm="1">
+      <c r="AL11" s="301" t="e" cm="1">
         <f t="array" ref="AL11">INDEX(Page3!$K$9:$K$38, COLUMN(AL11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM11" s="120" t="e" cm="1">
+      <c r="AM11" s="301" t="e" cm="1">
         <f t="array" ref="AM11">INDEX(Page3!$K$9:$K$38, COLUMN(AM11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN11" s="120" t="e" cm="1">
+      <c r="AN11" s="301" t="e" cm="1">
         <f t="array" ref="AN11">INDEX(Page3!$K$9:$K$38, COLUMN(AN11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO11" s="121" t="e">
+      <c r="AO11" s="302" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP11" s="117" t="e">
+      <c r="AP11" s="297" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ11" s="122" t="e">
+      <c r="AQ11" s="303" t="e">
         <f>(AO11-H11)/(3*AP11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR11" s="123" t="e">
+      <c r="AR11" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS11" s="123" t="e">
+      <c r="AS11" s="304" t="e">
         <f>MAX(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT11" s="312" t="e">
+      <c r="AT11" s="300" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -17902,165 +17918,165 @@
       <c r="D12" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="114" t="s">
+      <c r="G12" s="294" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="114" t="s">
+      <c r="H12" s="294" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="114" t="s">
+      <c r="I12" s="294" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="114" t="s">
+      <c r="J12" s="294" t="s">
         <v>124</v>
       </c>
-      <c r="K12" s="120" t="e" cm="1">
+      <c r="K12" s="301" t="e" cm="1">
         <f t="array" ref="K12">INDEX(Page2!$O$9:$O$38, COLUMN(K12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="120" t="e" cm="1">
+      <c r="L12" s="301" t="e" cm="1">
         <f t="array" ref="L12">INDEX(Page2!$O$9:$O$38, COLUMN(L12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="120" t="e" cm="1">
+      <c r="M12" s="301" t="e" cm="1">
         <f t="array" ref="M12">INDEX(Page2!$O$9:$O$38, COLUMN(M12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="120" t="e" cm="1">
+      <c r="N12" s="301" t="e" cm="1">
         <f t="array" ref="N12">INDEX(Page2!$O$9:$O$38, COLUMN(N12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O12" s="120" t="e" cm="1">
+      <c r="O12" s="301" t="e" cm="1">
         <f t="array" ref="O12">INDEX(Page2!$O$9:$O$38, COLUMN(O12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="120" t="e" cm="1">
+      <c r="P12" s="301" t="e" cm="1">
         <f t="array" ref="P12">INDEX(Page2!$O$9:$O$38, COLUMN(P12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q12" s="120" t="e" cm="1">
+      <c r="Q12" s="301" t="e" cm="1">
         <f t="array" ref="Q12">INDEX(Page2!$O$9:$O$38, COLUMN(Q12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R12" s="120" t="e" cm="1">
+      <c r="R12" s="301" t="e" cm="1">
         <f t="array" ref="R12">INDEX(Page2!$O$9:$O$38, COLUMN(R12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S12" s="120" t="e" cm="1">
+      <c r="S12" s="301" t="e" cm="1">
         <f t="array" ref="S12">INDEX(Page2!$O$9:$O$38, COLUMN(S12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T12" s="120" t="e" cm="1">
+      <c r="T12" s="301" t="e" cm="1">
         <f t="array" ref="T12">INDEX(Page2!$O$9:$O$38, COLUMN(T12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U12" s="120" t="e" cm="1">
+      <c r="U12" s="301" t="e" cm="1">
         <f t="array" ref="U12">INDEX(Page2!$O$9:$O$38, COLUMN(U12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V12" s="120" t="e" cm="1">
+      <c r="V12" s="301" t="e" cm="1">
         <f t="array" ref="V12">INDEX(Page2!$O$9:$O$38, COLUMN(V12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W12" s="120" t="e" cm="1">
+      <c r="W12" s="301" t="e" cm="1">
         <f t="array" ref="W12">INDEX(Page2!$O$9:$O$38, COLUMN(W12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X12" s="120" t="e" cm="1">
+      <c r="X12" s="301" t="e" cm="1">
         <f t="array" ref="X12">INDEX(Page2!$O$9:$O$38, COLUMN(X12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y12" s="120" t="e" cm="1">
+      <c r="Y12" s="301" t="e" cm="1">
         <f t="array" ref="Y12">INDEX(Page2!$O$9:$O$38, COLUMN(Y12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z12" s="120" t="e" cm="1">
+      <c r="Z12" s="301" t="e" cm="1">
         <f t="array" ref="Z12">INDEX(Page2!$O$9:$O$38, COLUMN(Z12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA12" s="120" t="e" cm="1">
+      <c r="AA12" s="301" t="e" cm="1">
         <f t="array" ref="AA12">INDEX(Page2!$O$9:$O$38, COLUMN(AA12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB12" s="120" t="e" cm="1">
+      <c r="AB12" s="301" t="e" cm="1">
         <f t="array" ref="AB12">INDEX(Page2!$O$9:$O$38, COLUMN(AB12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="120" t="e" cm="1">
+      <c r="AC12" s="301" t="e" cm="1">
         <f t="array" ref="AC12">INDEX(Page2!$O$9:$O$38, COLUMN(AC12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" s="120" t="e" cm="1">
+      <c r="AD12" s="301" t="e" cm="1">
         <f t="array" ref="AD12">INDEX(Page2!$O$9:$O$38, COLUMN(AD12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE12" s="120" t="e" cm="1">
+      <c r="AE12" s="301" t="e" cm="1">
         <f t="array" ref="AE12">INDEX(Page2!$O$9:$O$38, COLUMN(AE12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF12" s="120" t="e" cm="1">
+      <c r="AF12" s="301" t="e" cm="1">
         <f t="array" ref="AF12">INDEX(Page2!$O$9:$O$38, COLUMN(AF12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG12" s="120" t="e" cm="1">
+      <c r="AG12" s="301" t="e" cm="1">
         <f t="array" ref="AG12">INDEX(Page2!$O$9:$O$38, COLUMN(AG12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH12" s="120" t="e" cm="1">
+      <c r="AH12" s="301" t="e" cm="1">
         <f t="array" ref="AH12">INDEX(Page2!$O$9:$O$38, COLUMN(AH12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="120" t="e" cm="1">
+      <c r="AI12" s="301" t="e" cm="1">
         <f t="array" ref="AI12">INDEX(Page2!$O$9:$O$38, COLUMN(AI12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ12" s="120" t="e" cm="1">
+      <c r="AJ12" s="301" t="e" cm="1">
         <f t="array" ref="AJ12">INDEX(Page2!$O$9:$O$38, COLUMN(AJ12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK12" s="120" t="e" cm="1">
+      <c r="AK12" s="301" t="e" cm="1">
         <f t="array" ref="AK12">INDEX(Page2!$O$9:$O$38, COLUMN(AK12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL12" s="120" t="e" cm="1">
+      <c r="AL12" s="301" t="e" cm="1">
         <f t="array" ref="AL12">INDEX(Page2!$O$9:$O$38, COLUMN(AL12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM12" s="120" t="e" cm="1">
+      <c r="AM12" s="301" t="e" cm="1">
         <f t="array" ref="AM12">INDEX(Page2!$O$9:$O$38, COLUMN(AM12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN12" s="120" t="e" cm="1">
+      <c r="AN12" s="301" t="e" cm="1">
         <f t="array" ref="AN12">INDEX(Page2!$O$9:$O$38, COLUMN(AN12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO12" s="121" t="e">
+      <c r="AO12" s="302" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP12" s="117" t="e">
+      <c r="AP12" s="297" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ12" s="122" t="e">
+      <c r="AQ12" s="303" t="e">
         <f>MIN((AO12-H12)/(3*AP12), (I12-AO12)/(3*AP12))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR12" s="123" t="e">
+      <c r="AR12" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS12" s="123" t="e">
+      <c r="AS12" s="304" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT12" s="312" t="e">
+      <c r="AT12" s="300" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -18078,165 +18094,165 @@
       <c r="D13" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="113" t="s">
+      <c r="F13" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="114" t="s">
+      <c r="G13" s="294" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="114" t="s">
+      <c r="H13" s="294" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="114" t="s">
+      <c r="I13" s="294" t="s">
         <v>145</v>
       </c>
-      <c r="J13" s="126" t="s">
+      <c r="J13" s="307" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="127" cm="1">
+      <c r="K13" s="308" cm="1">
         <f t="array" ref="K13">INDEX(Page1!$F$8:$F$37, COLUMN(K13)-10)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="127" cm="1">
+      <c r="L13" s="308" cm="1">
         <f t="array" ref="L13">INDEX(Page1!$F$8:$F$37, COLUMN(L13)-10)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="127" cm="1">
+      <c r="M13" s="308" cm="1">
         <f t="array" ref="M13">INDEX(Page1!$F$8:$F$37, COLUMN(M13)-10)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="127" cm="1">
+      <c r="N13" s="308" cm="1">
         <f t="array" ref="N13">INDEX(Page1!$F$8:$F$37, COLUMN(N13)-10)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="127" cm="1">
+      <c r="O13" s="308" cm="1">
         <f t="array" ref="O13">INDEX(Page1!$F$8:$F$37, COLUMN(O13)-10)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="127" cm="1">
+      <c r="P13" s="308" cm="1">
         <f t="array" ref="P13">INDEX(Page1!$F$8:$F$37, COLUMN(P13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="127" cm="1">
+      <c r="Q13" s="308" cm="1">
         <f t="array" ref="Q13">INDEX(Page1!$F$8:$F$37, COLUMN(Q13)-10)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="127" cm="1">
+      <c r="R13" s="308" cm="1">
         <f t="array" ref="R13">INDEX(Page1!$F$8:$F$37, COLUMN(R13)-10)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="127" cm="1">
+      <c r="S13" s="308" cm="1">
         <f t="array" ref="S13">INDEX(Page1!$F$8:$F$37, COLUMN(S13)-10)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="127" cm="1">
+      <c r="T13" s="308" cm="1">
         <f t="array" ref="T13">INDEX(Page1!$F$8:$F$37, COLUMN(T13)-10)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="127" cm="1">
+      <c r="U13" s="308" cm="1">
         <f t="array" ref="U13">INDEX(Page1!$F$8:$F$37, COLUMN(U13)-10)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="127" cm="1">
+      <c r="V13" s="308" cm="1">
         <f t="array" ref="V13">INDEX(Page1!$F$8:$F$37, COLUMN(V13)-10)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="127" cm="1">
+      <c r="W13" s="308" cm="1">
         <f t="array" ref="W13">INDEX(Page1!$F$8:$F$37, COLUMN(W13)-10)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="127" cm="1">
+      <c r="X13" s="308" cm="1">
         <f t="array" ref="X13">INDEX(Page1!$F$8:$F$37, COLUMN(X13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="127" cm="1">
+      <c r="Y13" s="308" cm="1">
         <f t="array" ref="Y13">INDEX(Page1!$F$8:$F$37, COLUMN(Y13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="127" cm="1">
+      <c r="Z13" s="308" cm="1">
         <f t="array" ref="Z13">INDEX(Page1!$F$8:$F$37, COLUMN(Z13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="127" cm="1">
+      <c r="AA13" s="308" cm="1">
         <f t="array" ref="AA13">INDEX(Page1!$F$8:$F$37, COLUMN(AA13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="127" cm="1">
+      <c r="AB13" s="308" cm="1">
         <f t="array" ref="AB13">INDEX(Page1!$F$8:$F$37, COLUMN(AB13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="127" cm="1">
+      <c r="AC13" s="308" cm="1">
         <f t="array" ref="AC13">INDEX(Page1!$F$8:$F$37, COLUMN(AC13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="127" cm="1">
+      <c r="AD13" s="308" cm="1">
         <f t="array" ref="AD13">INDEX(Page1!$F$8:$F$37, COLUMN(AD13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="127" cm="1">
+      <c r="AE13" s="308" cm="1">
         <f t="array" ref="AE13">INDEX(Page1!$F$8:$F$37, COLUMN(AE13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="127" cm="1">
+      <c r="AF13" s="308" cm="1">
         <f t="array" ref="AF13">INDEX(Page1!$F$8:$F$37, COLUMN(AF13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="127" cm="1">
+      <c r="AG13" s="308" cm="1">
         <f t="array" ref="AG13">INDEX(Page1!$F$8:$F$37, COLUMN(AG13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="127" cm="1">
+      <c r="AH13" s="308" cm="1">
         <f t="array" ref="AH13">INDEX(Page1!$F$8:$F$37, COLUMN(AH13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="127" cm="1">
+      <c r="AI13" s="308" cm="1">
         <f t="array" ref="AI13">INDEX(Page1!$F$8:$F$37, COLUMN(AI13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="127" cm="1">
+      <c r="AJ13" s="308" cm="1">
         <f t="array" ref="AJ13">INDEX(Page1!$F$8:$F$37, COLUMN(AJ13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="127" cm="1">
+      <c r="AK13" s="308" cm="1">
         <f t="array" ref="AK13">INDEX(Page1!$F$8:$F$37, COLUMN(AK13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="127" cm="1">
+      <c r="AL13" s="308" cm="1">
         <f t="array" ref="AL13">INDEX(Page1!$F$8:$F$37, COLUMN(AL13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="127" cm="1">
+      <c r="AM13" s="308" cm="1">
         <f t="array" ref="AM13">INDEX(Page1!$F$8:$F$37, COLUMN(AM13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="127" cm="1">
+      <c r="AN13" s="308" cm="1">
         <f t="array" ref="AN13">INDEX(Page1!$F$8:$F$37, COLUMN(AN13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO13" s="128">
+      <c r="AO13" s="309">
         <f>AVERAGE(K13:AN13)</f>
         <v>0</v>
       </c>
-      <c r="AP13" s="117">
+      <c r="AP13" s="297">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ13" s="122" t="e">
+      <c r="AQ13" s="303" t="e">
         <f>MIN((AO13-H13)/(3*AP13), (I13-AO13)/(3*AP13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR13" s="129">
+      <c r="AR13" s="310">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS13" s="129">
+      <c r="AS13" s="310">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT13" s="312" t="e">
+      <c r="AT13" s="300" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -18254,165 +18270,165 @@
       <c r="D14" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="113" t="s">
+      <c r="E14" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="113" t="s">
+      <c r="F14" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="130">
+      <c r="G14" s="311">
         <v>30</v>
       </c>
-      <c r="H14" s="130">
+      <c r="H14" s="311">
         <v>20</v>
       </c>
-      <c r="I14" s="130">
+      <c r="I14" s="311">
         <v>40</v>
       </c>
-      <c r="J14" s="126" t="s">
+      <c r="J14" s="307" t="s">
         <v>103</v>
       </c>
-      <c r="K14" s="120" t="e" cm="1">
+      <c r="K14" s="301" t="e" cm="1">
         <f t="array" ref="K14">INDEX(Page3!$O$9:$O$38, COLUMN(K14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="120" t="e" cm="1">
+      <c r="L14" s="301" t="e" cm="1">
         <f t="array" ref="L14">INDEX(Page3!$O$9:$O$38, COLUMN(L14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="120" t="e" cm="1">
+      <c r="M14" s="301" t="e" cm="1">
         <f t="array" ref="M14">INDEX(Page3!$O$9:$O$38, COLUMN(M14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="120" t="e" cm="1">
+      <c r="N14" s="301" t="e" cm="1">
         <f t="array" ref="N14">INDEX(Page3!$O$9:$O$38, COLUMN(N14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O14" s="120" t="e" cm="1">
+      <c r="O14" s="301" t="e" cm="1">
         <f t="array" ref="O14">INDEX(Page3!$O$9:$O$38, COLUMN(O14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P14" s="120" t="e" cm="1">
+      <c r="P14" s="301" t="e" cm="1">
         <f t="array" ref="P14">INDEX(Page3!$O$9:$O$38, COLUMN(P14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="120" t="e" cm="1">
+      <c r="Q14" s="301" t="e" cm="1">
         <f t="array" ref="Q14">INDEX(Page3!$O$9:$O$38, COLUMN(Q14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R14" s="120" t="e" cm="1">
+      <c r="R14" s="301" t="e" cm="1">
         <f t="array" ref="R14">INDEX(Page3!$O$9:$O$38, COLUMN(R14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S14" s="120" t="e" cm="1">
+      <c r="S14" s="301" t="e" cm="1">
         <f t="array" ref="S14">INDEX(Page3!$O$9:$O$38, COLUMN(S14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T14" s="120" t="e" cm="1">
+      <c r="T14" s="301" t="e" cm="1">
         <f t="array" ref="T14">INDEX(Page3!$O$9:$O$38, COLUMN(T14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U14" s="120" t="e" cm="1">
+      <c r="U14" s="301" t="e" cm="1">
         <f t="array" ref="U14">INDEX(Page3!$O$9:$O$38, COLUMN(U14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V14" s="120" t="e" cm="1">
+      <c r="V14" s="301" t="e" cm="1">
         <f t="array" ref="V14">INDEX(Page3!$O$9:$O$38, COLUMN(V14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W14" s="120" t="e" cm="1">
+      <c r="W14" s="301" t="e" cm="1">
         <f t="array" ref="W14">INDEX(Page3!$O$9:$O$38, COLUMN(W14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X14" s="120" t="e" cm="1">
+      <c r="X14" s="301" t="e" cm="1">
         <f t="array" ref="X14">INDEX(Page3!$O$9:$O$38, COLUMN(X14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y14" s="120" t="e" cm="1">
+      <c r="Y14" s="301" t="e" cm="1">
         <f t="array" ref="Y14">INDEX(Page3!$O$9:$O$38, COLUMN(Y14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z14" s="120" t="e" cm="1">
+      <c r="Z14" s="301" t="e" cm="1">
         <f t="array" ref="Z14">INDEX(Page3!$O$9:$O$38, COLUMN(Z14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA14" s="120" t="e" cm="1">
+      <c r="AA14" s="301" t="e" cm="1">
         <f t="array" ref="AA14">INDEX(Page3!$O$9:$O$38, COLUMN(AA14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB14" s="120" t="e" cm="1">
+      <c r="AB14" s="301" t="e" cm="1">
         <f t="array" ref="AB14">INDEX(Page3!$O$9:$O$38, COLUMN(AB14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC14" s="120" t="e" cm="1">
+      <c r="AC14" s="301" t="e" cm="1">
         <f t="array" ref="AC14">INDEX(Page3!$O$9:$O$38, COLUMN(AC14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="120" t="e" cm="1">
+      <c r="AD14" s="301" t="e" cm="1">
         <f t="array" ref="AD14">INDEX(Page3!$O$9:$O$38, COLUMN(AD14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE14" s="120" t="e" cm="1">
+      <c r="AE14" s="301" t="e" cm="1">
         <f t="array" ref="AE14">INDEX(Page3!$O$9:$O$38, COLUMN(AE14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF14" s="120" t="e" cm="1">
+      <c r="AF14" s="301" t="e" cm="1">
         <f t="array" ref="AF14">INDEX(Page3!$O$9:$O$38, COLUMN(AF14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG14" s="120" t="e" cm="1">
+      <c r="AG14" s="301" t="e" cm="1">
         <f t="array" ref="AG14">INDEX(Page3!$O$9:$O$38, COLUMN(AG14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH14" s="120" t="e" cm="1">
+      <c r="AH14" s="301" t="e" cm="1">
         <f t="array" ref="AH14">INDEX(Page3!$O$9:$O$38, COLUMN(AH14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI14" s="120" t="e" cm="1">
+      <c r="AI14" s="301" t="e" cm="1">
         <f t="array" ref="AI14">INDEX(Page3!$O$9:$O$38, COLUMN(AI14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ14" s="120" t="e" cm="1">
+      <c r="AJ14" s="301" t="e" cm="1">
         <f t="array" ref="AJ14">INDEX(Page3!$O$9:$O$38, COLUMN(AJ14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK14" s="120" t="e" cm="1">
+      <c r="AK14" s="301" t="e" cm="1">
         <f t="array" ref="AK14">INDEX(Page3!$O$9:$O$38, COLUMN(AK14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL14" s="120" t="e" cm="1">
+      <c r="AL14" s="301" t="e" cm="1">
         <f t="array" ref="AL14">INDEX(Page3!$O$9:$O$38, COLUMN(AL14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM14" s="120" t="e" cm="1">
+      <c r="AM14" s="301" t="e" cm="1">
         <f t="array" ref="AM14">INDEX(Page3!$O$9:$O$38, COLUMN(AM14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN14" s="120" t="e" cm="1">
+      <c r="AN14" s="301" t="e" cm="1">
         <f t="array" ref="AN14">INDEX(Page3!$O$9:$O$38, COLUMN(AN14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO14" s="121" t="e">
+      <c r="AO14" s="302" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP14" s="117" t="e">
+      <c r="AP14" s="297" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ14" s="122" t="e">
+      <c r="AQ14" s="303" t="e">
         <f>MIN((AO14-H14)/(3*AP14), (I14-AO14)/(3*AP14))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR14" s="123" t="e">
+      <c r="AR14" s="304" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS14" s="123" t="e">
+      <c r="AS14" s="304" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT14" s="312" t="e">
+      <c r="AT14" s="300" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -18430,165 +18446,165 @@
       <c r="D15" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="113" t="s">
+      <c r="E15" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="113" t="s">
+      <c r="F15" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="114" t="s">
+      <c r="G15" s="294" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="114" t="s">
+      <c r="H15" s="294" t="s">
         <v>150</v>
       </c>
-      <c r="I15" s="114" t="s">
+      <c r="I15" s="294" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="114" t="s">
+      <c r="J15" s="294" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="124" cm="1">
+      <c r="K15" s="305" cm="1">
         <f t="array" ref="K15">INDEX(Page1!$J$8:$J$37, COLUMN(K15)-10)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="124" cm="1">
+      <c r="L15" s="305" cm="1">
         <f t="array" ref="L15">INDEX(Page1!$J$8:$J$37, COLUMN(L15)-10)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="124" cm="1">
+      <c r="M15" s="305" cm="1">
         <f t="array" ref="M15">INDEX(Page1!$J$8:$J$37, COLUMN(M15)-10)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="124" cm="1">
+      <c r="N15" s="305" cm="1">
         <f t="array" ref="N15">INDEX(Page1!$J$8:$J$37, COLUMN(N15)-10)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="124" cm="1">
+      <c r="O15" s="305" cm="1">
         <f t="array" ref="O15">INDEX(Page1!$J$8:$J$37, COLUMN(O15)-10)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="124" cm="1">
+      <c r="P15" s="305" cm="1">
         <f t="array" ref="P15">INDEX(Page1!$J$8:$J$37, COLUMN(P15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="124" cm="1">
+      <c r="Q15" s="305" cm="1">
         <f t="array" ref="Q15">INDEX(Page1!$J$8:$J$37, COLUMN(Q15)-10)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="124" cm="1">
+      <c r="R15" s="305" cm="1">
         <f t="array" ref="R15">INDEX(Page1!$J$8:$J$37, COLUMN(R15)-10)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="124" cm="1">
+      <c r="S15" s="305" cm="1">
         <f t="array" ref="S15">INDEX(Page1!$J$8:$J$37, COLUMN(S15)-10)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="124" cm="1">
+      <c r="T15" s="305" cm="1">
         <f t="array" ref="T15">INDEX(Page1!$J$8:$J$37, COLUMN(T15)-10)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="124" cm="1">
+      <c r="U15" s="305" cm="1">
         <f t="array" ref="U15">INDEX(Page1!$J$8:$J$37, COLUMN(U15)-10)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="124" cm="1">
+      <c r="V15" s="305" cm="1">
         <f t="array" ref="V15">INDEX(Page1!$J$8:$J$37, COLUMN(V15)-10)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="124" cm="1">
+      <c r="W15" s="305" cm="1">
         <f t="array" ref="W15">INDEX(Page1!$J$8:$J$37, COLUMN(W15)-10)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="124" cm="1">
+      <c r="X15" s="305" cm="1">
         <f t="array" ref="X15">INDEX(Page1!$J$8:$J$37, COLUMN(X15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="124" cm="1">
+      <c r="Y15" s="305" cm="1">
         <f t="array" ref="Y15">INDEX(Page1!$J$8:$J$37, COLUMN(Y15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="124" cm="1">
+      <c r="Z15" s="305" cm="1">
         <f t="array" ref="Z15">INDEX(Page1!$J$8:$J$37, COLUMN(Z15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="124" cm="1">
+      <c r="AA15" s="305" cm="1">
         <f t="array" ref="AA15">INDEX(Page1!$J$8:$J$37, COLUMN(AA15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="124" cm="1">
+      <c r="AB15" s="305" cm="1">
         <f t="array" ref="AB15">INDEX(Page1!$J$8:$J$37, COLUMN(AB15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="124" cm="1">
+      <c r="AC15" s="305" cm="1">
         <f t="array" ref="AC15">INDEX(Page1!$J$8:$J$37, COLUMN(AC15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="124" cm="1">
+      <c r="AD15" s="305" cm="1">
         <f t="array" ref="AD15">INDEX(Page1!$J$8:$J$37, COLUMN(AD15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="124" cm="1">
+      <c r="AE15" s="305" cm="1">
         <f t="array" ref="AE15">INDEX(Page1!$J$8:$J$37, COLUMN(AE15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="124" cm="1">
+      <c r="AF15" s="305" cm="1">
         <f t="array" ref="AF15">INDEX(Page1!$J$8:$J$37, COLUMN(AF15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="124" cm="1">
+      <c r="AG15" s="305" cm="1">
         <f t="array" ref="AG15">INDEX(Page1!$J$8:$J$37, COLUMN(AG15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="124" cm="1">
+      <c r="AH15" s="305" cm="1">
         <f t="array" ref="AH15">INDEX(Page1!$J$8:$J$37, COLUMN(AH15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="124" cm="1">
+      <c r="AI15" s="305" cm="1">
         <f t="array" ref="AI15">INDEX(Page1!$J$8:$J$37, COLUMN(AI15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="124" cm="1">
+      <c r="AJ15" s="305" cm="1">
         <f t="array" ref="AJ15">INDEX(Page1!$J$8:$J$37, COLUMN(AJ15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="124" cm="1">
+      <c r="AK15" s="305" cm="1">
         <f t="array" ref="AK15">INDEX(Page1!$J$8:$J$37, COLUMN(AK15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="124" cm="1">
+      <c r="AL15" s="305" cm="1">
         <f t="array" ref="AL15">INDEX(Page1!$J$8:$J$37, COLUMN(AL15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="124" cm="1">
+      <c r="AM15" s="305" cm="1">
         <f t="array" ref="AM15">INDEX(Page1!$J$8:$J$37, COLUMN(AM15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="124" cm="1">
+      <c r="AN15" s="305" cm="1">
         <f t="array" ref="AN15">INDEX(Page1!$J$8:$J$37, COLUMN(AN15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO15" s="125">
+      <c r="AO15" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP15" s="117">
+      <c r="AP15" s="297">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="118" t="e">
+      <c r="AQ15" s="298" t="e">
         <f>MIN((AO15-H15)/(3*AP15), (I15-AO15)/(3*AP15))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR15" s="117">
+      <c r="AR15" s="297">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS15" s="117">
+      <c r="AS15" s="297">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT15" s="312" t="e">
+      <c r="AT15" s="300" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -18606,163 +18622,163 @@
       <c r="D16" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="113" t="s">
+      <c r="E16" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="114" t="s">
+      <c r="G16" s="294" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114" t="s">
+      <c r="H16" s="294"/>
+      <c r="I16" s="294" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="114" t="s">
+      <c r="J16" s="294" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="124" cm="1">
+      <c r="K16" s="305" cm="1">
         <f t="array" ref="K16">INDEX(Page1!$O$8:$O$37, COLUMN(K16)-10)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="124" cm="1">
+      <c r="L16" s="305" cm="1">
         <f t="array" ref="L16">INDEX(Page1!$O$8:$O$37, COLUMN(L16)-10)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="124" cm="1">
+      <c r="M16" s="305" cm="1">
         <f t="array" ref="M16">INDEX(Page1!$O$8:$O$37, COLUMN(M16)-10)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="124" cm="1">
+      <c r="N16" s="305" cm="1">
         <f t="array" ref="N16">INDEX(Page1!$O$8:$O$37, COLUMN(N16)-10)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="124" cm="1">
+      <c r="O16" s="305" cm="1">
         <f t="array" ref="O16">INDEX(Page1!$O$8:$O$37, COLUMN(O16)-10)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="124" cm="1">
+      <c r="P16" s="305" cm="1">
         <f t="array" ref="P16">INDEX(Page1!$O$8:$O$37, COLUMN(P16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="124" cm="1">
+      <c r="Q16" s="305" cm="1">
         <f t="array" ref="Q16">INDEX(Page1!$O$8:$O$37, COLUMN(Q16)-10)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="124" cm="1">
+      <c r="R16" s="305" cm="1">
         <f t="array" ref="R16">INDEX(Page1!$O$8:$O$37, COLUMN(R16)-10)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="124" cm="1">
+      <c r="S16" s="305" cm="1">
         <f t="array" ref="S16">INDEX(Page1!$O$8:$O$37, COLUMN(S16)-10)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="124" cm="1">
+      <c r="T16" s="305" cm="1">
         <f t="array" ref="T16">INDEX(Page1!$O$8:$O$37, COLUMN(T16)-10)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="124" cm="1">
+      <c r="U16" s="305" cm="1">
         <f t="array" ref="U16">INDEX(Page1!$O$8:$O$37, COLUMN(U16)-10)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="124" cm="1">
+      <c r="V16" s="305" cm="1">
         <f t="array" ref="V16">INDEX(Page1!$O$8:$O$37, COLUMN(V16)-10)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="124" cm="1">
+      <c r="W16" s="305" cm="1">
         <f t="array" ref="W16">INDEX(Page1!$O$8:$O$37, COLUMN(W16)-10)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="124" cm="1">
+      <c r="X16" s="305" cm="1">
         <f t="array" ref="X16">INDEX(Page1!$O$8:$O$37, COLUMN(X16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="124" cm="1">
+      <c r="Y16" s="305" cm="1">
         <f t="array" ref="Y16">INDEX(Page1!$O$8:$O$37, COLUMN(Y16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="124" cm="1">
+      <c r="Z16" s="305" cm="1">
         <f t="array" ref="Z16">INDEX(Page1!$O$8:$O$37, COLUMN(Z16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="124" cm="1">
+      <c r="AA16" s="305" cm="1">
         <f t="array" ref="AA16">INDEX(Page1!$O$8:$O$37, COLUMN(AA16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="124" cm="1">
+      <c r="AB16" s="305" cm="1">
         <f t="array" ref="AB16">INDEX(Page1!$O$8:$O$37, COLUMN(AB16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="124" cm="1">
+      <c r="AC16" s="305" cm="1">
         <f t="array" ref="AC16">INDEX(Page1!$O$8:$O$37, COLUMN(AC16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="124" cm="1">
+      <c r="AD16" s="305" cm="1">
         <f t="array" ref="AD16">INDEX(Page1!$O$8:$O$37, COLUMN(AD16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="124" cm="1">
+      <c r="AE16" s="305" cm="1">
         <f t="array" ref="AE16">INDEX(Page1!$O$8:$O$37, COLUMN(AE16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="124" cm="1">
+      <c r="AF16" s="305" cm="1">
         <f t="array" ref="AF16">INDEX(Page1!$O$8:$O$37, COLUMN(AF16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="124" cm="1">
+      <c r="AG16" s="305" cm="1">
         <f t="array" ref="AG16">INDEX(Page1!$O$8:$O$37, COLUMN(AG16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="124" cm="1">
+      <c r="AH16" s="305" cm="1">
         <f t="array" ref="AH16">INDEX(Page1!$O$8:$O$37, COLUMN(AH16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="124" cm="1">
+      <c r="AI16" s="305" cm="1">
         <f t="array" ref="AI16">INDEX(Page1!$O$8:$O$37, COLUMN(AI16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="124" cm="1">
+      <c r="AJ16" s="305" cm="1">
         <f t="array" ref="AJ16">INDEX(Page1!$O$8:$O$37, COLUMN(AJ16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="124" cm="1">
+      <c r="AK16" s="305" cm="1">
         <f t="array" ref="AK16">INDEX(Page1!$O$8:$O$37, COLUMN(AK16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="124" cm="1">
+      <c r="AL16" s="305" cm="1">
         <f t="array" ref="AL16">INDEX(Page1!$O$8:$O$37, COLUMN(AL16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="124" cm="1">
+      <c r="AM16" s="305" cm="1">
         <f t="array" ref="AM16">INDEX(Page1!$O$8:$O$37, COLUMN(AM16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="124" cm="1">
+      <c r="AN16" s="305" cm="1">
         <f t="array" ref="AN16">INDEX(Page1!$O$8:$O$37, COLUMN(AN16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO16" s="125">
+      <c r="AO16" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP16" s="117">
+      <c r="AP16" s="297">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ16" s="122" t="e">
+      <c r="AQ16" s="303" t="e">
         <f>(I16-AO16)/(3*AP16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR16" s="117">
+      <c r="AR16" s="297">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS16" s="117">
+      <c r="AS16" s="297">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT16" s="312" t="e">
+      <c r="AT16" s="300" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>

--- a/backend/templates/168-16cp-kranti.xlsx
+++ b/backend/templates/168-16cp-kranti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E4527E-74F0-4C03-8A14-F0F867521879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F88B26-A1D6-4EB8-BBF9-3397E58700ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1431,7 +1434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1788,6 +1791,276 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1842,181 +2115,155 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2062,155 +2309,53 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2218,6 +2363,9 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2263,61 +2411,90 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2330,177 +2507,7 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2939,7 +2946,7 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2951,161 +2958,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="163" t="s">
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="163"/>
+      <c r="O1" s="170"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="164" t="s">
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="164"/>
+      <c r="O2" s="171"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
       <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="154" t="s">
+      <c r="B4" s="161"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="154"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="147"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="154"/>
       <c r="J4" s="29" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="87"/>
-      <c r="L4" s="161" t="s">
+      <c r="L4" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="162"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="152"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="159"/>
     </row>
     <row r="5" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="156" t="s">
+      <c r="B5" s="163"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="156"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="150"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="157"/>
       <c r="J5" s="60" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="88"/>
-      <c r="L5" s="159" t="s">
+      <c r="L5" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="160"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="158"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="165"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="134"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="180"/>
     </row>
     <row r="7" spans="1:15" s="62" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A7" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="168"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="168" t="s">
+      <c r="A7" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="144"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168" t="s">
+      <c r="E7" s="144"/>
+      <c r="F7" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="168"/>
-      <c r="H7" s="169" t="s">
+      <c r="G7" s="144"/>
+      <c r="H7" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="171"/>
-      <c r="J7" s="169" t="s">
+      <c r="I7" s="147"/>
+      <c r="J7" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="171"/>
-      <c r="L7" s="168" t="s">
+      <c r="K7" s="147"/>
+      <c r="L7" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="168"/>
+      <c r="M7" s="144"/>
       <c r="N7" s="93" t="s">
         <v>30</v>
       </c>
@@ -3117,16 +3124,16 @@
       <c r="A8" s="55"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
       <c r="N8" s="84"/>
       <c r="O8" s="49"/>
     </row>
@@ -3134,16 +3141,16 @@
       <c r="A9" s="55"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
       <c r="N9" s="82"/>
       <c r="O9" s="50"/>
     </row>
@@ -3151,16 +3158,16 @@
       <c r="A10" s="55"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
       <c r="N10" s="82"/>
       <c r="O10" s="50"/>
     </row>
@@ -3168,16 +3175,16 @@
       <c r="A11" s="55"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
       <c r="N11" s="84"/>
       <c r="O11" s="49"/>
     </row>
@@ -3185,16 +3192,16 @@
       <c r="A12" s="55"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
       <c r="N12" s="82"/>
       <c r="O12" s="50"/>
     </row>
@@ -3202,16 +3209,16 @@
       <c r="A13" s="55"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
       <c r="N13" s="82"/>
       <c r="O13" s="50"/>
     </row>
@@ -3219,16 +3226,16 @@
       <c r="A14" s="55"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
       <c r="N14" s="82"/>
       <c r="O14" s="50"/>
     </row>
@@ -3236,16 +3243,16 @@
       <c r="A15" s="55"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
       <c r="N15" s="82"/>
       <c r="O15" s="50"/>
     </row>
@@ -3253,16 +3260,16 @@
       <c r="A16" s="55"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
       <c r="N16" s="82"/>
       <c r="O16" s="50"/>
     </row>
@@ -3270,16 +3277,16 @@
       <c r="A17" s="55"/>
       <c r="B17" s="57"/>
       <c r="C17" s="56"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
       <c r="N17" s="82"/>
       <c r="O17" s="50"/>
     </row>
@@ -3287,16 +3294,16 @@
       <c r="A18" s="55"/>
       <c r="B18" s="57"/>
       <c r="C18" s="56"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
       <c r="N18" s="82"/>
       <c r="O18" s="50"/>
     </row>
@@ -3304,16 +3311,16 @@
       <c r="A19" s="55"/>
       <c r="B19" s="57"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
       <c r="N19" s="82"/>
       <c r="O19" s="50"/>
     </row>
@@ -3321,16 +3328,16 @@
       <c r="A20" s="55"/>
       <c r="B20" s="57"/>
       <c r="C20" s="56"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
       <c r="N20" s="82"/>
       <c r="O20" s="50"/>
     </row>
@@ -3338,16 +3345,16 @@
       <c r="A21" s="55"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
       <c r="N21" s="84"/>
       <c r="O21" s="49"/>
     </row>
@@ -3355,16 +3362,16 @@
       <c r="A22" s="55"/>
       <c r="B22" s="57"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
       <c r="N22" s="82"/>
       <c r="O22" s="50"/>
     </row>
@@ -3372,16 +3379,16 @@
       <c r="A23" s="55"/>
       <c r="B23" s="57"/>
       <c r="C23" s="56"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
       <c r="N23" s="82"/>
       <c r="O23" s="50"/>
     </row>
@@ -3389,16 +3396,16 @@
       <c r="A24" s="55"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
       <c r="N24" s="84"/>
       <c r="O24" s="49"/>
     </row>
@@ -3406,16 +3413,16 @@
       <c r="A25" s="55"/>
       <c r="B25" s="57"/>
       <c r="C25" s="56"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="127"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="139"/>
       <c r="N25" s="82"/>
       <c r="O25" s="50"/>
     </row>
@@ -3423,16 +3430,16 @@
       <c r="A26" s="55"/>
       <c r="B26" s="57"/>
       <c r="C26" s="56"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
       <c r="N26" s="82"/>
       <c r="O26" s="50"/>
     </row>
@@ -3440,16 +3447,16 @@
       <c r="A27" s="55"/>
       <c r="B27" s="57"/>
       <c r="C27" s="56"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="127"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="139"/>
       <c r="N27" s="82"/>
       <c r="O27" s="50"/>
     </row>
@@ -3457,16 +3464,16 @@
       <c r="A28" s="55"/>
       <c r="B28" s="57"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
       <c r="N28" s="82"/>
       <c r="O28" s="50"/>
     </row>
@@ -3474,16 +3481,16 @@
       <c r="A29" s="55"/>
       <c r="B29" s="57"/>
       <c r="C29" s="56"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="139"/>
       <c r="N29" s="82"/>
       <c r="O29" s="50"/>
     </row>
@@ -3491,16 +3498,16 @@
       <c r="A30" s="55"/>
       <c r="B30" s="57"/>
       <c r="C30" s="56"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="123"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139"/>
       <c r="N30" s="82"/>
       <c r="O30" s="50"/>
     </row>
@@ -3508,16 +3515,16 @@
       <c r="A31" s="55"/>
       <c r="B31" s="57"/>
       <c r="C31" s="56"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="139"/>
       <c r="N31" s="82"/>
       <c r="O31" s="50"/>
     </row>
@@ -3525,16 +3532,16 @@
       <c r="A32" s="55"/>
       <c r="B32" s="57"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="139"/>
       <c r="N32" s="82"/>
       <c r="O32" s="50"/>
     </row>
@@ -3542,16 +3549,16 @@
       <c r="A33" s="55"/>
       <c r="B33" s="57"/>
       <c r="C33" s="56"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="127"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="139"/>
       <c r="N33" s="82"/>
       <c r="O33" s="50"/>
     </row>
@@ -3559,16 +3566,16 @@
       <c r="A34" s="55"/>
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="134"/>
       <c r="N34" s="84"/>
       <c r="O34" s="49"/>
     </row>
@@ -3576,16 +3583,16 @@
       <c r="A35" s="55"/>
       <c r="B35" s="57"/>
       <c r="C35" s="56"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="135"/>
+      <c r="L35" s="139"/>
+      <c r="M35" s="139"/>
       <c r="N35" s="82"/>
       <c r="O35" s="50"/>
     </row>
@@ -3593,16 +3600,16 @@
       <c r="A36" s="55"/>
       <c r="B36" s="57"/>
       <c r="C36" s="56"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="135"/>
+      <c r="L36" s="139"/>
+      <c r="M36" s="139"/>
       <c r="N36" s="82"/>
       <c r="O36" s="50"/>
     </row>
@@ -3610,50 +3617,50 @@
       <c r="A37" s="55"/>
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="132"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="130"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
       <c r="N37" s="84"/>
       <c r="O37" s="49"/>
     </row>
     <row r="38" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="111" t="s">
+      <c r="A38" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="105" t="e">
+      <c r="B38" s="188"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="181" t="e">
         <f>AVERAGE(D8:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="105"/>
-      <c r="F38" s="117" t="e">
+      <c r="E38" s="181"/>
+      <c r="F38" s="193" t="e">
         <f t="shared" ref="F38" si="0">AVERAGE(F8:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="117"/>
-      <c r="H38" s="120" t="e">
+      <c r="G38" s="193"/>
+      <c r="H38" s="196" t="e">
         <f t="shared" ref="H38" si="1">AVERAGE(H8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="120"/>
-      <c r="J38" s="105" t="e">
+      <c r="I38" s="196"/>
+      <c r="J38" s="181" t="e">
         <f t="shared" ref="J38" si="2">AVERAGE(J8:K37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="105"/>
-      <c r="L38" s="108" t="e">
+      <c r="K38" s="181"/>
+      <c r="L38" s="184" t="e">
         <f t="shared" ref="L38" si="3">AVERAGE(L8:M37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="108"/>
+      <c r="M38" s="184"/>
       <c r="N38" s="79" t="e">
         <f>AVERAGE(N8:N37)</f>
         <v>#DIV/0!</v>
@@ -3664,36 +3671,36 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="113" t="s">
+      <c r="A39" s="189" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="106">
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="182">
         <f>MIN(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="106"/>
-      <c r="F39" s="118">
+      <c r="E39" s="182"/>
+      <c r="F39" s="194">
         <f t="shared" ref="F39" si="4">MIN(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="118"/>
-      <c r="H39" s="121">
+      <c r="G39" s="194"/>
+      <c r="H39" s="197">
         <f t="shared" ref="H39" si="5">MIN(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="121"/>
-      <c r="J39" s="106">
+      <c r="I39" s="197"/>
+      <c r="J39" s="182">
         <f t="shared" ref="J39" si="6">MIN(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="106"/>
-      <c r="L39" s="109">
+      <c r="K39" s="182"/>
+      <c r="L39" s="185">
         <f t="shared" ref="L39" si="7">MIN(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="109"/>
+      <c r="M39" s="185"/>
       <c r="N39" s="80">
         <f>MIN(N8:N37)</f>
         <v>0</v>
@@ -3704,36 +3711,36 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="115" t="s">
+      <c r="A40" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="107">
+      <c r="B40" s="192"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="183">
         <f>MAX(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="107"/>
-      <c r="F40" s="119">
+      <c r="E40" s="183"/>
+      <c r="F40" s="195">
         <f t="shared" ref="F40" si="8">MAX(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="119"/>
-      <c r="H40" s="122">
+      <c r="G40" s="195"/>
+      <c r="H40" s="198">
         <f t="shared" ref="H40" si="9">MAX(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="122"/>
-      <c r="J40" s="107">
+      <c r="I40" s="198"/>
+      <c r="J40" s="183">
         <f t="shared" ref="J40" si="10">MAX(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="107"/>
-      <c r="L40" s="110">
+      <c r="K40" s="183"/>
+      <c r="L40" s="186">
         <f t="shared" ref="L40" si="11">MAX(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="110"/>
+      <c r="M40" s="186"/>
       <c r="N40" s="81">
         <f>MAX(N8:N37)</f>
         <v>0</v>
@@ -3747,31 +3754,31 @@
       <c r="A41" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="141" t="s">
+      <c r="B41" s="175"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="141"/>
+      <c r="E41" s="178"/>
       <c r="F41" s="51"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
-      <c r="K41" s="135" t="s">
+      <c r="K41" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="135"/>
-      <c r="M41" s="137"/>
-      <c r="N41" s="137"/>
+      <c r="L41" s="172"/>
+      <c r="M41" s="174"/>
+      <c r="N41" s="174"/>
       <c r="O41" s="70" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="70"/>
-      <c r="B42" s="142"/>
-      <c r="C42" s="142"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="70"/>
@@ -3781,38 +3788,38 @@
       <c r="J42" s="52"/>
       <c r="K42" s="85"/>
       <c r="L42" s="85"/>
-      <c r="M42" s="137"/>
-      <c r="N42" s="137"/>
+      <c r="M42" s="174"/>
+      <c r="N42" s="174"/>
       <c r="O42" s="85"/>
     </row>
     <row r="43" spans="1:15" s="38" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="139" t="s">
+      <c r="A43" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="139"/>
-      <c r="C43" s="70"/>
+      <c r="B43" s="176"/>
+      <c r="C43" s="176"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="139" t="s">
+      <c r="H43" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="139"/>
+      <c r="I43" s="176"/>
+      <c r="J43" s="176"/>
+      <c r="K43" s="176"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="140" t="s">
+      <c r="A44" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="140"/>
+      <c r="B44" s="177"/>
       <c r="C44" s="86"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -3855,49 +3862,241 @@
       <c r="M52" s="54"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="136"/>
-      <c r="D76" s="136"/>
-      <c r="E76" s="136"/>
-      <c r="I76" s="136"/>
-      <c r="J76" s="136"/>
-      <c r="K76" s="136"/>
-      <c r="L76" s="136"/>
-      <c r="M76" s="136"/>
-      <c r="N76" s="136"/>
-      <c r="O76" s="136"/>
+      <c r="C76" s="173"/>
+      <c r="D76" s="173"/>
+      <c r="E76" s="173"/>
+      <c r="I76" s="173"/>
+      <c r="J76" s="173"/>
+      <c r="K76" s="173"/>
+      <c r="L76" s="173"/>
+      <c r="M76" s="173"/>
+      <c r="N76" s="173"/>
+      <c r="O76" s="173"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="136"/>
-      <c r="D77" s="136"/>
-      <c r="E77" s="136"/>
-      <c r="F77" s="136"/>
-      <c r="I77" s="136"/>
-      <c r="J77" s="136"/>
-      <c r="K77" s="136"/>
-      <c r="L77" s="136"/>
-      <c r="M77" s="136"/>
-      <c r="N77" s="136"/>
-      <c r="O77" s="136"/>
+      <c r="C77" s="173"/>
+      <c r="D77" s="173"/>
+      <c r="E77" s="173"/>
+      <c r="F77" s="173"/>
+      <c r="I77" s="173"/>
+      <c r="J77" s="173"/>
+      <c r="K77" s="173"/>
+      <c r="L77" s="173"/>
+      <c r="M77" s="173"/>
+      <c r="N77" s="173"/>
+      <c r="O77" s="173"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="136"/>
-      <c r="D78" s="136"/>
-      <c r="E78" s="136"/>
-      <c r="I78" s="136"/>
-      <c r="J78" s="136"/>
-      <c r="K78" s="136"/>
-      <c r="L78" s="136"/>
-      <c r="M78" s="136"/>
-      <c r="N78" s="136"/>
-      <c r="O78" s="136"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
+      <c r="E78" s="173"/>
+      <c r="I78" s="173"/>
+      <c r="J78" s="173"/>
+      <c r="K78" s="173"/>
+      <c r="L78" s="173"/>
+      <c r="M78" s="173"/>
+      <c r="N78" s="173"/>
+      <c r="O78" s="173"/>
     </row>
     <row r="79" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C79" s="136"/>
-      <c r="D79" s="136"/>
-      <c r="E79" s="136"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="173"/>
+      <c r="E79" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
@@ -3922,198 +4121,6 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D8:E40">
@@ -4163,14 +4170,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:O7 A1:M3 N1:O2 A4:B5 F4:G5 J4:J5 L4:M5 N3 A41:A42 A43:O44 O41:O42 K41:L42 D41:E42 A6:C6 A38:O40" xr:uid="{B9EF1D55-A16F-4117-9DDB-4BCD7891BC4B}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:O7 A1:M3 N1:O2 A4:B5 F4:G5 J4:J5 L4:M5 N3 A41:A42 A38:O40 O41:O42 K41:L42 D41:E42 A6:C6 A43:A44 D43:O44 B44:C44" xr:uid="{B9EF1D55-A16F-4117-9DDB-4BCD7891BC4B}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" sqref="Q29" xr:uid="{21AD56C4-EF69-441B-AE58-CE11BA553153}"/>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4182,7 +4189,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4193,61 +4200,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="163" t="s">
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="163"/>
+      <c r="O1" s="170"/>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="164" t="s">
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="164"/>
+      <c r="O2" s="171"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="214"/>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
+      <c r="A3" s="207"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -4257,124 +4264,124 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="215">
+      <c r="B4" s="208">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="161" t="s">
+      <c r="C4" s="209"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="162"/>
-      <c r="G4" s="215">
+      <c r="F4" s="169"/>
+      <c r="G4" s="208">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="210"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="218">
+      <c r="J4" s="211">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="218"/>
-      <c r="L4" s="154" t="s">
+      <c r="K4" s="211"/>
+      <c r="L4" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="154"/>
-      <c r="N4" s="215">
+      <c r="M4" s="161"/>
+      <c r="N4" s="208">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="219"/>
+      <c r="O4" s="212"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="133">
+      <c r="B5" s="142">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="183" t="s">
+      <c r="C5" s="246"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="184"/>
-      <c r="G5" s="133">
+      <c r="F5" s="248"/>
+      <c r="G5" s="142">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="170"/>
+      <c r="H5" s="146"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="166">
+      <c r="J5" s="141">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="166"/>
-      <c r="L5" s="181" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="181"/>
-      <c r="N5" s="133">
+      <c r="M5" s="245"/>
+      <c r="N5" s="142">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="134"/>
+      <c r="O5" s="180"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="180"/>
+      <c r="B6" s="243"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="243"/>
+      <c r="J6" s="243"/>
+      <c r="K6" s="243"/>
+      <c r="L6" s="243"/>
+      <c r="M6" s="243"/>
+      <c r="N6" s="243"/>
+      <c r="O6" s="244"/>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="188"/>
-      <c r="C7" s="221"/>
-      <c r="D7" s="174" t="s">
+      <c r="A7" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="214"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="175" t="s">
+      <c r="E7" s="238"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="239" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="175" t="s">
+      <c r="I7" s="240"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="241"/>
+      <c r="L7" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="176"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="185"/>
+      <c r="M7" s="240"/>
+      <c r="N7" s="240"/>
+      <c r="O7" s="249"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="222"/>
-      <c r="B8" s="223"/>
-      <c r="C8" s="224"/>
+      <c r="A8" s="216"/>
+      <c r="B8" s="217"/>
+      <c r="C8" s="218"/>
       <c r="D8" s="10">
         <v>1</v>
       </c>
@@ -5468,27 +5475,27 @@
       <c r="C39" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="206" t="e">
+      <c r="D39" s="199" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="207"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="208"/>
-      <c r="H39" s="209" t="e">
+      <c r="E39" s="200"/>
+      <c r="F39" s="200"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="202" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="210"/>
-      <c r="J39" s="210"/>
-      <c r="K39" s="211"/>
-      <c r="L39" s="209" t="e">
+      <c r="I39" s="203"/>
+      <c r="J39" s="203"/>
+      <c r="K39" s="204"/>
+      <c r="L39" s="202" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="210"/>
-      <c r="N39" s="210"/>
-      <c r="O39" s="212"/>
+      <c r="M39" s="203"/>
+      <c r="N39" s="203"/>
+      <c r="O39" s="205"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="16"/>
@@ -5496,27 +5503,27 @@
       <c r="C40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="189" t="e">
+      <c r="D40" s="221" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="190"/>
-      <c r="F40" s="190"/>
-      <c r="G40" s="191"/>
-      <c r="H40" s="192" t="e">
+      <c r="E40" s="222"/>
+      <c r="F40" s="222"/>
+      <c r="G40" s="223"/>
+      <c r="H40" s="224" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="193"/>
-      <c r="J40" s="193"/>
-      <c r="K40" s="194"/>
-      <c r="L40" s="192" t="e">
+      <c r="I40" s="225"/>
+      <c r="J40" s="225"/>
+      <c r="K40" s="226"/>
+      <c r="L40" s="224" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="193"/>
-      <c r="N40" s="193"/>
-      <c r="O40" s="195"/>
+      <c r="M40" s="225"/>
+      <c r="N40" s="225"/>
+      <c r="O40" s="227"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -5524,57 +5531,57 @@
       <c r="C41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="196" t="e">
+      <c r="D41" s="228" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="197"/>
-      <c r="F41" s="197"/>
-      <c r="G41" s="198"/>
-      <c r="H41" s="199" t="e">
+      <c r="E41" s="229"/>
+      <c r="F41" s="229"/>
+      <c r="G41" s="230"/>
+      <c r="H41" s="231" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="200"/>
-      <c r="J41" s="200"/>
-      <c r="K41" s="201"/>
-      <c r="L41" s="199" t="e">
+      <c r="I41" s="232"/>
+      <c r="J41" s="232"/>
+      <c r="K41" s="233"/>
+      <c r="L41" s="231" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="200"/>
-      <c r="N41" s="200"/>
-      <c r="O41" s="202"/>
+      <c r="M41" s="232"/>
+      <c r="N41" s="232"/>
+      <c r="O41" s="234"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="203"/>
-      <c r="C42" s="203"/>
-      <c r="D42" s="204" t="s">
+      <c r="B42" s="235"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
+      <c r="E42" s="236"/>
+      <c r="F42" s="236"/>
+      <c r="G42" s="236"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="187" t="s">
+      <c r="K42" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="187"/>
-      <c r="M42" s="203"/>
-      <c r="N42" s="203"/>
+      <c r="L42" s="220"/>
+      <c r="M42" s="235"/>
+      <c r="N42" s="235"/>
       <c r="O42" s="92" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="142"/>
-      <c r="C43" s="142"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="179"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -5584,16 +5591,16 @@
       <c r="J43" s="52"/>
       <c r="K43" s="85"/>
       <c r="L43" s="85"/>
-      <c r="M43" s="205"/>
-      <c r="N43" s="205"/>
+      <c r="M43" s="237"/>
+      <c r="N43" s="237"/>
       <c r="O43" s="85"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="186" t="s">
+      <c r="A44" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="186"/>
-      <c r="C44" s="21"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="219"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -5601,23 +5608,23 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="139" t="str">
+      <c r="H44" s="176" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="139"/>
+      <c r="I44" s="176"/>
+      <c r="J44" s="176"/>
+      <c r="K44" s="176"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A45" s="186" t="s">
+      <c r="A45" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="186"/>
+      <c r="B45" s="219"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -5629,13 +5636,38 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="188" t="s">
+      <c r="N45" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="188"/>
+      <c r="O45" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:O39"/>
@@ -5652,31 +5684,6 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
@@ -5695,13 +5702,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 A4:A5 E4:F5 I4:I5 L4:M5 D7:O8 N3 A42:A43 A6:C38 G9:G38 K9:K37 O9:O38 B39:O41 D42:G42 A44:O45 K42:L43 N1:O2 O42:O43 D43:E43" xr:uid="{79A37009-73BA-4BD0-957E-E0ABFFA9F858}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 A4:A5 E4:F5 I4:I5 L4:M5 D7:O8 N3 A42:A43 A6:C38 G9:G38 K9:K37 O9:O38 B39:O41 D42:G42 D43:E43 K42:L43 N1:O2 O42:O43 A44:A45 D44:O45 B45:C45" xr:uid="{79A37009-73BA-4BD0-957E-E0ABFFA9F858}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5713,7 +5720,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5724,61 +5731,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="163" t="s">
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="163"/>
+      <c r="O1" s="170"/>
     </row>
     <row r="2" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="164" t="s">
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="164"/>
+      <c r="O2" s="171"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -5788,124 +5795,124 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="215">
+      <c r="B4" s="208">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="161" t="s">
+      <c r="C4" s="209"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="162"/>
-      <c r="G4" s="215">
+      <c r="F4" s="169"/>
+      <c r="G4" s="208">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="210"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="218">
+      <c r="J4" s="211">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="218"/>
-      <c r="L4" s="154" t="s">
+      <c r="K4" s="211"/>
+      <c r="L4" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="154"/>
-      <c r="N4" s="215">
+      <c r="M4" s="161"/>
+      <c r="N4" s="208">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="219"/>
+      <c r="O4" s="212"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="133">
+      <c r="B5" s="142">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="183" t="s">
+      <c r="C5" s="246"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="184"/>
-      <c r="G5" s="133">
+      <c r="F5" s="248"/>
+      <c r="G5" s="142">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="170"/>
+      <c r="H5" s="146"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="166">
+      <c r="J5" s="141">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="166"/>
-      <c r="L5" s="181" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="181"/>
-      <c r="N5" s="133">
+      <c r="M5" s="245"/>
+      <c r="N5" s="142">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="134"/>
+      <c r="O5" s="180"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="243"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="251"/>
     </row>
     <row r="7" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="244" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="250" t="s">
+      <c r="A7" s="252" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="253"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="250"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="250"/>
-      <c r="H7" s="251" t="s">
+      <c r="E7" s="258"/>
+      <c r="F7" s="258"/>
+      <c r="G7" s="258"/>
+      <c r="H7" s="259" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="252"/>
-      <c r="J7" s="252"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="251" t="s">
+      <c r="I7" s="260"/>
+      <c r="J7" s="260"/>
+      <c r="K7" s="261"/>
+      <c r="L7" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="252"/>
-      <c r="N7" s="252"/>
-      <c r="O7" s="254"/>
+      <c r="M7" s="260"/>
+      <c r="N7" s="260"/>
+      <c r="O7" s="262"/>
     </row>
     <row r="8" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="247"/>
-      <c r="B8" s="248"/>
-      <c r="C8" s="249"/>
+      <c r="A8" s="255"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="257"/>
       <c r="D8" s="90">
         <v>1</v>
       </c>
@@ -6999,27 +7006,27 @@
       <c r="C39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="228" t="e">
+      <c r="D39" s="270" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="229"/>
-      <c r="F39" s="229"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="231" t="e">
+      <c r="E39" s="271"/>
+      <c r="F39" s="271"/>
+      <c r="G39" s="272"/>
+      <c r="H39" s="273" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="232"/>
-      <c r="J39" s="232"/>
-      <c r="K39" s="233"/>
-      <c r="L39" s="231" t="e">
+      <c r="I39" s="274"/>
+      <c r="J39" s="274"/>
+      <c r="K39" s="275"/>
+      <c r="L39" s="273" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="232"/>
-      <c r="N39" s="232"/>
-      <c r="O39" s="234"/>
+      <c r="M39" s="274"/>
+      <c r="N39" s="274"/>
+      <c r="O39" s="276"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="39"/>
@@ -7027,27 +7034,27 @@
       <c r="C40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="235" t="e">
+      <c r="D40" s="277" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="236"/>
-      <c r="F40" s="236"/>
-      <c r="G40" s="237"/>
-      <c r="H40" s="238" t="e">
+      <c r="E40" s="278"/>
+      <c r="F40" s="278"/>
+      <c r="G40" s="279"/>
+      <c r="H40" s="280" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="239"/>
-      <c r="J40" s="239"/>
-      <c r="K40" s="240"/>
-      <c r="L40" s="238" t="e">
+      <c r="I40" s="281"/>
+      <c r="J40" s="281"/>
+      <c r="K40" s="282"/>
+      <c r="L40" s="280" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="239"/>
-      <c r="N40" s="239"/>
-      <c r="O40" s="241"/>
+      <c r="M40" s="281"/>
+      <c r="N40" s="281"/>
+      <c r="O40" s="283"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="41"/>
@@ -7055,57 +7062,57 @@
       <c r="C41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="255" t="e">
+      <c r="D41" s="263" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="256"/>
-      <c r="F41" s="256"/>
-      <c r="G41" s="257"/>
-      <c r="H41" s="225" t="e">
+      <c r="E41" s="264"/>
+      <c r="F41" s="264"/>
+      <c r="G41" s="265"/>
+      <c r="H41" s="266" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="226"/>
-      <c r="J41" s="226"/>
-      <c r="K41" s="258"/>
-      <c r="L41" s="225" t="e">
+      <c r="I41" s="267"/>
+      <c r="J41" s="267"/>
+      <c r="K41" s="268"/>
+      <c r="L41" s="266" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="226"/>
-      <c r="N41" s="226"/>
-      <c r="O41" s="227"/>
+      <c r="M41" s="267"/>
+      <c r="N41" s="267"/>
+      <c r="O41" s="269"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="203"/>
-      <c r="C42" s="203"/>
-      <c r="D42" s="204" t="s">
+      <c r="B42" s="235"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
+      <c r="E42" s="236"/>
+      <c r="F42" s="236"/>
+      <c r="G42" s="236"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="187" t="s">
+      <c r="K42" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="187"/>
-      <c r="M42" s="203"/>
-      <c r="N42" s="203"/>
+      <c r="L42" s="220"/>
+      <c r="M42" s="235"/>
+      <c r="N42" s="235"/>
       <c r="O42" s="92" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="142"/>
-      <c r="C43" s="142"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="179"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -7115,16 +7122,16 @@
       <c r="J43" s="52"/>
       <c r="K43" s="85"/>
       <c r="L43" s="85"/>
-      <c r="M43" s="205"/>
-      <c r="N43" s="205"/>
+      <c r="M43" s="237"/>
+      <c r="N43" s="237"/>
       <c r="O43" s="85"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="186" t="s">
+      <c r="A44" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="186"/>
-      <c r="C44" s="21"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="219"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -7132,12 +7139,12 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="139" t="str">
+      <c r="H44" s="176" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
+      <c r="I44" s="176"/>
+      <c r="J44" s="176"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
@@ -7145,10 +7152,10 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="186" t="s">
+      <c r="A45" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="186"/>
+      <c r="B45" s="219"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -7160,42 +7167,14 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="188" t="s">
+      <c r="N45" s="214" t="s">
         <v>43</v>
       </c>
-      <c r="O45" s="188"/>
+      <c r="O45" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="L41:O41"/>
@@ -7208,6 +7187,34 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="M42:N42"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
@@ -7226,13 +7233,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 A42:A43 N3 A4:A5 E4:F5 I4:I5 L4:M5 D7:O8 A6:C38 G9:G38 K9:K38 O9:O38 A39:O41 D42:G42 A44:O45 K42:L43 N1:O2 O42:O43 D43:E43" xr:uid="{A24E62CC-CB0E-454E-88E1-8FD1FE40E2CF}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 A42:A43 N3 A4:A5 E4:F5 I4:I5 L4:M5 D7:O8 A6:C38 G9:G38 K9:K38 O9:O38 A39:O41 D42:G42 D43:E43 K42:L43 N1:O2 O42:O43 A44:A45 D44:O45 B45:C45" xr:uid="{A24E62CC-CB0E-454E-88E1-8FD1FE40E2CF}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7244,7 +7251,7 @@
   <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7255,61 +7262,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="163" t="s">
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="163"/>
+      <c r="O1" s="170"/>
     </row>
     <row r="2" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="164" t="s">
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="164"/>
+      <c r="O2" s="171"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
       <c r="N3" s="66" t="s">
         <v>16</v>
       </c>
@@ -7319,122 +7326,122 @@
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="215">
+      <c r="B4" s="208">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="161" t="s">
+      <c r="C4" s="209"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="162"/>
-      <c r="G4" s="215">
+      <c r="F4" s="169"/>
+      <c r="G4" s="208">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="210"/>
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="218">
+      <c r="J4" s="211">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="218"/>
-      <c r="L4" s="154" t="s">
+      <c r="K4" s="211"/>
+      <c r="L4" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="154"/>
-      <c r="N4" s="283">
+      <c r="M4" s="161"/>
+      <c r="N4" s="284">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="284"/>
+      <c r="O4" s="285"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="133">
+      <c r="B5" s="142">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="183" t="s">
+      <c r="C5" s="246"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="184"/>
-      <c r="G5" s="133">
+      <c r="F5" s="248"/>
+      <c r="G5" s="142">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="170"/>
+      <c r="H5" s="146"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="166">
+      <c r="J5" s="141">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="166"/>
-      <c r="L5" s="181" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="181"/>
-      <c r="N5" s="285">
+      <c r="M5" s="245"/>
+      <c r="N5" s="286">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="134"/>
+      <c r="O5" s="180"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="279" t="s">
+      <c r="A6" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="280"/>
-      <c r="C6" s="280"/>
-      <c r="D6" s="281"/>
-      <c r="E6" s="281"/>
-      <c r="F6" s="281"/>
-      <c r="G6" s="276"/>
-      <c r="H6" s="275"/>
-      <c r="I6" s="276"/>
-      <c r="J6" s="266"/>
-      <c r="K6" s="273"/>
-      <c r="L6" s="273"/>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="267"/>
+      <c r="B6" s="288"/>
+      <c r="C6" s="288"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="290"/>
+      <c r="H6" s="304"/>
+      <c r="I6" s="290"/>
+      <c r="J6" s="294"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="302"/>
+      <c r="N6" s="302"/>
+      <c r="O6" s="295"/>
     </row>
     <row r="7" spans="1:15" s="38" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="218"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="216" t="s">
+      <c r="A7" s="293" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="211"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
-      <c r="H7" s="266" t="s">
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
+      <c r="H7" s="294" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="267"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="188"/>
-      <c r="O7" s="274"/>
+      <c r="I7" s="295"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="303"/>
     </row>
     <row r="8" spans="1:15" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="165"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="95">
         <v>1</v>
       </c>
@@ -7447,14 +7454,14 @@
       <c r="G8" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="222"/>
-      <c r="I8" s="268"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="274"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="296"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="214"/>
+      <c r="O8" s="303"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="A9" s="58">
@@ -7476,16 +7483,16 @@
         <f t="shared" ref="G9:G38" si="0">AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="269">
-        <v>0</v>
-      </c>
-      <c r="I9" s="270"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="274"/>
+      <c r="H9" s="297">
+        <v>0</v>
+      </c>
+      <c r="I9" s="298"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="303"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="A10" s="58">
@@ -7507,16 +7514,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="264">
-        <v>0</v>
-      </c>
-      <c r="I10" s="265"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="274"/>
+      <c r="H10" s="291">
+        <v>0</v>
+      </c>
+      <c r="I10" s="292"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="214"/>
+      <c r="O10" s="303"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="58">
@@ -7538,16 +7545,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="264">
-        <v>0</v>
-      </c>
-      <c r="I11" s="265"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="188"/>
-      <c r="M11" s="188"/>
-      <c r="N11" s="188"/>
-      <c r="O11" s="274"/>
+      <c r="H11" s="291">
+        <v>0</v>
+      </c>
+      <c r="I11" s="292"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
+      <c r="N11" s="214"/>
+      <c r="O11" s="303"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="A12" s="58">
@@ -7569,16 +7576,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="264">
-        <v>0</v>
-      </c>
-      <c r="I12" s="265"/>
-      <c r="J12" s="220"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="188"/>
-      <c r="O12" s="274"/>
+      <c r="H12" s="291">
+        <v>0</v>
+      </c>
+      <c r="I12" s="292"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="214"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="214"/>
+      <c r="N12" s="214"/>
+      <c r="O12" s="303"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="A13" s="58">
@@ -7600,16 +7607,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="264">
-        <v>0</v>
-      </c>
-      <c r="I13" s="265"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="188"/>
-      <c r="N13" s="188"/>
-      <c r="O13" s="274"/>
+      <c r="H13" s="291">
+        <v>0</v>
+      </c>
+      <c r="I13" s="292"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="303"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="A14" s="58">
@@ -7631,16 +7638,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="264">
-        <v>0</v>
-      </c>
-      <c r="I14" s="265"/>
-      <c r="J14" s="220"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="188"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="274"/>
+      <c r="H14" s="291">
+        <v>0</v>
+      </c>
+      <c r="I14" s="292"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214"/>
+      <c r="N14" s="214"/>
+      <c r="O14" s="303"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="A15" s="58">
@@ -7662,16 +7669,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="264">
-        <v>0</v>
-      </c>
-      <c r="I15" s="265"/>
-      <c r="J15" s="220"/>
-      <c r="K15" s="188"/>
-      <c r="L15" s="188"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="188"/>
-      <c r="O15" s="274"/>
+      <c r="H15" s="291">
+        <v>0</v>
+      </c>
+      <c r="I15" s="292"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="214"/>
+      <c r="L15" s="214"/>
+      <c r="M15" s="214"/>
+      <c r="N15" s="214"/>
+      <c r="O15" s="303"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="58">
@@ -7693,16 +7700,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="264">
-        <v>0</v>
-      </c>
-      <c r="I16" s="265"/>
-      <c r="J16" s="220"/>
-      <c r="K16" s="188"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="188"/>
-      <c r="N16" s="188"/>
-      <c r="O16" s="274"/>
+      <c r="H16" s="291">
+        <v>0</v>
+      </c>
+      <c r="I16" s="292"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="214"/>
+      <c r="L16" s="214"/>
+      <c r="M16" s="214"/>
+      <c r="N16" s="214"/>
+      <c r="O16" s="303"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
       <c r="A17" s="58">
@@ -7724,16 +7731,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="264">
-        <v>0</v>
-      </c>
-      <c r="I17" s="265"/>
-      <c r="J17" s="220"/>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="274"/>
+      <c r="H17" s="291">
+        <v>0</v>
+      </c>
+      <c r="I17" s="292"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="214"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="214"/>
+      <c r="N17" s="214"/>
+      <c r="O17" s="303"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
       <c r="A18" s="58">
@@ -7755,16 +7762,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="264">
-        <v>0</v>
-      </c>
-      <c r="I18" s="265"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="188"/>
-      <c r="L18" s="188"/>
-      <c r="M18" s="188"/>
-      <c r="N18" s="188"/>
-      <c r="O18" s="274"/>
+      <c r="H18" s="291">
+        <v>0</v>
+      </c>
+      <c r="I18" s="292"/>
+      <c r="J18" s="213"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="214"/>
+      <c r="N18" s="214"/>
+      <c r="O18" s="303"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
       <c r="A19" s="58">
@@ -7786,16 +7793,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="264">
-        <v>0</v>
-      </c>
-      <c r="I19" s="265"/>
-      <c r="J19" s="220"/>
-      <c r="K19" s="188"/>
-      <c r="L19" s="188"/>
-      <c r="M19" s="188"/>
-      <c r="N19" s="188"/>
-      <c r="O19" s="274"/>
+      <c r="H19" s="291">
+        <v>0</v>
+      </c>
+      <c r="I19" s="292"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="214"/>
+      <c r="N19" s="214"/>
+      <c r="O19" s="303"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
       <c r="A20" s="58">
@@ -7817,16 +7824,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="264">
-        <v>0</v>
-      </c>
-      <c r="I20" s="265"/>
-      <c r="J20" s="220"/>
-      <c r="K20" s="188"/>
-      <c r="L20" s="188"/>
-      <c r="M20" s="188"/>
-      <c r="N20" s="188"/>
-      <c r="O20" s="274"/>
+      <c r="H20" s="291">
+        <v>0</v>
+      </c>
+      <c r="I20" s="292"/>
+      <c r="J20" s="213"/>
+      <c r="K20" s="214"/>
+      <c r="L20" s="214"/>
+      <c r="M20" s="214"/>
+      <c r="N20" s="214"/>
+      <c r="O20" s="303"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
       <c r="A21" s="58">
@@ -7848,16 +7855,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="264">
-        <v>0</v>
-      </c>
-      <c r="I21" s="265"/>
-      <c r="J21" s="220"/>
-      <c r="K21" s="188"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="188"/>
-      <c r="N21" s="188"/>
-      <c r="O21" s="274"/>
+      <c r="H21" s="291">
+        <v>0</v>
+      </c>
+      <c r="I21" s="292"/>
+      <c r="J21" s="213"/>
+      <c r="K21" s="214"/>
+      <c r="L21" s="214"/>
+      <c r="M21" s="214"/>
+      <c r="N21" s="214"/>
+      <c r="O21" s="303"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
       <c r="A22" s="58">
@@ -7879,16 +7886,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="264">
-        <v>0</v>
-      </c>
-      <c r="I22" s="265"/>
-      <c r="J22" s="220"/>
-      <c r="K22" s="188"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="188"/>
-      <c r="N22" s="188"/>
-      <c r="O22" s="274"/>
+      <c r="H22" s="291">
+        <v>0</v>
+      </c>
+      <c r="I22" s="292"/>
+      <c r="J22" s="213"/>
+      <c r="K22" s="214"/>
+      <c r="L22" s="214"/>
+      <c r="M22" s="214"/>
+      <c r="N22" s="214"/>
+      <c r="O22" s="303"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
       <c r="A23" s="58">
@@ -7910,16 +7917,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="264">
-        <v>0</v>
-      </c>
-      <c r="I23" s="265"/>
-      <c r="J23" s="220"/>
-      <c r="K23" s="188"/>
-      <c r="L23" s="188"/>
-      <c r="M23" s="188"/>
-      <c r="N23" s="188"/>
-      <c r="O23" s="274"/>
+      <c r="H23" s="291">
+        <v>0</v>
+      </c>
+      <c r="I23" s="292"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="214"/>
+      <c r="L23" s="214"/>
+      <c r="M23" s="214"/>
+      <c r="N23" s="214"/>
+      <c r="O23" s="303"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
       <c r="A24" s="58">
@@ -7941,16 +7948,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="264">
-        <v>0</v>
-      </c>
-      <c r="I24" s="265"/>
-      <c r="J24" s="220"/>
-      <c r="K24" s="188"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="188"/>
-      <c r="N24" s="188"/>
-      <c r="O24" s="274"/>
+      <c r="H24" s="291">
+        <v>0</v>
+      </c>
+      <c r="I24" s="292"/>
+      <c r="J24" s="213"/>
+      <c r="K24" s="214"/>
+      <c r="L24" s="214"/>
+      <c r="M24" s="214"/>
+      <c r="N24" s="214"/>
+      <c r="O24" s="303"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
       <c r="A25" s="58">
@@ -7972,16 +7979,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="264">
-        <v>0</v>
-      </c>
-      <c r="I25" s="265"/>
-      <c r="J25" s="220"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="188"/>
-      <c r="N25" s="188"/>
-      <c r="O25" s="274"/>
+      <c r="H25" s="291">
+        <v>0</v>
+      </c>
+      <c r="I25" s="292"/>
+      <c r="J25" s="213"/>
+      <c r="K25" s="214"/>
+      <c r="L25" s="214"/>
+      <c r="M25" s="214"/>
+      <c r="N25" s="214"/>
+      <c r="O25" s="303"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
       <c r="A26" s="58">
@@ -8003,16 +8010,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="264">
-        <v>0</v>
-      </c>
-      <c r="I26" s="265"/>
-      <c r="J26" s="220"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="188"/>
-      <c r="N26" s="188"/>
-      <c r="O26" s="274"/>
+      <c r="H26" s="291">
+        <v>0</v>
+      </c>
+      <c r="I26" s="292"/>
+      <c r="J26" s="213"/>
+      <c r="K26" s="214"/>
+      <c r="L26" s="214"/>
+      <c r="M26" s="214"/>
+      <c r="N26" s="214"/>
+      <c r="O26" s="303"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
       <c r="A27" s="58">
@@ -8034,16 +8041,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="264">
-        <v>0</v>
-      </c>
-      <c r="I27" s="265"/>
-      <c r="J27" s="220"/>
-      <c r="K27" s="188"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="188"/>
-      <c r="N27" s="188"/>
-      <c r="O27" s="274"/>
+      <c r="H27" s="291">
+        <v>0</v>
+      </c>
+      <c r="I27" s="292"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="214"/>
+      <c r="L27" s="214"/>
+      <c r="M27" s="214"/>
+      <c r="N27" s="214"/>
+      <c r="O27" s="303"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="58">
@@ -8065,16 +8072,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="264">
-        <v>0</v>
-      </c>
-      <c r="I28" s="265"/>
-      <c r="J28" s="220"/>
-      <c r="K28" s="188"/>
-      <c r="L28" s="188"/>
-      <c r="M28" s="188"/>
-      <c r="N28" s="188"/>
-      <c r="O28" s="274"/>
+      <c r="H28" s="291">
+        <v>0</v>
+      </c>
+      <c r="I28" s="292"/>
+      <c r="J28" s="213"/>
+      <c r="K28" s="214"/>
+      <c r="L28" s="214"/>
+      <c r="M28" s="214"/>
+      <c r="N28" s="214"/>
+      <c r="O28" s="303"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="58">
@@ -8096,16 +8103,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="264">
-        <v>0</v>
-      </c>
-      <c r="I29" s="265"/>
-      <c r="J29" s="220"/>
-      <c r="K29" s="188"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="188"/>
-      <c r="N29" s="188"/>
-      <c r="O29" s="274"/>
+      <c r="H29" s="291">
+        <v>0</v>
+      </c>
+      <c r="I29" s="292"/>
+      <c r="J29" s="213"/>
+      <c r="K29" s="214"/>
+      <c r="L29" s="214"/>
+      <c r="M29" s="214"/>
+      <c r="N29" s="214"/>
+      <c r="O29" s="303"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
       <c r="A30" s="58">
@@ -8127,16 +8134,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="264">
-        <v>0</v>
-      </c>
-      <c r="I30" s="265"/>
-      <c r="J30" s="220"/>
-      <c r="K30" s="188"/>
-      <c r="L30" s="188"/>
-      <c r="M30" s="188"/>
-      <c r="N30" s="188"/>
-      <c r="O30" s="274"/>
+      <c r="H30" s="291">
+        <v>0</v>
+      </c>
+      <c r="I30" s="292"/>
+      <c r="J30" s="213"/>
+      <c r="K30" s="214"/>
+      <c r="L30" s="214"/>
+      <c r="M30" s="214"/>
+      <c r="N30" s="214"/>
+      <c r="O30" s="303"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
       <c r="A31" s="58">
@@ -8158,16 +8165,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="264">
-        <v>0</v>
-      </c>
-      <c r="I31" s="265"/>
-      <c r="J31" s="220"/>
-      <c r="K31" s="188"/>
-      <c r="L31" s="188"/>
-      <c r="M31" s="188"/>
-      <c r="N31" s="188"/>
-      <c r="O31" s="274"/>
+      <c r="H31" s="291">
+        <v>0</v>
+      </c>
+      <c r="I31" s="292"/>
+      <c r="J31" s="213"/>
+      <c r="K31" s="214"/>
+      <c r="L31" s="214"/>
+      <c r="M31" s="214"/>
+      <c r="N31" s="214"/>
+      <c r="O31" s="303"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
       <c r="A32" s="58">
@@ -8189,16 +8196,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="264">
-        <v>0</v>
-      </c>
-      <c r="I32" s="265"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="188"/>
-      <c r="L32" s="188"/>
-      <c r="M32" s="188"/>
-      <c r="N32" s="188"/>
-      <c r="O32" s="274"/>
+      <c r="H32" s="291">
+        <v>0</v>
+      </c>
+      <c r="I32" s="292"/>
+      <c r="J32" s="213"/>
+      <c r="K32" s="214"/>
+      <c r="L32" s="214"/>
+      <c r="M32" s="214"/>
+      <c r="N32" s="214"/>
+      <c r="O32" s="303"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
       <c r="A33" s="58">
@@ -8220,16 +8227,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="264">
-        <v>0</v>
-      </c>
-      <c r="I33" s="265"/>
-      <c r="J33" s="220"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="188"/>
-      <c r="M33" s="188"/>
-      <c r="N33" s="188"/>
-      <c r="O33" s="274"/>
+      <c r="H33" s="291">
+        <v>0</v>
+      </c>
+      <c r="I33" s="292"/>
+      <c r="J33" s="213"/>
+      <c r="K33" s="214"/>
+      <c r="L33" s="214"/>
+      <c r="M33" s="214"/>
+      <c r="N33" s="214"/>
+      <c r="O33" s="303"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
       <c r="A34" s="58">
@@ -8251,16 +8258,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="264">
-        <v>0</v>
-      </c>
-      <c r="I34" s="265"/>
-      <c r="J34" s="220"/>
-      <c r="K34" s="188"/>
-      <c r="L34" s="188"/>
-      <c r="M34" s="188"/>
-      <c r="N34" s="188"/>
-      <c r="O34" s="274"/>
+      <c r="H34" s="291">
+        <v>0</v>
+      </c>
+      <c r="I34" s="292"/>
+      <c r="J34" s="213"/>
+      <c r="K34" s="214"/>
+      <c r="L34" s="214"/>
+      <c r="M34" s="214"/>
+      <c r="N34" s="214"/>
+      <c r="O34" s="303"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
       <c r="A35" s="58">
@@ -8282,16 +8289,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="264">
-        <v>0</v>
-      </c>
-      <c r="I35" s="265"/>
-      <c r="J35" s="220"/>
-      <c r="K35" s="188"/>
-      <c r="L35" s="188"/>
-      <c r="M35" s="188"/>
-      <c r="N35" s="188"/>
-      <c r="O35" s="274"/>
+      <c r="H35" s="291">
+        <v>0</v>
+      </c>
+      <c r="I35" s="292"/>
+      <c r="J35" s="213"/>
+      <c r="K35" s="214"/>
+      <c r="L35" s="214"/>
+      <c r="M35" s="214"/>
+      <c r="N35" s="214"/>
+      <c r="O35" s="303"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
       <c r="A36" s="58">
@@ -8313,16 +8320,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="264">
-        <v>0</v>
-      </c>
-      <c r="I36" s="265"/>
-      <c r="J36" s="220"/>
-      <c r="K36" s="188"/>
-      <c r="L36" s="188"/>
-      <c r="M36" s="188"/>
-      <c r="N36" s="188"/>
-      <c r="O36" s="274"/>
+      <c r="H36" s="291">
+        <v>0</v>
+      </c>
+      <c r="I36" s="292"/>
+      <c r="J36" s="213"/>
+      <c r="K36" s="214"/>
+      <c r="L36" s="214"/>
+      <c r="M36" s="214"/>
+      <c r="N36" s="214"/>
+      <c r="O36" s="303"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="58">
@@ -8344,16 +8351,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="264">
-        <v>0</v>
-      </c>
-      <c r="I37" s="265"/>
-      <c r="J37" s="220"/>
-      <c r="K37" s="188"/>
-      <c r="L37" s="188"/>
-      <c r="M37" s="188"/>
-      <c r="N37" s="188"/>
-      <c r="O37" s="274"/>
+      <c r="H37" s="291">
+        <v>0</v>
+      </c>
+      <c r="I37" s="292"/>
+      <c r="J37" s="213"/>
+      <c r="K37" s="214"/>
+      <c r="L37" s="214"/>
+      <c r="M37" s="214"/>
+      <c r="N37" s="214"/>
+      <c r="O37" s="303"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="58">
@@ -8375,16 +8382,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="277">
-        <v>0</v>
-      </c>
-      <c r="I38" s="278"/>
-      <c r="J38" s="220"/>
-      <c r="K38" s="188"/>
-      <c r="L38" s="188"/>
-      <c r="M38" s="188"/>
-      <c r="N38" s="188"/>
-      <c r="O38" s="274"/>
+      <c r="H38" s="305">
+        <v>0</v>
+      </c>
+      <c r="I38" s="306"/>
+      <c r="J38" s="213"/>
+      <c r="K38" s="214"/>
+      <c r="L38" s="214"/>
+      <c r="M38" s="214"/>
+      <c r="N38" s="214"/>
+      <c r="O38" s="303"/>
     </row>
     <row r="39" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="36"/>
@@ -8392,24 +8399,24 @@
       <c r="C39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="231" t="e">
+      <c r="D39" s="273" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="232"/>
-      <c r="F39" s="232"/>
-      <c r="G39" s="234"/>
-      <c r="H39" s="260">
+      <c r="E39" s="274"/>
+      <c r="F39" s="274"/>
+      <c r="G39" s="276"/>
+      <c r="H39" s="307">
         <f>AVERAGE(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="261"/>
-      <c r="J39" s="220"/>
-      <c r="K39" s="188"/>
-      <c r="L39" s="188"/>
-      <c r="M39" s="188"/>
-      <c r="N39" s="188"/>
-      <c r="O39" s="274"/>
+      <c r="I39" s="308"/>
+      <c r="J39" s="213"/>
+      <c r="K39" s="214"/>
+      <c r="L39" s="214"/>
+      <c r="M39" s="214"/>
+      <c r="N39" s="214"/>
+      <c r="O39" s="303"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="39"/>
@@ -8417,24 +8424,24 @@
       <c r="C40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="238" t="e">
+      <c r="D40" s="280" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="239"/>
-      <c r="F40" s="239"/>
-      <c r="G40" s="241"/>
-      <c r="H40" s="262">
+      <c r="E40" s="281"/>
+      <c r="F40" s="281"/>
+      <c r="G40" s="283"/>
+      <c r="H40" s="309">
         <f>MIN(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="263"/>
-      <c r="J40" s="220"/>
-      <c r="K40" s="188"/>
-      <c r="L40" s="188"/>
-      <c r="M40" s="188"/>
-      <c r="N40" s="188"/>
-      <c r="O40" s="274"/>
+      <c r="I40" s="310"/>
+      <c r="J40" s="213"/>
+      <c r="K40" s="214"/>
+      <c r="L40" s="214"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="303"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="41"/>
@@ -8442,54 +8449,54 @@
       <c r="C41" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="225" t="e">
+      <c r="D41" s="266" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="226"/>
-      <c r="F41" s="226"/>
-      <c r="G41" s="227"/>
-      <c r="H41" s="271">
+      <c r="E41" s="267"/>
+      <c r="F41" s="267"/>
+      <c r="G41" s="269"/>
+      <c r="H41" s="300">
         <f>MAX(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="272"/>
-      <c r="J41" s="222"/>
-      <c r="K41" s="223"/>
-      <c r="L41" s="223"/>
-      <c r="M41" s="223"/>
-      <c r="N41" s="223"/>
-      <c r="O41" s="268"/>
+      <c r="I41" s="301"/>
+      <c r="J41" s="216"/>
+      <c r="K41" s="217"/>
+      <c r="L41" s="217"/>
+      <c r="M41" s="217"/>
+      <c r="N41" s="217"/>
+      <c r="O41" s="296"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="203"/>
-      <c r="C42" s="203"/>
-      <c r="D42" s="204" t="s">
+      <c r="B42" s="235"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
+      <c r="E42" s="236"/>
+      <c r="F42" s="236"/>
+      <c r="G42" s="236"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="187" t="s">
+      <c r="K42" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="187"/>
-      <c r="M42" s="203"/>
-      <c r="N42" s="203"/>
+      <c r="L42" s="220"/>
+      <c r="M42" s="235"/>
+      <c r="N42" s="235"/>
       <c r="O42" s="92" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="142"/>
-      <c r="C43" s="142"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="179"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="70"/>
@@ -8499,16 +8506,16 @@
       <c r="J43" s="52"/>
       <c r="K43" s="85"/>
       <c r="L43" s="85"/>
-      <c r="M43" s="205"/>
-      <c r="N43" s="205"/>
+      <c r="M43" s="237"/>
+      <c r="N43" s="237"/>
       <c r="O43" s="85"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="186" t="s">
+      <c r="A44" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="186"/>
-      <c r="C44" s="21"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="219"/>
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -8516,12 +8523,12 @@
         <f>Page1!G43</f>
         <v>Reference:</v>
       </c>
-      <c r="H44" s="139" t="str">
+      <c r="H44" s="176" t="str">
         <f>Page1!H43</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
+      <c r="I44" s="176"/>
+      <c r="J44" s="176"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="21"/>
@@ -8529,10 +8536,10 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="186" t="s">
+      <c r="A45" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="186"/>
+      <c r="B45" s="219"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -8544,271 +8551,270 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="188" t="s">
+      <c r="N45" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="O45" s="188"/>
+      <c r="O45" s="214"/>
     </row>
     <row r="46" spans="1:15" s="38" customFormat="1"/>
     <row r="47" spans="1:15" s="38" customFormat="1"/>
     <row r="57" spans="4:15">
-      <c r="D57" s="259"/>
-      <c r="E57" s="259"/>
-      <c r="F57" s="259"/>
-      <c r="G57" s="259"/>
-      <c r="H57" s="259"/>
-      <c r="I57" s="259"/>
-      <c r="J57" s="259"/>
-      <c r="K57" s="259"/>
-      <c r="L57" s="259"/>
-      <c r="M57" s="259"/>
-      <c r="N57" s="259"/>
-      <c r="O57" s="259"/>
+      <c r="D57" s="299"/>
+      <c r="E57" s="299"/>
+      <c r="F57" s="299"/>
+      <c r="G57" s="299"/>
+      <c r="H57" s="299"/>
+      <c r="I57" s="299"/>
+      <c r="J57" s="299"/>
+      <c r="K57" s="299"/>
+      <c r="L57" s="299"/>
+      <c r="M57" s="299"/>
+      <c r="N57" s="299"/>
+      <c r="O57" s="299"/>
     </row>
     <row r="58" spans="4:15">
-      <c r="D58" s="259"/>
-      <c r="E58" s="259"/>
-      <c r="F58" s="259"/>
-      <c r="G58" s="259"/>
-      <c r="H58" s="259"/>
-      <c r="I58" s="259"/>
-      <c r="J58" s="259"/>
-      <c r="K58" s="259"/>
-      <c r="L58" s="259"/>
-      <c r="M58" s="259"/>
-      <c r="N58" s="259"/>
-      <c r="O58" s="259"/>
+      <c r="D58" s="299"/>
+      <c r="E58" s="299"/>
+      <c r="F58" s="299"/>
+      <c r="G58" s="299"/>
+      <c r="H58" s="299"/>
+      <c r="I58" s="299"/>
+      <c r="J58" s="299"/>
+      <c r="K58" s="299"/>
+      <c r="L58" s="299"/>
+      <c r="M58" s="299"/>
+      <c r="N58" s="299"/>
+      <c r="O58" s="299"/>
     </row>
     <row r="59" spans="4:15">
-      <c r="D59" s="259"/>
-      <c r="E59" s="259"/>
-      <c r="F59" s="259"/>
-      <c r="G59" s="259"/>
-      <c r="H59" s="259"/>
-      <c r="I59" s="259"/>
-      <c r="J59" s="259"/>
-      <c r="K59" s="259"/>
-      <c r="L59" s="259"/>
-      <c r="M59" s="259"/>
-      <c r="N59" s="259"/>
-      <c r="O59" s="259"/>
+      <c r="D59" s="299"/>
+      <c r="E59" s="299"/>
+      <c r="F59" s="299"/>
+      <c r="G59" s="299"/>
+      <c r="H59" s="299"/>
+      <c r="I59" s="299"/>
+      <c r="J59" s="299"/>
+      <c r="K59" s="299"/>
+      <c r="L59" s="299"/>
+      <c r="M59" s="299"/>
+      <c r="N59" s="299"/>
+      <c r="O59" s="299"/>
     </row>
     <row r="60" spans="4:15">
-      <c r="D60" s="259"/>
-      <c r="E60" s="259"/>
-      <c r="F60" s="259"/>
-      <c r="G60" s="259"/>
-      <c r="H60" s="259"/>
-      <c r="I60" s="259"/>
-      <c r="J60" s="259"/>
-      <c r="K60" s="259"/>
-      <c r="L60" s="259"/>
-      <c r="M60" s="259"/>
-      <c r="N60" s="259"/>
-      <c r="O60" s="259"/>
+      <c r="D60" s="299"/>
+      <c r="E60" s="299"/>
+      <c r="F60" s="299"/>
+      <c r="G60" s="299"/>
+      <c r="H60" s="299"/>
+      <c r="I60" s="299"/>
+      <c r="J60" s="299"/>
+      <c r="K60" s="299"/>
+      <c r="L60" s="299"/>
+      <c r="M60" s="299"/>
+      <c r="N60" s="299"/>
+      <c r="O60" s="299"/>
     </row>
     <row r="61" spans="4:15">
-      <c r="D61" s="259"/>
-      <c r="E61" s="259"/>
-      <c r="F61" s="259"/>
-      <c r="G61" s="259"/>
-      <c r="H61" s="259"/>
-      <c r="I61" s="259"/>
-      <c r="J61" s="259"/>
-      <c r="K61" s="259"/>
-      <c r="L61" s="259"/>
-      <c r="M61" s="259"/>
-      <c r="N61" s="259"/>
-      <c r="O61" s="259"/>
+      <c r="D61" s="299"/>
+      <c r="E61" s="299"/>
+      <c r="F61" s="299"/>
+      <c r="G61" s="299"/>
+      <c r="H61" s="299"/>
+      <c r="I61" s="299"/>
+      <c r="J61" s="299"/>
+      <c r="K61" s="299"/>
+      <c r="L61" s="299"/>
+      <c r="M61" s="299"/>
+      <c r="N61" s="299"/>
+      <c r="O61" s="299"/>
     </row>
     <row r="62" spans="4:15">
-      <c r="D62" s="259"/>
-      <c r="E62" s="259"/>
-      <c r="F62" s="259"/>
-      <c r="G62" s="259"/>
-      <c r="H62" s="259"/>
-      <c r="I62" s="259"/>
-      <c r="J62" s="259"/>
-      <c r="K62" s="259"/>
-      <c r="L62" s="259"/>
-      <c r="M62" s="259"/>
-      <c r="N62" s="259"/>
-      <c r="O62" s="259"/>
+      <c r="D62" s="299"/>
+      <c r="E62" s="299"/>
+      <c r="F62" s="299"/>
+      <c r="G62" s="299"/>
+      <c r="H62" s="299"/>
+      <c r="I62" s="299"/>
+      <c r="J62" s="299"/>
+      <c r="K62" s="299"/>
+      <c r="L62" s="299"/>
+      <c r="M62" s="299"/>
+      <c r="N62" s="299"/>
+      <c r="O62" s="299"/>
     </row>
     <row r="63" spans="4:15">
-      <c r="D63" s="259"/>
-      <c r="E63" s="259"/>
-      <c r="F63" s="259"/>
-      <c r="G63" s="259"/>
-      <c r="H63" s="259"/>
-      <c r="I63" s="259"/>
-      <c r="J63" s="259"/>
-      <c r="K63" s="259"/>
-      <c r="L63" s="259"/>
-      <c r="M63" s="259"/>
-      <c r="N63" s="259"/>
-      <c r="O63" s="259"/>
+      <c r="D63" s="299"/>
+      <c r="E63" s="299"/>
+      <c r="F63" s="299"/>
+      <c r="G63" s="299"/>
+      <c r="H63" s="299"/>
+      <c r="I63" s="299"/>
+      <c r="J63" s="299"/>
+      <c r="K63" s="299"/>
+      <c r="L63" s="299"/>
+      <c r="M63" s="299"/>
+      <c r="N63" s="299"/>
+      <c r="O63" s="299"/>
     </row>
     <row r="64" spans="4:15">
-      <c r="D64" s="259"/>
-      <c r="E64" s="259"/>
-      <c r="F64" s="259"/>
-      <c r="G64" s="259"/>
-      <c r="H64" s="259"/>
-      <c r="I64" s="259"/>
-      <c r="J64" s="259"/>
-      <c r="K64" s="259"/>
-      <c r="L64" s="259"/>
-      <c r="M64" s="259"/>
-      <c r="N64" s="259"/>
-      <c r="O64" s="259"/>
+      <c r="D64" s="299"/>
+      <c r="E64" s="299"/>
+      <c r="F64" s="299"/>
+      <c r="G64" s="299"/>
+      <c r="H64" s="299"/>
+      <c r="I64" s="299"/>
+      <c r="J64" s="299"/>
+      <c r="K64" s="299"/>
+      <c r="L64" s="299"/>
+      <c r="M64" s="299"/>
+      <c r="N64" s="299"/>
+      <c r="O64" s="299"/>
     </row>
     <row r="65" spans="4:15">
-      <c r="D65" s="259"/>
-      <c r="E65" s="259"/>
-      <c r="F65" s="259"/>
-      <c r="G65" s="259"/>
-      <c r="H65" s="259"/>
-      <c r="I65" s="259"/>
-      <c r="J65" s="259"/>
-      <c r="K65" s="259"/>
-      <c r="L65" s="259"/>
-      <c r="M65" s="259"/>
-      <c r="N65" s="259"/>
-      <c r="O65" s="259"/>
+      <c r="D65" s="299"/>
+      <c r="E65" s="299"/>
+      <c r="F65" s="299"/>
+      <c r="G65" s="299"/>
+      <c r="H65" s="299"/>
+      <c r="I65" s="299"/>
+      <c r="J65" s="299"/>
+      <c r="K65" s="299"/>
+      <c r="L65" s="299"/>
+      <c r="M65" s="299"/>
+      <c r="N65" s="299"/>
+      <c r="O65" s="299"/>
     </row>
     <row r="66" spans="4:15">
-      <c r="D66" s="259"/>
-      <c r="E66" s="259"/>
-      <c r="F66" s="259"/>
-      <c r="G66" s="259"/>
-      <c r="H66" s="259"/>
-      <c r="I66" s="259"/>
-      <c r="J66" s="259"/>
-      <c r="K66" s="259"/>
-      <c r="L66" s="259"/>
-      <c r="M66" s="259"/>
-      <c r="N66" s="259"/>
-      <c r="O66" s="259"/>
+      <c r="D66" s="299"/>
+      <c r="E66" s="299"/>
+      <c r="F66" s="299"/>
+      <c r="G66" s="299"/>
+      <c r="H66" s="299"/>
+      <c r="I66" s="299"/>
+      <c r="J66" s="299"/>
+      <c r="K66" s="299"/>
+      <c r="L66" s="299"/>
+      <c r="M66" s="299"/>
+      <c r="N66" s="299"/>
+      <c r="O66" s="299"/>
     </row>
     <row r="67" spans="4:15">
-      <c r="D67" s="259"/>
-      <c r="E67" s="259"/>
-      <c r="F67" s="259"/>
-      <c r="G67" s="259"/>
-      <c r="H67" s="259"/>
-      <c r="I67" s="259"/>
-      <c r="J67" s="259"/>
-      <c r="K67" s="259"/>
-      <c r="L67" s="259"/>
-      <c r="M67" s="259"/>
-      <c r="N67" s="259"/>
-      <c r="O67" s="259"/>
+      <c r="D67" s="299"/>
+      <c r="E67" s="299"/>
+      <c r="F67" s="299"/>
+      <c r="G67" s="299"/>
+      <c r="H67" s="299"/>
+      <c r="I67" s="299"/>
+      <c r="J67" s="299"/>
+      <c r="K67" s="299"/>
+      <c r="L67" s="299"/>
+      <c r="M67" s="299"/>
+      <c r="N67" s="299"/>
+      <c r="O67" s="299"/>
     </row>
     <row r="68" spans="4:15">
-      <c r="D68" s="259"/>
-      <c r="E68" s="259"/>
-      <c r="F68" s="259"/>
-      <c r="G68" s="259"/>
-      <c r="H68" s="259"/>
-      <c r="I68" s="259"/>
-      <c r="J68" s="259"/>
-      <c r="K68" s="259"/>
-      <c r="L68" s="259"/>
-      <c r="M68" s="259"/>
-      <c r="N68" s="259"/>
-      <c r="O68" s="259"/>
+      <c r="D68" s="299"/>
+      <c r="E68" s="299"/>
+      <c r="F68" s="299"/>
+      <c r="G68" s="299"/>
+      <c r="H68" s="299"/>
+      <c r="I68" s="299"/>
+      <c r="J68" s="299"/>
+      <c r="K68" s="299"/>
+      <c r="L68" s="299"/>
+      <c r="M68" s="299"/>
+      <c r="N68" s="299"/>
+      <c r="O68" s="299"/>
     </row>
     <row r="69" spans="4:15">
-      <c r="D69" s="259"/>
-      <c r="E69" s="259"/>
-      <c r="F69" s="259"/>
-      <c r="G69" s="259"/>
-      <c r="H69" s="259"/>
-      <c r="I69" s="259"/>
-      <c r="J69" s="259"/>
-      <c r="K69" s="259"/>
-      <c r="L69" s="259"/>
-      <c r="M69" s="259"/>
-      <c r="N69" s="259"/>
-      <c r="O69" s="259"/>
+      <c r="D69" s="299"/>
+      <c r="E69" s="299"/>
+      <c r="F69" s="299"/>
+      <c r="G69" s="299"/>
+      <c r="H69" s="299"/>
+      <c r="I69" s="299"/>
+      <c r="J69" s="299"/>
+      <c r="K69" s="299"/>
+      <c r="L69" s="299"/>
+      <c r="M69" s="299"/>
+      <c r="N69" s="299"/>
+      <c r="O69" s="299"/>
     </row>
     <row r="70" spans="4:15">
-      <c r="D70" s="259"/>
-      <c r="E70" s="259"/>
-      <c r="F70" s="259"/>
-      <c r="G70" s="259"/>
-      <c r="H70" s="259"/>
-      <c r="I70" s="259"/>
-      <c r="J70" s="259"/>
-      <c r="K70" s="259"/>
-      <c r="L70" s="259"/>
-      <c r="M70" s="259"/>
-      <c r="N70" s="259"/>
-      <c r="O70" s="259"/>
+      <c r="D70" s="299"/>
+      <c r="E70" s="299"/>
+      <c r="F70" s="299"/>
+      <c r="G70" s="299"/>
+      <c r="H70" s="299"/>
+      <c r="I70" s="299"/>
+      <c r="J70" s="299"/>
+      <c r="K70" s="299"/>
+      <c r="L70" s="299"/>
+      <c r="M70" s="299"/>
+      <c r="N70" s="299"/>
+      <c r="O70" s="299"/>
     </row>
     <row r="71" spans="4:15">
-      <c r="D71" s="259"/>
-      <c r="E71" s="259"/>
-      <c r="F71" s="259"/>
-      <c r="G71" s="259"/>
-      <c r="H71" s="259"/>
-      <c r="I71" s="259"/>
-      <c r="J71" s="259"/>
-      <c r="K71" s="259"/>
-      <c r="L71" s="259"/>
-      <c r="M71" s="259"/>
-      <c r="N71" s="259"/>
-      <c r="O71" s="259"/>
+      <c r="D71" s="299"/>
+      <c r="E71" s="299"/>
+      <c r="F71" s="299"/>
+      <c r="G71" s="299"/>
+      <c r="H71" s="299"/>
+      <c r="I71" s="299"/>
+      <c r="J71" s="299"/>
+      <c r="K71" s="299"/>
+      <c r="L71" s="299"/>
+      <c r="M71" s="299"/>
+      <c r="N71" s="299"/>
+      <c r="O71" s="299"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:O71"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="H31:I31"/>
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
@@ -8833,50 +8839,51 @@
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:O71"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G38">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
@@ -8889,13 +8896,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 N3 A4:A5 E4:F5 I4:I5 L4:M5 D43:E43 A7:I8 A9:C41 G9:G38 D39:I41 N1:O2 D42:G42 A44:O45 K42:L43 O42:O43 A42:A43 A6:C6" xr:uid="{45AA03E7-926C-423A-BDFE-A2DF2A6DCF8E}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:M3 N3 A4:A5 E4:F5 I4:I5 L4:M5 D43:E43 A7:I8 A9:C41 G9:G38 D39:I41 N1:O2 D42:G42 A6:C6 K42:L43 O42:O43 A42:A43 A44:A45 D44:O45 B45:C45" xr:uid="{45AA03E7-926C-423A-BDFE-A2DF2A6DCF8E}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8904,12 +8911,12 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="64" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" style="64" customWidth="1"/>
@@ -9037,7 +9044,7 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="65"/>
+      <c r="A3" s="311"/>
       <c r="B3" s="64">
         <f>Page1!C8</f>
         <v>0</v>
@@ -9102,7 +9109,7 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="65"/>
+      <c r="A4" s="311"/>
       <c r="B4" s="64">
         <f>Page1!C9</f>
         <v>0</v>
@@ -9169,7 +9176,7 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="65"/>
+      <c r="A5" s="311"/>
       <c r="B5" s="64">
         <f>Page1!C10</f>
         <v>0</v>
@@ -9236,7 +9243,7 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="65"/>
+      <c r="A6" s="311"/>
       <c r="B6" s="64">
         <f>Page1!C11</f>
         <v>0</v>
@@ -9303,7 +9310,7 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="65"/>
+      <c r="A7" s="311"/>
       <c r="B7" s="64">
         <f>Page1!C12</f>
         <v>0</v>
@@ -9370,7 +9377,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="65"/>
+      <c r="A8" s="311"/>
       <c r="B8" s="64">
         <f>Page1!C13</f>
         <v>0</v>
@@ -9437,7 +9444,7 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="65"/>
+      <c r="A9" s="311"/>
       <c r="B9" s="64">
         <f>Page1!C14</f>
         <v>0</v>
@@ -9504,7 +9511,7 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="65"/>
+      <c r="A10" s="311"/>
       <c r="B10" s="64">
         <f>Page1!C15</f>
         <v>0</v>
@@ -9571,7 +9578,7 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="65"/>
+      <c r="A11" s="311"/>
       <c r="B11" s="64">
         <f>Page1!C16</f>
         <v>0</v>
@@ -9638,7 +9645,7 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="65"/>
+      <c r="A12" s="311"/>
       <c r="B12" s="64">
         <f>Page1!C17</f>
         <v>0</v>
@@ -9705,7 +9712,7 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="65"/>
+      <c r="A13" s="311"/>
       <c r="B13" s="64">
         <f>Page1!C18</f>
         <v>0</v>
@@ -9772,7 +9779,7 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="65"/>
+      <c r="A14" s="311"/>
       <c r="B14" s="64">
         <f>Page1!C19</f>
         <v>0</v>
@@ -9839,7 +9846,7 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="65"/>
+      <c r="A15" s="311"/>
       <c r="B15" s="64">
         <f>Page1!C20</f>
         <v>0</v>
@@ -9906,7 +9913,7 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="65"/>
+      <c r="A16" s="311"/>
       <c r="B16" s="64">
         <f>Page1!C21</f>
         <v>0</v>
@@ -9973,7 +9980,7 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="65"/>
+      <c r="A17" s="311"/>
       <c r="B17" s="64">
         <f>Page1!C22</f>
         <v>0</v>
@@ -10040,7 +10047,7 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="65"/>
+      <c r="A18" s="311"/>
       <c r="B18" s="64">
         <f>Page1!C23</f>
         <v>0</v>
@@ -10107,7 +10114,7 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="65"/>
+      <c r="A19" s="311"/>
       <c r="B19" s="64">
         <f>Page1!C24</f>
         <v>0</v>
@@ -10174,7 +10181,7 @@
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="65"/>
+      <c r="A20" s="311"/>
       <c r="B20" s="64">
         <f>Page1!C25</f>
         <v>0</v>
@@ -10241,7 +10248,7 @@
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="65"/>
+      <c r="A21" s="311"/>
       <c r="B21" s="64">
         <f>Page1!C26</f>
         <v>0</v>
@@ -10308,7 +10315,7 @@
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="65"/>
+      <c r="A22" s="311"/>
       <c r="B22" s="64">
         <f>Page1!C27</f>
         <v>0</v>
@@ -10375,7 +10382,7 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="65"/>
+      <c r="A23" s="311"/>
       <c r="B23" s="64">
         <f>Page1!C28</f>
         <v>0</v>
@@ -10442,7 +10449,7 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="65"/>
+      <c r="A24" s="311"/>
       <c r="B24" s="64">
         <f>Page1!C29</f>
         <v>0</v>
@@ -10509,7 +10516,7 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="65"/>
+      <c r="A25" s="311"/>
       <c r="B25" s="64">
         <f>Page1!C30</f>
         <v>0</v>
@@ -10576,7 +10583,7 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="65"/>
+      <c r="A26" s="311"/>
       <c r="B26" s="64">
         <f>Page1!C31</f>
         <v>0</v>
@@ -10643,7 +10650,7 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="65"/>
+      <c r="A27" s="311"/>
       <c r="B27" s="64">
         <f>Page1!C32</f>
         <v>0</v>
@@ -10710,7 +10717,7 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="65"/>
+      <c r="A28" s="311"/>
       <c r="B28" s="64">
         <f>Page1!C33</f>
         <v>0</v>
@@ -10777,7 +10784,7 @@
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="65"/>
+      <c r="A29" s="311"/>
       <c r="B29" s="64">
         <f>Page1!C34</f>
         <v>0</v>
@@ -10844,7 +10851,7 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="65"/>
+      <c r="A30" s="311"/>
       <c r="B30" s="64">
         <f>Page1!C35</f>
         <v>0</v>
@@ -10911,7 +10918,7 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="65"/>
+      <c r="A31" s="311"/>
       <c r="B31" s="64">
         <f>Page1!C36</f>
         <v>0</v>
@@ -10978,7 +10985,7 @@
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="65"/>
+      <c r="A32" s="311"/>
       <c r="B32" s="64">
         <f>Page1!C37</f>
         <v>0</v>
@@ -11106,314 +11113,314 @@
       <c r="AL1" s="103"/>
       <c r="AM1" s="101"/>
     </row>
-    <row r="2" spans="1:46" s="288" customFormat="1" ht="24">
-      <c r="A2" s="286" t="s">
+    <row r="2" spans="1:46" s="107" customFormat="1" ht="24">
+      <c r="A2" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="286" t="s">
+      <c r="B2" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="286" t="s">
+      <c r="D2" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="286" t="s">
+      <c r="E2" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="286" t="s">
+      <c r="F2" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="286" t="s">
+      <c r="G2" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="286" t="s">
+      <c r="H2" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="286" t="s">
+      <c r="I2" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="286" t="s">
+      <c r="J2" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="286">
+      <c r="K2" s="105">
         <v>1</v>
       </c>
-      <c r="L2" s="286">
+      <c r="L2" s="105">
         <v>2</v>
       </c>
-      <c r="M2" s="286">
+      <c r="M2" s="105">
         <v>3</v>
       </c>
-      <c r="N2" s="286">
+      <c r="N2" s="105">
         <v>4</v>
       </c>
-      <c r="O2" s="286">
+      <c r="O2" s="105">
         <v>5</v>
       </c>
-      <c r="P2" s="286">
+      <c r="P2" s="105">
         <v>6</v>
       </c>
-      <c r="Q2" s="286">
+      <c r="Q2" s="105">
         <v>7</v>
       </c>
-      <c r="R2" s="286">
+      <c r="R2" s="105">
         <v>8</v>
       </c>
-      <c r="S2" s="286">
+      <c r="S2" s="105">
         <v>9</v>
       </c>
-      <c r="T2" s="286">
+      <c r="T2" s="105">
         <v>10</v>
       </c>
-      <c r="U2" s="286">
+      <c r="U2" s="105">
         <v>11</v>
       </c>
-      <c r="V2" s="286">
+      <c r="V2" s="105">
         <v>12</v>
       </c>
-      <c r="W2" s="286">
+      <c r="W2" s="105">
         <v>13</v>
       </c>
-      <c r="X2" s="286">
+      <c r="X2" s="105">
         <v>14</v>
       </c>
-      <c r="Y2" s="286">
+      <c r="Y2" s="105">
         <v>15</v>
       </c>
-      <c r="Z2" s="286">
+      <c r="Z2" s="105">
         <v>16</v>
       </c>
-      <c r="AA2" s="286">
+      <c r="AA2" s="105">
         <v>17</v>
       </c>
-      <c r="AB2" s="286">
+      <c r="AB2" s="105">
         <v>18</v>
       </c>
-      <c r="AC2" s="286">
+      <c r="AC2" s="105">
         <v>19</v>
       </c>
-      <c r="AD2" s="286">
+      <c r="AD2" s="105">
         <v>20</v>
       </c>
-      <c r="AE2" s="286">
+      <c r="AE2" s="105">
         <v>21</v>
       </c>
-      <c r="AF2" s="286">
+      <c r="AF2" s="105">
         <v>22</v>
       </c>
-      <c r="AG2" s="286">
+      <c r="AG2" s="105">
         <v>23</v>
       </c>
-      <c r="AH2" s="286">
+      <c r="AH2" s="105">
         <v>24</v>
       </c>
-      <c r="AI2" s="286">
+      <c r="AI2" s="105">
         <v>25</v>
       </c>
-      <c r="AJ2" s="286">
+      <c r="AJ2" s="105">
         <v>26</v>
       </c>
-      <c r="AK2" s="286">
+      <c r="AK2" s="105">
         <v>27</v>
       </c>
-      <c r="AL2" s="286">
+      <c r="AL2" s="105">
         <v>28</v>
       </c>
-      <c r="AM2" s="286">
+      <c r="AM2" s="105">
         <v>29</v>
       </c>
-      <c r="AN2" s="286">
+      <c r="AN2" s="105">
         <v>30</v>
       </c>
-      <c r="AO2" s="287" t="s">
+      <c r="AO2" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="AP2" s="287" t="s">
+      <c r="AP2" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="AQ2" s="286" t="s">
+      <c r="AQ2" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="AR2" s="287" t="s">
+      <c r="AR2" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="AS2" s="287" t="s">
+      <c r="AS2" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="AT2" s="286" t="s">
+      <c r="AT2" s="105" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="299" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="289">
+    <row r="3" spans="1:46" s="118" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="108">
         <v>1</v>
       </c>
-      <c r="B3" s="290" t="s">
+      <c r="B3" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="291" t="s">
+      <c r="C3" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="292" t="s">
+      <c r="D3" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="292" t="s">
+      <c r="E3" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="292" t="s">
+      <c r="F3" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="293" t="s">
+      <c r="G3" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="293" t="s">
+      <c r="H3" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="293" t="s">
+      <c r="I3" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="293" t="s">
+      <c r="J3" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="294" cm="1">
+      <c r="K3" s="113" cm="1">
         <f t="array" ref="K3">INDEX(Page1!$L$8:$L$37, COLUMN(K3)-10)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="294" cm="1">
+      <c r="L3" s="113" cm="1">
         <f t="array" ref="L3">INDEX(Page1!$L$8:$L$37, COLUMN(L3)-10)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="294" cm="1">
+      <c r="M3" s="113" cm="1">
         <f t="array" ref="M3">INDEX(Page1!$L$8:$L$37, COLUMN(M3)-10)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="294" cm="1">
+      <c r="N3" s="113" cm="1">
         <f t="array" ref="N3">INDEX(Page1!$L$8:$L$37, COLUMN(N3)-10)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="294" cm="1">
+      <c r="O3" s="113" cm="1">
         <f t="array" ref="O3">INDEX(Page1!$L$8:$L$37, COLUMN(O3)-10)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="294" cm="1">
+      <c r="P3" s="113" cm="1">
         <f t="array" ref="P3">INDEX(Page1!$L$8:$L$37, COLUMN(P3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="294" cm="1">
+      <c r="Q3" s="113" cm="1">
         <f t="array" ref="Q3">INDEX(Page1!$L$8:$L$37, COLUMN(Q3)-10)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="294" cm="1">
+      <c r="R3" s="113" cm="1">
         <f t="array" ref="R3">INDEX(Page1!$L$8:$L$37, COLUMN(R3)-10)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="294" cm="1">
+      <c r="S3" s="113" cm="1">
         <f t="array" ref="S3">INDEX(Page1!$L$8:$L$37, COLUMN(S3)-10)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="294" cm="1">
+      <c r="T3" s="113" cm="1">
         <f t="array" ref="T3">INDEX(Page1!$L$8:$L$37, COLUMN(T3)-10)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="294" cm="1">
+      <c r="U3" s="113" cm="1">
         <f t="array" ref="U3">INDEX(Page1!$L$8:$L$37, COLUMN(U3)-10)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="294" cm="1">
+      <c r="V3" s="113" cm="1">
         <f t="array" ref="V3">INDEX(Page1!$L$8:$L$37, COLUMN(V3)-10)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="294" cm="1">
+      <c r="W3" s="113" cm="1">
         <f t="array" ref="W3">INDEX(Page1!$L$8:$L$37, COLUMN(W3)-10)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="294" cm="1">
+      <c r="X3" s="113" cm="1">
         <f t="array" ref="X3">INDEX(Page1!$L$8:$L$37, COLUMN(X3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="294" cm="1">
+      <c r="Y3" s="113" cm="1">
         <f t="array" ref="Y3">INDEX(Page1!$L$8:$L$37, COLUMN(Y3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="294" cm="1">
+      <c r="Z3" s="113" cm="1">
         <f t="array" ref="Z3">INDEX(Page1!$L$8:$L$37, COLUMN(Z3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="294" cm="1">
+      <c r="AA3" s="113" cm="1">
         <f t="array" ref="AA3">INDEX(Page1!$L$8:$L$37, COLUMN(AA3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="294" cm="1">
+      <c r="AB3" s="113" cm="1">
         <f t="array" ref="AB3">INDEX(Page1!$L$8:$L$37, COLUMN(AB3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="294" cm="1">
+      <c r="AC3" s="113" cm="1">
         <f t="array" ref="AC3">INDEX(Page1!$L$8:$L$37, COLUMN(AC3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="294" cm="1">
+      <c r="AD3" s="113" cm="1">
         <f t="array" ref="AD3">INDEX(Page1!$L$8:$L$37, COLUMN(AD3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="294" cm="1">
+      <c r="AE3" s="113" cm="1">
         <f t="array" ref="AE3">INDEX(Page1!$L$8:$L$37, COLUMN(AE3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="294" cm="1">
+      <c r="AF3" s="113" cm="1">
         <f t="array" ref="AF3">INDEX(Page1!$L$8:$L$37, COLUMN(AF3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="294" cm="1">
+      <c r="AG3" s="113" cm="1">
         <f t="array" ref="AG3">INDEX(Page1!$L$8:$L$37, COLUMN(AG3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="294" cm="1">
+      <c r="AH3" s="113" cm="1">
         <f t="array" ref="AH3">INDEX(Page1!$L$8:$L$37, COLUMN(AH3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="294" cm="1">
+      <c r="AI3" s="113" cm="1">
         <f t="array" ref="AI3">INDEX(Page1!$L$8:$L$37, COLUMN(AI3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="294" cm="1">
+      <c r="AJ3" s="113" cm="1">
         <f t="array" ref="AJ3">INDEX(Page1!$L$8:$L$37, COLUMN(AJ3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="294" cm="1">
+      <c r="AK3" s="113" cm="1">
         <f t="array" ref="AK3">INDEX(Page1!$L$8:$L$37, COLUMN(AK3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="294" cm="1">
+      <c r="AL3" s="113" cm="1">
         <f t="array" ref="AL3">INDEX(Page1!$L$8:$L$37, COLUMN(AL3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="294" cm="1">
+      <c r="AM3" s="113" cm="1">
         <f t="array" ref="AM3">INDEX(Page1!$L$8:$L$37, COLUMN(AM3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="294" cm="1">
+      <c r="AN3" s="113" cm="1">
         <f t="array" ref="AN3">INDEX(Page1!$L$8:$L$37, COLUMN(AN3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO3" s="295">
+      <c r="AO3" s="114">
         <f t="shared" ref="AO3:AO16" si="0">AVERAGE(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="296">
+      <c r="AP3" s="115">
         <f>STDEV(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="297" t="e">
+      <c r="AQ3" s="116" t="e">
         <f>MIN((AO3-H3)/(3*AP3), (I3-AO3)/(3*AP3))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR3" s="298">
+      <c r="AR3" s="117">
         <f t="shared" ref="AR3:AR16" si="1">MIN(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AS3" s="298">
+      <c r="AS3" s="117">
         <f>MAX(K3:AN3)</f>
         <v>0</v>
       </c>
@@ -11422,172 +11429,172 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:46" s="299" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="289">
+    <row r="4" spans="1:46" s="118" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="108">
         <v>2</v>
       </c>
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="292" t="s">
+      <c r="D4" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="292" t="s">
+      <c r="E4" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="292" t="s">
+      <c r="F4" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="293" t="s">
+      <c r="G4" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="293"/>
-      <c r="I4" s="293" t="s">
+      <c r="H4" s="112"/>
+      <c r="I4" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="293" t="s">
+      <c r="J4" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="300" t="e" cm="1">
+      <c r="K4" s="119" t="e" cm="1">
         <f t="array" ref="K4">INDEX(Page4!$G$9:$G$38, COLUMN(K4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="300" t="e" cm="1">
+      <c r="L4" s="119" t="e" cm="1">
         <f t="array" ref="L4">INDEX(Page4!$G$9:$G$38, COLUMN(L4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="300" t="e" cm="1">
+      <c r="M4" s="119" t="e" cm="1">
         <f t="array" ref="M4">INDEX(Page4!$G$9:$G$38, COLUMN(M4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="300" t="e" cm="1">
+      <c r="N4" s="119" t="e" cm="1">
         <f t="array" ref="N4">INDEX(Page4!$G$9:$G$38, COLUMN(N4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="300" t="e" cm="1">
+      <c r="O4" s="119" t="e" cm="1">
         <f t="array" ref="O4">INDEX(Page4!$G$9:$G$38, COLUMN(O4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P4" s="300" t="e" cm="1">
+      <c r="P4" s="119" t="e" cm="1">
         <f t="array" ref="P4">INDEX(Page4!$G$9:$G$38, COLUMN(P4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="300" t="e" cm="1">
+      <c r="Q4" s="119" t="e" cm="1">
         <f t="array" ref="Q4">INDEX(Page4!$G$9:$G$38, COLUMN(Q4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R4" s="300" t="e" cm="1">
+      <c r="R4" s="119" t="e" cm="1">
         <f t="array" ref="R4">INDEX(Page4!$G$9:$G$38, COLUMN(R4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="300" t="e" cm="1">
+      <c r="S4" s="119" t="e" cm="1">
         <f t="array" ref="S4">INDEX(Page4!$G$9:$G$38, COLUMN(S4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T4" s="300" t="e" cm="1">
+      <c r="T4" s="119" t="e" cm="1">
         <f t="array" ref="T4">INDEX(Page4!$G$9:$G$38, COLUMN(T4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U4" s="300" t="e" cm="1">
+      <c r="U4" s="119" t="e" cm="1">
         <f t="array" ref="U4">INDEX(Page4!$G$9:$G$38, COLUMN(U4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V4" s="300" t="e" cm="1">
+      <c r="V4" s="119" t="e" cm="1">
         <f t="array" ref="V4">INDEX(Page4!$G$9:$G$38, COLUMN(V4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W4" s="300" t="e" cm="1">
+      <c r="W4" s="119" t="e" cm="1">
         <f t="array" ref="W4">INDEX(Page4!$G$9:$G$38, COLUMN(W4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X4" s="300" t="e" cm="1">
+      <c r="X4" s="119" t="e" cm="1">
         <f t="array" ref="X4">INDEX(Page4!$G$9:$G$38, COLUMN(X4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y4" s="300" t="e" cm="1">
+      <c r="Y4" s="119" t="e" cm="1">
         <f t="array" ref="Y4">INDEX(Page4!$G$9:$G$38, COLUMN(Y4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z4" s="300" t="e" cm="1">
+      <c r="Z4" s="119" t="e" cm="1">
         <f t="array" ref="Z4">INDEX(Page4!$G$9:$G$38, COLUMN(Z4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA4" s="300" t="e" cm="1">
+      <c r="AA4" s="119" t="e" cm="1">
         <f t="array" ref="AA4">INDEX(Page4!$G$9:$G$38, COLUMN(AA4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB4" s="300" t="e" cm="1">
+      <c r="AB4" s="119" t="e" cm="1">
         <f t="array" ref="AB4">INDEX(Page4!$G$9:$G$38, COLUMN(AB4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="300" t="e" cm="1">
+      <c r="AC4" s="119" t="e" cm="1">
         <f t="array" ref="AC4">INDEX(Page4!$G$9:$G$38, COLUMN(AC4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="300" t="e" cm="1">
+      <c r="AD4" s="119" t="e" cm="1">
         <f t="array" ref="AD4">INDEX(Page4!$G$9:$G$38, COLUMN(AD4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE4" s="300" t="e" cm="1">
+      <c r="AE4" s="119" t="e" cm="1">
         <f t="array" ref="AE4">INDEX(Page4!$G$9:$G$38, COLUMN(AE4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF4" s="300" t="e" cm="1">
+      <c r="AF4" s="119" t="e" cm="1">
         <f t="array" ref="AF4">INDEX(Page4!$G$9:$G$38, COLUMN(AF4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG4" s="300" t="e" cm="1">
+      <c r="AG4" s="119" t="e" cm="1">
         <f t="array" ref="AG4">INDEX(Page4!$G$9:$G$38, COLUMN(AG4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH4" s="300" t="e" cm="1">
+      <c r="AH4" s="119" t="e" cm="1">
         <f t="array" ref="AH4">INDEX(Page4!$G$9:$G$38, COLUMN(AH4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI4" s="300" t="e" cm="1">
+      <c r="AI4" s="119" t="e" cm="1">
         <f t="array" ref="AI4">INDEX(Page4!$G$9:$G$38, COLUMN(AI4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ4" s="300" t="e" cm="1">
+      <c r="AJ4" s="119" t="e" cm="1">
         <f t="array" ref="AJ4">INDEX(Page4!$G$9:$G$38, COLUMN(AJ4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK4" s="300" t="e" cm="1">
+      <c r="AK4" s="119" t="e" cm="1">
         <f t="array" ref="AK4">INDEX(Page4!$G$9:$G$38, COLUMN(AK4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL4" s="300" t="e" cm="1">
+      <c r="AL4" s="119" t="e" cm="1">
         <f t="array" ref="AL4">INDEX(Page4!$G$9:$G$38, COLUMN(AL4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM4" s="300" t="e" cm="1">
+      <c r="AM4" s="119" t="e" cm="1">
         <f t="array" ref="AM4">INDEX(Page4!$G$9:$G$38, COLUMN(AM4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN4" s="300" t="e" cm="1">
+      <c r="AN4" s="119" t="e" cm="1">
         <f t="array" ref="AN4">INDEX(Page4!$G$9:$G$38, COLUMN(AN4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO4" s="301" t="e">
+      <c r="AO4" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP4" s="296" t="e">
+      <c r="AP4" s="115" t="e">
         <f>STDEV(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ4" s="302" t="e">
+      <c r="AQ4" s="121" t="e">
         <f>(I4-AO4)/(3*AP4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR4" s="303" t="e">
+      <c r="AR4" s="122" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS4" s="303" t="e">
+      <c r="AS4" s="122" t="e">
         <f>MAX(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
@@ -11596,174 +11603,174 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:46" s="299" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="289">
+    <row r="5" spans="1:46" s="118" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="108">
         <v>3</v>
       </c>
-      <c r="B5" s="290" t="s">
+      <c r="B5" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="292" t="s">
+      <c r="D5" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="292" t="s">
+      <c r="E5" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="292" t="s">
+      <c r="F5" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="293" t="s">
+      <c r="G5" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="293" t="s">
+      <c r="H5" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="293" t="s">
+      <c r="I5" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="293" t="s">
+      <c r="J5" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="300" cm="1">
+      <c r="K5" s="119" cm="1">
         <f t="array" ref="K5">INDEX(Page1!$H$8:$H$37, COLUMN(K5)-10)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="300" cm="1">
+      <c r="L5" s="119" cm="1">
         <f t="array" ref="L5">INDEX(Page1!$H$8:$H$37, COLUMN(L5)-10)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="300" cm="1">
+      <c r="M5" s="119" cm="1">
         <f t="array" ref="M5">INDEX(Page1!$H$8:$H$37, COLUMN(M5)-10)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="300" cm="1">
+      <c r="N5" s="119" cm="1">
         <f t="array" ref="N5">INDEX(Page1!$H$8:$H$37, COLUMN(N5)-10)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="300" cm="1">
+      <c r="O5" s="119" cm="1">
         <f t="array" ref="O5">INDEX(Page1!$H$8:$H$37, COLUMN(O5)-10)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="300" cm="1">
+      <c r="P5" s="119" cm="1">
         <f t="array" ref="P5">INDEX(Page1!$H$8:$H$37, COLUMN(P5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="300" cm="1">
+      <c r="Q5" s="119" cm="1">
         <f t="array" ref="Q5">INDEX(Page1!$H$8:$H$37, COLUMN(Q5)-10)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="300" cm="1">
+      <c r="R5" s="119" cm="1">
         <f t="array" ref="R5">INDEX(Page1!$H$8:$H$37, COLUMN(R5)-10)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="300" cm="1">
+      <c r="S5" s="119" cm="1">
         <f t="array" ref="S5">INDEX(Page1!$H$8:$H$37, COLUMN(S5)-10)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="300" cm="1">
+      <c r="T5" s="119" cm="1">
         <f t="array" ref="T5">INDEX(Page1!$H$8:$H$37, COLUMN(T5)-10)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="300" cm="1">
+      <c r="U5" s="119" cm="1">
         <f t="array" ref="U5">INDEX(Page1!$H$8:$H$37, COLUMN(U5)-10)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="300" cm="1">
+      <c r="V5" s="119" cm="1">
         <f t="array" ref="V5">INDEX(Page1!$H$8:$H$37, COLUMN(V5)-10)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="300" cm="1">
+      <c r="W5" s="119" cm="1">
         <f t="array" ref="W5">INDEX(Page1!$H$8:$H$37, COLUMN(W5)-10)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="300" cm="1">
+      <c r="X5" s="119" cm="1">
         <f t="array" ref="X5">INDEX(Page1!$H$8:$H$37, COLUMN(X5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="300" cm="1">
+      <c r="Y5" s="119" cm="1">
         <f t="array" ref="Y5">INDEX(Page1!$H$8:$H$37, COLUMN(Y5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="300" cm="1">
+      <c r="Z5" s="119" cm="1">
         <f t="array" ref="Z5">INDEX(Page1!$H$8:$H$37, COLUMN(Z5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="300" cm="1">
+      <c r="AA5" s="119" cm="1">
         <f t="array" ref="AA5">INDEX(Page1!$H$8:$H$37, COLUMN(AA5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="300" cm="1">
+      <c r="AB5" s="119" cm="1">
         <f t="array" ref="AB5">INDEX(Page1!$H$8:$H$37, COLUMN(AB5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="300" cm="1">
+      <c r="AC5" s="119" cm="1">
         <f t="array" ref="AC5">INDEX(Page1!$H$8:$H$37, COLUMN(AC5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="300" cm="1">
+      <c r="AD5" s="119" cm="1">
         <f t="array" ref="AD5">INDEX(Page1!$H$8:$H$37, COLUMN(AD5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="300" cm="1">
+      <c r="AE5" s="119" cm="1">
         <f t="array" ref="AE5">INDEX(Page1!$H$8:$H$37, COLUMN(AE5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="300" cm="1">
+      <c r="AF5" s="119" cm="1">
         <f t="array" ref="AF5">INDEX(Page1!$H$8:$H$37, COLUMN(AF5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="300" cm="1">
+      <c r="AG5" s="119" cm="1">
         <f t="array" ref="AG5">INDEX(Page1!$H$8:$H$37, COLUMN(AG5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="300" cm="1">
+      <c r="AH5" s="119" cm="1">
         <f t="array" ref="AH5">INDEX(Page1!$H$8:$H$37, COLUMN(AH5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="300" cm="1">
+      <c r="AI5" s="119" cm="1">
         <f t="array" ref="AI5">INDEX(Page1!$H$8:$H$37, COLUMN(AI5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="300" cm="1">
+      <c r="AJ5" s="119" cm="1">
         <f t="array" ref="AJ5">INDEX(Page1!$H$8:$H$37, COLUMN(AJ5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="300" cm="1">
+      <c r="AK5" s="119" cm="1">
         <f t="array" ref="AK5">INDEX(Page1!$H$8:$H$37, COLUMN(AK5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="300" cm="1">
+      <c r="AL5" s="119" cm="1">
         <f t="array" ref="AL5">INDEX(Page1!$H$8:$H$37, COLUMN(AL5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="300" cm="1">
+      <c r="AM5" s="119" cm="1">
         <f t="array" ref="AM5">INDEX(Page1!$H$8:$H$37, COLUMN(AM5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="300" cm="1">
+      <c r="AN5" s="119" cm="1">
         <f t="array" ref="AN5">INDEX(Page1!$H$8:$H$37, COLUMN(AN5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="301">
+      <c r="AO5" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP5" s="296">
+      <c r="AP5" s="115">
         <f>STDEV(K5:AN5)</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="302" t="e">
+      <c r="AQ5" s="121" t="e">
         <f>MIN((AO5-H5)/(3*AP5), (I5-AO5)/(3*AP5))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR5" s="303">
+      <c r="AR5" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS5" s="303">
+      <c r="AS5" s="122">
         <f>MAX(K5:AN5)</f>
         <v>0</v>
       </c>
@@ -11772,172 +11779,172 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:46" s="299" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="289">
+    <row r="6" spans="1:46" s="118" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="108">
         <v>4</v>
       </c>
-      <c r="B6" s="290" t="s">
+      <c r="B6" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="291" t="s">
+      <c r="C6" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="292" t="s">
+      <c r="D6" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="292" t="s">
+      <c r="E6" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="292" t="s">
+      <c r="F6" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="293" t="s">
+      <c r="G6" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="293"/>
-      <c r="I6" s="293" t="s">
+      <c r="H6" s="112"/>
+      <c r="I6" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="293" t="s">
+      <c r="J6" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="304" cm="1">
+      <c r="K6" s="123" cm="1">
         <f t="array" ref="K6">INDEX(Page1!$N$8:$N$37, COLUMN(K6)-10)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="304" cm="1">
+      <c r="L6" s="123" cm="1">
         <f t="array" ref="L6">INDEX(Page1!$N$8:$N$37, COLUMN(L6)-10)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="304" cm="1">
+      <c r="M6" s="123" cm="1">
         <f t="array" ref="M6">INDEX(Page1!$N$8:$N$37, COLUMN(M6)-10)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="304" cm="1">
+      <c r="N6" s="123" cm="1">
         <f t="array" ref="N6">INDEX(Page1!$N$8:$N$37, COLUMN(N6)-10)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="304" cm="1">
+      <c r="O6" s="123" cm="1">
         <f t="array" ref="O6">INDEX(Page1!$N$8:$N$37, COLUMN(O6)-10)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="304" cm="1">
+      <c r="P6" s="123" cm="1">
         <f t="array" ref="P6">INDEX(Page1!$N$8:$N$37, COLUMN(P6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="304" cm="1">
+      <c r="Q6" s="123" cm="1">
         <f t="array" ref="Q6">INDEX(Page1!$N$8:$N$37, COLUMN(Q6)-10)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="304" cm="1">
+      <c r="R6" s="123" cm="1">
         <f t="array" ref="R6">INDEX(Page1!$N$8:$N$37, COLUMN(R6)-10)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="304" cm="1">
+      <c r="S6" s="123" cm="1">
         <f t="array" ref="S6">INDEX(Page1!$N$8:$N$37, COLUMN(S6)-10)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="304" cm="1">
+      <c r="T6" s="123" cm="1">
         <f t="array" ref="T6">INDEX(Page1!$N$8:$N$37, COLUMN(T6)-10)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="304" cm="1">
+      <c r="U6" s="123" cm="1">
         <f t="array" ref="U6">INDEX(Page1!$N$8:$N$37, COLUMN(U6)-10)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="304" cm="1">
+      <c r="V6" s="123" cm="1">
         <f t="array" ref="V6">INDEX(Page1!$N$8:$N$37, COLUMN(V6)-10)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="304" cm="1">
+      <c r="W6" s="123" cm="1">
         <f t="array" ref="W6">INDEX(Page1!$N$8:$N$37, COLUMN(W6)-10)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="304" cm="1">
+      <c r="X6" s="123" cm="1">
         <f t="array" ref="X6">INDEX(Page1!$N$8:$N$37, COLUMN(X6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="304" cm="1">
+      <c r="Y6" s="123" cm="1">
         <f t="array" ref="Y6">INDEX(Page1!$N$8:$N$37, COLUMN(Y6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="304" cm="1">
+      <c r="Z6" s="123" cm="1">
         <f t="array" ref="Z6">INDEX(Page1!$N$8:$N$37, COLUMN(Z6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="304" cm="1">
+      <c r="AA6" s="123" cm="1">
         <f t="array" ref="AA6">INDEX(Page1!$N$8:$N$37, COLUMN(AA6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="304" cm="1">
+      <c r="AB6" s="123" cm="1">
         <f t="array" ref="AB6">INDEX(Page1!$N$8:$N$37, COLUMN(AB6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="304" cm="1">
+      <c r="AC6" s="123" cm="1">
         <f t="array" ref="AC6">INDEX(Page1!$N$8:$N$37, COLUMN(AC6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="304" cm="1">
+      <c r="AD6" s="123" cm="1">
         <f t="array" ref="AD6">INDEX(Page1!$N$8:$N$37, COLUMN(AD6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="304" cm="1">
+      <c r="AE6" s="123" cm="1">
         <f t="array" ref="AE6">INDEX(Page1!$N$8:$N$37, COLUMN(AE6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="304" cm="1">
+      <c r="AF6" s="123" cm="1">
         <f t="array" ref="AF6">INDEX(Page1!$N$8:$N$37, COLUMN(AF6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="304" cm="1">
+      <c r="AG6" s="123" cm="1">
         <f t="array" ref="AG6">INDEX(Page1!$N$8:$N$37, COLUMN(AG6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="304" cm="1">
+      <c r="AH6" s="123" cm="1">
         <f t="array" ref="AH6">INDEX(Page1!$N$8:$N$37, COLUMN(AH6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="304" cm="1">
+      <c r="AI6" s="123" cm="1">
         <f t="array" ref="AI6">INDEX(Page1!$N$8:$N$37, COLUMN(AI6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="304" cm="1">
+      <c r="AJ6" s="123" cm="1">
         <f t="array" ref="AJ6">INDEX(Page1!$N$8:$N$37, COLUMN(AJ6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="304" cm="1">
+      <c r="AK6" s="123" cm="1">
         <f t="array" ref="AK6">INDEX(Page1!$N$8:$N$37, COLUMN(AK6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="304" cm="1">
+      <c r="AL6" s="123" cm="1">
         <f t="array" ref="AL6">INDEX(Page1!$N$8:$N$37, COLUMN(AL6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="304" cm="1">
+      <c r="AM6" s="123" cm="1">
         <f t="array" ref="AM6">INDEX(Page1!$N$8:$N$37, COLUMN(AM6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="304" cm="1">
+      <c r="AN6" s="123" cm="1">
         <f t="array" ref="AN6">INDEX(Page1!$N$8:$N$37, COLUMN(AN6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="305">
+      <c r="AO6" s="124">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP6" s="296">
+      <c r="AP6" s="115">
         <f>STDEV(K6:AN6)</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="302" t="e">
+      <c r="AQ6" s="121" t="e">
         <f>(I6-AO6)/(3*AP6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR6" s="296">
+      <c r="AR6" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS6" s="296">
+      <c r="AS6" s="115">
         <f>MAX(K6:AN6)</f>
         <v>0</v>
       </c>
@@ -11946,174 +11953,174 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:46" s="299" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="289">
+    <row r="7" spans="1:46" s="118" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="108">
         <v>5</v>
       </c>
-      <c r="B7" s="290" t="s">
+      <c r="B7" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="292" t="s">
+      <c r="D7" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="292" t="s">
+      <c r="E7" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="292" t="s">
+      <c r="F7" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="293" t="s">
+      <c r="G7" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="293" t="s">
+      <c r="H7" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="293" t="s">
+      <c r="I7" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="J7" s="293" t="s">
+      <c r="J7" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="304" cm="1">
+      <c r="K7" s="123" cm="1">
         <f t="array" ref="K7">INDEX(Page1!$D$8:$D$37, COLUMN(K7)-10)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="304" cm="1">
+      <c r="L7" s="123" cm="1">
         <f t="array" ref="L7">INDEX(Page1!$D$8:$D$37, COLUMN(L7)-10)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="304" cm="1">
+      <c r="M7" s="123" cm="1">
         <f t="array" ref="M7">INDEX(Page1!$D$8:$D$37, COLUMN(M7)-10)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="304" cm="1">
+      <c r="N7" s="123" cm="1">
         <f t="array" ref="N7">INDEX(Page1!$D$8:$D$37, COLUMN(N7)-10)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="304" cm="1">
+      <c r="O7" s="123" cm="1">
         <f t="array" ref="O7">INDEX(Page1!$D$8:$D$37, COLUMN(O7)-10)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="304" cm="1">
+      <c r="P7" s="123" cm="1">
         <f t="array" ref="P7">INDEX(Page1!$D$8:$D$37, COLUMN(P7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="304" cm="1">
+      <c r="Q7" s="123" cm="1">
         <f t="array" ref="Q7">INDEX(Page1!$D$8:$D$37, COLUMN(Q7)-10)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="304" cm="1">
+      <c r="R7" s="123" cm="1">
         <f t="array" ref="R7">INDEX(Page1!$D$8:$D$37, COLUMN(R7)-10)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="304" cm="1">
+      <c r="S7" s="123" cm="1">
         <f t="array" ref="S7">INDEX(Page1!$D$8:$D$37, COLUMN(S7)-10)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="304" cm="1">
+      <c r="T7" s="123" cm="1">
         <f t="array" ref="T7">INDEX(Page1!$D$8:$D$37, COLUMN(T7)-10)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="304" cm="1">
+      <c r="U7" s="123" cm="1">
         <f t="array" ref="U7">INDEX(Page1!$D$8:$D$37, COLUMN(U7)-10)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="304" cm="1">
+      <c r="V7" s="123" cm="1">
         <f t="array" ref="V7">INDEX(Page1!$D$8:$D$37, COLUMN(V7)-10)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="304" cm="1">
+      <c r="W7" s="123" cm="1">
         <f t="array" ref="W7">INDEX(Page1!$D$8:$D$37, COLUMN(W7)-10)</f>
         <v>0</v>
       </c>
-      <c r="X7" s="304" cm="1">
+      <c r="X7" s="123" cm="1">
         <f t="array" ref="X7">INDEX(Page1!$D$8:$D$37, COLUMN(X7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="304" cm="1">
+      <c r="Y7" s="123" cm="1">
         <f t="array" ref="Y7">INDEX(Page1!$D$8:$D$37, COLUMN(Y7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="304" cm="1">
+      <c r="Z7" s="123" cm="1">
         <f t="array" ref="Z7">INDEX(Page1!$D$8:$D$37, COLUMN(Z7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="304" cm="1">
+      <c r="AA7" s="123" cm="1">
         <f t="array" ref="AA7">INDEX(Page1!$D$8:$D$37, COLUMN(AA7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="304" cm="1">
+      <c r="AB7" s="123" cm="1">
         <f t="array" ref="AB7">INDEX(Page1!$D$8:$D$37, COLUMN(AB7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="304" cm="1">
+      <c r="AC7" s="123" cm="1">
         <f t="array" ref="AC7">INDEX(Page1!$D$8:$D$37, COLUMN(AC7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="304" cm="1">
+      <c r="AD7" s="123" cm="1">
         <f t="array" ref="AD7">INDEX(Page1!$D$8:$D$37, COLUMN(AD7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="304" cm="1">
+      <c r="AE7" s="123" cm="1">
         <f t="array" ref="AE7">INDEX(Page1!$D$8:$D$37, COLUMN(AE7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="304" cm="1">
+      <c r="AF7" s="123" cm="1">
         <f t="array" ref="AF7">INDEX(Page1!$D$8:$D$37, COLUMN(AF7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="304" cm="1">
+      <c r="AG7" s="123" cm="1">
         <f t="array" ref="AG7">INDEX(Page1!$D$8:$D$37, COLUMN(AG7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="304" cm="1">
+      <c r="AH7" s="123" cm="1">
         <f t="array" ref="AH7">INDEX(Page1!$D$8:$D$37, COLUMN(AH7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="304" cm="1">
+      <c r="AI7" s="123" cm="1">
         <f t="array" ref="AI7">INDEX(Page1!$D$8:$D$37, COLUMN(AI7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ7" s="304" cm="1">
+      <c r="AJ7" s="123" cm="1">
         <f t="array" ref="AJ7">INDEX(Page1!$D$8:$D$37, COLUMN(AJ7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK7" s="304" cm="1">
+      <c r="AK7" s="123" cm="1">
         <f t="array" ref="AK7">INDEX(Page1!$D$8:$D$37, COLUMN(AK7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL7" s="304" cm="1">
+      <c r="AL7" s="123" cm="1">
         <f t="array" ref="AL7">INDEX(Page1!$D$8:$D$37, COLUMN(AL7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="304" cm="1">
+      <c r="AM7" s="123" cm="1">
         <f t="array" ref="AM7">INDEX(Page1!$D$8:$D$37, COLUMN(AM7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN7" s="304" cm="1">
+      <c r="AN7" s="123" cm="1">
         <f t="array" ref="AN7">INDEX(Page1!$D$8:$D$37, COLUMN(AN7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO7" s="305">
+      <c r="AO7" s="124">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP7" s="296">
+      <c r="AP7" s="115">
         <f t="shared" ref="AP7:AP16" si="2">STDEV(K7:AN7)</f>
         <v>0</v>
       </c>
-      <c r="AQ7" s="302" t="e">
+      <c r="AQ7" s="121" t="e">
         <f>MIN((AO7-H7)/(3*AP7), (I7-AO7)/(3*AP7))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR7" s="296">
+      <c r="AR7" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS7" s="296">
+      <c r="AS7" s="115">
         <f t="shared" ref="AS7:AS16" si="3">MAX(K7:AN7)</f>
         <v>0</v>
       </c>
@@ -12122,174 +12129,174 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:46" s="299" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="289">
+    <row r="8" spans="1:46" s="118" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="108">
         <v>6</v>
       </c>
-      <c r="B8" s="290" t="s">
+      <c r="B8" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="291" t="s">
+      <c r="C8" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="292" t="s">
+      <c r="D8" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="292" t="s">
+      <c r="E8" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="292" t="s">
+      <c r="F8" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="293" t="s">
+      <c r="G8" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="293" t="s">
+      <c r="H8" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="293" t="s">
+      <c r="I8" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="293" t="s">
+      <c r="J8" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="294" t="e" cm="1">
+      <c r="K8" s="113" t="e" cm="1">
         <f t="array" ref="K8">INDEX(Page3!$G$9:$G$38, COLUMN(K8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="294" t="e" cm="1">
+      <c r="L8" s="113" t="e" cm="1">
         <f t="array" ref="L8">INDEX(Page3!$G$9:$G$38, COLUMN(L8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="294" t="e" cm="1">
+      <c r="M8" s="113" t="e" cm="1">
         <f t="array" ref="M8">INDEX(Page3!$G$9:$G$38, COLUMN(M8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="294" t="e" cm="1">
+      <c r="N8" s="113" t="e" cm="1">
         <f t="array" ref="N8">INDEX(Page3!$G$9:$G$38, COLUMN(N8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="294" t="e" cm="1">
+      <c r="O8" s="113" t="e" cm="1">
         <f t="array" ref="O8">INDEX(Page3!$G$9:$G$38, COLUMN(O8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="294" t="e" cm="1">
+      <c r="P8" s="113" t="e" cm="1">
         <f t="array" ref="P8">INDEX(Page3!$G$9:$G$38, COLUMN(P8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="294" t="e" cm="1">
+      <c r="Q8" s="113" t="e" cm="1">
         <f t="array" ref="Q8">INDEX(Page3!$G$9:$G$38, COLUMN(Q8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R8" s="294" t="e" cm="1">
+      <c r="R8" s="113" t="e" cm="1">
         <f t="array" ref="R8">INDEX(Page3!$G$9:$G$38, COLUMN(R8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S8" s="294" t="e" cm="1">
+      <c r="S8" s="113" t="e" cm="1">
         <f t="array" ref="S8">INDEX(Page3!$G$9:$G$38, COLUMN(S8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T8" s="294" t="e" cm="1">
+      <c r="T8" s="113" t="e" cm="1">
         <f t="array" ref="T8">INDEX(Page3!$G$9:$G$38, COLUMN(T8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="294" t="e" cm="1">
+      <c r="U8" s="113" t="e" cm="1">
         <f t="array" ref="U8">INDEX(Page3!$G$9:$G$38, COLUMN(U8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V8" s="294" t="e" cm="1">
+      <c r="V8" s="113" t="e" cm="1">
         <f t="array" ref="V8">INDEX(Page3!$G$9:$G$38, COLUMN(V8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W8" s="294" t="e" cm="1">
+      <c r="W8" s="113" t="e" cm="1">
         <f t="array" ref="W8">INDEX(Page3!$G$9:$G$38, COLUMN(W8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X8" s="294" t="e" cm="1">
+      <c r="X8" s="113" t="e" cm="1">
         <f t="array" ref="X8">INDEX(Page3!$G$9:$G$38, COLUMN(X8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y8" s="294" t="e" cm="1">
+      <c r="Y8" s="113" t="e" cm="1">
         <f t="array" ref="Y8">INDEX(Page3!$G$9:$G$38, COLUMN(Y8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z8" s="294" t="e" cm="1">
+      <c r="Z8" s="113" t="e" cm="1">
         <f t="array" ref="Z8">INDEX(Page3!$G$9:$G$38, COLUMN(Z8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA8" s="294" t="e" cm="1">
+      <c r="AA8" s="113" t="e" cm="1">
         <f t="array" ref="AA8">INDEX(Page3!$G$9:$G$38, COLUMN(AA8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB8" s="294" t="e" cm="1">
+      <c r="AB8" s="113" t="e" cm="1">
         <f t="array" ref="AB8">INDEX(Page3!$G$9:$G$38, COLUMN(AB8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="294" t="e" cm="1">
+      <c r="AC8" s="113" t="e" cm="1">
         <f t="array" ref="AC8">INDEX(Page3!$G$9:$G$38, COLUMN(AC8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="294" t="e" cm="1">
+      <c r="AD8" s="113" t="e" cm="1">
         <f t="array" ref="AD8">INDEX(Page3!$G$9:$G$38, COLUMN(AD8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE8" s="294" t="e" cm="1">
+      <c r="AE8" s="113" t="e" cm="1">
         <f t="array" ref="AE8">INDEX(Page3!$G$9:$G$38, COLUMN(AE8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF8" s="294" t="e" cm="1">
+      <c r="AF8" s="113" t="e" cm="1">
         <f t="array" ref="AF8">INDEX(Page3!$G$9:$G$38, COLUMN(AF8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG8" s="294" t="e" cm="1">
+      <c r="AG8" s="113" t="e" cm="1">
         <f t="array" ref="AG8">INDEX(Page3!$G$9:$G$38, COLUMN(AG8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH8" s="294" t="e" cm="1">
+      <c r="AH8" s="113" t="e" cm="1">
         <f t="array" ref="AH8">INDEX(Page3!$G$9:$G$38, COLUMN(AH8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI8" s="294" t="e" cm="1">
+      <c r="AI8" s="113" t="e" cm="1">
         <f t="array" ref="AI8">INDEX(Page3!$G$9:$G$38, COLUMN(AI8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ8" s="294" t="e" cm="1">
+      <c r="AJ8" s="113" t="e" cm="1">
         <f t="array" ref="AJ8">INDEX(Page3!$G$9:$G$38, COLUMN(AJ8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK8" s="294" t="e" cm="1">
+      <c r="AK8" s="113" t="e" cm="1">
         <f t="array" ref="AK8">INDEX(Page3!$G$9:$G$38, COLUMN(AK8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL8" s="294" t="e" cm="1">
+      <c r="AL8" s="113" t="e" cm="1">
         <f t="array" ref="AL8">INDEX(Page3!$G$9:$G$38, COLUMN(AL8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM8" s="294" t="e" cm="1">
+      <c r="AM8" s="113" t="e" cm="1">
         <f t="array" ref="AM8">INDEX(Page3!$G$9:$G$38, COLUMN(AM8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN8" s="294" t="e" cm="1">
+      <c r="AN8" s="113" t="e" cm="1">
         <f t="array" ref="AN8">INDEX(Page3!$G$9:$G$38, COLUMN(AN8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO8" s="295" t="e">
+      <c r="AO8" s="114" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP8" s="296" t="e">
+      <c r="AP8" s="115" t="e">
         <f>STDEV(K8:AN8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ8" s="302" t="e">
+      <c r="AQ8" s="121" t="e">
         <f>(AO8-H8)/(3*AP8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR8" s="298" t="e">
+      <c r="AR8" s="117" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS8" s="298" t="e">
+      <c r="AS8" s="117" t="e">
         <f>MAX(K8:AN8)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12298,174 +12305,174 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:46" s="299" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="289">
+    <row r="9" spans="1:46" s="118" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="108">
         <v>7</v>
       </c>
-      <c r="B9" s="290" t="s">
+      <c r="B9" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="292" t="s">
+      <c r="D9" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="292" t="s">
+      <c r="E9" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="292" t="s">
+      <c r="F9" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="293" t="s">
+      <c r="G9" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="293" t="s">
+      <c r="H9" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="293" t="s">
+      <c r="I9" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="293" t="s">
+      <c r="J9" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="294" t="e" cm="1">
+      <c r="K9" s="113" t="e" cm="1">
         <f t="array" ref="K9">INDEX(Page2!$G$9:$G$38, COLUMN(K9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="294" t="e" cm="1">
+      <c r="L9" s="113" t="e" cm="1">
         <f t="array" ref="L9">INDEX(Page2!$G$9:$G$38, COLUMN(L9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="294" t="e" cm="1">
+      <c r="M9" s="113" t="e" cm="1">
         <f t="array" ref="M9">INDEX(Page2!$G$9:$G$38, COLUMN(M9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="294" t="e" cm="1">
+      <c r="N9" s="113" t="e" cm="1">
         <f t="array" ref="N9">INDEX(Page2!$G$9:$G$38, COLUMN(N9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="294" t="e" cm="1">
+      <c r="O9" s="113" t="e" cm="1">
         <f t="array" ref="O9">INDEX(Page2!$G$9:$G$38, COLUMN(O9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P9" s="294" t="e" cm="1">
+      <c r="P9" s="113" t="e" cm="1">
         <f t="array" ref="P9">INDEX(Page2!$G$9:$G$38, COLUMN(P9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q9" s="294" t="e" cm="1">
+      <c r="Q9" s="113" t="e" cm="1">
         <f t="array" ref="Q9">INDEX(Page2!$G$9:$G$38, COLUMN(Q9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R9" s="294" t="e" cm="1">
+      <c r="R9" s="113" t="e" cm="1">
         <f t="array" ref="R9">INDEX(Page2!$G$9:$G$38, COLUMN(R9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S9" s="294" t="e" cm="1">
+      <c r="S9" s="113" t="e" cm="1">
         <f t="array" ref="S9">INDEX(Page2!$G$9:$G$38, COLUMN(S9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T9" s="294" t="e" cm="1">
+      <c r="T9" s="113" t="e" cm="1">
         <f t="array" ref="T9">INDEX(Page2!$G$9:$G$38, COLUMN(T9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U9" s="294" t="e" cm="1">
+      <c r="U9" s="113" t="e" cm="1">
         <f t="array" ref="U9">INDEX(Page2!$G$9:$G$38, COLUMN(U9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V9" s="294" t="e" cm="1">
+      <c r="V9" s="113" t="e" cm="1">
         <f t="array" ref="V9">INDEX(Page2!$G$9:$G$38, COLUMN(V9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W9" s="294" t="e" cm="1">
+      <c r="W9" s="113" t="e" cm="1">
         <f t="array" ref="W9">INDEX(Page2!$G$9:$G$38, COLUMN(W9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X9" s="294" t="e" cm="1">
+      <c r="X9" s="113" t="e" cm="1">
         <f t="array" ref="X9">INDEX(Page2!$G$9:$G$38, COLUMN(X9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y9" s="294" t="e" cm="1">
+      <c r="Y9" s="113" t="e" cm="1">
         <f t="array" ref="Y9">INDEX(Page2!$G$9:$G$38, COLUMN(Y9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z9" s="294" t="e" cm="1">
+      <c r="Z9" s="113" t="e" cm="1">
         <f t="array" ref="Z9">INDEX(Page2!$G$9:$G$38, COLUMN(Z9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA9" s="294" t="e" cm="1">
+      <c r="AA9" s="113" t="e" cm="1">
         <f t="array" ref="AA9">INDEX(Page2!$G$9:$G$38, COLUMN(AA9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB9" s="294" t="e" cm="1">
+      <c r="AB9" s="113" t="e" cm="1">
         <f t="array" ref="AB9">INDEX(Page2!$G$9:$G$38, COLUMN(AB9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC9" s="294" t="e" cm="1">
+      <c r="AC9" s="113" t="e" cm="1">
         <f t="array" ref="AC9">INDEX(Page2!$G$9:$G$38, COLUMN(AC9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="294" t="e" cm="1">
+      <c r="AD9" s="113" t="e" cm="1">
         <f t="array" ref="AD9">INDEX(Page2!$G$9:$G$38, COLUMN(AD9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE9" s="294" t="e" cm="1">
+      <c r="AE9" s="113" t="e" cm="1">
         <f t="array" ref="AE9">INDEX(Page2!$G$9:$G$38, COLUMN(AE9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF9" s="294" t="e" cm="1">
+      <c r="AF9" s="113" t="e" cm="1">
         <f t="array" ref="AF9">INDEX(Page2!$G$9:$G$38, COLUMN(AF9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG9" s="294" t="e" cm="1">
+      <c r="AG9" s="113" t="e" cm="1">
         <f t="array" ref="AG9">INDEX(Page2!$G$9:$G$38, COLUMN(AG9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH9" s="294" t="e" cm="1">
+      <c r="AH9" s="113" t="e" cm="1">
         <f t="array" ref="AH9">INDEX(Page2!$G$9:$G$38, COLUMN(AH9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI9" s="294" t="e" cm="1">
+      <c r="AI9" s="113" t="e" cm="1">
         <f t="array" ref="AI9">INDEX(Page2!$G$9:$G$38, COLUMN(AI9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ9" s="294" t="e" cm="1">
+      <c r="AJ9" s="113" t="e" cm="1">
         <f t="array" ref="AJ9">INDEX(Page2!$G$9:$G$38, COLUMN(AJ9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK9" s="294" t="e" cm="1">
+      <c r="AK9" s="113" t="e" cm="1">
         <f t="array" ref="AK9">INDEX(Page2!$G$9:$G$38, COLUMN(AK9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL9" s="294" t="e" cm="1">
+      <c r="AL9" s="113" t="e" cm="1">
         <f t="array" ref="AL9">INDEX(Page2!$G$9:$G$38, COLUMN(AL9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM9" s="294" t="e" cm="1">
+      <c r="AM9" s="113" t="e" cm="1">
         <f t="array" ref="AM9">INDEX(Page2!$G$9:$G$38, COLUMN(AM9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN9" s="294" t="e" cm="1">
+      <c r="AN9" s="113" t="e" cm="1">
         <f t="array" ref="AN9">INDEX(Page2!$G$9:$G$38, COLUMN(AN9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO9" s="295" t="e">
+      <c r="AO9" s="114" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP9" s="296" t="e">
+      <c r="AP9" s="115" t="e">
         <f>STDEV(K9:AN9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ9" s="302" t="e">
+      <c r="AQ9" s="121" t="e">
         <f>(AO9-H9)/(3*AP9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR9" s="298" t="e">
+      <c r="AR9" s="117" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS9" s="298" t="e">
+      <c r="AS9" s="117" t="e">
         <f>MAX(K9:AN9)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12474,174 +12481,174 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:46" s="299" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="289">
+    <row r="10" spans="1:46" s="118" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="108">
         <v>8</v>
       </c>
-      <c r="B10" s="290" t="s">
+      <c r="B10" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="291" t="s">
+      <c r="C10" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="292" t="s">
+      <c r="D10" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="292" t="s">
+      <c r="E10" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="292" t="s">
+      <c r="F10" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="293" t="s">
+      <c r="G10" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="293" t="s">
+      <c r="H10" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="293" t="s">
+      <c r="I10" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="293" t="s">
+      <c r="J10" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="300" t="e" cm="1">
+      <c r="K10" s="119" t="e" cm="1">
         <f t="array" ref="K10">INDEX(Page2!$K$9:$K$38, COLUMN(K10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="300" t="e" cm="1">
+      <c r="L10" s="119" t="e" cm="1">
         <f t="array" ref="L10">INDEX(Page2!$K$9:$K$38, COLUMN(L10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="300" t="e" cm="1">
+      <c r="M10" s="119" t="e" cm="1">
         <f t="array" ref="M10">INDEX(Page2!$K$9:$K$38, COLUMN(M10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="300" t="e" cm="1">
+      <c r="N10" s="119" t="e" cm="1">
         <f t="array" ref="N10">INDEX(Page2!$K$9:$K$38, COLUMN(N10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="300" t="e" cm="1">
+      <c r="O10" s="119" t="e" cm="1">
         <f t="array" ref="O10">INDEX(Page2!$K$9:$K$38, COLUMN(O10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P10" s="300" t="e" cm="1">
+      <c r="P10" s="119" t="e" cm="1">
         <f t="array" ref="P10">INDEX(Page2!$K$9:$K$38, COLUMN(P10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="300" t="e" cm="1">
+      <c r="Q10" s="119" t="e" cm="1">
         <f t="array" ref="Q10">INDEX(Page2!$K$9:$K$38, COLUMN(Q10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R10" s="300" t="e" cm="1">
+      <c r="R10" s="119" t="e" cm="1">
         <f t="array" ref="R10">INDEX(Page2!$K$9:$K$38, COLUMN(R10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="300" t="e" cm="1">
+      <c r="S10" s="119" t="e" cm="1">
         <f t="array" ref="S10">INDEX(Page2!$K$9:$K$38, COLUMN(S10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T10" s="300" t="e" cm="1">
+      <c r="T10" s="119" t="e" cm="1">
         <f t="array" ref="T10">INDEX(Page2!$K$9:$K$38, COLUMN(T10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U10" s="300" t="e" cm="1">
+      <c r="U10" s="119" t="e" cm="1">
         <f t="array" ref="U10">INDEX(Page2!$K$9:$K$38, COLUMN(U10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V10" s="300" t="e" cm="1">
+      <c r="V10" s="119" t="e" cm="1">
         <f t="array" ref="V10">INDEX(Page2!$K$9:$K$38, COLUMN(V10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W10" s="300" t="e" cm="1">
+      <c r="W10" s="119" t="e" cm="1">
         <f t="array" ref="W10">INDEX(Page2!$K$9:$K$38, COLUMN(W10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X10" s="300" t="e" cm="1">
+      <c r="X10" s="119" t="e" cm="1">
         <f t="array" ref="X10">INDEX(Page2!$K$9:$K$38, COLUMN(X10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y10" s="300" t="e" cm="1">
+      <c r="Y10" s="119" t="e" cm="1">
         <f t="array" ref="Y10">INDEX(Page2!$K$9:$K$38, COLUMN(Y10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z10" s="300" t="e" cm="1">
+      <c r="Z10" s="119" t="e" cm="1">
         <f t="array" ref="Z10">INDEX(Page2!$K$9:$K$38, COLUMN(Z10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA10" s="300" t="e" cm="1">
+      <c r="AA10" s="119" t="e" cm="1">
         <f t="array" ref="AA10">INDEX(Page2!$K$9:$K$38, COLUMN(AA10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB10" s="300" t="e" cm="1">
+      <c r="AB10" s="119" t="e" cm="1">
         <f t="array" ref="AB10">INDEX(Page2!$K$9:$K$38, COLUMN(AB10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC10" s="300" t="e" cm="1">
+      <c r="AC10" s="119" t="e" cm="1">
         <f t="array" ref="AC10">INDEX(Page2!$K$9:$K$38, COLUMN(AC10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="300" t="e" cm="1">
+      <c r="AD10" s="119" t="e" cm="1">
         <f t="array" ref="AD10">INDEX(Page2!$K$9:$K$38, COLUMN(AD10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE10" s="300" t="e" cm="1">
+      <c r="AE10" s="119" t="e" cm="1">
         <f t="array" ref="AE10">INDEX(Page2!$K$9:$K$38, COLUMN(AE10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF10" s="300" t="e" cm="1">
+      <c r="AF10" s="119" t="e" cm="1">
         <f t="array" ref="AF10">INDEX(Page2!$K$9:$K$38, COLUMN(AF10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG10" s="300" t="e" cm="1">
+      <c r="AG10" s="119" t="e" cm="1">
         <f t="array" ref="AG10">INDEX(Page2!$K$9:$K$38, COLUMN(AG10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH10" s="300" t="e" cm="1">
+      <c r="AH10" s="119" t="e" cm="1">
         <f t="array" ref="AH10">INDEX(Page2!$K$9:$K$38, COLUMN(AH10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI10" s="300" t="e" cm="1">
+      <c r="AI10" s="119" t="e" cm="1">
         <f t="array" ref="AI10">INDEX(Page2!$K$9:$K$38, COLUMN(AI10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ10" s="300" t="e" cm="1">
+      <c r="AJ10" s="119" t="e" cm="1">
         <f t="array" ref="AJ10">INDEX(Page2!$K$9:$K$38, COLUMN(AJ10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK10" s="300" t="e" cm="1">
+      <c r="AK10" s="119" t="e" cm="1">
         <f t="array" ref="AK10">INDEX(Page2!$K$9:$K$38, COLUMN(AK10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL10" s="300" t="e" cm="1">
+      <c r="AL10" s="119" t="e" cm="1">
         <f t="array" ref="AL10">INDEX(Page2!$K$9:$K$38, COLUMN(AL10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM10" s="300" t="e" cm="1">
+      <c r="AM10" s="119" t="e" cm="1">
         <f t="array" ref="AM10">INDEX(Page2!$K$9:$K$38, COLUMN(AM10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN10" s="300" t="e" cm="1">
+      <c r="AN10" s="119" t="e" cm="1">
         <f t="array" ref="AN10">INDEX(Page2!$K$9:$K$38, COLUMN(AN10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO10" s="301" t="e">
+      <c r="AO10" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP10" s="296" t="e">
+      <c r="AP10" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ10" s="302" t="e">
+      <c r="AQ10" s="121" t="e">
         <f>(AO10-H10)/(3*AP10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR10" s="303" t="e">
+      <c r="AR10" s="122" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS10" s="303" t="e">
+      <c r="AS10" s="122" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -12650,174 +12657,174 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:46" s="299" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="289">
+    <row r="11" spans="1:46" s="118" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="108">
         <v>9</v>
       </c>
-      <c r="B11" s="290" t="s">
+      <c r="B11" s="109" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="291" t="s">
+      <c r="C11" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="292" t="s">
+      <c r="D11" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="292" t="s">
+      <c r="E11" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="292" t="s">
+      <c r="F11" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="293" t="s">
+      <c r="G11" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="293" t="s">
+      <c r="H11" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="I11" s="293" t="s">
+      <c r="I11" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="293" t="s">
+      <c r="J11" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="300" t="e" cm="1">
+      <c r="K11" s="119" t="e" cm="1">
         <f t="array" ref="K11">INDEX(Page3!$K$9:$K$38, COLUMN(K11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="300" t="e" cm="1">
+      <c r="L11" s="119" t="e" cm="1">
         <f t="array" ref="L11">INDEX(Page3!$K$9:$K$38, COLUMN(L11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="300" t="e" cm="1">
+      <c r="M11" s="119" t="e" cm="1">
         <f t="array" ref="M11">INDEX(Page3!$K$9:$K$38, COLUMN(M11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="300" t="e" cm="1">
+      <c r="N11" s="119" t="e" cm="1">
         <f t="array" ref="N11">INDEX(Page3!$K$9:$K$38, COLUMN(N11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="300" t="e" cm="1">
+      <c r="O11" s="119" t="e" cm="1">
         <f t="array" ref="O11">INDEX(Page3!$K$9:$K$38, COLUMN(O11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P11" s="300" t="e" cm="1">
+      <c r="P11" s="119" t="e" cm="1">
         <f t="array" ref="P11">INDEX(Page3!$K$9:$K$38, COLUMN(P11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="300" t="e" cm="1">
+      <c r="Q11" s="119" t="e" cm="1">
         <f t="array" ref="Q11">INDEX(Page3!$K$9:$K$38, COLUMN(Q11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="300" t="e" cm="1">
+      <c r="R11" s="119" t="e" cm="1">
         <f t="array" ref="R11">INDEX(Page3!$K$9:$K$38, COLUMN(R11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="300" t="e" cm="1">
+      <c r="S11" s="119" t="e" cm="1">
         <f t="array" ref="S11">INDEX(Page3!$K$9:$K$38, COLUMN(S11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T11" s="300" t="e" cm="1">
+      <c r="T11" s="119" t="e" cm="1">
         <f t="array" ref="T11">INDEX(Page3!$K$9:$K$38, COLUMN(T11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U11" s="300" t="e" cm="1">
+      <c r="U11" s="119" t="e" cm="1">
         <f t="array" ref="U11">INDEX(Page3!$K$9:$K$38, COLUMN(U11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V11" s="300" t="e" cm="1">
+      <c r="V11" s="119" t="e" cm="1">
         <f t="array" ref="V11">INDEX(Page3!$K$9:$K$38, COLUMN(V11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W11" s="300" t="e" cm="1">
+      <c r="W11" s="119" t="e" cm="1">
         <f t="array" ref="W11">INDEX(Page3!$K$9:$K$38, COLUMN(W11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X11" s="300" t="e" cm="1">
+      <c r="X11" s="119" t="e" cm="1">
         <f t="array" ref="X11">INDEX(Page3!$K$9:$K$38, COLUMN(X11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y11" s="300" t="e" cm="1">
+      <c r="Y11" s="119" t="e" cm="1">
         <f t="array" ref="Y11">INDEX(Page3!$K$9:$K$38, COLUMN(Y11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z11" s="300" t="e" cm="1">
+      <c r="Z11" s="119" t="e" cm="1">
         <f t="array" ref="Z11">INDEX(Page3!$K$9:$K$38, COLUMN(Z11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA11" s="300" t="e" cm="1">
+      <c r="AA11" s="119" t="e" cm="1">
         <f t="array" ref="AA11">INDEX(Page3!$K$9:$K$38, COLUMN(AA11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB11" s="300" t="e" cm="1">
+      <c r="AB11" s="119" t="e" cm="1">
         <f t="array" ref="AB11">INDEX(Page3!$K$9:$K$38, COLUMN(AB11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="300" t="e" cm="1">
+      <c r="AC11" s="119" t="e" cm="1">
         <f t="array" ref="AC11">INDEX(Page3!$K$9:$K$38, COLUMN(AC11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="300" t="e" cm="1">
+      <c r="AD11" s="119" t="e" cm="1">
         <f t="array" ref="AD11">INDEX(Page3!$K$9:$K$38, COLUMN(AD11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE11" s="300" t="e" cm="1">
+      <c r="AE11" s="119" t="e" cm="1">
         <f t="array" ref="AE11">INDEX(Page3!$K$9:$K$38, COLUMN(AE11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF11" s="300" t="e" cm="1">
+      <c r="AF11" s="119" t="e" cm="1">
         <f t="array" ref="AF11">INDEX(Page3!$K$9:$K$38, COLUMN(AF11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG11" s="300" t="e" cm="1">
+      <c r="AG11" s="119" t="e" cm="1">
         <f t="array" ref="AG11">INDEX(Page3!$K$9:$K$38, COLUMN(AG11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH11" s="300" t="e" cm="1">
+      <c r="AH11" s="119" t="e" cm="1">
         <f t="array" ref="AH11">INDEX(Page3!$K$9:$K$38, COLUMN(AH11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI11" s="300" t="e" cm="1">
+      <c r="AI11" s="119" t="e" cm="1">
         <f t="array" ref="AI11">INDEX(Page3!$K$9:$K$38, COLUMN(AI11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ11" s="300" t="e" cm="1">
+      <c r="AJ11" s="119" t="e" cm="1">
         <f t="array" ref="AJ11">INDEX(Page3!$K$9:$K$38, COLUMN(AJ11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK11" s="300" t="e" cm="1">
+      <c r="AK11" s="119" t="e" cm="1">
         <f t="array" ref="AK11">INDEX(Page3!$K$9:$K$38, COLUMN(AK11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL11" s="300" t="e" cm="1">
+      <c r="AL11" s="119" t="e" cm="1">
         <f t="array" ref="AL11">INDEX(Page3!$K$9:$K$38, COLUMN(AL11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM11" s="300" t="e" cm="1">
+      <c r="AM11" s="119" t="e" cm="1">
         <f t="array" ref="AM11">INDEX(Page3!$K$9:$K$38, COLUMN(AM11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN11" s="300" t="e" cm="1">
+      <c r="AN11" s="119" t="e" cm="1">
         <f t="array" ref="AN11">INDEX(Page3!$K$9:$K$38, COLUMN(AN11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO11" s="301" t="e">
+      <c r="AO11" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP11" s="296" t="e">
+      <c r="AP11" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ11" s="302" t="e">
+      <c r="AQ11" s="121" t="e">
         <f>(AO11-H11)/(3*AP11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR11" s="303" t="e">
+      <c r="AR11" s="122" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS11" s="303" t="e">
+      <c r="AS11" s="122" t="e">
         <f>MAX(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12826,174 +12833,174 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:46" s="299" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="289">
+    <row r="12" spans="1:46" s="118" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="108">
         <v>10</v>
       </c>
-      <c r="B12" s="290" t="s">
+      <c r="B12" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="291" t="s">
+      <c r="C12" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="292" t="s">
+      <c r="D12" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="292" t="s">
+      <c r="E12" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="292" t="s">
+      <c r="F12" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="293" t="s">
+      <c r="G12" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="293" t="s">
+      <c r="H12" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="293" t="s">
+      <c r="I12" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="293" t="s">
+      <c r="J12" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="K12" s="300" t="e" cm="1">
+      <c r="K12" s="119" t="e" cm="1">
         <f t="array" ref="K12">INDEX(Page2!$O$9:$O$38, COLUMN(K12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="300" t="e" cm="1">
+      <c r="L12" s="119" t="e" cm="1">
         <f t="array" ref="L12">INDEX(Page2!$O$9:$O$38, COLUMN(L12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="300" t="e" cm="1">
+      <c r="M12" s="119" t="e" cm="1">
         <f t="array" ref="M12">INDEX(Page2!$O$9:$O$38, COLUMN(M12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="300" t="e" cm="1">
+      <c r="N12" s="119" t="e" cm="1">
         <f t="array" ref="N12">INDEX(Page2!$O$9:$O$38, COLUMN(N12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O12" s="300" t="e" cm="1">
+      <c r="O12" s="119" t="e" cm="1">
         <f t="array" ref="O12">INDEX(Page2!$O$9:$O$38, COLUMN(O12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="300" t="e" cm="1">
+      <c r="P12" s="119" t="e" cm="1">
         <f t="array" ref="P12">INDEX(Page2!$O$9:$O$38, COLUMN(P12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q12" s="300" t="e" cm="1">
+      <c r="Q12" s="119" t="e" cm="1">
         <f t="array" ref="Q12">INDEX(Page2!$O$9:$O$38, COLUMN(Q12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R12" s="300" t="e" cm="1">
+      <c r="R12" s="119" t="e" cm="1">
         <f t="array" ref="R12">INDEX(Page2!$O$9:$O$38, COLUMN(R12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S12" s="300" t="e" cm="1">
+      <c r="S12" s="119" t="e" cm="1">
         <f t="array" ref="S12">INDEX(Page2!$O$9:$O$38, COLUMN(S12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T12" s="300" t="e" cm="1">
+      <c r="T12" s="119" t="e" cm="1">
         <f t="array" ref="T12">INDEX(Page2!$O$9:$O$38, COLUMN(T12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U12" s="300" t="e" cm="1">
+      <c r="U12" s="119" t="e" cm="1">
         <f t="array" ref="U12">INDEX(Page2!$O$9:$O$38, COLUMN(U12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V12" s="300" t="e" cm="1">
+      <c r="V12" s="119" t="e" cm="1">
         <f t="array" ref="V12">INDEX(Page2!$O$9:$O$38, COLUMN(V12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W12" s="300" t="e" cm="1">
+      <c r="W12" s="119" t="e" cm="1">
         <f t="array" ref="W12">INDEX(Page2!$O$9:$O$38, COLUMN(W12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X12" s="300" t="e" cm="1">
+      <c r="X12" s="119" t="e" cm="1">
         <f t="array" ref="X12">INDEX(Page2!$O$9:$O$38, COLUMN(X12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y12" s="300" t="e" cm="1">
+      <c r="Y12" s="119" t="e" cm="1">
         <f t="array" ref="Y12">INDEX(Page2!$O$9:$O$38, COLUMN(Y12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z12" s="300" t="e" cm="1">
+      <c r="Z12" s="119" t="e" cm="1">
         <f t="array" ref="Z12">INDEX(Page2!$O$9:$O$38, COLUMN(Z12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA12" s="300" t="e" cm="1">
+      <c r="AA12" s="119" t="e" cm="1">
         <f t="array" ref="AA12">INDEX(Page2!$O$9:$O$38, COLUMN(AA12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB12" s="300" t="e" cm="1">
+      <c r="AB12" s="119" t="e" cm="1">
         <f t="array" ref="AB12">INDEX(Page2!$O$9:$O$38, COLUMN(AB12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="300" t="e" cm="1">
+      <c r="AC12" s="119" t="e" cm="1">
         <f t="array" ref="AC12">INDEX(Page2!$O$9:$O$38, COLUMN(AC12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" s="300" t="e" cm="1">
+      <c r="AD12" s="119" t="e" cm="1">
         <f t="array" ref="AD12">INDEX(Page2!$O$9:$O$38, COLUMN(AD12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE12" s="300" t="e" cm="1">
+      <c r="AE12" s="119" t="e" cm="1">
         <f t="array" ref="AE12">INDEX(Page2!$O$9:$O$38, COLUMN(AE12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF12" s="300" t="e" cm="1">
+      <c r="AF12" s="119" t="e" cm="1">
         <f t="array" ref="AF12">INDEX(Page2!$O$9:$O$38, COLUMN(AF12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG12" s="300" t="e" cm="1">
+      <c r="AG12" s="119" t="e" cm="1">
         <f t="array" ref="AG12">INDEX(Page2!$O$9:$O$38, COLUMN(AG12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH12" s="300" t="e" cm="1">
+      <c r="AH12" s="119" t="e" cm="1">
         <f t="array" ref="AH12">INDEX(Page2!$O$9:$O$38, COLUMN(AH12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="300" t="e" cm="1">
+      <c r="AI12" s="119" t="e" cm="1">
         <f t="array" ref="AI12">INDEX(Page2!$O$9:$O$38, COLUMN(AI12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ12" s="300" t="e" cm="1">
+      <c r="AJ12" s="119" t="e" cm="1">
         <f t="array" ref="AJ12">INDEX(Page2!$O$9:$O$38, COLUMN(AJ12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK12" s="300" t="e" cm="1">
+      <c r="AK12" s="119" t="e" cm="1">
         <f t="array" ref="AK12">INDEX(Page2!$O$9:$O$38, COLUMN(AK12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL12" s="300" t="e" cm="1">
+      <c r="AL12" s="119" t="e" cm="1">
         <f t="array" ref="AL12">INDEX(Page2!$O$9:$O$38, COLUMN(AL12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM12" s="300" t="e" cm="1">
+      <c r="AM12" s="119" t="e" cm="1">
         <f t="array" ref="AM12">INDEX(Page2!$O$9:$O$38, COLUMN(AM12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN12" s="300" t="e" cm="1">
+      <c r="AN12" s="119" t="e" cm="1">
         <f t="array" ref="AN12">INDEX(Page2!$O$9:$O$38, COLUMN(AN12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO12" s="301" t="e">
+      <c r="AO12" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP12" s="296" t="e">
+      <c r="AP12" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ12" s="302" t="e">
+      <c r="AQ12" s="1